--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91059</v>
+        <v>91000</v>
       </c>
       <c r="F2" t="n">
-        <v>5.535104826978297</v>
+        <v>4.148349635731534</v>
       </c>
       <c r="G2" t="n">
-        <v>33.99007259175038</v>
+        <v>32.70743122154584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>1252.63</v>
+        <v>1236.71</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>609546223</v>
+        <v>612263893</v>
       </c>
       <c r="E3" t="n">
-        <v>1182738780</v>
+        <v>1187924089</v>
       </c>
       <c r="F3" t="n">
-        <v>17234.78909904634</v>
+        <v>18111.23743705055</v>
       </c>
       <c r="G3" t="n">
-        <v>32709.48891462863</v>
+        <v>31543.04091239999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="I3" t="n">
-        <v>21368676</v>
+        <v>22251027</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243923277</v>
+        <v>244766215</v>
       </c>
       <c r="E4" t="n">
-        <v>1529608583</v>
+        <v>1534894531</v>
       </c>
       <c r="F4" t="n">
-        <v>81810.36910433561</v>
+        <v>79610.01290387785</v>
       </c>
       <c r="G4" t="n">
-        <v>98783.76378185848</v>
+        <v>68756.10682188287</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15348592</v>
+        <v>15623847</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140309150</v>
+        <v>141076399</v>
       </c>
       <c r="E5" t="n">
-        <v>155484949</v>
+        <v>156335183</v>
       </c>
       <c r="F5" t="n">
-        <v>157625.4115884889</v>
+        <v>132899.68871639</v>
       </c>
       <c r="G5" t="n">
-        <v>231446.0233946393</v>
+        <v>287741.5102212409</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>31038973</v>
+        <v>31818421</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48394103</v>
+        <v>49565935</v>
       </c>
       <c r="E6" t="n">
-        <v>60539782</v>
+        <v>62005714</v>
       </c>
       <c r="F6" t="n">
-        <v>8871.306647637854</v>
+        <v>10426.61729499791</v>
       </c>
       <c r="G6" t="n">
-        <v>12973.12666477508</v>
+        <v>15409.48115022329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="I6" t="n">
-        <v>584881</v>
+        <v>618280</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8992561</v>
+        <v>8767717</v>
       </c>
       <c r="E7" t="n">
-        <v>9219320</v>
+        <v>8988807</v>
       </c>
       <c r="F7" t="n">
-        <v>1078.93716013373</v>
+        <v>847.066870229589</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28070849027783</v>
+        <v>251.7767364551601</v>
       </c>
       <c r="H7" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>72284</v>
+        <v>69716</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69870980</v>
+        <v>68830253</v>
       </c>
       <c r="E8" t="n">
-        <v>139182794</v>
+        <v>137109668</v>
       </c>
       <c r="F8" t="n">
-        <v>20195.48938857999</v>
+        <v>44949.62774919726</v>
       </c>
       <c r="G8" t="n">
-        <v>15037.10750458531</v>
+        <v>17678.26007437697</v>
       </c>
       <c r="H8" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>1922917</v>
+        <v>1700761</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5396706</v>
+        <v>5312150</v>
       </c>
       <c r="E9" t="n">
-        <v>8622314</v>
+        <v>8487219</v>
       </c>
       <c r="F9" t="n">
-        <v>360.0654820762613</v>
+        <v>707.4198907948899</v>
       </c>
       <c r="G9" t="n">
-        <v>442.2353380212932</v>
+        <v>362.2743535026119</v>
       </c>
       <c r="H9" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I9" t="n">
-        <v>107082</v>
+        <v>106207</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14225381</v>
+        <v>14252797</v>
       </c>
       <c r="E10" t="n">
-        <v>41921278</v>
+        <v>42002073</v>
       </c>
       <c r="F10" t="n">
-        <v>3923.16450289358</v>
+        <v>3906.007843103507</v>
       </c>
       <c r="G10" t="n">
-        <v>5014.28411231732</v>
+        <v>5025.873350088516</v>
       </c>
       <c r="H10" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="I10" t="n">
-        <v>833772</v>
+        <v>817995</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127138192</v>
+        <v>126714324</v>
       </c>
       <c r="E11" t="n">
-        <v>498343643</v>
+        <v>496682210</v>
       </c>
       <c r="F11" t="n">
-        <v>38806.8843586006</v>
+        <v>40300.13798957089</v>
       </c>
       <c r="G11" t="n">
-        <v>60963.72484509787</v>
+        <v>52425.02318450178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>25552176</v>
+        <v>26468042</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7534411</v>
+        <v>7667025</v>
       </c>
       <c r="E12" t="n">
-        <v>32394070</v>
+        <v>32964123</v>
       </c>
       <c r="F12" t="n">
-        <v>940.7882309533295</v>
+        <v>185.0132859916151</v>
       </c>
       <c r="G12" t="n">
-        <v>1383.465331526385</v>
+        <v>1266.558541188863</v>
       </c>
       <c r="H12" t="n">
-        <v>0.53</v>
+        <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1035855</v>
+        <v>910572</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>997121</v>
+        <v>999645</v>
       </c>
       <c r="E13" t="n">
-        <v>12202071</v>
+        <v>12232953</v>
       </c>
       <c r="F13" t="n">
-        <v>8.571040571864943</v>
+        <v>280.9364759913576</v>
       </c>
       <c r="G13" t="n">
-        <v>372.0809355342016</v>
+        <v>198.0123864147409</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2022.79</v>
+        <v>2118.11</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>567862</v>
+        <v>562121</v>
       </c>
       <c r="E14" t="n">
-        <v>567862</v>
+        <v>562121</v>
       </c>
       <c r="F14" t="n">
-        <v>681.052593070718</v>
+        <v>22.30439255273322</v>
       </c>
       <c r="G14" t="n">
-        <v>143.8683002002038</v>
+        <v>655.3648684333756</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I14" t="n">
-        <v>25100</v>
+        <v>23877</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>547569377</v>
+        <v>546345440</v>
       </c>
       <c r="E15" t="n">
-        <v>684927907</v>
+        <v>683396944</v>
       </c>
       <c r="F15" t="n">
-        <v>383519.7097748147</v>
+        <v>393609.0624577455</v>
       </c>
       <c r="G15" t="n">
-        <v>527987.0369782629</v>
+        <v>484655.7661289344</v>
       </c>
       <c r="H15" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I15" t="n">
-        <v>60311229</v>
+        <v>61213523</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3360660</v>
+        <v>3360987</v>
       </c>
       <c r="E16" t="n">
-        <v>9560781</v>
+        <v>9561712</v>
       </c>
       <c r="F16" t="n">
-        <v>213.3016300383361</v>
+        <v>182.4193538764391</v>
       </c>
       <c r="G16" t="n">
-        <v>85.50022142152562</v>
+        <v>396.0756319991165</v>
       </c>
       <c r="H16" t="n">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="I16" t="n">
-        <v>237165</v>
+        <v>236545</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>308977</v>
+        <v>315119</v>
       </c>
       <c r="E17" t="n">
-        <v>3566291</v>
+        <v>3637188</v>
       </c>
       <c r="F17" t="n">
-        <v>18.01707290870196</v>
+        <v>19.10402211099048</v>
       </c>
       <c r="G17" t="n">
-        <v>4.180673763290025</v>
+        <v>3.920417597639899</v>
       </c>
       <c r="H17" t="n">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
       <c r="I17" t="n">
-        <v>3206.09</v>
+        <v>3166.5</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1435888</v>
+        <v>1458406</v>
       </c>
       <c r="E18" t="n">
-        <v>11014116</v>
+        <v>11186839</v>
       </c>
       <c r="F18" t="n">
-        <v>143.1109309687907</v>
+        <v>184.0601625460143</v>
       </c>
       <c r="G18" t="n">
-        <v>469.5995861831082</v>
+        <v>286.1570292318015</v>
       </c>
       <c r="H18" t="n">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
       <c r="I18" t="n">
-        <v>123850</v>
+        <v>149112</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22676299</v>
+        <v>22647566</v>
       </c>
       <c r="E19" t="n">
-        <v>22718757</v>
+        <v>22689970</v>
       </c>
       <c r="F19" t="n">
-        <v>1087.787463046631</v>
+        <v>713.8202224214342</v>
       </c>
       <c r="G19" t="n">
-        <v>2354.281834510356</v>
+        <v>2792.78479404865</v>
       </c>
       <c r="H19" t="n">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="I19" t="n">
-        <v>824540</v>
+        <v>845151</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3775725</v>
+        <v>3720295</v>
       </c>
       <c r="E20" t="n">
-        <v>20949959</v>
+        <v>20642397</v>
       </c>
       <c r="F20" t="n">
-        <v>5.371348235831604</v>
+        <v>52.6865375867526</v>
       </c>
       <c r="G20" t="n">
-        <v>3.329610329224672</v>
+        <v>5.544243493172649</v>
       </c>
       <c r="H20" t="n">
-        <v>1.03</v>
+        <v>0.72</v>
       </c>
       <c r="I20" t="n">
-        <v>55495</v>
+        <v>55978</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7001241</v>
+        <v>6994205</v>
       </c>
       <c r="E21" t="n">
-        <v>12988778</v>
+        <v>12975726</v>
       </c>
       <c r="F21" t="n">
-        <v>352.046100897491</v>
+        <v>280.4436964440127</v>
       </c>
       <c r="G21" t="n">
-        <v>50.90794088037915</v>
+        <v>316.7133599976557</v>
       </c>
       <c r="H21" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>45921</v>
+        <v>47741</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72516557</v>
+        <v>71806299</v>
       </c>
       <c r="E22" t="n">
-        <v>125638235</v>
+        <v>124401730</v>
       </c>
       <c r="F22" t="n">
-        <v>215.0165399560745</v>
+        <v>1944.505458141393</v>
       </c>
       <c r="G22" t="n">
-        <v>648.579573153448</v>
+        <v>609.8715472672445</v>
       </c>
       <c r="H22" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>707515</v>
+        <v>681897</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>176651</v>
+        <v>176697</v>
       </c>
       <c r="E23" t="n">
-        <v>531280</v>
+        <v>531420</v>
       </c>
       <c r="F23" t="n">
-        <v>4.01744388755812</v>
+        <v>3.934084466021373</v>
       </c>
       <c r="G23" t="n">
-        <v>5.364508998166505</v>
+        <v>5.35345920466213</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="I23" t="n">
-        <v>40.84</v>
+        <v>49.04</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82787081</v>
+        <v>82326320</v>
       </c>
       <c r="E24" t="n">
-        <v>243664907</v>
+        <v>242308760</v>
       </c>
       <c r="F24" t="n">
-        <v>251.4594620714032</v>
+        <v>553.1943137577975</v>
       </c>
       <c r="G24" t="n">
-        <v>626.0454674345735</v>
+        <v>142.9743311132794</v>
       </c>
       <c r="H24" t="n">
         <v>0.57</v>
       </c>
       <c r="I24" t="n">
-        <v>406749</v>
+        <v>399112</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7012427</v>
+        <v>6964442</v>
       </c>
       <c r="F25" t="n">
-        <v>222.2271679694883</v>
+        <v>240.4077607359384</v>
       </c>
       <c r="G25" t="n">
-        <v>5.213851727377252</v>
+        <v>5.284232683643443</v>
       </c>
       <c r="H25" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I25" t="n">
-        <v>27704</v>
+        <v>26239</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2446742</v>
+        <v>2455273</v>
       </c>
       <c r="E26" t="n">
-        <v>2446742</v>
+        <v>2455273</v>
       </c>
       <c r="F26" t="n">
-        <v>159.6366309321287</v>
+        <v>168.4236022078089</v>
       </c>
       <c r="G26" t="n">
-        <v>605.3095166725884</v>
+        <v>525.0415122099946</v>
       </c>
       <c r="H26" t="n">
-        <v>3.31</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>323298</v>
+        <v>286158</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19900703</v>
+        <v>19539802</v>
       </c>
       <c r="E27" t="n">
-        <v>25613835</v>
+        <v>25149326</v>
       </c>
       <c r="F27" t="n">
-        <v>4029.055870348009</v>
+        <v>3444.730855758937</v>
       </c>
       <c r="G27" t="n">
-        <v>1647.356317176546</v>
+        <v>1860.59641986154</v>
       </c>
       <c r="H27" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="I27" t="n">
-        <v>2184820</v>
+        <v>2223153</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4694830</v>
+        <v>4698484</v>
       </c>
       <c r="E28" t="n">
-        <v>4694830</v>
+        <v>4698484</v>
       </c>
       <c r="F28" t="n">
-        <v>1326.118020308384</v>
+        <v>4164.911072865443</v>
       </c>
       <c r="G28" t="n">
-        <v>2191.914490449486</v>
+        <v>2181.393277257916</v>
       </c>
       <c r="H28" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>1979335</v>
+        <v>1936202</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1729750</v>
+        <v>1715557</v>
       </c>
       <c r="F29" t="n">
-        <v>32.63902677334013</v>
+        <v>111.8524334876231</v>
       </c>
       <c r="G29" t="n">
-        <v>50.82031129058066</v>
+        <v>72.92892335020251</v>
       </c>
       <c r="H29" t="n">
-        <v>3.01</v>
+        <v>2.29</v>
       </c>
       <c r="I29" t="n">
-        <v>94217</v>
+        <v>102508</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3651303</v>
+        <v>3510047</v>
       </c>
       <c r="E30" t="n">
-        <v>3651303</v>
+        <v>3510047</v>
       </c>
       <c r="F30" t="n">
-        <v>494.0185622711644</v>
+        <v>647.5648481105812</v>
       </c>
       <c r="G30" t="n">
-        <v>666.8629477572596</v>
+        <v>488.7737589381227</v>
       </c>
       <c r="H30" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>524322</v>
+        <v>430062</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>314851</v>
+        <v>303974</v>
       </c>
       <c r="E31" t="n">
-        <v>1469754</v>
+        <v>1418984</v>
       </c>
       <c r="F31" t="n">
-        <v>188.5803773199955</v>
+        <v>90.56495128583467</v>
       </c>
       <c r="G31" t="n">
-        <v>87.41711622649798</v>
+        <v>111.1848017205947</v>
       </c>
       <c r="H31" t="n">
-        <v>1.37</v>
+        <v>2.84</v>
       </c>
       <c r="I31" t="n">
-        <v>608751</v>
+        <v>599353</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>346068</v>
+        <v>344855</v>
       </c>
       <c r="E32" t="n">
-        <v>346068</v>
+        <v>344855</v>
       </c>
       <c r="F32" t="n">
-        <v>3.987695428932161</v>
+        <v>5.447303366715546</v>
       </c>
       <c r="G32" t="n">
-        <v>299.7675404684175</v>
+        <v>420.1795308607837</v>
       </c>
       <c r="H32" t="n">
         <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>51059</v>
+        <v>50145</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1974150</v>
+        <v>1969503</v>
       </c>
       <c r="F33" t="n">
-        <v>7.992055328094985</v>
+        <v>8.019744476501391</v>
       </c>
       <c r="G33" t="n">
-        <v>4.105412329146524</v>
+        <v>4.011278206144042</v>
       </c>
       <c r="H33" t="n">
         <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>1346831</v>
+        <v>1386822</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1547677</v>
+        <v>1541157</v>
       </c>
       <c r="F34" t="n">
-        <v>135.4964752691435</v>
+        <v>135.4422492974287</v>
       </c>
       <c r="G34" t="n">
-        <v>136.6624180901831</v>
+        <v>110.1992061928806</v>
       </c>
       <c r="H34" t="n">
         <v>0.26</v>
       </c>
       <c r="I34" t="n">
-        <v>171098</v>
+        <v>111649</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12207796</v>
+        <v>12513935</v>
       </c>
       <c r="E35" t="n">
-        <v>32953523</v>
+        <v>32895545</v>
       </c>
       <c r="F35" t="n">
-        <v>1597.57449091409</v>
+        <v>1239.391175716314</v>
       </c>
       <c r="G35" t="n">
-        <v>1609.442685974554</v>
+        <v>1894.703044196693</v>
       </c>
       <c r="H35" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1799247</v>
+        <v>1652540</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7326876</v>
+        <v>7287208</v>
       </c>
       <c r="E36" t="n">
-        <v>10090980</v>
+        <v>10036347</v>
       </c>
       <c r="F36" t="n">
-        <v>2056.705598147192</v>
+        <v>928.121135788599</v>
       </c>
       <c r="G36" t="n">
-        <v>20.59714564118259</v>
+        <v>418.8681448764976</v>
       </c>
       <c r="H36" t="n">
-        <v>0.45</v>
+        <v>2.28</v>
       </c>
       <c r="I36" t="n">
-        <v>1129240</v>
+        <v>1087273</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>914184</v>
+        <v>919009</v>
       </c>
       <c r="E37" t="n">
-        <v>6399288</v>
+        <v>6433060</v>
       </c>
       <c r="F37" t="n">
-        <v>118.4051091836216</v>
+        <v>106.4766339467238</v>
       </c>
       <c r="G37" t="n">
-        <v>3476.416406546385</v>
+        <v>2515.947371104682</v>
       </c>
       <c r="H37" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="I37" t="n">
-        <v>601578</v>
+        <v>581957</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>107860345</v>
+        <v>107647707</v>
       </c>
       <c r="E38" t="n">
-        <v>420079987</v>
+        <v>419203260</v>
       </c>
       <c r="F38" t="n">
-        <v>13427.49819257564</v>
+        <v>12945.25732747523</v>
       </c>
       <c r="G38" t="n">
-        <v>30583.63702092279</v>
+        <v>27234.06897661346</v>
       </c>
       <c r="H38" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I38" t="n">
-        <v>6447323</v>
+        <v>6415480</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5577535</v>
+        <v>5465364</v>
       </c>
       <c r="E39" t="n">
-        <v>5844365</v>
+        <v>5726827</v>
       </c>
       <c r="F39" t="n">
-        <v>87.14173041142115</v>
+        <v>92.87076006713701</v>
       </c>
       <c r="G39" t="n">
-        <v>3788.788086398192</v>
+        <v>3146.164611270343</v>
       </c>
       <c r="H39" t="n">
         <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>152223</v>
+        <v>213507</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5290488</v>
+        <v>5238828</v>
       </c>
       <c r="E40" t="n">
-        <v>7787885</v>
+        <v>7711839</v>
       </c>
       <c r="F40" t="n">
-        <v>1872.406257249779</v>
+        <v>1722.513647461768</v>
       </c>
       <c r="G40" t="n">
-        <v>2355.473328567293</v>
+        <v>1999.524841858916</v>
       </c>
       <c r="H40" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="I40" t="n">
-        <v>556556</v>
+        <v>541852</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7676065</v>
+        <v>7651581</v>
       </c>
       <c r="E41" t="n">
-        <v>7676065</v>
+        <v>7651581</v>
       </c>
       <c r="F41" t="n">
-        <v>2258.73398245693</v>
+        <v>2221.79436358707</v>
       </c>
       <c r="G41" t="n">
-        <v>1450.157481213787</v>
+        <v>892.6176483783047</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I41" t="n">
-        <v>237627</v>
+        <v>246906</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1531841</v>
+        <v>1489710</v>
       </c>
       <c r="E42" t="n">
-        <v>1531841</v>
+        <v>1489710</v>
       </c>
       <c r="F42" t="n">
-        <v>334.4961838072142</v>
+        <v>123.9283756770903</v>
       </c>
       <c r="G42" t="n">
-        <v>205.3017714741959</v>
+        <v>21.37585124389515</v>
       </c>
       <c r="H42" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="I42" t="n">
-        <v>278040</v>
+        <v>275940</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16662997</v>
+        <v>16517594</v>
       </c>
       <c r="F43" t="n">
-        <v>298.4942119685026</v>
+        <v>288.3194540342071</v>
       </c>
       <c r="G43" t="n">
-        <v>487.4523218670143</v>
+        <v>443.9321790871976</v>
       </c>
       <c r="H43" t="n">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="I43" t="n">
-        <v>10562.49</v>
+        <v>11377.18</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>135393359</v>
+        <v>134958656</v>
       </c>
       <c r="E44" t="n">
-        <v>135393359</v>
+        <v>134958656</v>
       </c>
       <c r="F44" t="n">
-        <v>317423.6542652007</v>
+        <v>273964.6789706108</v>
       </c>
       <c r="G44" t="n">
-        <v>410285.0073218736</v>
+        <v>448822.3591222249</v>
       </c>
       <c r="H44" t="n">
         <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>65672311</v>
+        <v>66611215</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65783718</v>
+        <v>64679862</v>
       </c>
       <c r="E45" t="n">
-        <v>337352402</v>
+        <v>331691602</v>
       </c>
       <c r="F45" t="n">
-        <v>55028.90024062918</v>
+        <v>53534.37420850196</v>
       </c>
       <c r="G45" t="n">
-        <v>53249.14831576005</v>
+        <v>57765.77295462491</v>
       </c>
       <c r="H45" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>15893774</v>
+        <v>16494708</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>591508</v>
+        <v>593352</v>
       </c>
       <c r="F46" t="n">
-        <v>193.4611030406247</v>
+        <v>148.0792175320141</v>
       </c>
       <c r="G46" t="n">
-        <v>208.1091366128456</v>
+        <v>372.8216797749258</v>
       </c>
       <c r="H46" t="n">
-        <v>0.63</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>381.67</v>
+        <v>436.5</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2711659</v>
+        <v>2777702</v>
       </c>
       <c r="E47" t="n">
-        <v>10897541</v>
+        <v>11162953</v>
       </c>
       <c r="F47" t="n">
-        <v>268.6011775366835</v>
+        <v>318.9325484766292</v>
       </c>
       <c r="G47" t="n">
-        <v>206.9233367696273</v>
+        <v>29.78658288175909</v>
       </c>
       <c r="H47" t="n">
-        <v>2.65</v>
+        <v>0.9</v>
       </c>
       <c r="I47" t="n">
-        <v>24811</v>
+        <v>27432</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17377425</v>
+        <v>17404273</v>
       </c>
       <c r="E48" t="n">
-        <v>122572245</v>
+        <v>122754481</v>
       </c>
       <c r="F48" t="n">
-        <v>1388.161466579793</v>
+        <v>1501.706294537969</v>
       </c>
       <c r="G48" t="n">
-        <v>5003.260348183129</v>
+        <v>1056.887435080689</v>
       </c>
       <c r="H48" t="n">
-        <v>0.29</v>
+        <v>1.41</v>
       </c>
       <c r="I48" t="n">
-        <v>1056716</v>
+        <v>968940</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1018454</v>
+        <v>1037517</v>
       </c>
       <c r="E49" t="n">
-        <v>1195422</v>
+        <v>1217797</v>
       </c>
       <c r="F49" t="n">
-        <v>2103.219889277336</v>
+        <v>941.2864420520101</v>
       </c>
       <c r="G49" t="n">
-        <v>2205.736080312704</v>
+        <v>477.5518728703473</v>
       </c>
       <c r="H49" t="n">
-        <v>0.65</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>263616</v>
+        <v>268509</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>147229</v>
+        <v>148086</v>
       </c>
       <c r="E50" t="n">
-        <v>1970006</v>
+        <v>1981467</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46198</v>
+        <v>46903</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>253099368</v>
+        <v>252275289</v>
       </c>
       <c r="E51" t="n">
-        <v>253099368</v>
+        <v>252275289</v>
       </c>
       <c r="F51" t="n">
-        <v>23745.019537679</v>
+        <v>23760.53126093356</v>
       </c>
       <c r="G51" t="n">
-        <v>24169.00359637235</v>
+        <v>44758.63801706107</v>
       </c>
       <c r="H51" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I51" t="n">
-        <v>14137724</v>
+        <v>14350812</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1124312</v>
+        <v>1120365</v>
       </c>
       <c r="F52" t="n">
-        <v>64.38047946971059</v>
+        <v>64.50664223924403</v>
       </c>
       <c r="G52" t="n">
-        <v>3.953048446497391</v>
+        <v>4.042972355861989</v>
       </c>
       <c r="H52" t="n">
         <v>0.7</v>
       </c>
       <c r="I52" t="n">
-        <v>190213</v>
+        <v>190242</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115692</v>
+        <v>114987</v>
       </c>
       <c r="E54" t="n">
-        <v>115692</v>
+        <v>114987</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>11.4</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5945352</v>
+        <v>6685610</v>
       </c>
       <c r="E55" t="n">
-        <v>14440801</v>
+        <v>16238833</v>
       </c>
       <c r="F55" t="n">
-        <v>2001.563714968823</v>
+        <v>301.3497326546264</v>
       </c>
       <c r="G55" t="n">
-        <v>760.8060622681791</v>
+        <v>45.22164718154996</v>
       </c>
       <c r="H55" t="n">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
       <c r="I55" t="n">
-        <v>412086</v>
+        <v>434121</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>438758505</v>
+        <v>441196302</v>
       </c>
       <c r="E56" t="n">
-        <v>438758505</v>
+        <v>441196302</v>
       </c>
       <c r="F56" t="n">
-        <v>6624.13522716017</v>
+        <v>4304.185220253739</v>
       </c>
       <c r="G56" t="n">
-        <v>3312.794586950051</v>
+        <v>4999.021825029347</v>
       </c>
       <c r="H56" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I56" t="n">
-        <v>2752216</v>
+        <v>2613155</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2541199</v>
+        <v>2520765</v>
       </c>
       <c r="E57" t="n">
-        <v>2541199</v>
+        <v>2520765</v>
       </c>
       <c r="F57" t="n">
-        <v>67.11515660761052</v>
+        <v>4.058277019564257</v>
       </c>
       <c r="G57" t="n">
-        <v>5.498172469572935</v>
+        <v>4.09447177306956</v>
       </c>
       <c r="H57" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="I57" t="n">
-        <v>113695</v>
+        <v>112041</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>154982894</v>
+        <v>154083766</v>
       </c>
       <c r="E58" t="n">
-        <v>203939363</v>
+        <v>202756215</v>
       </c>
       <c r="F58" t="n">
-        <v>14903.00706240524</v>
+        <v>11375.10184807757</v>
       </c>
       <c r="G58" t="n">
-        <v>9834.833663506688</v>
+        <v>13485.47629192517</v>
       </c>
       <c r="H58" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I58" t="n">
-        <v>6398722</v>
+        <v>7143665</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1119794</v>
+        <v>1116369</v>
       </c>
       <c r="E59" t="n">
-        <v>12169504</v>
+        <v>12132282</v>
       </c>
       <c r="F59" t="n">
-        <v>520.7157623521038</v>
+        <v>554.2651108446532</v>
       </c>
       <c r="G59" t="n">
-        <v>168.061216210061</v>
+        <v>155.3729696848602</v>
       </c>
       <c r="H59" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="I59" t="n">
-        <v>18195.81</v>
+        <v>26755</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2531677</v>
+        <v>2539030</v>
       </c>
       <c r="E60" t="n">
-        <v>6472451</v>
+        <v>6491250</v>
       </c>
       <c r="F60" t="n">
-        <v>180.5152466839029</v>
+        <v>248.4375141586195</v>
       </c>
       <c r="G60" t="n">
-        <v>243.2659100175882</v>
+        <v>292.190102882647</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="I60" t="n">
-        <v>85158</v>
+        <v>84545</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>75747858</v>
+        <v>75696274</v>
       </c>
       <c r="E61" t="n">
-        <v>212010972</v>
+        <v>211828480</v>
       </c>
       <c r="F61" t="n">
-        <v>52967.32869430045</v>
+        <v>77302.62831966276</v>
       </c>
       <c r="G61" t="n">
-        <v>79456.02093424322</v>
+        <v>66160.60949107258</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>23651789</v>
+        <v>29680644</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74823064</v>
+        <v>75011436</v>
       </c>
       <c r="E62" t="n">
-        <v>74823064</v>
+        <v>75011436</v>
       </c>
       <c r="F62" t="n">
-        <v>3755.694678500508</v>
+        <v>6315.192356372824</v>
       </c>
       <c r="G62" t="n">
-        <v>4296.546707950496</v>
+        <v>4354.610624385061</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="I62" t="n">
-        <v>4780994</v>
+        <v>4747359</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4526428</v>
+        <v>4432608</v>
       </c>
       <c r="E63" t="n">
-        <v>8926498</v>
+        <v>8741476</v>
       </c>
       <c r="F63" t="n">
-        <v>2949.317577090565</v>
+        <v>2096.933572794973</v>
       </c>
       <c r="G63" t="n">
-        <v>3063.218701620056</v>
+        <v>1651.900425652062</v>
       </c>
       <c r="H63" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I63" t="n">
-        <v>1713212</v>
+        <v>1697459</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1507945</v>
+        <v>1574334</v>
       </c>
       <c r="E64" t="n">
-        <v>8658056</v>
+        <v>9039237</v>
       </c>
       <c r="F64" t="n">
-        <v>812.2621771193712</v>
+        <v>5.92397772046892</v>
       </c>
       <c r="G64" t="n">
-        <v>230.7874759872356</v>
+        <v>3.999465915675752</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7</v>
+        <v>1.56</v>
       </c>
       <c r="I64" t="n">
-        <v>261262</v>
+        <v>324931</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>583078</v>
+        <v>598756</v>
       </c>
       <c r="F65" t="n">
-        <v>4.123275027802148</v>
+        <v>97.34742543738</v>
       </c>
       <c r="G65" t="n">
-        <v>4.154840812633249</v>
+        <v>4.057018919873201</v>
       </c>
       <c r="H65" t="n">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
       <c r="I65" t="n">
-        <v>2763.12</v>
+        <v>2648.96</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>32239484</v>
+        <v>32169520</v>
       </c>
       <c r="F66" t="n">
-        <v>923.4053300086164</v>
+        <v>817.9528416556827</v>
       </c>
       <c r="G66" t="n">
-        <v>272.1780124572313</v>
+        <v>450.4681374691107</v>
       </c>
       <c r="H66" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I66" t="n">
-        <v>256062</v>
+        <v>253766</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>154079</v>
+        <v>153344</v>
       </c>
       <c r="E67" t="n">
-        <v>1040515</v>
+        <v>1035546</v>
       </c>
       <c r="F67" t="n">
-        <v>3.817215085246549</v>
+        <v>4.177132305252281</v>
       </c>
       <c r="G67" t="n">
-        <v>203.2374855693431</v>
+        <v>186.8241158900275</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I67" t="n">
-        <v>2632818</v>
+        <v>2624172</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7539302</v>
+        <v>7573230</v>
       </c>
       <c r="E68" t="n">
-        <v>17756555</v>
+        <v>17836463</v>
       </c>
       <c r="F68" t="n">
-        <v>1256.333270725404</v>
+        <v>1206.590990179654</v>
       </c>
       <c r="G68" t="n">
-        <v>2778.206409717294</v>
+        <v>2787.573647438103</v>
       </c>
       <c r="H68" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="I68" t="n">
-        <v>27824</v>
+        <v>21348</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2920836</v>
+        <v>2923287</v>
       </c>
       <c r="E69" t="n">
-        <v>2920836</v>
+        <v>2923287</v>
       </c>
       <c r="F69" t="n">
-        <v>128.6460612974745</v>
+        <v>192.921953797007</v>
       </c>
       <c r="G69" t="n">
-        <v>1136.127052313368</v>
+        <v>628.0488275592787</v>
       </c>
       <c r="H69" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>10430.26</v>
+        <v>10413.89</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3408354</v>
+        <v>3422886</v>
       </c>
       <c r="E70" t="n">
-        <v>8409940</v>
+        <v>8445797</v>
       </c>
       <c r="F70" t="n">
-        <v>1210.824206390581</v>
+        <v>1248.817836965786</v>
       </c>
       <c r="G70" t="n">
-        <v>1275.023970956473</v>
+        <v>1199.754058010034</v>
       </c>
       <c r="H70" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="I70" t="n">
-        <v>94358</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23456760</v>
+        <v>23432764</v>
       </c>
       <c r="F71" t="n">
-        <v>3.906086614770556</v>
+        <v>4.098341941325943</v>
       </c>
       <c r="G71" t="n">
-        <v>102.6565790321638</v>
+        <v>151.8649144612377</v>
       </c>
       <c r="H71" t="n">
         <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>126959</v>
+        <v>125221</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>270728</v>
+        <v>270106</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3420.12</v>
+        <v>2642.04</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>72171917</v>
+        <v>72321520</v>
       </c>
       <c r="E73" t="n">
-        <v>150515098</v>
+        <v>150827095</v>
       </c>
       <c r="F73" t="n">
-        <v>20207.4699188421</v>
+        <v>18999.63998862655</v>
       </c>
       <c r="G73" t="n">
-        <v>4218.639901595517</v>
+        <v>3727.207992992893</v>
       </c>
       <c r="H73" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="I73" t="n">
-        <v>13827171</v>
+        <v>14107961</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>203518402</v>
+        <v>202291825</v>
       </c>
       <c r="F75" t="n">
-        <v>5520.444879835363</v>
+        <v>21985.77737770929</v>
       </c>
       <c r="G75" t="n">
-        <v>10581.38909195566</v>
+        <v>3754.075206471567</v>
       </c>
       <c r="H75" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>3915603</v>
+        <v>2989045</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>82816286</v>
+        <v>84286087</v>
       </c>
       <c r="E76" t="n">
-        <v>113719649</v>
+        <v>115737914</v>
       </c>
       <c r="F76" t="n">
-        <v>1596.554439782257</v>
+        <v>5248.351970992876</v>
       </c>
       <c r="G76" t="n">
-        <v>3375.631493992993</v>
+        <v>2884.894333615702</v>
       </c>
       <c r="H76" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I76" t="n">
-        <v>610444</v>
+        <v>623650</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>184995</v>
+        <v>190646</v>
       </c>
       <c r="E77" t="n">
-        <v>193188</v>
+        <v>199089</v>
       </c>
       <c r="F77" t="n">
-        <v>4.000952184554836</v>
+        <v>5.284005270433171</v>
       </c>
       <c r="G77" t="n">
-        <v>7.182774182012935</v>
+        <v>4.025484498680067</v>
       </c>
       <c r="H77" t="n">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="I77" t="n">
-        <v>594.4</v>
+        <v>613.34</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6858027</v>
+        <v>6856886</v>
       </c>
       <c r="E78" t="n">
-        <v>7544288</v>
+        <v>7543033</v>
       </c>
       <c r="F78" t="n">
-        <v>163.3913344721673</v>
+        <v>203.0636218276947</v>
       </c>
       <c r="G78" t="n">
-        <v>234.4762921346925</v>
+        <v>237.7242662801088</v>
       </c>
       <c r="H78" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="I78" t="n">
-        <v>566077</v>
+        <v>574090</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>26519410</v>
+        <v>27910730</v>
       </c>
       <c r="E79" t="n">
-        <v>26519410</v>
+        <v>27910730</v>
       </c>
       <c r="F79" t="n">
-        <v>712.3929366355603</v>
+        <v>1166.713284426656</v>
       </c>
       <c r="G79" t="n">
-        <v>89.21465078854247</v>
+        <v>73.41399411847428</v>
       </c>
       <c r="H79" t="n">
-        <v>0.99</v>
+        <v>0.4</v>
       </c>
       <c r="I79" t="n">
-        <v>373603</v>
+        <v>422831</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>282222374</v>
+        <v>281541482</v>
       </c>
       <c r="E80" t="n">
-        <v>282222374</v>
+        <v>281541482</v>
       </c>
       <c r="F80" t="n">
-        <v>2087.070427823374</v>
+        <v>281.1950378773446</v>
       </c>
       <c r="G80" t="n">
-        <v>11751.80979204006</v>
+        <v>10359.60235094358</v>
       </c>
       <c r="H80" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="I80" t="n">
-        <v>16512886</v>
+        <v>16664464</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>627205622</v>
+        <v>619732058</v>
       </c>
       <c r="E81" t="n">
-        <v>627205622</v>
+        <v>619732058</v>
       </c>
       <c r="F81" t="n">
-        <v>664629.1493946492</v>
+        <v>1445906.060339852</v>
       </c>
       <c r="G81" t="n">
-        <v>754191.8281359627</v>
+        <v>1323009.130877974</v>
       </c>
       <c r="H81" t="n">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>230520545</v>
+        <v>244468113</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>105840</v>
+        <v>110069</v>
       </c>
       <c r="E82" t="n">
-        <v>105840</v>
+        <v>110069</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>72.83</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>198647550</v>
+        <v>197035628</v>
       </c>
       <c r="E83" t="n">
-        <v>690119542</v>
+        <v>684519578</v>
       </c>
       <c r="F83" t="n">
-        <v>491.4913930228429</v>
+        <v>945.8838321055642</v>
       </c>
       <c r="G83" t="n">
-        <v>1703.498757915771</v>
+        <v>3864.708778274517</v>
       </c>
       <c r="H83" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I83" t="n">
-        <v>25705760</v>
+        <v>26049304</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4138159</v>
+        <v>4226293</v>
       </c>
       <c r="E84" t="n">
-        <v>4138159</v>
+        <v>4226293</v>
       </c>
       <c r="F84" t="n">
-        <v>542.3639191647238</v>
+        <v>1596.999187980466</v>
       </c>
       <c r="G84" t="n">
-        <v>861.8840553948233</v>
+        <v>2498.621085697232</v>
       </c>
       <c r="H84" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I84" t="n">
-        <v>4325694</v>
+        <v>2446798</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>114343465</v>
+        <v>115464744</v>
       </c>
       <c r="E85" t="n">
-        <v>486750829</v>
+        <v>491420759</v>
       </c>
       <c r="F85" t="n">
-        <v>297862.3580341456</v>
+        <v>279156.6843662629</v>
       </c>
       <c r="G85" t="n">
-        <v>361216.1108211573</v>
+        <v>347106.3153791121</v>
       </c>
       <c r="H85" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="I85" t="n">
-        <v>11057061</v>
+        <v>11448752</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71844448</v>
+        <v>72837892</v>
       </c>
       <c r="E86" t="n">
-        <v>82432353</v>
+        <v>83572203</v>
       </c>
       <c r="F86" t="n">
-        <v>1652.665167182491</v>
+        <v>2240.523339883898</v>
       </c>
       <c r="G86" t="n">
-        <v>2608.713871229114</v>
+        <v>4529.450299463051</v>
       </c>
       <c r="H86" t="n">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I86" t="n">
-        <v>1144212</v>
+        <v>1185979</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3225803</v>
+        <v>3178995</v>
       </c>
       <c r="E87" t="n">
-        <v>16173443</v>
+        <v>15938760</v>
       </c>
       <c r="F87" t="n">
-        <v>3.357536557648102</v>
+        <v>3.990855951216072</v>
       </c>
       <c r="G87" t="n">
-        <v>4.036380322851124</v>
+        <v>3.923067662779646</v>
       </c>
       <c r="H87" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="I87" t="n">
-        <v>17376.43</v>
+        <v>21216</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>523383</v>
+        <v>521160</v>
       </c>
       <c r="E88" t="n">
-        <v>8952439</v>
+        <v>8914399</v>
       </c>
       <c r="F88" t="n">
-        <v>5.414808405073998</v>
+        <v>10.46485349752373</v>
       </c>
       <c r="G88" t="n">
-        <v>5.616471530221376</v>
+        <v>5.573974501500261</v>
       </c>
       <c r="H88" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="I88" t="n">
-        <v>329982</v>
+        <v>332256</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5960042</v>
+        <v>5897094</v>
       </c>
       <c r="E89" t="n">
-        <v>8100078</v>
+        <v>8014294</v>
       </c>
       <c r="F89" t="n">
-        <v>1082.890114207882</v>
+        <v>1068.02826883526</v>
       </c>
       <c r="G89" t="n">
-        <v>174.966797864152</v>
+        <v>143.7446199401473</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I89" t="n">
-        <v>6440737</v>
+        <v>6456685</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>42406220</v>
+        <v>41765736</v>
       </c>
       <c r="E90" t="n">
-        <v>49529458</v>
+        <v>48781387</v>
       </c>
       <c r="F90" t="n">
-        <v>175.5757470193166</v>
+        <v>210.2926798956098</v>
       </c>
       <c r="G90" t="n">
-        <v>110.5145744300774</v>
+        <v>6.898991007315924</v>
       </c>
       <c r="H90" t="n">
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
       <c r="I90" t="n">
-        <v>904443</v>
+        <v>890484</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14430749</v>
+        <v>14388753</v>
       </c>
       <c r="F91" t="n">
-        <v>129.6612645830263</v>
+        <v>138.5199521263967</v>
       </c>
       <c r="G91" t="n">
-        <v>255.5526458949676</v>
+        <v>240.9959542632159</v>
       </c>
       <c r="H91" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="I91" t="n">
-        <v>465273</v>
+        <v>251172</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35589184</v>
+        <v>35697635</v>
       </c>
       <c r="E92" t="n">
-        <v>35589184</v>
+        <v>35697635</v>
       </c>
       <c r="F92" t="n">
-        <v>464.5175172022193</v>
+        <v>770.2235891297211</v>
       </c>
       <c r="G92" t="n">
-        <v>149.6456888288598</v>
+        <v>75.31609157048163</v>
       </c>
       <c r="H92" t="n">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="I92" t="n">
-        <v>303947</v>
+        <v>301584</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17819651</v>
+        <v>17732702</v>
       </c>
       <c r="F93" t="n">
-        <v>186.9110294421399</v>
+        <v>78.97247114470422</v>
       </c>
       <c r="G93" t="n">
-        <v>373.9336035580073</v>
+        <v>209.4133066235954</v>
       </c>
       <c r="H93" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="I93" t="n">
-        <v>162551</v>
+        <v>168608</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>523686</v>
+        <v>531073</v>
       </c>
       <c r="E94" t="n">
-        <v>6351802</v>
+        <v>6441404</v>
       </c>
       <c r="F94" t="n">
-        <v>348.3252246316978</v>
+        <v>1184.178190224894</v>
       </c>
       <c r="G94" t="n">
-        <v>676.3050360157362</v>
+        <v>985.1582098075994</v>
       </c>
       <c r="H94" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="I94" t="n">
-        <v>2874069</v>
+        <v>2919504</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25440022</v>
+        <v>25228140</v>
       </c>
       <c r="E95" t="n">
-        <v>35958478</v>
+        <v>35658991</v>
       </c>
       <c r="F95" t="n">
-        <v>10.80662784097927</v>
+        <v>5.49079085323042</v>
       </c>
       <c r="G95" t="n">
-        <v>4.629878128989614</v>
+        <v>1157.366624279336</v>
       </c>
       <c r="H95" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="I95" t="n">
-        <v>80118</v>
+        <v>84787</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1274980419</v>
+        <v>1280657944</v>
       </c>
       <c r="E96" t="n">
-        <v>6113792219</v>
+        <v>6141017113</v>
       </c>
       <c r="F96" t="n">
-        <v>441556.2847960439</v>
+        <v>487537.5103874064</v>
       </c>
       <c r="G96" t="n">
-        <v>547193.8616587109</v>
+        <v>459813.5411577709</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>193111480</v>
+        <v>197611830</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>272479641</v>
+        <v>269121544</v>
       </c>
       <c r="E97" t="n">
-        <v>1176173397</v>
+        <v>1161677985</v>
       </c>
       <c r="F97" t="n">
-        <v>208302.0935024748</v>
+        <v>274216.2088005464</v>
       </c>
       <c r="G97" t="n">
-        <v>1001334.008105507</v>
+        <v>945974.3532520897</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I97" t="n">
-        <v>109986948</v>
+        <v>110954317</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5216812</v>
+        <v>5069731</v>
       </c>
       <c r="E98" t="n">
-        <v>5781268</v>
+        <v>5618272</v>
       </c>
       <c r="F98" t="n">
-        <v>729.1638860656963</v>
+        <v>863.1521653264183</v>
       </c>
       <c r="G98" t="n">
-        <v>619.1062807629653</v>
+        <v>289.2521662387928</v>
       </c>
       <c r="H98" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I98" t="n">
-        <v>635818</v>
+        <v>713232</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94235</v>
+        <v>89996</v>
       </c>
       <c r="E99" t="n">
-        <v>94235</v>
+        <v>89996</v>
       </c>
       <c r="F99" t="n">
-        <v>267.6634385515674</v>
+        <v>4.265368328048264</v>
       </c>
       <c r="G99" t="n">
-        <v>5.072261703487327</v>
+        <v>226.0771667630511</v>
       </c>
       <c r="H99" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="I99" t="n">
-        <v>5321.57</v>
+        <v>5124.86</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113457537</v>
+        <v>113381098</v>
       </c>
       <c r="E100" t="n">
-        <v>113457537</v>
+        <v>113381098</v>
       </c>
       <c r="F100" t="n">
-        <v>23038.08008821851</v>
+        <v>17865.8040579431</v>
       </c>
       <c r="G100" t="n">
-        <v>11285.20382251416</v>
+        <v>7022.448288128908</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>5958682</v>
+        <v>6010170</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3790031</v>
+        <v>3779486</v>
       </c>
       <c r="F101" t="n">
-        <v>1010.537010912373</v>
+        <v>1798.753063592299</v>
       </c>
       <c r="G101" t="n">
-        <v>1352.325564864096</v>
+        <v>1036.625664822605</v>
       </c>
       <c r="H101" t="n">
-        <v>0.95</v>
+        <v>0.63</v>
       </c>
       <c r="I101" t="n">
-        <v>303450</v>
+        <v>307865</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2035094871</v>
+        <v>2048400394</v>
       </c>
       <c r="E102" t="n">
-        <v>2035094871</v>
+        <v>2048400394</v>
       </c>
       <c r="F102" t="n">
-        <v>7085495.880765409</v>
+        <v>7594284.244731818</v>
       </c>
       <c r="G102" t="n">
-        <v>4002678.319291798</v>
+        <v>3521368.683706936</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>4550010812</v>
+        <v>3434826554</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5337393</v>
+        <v>5346274</v>
       </c>
       <c r="E103" t="n">
-        <v>5343434</v>
+        <v>5352325</v>
       </c>
       <c r="F103" t="n">
-        <v>284.6204162322969</v>
+        <v>284.7266592387587</v>
       </c>
       <c r="G103" t="n">
-        <v>56.95829389681054</v>
+        <v>57.75619395915906</v>
       </c>
       <c r="H103" t="n">
         <v>0.09</v>
       </c>
       <c r="I103" t="n">
-        <v>163523</v>
+        <v>161907</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2541971</v>
+        <v>2393561</v>
       </c>
       <c r="F104" t="n">
-        <v>362.5981704965891</v>
+        <v>49.03901665495923</v>
       </c>
       <c r="G104" t="n">
-        <v>3.959628179803418</v>
+        <v>656.5034614324595</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="I104" t="n">
-        <v>63282</v>
+        <v>61815</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4247357</v>
+        <v>4349235</v>
       </c>
       <c r="E105" t="n">
-        <v>5576226</v>
+        <v>5709979</v>
       </c>
       <c r="F105" t="n">
-        <v>10564.71612363907</v>
+        <v>10502.68496144017</v>
       </c>
       <c r="G105" t="n">
-        <v>6370.498889105187</v>
+        <v>10707.40752915729</v>
       </c>
       <c r="H105" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>651354</v>
+        <v>667507</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20429325</v>
+        <v>20211752</v>
       </c>
       <c r="F106" t="n">
-        <v>72.94738311585884</v>
+        <v>77.00505340396791</v>
       </c>
       <c r="G106" t="n">
-        <v>185.4224421482319</v>
+        <v>729.9978210492637</v>
       </c>
       <c r="H106" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>116745</v>
+        <v>118795</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1351491</v>
+        <v>1385271</v>
       </c>
       <c r="E107" t="n">
-        <v>5038926</v>
+        <v>5164812</v>
       </c>
       <c r="F107" t="n">
-        <v>1703.510503218661</v>
+        <v>1836.878618368233</v>
       </c>
       <c r="G107" t="n">
-        <v>313.9287069323061</v>
+        <v>164.0602929874381</v>
       </c>
       <c r="H107" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I107" t="n">
-        <v>556067</v>
+        <v>619457</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3531852</v>
+        <v>3491942</v>
       </c>
       <c r="E108" t="n">
-        <v>10173179</v>
+        <v>10058220</v>
       </c>
       <c r="F108" t="n">
-        <v>1125.518927429611</v>
+        <v>1312.677446154572</v>
       </c>
       <c r="G108" t="n">
-        <v>939.0538646997948</v>
+        <v>804.1702342699474</v>
       </c>
       <c r="H108" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="I108" t="n">
-        <v>409840</v>
+        <v>357152</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>79998013</v>
+        <v>79947401</v>
       </c>
       <c r="E109" t="n">
-        <v>101803688</v>
+        <v>101739281</v>
       </c>
       <c r="F109" t="n">
-        <v>3203.56841368817</v>
+        <v>3106.387636431613</v>
       </c>
       <c r="G109" t="n">
-        <v>625.8142392486216</v>
+        <v>945.9129230242906</v>
       </c>
       <c r="H109" t="n">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="I109" t="n">
-        <v>6315388</v>
+        <v>6241573</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22698751</v>
+        <v>22780578</v>
       </c>
       <c r="E110" t="n">
-        <v>29445473</v>
+        <v>29551621</v>
       </c>
       <c r="F110" t="n">
-        <v>19506.41807636549</v>
+        <v>20249.58287701748</v>
       </c>
       <c r="G110" t="n">
-        <v>12912.88736648177</v>
+        <v>11564.06968475651</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="I110" t="n">
-        <v>180069</v>
+        <v>186533</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>607851</v>
+        <v>615341</v>
       </c>
       <c r="E111" t="n">
-        <v>607851</v>
+        <v>615341</v>
       </c>
       <c r="F111" t="n">
-        <v>26.69958836910736</v>
+        <v>6.490887055350694</v>
       </c>
       <c r="G111" t="n">
-        <v>2.544214150232241</v>
+        <v>328.8756854744253</v>
       </c>
       <c r="H111" t="n">
-        <v>2.66</v>
+        <v>0.65</v>
       </c>
       <c r="I111" t="n">
-        <v>83215</v>
+        <v>83218</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13644677</v>
+        <v>13756450</v>
       </c>
       <c r="E112" t="n">
-        <v>13644677</v>
+        <v>13756450</v>
       </c>
       <c r="F112" t="n">
-        <v>1838.621162317961</v>
+        <v>1171.408229673908</v>
       </c>
       <c r="G112" t="n">
-        <v>1800.295804848079</v>
+        <v>6970.916247786487</v>
       </c>
       <c r="H112" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I112" t="n">
-        <v>3988003</v>
+        <v>4372630</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98948715</v>
+        <v>99443550</v>
       </c>
       <c r="E113" t="n">
-        <v>122396019</v>
+        <v>123008112</v>
       </c>
       <c r="F113" t="n">
-        <v>97.01797581838926</v>
+        <v>98.88659568080247</v>
       </c>
       <c r="G113" t="n">
-        <v>943.0105475469577</v>
+        <v>1595.070704237176</v>
       </c>
       <c r="H113" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="I113" t="n">
-        <v>738525</v>
+        <v>731267</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>853309</v>
+        <v>843027</v>
       </c>
       <c r="F114" t="n">
-        <v>230.5610644931036</v>
+        <v>246.3226090069137</v>
       </c>
       <c r="G114" t="n">
-        <v>289.6719018644017</v>
+        <v>208.8068757687563</v>
       </c>
       <c r="H114" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="I114" t="n">
-        <v>36686</v>
+        <v>30849</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2875646</v>
+        <v>2872825</v>
       </c>
       <c r="F115" t="n">
-        <v>1440.852446206731</v>
+        <v>912.6029360111581</v>
       </c>
       <c r="G115" t="n">
-        <v>179.514094252036</v>
+        <v>184.9560293257887</v>
       </c>
       <c r="H115" t="n">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="I115" t="n">
-        <v>30402</v>
+        <v>30434</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11590078</v>
+        <v>11292996</v>
       </c>
       <c r="E116" t="n">
-        <v>17044231</v>
+        <v>16607346</v>
       </c>
       <c r="F116" t="n">
-        <v>4326.847368238297</v>
+        <v>4107.125354133466</v>
       </c>
       <c r="G116" t="n">
-        <v>1167.245210631577</v>
+        <v>2862.127857856675</v>
       </c>
       <c r="H116" t="n">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I116" t="n">
-        <v>364221</v>
+        <v>316809</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3239396</v>
+        <v>3240637</v>
       </c>
       <c r="F117" t="n">
-        <v>22.59754742939135</v>
+        <v>6.549074203092187</v>
       </c>
       <c r="G117" t="n">
-        <v>75.88766729263817</v>
+        <v>151.0202600996803</v>
       </c>
       <c r="H117" t="n">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="I117" t="n">
-        <v>34188</v>
+        <v>35364</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1088118</v>
+        <v>1089793</v>
       </c>
       <c r="F118" t="n">
-        <v>4.09382836888803</v>
+        <v>5.595409924371495</v>
       </c>
       <c r="G118" t="n">
-        <v>3.842876504716972</v>
+        <v>54.0602646032221</v>
       </c>
       <c r="H118" t="n">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="I118" t="n">
-        <v>5294.28</v>
+        <v>3925.29</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5509296</v>
+        <v>5411085</v>
       </c>
       <c r="E119" t="n">
-        <v>7708304</v>
+        <v>7570892</v>
       </c>
       <c r="F119" t="n">
-        <v>1538.597840458639</v>
+        <v>1112.132734664929</v>
       </c>
       <c r="G119" t="n">
-        <v>1403.25821782994</v>
+        <v>382.4909206604863</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I119" t="n">
-        <v>108007</v>
+        <v>104242</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10178533</v>
+        <v>10170038</v>
       </c>
       <c r="E120" t="n">
-        <v>28036333</v>
+        <v>28012936</v>
       </c>
       <c r="F120" t="n">
-        <v>12.79920487218639</v>
+        <v>474.2318037516343</v>
       </c>
       <c r="G120" t="n">
-        <v>109.2565072776356</v>
+        <v>153.377155867402</v>
       </c>
       <c r="H120" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="I120" t="n">
-        <v>351450</v>
+        <v>351618</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50976885</v>
+        <v>50771983</v>
       </c>
       <c r="E121" t="n">
-        <v>129866530</v>
+        <v>129344529</v>
       </c>
       <c r="F121" t="n">
-        <v>1348.887047866269</v>
+        <v>1141.013023245612</v>
       </c>
       <c r="G121" t="n">
-        <v>12390.05777222269</v>
+        <v>11934.37154147927</v>
       </c>
       <c r="H121" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I121" t="n">
-        <v>2251033</v>
+        <v>2449800</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14232637</v>
+        <v>14115051</v>
       </c>
       <c r="E122" t="n">
-        <v>68930933</v>
+        <v>68361446</v>
       </c>
       <c r="F122" t="n">
-        <v>1896.591711752122</v>
+        <v>1189.062791063684</v>
       </c>
       <c r="G122" t="n">
-        <v>3364.252661585045</v>
+        <v>4469.266478065743</v>
       </c>
       <c r="H122" t="n">
-        <v>0.29</v>
+        <v>0.51</v>
       </c>
       <c r="I122" t="n">
-        <v>3545841</v>
+        <v>3539554</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>503378</v>
+        <v>492504</v>
       </c>
       <c r="F123" t="n">
-        <v>9.58187378332954</v>
+        <v>3.920478501496558</v>
       </c>
       <c r="G123" t="n">
-        <v>5.411482433713796</v>
+        <v>4.683264057161137</v>
       </c>
       <c r="H123" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="I123" t="n">
-        <v>7328.28</v>
+        <v>6019.36</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4299656</v>
+        <v>4419817</v>
       </c>
       <c r="E124" t="n">
-        <v>9800876</v>
+        <v>10074778</v>
       </c>
       <c r="F124" t="n">
-        <v>373.6957466007916</v>
+        <v>260.3934307645349</v>
       </c>
       <c r="G124" t="n">
-        <v>724.7325688247677</v>
+        <v>852.1405167775781</v>
       </c>
       <c r="H124" t="n">
-        <v>1.32</v>
+        <v>1.67</v>
       </c>
       <c r="I124" t="n">
-        <v>93817</v>
+        <v>104547</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1856278955</v>
+        <v>1868072039</v>
       </c>
       <c r="F125" t="n">
-        <v>79696.6669982293</v>
+        <v>75242.48519275093</v>
       </c>
       <c r="G125" t="n">
-        <v>77882.25550816803</v>
+        <v>73878.27693157461</v>
       </c>
       <c r="H125" t="n">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="I125" t="n">
-        <v>25027302</v>
+        <v>25605654</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9407614</v>
+        <v>9369263</v>
       </c>
       <c r="E126" t="n">
-        <v>34259379</v>
+        <v>34118085</v>
       </c>
       <c r="F126" t="n">
-        <v>3.924854574930734</v>
+        <v>4.027339605001218</v>
       </c>
       <c r="G126" t="n">
-        <v>3.882289224230749</v>
+        <v>4.055253100308633</v>
       </c>
       <c r="H126" t="n">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
       <c r="I126" t="n">
-        <v>138904</v>
+        <v>143003</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>571436</v>
+        <v>569241</v>
       </c>
       <c r="F127" t="n">
-        <v>25.02621351009741</v>
+        <v>48.33983539723623</v>
       </c>
       <c r="G127" t="n">
-        <v>9.001928465336501</v>
+        <v>7.968149086427993</v>
       </c>
       <c r="H127" t="n">
         <v>0.14</v>
       </c>
       <c r="I127" t="n">
-        <v>21943</v>
+        <v>21837</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>11998410</v>
+        <v>11963269</v>
       </c>
       <c r="E128" t="n">
-        <v>17395963</v>
+        <v>17345013</v>
       </c>
       <c r="F128" t="n">
-        <v>3117.930119059262</v>
+        <v>3343.267696545412</v>
       </c>
       <c r="G128" t="n">
-        <v>6312.767380155954</v>
+        <v>8828.028002425455</v>
       </c>
       <c r="H128" t="n">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="I128" t="n">
-        <v>2327797</v>
+        <v>2192690</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>32502481</v>
+        <v>31592745</v>
       </c>
       <c r="E129" t="n">
-        <v>101202299</v>
+        <v>98369670</v>
       </c>
       <c r="F129" t="n">
-        <v>6776.366705090759</v>
+        <v>7490.222642140739</v>
       </c>
       <c r="G129" t="n">
-        <v>4712.435620088447</v>
+        <v>11649.60628355234</v>
       </c>
       <c r="H129" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I129" t="n">
-        <v>12232105</v>
+        <v>12232287</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1928662</v>
+        <v>1935308</v>
       </c>
       <c r="E130" t="n">
-        <v>13830246</v>
+        <v>13877900</v>
       </c>
       <c r="F130" t="n">
-        <v>58.06762229081862</v>
+        <v>222.2198601648041</v>
       </c>
       <c r="G130" t="n">
-        <v>4.195650663189271</v>
+        <v>3.939272725826206</v>
       </c>
       <c r="H130" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="I130" t="n">
-        <v>1880051</v>
+        <v>1860199</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7969124</v>
+        <v>7948086</v>
       </c>
       <c r="F131" t="n">
-        <v>108.461609801205</v>
+        <v>95.81081478600021</v>
       </c>
       <c r="G131" t="n">
-        <v>164.5387582016647</v>
+        <v>121.7540857912651</v>
       </c>
       <c r="H131" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="I131" t="n">
-        <v>478265</v>
+        <v>482359</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>199568498</v>
+        <v>196769797</v>
       </c>
       <c r="E132" t="n">
-        <v>1130079461</v>
+        <v>1114231497</v>
       </c>
       <c r="F132" t="n">
-        <v>432644.8209090175</v>
+        <v>556633.8689196459</v>
       </c>
       <c r="G132" t="n">
-        <v>612225.8787211117</v>
+        <v>489494.8374615164</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>57806337</v>
+        <v>60019208</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1036386</v>
+        <v>1035552</v>
       </c>
       <c r="E133" t="n">
-        <v>1036386</v>
+        <v>1035552</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>12424.91</v>
+        <v>12523.21</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>509641</v>
+        <v>505000</v>
       </c>
       <c r="E134" t="n">
-        <v>1715380</v>
+        <v>1699759</v>
       </c>
       <c r="F134" t="n">
-        <v>137.8932094650824</v>
+        <v>102.5896422105143</v>
       </c>
       <c r="G134" t="n">
-        <v>183.7656597777047</v>
+        <v>167.7939229839752</v>
       </c>
       <c r="H134" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I134" t="n">
-        <v>548855</v>
+        <v>631129</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>16506294</v>
+        <v>16466473</v>
       </c>
       <c r="F135" t="n">
-        <v>5.208811175982865</v>
+        <v>4.002747034217236</v>
       </c>
       <c r="G135" t="n">
-        <v>3.952210575978772</v>
+        <v>4.899138449192329</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="I135" t="n">
-        <v>730.24</v>
+        <v>739.61</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>137378061</v>
+        <v>137954750</v>
       </c>
       <c r="E136" t="n">
-        <v>1017615265</v>
+        <v>1021887038</v>
       </c>
       <c r="F136" t="n">
-        <v>59344.48649020483</v>
+        <v>40826.34304571486</v>
       </c>
       <c r="G136" t="n">
-        <v>58950.39297664793</v>
+        <v>41188.94295862789</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I136" t="n">
-        <v>12793883</v>
+        <v>12488366</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>30664419</v>
+        <v>32782645</v>
       </c>
       <c r="E137" t="n">
-        <v>145872407</v>
+        <v>155948933</v>
       </c>
       <c r="F137" t="n">
-        <v>17811.93768866677</v>
+        <v>17106.01257773729</v>
       </c>
       <c r="G137" t="n">
-        <v>10004.06931203475</v>
+        <v>1872.657681294232</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="I137" t="n">
-        <v>904784</v>
+        <v>1124307</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8344845</v>
+        <v>8227705</v>
       </c>
       <c r="E138" t="n">
-        <v>11179767</v>
+        <v>11022832</v>
       </c>
       <c r="F138" t="n">
-        <v>217.5050390006982</v>
+        <v>186.1538212359421</v>
       </c>
       <c r="G138" t="n">
-        <v>405.5092083934147</v>
+        <v>47.51824547787814</v>
       </c>
       <c r="H138" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I138" t="n">
-        <v>52914</v>
+        <v>58950</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1276949</v>
+        <v>1250496</v>
       </c>
       <c r="F139" t="n">
-        <v>8.711812153708806</v>
+        <v>6.543316099393611</v>
       </c>
       <c r="G139" t="n">
-        <v>90.13427181476143</v>
+        <v>88.25450780447996</v>
       </c>
       <c r="H139" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I139" t="n">
-        <v>51417</v>
+        <v>48147</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2404753</v>
+        <v>2393199</v>
       </c>
       <c r="E140" t="n">
-        <v>2404753</v>
+        <v>2393199</v>
       </c>
       <c r="F140" t="n">
-        <v>318.4297815968821</v>
+        <v>396.1213238538912</v>
       </c>
       <c r="G140" t="n">
-        <v>264.7739134064672</v>
+        <v>201.6614544443451</v>
       </c>
       <c r="H140" t="n">
         <v>0.45</v>
       </c>
       <c r="I140" t="n">
-        <v>255028</v>
+        <v>281095</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26581012</v>
+        <v>26359482</v>
       </c>
       <c r="E141" t="n">
-        <v>26581012</v>
+        <v>26359482</v>
       </c>
       <c r="F141" t="n">
-        <v>1161.101911215889</v>
+        <v>718.1711355435787</v>
       </c>
       <c r="G141" t="n">
-        <v>1148.475846253811</v>
+        <v>1483.71599944863</v>
       </c>
       <c r="H141" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="I141" t="n">
-        <v>362829</v>
+        <v>357376</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6491063</v>
+        <v>6451823</v>
       </c>
       <c r="E142" t="n">
-        <v>6855289</v>
+        <v>6813848</v>
       </c>
       <c r="F142" t="n">
-        <v>1055.329590767583</v>
+        <v>775.036308111478</v>
       </c>
       <c r="G142" t="n">
-        <v>240.6034022434068</v>
+        <v>237.6099347476652</v>
       </c>
       <c r="H142" t="n">
-        <v>1.01</v>
+        <v>0.29</v>
       </c>
       <c r="I142" t="n">
-        <v>68495</v>
+        <v>67531</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3315882</v>
+        <v>3502302</v>
       </c>
       <c r="E143" t="n">
-        <v>7743138</v>
+        <v>8178458</v>
       </c>
       <c r="F143" t="n">
-        <v>1292.998532919148</v>
+        <v>1226.48695141919</v>
       </c>
       <c r="G143" t="n">
-        <v>215.5615907417823</v>
+        <v>1060.163196135344</v>
       </c>
       <c r="H143" t="n">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
       <c r="I143" t="n">
-        <v>778519</v>
+        <v>775877</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1597332</v>
+        <v>1613146</v>
       </c>
       <c r="E144" t="n">
-        <v>12440874</v>
+        <v>12564041</v>
       </c>
       <c r="F144" t="n">
-        <v>199.9823137193805</v>
+        <v>200.5926567079146</v>
       </c>
       <c r="G144" t="n">
-        <v>2389.155261816115</v>
+        <v>1697.933104062127</v>
       </c>
       <c r="H144" t="n">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="I144" t="n">
-        <v>509172</v>
+        <v>463396</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>334942843</v>
+        <v>335810645</v>
       </c>
       <c r="E145" t="n">
-        <v>3013353507</v>
+        <v>3021160791</v>
       </c>
       <c r="F145" t="n">
-        <v>476248.1343571794</v>
+        <v>459246.5308779211</v>
       </c>
       <c r="G145" t="n">
-        <v>678676.6339615106</v>
+        <v>650916.1279879294</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>37303109</v>
+        <v>37646319</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>250803</v>
+        <v>253462</v>
       </c>
       <c r="E146" t="n">
-        <v>2213522</v>
+        <v>2236995</v>
       </c>
       <c r="F146" t="n">
-        <v>5.497854133141682</v>
+        <v>4.016350056601213</v>
       </c>
       <c r="G146" t="n">
-        <v>4.174682680383986</v>
+        <v>5.499014788978787</v>
       </c>
       <c r="H146" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="I146" t="n">
-        <v>86437</v>
+        <v>86695</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>647900</v>
+        <v>650501</v>
       </c>
       <c r="F147" t="n">
-        <v>919.3185599542246</v>
+        <v>928.8560914682253</v>
       </c>
       <c r="G147" t="n">
-        <v>563.8413973470706</v>
+        <v>607.4119886755905</v>
       </c>
       <c r="H147" t="n">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="I147" t="n">
-        <v>4765.43</v>
+        <v>6174.83</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4914308</v>
+        <v>4913412</v>
       </c>
       <c r="E148" t="n">
-        <v>17365811</v>
+        <v>17362648</v>
       </c>
       <c r="F148" t="n">
-        <v>1881.88999896837</v>
+        <v>1731.601039605165</v>
       </c>
       <c r="G148" t="n">
-        <v>2318.852977586755</v>
+        <v>2388.526903712258</v>
       </c>
       <c r="H148" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I148" t="n">
-        <v>107439</v>
+        <v>104366</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8704835</v>
+        <v>8898237</v>
       </c>
       <c r="E149" t="n">
-        <v>40347411</v>
+        <v>41243839</v>
       </c>
       <c r="F149" t="n">
-        <v>1861.335921631362</v>
+        <v>1882.851766582497</v>
       </c>
       <c r="G149" t="n">
-        <v>3305.786199821392</v>
+        <v>3832.177006035132</v>
       </c>
       <c r="H149" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I149" t="n">
-        <v>84107</v>
+        <v>94028</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>42570125</v>
+        <v>42787594</v>
       </c>
       <c r="E150" t="n">
-        <v>246463433</v>
+        <v>247722492</v>
       </c>
       <c r="F150" t="n">
-        <v>73741.6787676642</v>
+        <v>80165.41538996404</v>
       </c>
       <c r="G150" t="n">
-        <v>58077.00707237574</v>
+        <v>47061.10802823056</v>
       </c>
       <c r="H150" t="n">
         <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>10335541</v>
+        <v>10891274</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84785</v>
+        <v>83898</v>
       </c>
       <c r="E151" t="n">
-        <v>84785</v>
+        <v>83898</v>
       </c>
       <c r="F151" t="n">
-        <v>10.14081910275316</v>
+        <v>4.040253404109166</v>
       </c>
       <c r="G151" t="n">
-        <v>4.174402759145094</v>
+        <v>5.314404490939211</v>
       </c>
       <c r="H151" t="n">
-        <v>0.95</v>
+        <v>0.54</v>
       </c>
       <c r="I151" t="n">
-        <v>19422.88</v>
+        <v>19872.74</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4373166</v>
+        <v>4362924</v>
       </c>
       <c r="F152" t="n">
-        <v>82.45613066243781</v>
+        <v>159.7217321895289</v>
       </c>
       <c r="G152" t="n">
-        <v>2081.482374877101</v>
+        <v>104.4690716229969</v>
       </c>
       <c r="H152" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="I152" t="n">
-        <v>279259</v>
+        <v>312613</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>40426407</v>
+        <v>40463661</v>
       </c>
       <c r="E153" t="n">
-        <v>55834625</v>
+        <v>55886078</v>
       </c>
       <c r="F153" t="n">
-        <v>4333.858347279277</v>
+        <v>4391.396882077516</v>
       </c>
       <c r="G153" t="n">
-        <v>7215.886948693854</v>
+        <v>6835.458824666798</v>
       </c>
       <c r="H153" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="I153" t="n">
-        <v>336598</v>
+        <v>338977</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2128561</v>
+        <v>2182450</v>
       </c>
       <c r="E154" t="n">
-        <v>8692491</v>
+        <v>8912561</v>
       </c>
       <c r="F154" t="n">
-        <v>759.2771055865587</v>
+        <v>670.7254370869015</v>
       </c>
       <c r="G154" t="n">
-        <v>368.9826854864402</v>
+        <v>236.7640235470492</v>
       </c>
       <c r="H154" t="n">
         <v>0.03</v>
       </c>
       <c r="I154" t="n">
-        <v>558686</v>
+        <v>566708</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7382646</v>
+        <v>7366722</v>
       </c>
       <c r="E155" t="n">
-        <v>7437524</v>
+        <v>7421481</v>
       </c>
       <c r="F155" t="n">
-        <v>10862.15947892948</v>
+        <v>9544.395382071385</v>
       </c>
       <c r="G155" t="n">
-        <v>1653.424641756365</v>
+        <v>2081.813022110933</v>
       </c>
       <c r="H155" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="I155" t="n">
-        <v>5158668</v>
+        <v>4711153</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>540047</v>
+        <v>539998</v>
       </c>
       <c r="E156" t="n">
-        <v>540047</v>
+        <v>539998</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>35.74</v>
+        <v>37.25</v>
       </c>
       <c r="I156" t="n">
-        <v>5529.1</v>
+        <v>5529.4</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13616571</v>
+        <v>13643010</v>
       </c>
       <c r="E157" t="n">
-        <v>13662910</v>
+        <v>13689438</v>
       </c>
       <c r="F157" t="n">
-        <v>447.2230899493907</v>
+        <v>3367.066140391491</v>
       </c>
       <c r="G157" t="n">
-        <v>4197.685627851169</v>
+        <v>1228.795414690245</v>
       </c>
       <c r="H157" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I157" t="n">
-        <v>5580442</v>
+        <v>5495682</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42819433</v>
+        <v>42875453</v>
       </c>
       <c r="E158" t="n">
-        <v>72697435</v>
+        <v>72792545</v>
       </c>
       <c r="F158" t="n">
-        <v>496.8457311606408</v>
+        <v>384.5460949876357</v>
       </c>
       <c r="G158" t="n">
-        <v>615.3090228877974</v>
+        <v>826.9320723807105</v>
       </c>
       <c r="H158" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I158" t="n">
-        <v>1160758</v>
+        <v>1148460</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>25289764</v>
+        <v>25841433</v>
       </c>
       <c r="E159" t="n">
-        <v>75808255</v>
+        <v>77461493</v>
       </c>
       <c r="F159" t="n">
-        <v>19837.92296256137</v>
+        <v>2495.966835234986</v>
       </c>
       <c r="G159" t="n">
-        <v>8215.899433278841</v>
+        <v>5486.555947500113</v>
       </c>
       <c r="H159" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="I159" t="n">
-        <v>2177949</v>
+        <v>2289018</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>100864963</v>
+        <v>101257691</v>
       </c>
       <c r="E160" t="n">
-        <v>107228572</v>
+        <v>107646077</v>
       </c>
       <c r="F160" t="n">
-        <v>1144.489236047657</v>
+        <v>431.2966388412121</v>
       </c>
       <c r="G160" t="n">
-        <v>1407.329325700357</v>
+        <v>1220.415482388232</v>
       </c>
       <c r="H160" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="I160" t="n">
-        <v>982458</v>
+        <v>984811</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10679707</v>
+        <v>10692419</v>
       </c>
       <c r="E161" t="n">
-        <v>46626161</v>
+        <v>46613676</v>
       </c>
       <c r="F161" t="n">
-        <v>3529.158035937588</v>
+        <v>3644.751327707594</v>
       </c>
       <c r="G161" t="n">
-        <v>3988.621943140901</v>
+        <v>3033.325682060192</v>
       </c>
       <c r="H161" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="I161" t="n">
-        <v>105545</v>
+        <v>111498</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15276602</v>
+        <v>15238563</v>
       </c>
       <c r="E162" t="n">
-        <v>93635318</v>
+        <v>93402161</v>
       </c>
       <c r="F162" t="n">
-        <v>1348.390386725163</v>
+        <v>1369.956204645885</v>
       </c>
       <c r="G162" t="n">
-        <v>1158.935873225462</v>
+        <v>1202.456118889463</v>
       </c>
       <c r="H162" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I162" t="n">
-        <v>11651934</v>
+        <v>11707733</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1487466</v>
+        <v>1487289</v>
       </c>
       <c r="E163" t="n">
-        <v>1529307</v>
+        <v>1529124</v>
       </c>
       <c r="F163" t="n">
-        <v>97.72233744156982</v>
+        <v>88.61540704631597</v>
       </c>
       <c r="G163" t="n">
-        <v>60.71318828366859</v>
+        <v>64.15194372391508</v>
       </c>
       <c r="H163" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="I163" t="n">
-        <v>136318</v>
+        <v>137003</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>95246</v>
+        <v>97041</v>
       </c>
       <c r="E164" t="n">
-        <v>270191</v>
+        <v>275283</v>
       </c>
       <c r="F164" t="n">
-        <v>17.5744741624588</v>
+        <v>4.028932297247207</v>
       </c>
       <c r="G164" t="n">
-        <v>80.39181450799519</v>
+        <v>80.36444124011456</v>
       </c>
       <c r="H164" t="n">
-        <v>0.77</v>
+        <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>14.13</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46261305</v>
+        <v>46352652</v>
       </c>
       <c r="E165" t="n">
-        <v>199288641</v>
+        <v>199682158</v>
       </c>
       <c r="F165" t="n">
-        <v>4130.376004410024</v>
+        <v>3382.273039170879</v>
       </c>
       <c r="G165" t="n">
-        <v>3957.22052055719</v>
+        <v>5758.453306171783</v>
       </c>
       <c r="H165" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I165" t="n">
-        <v>8540468</v>
+        <v>8578366</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7655603</v>
+        <v>7694732</v>
       </c>
       <c r="F166" t="n">
-        <v>220.5257011419975</v>
+        <v>471.3370512845306</v>
       </c>
       <c r="G166" t="n">
-        <v>321.2214780850862</v>
+        <v>97.71971812646633</v>
       </c>
       <c r="H166" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I166" t="n">
-        <v>6419100</v>
+        <v>6390329</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>661020</v>
+        <v>662651</v>
       </c>
       <c r="E167" t="n">
-        <v>2386680</v>
+        <v>2392570</v>
       </c>
       <c r="F167" t="n">
-        <v>50.15515246082339</v>
+        <v>50.65102719275136</v>
       </c>
       <c r="G167" t="n">
-        <v>10.18391762900342</v>
+        <v>10.08206617116516</v>
       </c>
       <c r="H167" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="I167" t="n">
-        <v>409614</v>
+        <v>369632</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1571648</v>
+        <v>1651029</v>
       </c>
       <c r="F168" t="n">
-        <v>1.099549447069988</v>
+        <v>567.4092787714355</v>
       </c>
       <c r="G168" t="n">
-        <v>1.549998656685934</v>
+        <v>13.99741485619379</v>
       </c>
       <c r="H168" t="n">
-        <v>3.61</v>
+        <v>1.29</v>
       </c>
       <c r="I168" t="n">
-        <v>82670</v>
+        <v>91643</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12881381</v>
+        <v>12969983</v>
       </c>
       <c r="E169" t="n">
-        <v>12881381</v>
+        <v>12969983</v>
       </c>
       <c r="F169" t="n">
-        <v>206.6836908342809</v>
+        <v>374.4959617556053</v>
       </c>
       <c r="G169" t="n">
-        <v>530.9201432640842</v>
+        <v>394.6097509803079</v>
       </c>
       <c r="H169" t="n">
-        <v>1.67</v>
+        <v>2.81</v>
       </c>
       <c r="I169" t="n">
-        <v>2801716</v>
+        <v>2805701</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1738170</v>
+        <v>1726919</v>
       </c>
       <c r="E170" t="n">
-        <v>6316826</v>
+        <v>6275667</v>
       </c>
       <c r="F170" t="n">
-        <v>369.6202637813818</v>
+        <v>167.6834149130374</v>
       </c>
       <c r="G170" t="n">
-        <v>173.9446721430824</v>
+        <v>1071.111258980442</v>
       </c>
       <c r="H170" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I170" t="n">
-        <v>134387</v>
+        <v>135628</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>9040314</v>
+        <v>9153127</v>
       </c>
       <c r="E171" t="n">
-        <v>20083753</v>
+        <v>20334377</v>
       </c>
       <c r="F171" t="n">
-        <v>2403.013805714338</v>
+        <v>1672.213555050855</v>
       </c>
       <c r="G171" t="n">
-        <v>1641.640770771408</v>
+        <v>1661.048896501348</v>
       </c>
       <c r="H171" t="n">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="I171" t="n">
-        <v>436995</v>
+        <v>434176</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1017182</v>
+        <v>1011728</v>
       </c>
       <c r="E172" t="n">
-        <v>2973047</v>
+        <v>2957104</v>
       </c>
       <c r="F172" t="n">
-        <v>82.31641722818716</v>
+        <v>99.00339057876323</v>
       </c>
       <c r="G172" t="n">
-        <v>104.8654488742091</v>
+        <v>669.5301725400017</v>
       </c>
       <c r="H172" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I172" t="n">
-        <v>13117.54</v>
+        <v>8800.48</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>21039359</v>
+        <v>20727785</v>
       </c>
       <c r="E173" t="n">
-        <v>84157437</v>
+        <v>82911141</v>
       </c>
       <c r="F173" t="n">
-        <v>19197.25080060686</v>
+        <v>19871.75323229668</v>
       </c>
       <c r="G173" t="n">
-        <v>21065.13617155468</v>
+        <v>28888.06500484116</v>
       </c>
       <c r="H173" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="I173" t="n">
-        <v>5747801</v>
+        <v>5795214</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4342143</v>
+        <v>4315841</v>
       </c>
       <c r="E174" t="n">
-        <v>4342143</v>
+        <v>4315841</v>
       </c>
       <c r="F174" t="n">
-        <v>320.1241794211906</v>
+        <v>1928.198761424598</v>
       </c>
       <c r="G174" t="n">
-        <v>304.0950839247759</v>
+        <v>825.2198886690408</v>
       </c>
       <c r="H174" t="n">
-        <v>0.7</v>
+        <v>1.14</v>
       </c>
       <c r="I174" t="n">
-        <v>2371501</v>
+        <v>2405408</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>295332987</v>
+        <v>295744849</v>
       </c>
       <c r="E175" t="n">
-        <v>295332987</v>
+        <v>295744849</v>
       </c>
       <c r="F175" t="n">
-        <v>6028.391528714817</v>
+        <v>5831.782815061547</v>
       </c>
       <c r="G175" t="n">
-        <v>4302.337678189596</v>
+        <v>3475.706609648412</v>
       </c>
       <c r="H175" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="I175" t="n">
-        <v>12863309</v>
+        <v>12703807</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12718921</v>
+        <v>12751026</v>
       </c>
       <c r="E176" t="n">
-        <v>40239208</v>
+        <v>40340669</v>
       </c>
       <c r="F176" t="n">
-        <v>2403.881842888082</v>
+        <v>2641.015758252456</v>
       </c>
       <c r="G176" t="n">
-        <v>4025.517954737059</v>
+        <v>3835.734786319018</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5</v>
+        <v>0.74</v>
       </c>
       <c r="I176" t="n">
-        <v>1525380</v>
+        <v>1603126</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>25314</v>
+        <v>26676</v>
       </c>
       <c r="E177" t="n">
-        <v>199084</v>
+        <v>209797</v>
       </c>
       <c r="F177" t="n">
-        <v>91.57549919918652</v>
+        <v>417.677059969551</v>
       </c>
       <c r="G177" t="n">
-        <v>929.0782880398609</v>
+        <v>91.48932372195408</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="I177" t="n">
-        <v>119987</v>
+        <v>126212</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8193713</v>
+        <v>8033970</v>
       </c>
       <c r="E178" t="n">
-        <v>8193713</v>
+        <v>8033970</v>
       </c>
       <c r="F178" t="n">
-        <v>1300.765590293948</v>
+        <v>1671.022503091431</v>
       </c>
       <c r="G178" t="n">
-        <v>4447.765081528741</v>
+        <v>2176.063166788576</v>
       </c>
       <c r="H178" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I178" t="n">
-        <v>3822793</v>
+        <v>3798415</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1088924</v>
+        <v>1089156</v>
       </c>
       <c r="E179" t="n">
-        <v>2480131</v>
+        <v>2480660</v>
       </c>
       <c r="F179" t="n">
-        <v>5.544026656744645</v>
+        <v>264.0596477557467</v>
       </c>
       <c r="G179" t="n">
-        <v>25.29500671586516</v>
+        <v>3.935707176522408</v>
       </c>
       <c r="H179" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="I179" t="n">
-        <v>4550.42</v>
+        <v>4846.21</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9990179</v>
+        <v>9633136</v>
       </c>
       <c r="E180" t="n">
-        <v>9990179</v>
+        <v>9633136</v>
       </c>
       <c r="F180" t="n">
-        <v>1739.862383271659</v>
+        <v>2341.63624407703</v>
       </c>
       <c r="G180" t="n">
-        <v>3697.299079542653</v>
+        <v>3662.814428930932</v>
       </c>
       <c r="H180" t="n">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="I180" t="n">
-        <v>2114842</v>
+        <v>2357065</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17030667</v>
+        <v>17002003</v>
       </c>
       <c r="E181" t="n">
-        <v>17030667</v>
+        <v>17002003</v>
       </c>
       <c r="F181" t="n">
-        <v>2744.04201857007</v>
+        <v>2969.944402275409</v>
       </c>
       <c r="G181" t="n">
-        <v>2339.279773320399</v>
+        <v>4033.556910929404</v>
       </c>
       <c r="H181" t="n">
         <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>3351042</v>
+        <v>2482342</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31940871</v>
+        <v>31972385</v>
       </c>
       <c r="E182" t="n">
-        <v>88473043</v>
+        <v>88560334</v>
       </c>
       <c r="F182" t="n">
-        <v>6174.620272304981</v>
+        <v>6224.306707558354</v>
       </c>
       <c r="G182" t="n">
-        <v>5773.391060620836</v>
+        <v>4872.070176097039</v>
       </c>
       <c r="H182" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I182" t="n">
-        <v>11927243</v>
+        <v>11944661</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>35386515</v>
+        <v>35541858</v>
       </c>
       <c r="E183" t="n">
-        <v>89227802</v>
+        <v>89619504</v>
       </c>
       <c r="F183" t="n">
-        <v>13639.83821259152</v>
+        <v>18522.04169752953</v>
       </c>
       <c r="G183" t="n">
-        <v>12842.36373968671</v>
+        <v>10087.54420154366</v>
       </c>
       <c r="H183" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="I183" t="n">
-        <v>2732537</v>
+        <v>2753312</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>293847999</v>
+        <v>295695149</v>
       </c>
       <c r="E184" t="n">
-        <v>298438523</v>
+        <v>300315654</v>
       </c>
       <c r="F184" t="n">
-        <v>16852.39535772517</v>
+        <v>14163.41756785524</v>
       </c>
       <c r="G184" t="n">
-        <v>20947.77358088796</v>
+        <v>20027.79936201074</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>11515016</v>
+        <v>11588419</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>407400</v>
+        <v>408552</v>
       </c>
       <c r="F185" t="n">
-        <v>12.95031383413166</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>324.7449553928631</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0.49</v>
+        <v>5.26</v>
       </c>
       <c r="I185" t="n">
-        <v>60537</v>
+        <v>61390</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>29139379</v>
+        <v>28082779</v>
       </c>
       <c r="E186" t="n">
-        <v>69227919</v>
+        <v>66717701</v>
       </c>
       <c r="F186" t="n">
-        <v>6664.777032083727</v>
+        <v>11070.10385322699</v>
       </c>
       <c r="G186" t="n">
-        <v>11869.05339439662</v>
+        <v>7324.506406990164</v>
       </c>
       <c r="H186" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>600119</v>
+        <v>644200</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>21698178</v>
+        <v>20029526</v>
       </c>
       <c r="F187" t="n">
-        <v>5.421840701134717</v>
+        <v>3.928768857879195</v>
       </c>
       <c r="G187" t="n">
-        <v>4.231469132776174</v>
+        <v>5.505309816404815</v>
       </c>
       <c r="H187" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="I187" t="n">
-        <v>1595.9</v>
+        <v>1609.22</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12031735</v>
+        <v>12030349</v>
       </c>
       <c r="E188" t="n">
-        <v>18337158</v>
+        <v>18335045</v>
       </c>
       <c r="F188" t="n">
-        <v>5049.313573144196</v>
+        <v>3718.789915807603</v>
       </c>
       <c r="G188" t="n">
-        <v>10087.2773752291</v>
+        <v>1847.248776889876</v>
       </c>
       <c r="H188" t="n">
-        <v>0.1</v>
+        <v>0.77</v>
       </c>
       <c r="I188" t="n">
-        <v>807084</v>
+        <v>663326</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>71065846</v>
+        <v>73336286</v>
       </c>
       <c r="E189" t="n">
-        <v>71065846</v>
+        <v>73336286</v>
       </c>
       <c r="F189" t="n">
-        <v>8766.011619842315</v>
+        <v>6546.510700540164</v>
       </c>
       <c r="G189" t="n">
-        <v>5449.639277392943</v>
+        <v>10467.34543725159</v>
       </c>
       <c r="H189" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="I189" t="n">
-        <v>3773543</v>
+        <v>4128254</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>300003147</v>
+        <v>299981943</v>
       </c>
       <c r="E190" t="n">
-        <v>300003147</v>
+        <v>299981943</v>
       </c>
       <c r="F190" t="n">
-        <v>225518.7628246567</v>
+        <v>156538.2603218499</v>
       </c>
       <c r="G190" t="n">
-        <v>350772.5314198958</v>
+        <v>353246.8105801424</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>52899807</v>
+        <v>52559347</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9638003</v>
+        <v>9367003</v>
       </c>
       <c r="E191" t="n">
-        <v>27363898</v>
+        <v>26594483</v>
       </c>
       <c r="F191" t="n">
-        <v>2688.770837125066</v>
+        <v>2945.000374618563</v>
       </c>
       <c r="G191" t="n">
-        <v>3163.26837270306</v>
+        <v>1362.906913025961</v>
       </c>
       <c r="H191" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="I191" t="n">
-        <v>101770</v>
+        <v>114277</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4083681</v>
+        <v>4091157</v>
       </c>
       <c r="E192" t="n">
-        <v>27903502</v>
+        <v>27954589</v>
       </c>
       <c r="F192" t="n">
-        <v>3990.270438576738</v>
+        <v>2255.749146750464</v>
       </c>
       <c r="G192" t="n">
-        <v>6335.799901109356</v>
+        <v>3435.372638589875</v>
       </c>
       <c r="H192" t="n">
         <v>0.71</v>
       </c>
       <c r="I192" t="n">
-        <v>2606161</v>
+        <v>2541922</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3132286</v>
+        <v>3254953</v>
       </c>
       <c r="E193" t="n">
-        <v>4651619</v>
+        <v>4832872</v>
       </c>
       <c r="F193" t="n">
-        <v>93.89764015910035</v>
+        <v>899.2173632663103</v>
       </c>
       <c r="G193" t="n">
-        <v>227.1851144056378</v>
+        <v>272.6853418647057</v>
       </c>
       <c r="H193" t="n">
-        <v>0.65</v>
+        <v>1.03</v>
       </c>
       <c r="I193" t="n">
-        <v>208809</v>
+        <v>211300</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>87805832</v>
+        <v>88020120</v>
       </c>
       <c r="E194" t="n">
-        <v>505975075</v>
+        <v>507209898</v>
       </c>
       <c r="F194" t="n">
-        <v>483646.0351843731</v>
+        <v>473382.543199789</v>
       </c>
       <c r="G194" t="n">
-        <v>349177.8463652532</v>
+        <v>455717.2682984483</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I194" t="n">
-        <v>15527817</v>
+        <v>15811489</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>675168</v>
+        <v>731650</v>
       </c>
       <c r="E195" t="n">
-        <v>736334</v>
+        <v>797932</v>
       </c>
       <c r="F195" t="n">
-        <v>3.985858781435609</v>
+        <v>4.0422468279382</v>
       </c>
       <c r="G195" t="n">
-        <v>317.0329815610855</v>
+        <v>23.28254005298582</v>
       </c>
       <c r="H195" t="n">
         <v>0.75</v>
       </c>
       <c r="I195" t="n">
-        <v>78733</v>
+        <v>84798</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>106942229</v>
+        <v>107400488</v>
       </c>
       <c r="E196" t="n">
-        <v>263119666</v>
+        <v>264247162</v>
       </c>
       <c r="F196" t="n">
-        <v>38154.60113836401</v>
+        <v>29368.92700048024</v>
       </c>
       <c r="G196" t="n">
-        <v>46250.17308959321</v>
+        <v>24485.20002789705</v>
       </c>
       <c r="H196" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2422145</v>
+        <v>2421606</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17596731</v>
+        <v>17355675</v>
       </c>
       <c r="E197" t="n">
-        <v>17596731</v>
+        <v>17355675</v>
       </c>
       <c r="F197" t="n">
-        <v>4.423676156496734</v>
+        <v>4.264353577875906</v>
       </c>
       <c r="G197" t="n">
-        <v>3.694587231645845</v>
+        <v>3.988390665389727</v>
       </c>
       <c r="H197" t="n">
-        <v>0.38</v>
+        <v>0.64</v>
       </c>
       <c r="I197" t="n">
-        <v>94002</v>
+        <v>91849</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1290990</v>
+        <v>1268307</v>
       </c>
       <c r="F198" t="n">
-        <v>5.550506243175923</v>
+        <v>3.955561916810434</v>
       </c>
       <c r="G198" t="n">
-        <v>89.32323665075428</v>
+        <v>82.19403395269259</v>
       </c>
       <c r="H198" t="n">
         <v>0.54</v>
       </c>
       <c r="I198" t="n">
-        <v>30863</v>
+        <v>95403</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>146339</v>
+        <v>128920</v>
       </c>
       <c r="E199" t="n">
-        <v>318577</v>
+        <v>280657</v>
       </c>
       <c r="F199" t="n">
-        <v>3.079147298796859</v>
+        <v>5.243466739579094</v>
       </c>
       <c r="G199" t="n">
-        <v>5.362432002295479</v>
+        <v>2.855259677262088</v>
       </c>
       <c r="H199" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
       <c r="I199" t="n">
-        <v>49566</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2381148</v>
+        <v>2268101</v>
       </c>
       <c r="F200" t="n">
-        <v>78.89526559466512</v>
+        <v>173.5184218368668</v>
       </c>
       <c r="G200" t="n">
-        <v>83.66258346121082</v>
+        <v>334.4749748999965</v>
       </c>
       <c r="H200" t="n">
-        <v>3.35</v>
+        <v>2.64</v>
       </c>
       <c r="I200" t="n">
-        <v>171639</v>
+        <v>173343</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>178359</v>
+        <v>182386</v>
       </c>
       <c r="E201" t="n">
-        <v>1377293</v>
+        <v>1408383</v>
       </c>
       <c r="F201" t="n">
-        <v>9.279251714396743</v>
+        <v>3.995046839115559</v>
       </c>
       <c r="G201" t="n">
-        <v>3.921858929540356</v>
+        <v>472.0745393440955</v>
       </c>
       <c r="H201" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="I201" t="n">
-        <v>139219</v>
+        <v>137164</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30270269</v>
+        <v>30321297</v>
       </c>
       <c r="E202" t="n">
-        <v>135532410</v>
+        <v>135760884</v>
       </c>
       <c r="F202" t="n">
-        <v>8857.520919215993</v>
+        <v>10262.66898670625</v>
       </c>
       <c r="G202" t="n">
-        <v>7847.011477220407</v>
+        <v>11656.46072559101</v>
       </c>
       <c r="H202" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I202" t="n">
-        <v>10090076</v>
+        <v>9879259</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13089738</v>
+        <v>13097605</v>
       </c>
       <c r="E203" t="n">
-        <v>26168046</v>
+        <v>26183774</v>
       </c>
       <c r="F203" t="n">
-        <v>1653.177019628798</v>
+        <v>719.7630759224013</v>
       </c>
       <c r="G203" t="n">
-        <v>130.0219838765311</v>
+        <v>705.8169245427069</v>
       </c>
       <c r="H203" t="n">
         <v>0.15</v>
       </c>
       <c r="I203" t="n">
-        <v>42535</v>
+        <v>41284</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1449434</v>
+        <v>1561589</v>
       </c>
       <c r="F204" t="n">
-        <v>34.3269062504155</v>
+        <v>5.097726703273242</v>
       </c>
       <c r="G204" t="n">
-        <v>808.1350336257428</v>
+        <v>49.11565581843042</v>
       </c>
       <c r="H204" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="I204" t="n">
-        <v>60977</v>
+        <v>71079</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1006563</v>
+        <v>994937</v>
       </c>
       <c r="E205" t="n">
-        <v>4655497</v>
+        <v>4601724</v>
       </c>
       <c r="F205" t="n">
-        <v>4387.297846167769</v>
+        <v>4246.147025985311</v>
       </c>
       <c r="G205" t="n">
-        <v>2293.237704708644</v>
+        <v>2274.592959251042</v>
       </c>
       <c r="H205" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="I205" t="n">
-        <v>419554</v>
+        <v>414345</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3007919</v>
+        <v>2948286</v>
       </c>
       <c r="E206" t="n">
-        <v>3007919</v>
+        <v>2948286</v>
       </c>
       <c r="F206" t="n">
-        <v>922.7503418132662</v>
+        <v>1072.047044026156</v>
       </c>
       <c r="G206" t="n">
-        <v>909.8824474343913</v>
+        <v>730.0275124739779</v>
       </c>
       <c r="H206" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I206" t="n">
-        <v>388063</v>
+        <v>374179</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>573417</v>
+        <v>572416</v>
       </c>
       <c r="E207" t="n">
-        <v>573417</v>
+        <v>572416</v>
       </c>
       <c r="F207" t="n">
-        <v>5.276083489815022</v>
+        <v>455.0409902128219</v>
       </c>
       <c r="G207" t="n">
-        <v>621.7802025896287</v>
+        <v>621.5320845468227</v>
       </c>
       <c r="H207" t="n">
         <v>0.18</v>
       </c>
       <c r="I207" t="n">
-        <v>1457396</v>
+        <v>1422152</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13749504</v>
+        <v>13782841</v>
       </c>
       <c r="E208" t="n">
-        <v>17505314</v>
+        <v>17547757</v>
       </c>
       <c r="F208" t="n">
-        <v>173.4552942205045</v>
+        <v>122.3863867019853</v>
       </c>
       <c r="G208" t="n">
-        <v>662.9746758935096</v>
+        <v>298.8628649450385</v>
       </c>
       <c r="H208" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I208" t="n">
-        <v>817283</v>
+        <v>781950</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1894334</v>
+        <v>1973123</v>
       </c>
       <c r="E209" t="n">
-        <v>1894334</v>
+        <v>1973123</v>
       </c>
       <c r="F209" t="n">
-        <v>5.231082436176154</v>
+        <v>5.231593856684868</v>
       </c>
       <c r="G209" t="n">
-        <v>29.1946193138983</v>
+        <v>41.72201261800623</v>
       </c>
       <c r="H209" t="n">
         <v>0.8</v>
       </c>
       <c r="I209" t="n">
-        <v>3908.71</v>
+        <v>3928.3</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6268274</v>
+        <v>6036117</v>
       </c>
       <c r="E210" t="n">
-        <v>16451129</v>
+        <v>15841830</v>
       </c>
       <c r="F210" t="n">
-        <v>7427.541417006885</v>
+        <v>1662.367717813882</v>
       </c>
       <c r="G210" t="n">
-        <v>1105.714922092418</v>
+        <v>846.9031667926148</v>
       </c>
       <c r="H210" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="I210" t="n">
-        <v>2095124</v>
+        <v>73982</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>27946379</v>
+        <v>28371296</v>
       </c>
       <c r="F211" t="n">
-        <v>53.87979800045044</v>
+        <v>138.5188499444262</v>
       </c>
       <c r="G211" t="n">
-        <v>3612.066138628156</v>
+        <v>2008.186473808263</v>
       </c>
       <c r="H211" t="n">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="I211" t="n">
-        <v>328049</v>
+        <v>339435</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17591640</v>
+        <v>17814265</v>
       </c>
       <c r="E212" t="n">
-        <v>17591640</v>
+        <v>17814265</v>
       </c>
       <c r="F212" t="n">
-        <v>23465.27083008448</v>
+        <v>25714.38380104545</v>
       </c>
       <c r="G212" t="n">
-        <v>19849.02209917693</v>
+        <v>14947.84049851058</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2427129</v>
+        <v>2613830</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47585442</v>
+        <v>47505742</v>
       </c>
       <c r="E213" t="n">
-        <v>308578930</v>
+        <v>308062096</v>
       </c>
       <c r="F213" t="n">
-        <v>143650.1168547506</v>
+        <v>153209.5022496259</v>
       </c>
       <c r="G213" t="n">
-        <v>220576.0189509193</v>
+        <v>201179.0541326859</v>
       </c>
       <c r="H213" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I213" t="n">
-        <v>16493058</v>
+        <v>17240756</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9282872</v>
+        <v>9300160</v>
       </c>
       <c r="F214" t="n">
-        <v>42.17468497610154</v>
+        <v>4.295772277276629</v>
       </c>
       <c r="G214" t="n">
-        <v>168.4361063308139</v>
+        <v>4.007144871415998</v>
       </c>
       <c r="H214" t="n">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="I214" t="n">
-        <v>293024</v>
+        <v>291498</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6980635</v>
+        <v>6838754</v>
       </c>
       <c r="E215" t="n">
-        <v>6990586</v>
+        <v>6848490</v>
       </c>
       <c r="F215" t="n">
-        <v>126.018592969865</v>
+        <v>1152.131979462191</v>
       </c>
       <c r="G215" t="n">
-        <v>25.32910771965565</v>
+        <v>1925.038943007379</v>
       </c>
       <c r="H215" t="n">
         <v>1.63</v>
       </c>
       <c r="I215" t="n">
-        <v>773737</v>
+        <v>974526</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4770383</v>
+        <v>4761078</v>
       </c>
       <c r="F216" t="n">
-        <v>1048.616311070937</v>
+        <v>2212.83257431729</v>
       </c>
       <c r="G216" t="n">
-        <v>239.0568316449711</v>
+        <v>141.0108772818088</v>
       </c>
       <c r="H216" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="I216" t="n">
-        <v>150106</v>
+        <v>154000</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2499442</v>
+        <v>2430608</v>
       </c>
       <c r="E217" t="n">
-        <v>4528210</v>
+        <v>4403504</v>
       </c>
       <c r="F217" t="n">
-        <v>128.6419133118443</v>
+        <v>142.8556106691224</v>
       </c>
       <c r="G217" t="n">
-        <v>183.2725115659639</v>
+        <v>122.0357256421856</v>
       </c>
       <c r="H217" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I217" t="n">
-        <v>116615</v>
+        <v>108068</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125052203</v>
+        <v>125133430</v>
       </c>
       <c r="E218" t="n">
-        <v>2070966901</v>
+        <v>2072312095</v>
       </c>
       <c r="F218" t="n">
-        <v>4817.211696134746</v>
+        <v>5571.001623599325</v>
       </c>
       <c r="G218" t="n">
-        <v>11073.65040064569</v>
+        <v>9199.823621590505</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>5467472</v>
+        <v>5169885</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>73523033</v>
+        <v>73622768</v>
       </c>
       <c r="E219" t="n">
-        <v>74314460</v>
+        <v>74415269</v>
       </c>
       <c r="F219" t="n">
-        <v>9770.78608089037</v>
+        <v>15468.89791831889</v>
       </c>
       <c r="G219" t="n">
-        <v>25292.58800427535</v>
+        <v>23534.43938354484</v>
       </c>
       <c r="H219" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I219" t="n">
-        <v>8437568</v>
+        <v>8651307</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>235383936</v>
+        <v>234436550</v>
       </c>
       <c r="E220" t="n">
-        <v>235383936</v>
+        <v>234436550</v>
       </c>
       <c r="F220" t="n">
-        <v>105470.0673790739</v>
+        <v>145184.7619133794</v>
       </c>
       <c r="G220" t="n">
-        <v>112443.8358535167</v>
+        <v>120716.9511733893</v>
       </c>
       <c r="H220" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I220" t="n">
-        <v>42097652</v>
+        <v>42138062</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23438369</v>
+        <v>23472252</v>
       </c>
       <c r="E221" t="n">
-        <v>140236474</v>
+        <v>140439201</v>
       </c>
       <c r="F221" t="n">
-        <v>63766.01928186139</v>
+        <v>54275.93809159836</v>
       </c>
       <c r="G221" t="n">
-        <v>78994.96020962378</v>
+        <v>74310.96779154114</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>13617455</v>
+        <v>13413811</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1003870</v>
+        <v>996170</v>
       </c>
       <c r="F222" t="n">
-        <v>278.1184607484073</v>
+        <v>477.5086903184234</v>
       </c>
       <c r="G222" t="n">
-        <v>238.2902364520048</v>
+        <v>573.5031243673878</v>
       </c>
       <c r="H222" t="n">
-        <v>1.91</v>
+        <v>0.88</v>
       </c>
       <c r="I222" t="n">
-        <v>69999</v>
+        <v>70113</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2296574</v>
+        <v>2289384</v>
       </c>
       <c r="F223" t="n">
-        <v>199.1599344970495</v>
+        <v>215.8361553399592</v>
       </c>
       <c r="G223" t="n">
-        <v>182.3315479814547</v>
+        <v>177.4757393801066</v>
       </c>
       <c r="H223" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="I223" t="n">
-        <v>213165</v>
+        <v>214117</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14497176</v>
+        <v>14337752</v>
       </c>
       <c r="E224" t="n">
-        <v>44486747</v>
+        <v>43997529</v>
       </c>
       <c r="F224" t="n">
-        <v>521.9831583733182</v>
+        <v>4316.490984562744</v>
       </c>
       <c r="G224" t="n">
-        <v>1075.179266529854</v>
+        <v>1466.948695105962</v>
       </c>
       <c r="H224" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I224" t="n">
-        <v>2522450</v>
+        <v>1693861</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52213750</v>
+        <v>52531827</v>
       </c>
       <c r="E225" t="n">
-        <v>90184497</v>
+        <v>90733885</v>
       </c>
       <c r="F225" t="n">
-        <v>1927.586436450075</v>
+        <v>7230.398708010492</v>
       </c>
       <c r="G225" t="n">
-        <v>227.9155787767467</v>
+        <v>7124.113016831424</v>
       </c>
       <c r="H225" t="n">
-        <v>1.22</v>
+        <v>0.25</v>
       </c>
       <c r="I225" t="n">
-        <v>2065022</v>
+        <v>1997522</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4235044</v>
+        <v>4208665</v>
       </c>
       <c r="E226" t="n">
-        <v>4235044</v>
+        <v>4208665</v>
       </c>
       <c r="F226" t="n">
-        <v>30.52449335404955</v>
+        <v>10.00044787608627</v>
       </c>
       <c r="G226" t="n">
-        <v>105.2568264481428</v>
+        <v>34.79932248314699</v>
       </c>
       <c r="H226" t="n">
         <v>0.35</v>
       </c>
       <c r="I226" t="n">
-        <v>1559588</v>
+        <v>1541004</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>208759</v>
+        <v>204769</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>60884</v>
+        <v>61161</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6735417</v>
+        <v>6828123</v>
       </c>
       <c r="E228" t="n">
-        <v>34651675</v>
+        <v>35128616</v>
       </c>
       <c r="F228" t="n">
-        <v>208.0577571957224</v>
+        <v>231.7002307315192</v>
       </c>
       <c r="G228" t="n">
-        <v>115.3163067908535</v>
+        <v>105.8267738591464</v>
       </c>
       <c r="H228" t="n">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="I228" t="n">
-        <v>894260</v>
+        <v>910740</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>177286183</v>
+        <v>177521460</v>
       </c>
       <c r="E230" t="n">
-        <v>207122609</v>
+        <v>207397482</v>
       </c>
       <c r="F230" t="n">
-        <v>18494.07491650685</v>
+        <v>12254.82350813369</v>
       </c>
       <c r="G230" t="n">
-        <v>31916.77154900182</v>
+        <v>40809.65094602309</v>
       </c>
       <c r="H230" t="n">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="I230" t="n">
-        <v>4477168</v>
+        <v>4802329</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>306542</v>
+        <v>306374</v>
       </c>
       <c r="F231" t="n">
-        <v>107.2618459649863</v>
+        <v>108.7141938792075</v>
       </c>
       <c r="G231" t="n">
-        <v>149.4104218997128</v>
+        <v>151.3095398442583</v>
       </c>
       <c r="H231" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I231" t="n">
-        <v>245812</v>
+        <v>253208</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>28753066</v>
+        <v>28898747</v>
       </c>
       <c r="E232" t="n">
-        <v>39516510</v>
+        <v>39716725</v>
       </c>
       <c r="F232" t="n">
-        <v>6327.237841404675</v>
+        <v>4411.898275937018</v>
       </c>
       <c r="G232" t="n">
-        <v>5278.264672544207</v>
+        <v>6566.462402623801</v>
       </c>
       <c r="H232" t="n">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="I232" t="n">
-        <v>320748</v>
+        <v>335909</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>2567036</v>
+        <v>2499257</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1354245</v>
+        <v>1498540</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8054406</v>
+        <v>8068464</v>
       </c>
       <c r="F234" t="n">
-        <v>820.4217881707211</v>
+        <v>465.4511914871887</v>
       </c>
       <c r="G234" t="n">
-        <v>3334.595593191611</v>
+        <v>3289.703444291573</v>
       </c>
       <c r="H234" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>609645</v>
+        <v>710371</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23091782</v>
+        <v>23338607</v>
       </c>
       <c r="E235" t="n">
-        <v>23091782</v>
+        <v>23338607</v>
       </c>
       <c r="F235" t="n">
-        <v>8743.796970780069</v>
+        <v>9862.865258094685</v>
       </c>
       <c r="G235" t="n">
-        <v>30246.49843508222</v>
+        <v>17808.81696025838</v>
       </c>
       <c r="H235" t="n">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="I235" t="n">
-        <v>1793817</v>
+        <v>1878169</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3336274</v>
+        <v>3341271</v>
       </c>
       <c r="E236" t="n">
-        <v>4469150</v>
+        <v>4475843</v>
       </c>
       <c r="F236" t="n">
-        <v>254.9644697868581</v>
+        <v>288.2927272322301</v>
       </c>
       <c r="G236" t="n">
-        <v>450.4335844781872</v>
+        <v>439.272552513013</v>
       </c>
       <c r="H236" t="n">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="I236" t="n">
-        <v>149081</v>
+        <v>149472</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34192558</v>
+        <v>33971957</v>
       </c>
       <c r="E237" t="n">
-        <v>170636627</v>
+        <v>169535726</v>
       </c>
       <c r="F237" t="n">
-        <v>120874.4687022784</v>
+        <v>85939.8519946703</v>
       </c>
       <c r="G237" t="n">
-        <v>86299.27270629264</v>
+        <v>97476.10376199186</v>
       </c>
       <c r="H237" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>9360430</v>
+        <v>9617800</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26303540</v>
+        <v>26425368</v>
       </c>
       <c r="E238" t="n">
-        <v>59297807</v>
+        <v>59572453</v>
       </c>
       <c r="F238" t="n">
-        <v>181.6686388967747</v>
+        <v>216.9877733041995</v>
       </c>
       <c r="G238" t="n">
-        <v>112.729322118682</v>
+        <v>205.8243412469802</v>
       </c>
       <c r="H238" t="n">
-        <v>0.25</v>
+        <v>1.02</v>
       </c>
       <c r="I238" t="n">
-        <v>465475</v>
+        <v>463944</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1923518</v>
+        <v>2010742</v>
       </c>
       <c r="E239" t="n">
-        <v>1923518</v>
+        <v>2010742</v>
       </c>
       <c r="F239" t="n">
-        <v>243.7344590629541</v>
+        <v>238.4311668240883</v>
       </c>
       <c r="G239" t="n">
-        <v>35.22519405136817</v>
+        <v>79.88056238258721</v>
       </c>
       <c r="H239" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="I239" t="n">
-        <v>7082.61</v>
+        <v>8678.75</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71983769</v>
+        <v>71886982</v>
       </c>
       <c r="F240" t="n">
-        <v>3.808360697999722</v>
+        <v>5.295681910852948</v>
       </c>
       <c r="G240" t="n">
-        <v>3.109832303651638</v>
+        <v>3.437138363556282</v>
       </c>
       <c r="H240" t="n">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
       <c r="I240" t="n">
-        <v>67181</v>
+        <v>67685</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>924201</v>
+        <v>928921</v>
       </c>
       <c r="E241" t="n">
-        <v>924201</v>
+        <v>928921</v>
       </c>
       <c r="F241" t="n">
-        <v>4.609641971342178</v>
+        <v>4.099032340148424</v>
       </c>
       <c r="G241" t="n">
-        <v>44.58325320617808</v>
+        <v>5.680771181109478</v>
       </c>
       <c r="H241" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="I241" t="n">
-        <v>15444</v>
+        <v>15798.05</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>114326</v>
+        <v>118416</v>
       </c>
       <c r="E242" t="n">
-        <v>114326</v>
+        <v>118416</v>
       </c>
       <c r="F242" t="n">
-        <v>36.08017917483018</v>
+        <v>85.87927283527549</v>
       </c>
       <c r="G242" t="n">
-        <v>20.23216338230914</v>
+        <v>5.154319812282266</v>
       </c>
       <c r="H242" t="n">
         <v>0.08</v>
       </c>
       <c r="I242" t="n">
-        <v>37381</v>
+        <v>39667</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3423878</v>
+        <v>3437996</v>
       </c>
       <c r="E243" t="n">
-        <v>4918728</v>
+        <v>4939010</v>
       </c>
       <c r="F243" t="n">
-        <v>167.9144574525376</v>
+        <v>132.3988869360367</v>
       </c>
       <c r="G243" t="n">
-        <v>77.31609599877989</v>
+        <v>94.07230076478326</v>
       </c>
       <c r="H243" t="n">
         <v>1.62</v>
       </c>
       <c r="I243" t="n">
-        <v>183156</v>
+        <v>181492</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>314165480</v>
+        <v>314232155</v>
       </c>
       <c r="E244" t="n">
-        <v>581277782</v>
+        <v>581401147</v>
       </c>
       <c r="F244" t="n">
-        <v>37418.71716646451</v>
+        <v>38082.13073021734</v>
       </c>
       <c r="G244" t="n">
-        <v>46635.58061823277</v>
+        <v>39246.13056911761</v>
       </c>
       <c r="H244" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I244" t="n">
-        <v>12943177</v>
+        <v>12118005</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>71018818</v>
+        <v>72838475</v>
       </c>
       <c r="E245" t="n">
-        <v>677634910</v>
+        <v>694984289</v>
       </c>
       <c r="F245" t="n">
-        <v>51835.68181535938</v>
+        <v>59538.00566952339</v>
       </c>
       <c r="G245" t="n">
-        <v>77569.24604359125</v>
+        <v>59402.31388310489</v>
       </c>
       <c r="H245" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>18879932</v>
+        <v>20591460</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>83767</v>
+        <v>81827</v>
       </c>
       <c r="E246" t="n">
-        <v>696373</v>
+        <v>680247</v>
       </c>
       <c r="F246" t="n">
-        <v>11.96219884117977</v>
+        <v>11.96194424259016</v>
       </c>
       <c r="G246" t="n">
-        <v>4.02248827685044</v>
+        <v>5.448685985604778</v>
       </c>
       <c r="H246" t="n">
         <v>1</v>
       </c>
       <c r="I246" t="n">
-        <v>202.21</v>
+        <v>373.28</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1902097</v>
+        <v>1896225</v>
       </c>
       <c r="E247" t="n">
-        <v>5432143</v>
+        <v>5415376</v>
       </c>
       <c r="F247" t="n">
-        <v>137.9363753035375</v>
+        <v>408.4097304848232</v>
       </c>
       <c r="G247" t="n">
-        <v>386.1537962382043</v>
+        <v>406.4648540758056</v>
       </c>
       <c r="H247" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="I247" t="n">
-        <v>75797</v>
+        <v>74881</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37435216</v>
+        <v>37771421</v>
       </c>
       <c r="E248" t="n">
-        <v>48947641</v>
+        <v>49386808</v>
       </c>
       <c r="F248" t="n">
-        <v>1818.462230370134</v>
+        <v>11513.27866339505</v>
       </c>
       <c r="G248" t="n">
-        <v>69.11098316197453</v>
+        <v>318.7768742986523</v>
       </c>
       <c r="H248" t="n">
-        <v>1.64</v>
+        <v>3.02</v>
       </c>
       <c r="I248" t="n">
-        <v>349737</v>
+        <v>644485</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9335699</v>
+        <v>9549590</v>
       </c>
       <c r="E249" t="n">
-        <v>27840764</v>
+        <v>28478625</v>
       </c>
       <c r="F249" t="n">
-        <v>2227.655553106443</v>
+        <v>2229.998551941212</v>
       </c>
       <c r="G249" t="n">
-        <v>2489.100253016391</v>
+        <v>2145.011506616196</v>
       </c>
       <c r="H249" t="n">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="I249" t="n">
-        <v>3937018</v>
+        <v>4840943</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2006490</v>
+        <v>2052474</v>
       </c>
       <c r="E250" t="n">
-        <v>5821472</v>
+        <v>5954886</v>
       </c>
       <c r="F250" t="n">
-        <v>200.9811120420091</v>
+        <v>193.8721312667982</v>
       </c>
       <c r="G250" t="n">
-        <v>32.37072042599833</v>
+        <v>71.67194718884973</v>
       </c>
       <c r="H250" t="n">
         <v>0.02</v>
       </c>
       <c r="I250" t="n">
-        <v>64758</v>
+        <v>68503</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7277897</v>
+        <v>7065180</v>
       </c>
       <c r="E251" t="n">
-        <v>7277908</v>
+        <v>7065190</v>
       </c>
       <c r="F251" t="n">
-        <v>988.7484314532588</v>
+        <v>474.3178100025124</v>
       </c>
       <c r="G251" t="n">
-        <v>481.653190688003</v>
+        <v>2960.138266007706</v>
       </c>
       <c r="H251" t="n">
-        <v>1.23</v>
+        <v>1.72</v>
       </c>
       <c r="I251" t="n">
-        <v>283318</v>
+        <v>302726</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5781052</v>
+        <v>5859438</v>
       </c>
       <c r="E252" t="n">
-        <v>5781052</v>
+        <v>5859438</v>
       </c>
       <c r="F252" t="n">
-        <v>733.9670761037733</v>
+        <v>83.86630442273103</v>
       </c>
       <c r="G252" t="n">
-        <v>1727.347233485906</v>
+        <v>1079.559115231502</v>
       </c>
       <c r="H252" t="n">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I252" t="n">
-        <v>433201</v>
+        <v>392079</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6183006</v>
+        <v>6189324</v>
       </c>
       <c r="E253" t="n">
-        <v>22584129</v>
+        <v>22607207</v>
       </c>
       <c r="F253" t="n">
-        <v>571.1802072850755</v>
+        <v>576.0412191726664</v>
       </c>
       <c r="G253" t="n">
-        <v>88.56262223501373</v>
+        <v>81.00816932978648</v>
       </c>
       <c r="H253" t="n">
-        <v>0.49</v>
+        <v>1.12</v>
       </c>
       <c r="I253" t="n">
-        <v>427913</v>
+        <v>448307</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2122050</v>
+        <v>2118116</v>
       </c>
       <c r="E254" t="n">
-        <v>18717891</v>
+        <v>18683186</v>
       </c>
       <c r="F254" t="n">
-        <v>227.1530379408049</v>
+        <v>2804.195881998083</v>
       </c>
       <c r="G254" t="n">
-        <v>172.6664989269664</v>
+        <v>379.4195049487856</v>
       </c>
       <c r="H254" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="I254" t="n">
-        <v>75527</v>
+        <v>77082</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14625683</v>
+        <v>14499577</v>
       </c>
       <c r="E255" t="n">
-        <v>29608802</v>
+        <v>29353508</v>
       </c>
       <c r="F255" t="n">
-        <v>96.1925754332825</v>
+        <v>95.95358782246493</v>
       </c>
       <c r="G255" t="n">
-        <v>257.3802008992661</v>
+        <v>21.22844473679643</v>
       </c>
       <c r="H255" t="n">
         <v>0.61</v>
       </c>
       <c r="I255" t="n">
-        <v>535142</v>
+        <v>520588</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44608663</v>
+        <v>44643372</v>
       </c>
       <c r="E256" t="n">
-        <v>44608663</v>
+        <v>44643372</v>
       </c>
       <c r="F256" t="n">
-        <v>6584.661384670371</v>
+        <v>7573.008480327643</v>
       </c>
       <c r="G256" t="n">
-        <v>1887.974419877553</v>
+        <v>8165.471467692836</v>
       </c>
       <c r="H256" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I256" t="n">
-        <v>7692497</v>
+        <v>7694214</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>7859073</v>
+        <v>7859263</v>
       </c>
       <c r="E257" t="n">
-        <v>11197378</v>
+        <v>11197650</v>
       </c>
       <c r="F257" t="n">
-        <v>349.4442759713545</v>
+        <v>350.3309125383307</v>
       </c>
       <c r="G257" t="n">
-        <v>144.4623134849128</v>
+        <v>95.51133794504764</v>
       </c>
       <c r="H257" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I257" t="n">
-        <v>346229</v>
+        <v>321232</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>149636966</v>
+        <v>151326909</v>
       </c>
       <c r="F258" t="n">
-        <v>884.5068554377226</v>
+        <v>254.1696436084268</v>
       </c>
       <c r="G258" t="n">
-        <v>33.51906495053521</v>
+        <v>36.74176913735391</v>
       </c>
       <c r="H258" t="n">
-        <v>0.2</v>
+        <v>2.08</v>
       </c>
       <c r="I258" t="n">
-        <v>1303805</v>
+        <v>1008725</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16132416</v>
+        <v>16318541</v>
       </c>
       <c r="F259" t="n">
-        <v>95.13675675784519</v>
+        <v>97.41316202778192</v>
       </c>
       <c r="G259" t="n">
-        <v>151.2966785023574</v>
+        <v>147.2636636755782</v>
       </c>
       <c r="H259" t="n">
         <v>0.47</v>
       </c>
       <c r="I259" t="n">
-        <v>998171</v>
+        <v>997015</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>720525</v>
+        <v>722603</v>
       </c>
       <c r="F260" t="n">
-        <v>4.999114071149168</v>
+        <v>50.23255284015126</v>
       </c>
       <c r="G260" t="n">
-        <v>117.4111990594022</v>
+        <v>28.01275527300779</v>
       </c>
       <c r="H260" t="n">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="I260" t="n">
-        <v>230503</v>
+        <v>225408</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3002343</v>
+        <v>3051675</v>
       </c>
       <c r="F261" t="n">
-        <v>59.59088803154034</v>
+        <v>52.19910800013373</v>
       </c>
       <c r="G261" t="n">
-        <v>44.68752495354636</v>
+        <v>23.41250303713963</v>
       </c>
       <c r="H261" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="I261" t="n">
-        <v>73980</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2842110</v>
+        <v>2837127</v>
       </c>
       <c r="E262" t="n">
-        <v>2844571</v>
+        <v>2839585</v>
       </c>
       <c r="F262" t="n">
-        <v>38.32234141235443</v>
+        <v>25.68287654555559</v>
       </c>
       <c r="G262" t="n">
-        <v>5.251729786416357</v>
+        <v>23.64062857965901</v>
       </c>
       <c r="H262" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="I262" t="n">
-        <v>73150</v>
+        <v>64481</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61239841</v>
+        <v>61328817</v>
       </c>
       <c r="E263" t="n">
-        <v>101315162</v>
+        <v>101462363</v>
       </c>
       <c r="F263" t="n">
-        <v>9349.84675797668</v>
+        <v>9762.416988025883</v>
       </c>
       <c r="G263" t="n">
-        <v>10022.83886106609</v>
+        <v>10872.28967634678</v>
       </c>
       <c r="H263" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="I263" t="n">
-        <v>5587829</v>
+        <v>5623603</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>690614</v>
+        <v>697198</v>
       </c>
       <c r="F264" t="n">
-        <v>141.0127120865016</v>
+        <v>169.8886981093237</v>
       </c>
       <c r="G264" t="n">
-        <v>368.6627746528264</v>
+        <v>84.48717279418443</v>
       </c>
       <c r="H264" t="n">
-        <v>0.98</v>
+        <v>0.58</v>
       </c>
       <c r="I264" t="n">
-        <v>563609</v>
+        <v>525764</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1252703</v>
+        <v>1259710</v>
       </c>
       <c r="E265" t="n">
-        <v>3789907</v>
+        <v>3811387</v>
       </c>
       <c r="F265" t="n">
-        <v>48.81981167128052</v>
+        <v>48.99168908790911</v>
       </c>
       <c r="G265" t="n">
-        <v>847.8781168559317</v>
+        <v>1056.010162555873</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>21481</v>
+        <v>22427</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>37950970</v>
+        <v>38235518</v>
       </c>
       <c r="E266" t="n">
-        <v>269066187</v>
+        <v>271083588</v>
       </c>
       <c r="F266" t="n">
-        <v>72455.1743491802</v>
+        <v>58258.05987695634</v>
       </c>
       <c r="G266" t="n">
-        <v>28521.92493807181</v>
+        <v>29513.10598311319</v>
       </c>
       <c r="H266" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I266" t="n">
-        <v>1810297</v>
+        <v>1885995</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>83021</v>
+        <v>59857</v>
       </c>
       <c r="E267" t="n">
-        <v>433169</v>
+        <v>312311</v>
       </c>
       <c r="F267" t="n">
-        <v>4.006887988423253</v>
+        <v>5.275375926987495</v>
       </c>
       <c r="G267" t="n">
-        <v>4945.311258040657</v>
+        <v>15.33899837911907</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="I267" t="n">
-        <v>239366</v>
+        <v>302220</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1263446</v>
+        <v>1264420</v>
       </c>
       <c r="E268" t="n">
-        <v>7835303</v>
+        <v>7841345</v>
       </c>
       <c r="F268" t="n">
-        <v>2456.428008679164</v>
+        <v>1993.443092143704</v>
       </c>
       <c r="G268" t="n">
-        <v>2002.636400034547</v>
+        <v>2887.847867886929</v>
       </c>
       <c r="H268" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I268" t="n">
-        <v>903703</v>
+        <v>841976</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>596696120</v>
+        <v>596642092</v>
       </c>
       <c r="E269" t="n">
-        <v>2310916037</v>
+        <v>2310706795</v>
       </c>
       <c r="F269" t="n">
-        <v>211331.2249986223</v>
+        <v>212127.0023986557</v>
       </c>
       <c r="G269" t="n">
-        <v>281020.9625439246</v>
+        <v>309630.815925391</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>28096752</v>
+        <v>30477087</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3276061</v>
+        <v>3259888</v>
       </c>
       <c r="F270" t="n">
-        <v>406.0110916414405</v>
+        <v>213.6560189765597</v>
       </c>
       <c r="G270" t="n">
-        <v>172.9141069957773</v>
+        <v>168.6899575069452</v>
       </c>
       <c r="H270" t="n">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="I270" t="n">
-        <v>31038</v>
+        <v>30892</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>958303</v>
+        <v>902971</v>
       </c>
       <c r="F271" t="n">
-        <v>251.7098457915698</v>
+        <v>112.9695655650635</v>
       </c>
       <c r="G271" t="n">
-        <v>27.24142989946004</v>
+        <v>79.48115465661974</v>
       </c>
       <c r="H271" t="n">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="I271" t="n">
-        <v>522496</v>
+        <v>414008</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5795679</v>
+        <v>5811567</v>
       </c>
       <c r="E272" t="n">
-        <v>25947998</v>
+        <v>26019134</v>
       </c>
       <c r="F272" t="n">
-        <v>179.0036100456287</v>
+        <v>204.6824163215847</v>
       </c>
       <c r="G272" t="n">
-        <v>144.4563126962162</v>
+        <v>92.05623515399003</v>
       </c>
       <c r="H272" t="n">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="I272" t="n">
-        <v>143301</v>
+        <v>144824</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>5989149</v>
+        <v>6114314</v>
       </c>
       <c r="E273" t="n">
-        <v>11466712</v>
+        <v>11706350</v>
       </c>
       <c r="F273" t="n">
-        <v>5439.430485781405</v>
+        <v>5196.130286856992</v>
       </c>
       <c r="G273" t="n">
-        <v>3985.34011155571</v>
+        <v>2086.98112666694</v>
       </c>
       <c r="H273" t="n">
         <v>0.97</v>
       </c>
       <c r="I273" t="n">
-        <v>178961</v>
+        <v>175673</v>
       </c>
     </row>
     <row r="274">
@@ -9987,10 +9987,10 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3301076</v>
+        <v>3287878</v>
       </c>
       <c r="E274" t="n">
-        <v>21707108</v>
+        <v>21620320</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>4.41</v>
       </c>
       <c r="I274" t="n">
-        <v>1451868</v>
+        <v>1440175</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3673630</v>
+        <v>3672390</v>
       </c>
       <c r="E275" t="n">
-        <v>6262201</v>
+        <v>6260088</v>
       </c>
       <c r="F275" t="n">
-        <v>859.7523773065819</v>
+        <v>878.8750630695424</v>
       </c>
       <c r="G275" t="n">
-        <v>544.2760094445438</v>
+        <v>519.5727983771114</v>
       </c>
       <c r="H275" t="n">
         <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>917821</v>
+        <v>909020</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>356180</v>
+        <v>388012</v>
       </c>
       <c r="E276" t="n">
-        <v>356180</v>
+        <v>388012</v>
       </c>
       <c r="F276" t="n">
-        <v>29.22855366129417</v>
+        <v>9.117647070044862</v>
       </c>
       <c r="G276" t="n">
-        <v>5.285498772192307</v>
+        <v>3.998414470966775</v>
       </c>
       <c r="H276" t="n">
         <v>0.55</v>
       </c>
       <c r="I276" t="n">
-        <v>265.55</v>
+        <v>1000.93</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7122665</v>
+        <v>7048636</v>
       </c>
       <c r="E277" t="n">
-        <v>10221217</v>
+        <v>10100472</v>
       </c>
       <c r="F277" t="n">
-        <v>1125.749748274142</v>
+        <v>512.87176226084</v>
       </c>
       <c r="G277" t="n">
-        <v>961.5636806024661</v>
+        <v>2033.259390710822</v>
       </c>
       <c r="H277" t="n">
         <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>143126</v>
+        <v>136905</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>117258582</v>
+        <v>117547866</v>
       </c>
       <c r="E278" t="n">
-        <v>1019491300</v>
+        <v>1022006445</v>
       </c>
       <c r="F278" t="n">
-        <v>10855.06903884924</v>
+        <v>9694.448022069651</v>
       </c>
       <c r="G278" t="n">
-        <v>8847.587551968967</v>
+        <v>7047.144318223013</v>
       </c>
       <c r="H278" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I278" t="n">
-        <v>9689138</v>
+        <v>9835235</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>102802961</v>
+        <v>102663119</v>
       </c>
       <c r="E279" t="n">
-        <v>156828327</v>
+        <v>156614995</v>
       </c>
       <c r="F279" t="n">
-        <v>45430.30577526149</v>
+        <v>46893.6771899228</v>
       </c>
       <c r="G279" t="n">
-        <v>49692.60799250527</v>
+        <v>50395.69364382278</v>
       </c>
       <c r="H279" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I279" t="n">
-        <v>6523256</v>
+        <v>7159449</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15878698</v>
+        <v>15890572</v>
       </c>
       <c r="E280" t="n">
-        <v>21784198</v>
+        <v>21800489</v>
       </c>
       <c r="F280" t="n">
-        <v>3174.02838494402</v>
+        <v>1534.56603519695</v>
       </c>
       <c r="G280" t="n">
-        <v>3106.006604258479</v>
+        <v>3595.31246547825</v>
       </c>
       <c r="H280" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I280" t="n">
-        <v>408182</v>
+        <v>419377</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5710294</v>
+        <v>5689819</v>
       </c>
       <c r="E281" t="n">
-        <v>5710294</v>
+        <v>5689819</v>
       </c>
       <c r="F281" t="n">
-        <v>12.57189069947314</v>
+        <v>12.72171081490625</v>
       </c>
       <c r="G281" t="n">
-        <v>397.2822904545194</v>
+        <v>38.89898165369289</v>
       </c>
       <c r="H281" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I281" t="n">
-        <v>785843</v>
+        <v>794246</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>111399615</v>
+        <v>107788602</v>
       </c>
       <c r="E282" t="n">
-        <v>427346855</v>
+        <v>413494426</v>
       </c>
       <c r="F282" t="n">
-        <v>42390.88271594008</v>
+        <v>54127.45838032629</v>
       </c>
       <c r="G282" t="n">
-        <v>76853.53385689548</v>
+        <v>65215.27656644324</v>
       </c>
       <c r="H282" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I282" t="n">
-        <v>18067488</v>
+        <v>18615552</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>754432</v>
+        <v>666221</v>
       </c>
       <c r="F283" t="n">
-        <v>3.880453892044669</v>
+        <v>4.060143077343595</v>
       </c>
       <c r="G283" t="n">
-        <v>4.195302967064324</v>
+        <v>3.937835810221986</v>
       </c>
       <c r="H283" t="n">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="I283" t="n">
-        <v>54408</v>
+        <v>48017</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3326118</v>
+        <v>3237315</v>
       </c>
       <c r="E284" t="n">
-        <v>31515460</v>
+        <v>30674040</v>
       </c>
       <c r="F284" t="n">
-        <v>1298.520906633556</v>
+        <v>1454.811175538301</v>
       </c>
       <c r="G284" t="n">
-        <v>723.7882417688166</v>
+        <v>72.29113558100558</v>
       </c>
       <c r="H284" t="n">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>203928</v>
+        <v>236706</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>94439</v>
+        <v>94044</v>
       </c>
       <c r="F285" t="n">
-        <v>4.149885893168467</v>
+        <v>4.150322509412595</v>
       </c>
       <c r="G285" t="n">
-        <v>19.45109060643289</v>
+        <v>19.45313708731053</v>
       </c>
       <c r="H285" t="n">
         <v>3.82</v>
       </c>
       <c r="I285" t="n">
-        <v>5094.22</v>
+        <v>3102.72</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>176918</v>
+        <v>150219</v>
       </c>
       <c r="F286" t="n">
-        <v>3.680757822861771</v>
+        <v>51.55621514172415</v>
       </c>
       <c r="G286" t="n">
-        <v>4.181215063647807</v>
+        <v>6.505151377510007</v>
       </c>
       <c r="H286" t="n">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="I286" t="n">
-        <v>161185</v>
+        <v>165639</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>23614490</v>
+        <v>22668664</v>
       </c>
       <c r="E287" t="n">
-        <v>23614490</v>
+        <v>22668664</v>
       </c>
       <c r="F287" t="n">
-        <v>1203.13310682164</v>
+        <v>1772.448688353034</v>
       </c>
       <c r="G287" t="n">
-        <v>1543.643121581922</v>
+        <v>817.5572941863757</v>
       </c>
       <c r="H287" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I287" t="n">
-        <v>507136</v>
+        <v>532865</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>575977</v>
+        <v>576372</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>454.53</v>
+        <v>454.84</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6108730</v>
+        <v>6053593</v>
       </c>
       <c r="E289" t="n">
-        <v>38177816</v>
+        <v>37833220</v>
       </c>
       <c r="F289" t="n">
-        <v>4617.633032105957</v>
+        <v>6489.480125552876</v>
       </c>
       <c r="G289" t="n">
-        <v>485.1082606408568</v>
+        <v>709.3765047498109</v>
       </c>
       <c r="H289" t="n">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="I289" t="n">
-        <v>392078</v>
+        <v>327114</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494703329</v>
+        <v>495391979</v>
       </c>
       <c r="E290" t="n">
-        <v>494703329</v>
+        <v>495391979</v>
       </c>
       <c r="F290" t="n">
-        <v>1441080.894820171</v>
+        <v>1188269.457040305</v>
       </c>
       <c r="G290" t="n">
-        <v>1432584.679611919</v>
+        <v>1485593.912314538</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>30949073</v>
+        <v>31264833</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5102201</v>
+        <v>5087677</v>
       </c>
       <c r="E291" t="n">
-        <v>18999554</v>
+        <v>18945466</v>
       </c>
       <c r="F291" t="n">
-        <v>7127.251801323775</v>
+        <v>6955.132154624571</v>
       </c>
       <c r="G291" t="n">
-        <v>6661.776789390738</v>
+        <v>6873.190585825716</v>
       </c>
       <c r="H291" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I291" t="n">
-        <v>65990</v>
+        <v>59752</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31302512</v>
+        <v>30529610</v>
       </c>
       <c r="F292" t="n">
-        <v>10519.89524720219</v>
+        <v>6995.765653228867</v>
       </c>
       <c r="G292" t="n">
-        <v>5672.934395140127</v>
+        <v>5345.759693221401</v>
       </c>
       <c r="H292" t="n">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="I292" t="n">
-        <v>7354580</v>
+        <v>6326349</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31550906</v>
+        <v>31500987</v>
       </c>
       <c r="E293" t="n">
-        <v>113089814</v>
+        <v>112910886</v>
       </c>
       <c r="F293" t="n">
-        <v>2901.914372549112</v>
+        <v>2276.56666217631</v>
       </c>
       <c r="G293" t="n">
-        <v>5014.80162633538</v>
+        <v>5046.593581277502</v>
       </c>
       <c r="H293" t="n">
         <v>0.51</v>
       </c>
       <c r="I293" t="n">
-        <v>124417</v>
+        <v>90681</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>794569</v>
+        <v>743817</v>
       </c>
       <c r="E294" t="n">
-        <v>12673094</v>
+        <v>11863620</v>
       </c>
       <c r="F294" t="n">
-        <v>20.92502499609829</v>
+        <v>15.2629239465407</v>
       </c>
       <c r="G294" t="n">
-        <v>4.950765766909834</v>
+        <v>1.624542444590041</v>
       </c>
       <c r="H294" t="n">
-        <v>2.17</v>
+        <v>2.76</v>
       </c>
       <c r="I294" t="n">
-        <v>71894</v>
+        <v>70654</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>79650</v>
+        <v>85849</v>
       </c>
       <c r="F295" t="n">
-        <v>86.15147653756704</v>
+        <v>66.61793158094885</v>
       </c>
       <c r="G295" t="n">
-        <v>43.96567918010852</v>
+        <v>60.46357992775484</v>
       </c>
       <c r="H295" t="n">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
-        <v>53714</v>
+        <v>58098</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1521458</v>
+        <v>1523306</v>
       </c>
       <c r="F296" t="n">
-        <v>5.450036224601711</v>
+        <v>4.20348976749478</v>
       </c>
       <c r="G296" t="n">
-        <v>10.51894527965585</v>
+        <v>43.11343222548144</v>
       </c>
       <c r="H296" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I296" t="n">
-        <v>619218</v>
+        <v>613774</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2638422286</v>
+        <v>2634111505</v>
       </c>
       <c r="E297" t="n">
-        <v>2801317942</v>
+        <v>2796741014</v>
       </c>
       <c r="F297" t="n">
-        <v>49184.86369549777</v>
+        <v>47002.72407218622</v>
       </c>
       <c r="G297" t="n">
-        <v>67220.88906963926</v>
+        <v>56794.81134436832</v>
       </c>
       <c r="H297" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I297" t="n">
-        <v>36570960</v>
+        <v>37185654</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2163416</v>
+        <v>2155821</v>
       </c>
       <c r="E298" t="n">
-        <v>16640384</v>
+        <v>16581962</v>
       </c>
       <c r="F298" t="n">
-        <v>4072.102736191856</v>
+        <v>4074.199350002525</v>
       </c>
       <c r="G298" t="n">
-        <v>4085.515876767291</v>
+        <v>4079.622151089836</v>
       </c>
       <c r="H298" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="I298" t="n">
-        <v>167804</v>
+        <v>170635</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1662389</v>
+        <v>1650044</v>
       </c>
       <c r="E299" t="n">
-        <v>1668257</v>
+        <v>1655869</v>
       </c>
       <c r="F299" t="n">
-        <v>403.6538432013837</v>
+        <v>1000.851392101747</v>
       </c>
       <c r="G299" t="n">
-        <v>4511.669916818767</v>
+        <v>1124.241089496928</v>
       </c>
       <c r="H299" t="n">
         <v>0.49</v>
       </c>
       <c r="I299" t="n">
-        <v>397543</v>
+        <v>391348</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>86939181</v>
+        <v>87498576</v>
       </c>
       <c r="E300" t="n">
-        <v>321397653</v>
+        <v>323462824</v>
       </c>
       <c r="F300" t="n">
-        <v>3665.885010566984</v>
+        <v>5052.013997570155</v>
       </c>
       <c r="G300" t="n">
-        <v>13751.25314049868</v>
+        <v>3048.565129854233</v>
       </c>
       <c r="H300" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I300" t="n">
-        <v>435843</v>
+        <v>396304</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2395553</v>
+        <v>2447600</v>
       </c>
       <c r="E301" t="n">
-        <v>9612237</v>
+        <v>9821079</v>
       </c>
       <c r="F301" t="n">
-        <v>47.00431729091543</v>
+        <v>43.09542736139459</v>
       </c>
       <c r="G301" t="n">
-        <v>130.394461685558</v>
+        <v>5.300850129303051</v>
       </c>
       <c r="H301" t="n">
         <v>0.62</v>
       </c>
       <c r="I301" t="n">
-        <v>39744</v>
+        <v>38674</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60626659</v>
+        <v>60702503</v>
       </c>
       <c r="E302" t="n">
-        <v>148713084</v>
+        <v>148899126</v>
       </c>
       <c r="F302" t="n">
-        <v>2161.77081233008</v>
+        <v>1022.731728676316</v>
       </c>
       <c r="G302" t="n">
-        <v>1985.94997347607</v>
+        <v>2267.674331496284</v>
       </c>
       <c r="H302" t="n">
-        <v>0.45</v>
+        <v>0.79</v>
       </c>
       <c r="I302" t="n">
-        <v>22412403</v>
+        <v>22545863</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>677440513</v>
+        <v>666446411</v>
       </c>
       <c r="E303" t="n">
-        <v>1044673083</v>
+        <v>1027719208</v>
       </c>
       <c r="F303" t="n">
-        <v>33417.82706427352</v>
+        <v>42873.57154274966</v>
       </c>
       <c r="G303" t="n">
-        <v>37125.30700996754</v>
+        <v>52352.37453766981</v>
       </c>
       <c r="H303" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I303" t="n">
-        <v>186261227</v>
+        <v>170825603</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20383501</v>
+        <v>19938402</v>
       </c>
       <c r="E304" t="n">
-        <v>20383501</v>
+        <v>19938402</v>
       </c>
       <c r="F304" t="n">
-        <v>4276.005231241019</v>
+        <v>4028.096240970581</v>
       </c>
       <c r="G304" t="n">
-        <v>3636.717087319862</v>
+        <v>3115.816262171198</v>
       </c>
       <c r="H304" t="n">
         <v>0.21</v>
       </c>
       <c r="I304" t="n">
-        <v>7193507</v>
+        <v>7089220</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1731029</v>
+        <v>1721469</v>
       </c>
       <c r="E305" t="n">
-        <v>2840325</v>
+        <v>2824638</v>
       </c>
       <c r="F305" t="n">
-        <v>266.975993409636</v>
+        <v>221.2802478681316</v>
       </c>
       <c r="G305" t="n">
-        <v>564.1364740359638</v>
+        <v>589.8688998422327</v>
       </c>
       <c r="H305" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="I305" t="n">
-        <v>103733</v>
+        <v>116138</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5811480</v>
+        <v>5835419</v>
       </c>
       <c r="E306" t="n">
-        <v>5811480</v>
+        <v>5835419</v>
       </c>
       <c r="F306" t="n">
-        <v>42.21853230508319</v>
+        <v>42.45697475437552</v>
       </c>
       <c r="G306" t="n">
-        <v>4.13686793433579</v>
+        <v>5.485393099449663</v>
       </c>
       <c r="H306" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I306" t="n">
-        <v>441.06</v>
+        <v>457.42</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>37667338</v>
+        <v>40043271</v>
       </c>
       <c r="E307" t="n">
-        <v>179794235</v>
+        <v>191134894</v>
       </c>
       <c r="F307" t="n">
-        <v>217.3119517603103</v>
+        <v>1245.911261558201</v>
       </c>
       <c r="G307" t="n">
-        <v>1279.175910740866</v>
+        <v>1298.836823651443</v>
       </c>
       <c r="H307" t="n">
-        <v>0.41</v>
+        <v>0.91</v>
       </c>
       <c r="I307" t="n">
-        <v>223352</v>
+        <v>399559</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>381269</v>
+        <v>382699</v>
       </c>
       <c r="E308" t="n">
-        <v>713080</v>
+        <v>715755</v>
       </c>
       <c r="F308" t="n">
-        <v>769.2864965986652</v>
+        <v>680.0250731571545</v>
       </c>
       <c r="G308" t="n">
-        <v>96.00838725228043</v>
+        <v>220.1774036320283</v>
       </c>
       <c r="H308" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I308" t="n">
-        <v>1294.19</v>
+        <v>1361.15</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23398276</v>
+        <v>23426888</v>
       </c>
       <c r="E309" t="n">
-        <v>38997125</v>
+        <v>39044812</v>
       </c>
       <c r="F309" t="n">
-        <v>390.6717814223524</v>
+        <v>208.1964545847367</v>
       </c>
       <c r="G309" t="n">
-        <v>661.5962166243395</v>
+        <v>453.6577810524642</v>
       </c>
       <c r="H309" t="n">
         <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>1007327</v>
+        <v>1011330</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107895</v>
+        <v>107712</v>
       </c>
       <c r="F310" t="n">
-        <v>4.2820481302952</v>
+        <v>16.80650033304466</v>
       </c>
       <c r="G310" t="n">
-        <v>15.13205890180109</v>
+        <v>3.823464988631985</v>
       </c>
       <c r="H310" t="n">
-        <v>1.1</v>
+        <v>0.43</v>
       </c>
       <c r="I310" t="n">
-        <v>51903</v>
+        <v>51467</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23411957</v>
+        <v>23524856</v>
       </c>
       <c r="E311" t="n">
-        <v>23411957</v>
+        <v>23524856</v>
       </c>
       <c r="F311" t="n">
-        <v>3996.360523469354</v>
+        <v>1083.662658707866</v>
       </c>
       <c r="G311" t="n">
-        <v>6199.471953296696</v>
+        <v>3268.122161682362</v>
       </c>
       <c r="H311" t="n">
-        <v>0.19</v>
+        <v>0.52</v>
       </c>
       <c r="I311" t="n">
-        <v>5696514</v>
+        <v>5972728</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3840615</v>
+        <v>3845732</v>
       </c>
       <c r="E312" t="n">
-        <v>8380173</v>
+        <v>8391337</v>
       </c>
       <c r="F312" t="n">
-        <v>1911.485414353339</v>
+        <v>1836.584587775219</v>
       </c>
       <c r="G312" t="n">
-        <v>1820.888109701551</v>
+        <v>1809.135260345166</v>
       </c>
       <c r="H312" t="n">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="I312" t="n">
-        <v>1008178</v>
+        <v>987538</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9349601</v>
+        <v>9354813</v>
       </c>
       <c r="E313" t="n">
-        <v>9349601</v>
+        <v>9354813</v>
       </c>
       <c r="F313" t="n">
-        <v>15006.60631210603</v>
+        <v>14717.21605068278</v>
       </c>
       <c r="G313" t="n">
-        <v>113091.5386991693</v>
+        <v>113059.5010495009</v>
       </c>
       <c r="H313" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>3415155</v>
+        <v>3342767</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>485446550</v>
+        <v>483771555</v>
       </c>
       <c r="E314" t="n">
-        <v>1690656341</v>
+        <v>1684822865</v>
       </c>
       <c r="F314" t="n">
-        <v>460449.7348627564</v>
+        <v>427598.1259915131</v>
       </c>
       <c r="G314" t="n">
-        <v>526219.9401503712</v>
+        <v>509654.0285325382</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>30421688</v>
+        <v>30903699</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>23884817</v>
+        <v>24022247</v>
       </c>
       <c r="E315" t="n">
-        <v>23864070</v>
+        <v>24001381</v>
       </c>
       <c r="F315" t="n">
-        <v>188.9794060386824</v>
+        <v>173.7212558099025</v>
       </c>
       <c r="G315" t="n">
-        <v>820.9181339921912</v>
+        <v>791.116945202318</v>
       </c>
       <c r="H315" t="n">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="I315" t="n">
-        <v>90302</v>
+        <v>91757</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48069371</v>
+        <v>48082748</v>
       </c>
       <c r="E316" t="n">
-        <v>118635592</v>
+        <v>118668618</v>
       </c>
       <c r="F316" t="n">
-        <v>1039.999995731815</v>
+        <v>1048.184483642588</v>
       </c>
       <c r="G316" t="n">
-        <v>1597.585389742907</v>
+        <v>1677.599350207193</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>57428</v>
+        <v>51556</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12217156</v>
+        <v>12210657</v>
       </c>
       <c r="E317" t="n">
-        <v>24762219</v>
+        <v>24742901</v>
       </c>
       <c r="F317" t="n">
-        <v>207.3397051448333</v>
+        <v>274.4478453987886</v>
       </c>
       <c r="G317" t="n">
-        <v>696.9627242697992</v>
+        <v>793.5677101918194</v>
       </c>
       <c r="H317" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>14613.21</v>
+        <v>18157.89</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7627699</v>
+        <v>7509080</v>
       </c>
       <c r="E318" t="n">
-        <v>19815941</v>
+        <v>19507784</v>
       </c>
       <c r="F318" t="n">
-        <v>158.6627914096366</v>
+        <v>147.6616905294108</v>
       </c>
       <c r="G318" t="n">
-        <v>144.6358591667773</v>
+        <v>460.2391097799391</v>
       </c>
       <c r="H318" t="n">
         <v>0.2</v>
       </c>
       <c r="I318" t="n">
-        <v>679216</v>
+        <v>680840</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>154524</v>
+        <v>153458</v>
       </c>
       <c r="F319" t="n">
-        <v>91.25075538075663</v>
+        <v>170.9702078120634</v>
       </c>
       <c r="G319" t="n">
-        <v>64.57677260851403</v>
+        <v>37.00305702047687</v>
       </c>
       <c r="H319" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="I319" t="n">
-        <v>55415</v>
+        <v>56829</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19250918605</v>
+        <v>19266181090</v>
       </c>
       <c r="F320" t="n">
-        <v>52884.53376614241</v>
+        <v>52388.8635168113</v>
       </c>
       <c r="G320" t="n">
-        <v>50020.9304661181</v>
+        <v>50088.58982331214</v>
       </c>
       <c r="H320" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I320" t="n">
-        <v>49136994</v>
+        <v>49046959</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>102784418</v>
+        <v>102600705</v>
       </c>
       <c r="E321" t="n">
-        <v>155730269</v>
+        <v>155451922</v>
       </c>
       <c r="F321" t="n">
-        <v>17800.85945691098</v>
+        <v>14854.72098051925</v>
       </c>
       <c r="G321" t="n">
-        <v>22941.62391319561</v>
+        <v>15425.23637177319</v>
       </c>
       <c r="H321" t="n">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="I321" t="n">
-        <v>3261613</v>
+        <v>7030636</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2664377</v>
+        <v>2652416</v>
       </c>
       <c r="E322" t="n">
-        <v>10657508</v>
+        <v>10609664</v>
       </c>
       <c r="F322" t="n">
-        <v>27715.16493618674</v>
+        <v>4466.49260072646</v>
       </c>
       <c r="G322" t="n">
-        <v>9877.545177811497</v>
+        <v>41408.89333262072</v>
       </c>
       <c r="H322" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I322" t="n">
-        <v>5064214</v>
+        <v>4929103</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>212485057</v>
+        <v>212664519</v>
       </c>
       <c r="E323" t="n">
-        <v>653311588</v>
+        <v>653863366</v>
       </c>
       <c r="F323" t="n">
-        <v>92641.04246983031</v>
+        <v>113483.6391214809</v>
       </c>
       <c r="G323" t="n">
-        <v>173257.33716199</v>
+        <v>206748.6795581301</v>
       </c>
       <c r="H323" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>10973254</v>
+        <v>10192922</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>149624430</v>
+        <v>149385438</v>
       </c>
       <c r="E324" t="n">
-        <v>390889675</v>
+        <v>390265313</v>
       </c>
       <c r="F324" t="n">
-        <v>9834.924755650194</v>
+        <v>5773.040333194963</v>
       </c>
       <c r="G324" t="n">
-        <v>7072.688597789364</v>
+        <v>5177.643508718081</v>
       </c>
       <c r="H324" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I324" t="n">
-        <v>7468797</v>
+        <v>7096015</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2368094</v>
+        <v>2363536</v>
       </c>
       <c r="E325" t="n">
-        <v>3249977</v>
+        <v>3243687</v>
       </c>
       <c r="F325" t="n">
-        <v>188.755665295583</v>
+        <v>276.063147623278</v>
       </c>
       <c r="G325" t="n">
-        <v>269.8140309690618</v>
+        <v>43.60746671865499</v>
       </c>
       <c r="H325" t="n">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="I325" t="n">
-        <v>185009</v>
+        <v>185207</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>401689300</v>
+        <v>403476083</v>
       </c>
       <c r="E326" t="n">
-        <v>2295367431</v>
+        <v>2305577619</v>
       </c>
       <c r="F326" t="n">
-        <v>628595.3802616391</v>
+        <v>335125.206746933</v>
       </c>
       <c r="G326" t="n">
-        <v>522318.4756404305</v>
+        <v>542929.9192418716</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>38989363</v>
+        <v>37967099</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91000</v>
+        <v>90937</v>
       </c>
       <c r="F2" t="n">
-        <v>4.148349635731534</v>
+        <v>4.148457517056582</v>
       </c>
       <c r="G2" t="n">
-        <v>32.70743122154584</v>
+        <v>32.70828180583332</v>
       </c>
       <c r="H2" t="n">
         <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>1236.71</v>
+        <v>1229.7</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>612263893</v>
+        <v>612614806</v>
       </c>
       <c r="E3" t="n">
-        <v>1187924089</v>
+        <v>1188622459</v>
       </c>
       <c r="F3" t="n">
-        <v>18111.23743705055</v>
+        <v>9662.847401287459</v>
       </c>
       <c r="G3" t="n">
-        <v>31543.04091239999</v>
+        <v>30014.63575721522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I3" t="n">
-        <v>22251027</v>
+        <v>22794438</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244766215</v>
+        <v>245655727</v>
       </c>
       <c r="E4" t="n">
-        <v>1534894531</v>
+        <v>1540472533</v>
       </c>
       <c r="F4" t="n">
-        <v>79610.01290387785</v>
+        <v>94957.15449319038</v>
       </c>
       <c r="G4" t="n">
-        <v>68756.10682188287</v>
+        <v>90950.7854610214</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15623847</v>
+        <v>15756395</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141076399</v>
+        <v>141298134</v>
       </c>
       <c r="E5" t="n">
-        <v>156335183</v>
+        <v>156580902</v>
       </c>
       <c r="F5" t="n">
-        <v>132899.68871639</v>
+        <v>123144.9071210366</v>
       </c>
       <c r="G5" t="n">
-        <v>287741.5102212409</v>
+        <v>300162.3912212535</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>31818421</v>
+        <v>31897876</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49565935</v>
+        <v>49470476</v>
       </c>
       <c r="E6" t="n">
-        <v>62005714</v>
+        <v>61886297</v>
       </c>
       <c r="F6" t="n">
-        <v>10426.61729499791</v>
+        <v>10466.73666590055</v>
       </c>
       <c r="G6" t="n">
-        <v>15409.48115022329</v>
+        <v>13217.53588297203</v>
       </c>
       <c r="H6" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>618280</v>
+        <v>611565</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8767717</v>
+        <v>8789579</v>
       </c>
       <c r="E7" t="n">
-        <v>8988807</v>
+        <v>9011219</v>
       </c>
       <c r="F7" t="n">
-        <v>847.066870229589</v>
+        <v>526.497154571535</v>
       </c>
       <c r="G7" t="n">
-        <v>251.7767364551601</v>
+        <v>827.3653668857595</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>69716</v>
+        <v>68885</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68830253</v>
+        <v>68538719</v>
       </c>
       <c r="E8" t="n">
-        <v>137109668</v>
+        <v>136528932</v>
       </c>
       <c r="F8" t="n">
-        <v>44949.62774919726</v>
+        <v>38829.20590633374</v>
       </c>
       <c r="G8" t="n">
-        <v>17678.26007437697</v>
+        <v>18668.39570609775</v>
       </c>
       <c r="H8" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="I8" t="n">
-        <v>1700761</v>
+        <v>1698812</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5312150</v>
+        <v>5255322</v>
       </c>
       <c r="E9" t="n">
-        <v>8487219</v>
+        <v>8396425</v>
       </c>
       <c r="F9" t="n">
-        <v>707.4198907948899</v>
+        <v>606.2680622112075</v>
       </c>
       <c r="G9" t="n">
-        <v>362.2743535026119</v>
+        <v>487.6781675950106</v>
       </c>
       <c r="H9" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="I9" t="n">
-        <v>106207</v>
+        <v>105995</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14252797</v>
+        <v>14342288</v>
       </c>
       <c r="E10" t="n">
-        <v>42002073</v>
+        <v>42265796</v>
       </c>
       <c r="F10" t="n">
-        <v>3906.007843103507</v>
+        <v>3919.523196930017</v>
       </c>
       <c r="G10" t="n">
-        <v>5025.873350088516</v>
+        <v>5031.030774307472</v>
       </c>
       <c r="H10" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I10" t="n">
-        <v>817995</v>
+        <v>820700</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>126714324</v>
+        <v>127667958</v>
       </c>
       <c r="E11" t="n">
-        <v>496682210</v>
+        <v>500420168</v>
       </c>
       <c r="F11" t="n">
-        <v>40300.13798957089</v>
+        <v>52029.99592811372</v>
       </c>
       <c r="G11" t="n">
-        <v>52425.02318450178</v>
+        <v>68410.27037347946</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>26468042</v>
+        <v>26784422</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7667025</v>
+        <v>7448681</v>
       </c>
       <c r="E12" t="n">
-        <v>32964123</v>
+        <v>32025361</v>
       </c>
       <c r="F12" t="n">
-        <v>185.0132859916151</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1266.558541188863</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1</v>
+        <v>5.94</v>
       </c>
       <c r="I12" t="n">
-        <v>910572</v>
+        <v>860671</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>999645</v>
+        <v>997562</v>
       </c>
       <c r="E13" t="n">
-        <v>12232953</v>
+        <v>12207466</v>
       </c>
       <c r="F13" t="n">
-        <v>280.9364759913576</v>
+        <v>280.9438247375704</v>
       </c>
       <c r="G13" t="n">
-        <v>198.0123864147409</v>
+        <v>198.0175660297042</v>
       </c>
       <c r="H13" t="n">
         <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2118.11</v>
+        <v>2091.99</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>562121</v>
+        <v>575818</v>
       </c>
       <c r="E14" t="n">
-        <v>562121</v>
+        <v>575818</v>
       </c>
       <c r="F14" t="n">
-        <v>22.30439255273322</v>
+        <v>96.88985940863874</v>
       </c>
       <c r="G14" t="n">
-        <v>655.3648684333756</v>
+        <v>242.7957763134813</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="I14" t="n">
-        <v>23877</v>
+        <v>24661</v>
       </c>
     </row>
     <row r="15">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>546345440</v>
+        <v>548506400</v>
       </c>
       <c r="E15" t="n">
-        <v>683396944</v>
+        <v>686099984</v>
       </c>
       <c r="F15" t="n">
         <v>393609.0624577455</v>
@@ -967,7 +967,7 @@
         <v>0.15</v>
       </c>
       <c r="I15" t="n">
-        <v>61213523</v>
+        <v>58678183</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3360987</v>
+        <v>3361479</v>
       </c>
       <c r="E16" t="n">
-        <v>9561712</v>
+        <v>9563109</v>
       </c>
       <c r="F16" t="n">
-        <v>182.4193538764391</v>
+        <v>519.2496060032514</v>
       </c>
       <c r="G16" t="n">
-        <v>396.0756319991165</v>
+        <v>102.210706378915</v>
       </c>
       <c r="H16" t="n">
         <v>0.83</v>
       </c>
       <c r="I16" t="n">
-        <v>236545</v>
+        <v>235928</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>315119</v>
+        <v>315181</v>
       </c>
       <c r="E17" t="n">
-        <v>3637188</v>
+        <v>3637899</v>
       </c>
       <c r="F17" t="n">
-        <v>19.10402211099048</v>
+        <v>19.10457454043998</v>
       </c>
       <c r="G17" t="n">
-        <v>3.920417597639899</v>
+        <v>3.920530964035869</v>
       </c>
       <c r="H17" t="n">
         <v>0.59</v>
       </c>
       <c r="I17" t="n">
-        <v>3166.5</v>
+        <v>3169.82</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1458406</v>
+        <v>1427519</v>
       </c>
       <c r="E18" t="n">
-        <v>11186839</v>
+        <v>10949916</v>
       </c>
       <c r="F18" t="n">
-        <v>184.0601625460143</v>
+        <v>780.7743837665121</v>
       </c>
       <c r="G18" t="n">
-        <v>286.1570292318015</v>
+        <v>62.31885217152347</v>
       </c>
       <c r="H18" t="n">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="I18" t="n">
-        <v>149112</v>
+        <v>149953</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22647566</v>
+        <v>22657422</v>
       </c>
       <c r="E19" t="n">
-        <v>22689970</v>
+        <v>22699844</v>
       </c>
       <c r="F19" t="n">
-        <v>713.8202224214342</v>
+        <v>798.1117420360448</v>
       </c>
       <c r="G19" t="n">
-        <v>2792.78479404865</v>
+        <v>2231.174565739222</v>
       </c>
       <c r="H19" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I19" t="n">
-        <v>845151</v>
+        <v>845728</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3720295</v>
+        <v>3642326</v>
       </c>
       <c r="E20" t="n">
-        <v>20642397</v>
+        <v>20209782</v>
       </c>
       <c r="F20" t="n">
-        <v>52.6865375867526</v>
+        <v>52.68685047466316</v>
       </c>
       <c r="G20" t="n">
-        <v>5.544243493172649</v>
+        <v>5.544276418599934</v>
       </c>
       <c r="H20" t="n">
         <v>0.72</v>
       </c>
       <c r="I20" t="n">
-        <v>55978</v>
+        <v>56158</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6994205</v>
+        <v>7013172</v>
       </c>
       <c r="E21" t="n">
-        <v>12975726</v>
+        <v>13010913</v>
       </c>
       <c r="F21" t="n">
-        <v>280.4436964440127</v>
+        <v>112.7881398560613</v>
       </c>
       <c r="G21" t="n">
-        <v>316.7133599976557</v>
+        <v>223.7647113653614</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>47741</v>
+        <v>47512</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71806299</v>
+        <v>72321574</v>
       </c>
       <c r="E22" t="n">
-        <v>124401730</v>
+        <v>125294426</v>
       </c>
       <c r="F22" t="n">
-        <v>1944.505458141393</v>
+        <v>1889.234133999927</v>
       </c>
       <c r="G22" t="n">
-        <v>609.8715472672445</v>
+        <v>674.7063024753044</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I22" t="n">
-        <v>681897</v>
+        <v>628380</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>176697</v>
+        <v>178468</v>
       </c>
       <c r="E23" t="n">
-        <v>531420</v>
+        <v>536747</v>
       </c>
       <c r="F23" t="n">
-        <v>3.934084466021373</v>
+        <v>158.6981782624604</v>
       </c>
       <c r="G23" t="n">
-        <v>5.35345920466213</v>
+        <v>3.917081517304936</v>
       </c>
       <c r="H23" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I23" t="n">
-        <v>49.04</v>
+        <v>62.53</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82326320</v>
+        <v>82819151</v>
       </c>
       <c r="E24" t="n">
-        <v>242308760</v>
+        <v>243759297</v>
       </c>
       <c r="F24" t="n">
-        <v>553.1943137577975</v>
+        <v>406.8063236071736</v>
       </c>
       <c r="G24" t="n">
-        <v>142.9743311132794</v>
+        <v>196.4788889024768</v>
       </c>
       <c r="H24" t="n">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="I24" t="n">
-        <v>399112</v>
+        <v>405720</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6964442</v>
+        <v>6895357</v>
       </c>
       <c r="F25" t="n">
-        <v>240.4077607359384</v>
+        <v>4.004682267040858</v>
       </c>
       <c r="G25" t="n">
-        <v>5.284232683643443</v>
+        <v>15.27867534997601</v>
       </c>
       <c r="H25" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>26239</v>
+        <v>24344</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2455273</v>
+        <v>2468890</v>
       </c>
       <c r="E26" t="n">
-        <v>2455273</v>
+        <v>2468890</v>
       </c>
       <c r="F26" t="n">
-        <v>168.4236022078089</v>
+        <v>168.4279690832053</v>
       </c>
       <c r="G26" t="n">
-        <v>525.0415122099946</v>
+        <v>497.0679586673298</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>286158</v>
+        <v>284036</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19539802</v>
+        <v>19687896</v>
       </c>
       <c r="E27" t="n">
-        <v>25149326</v>
+        <v>25339935</v>
       </c>
       <c r="F27" t="n">
-        <v>3444.730855758937</v>
+        <v>4462.26106684836</v>
       </c>
       <c r="G27" t="n">
-        <v>1860.59641986154</v>
+        <v>1775.961779041986</v>
       </c>
       <c r="H27" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2223153</v>
+        <v>2207891</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4698484</v>
+        <v>4702438</v>
       </c>
       <c r="E28" t="n">
-        <v>4698484</v>
+        <v>4702438</v>
       </c>
       <c r="F28" t="n">
-        <v>4164.911072865443</v>
+        <v>1207.903838506418</v>
       </c>
       <c r="G28" t="n">
-        <v>2181.393277257916</v>
+        <v>1521.654391946319</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
       <c r="I28" t="n">
-        <v>1936202</v>
+        <v>1944188</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1715557</v>
+        <v>1731933</v>
       </c>
       <c r="F29" t="n">
-        <v>111.8524334876231</v>
+        <v>555.4926339083302</v>
       </c>
       <c r="G29" t="n">
-        <v>72.92892335020251</v>
+        <v>193.4247532375717</v>
       </c>
       <c r="H29" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="I29" t="n">
-        <v>102508</v>
+        <v>106022</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3510047</v>
+        <v>3404820</v>
       </c>
       <c r="E30" t="n">
-        <v>3510047</v>
+        <v>3404820</v>
       </c>
       <c r="F30" t="n">
-        <v>647.5648481105812</v>
+        <v>2076.244758829934</v>
       </c>
       <c r="G30" t="n">
-        <v>488.7737589381227</v>
+        <v>683.3746749442895</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="I30" t="n">
-        <v>430062</v>
+        <v>502006</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>303974</v>
+        <v>309239</v>
       </c>
       <c r="E31" t="n">
-        <v>1418984</v>
+        <v>1443559</v>
       </c>
       <c r="F31" t="n">
-        <v>90.56495128583467</v>
+        <v>249.5209445997184</v>
       </c>
       <c r="G31" t="n">
-        <v>111.1848017205947</v>
+        <v>131.1180222680098</v>
       </c>
       <c r="H31" t="n">
-        <v>2.84</v>
+        <v>1.4</v>
       </c>
       <c r="I31" t="n">
-        <v>599353</v>
+        <v>608887</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>344855</v>
+        <v>390589</v>
       </c>
       <c r="E32" t="n">
-        <v>344855</v>
+        <v>390589</v>
       </c>
       <c r="F32" t="n">
-        <v>5.447303366715546</v>
+        <v>63.44649312575117</v>
       </c>
       <c r="G32" t="n">
-        <v>420.1795308607837</v>
+        <v>4.303031361616123</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>50145</v>
+        <v>57063</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1969503</v>
+        <v>1955717</v>
       </c>
       <c r="F33" t="n">
-        <v>8.019744476501391</v>
+        <v>8.019929853288641</v>
       </c>
       <c r="G33" t="n">
-        <v>4.011278206144042</v>
+        <v>3.894012025122177</v>
       </c>
       <c r="H33" t="n">
         <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>1386822</v>
+        <v>1378886</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1541157</v>
+        <v>1557665</v>
       </c>
       <c r="F34" t="n">
-        <v>135.4422492974287</v>
+        <v>135.4448385562234</v>
       </c>
       <c r="G34" t="n">
-        <v>110.1992061928806</v>
+        <v>151.1416058910126</v>
       </c>
       <c r="H34" t="n">
         <v>0.26</v>
       </c>
       <c r="I34" t="n">
-        <v>111649</v>
+        <v>169446</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12513935</v>
+        <v>12512195</v>
       </c>
       <c r="E35" t="n">
-        <v>32895545</v>
+        <v>32890972</v>
       </c>
       <c r="F35" t="n">
-        <v>1239.391175716314</v>
+        <v>1580.925408236772</v>
       </c>
       <c r="G35" t="n">
-        <v>1894.703044196693</v>
+        <v>1940.620803065296</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="I35" t="n">
-        <v>1652540</v>
+        <v>1614715</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7287208</v>
+        <v>6956878</v>
       </c>
       <c r="E36" t="n">
-        <v>10036347</v>
+        <v>9581399</v>
       </c>
       <c r="F36" t="n">
-        <v>928.121135788599</v>
+        <v>539.5666555769513</v>
       </c>
       <c r="G36" t="n">
-        <v>418.8681448764976</v>
+        <v>318.8076143988232</v>
       </c>
       <c r="H36" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="I36" t="n">
-        <v>1087273</v>
+        <v>1047801</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>919009</v>
+        <v>919931</v>
       </c>
       <c r="E37" t="n">
-        <v>6433060</v>
+        <v>6439520</v>
       </c>
       <c r="F37" t="n">
-        <v>106.4766339467238</v>
+        <v>87.80059245556257</v>
       </c>
       <c r="G37" t="n">
-        <v>2515.947371104682</v>
+        <v>3720.879706956388</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="I37" t="n">
-        <v>581957</v>
+        <v>534651</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>107647707</v>
+        <v>107790822</v>
       </c>
       <c r="E38" t="n">
-        <v>419203260</v>
+        <v>419751891</v>
       </c>
       <c r="F38" t="n">
-        <v>12945.25732747523</v>
+        <v>11799.00418153</v>
       </c>
       <c r="G38" t="n">
-        <v>27234.06897661346</v>
+        <v>44573.90585212266</v>
       </c>
       <c r="H38" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>6415480</v>
+        <v>6557088</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5465364</v>
+        <v>5543386</v>
       </c>
       <c r="E39" t="n">
-        <v>5726827</v>
+        <v>5808582</v>
       </c>
       <c r="F39" t="n">
-        <v>92.87076006713701</v>
+        <v>140.3120762265298</v>
       </c>
       <c r="G39" t="n">
-        <v>3146.164611270343</v>
+        <v>2860.147106286657</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>213507</v>
+        <v>158421</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5238828</v>
+        <v>5305465</v>
       </c>
       <c r="E40" t="n">
-        <v>7711839</v>
+        <v>7809931</v>
       </c>
       <c r="F40" t="n">
-        <v>1722.513647461768</v>
+        <v>774.5124674440355</v>
       </c>
       <c r="G40" t="n">
-        <v>1999.524841858916</v>
+        <v>128.1747916452268</v>
       </c>
       <c r="H40" t="n">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
       <c r="I40" t="n">
-        <v>541852</v>
+        <v>545418</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7651581</v>
+        <v>7701421</v>
       </c>
       <c r="E41" t="n">
-        <v>7651581</v>
+        <v>7701421</v>
       </c>
       <c r="F41" t="n">
-        <v>2221.79436358707</v>
+        <v>2221.836841535974</v>
       </c>
       <c r="G41" t="n">
-        <v>892.6176483783047</v>
+        <v>910.7121280012329</v>
       </c>
       <c r="H41" t="n">
         <v>0.15</v>
       </c>
       <c r="I41" t="n">
-        <v>246906</v>
+        <v>258034</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1489710</v>
+        <v>1487546</v>
       </c>
       <c r="E42" t="n">
-        <v>1489710</v>
+        <v>1487588</v>
       </c>
       <c r="F42" t="n">
-        <v>123.9283756770903</v>
+        <v>91.49921215063119</v>
       </c>
       <c r="G42" t="n">
-        <v>21.37585124389515</v>
+        <v>34.2670022403189</v>
       </c>
       <c r="H42" t="n">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="I42" t="n">
-        <v>275940</v>
+        <v>274120</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16517594</v>
+        <v>16545122</v>
       </c>
       <c r="F43" t="n">
-        <v>288.3194540342071</v>
+        <v>308.5844164049567</v>
       </c>
       <c r="G43" t="n">
-        <v>443.9321790871976</v>
+        <v>406.986975154975</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="I43" t="n">
-        <v>11377.18</v>
+        <v>11266.71</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>134958656</v>
+        <v>135316020</v>
       </c>
       <c r="E44" t="n">
-        <v>134958656</v>
+        <v>135316020</v>
       </c>
       <c r="F44" t="n">
-        <v>273964.6789706108</v>
+        <v>329319.7974548998</v>
       </c>
       <c r="G44" t="n">
-        <v>448822.3591222249</v>
+        <v>388424.5782704204</v>
       </c>
       <c r="H44" t="n">
         <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>66611215</v>
+        <v>67159059</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64679862</v>
+        <v>65088181</v>
       </c>
       <c r="E45" t="n">
-        <v>331691602</v>
+        <v>333785545</v>
       </c>
       <c r="F45" t="n">
-        <v>53534.37420850196</v>
+        <v>48959.32522082484</v>
       </c>
       <c r="G45" t="n">
-        <v>57765.77295462491</v>
+        <v>59887.05796671767</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I45" t="n">
-        <v>16494708</v>
+        <v>16981235</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>593352</v>
+        <v>593013</v>
       </c>
       <c r="F46" t="n">
-        <v>148.0792175320141</v>
+        <v>148.082596216668</v>
       </c>
       <c r="G46" t="n">
-        <v>372.8216797749258</v>
+        <v>372.8301863493733</v>
       </c>
       <c r="H46" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>436.5</v>
+        <v>436.29</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2777702</v>
+        <v>2759933</v>
       </c>
       <c r="E47" t="n">
-        <v>11162953</v>
+        <v>11091543</v>
       </c>
       <c r="F47" t="n">
-        <v>318.9325484766292</v>
+        <v>3.802240698088243</v>
       </c>
       <c r="G47" t="n">
-        <v>29.78658288175909</v>
+        <v>385.8008395187145</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>27432</v>
+        <v>27817</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17404273</v>
+        <v>17550625</v>
       </c>
       <c r="E48" t="n">
-        <v>122754481</v>
+        <v>123785435</v>
       </c>
       <c r="F48" t="n">
-        <v>1501.706294537969</v>
+        <v>1501.154222474604</v>
       </c>
       <c r="G48" t="n">
-        <v>1056.887435080689</v>
+        <v>497.7946182333214</v>
       </c>
       <c r="H48" t="n">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
       <c r="I48" t="n">
-        <v>968940</v>
+        <v>948911</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1037517</v>
+        <v>1032221</v>
       </c>
       <c r="E49" t="n">
-        <v>1217797</v>
+        <v>1211581</v>
       </c>
       <c r="F49" t="n">
-        <v>941.2864420520101</v>
+        <v>1824.932814778773</v>
       </c>
       <c r="G49" t="n">
-        <v>477.5518728703473</v>
+        <v>2019.014977127321</v>
       </c>
       <c r="H49" t="n">
         <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>268509</v>
+        <v>260519</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>148086</v>
+        <v>149112</v>
       </c>
       <c r="E50" t="n">
-        <v>1981467</v>
+        <v>1995198</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46903</v>
+        <v>47049</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>252275289</v>
+        <v>254187643</v>
       </c>
       <c r="E51" t="n">
-        <v>252275289</v>
+        <v>254187643</v>
       </c>
       <c r="F51" t="n">
-        <v>23760.53126093356</v>
+        <v>28259.6774859566</v>
       </c>
       <c r="G51" t="n">
-        <v>44758.63801706107</v>
+        <v>32645.32386231932</v>
       </c>
       <c r="H51" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I51" t="n">
-        <v>14350812</v>
+        <v>14393823</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1120365</v>
+        <v>1118366</v>
       </c>
       <c r="F52" t="n">
-        <v>64.50664223924403</v>
+        <v>64.50805030456881</v>
       </c>
       <c r="G52" t="n">
-        <v>4.042972355861989</v>
+        <v>4.043060606761209</v>
       </c>
       <c r="H52" t="n">
         <v>0.7</v>
       </c>
       <c r="I52" t="n">
-        <v>190242</v>
+        <v>191090</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>114987</v>
+        <v>116350</v>
       </c>
       <c r="E54" t="n">
-        <v>114987</v>
+        <v>116350</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>11.34</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6685610</v>
+        <v>6922177</v>
       </c>
       <c r="E55" t="n">
-        <v>16238833</v>
+        <v>16813435</v>
       </c>
       <c r="F55" t="n">
-        <v>301.3497326546264</v>
+        <v>279.3830523162301</v>
       </c>
       <c r="G55" t="n">
-        <v>45.22164718154996</v>
+        <v>6881.761965801211</v>
       </c>
       <c r="H55" t="n">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
       <c r="I55" t="n">
-        <v>434121</v>
+        <v>436492</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>441196302</v>
+        <v>447311585</v>
       </c>
       <c r="E56" t="n">
-        <v>441196302</v>
+        <v>447311585</v>
       </c>
       <c r="F56" t="n">
-        <v>4304.185220253739</v>
+        <v>5379.137858083935</v>
       </c>
       <c r="G56" t="n">
-        <v>4999.021825029347</v>
+        <v>4387.512627505816</v>
       </c>
       <c r="H56" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>2613155</v>
+        <v>2732650</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2520765</v>
+        <v>2547306</v>
       </c>
       <c r="E57" t="n">
-        <v>2520765</v>
+        <v>2547306</v>
       </c>
       <c r="F57" t="n">
-        <v>4.058277019564257</v>
+        <v>4.058359764966588</v>
       </c>
       <c r="G57" t="n">
-        <v>4.09447177306956</v>
+        <v>9.194043754583944</v>
       </c>
       <c r="H57" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="I57" t="n">
-        <v>112041</v>
+        <v>111277</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>154083766</v>
+        <v>154959120</v>
       </c>
       <c r="E58" t="n">
-        <v>202756215</v>
+        <v>203908079</v>
       </c>
       <c r="F58" t="n">
-        <v>11375.10184807757</v>
+        <v>14924.33473940988</v>
       </c>
       <c r="G58" t="n">
-        <v>13485.47629192517</v>
+        <v>9466.836973749691</v>
       </c>
       <c r="H58" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="I58" t="n">
-        <v>7143665</v>
+        <v>7213978</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1116369</v>
+        <v>1121401</v>
       </c>
       <c r="E59" t="n">
-        <v>12132282</v>
+        <v>12186971</v>
       </c>
       <c r="F59" t="n">
-        <v>554.2651108446532</v>
+        <v>571.072880801478</v>
       </c>
       <c r="G59" t="n">
-        <v>155.3729696848602</v>
+        <v>328.4116828819879</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I59" t="n">
-        <v>26755</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2539030</v>
+        <v>2531673</v>
       </c>
       <c r="E60" t="n">
-        <v>6491250</v>
+        <v>6472441</v>
       </c>
       <c r="F60" t="n">
-        <v>248.4375141586195</v>
+        <v>203.0131271658043</v>
       </c>
       <c r="G60" t="n">
-        <v>292.190102882647</v>
+        <v>289.007772629891</v>
       </c>
       <c r="H60" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>84545</v>
+        <v>88194</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>75696274</v>
+        <v>75004866</v>
       </c>
       <c r="E61" t="n">
-        <v>211828480</v>
+        <v>209962043</v>
       </c>
       <c r="F61" t="n">
-        <v>77302.62831966276</v>
+        <v>74010.10331414339</v>
       </c>
       <c r="G61" t="n">
-        <v>66160.60949107258</v>
+        <v>97616.33644900942</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="I61" t="n">
-        <v>29680644</v>
+        <v>30766332</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>75011436</v>
+        <v>75221430</v>
       </c>
       <c r="E62" t="n">
-        <v>75011436</v>
+        <v>75221430</v>
       </c>
       <c r="F62" t="n">
-        <v>6315.192356372824</v>
+        <v>4816.644659877213</v>
       </c>
       <c r="G62" t="n">
-        <v>4354.610624385061</v>
+        <v>4960.743777727488</v>
       </c>
       <c r="H62" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="I62" t="n">
-        <v>4747359</v>
+        <v>4591879</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4432608</v>
+        <v>4412606</v>
       </c>
       <c r="E63" t="n">
-        <v>8741476</v>
+        <v>8702030</v>
       </c>
       <c r="F63" t="n">
-        <v>2096.933572794973</v>
+        <v>1779.234848939242</v>
       </c>
       <c r="G63" t="n">
-        <v>1651.900425652062</v>
+        <v>2366.809905211238</v>
       </c>
       <c r="H63" t="n">
-        <v>0.19</v>
+        <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>1697459</v>
+        <v>1692299</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1574334</v>
+        <v>1574435</v>
       </c>
       <c r="E64" t="n">
-        <v>9039237</v>
+        <v>9039819</v>
       </c>
       <c r="F64" t="n">
-        <v>5.92397772046892</v>
+        <v>525.7334453860913</v>
       </c>
       <c r="G64" t="n">
-        <v>3.999465915675752</v>
+        <v>4.06646507471503</v>
       </c>
       <c r="H64" t="n">
-        <v>1.56</v>
+        <v>0.61</v>
       </c>
       <c r="I64" t="n">
-        <v>324931</v>
+        <v>324734</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>598756</v>
+        <v>543684</v>
       </c>
       <c r="F65" t="n">
-        <v>97.34742543738</v>
+        <v>19.83964174682479</v>
       </c>
       <c r="G65" t="n">
-        <v>4.057018919873201</v>
+        <v>5.405758194812797</v>
       </c>
       <c r="H65" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I65" t="n">
-        <v>2648.96</v>
+        <v>2322.51</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>32169520</v>
+        <v>32123784</v>
       </c>
       <c r="F66" t="n">
-        <v>817.9528416556827</v>
+        <v>783.2915879677805</v>
       </c>
       <c r="G66" t="n">
-        <v>450.4681374691107</v>
+        <v>401.3362314967727</v>
       </c>
       <c r="H66" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>253766</v>
+        <v>249150</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>153344</v>
+        <v>151969</v>
       </c>
       <c r="E67" t="n">
-        <v>1035546</v>
+        <v>1026264</v>
       </c>
       <c r="F67" t="n">
-        <v>4.177132305252281</v>
+        <v>16.4935915717165</v>
       </c>
       <c r="G67" t="n">
-        <v>186.8241158900275</v>
+        <v>295.8566736178042</v>
       </c>
       <c r="H67" t="n">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
       <c r="I67" t="n">
-        <v>2624172</v>
+        <v>2615251</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7573230</v>
+        <v>7539898</v>
       </c>
       <c r="E68" t="n">
-        <v>17836463</v>
+        <v>17757958</v>
       </c>
       <c r="F68" t="n">
-        <v>1206.590990179654</v>
+        <v>1451.303444393695</v>
       </c>
       <c r="G68" t="n">
-        <v>2787.573647438103</v>
+        <v>2843.56728382603</v>
       </c>
       <c r="H68" t="n">
-        <v>1.06</v>
+        <v>0.72</v>
       </c>
       <c r="I68" t="n">
-        <v>21348</v>
+        <v>28109</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2923287</v>
+        <v>2935972</v>
       </c>
       <c r="E69" t="n">
-        <v>2923287</v>
+        <v>2935972</v>
       </c>
       <c r="F69" t="n">
-        <v>192.921953797007</v>
+        <v>152.8895938329418</v>
       </c>
       <c r="G69" t="n">
-        <v>628.0488275592787</v>
+        <v>635.0165126208705</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="I69" t="n">
-        <v>10413.89</v>
+        <v>10565.57</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3422886</v>
+        <v>3377695</v>
       </c>
       <c r="E70" t="n">
-        <v>8445797</v>
+        <v>8334289</v>
       </c>
       <c r="F70" t="n">
-        <v>1248.817836965786</v>
+        <v>1279.114100734201</v>
       </c>
       <c r="G70" t="n">
-        <v>1199.754058010034</v>
+        <v>1227.113117141899</v>
       </c>
       <c r="H70" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>45593</v>
+        <v>100526</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23432764</v>
+        <v>23359670</v>
       </c>
       <c r="F71" t="n">
-        <v>4.098341941325943</v>
+        <v>605.9388899480447</v>
       </c>
       <c r="G71" t="n">
-        <v>151.8649144612377</v>
+        <v>5.590816730133954</v>
       </c>
       <c r="H71" t="n">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="I71" t="n">
-        <v>125221</v>
+        <v>124474</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>270106</v>
+        <v>271927</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2642.04</v>
+        <v>2671.91</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>72321520</v>
+        <v>72632668</v>
       </c>
       <c r="E73" t="n">
-        <v>150827095</v>
+        <v>151475998</v>
       </c>
       <c r="F73" t="n">
-        <v>18999.63998862655</v>
+        <v>16892.33464565737</v>
       </c>
       <c r="G73" t="n">
-        <v>3727.207992992893</v>
+        <v>3349.474623084165</v>
       </c>
       <c r="H73" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I73" t="n">
-        <v>14107961</v>
+        <v>13974017</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>202291825</v>
+        <v>203622534</v>
       </c>
       <c r="F75" t="n">
-        <v>21985.77737770929</v>
+        <v>22437.83069773881</v>
       </c>
       <c r="G75" t="n">
-        <v>3754.075206471567</v>
+        <v>9106.764168246031</v>
       </c>
       <c r="H75" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="I75" t="n">
-        <v>2989045</v>
+        <v>4198178</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>84286087</v>
+        <v>84158537</v>
       </c>
       <c r="E76" t="n">
-        <v>115737914</v>
+        <v>115562769</v>
       </c>
       <c r="F76" t="n">
-        <v>5248.351970992876</v>
+        <v>2146.97078830767</v>
       </c>
       <c r="G76" t="n">
-        <v>2884.894333615702</v>
+        <v>3483.993226196146</v>
       </c>
       <c r="H76" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="I76" t="n">
-        <v>623650</v>
+        <v>847922</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>190646</v>
+        <v>190237</v>
       </c>
       <c r="E77" t="n">
-        <v>199089</v>
+        <v>198662</v>
       </c>
       <c r="F77" t="n">
-        <v>5.284005270433171</v>
+        <v>5.284278273312491</v>
       </c>
       <c r="G77" t="n">
-        <v>4.025484498680067</v>
+        <v>4.025692478953089</v>
       </c>
       <c r="H77" t="n">
         <v>0.58</v>
       </c>
       <c r="I77" t="n">
-        <v>613.34</v>
+        <v>610.14</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6856886</v>
+        <v>6947131</v>
       </c>
       <c r="E78" t="n">
-        <v>7543033</v>
+        <v>7642308</v>
       </c>
       <c r="F78" t="n">
-        <v>203.0636218276947</v>
+        <v>146.1427219761101</v>
       </c>
       <c r="G78" t="n">
-        <v>237.7242662801088</v>
+        <v>382.7827405051123</v>
       </c>
       <c r="H78" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="I78" t="n">
-        <v>574090</v>
+        <v>587194</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>27910730</v>
+        <v>28186503</v>
       </c>
       <c r="E79" t="n">
-        <v>27910730</v>
+        <v>28186503</v>
       </c>
       <c r="F79" t="n">
-        <v>1166.713284426656</v>
+        <v>4225.2446641679</v>
       </c>
       <c r="G79" t="n">
-        <v>73.41399411847428</v>
+        <v>70.28153248525012</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="I79" t="n">
-        <v>422831</v>
+        <v>430546</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>281541482</v>
+        <v>281288638</v>
       </c>
       <c r="E80" t="n">
-        <v>281541482</v>
+        <v>281288638</v>
       </c>
       <c r="F80" t="n">
-        <v>281.1950378773446</v>
+        <v>73.4758885798493</v>
       </c>
       <c r="G80" t="n">
-        <v>10359.60235094358</v>
+        <v>14348.35809694405</v>
       </c>
       <c r="H80" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>16664464</v>
+        <v>16611407</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>619732058</v>
+        <v>625840920</v>
       </c>
       <c r="E81" t="n">
-        <v>619732058</v>
+        <v>625840920</v>
       </c>
       <c r="F81" t="n">
-        <v>1445906.060339852</v>
+        <v>1607308.019541953</v>
       </c>
       <c r="G81" t="n">
-        <v>1323009.130877974</v>
+        <v>1484695.378951703</v>
       </c>
       <c r="H81" t="n">
         <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>244468113</v>
+        <v>235003890</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>110069</v>
+        <v>110323</v>
       </c>
       <c r="E82" t="n">
-        <v>110069</v>
+        <v>110323</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>126.88</v>
+        <v>127.29</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>197035628</v>
+        <v>197610332</v>
       </c>
       <c r="E83" t="n">
-        <v>684519578</v>
+        <v>686516153</v>
       </c>
       <c r="F83" t="n">
-        <v>945.8838321055642</v>
+        <v>687.4281857805728</v>
       </c>
       <c r="G83" t="n">
-        <v>3864.708778274517</v>
+        <v>4230.13564626147</v>
       </c>
       <c r="H83" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="I83" t="n">
-        <v>26049304</v>
+        <v>25491005</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4226293</v>
+        <v>4551135</v>
       </c>
       <c r="E84" t="n">
-        <v>4226293</v>
+        <v>4551129</v>
       </c>
       <c r="F84" t="n">
-        <v>1596.999187980466</v>
+        <v>824.7332798867194</v>
       </c>
       <c r="G84" t="n">
-        <v>2498.621085697232</v>
+        <v>919.7764021640305</v>
       </c>
       <c r="H84" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I84" t="n">
-        <v>2446798</v>
+        <v>4165034</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>115464744</v>
+        <v>114778234</v>
       </c>
       <c r="E85" t="n">
-        <v>491420759</v>
+        <v>488477572</v>
       </c>
       <c r="F85" t="n">
-        <v>279156.6843662629</v>
+        <v>270504.0388763967</v>
       </c>
       <c r="G85" t="n">
-        <v>347106.3153791121</v>
+        <v>412580.4985191055</v>
       </c>
       <c r="H85" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="I85" t="n">
-        <v>11448752</v>
+        <v>11680577</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>72837892</v>
+        <v>73168988</v>
       </c>
       <c r="E86" t="n">
-        <v>83572203</v>
+        <v>83952094</v>
       </c>
       <c r="F86" t="n">
-        <v>2240.523339883898</v>
+        <v>2019.213810094827</v>
       </c>
       <c r="G86" t="n">
-        <v>4529.450299463051</v>
+        <v>5339.255162775677</v>
       </c>
       <c r="H86" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="I86" t="n">
-        <v>1185979</v>
+        <v>1189464</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3178995</v>
+        <v>3189221</v>
       </c>
       <c r="E87" t="n">
-        <v>15938760</v>
+        <v>15990031</v>
       </c>
       <c r="F87" t="n">
-        <v>3.990855951216072</v>
+        <v>3.990959736617403</v>
       </c>
       <c r="G87" t="n">
-        <v>3.923067662779646</v>
+        <v>3.923169685292312</v>
       </c>
       <c r="H87" t="n">
         <v>0.48</v>
       </c>
       <c r="I87" t="n">
-        <v>21216</v>
+        <v>22410</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>521160</v>
+        <v>516348</v>
       </c>
       <c r="E88" t="n">
-        <v>8914399</v>
+        <v>8832104</v>
       </c>
       <c r="F88" t="n">
-        <v>10.46485349752373</v>
+        <v>899.9495161172047</v>
       </c>
       <c r="G88" t="n">
-        <v>5.573974501500261</v>
+        <v>4.122694205161273</v>
       </c>
       <c r="H88" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="I88" t="n">
-        <v>332256</v>
+        <v>330395</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5897094</v>
+        <v>5873445</v>
       </c>
       <c r="E89" t="n">
-        <v>8014294</v>
+        <v>7981263</v>
       </c>
       <c r="F89" t="n">
-        <v>1068.02826883526</v>
+        <v>1853.261028790823</v>
       </c>
       <c r="G89" t="n">
-        <v>143.7446199401473</v>
+        <v>134.4351946502428</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="I89" t="n">
-        <v>6456685</v>
+        <v>6450516</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>41765736</v>
+        <v>41446640</v>
       </c>
       <c r="E90" t="n">
-        <v>48781387</v>
+        <v>48408691</v>
       </c>
       <c r="F90" t="n">
-        <v>210.2926798956098</v>
+        <v>211.6660183432627</v>
       </c>
       <c r="G90" t="n">
-        <v>6.898991007315924</v>
+        <v>4.393787390133353</v>
       </c>
       <c r="H90" t="n">
-        <v>0.09</v>
+        <v>0.64</v>
       </c>
       <c r="I90" t="n">
-        <v>890484</v>
+        <v>861840</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14388753</v>
+        <v>14456454</v>
       </c>
       <c r="F91" t="n">
-        <v>138.5199521263967</v>
+        <v>132.4613787423046</v>
       </c>
       <c r="G91" t="n">
-        <v>240.9959542632159</v>
+        <v>225.1960261914663</v>
       </c>
       <c r="H91" t="n">
         <v>1.92</v>
       </c>
       <c r="I91" t="n">
-        <v>251172</v>
+        <v>499370</v>
       </c>
     </row>
     <row r="92">
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35697635</v>
+        <v>35993427</v>
       </c>
       <c r="E92" t="n">
-        <v>35697635</v>
+        <v>35993427</v>
       </c>
       <c r="F92" t="n">
         <v>770.2235891297211</v>
@@ -3646,7 +3646,7 @@
         <v>0.29</v>
       </c>
       <c r="I92" t="n">
-        <v>301584</v>
+        <v>594295</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17732702</v>
+        <v>17718960</v>
       </c>
       <c r="F93" t="n">
-        <v>78.97247114470422</v>
+        <v>95.07404857921279</v>
       </c>
       <c r="G93" t="n">
-        <v>209.4133066235954</v>
+        <v>293.3791569405366</v>
       </c>
       <c r="H93" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="I93" t="n">
-        <v>168608</v>
+        <v>168588</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>531073</v>
+        <v>531188</v>
       </c>
       <c r="E94" t="n">
-        <v>6441404</v>
+        <v>6442793</v>
       </c>
       <c r="F94" t="n">
-        <v>1184.178190224894</v>
+        <v>887.9867144055651</v>
       </c>
       <c r="G94" t="n">
-        <v>985.1582098075994</v>
+        <v>777.2243605724688</v>
       </c>
       <c r="H94" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="I94" t="n">
-        <v>2919504</v>
+        <v>2905686</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25228140</v>
+        <v>25328938</v>
       </c>
       <c r="E95" t="n">
-        <v>35658991</v>
+        <v>35801464</v>
       </c>
       <c r="F95" t="n">
-        <v>5.49079085323042</v>
+        <v>4.259446302747325</v>
       </c>
       <c r="G95" t="n">
-        <v>1157.366624279336</v>
+        <v>2.859704059043374</v>
       </c>
       <c r="H95" t="n">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="I95" t="n">
-        <v>84787</v>
+        <v>88071</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1280657944</v>
+        <v>1291198922</v>
       </c>
       <c r="E96" t="n">
-        <v>6141017113</v>
+        <v>6191563262</v>
       </c>
       <c r="F96" t="n">
-        <v>487537.5103874064</v>
+        <v>405861.602948101</v>
       </c>
       <c r="G96" t="n">
-        <v>459813.5411577709</v>
+        <v>773752.0639372934</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>197611830</v>
+        <v>200193590</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>269121544</v>
+        <v>271069507</v>
       </c>
       <c r="E97" t="n">
-        <v>1161677985</v>
+        <v>1170086475</v>
       </c>
       <c r="F97" t="n">
-        <v>274216.2088005464</v>
+        <v>122408.1596045403</v>
       </c>
       <c r="G97" t="n">
-        <v>945974.3532520897</v>
+        <v>776729.2499064313</v>
       </c>
       <c r="H97" t="n">
         <v>0.17</v>
       </c>
       <c r="I97" t="n">
-        <v>110954317</v>
+        <v>111722662</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5069731</v>
+        <v>5053230</v>
       </c>
       <c r="E98" t="n">
-        <v>5618272</v>
+        <v>5599986</v>
       </c>
       <c r="F98" t="n">
-        <v>863.1521653264183</v>
+        <v>1037.731452503224</v>
       </c>
       <c r="G98" t="n">
-        <v>289.2521662387928</v>
+        <v>364.031797674724</v>
       </c>
       <c r="H98" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="I98" t="n">
-        <v>713232</v>
+        <v>704220</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89996</v>
+        <v>89998</v>
       </c>
       <c r="E99" t="n">
-        <v>89996</v>
+        <v>89998</v>
       </c>
       <c r="F99" t="n">
-        <v>4.265368328048264</v>
+        <v>5.599845879768558</v>
       </c>
       <c r="G99" t="n">
-        <v>226.0771667630511</v>
+        <v>234.7763040748394</v>
       </c>
       <c r="H99" t="n">
         <v>0.52</v>
       </c>
       <c r="I99" t="n">
-        <v>5124.86</v>
+        <v>5029.03</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113381098</v>
+        <v>113576396</v>
       </c>
       <c r="E100" t="n">
-        <v>113381098</v>
+        <v>113576396</v>
       </c>
       <c r="F100" t="n">
-        <v>17865.8040579431</v>
+        <v>7468.908301954609</v>
       </c>
       <c r="G100" t="n">
-        <v>7022.448288128908</v>
+        <v>13388.43670546654</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6010170</v>
+        <v>6013562</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3779486</v>
+        <v>3799083</v>
       </c>
       <c r="F101" t="n">
-        <v>1798.753063592299</v>
+        <v>143.2315855300565</v>
       </c>
       <c r="G101" t="n">
-        <v>1036.625664822605</v>
+        <v>2547.836785760175</v>
       </c>
       <c r="H101" t="n">
-        <v>0.63</v>
+        <v>1.78</v>
       </c>
       <c r="I101" t="n">
-        <v>307865</v>
+        <v>308582</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2048400394</v>
+        <v>2044038727</v>
       </c>
       <c r="E102" t="n">
-        <v>2048400394</v>
+        <v>2044038727</v>
       </c>
       <c r="F102" t="n">
-        <v>7594284.244731818</v>
+        <v>7506678.817291885</v>
       </c>
       <c r="G102" t="n">
-        <v>3521368.683706936</v>
+        <v>3498862.85097099</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>3434826554</v>
+        <v>4830817237</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5346274</v>
+        <v>5341665</v>
       </c>
       <c r="E103" t="n">
-        <v>5352325</v>
+        <v>5347711</v>
       </c>
       <c r="F103" t="n">
-        <v>284.7266592387587</v>
+        <v>284.7341071287182</v>
       </c>
       <c r="G103" t="n">
-        <v>57.75619395915906</v>
+        <v>57.75770474771056</v>
       </c>
       <c r="H103" t="n">
         <v>0.09</v>
       </c>
       <c r="I103" t="n">
-        <v>161907</v>
+        <v>155868</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2393561</v>
+        <v>2434258</v>
       </c>
       <c r="F104" t="n">
-        <v>49.03901665495923</v>
+        <v>4.070139571771394</v>
       </c>
       <c r="G104" t="n">
-        <v>656.5034614324595</v>
+        <v>314.7057878484114</v>
       </c>
       <c r="H104" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="I104" t="n">
-        <v>61815</v>
+        <v>25032</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4349235</v>
+        <v>4385774</v>
       </c>
       <c r="E105" t="n">
-        <v>5709979</v>
+        <v>5757949</v>
       </c>
       <c r="F105" t="n">
-        <v>10502.68496144017</v>
+        <v>10446.54169114381</v>
       </c>
       <c r="G105" t="n">
-        <v>10707.40752915729</v>
+        <v>12514.57186892329</v>
       </c>
       <c r="H105" t="n">
         <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>667507</v>
+        <v>659217</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20211752</v>
+        <v>20192654</v>
       </c>
       <c r="F106" t="n">
-        <v>77.00505340396791</v>
+        <v>73.72414447781652</v>
       </c>
       <c r="G106" t="n">
-        <v>729.9978210492637</v>
+        <v>774.3538005024031</v>
       </c>
       <c r="H106" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I106" t="n">
-        <v>118795</v>
+        <v>127703</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1385271</v>
+        <v>1377164</v>
       </c>
       <c r="E107" t="n">
-        <v>5164812</v>
+        <v>5134585</v>
       </c>
       <c r="F107" t="n">
-        <v>1836.878618368233</v>
+        <v>1776.797727504067</v>
       </c>
       <c r="G107" t="n">
-        <v>164.0602929874381</v>
+        <v>164.4577507983829</v>
       </c>
       <c r="H107" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I107" t="n">
-        <v>619457</v>
+        <v>622798</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3491942</v>
+        <v>3573474</v>
       </c>
       <c r="E108" t="n">
-        <v>10058220</v>
+        <v>10293067</v>
       </c>
       <c r="F108" t="n">
-        <v>1312.677446154572</v>
+        <v>711.4000300893149</v>
       </c>
       <c r="G108" t="n">
-        <v>804.1702342699474</v>
+        <v>930.2456372283737</v>
       </c>
       <c r="H108" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="I108" t="n">
-        <v>357152</v>
+        <v>394769</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>79947401</v>
+        <v>80180045</v>
       </c>
       <c r="E109" t="n">
-        <v>101739281</v>
+        <v>102035339</v>
       </c>
       <c r="F109" t="n">
-        <v>3106.387636431613</v>
+        <v>6257.793861743187</v>
       </c>
       <c r="G109" t="n">
-        <v>945.9129230242906</v>
+        <v>747.9355389261016</v>
       </c>
       <c r="H109" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="I109" t="n">
-        <v>6241573</v>
+        <v>6229044</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22780578</v>
+        <v>23017369</v>
       </c>
       <c r="E110" t="n">
-        <v>29551621</v>
+        <v>29858793</v>
       </c>
       <c r="F110" t="n">
-        <v>20249.58287701748</v>
+        <v>19319.33092957693</v>
       </c>
       <c r="G110" t="n">
-        <v>11564.06968475651</v>
+        <v>13727.25001651546</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="I110" t="n">
-        <v>186533</v>
+        <v>183275</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>615341</v>
+        <v>614710</v>
       </c>
       <c r="E111" t="n">
-        <v>615341</v>
+        <v>614710</v>
       </c>
       <c r="F111" t="n">
-        <v>6.490887055350694</v>
+        <v>6.49101939995366</v>
       </c>
       <c r="G111" t="n">
-        <v>328.8756854744253</v>
+        <v>328.8823910173886</v>
       </c>
       <c r="H111" t="n">
         <v>0.65</v>
       </c>
       <c r="I111" t="n">
-        <v>83218</v>
+        <v>82837</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13756450</v>
+        <v>13795349</v>
       </c>
       <c r="E112" t="n">
-        <v>13756450</v>
+        <v>13795349</v>
       </c>
       <c r="F112" t="n">
-        <v>1171.408229673908</v>
+        <v>1655.945959829806</v>
       </c>
       <c r="G112" t="n">
-        <v>6970.916247786487</v>
+        <v>1335.585170625177</v>
       </c>
       <c r="H112" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I112" t="n">
-        <v>4372630</v>
+        <v>4405506</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99443550</v>
+        <v>99701083</v>
       </c>
       <c r="E113" t="n">
-        <v>123008112</v>
+        <v>123326671</v>
       </c>
       <c r="F113" t="n">
-        <v>98.88659568080247</v>
+        <v>93.9130079411392</v>
       </c>
       <c r="G113" t="n">
-        <v>1595.070704237176</v>
+        <v>851.1930346980535</v>
       </c>
       <c r="H113" t="n">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="I113" t="n">
-        <v>731267</v>
+        <v>744078</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>843027</v>
+        <v>842990</v>
       </c>
       <c r="F114" t="n">
-        <v>246.3226090069137</v>
+        <v>236.9887908401481</v>
       </c>
       <c r="G114" t="n">
-        <v>208.8068757687563</v>
+        <v>298.3308372667133</v>
       </c>
       <c r="H114" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="I114" t="n">
-        <v>30849</v>
+        <v>30959</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2872825</v>
+        <v>2876314</v>
       </c>
       <c r="F115" t="n">
-        <v>912.6029360111581</v>
+        <v>912.6237586329029</v>
       </c>
       <c r="G115" t="n">
-        <v>184.9560293257887</v>
+        <v>184.9602494189816</v>
       </c>
       <c r="H115" t="n">
         <v>0.97</v>
       </c>
       <c r="I115" t="n">
-        <v>30434</v>
+        <v>24450</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11292996</v>
+        <v>10834291</v>
       </c>
       <c r="E116" t="n">
-        <v>16607346</v>
+        <v>15932780</v>
       </c>
       <c r="F116" t="n">
-        <v>4107.125354133466</v>
+        <v>102718.9162117286</v>
       </c>
       <c r="G116" t="n">
-        <v>2862.127857856675</v>
+        <v>1992.521019000066</v>
       </c>
       <c r="H116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="I116" t="n">
-        <v>316809</v>
+        <v>436885</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3240637</v>
+        <v>3270500</v>
       </c>
       <c r="F117" t="n">
-        <v>6.549074203092187</v>
+        <v>64.41474292334851</v>
       </c>
       <c r="G117" t="n">
-        <v>151.0202600996803</v>
+        <v>5.424230373402755</v>
       </c>
       <c r="H117" t="n">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="I117" t="n">
-        <v>35364</v>
+        <v>35655</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1089793</v>
+        <v>1075475</v>
       </c>
       <c r="F118" t="n">
-        <v>5.595409924371495</v>
+        <v>5.595571726383986</v>
       </c>
       <c r="G118" t="n">
-        <v>54.0602646032221</v>
+        <v>54.06182785948515</v>
       </c>
       <c r="H118" t="n">
         <v>0.72</v>
       </c>
       <c r="I118" t="n">
-        <v>3925.29</v>
+        <v>3950.14</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5411085</v>
+        <v>5367555</v>
       </c>
       <c r="E119" t="n">
-        <v>7570892</v>
+        <v>7509987</v>
       </c>
       <c r="F119" t="n">
-        <v>1112.132734664929</v>
+        <v>1612.021618978053</v>
       </c>
       <c r="G119" t="n">
-        <v>382.4909206604863</v>
+        <v>1219.231554144066</v>
       </c>
       <c r="H119" t="n">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="I119" t="n">
-        <v>104242</v>
+        <v>110184</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10170038</v>
+        <v>10266421</v>
       </c>
       <c r="E120" t="n">
-        <v>28012936</v>
+        <v>28278419</v>
       </c>
       <c r="F120" t="n">
-        <v>474.2318037516343</v>
+        <v>29.20199766651128</v>
       </c>
       <c r="G120" t="n">
-        <v>153.377155867402</v>
+        <v>522.1459487271915</v>
       </c>
       <c r="H120" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="I120" t="n">
-        <v>351618</v>
+        <v>352300</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50771983</v>
+        <v>50862456</v>
       </c>
       <c r="E121" t="n">
-        <v>129344529</v>
+        <v>129575014</v>
       </c>
       <c r="F121" t="n">
-        <v>1141.013023245612</v>
+        <v>572.0647968788024</v>
       </c>
       <c r="G121" t="n">
-        <v>11934.37154147927</v>
+        <v>11932.97921557798</v>
       </c>
       <c r="H121" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I121" t="n">
-        <v>2449800</v>
+        <v>2232621</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14115051</v>
+        <v>14113201</v>
       </c>
       <c r="E122" t="n">
-        <v>68361446</v>
+        <v>68352487</v>
       </c>
       <c r="F122" t="n">
-        <v>1189.062791063684</v>
+        <v>1371.877288581338</v>
       </c>
       <c r="G122" t="n">
-        <v>4469.266478065743</v>
+        <v>5293.837504261483</v>
       </c>
       <c r="H122" t="n">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="I122" t="n">
-        <v>3539554</v>
+        <v>3554094</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>492504</v>
+        <v>495545</v>
       </c>
       <c r="F123" t="n">
-        <v>3.920478501496558</v>
+        <v>3.920580456676014</v>
       </c>
       <c r="G123" t="n">
-        <v>4.683264057161137</v>
+        <v>4.683385849189126</v>
       </c>
       <c r="H123" t="n">
         <v>0.48</v>
       </c>
       <c r="I123" t="n">
-        <v>6019.36</v>
+        <v>5527.84</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4419817</v>
+        <v>4454179</v>
       </c>
       <c r="E124" t="n">
-        <v>10074778</v>
+        <v>10153105</v>
       </c>
       <c r="F124" t="n">
-        <v>260.3934307645349</v>
+        <v>793.5209063228159</v>
       </c>
       <c r="G124" t="n">
-        <v>852.1405167775781</v>
+        <v>2211.767588816702</v>
       </c>
       <c r="H124" t="n">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="I124" t="n">
-        <v>104547</v>
+        <v>98740</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1868072039</v>
+        <v>1869413427</v>
       </c>
       <c r="F125" t="n">
-        <v>75242.48519275093</v>
+        <v>73310.06984996636</v>
       </c>
       <c r="G125" t="n">
-        <v>73878.27693157461</v>
+        <v>71819.90029514449</v>
       </c>
       <c r="H125" t="n">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I125" t="n">
-        <v>25605654</v>
+        <v>25495490</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9369263</v>
+        <v>9497412</v>
       </c>
       <c r="E126" t="n">
-        <v>34118085</v>
+        <v>34584245</v>
       </c>
       <c r="F126" t="n">
-        <v>4.027339605001218</v>
+        <v>1722.944321840917</v>
       </c>
       <c r="G126" t="n">
-        <v>4.055253100308633</v>
+        <v>5.391483997846745</v>
       </c>
       <c r="H126" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="I126" t="n">
-        <v>143003</v>
+        <v>150621</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>569241</v>
+        <v>562310</v>
       </c>
       <c r="F127" t="n">
-        <v>48.33983539723623</v>
+        <v>23.70354055499712</v>
       </c>
       <c r="G127" t="n">
-        <v>7.968149086427993</v>
+        <v>35.57416412150091</v>
       </c>
       <c r="H127" t="n">
-        <v>0.14</v>
+        <v>0.82</v>
       </c>
       <c r="I127" t="n">
-        <v>21837</v>
+        <v>21612</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>11963269</v>
+        <v>12231235</v>
       </c>
       <c r="E128" t="n">
-        <v>17345013</v>
+        <v>17733526</v>
       </c>
       <c r="F128" t="n">
-        <v>3343.267696545412</v>
+        <v>2960.806434845621</v>
       </c>
       <c r="G128" t="n">
-        <v>8828.028002425455</v>
+        <v>7759.110077414854</v>
       </c>
       <c r="H128" t="n">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="I128" t="n">
-        <v>2192690</v>
+        <v>2205507</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31592745</v>
+        <v>31872493</v>
       </c>
       <c r="E129" t="n">
-        <v>98369670</v>
+        <v>99240718</v>
       </c>
       <c r="F129" t="n">
-        <v>7490.222642140739</v>
+        <v>8177.012275632057</v>
       </c>
       <c r="G129" t="n">
-        <v>11649.60628355234</v>
+        <v>23095.4130504222</v>
       </c>
       <c r="H129" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="I129" t="n">
-        <v>12232287</v>
+        <v>12184136</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1935308</v>
+        <v>1928644</v>
       </c>
       <c r="E130" t="n">
-        <v>13877900</v>
+        <v>13830110</v>
       </c>
       <c r="F130" t="n">
-        <v>222.2198601648041</v>
+        <v>226.6128698988559</v>
       </c>
       <c r="G130" t="n">
-        <v>3.939272725826206</v>
+        <v>3.93938663745438</v>
       </c>
       <c r="H130" t="n">
         <v>0.65</v>
       </c>
       <c r="I130" t="n">
-        <v>1860199</v>
+        <v>1851274</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7948086</v>
+        <v>7944577</v>
       </c>
       <c r="F131" t="n">
-        <v>95.81081478600021</v>
+        <v>95.76895111973771</v>
       </c>
       <c r="G131" t="n">
-        <v>121.7540857912651</v>
+        <v>121.7544345803373</v>
       </c>
       <c r="H131" t="n">
         <v>0.83</v>
       </c>
       <c r="I131" t="n">
-        <v>482359</v>
+        <v>480254</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>196769797</v>
+        <v>199196507</v>
       </c>
       <c r="E132" t="n">
-        <v>1114231497</v>
+        <v>1127973021</v>
       </c>
       <c r="F132" t="n">
-        <v>556633.8689196459</v>
+        <v>491068.9490374794</v>
       </c>
       <c r="G132" t="n">
-        <v>489494.8374615164</v>
+        <v>519738.0181100432</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>60019208</v>
+        <v>59527431</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1035552</v>
+        <v>1039301</v>
       </c>
       <c r="E133" t="n">
-        <v>1035552</v>
+        <v>1039301</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>12523.21</v>
+        <v>12667.79</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>505000</v>
+        <v>508230</v>
       </c>
       <c r="E134" t="n">
-        <v>1699759</v>
+        <v>1710631</v>
       </c>
       <c r="F134" t="n">
-        <v>102.5896422105143</v>
+        <v>238.1666057859824</v>
       </c>
       <c r="G134" t="n">
-        <v>167.7939229839752</v>
+        <v>152.4669014125514</v>
       </c>
       <c r="H134" t="n">
-        <v>0.59</v>
+        <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>631129</v>
+        <v>631658</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>16466473</v>
+        <v>16460371</v>
       </c>
       <c r="F135" t="n">
-        <v>4.002747034217236</v>
+        <v>4.002857868076807</v>
       </c>
       <c r="G135" t="n">
-        <v>4.899138449192329</v>
+        <v>4.899274103636204</v>
       </c>
       <c r="H135" t="n">
         <v>0.64</v>
       </c>
       <c r="I135" t="n">
-        <v>739.61</v>
+        <v>739.55</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>137954750</v>
+        <v>138674247</v>
       </c>
       <c r="E136" t="n">
-        <v>1021887038</v>
+        <v>1027216643</v>
       </c>
       <c r="F136" t="n">
-        <v>40826.34304571486</v>
+        <v>59035.12365766314</v>
       </c>
       <c r="G136" t="n">
-        <v>41188.94295862789</v>
+        <v>59455.27216671957</v>
       </c>
       <c r="H136" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I136" t="n">
-        <v>12488366</v>
+        <v>12479995</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>32782645</v>
+        <v>33732690</v>
       </c>
       <c r="E137" t="n">
-        <v>155948933</v>
+        <v>160468350</v>
       </c>
       <c r="F137" t="n">
-        <v>17106.01257773729</v>
+        <v>16618.34961340957</v>
       </c>
       <c r="G137" t="n">
-        <v>1872.657681294232</v>
+        <v>36476.12826972863</v>
       </c>
       <c r="H137" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="I137" t="n">
-        <v>1124307</v>
+        <v>1332600</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8227705</v>
+        <v>8241498</v>
       </c>
       <c r="E138" t="n">
-        <v>11022832</v>
+        <v>11041310</v>
       </c>
       <c r="F138" t="n">
-        <v>186.1538212359421</v>
+        <v>6.634186488698793</v>
       </c>
       <c r="G138" t="n">
-        <v>47.51824547787814</v>
+        <v>304.6880280761037</v>
       </c>
       <c r="H138" t="n">
-        <v>0.98</v>
+        <v>0.62</v>
       </c>
       <c r="I138" t="n">
-        <v>58950</v>
+        <v>60593</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1250496</v>
+        <v>1257741</v>
       </c>
       <c r="F139" t="n">
-        <v>6.543316099393611</v>
+        <v>6.544518192648964</v>
       </c>
       <c r="G139" t="n">
-        <v>88.25450780447996</v>
+        <v>82.10726983187159</v>
       </c>
       <c r="H139" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="I139" t="n">
-        <v>48147</v>
+        <v>48430</v>
       </c>
     </row>
     <row r="140">
@@ -5309,10 +5309,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2393199</v>
+        <v>2392372</v>
       </c>
       <c r="E140" t="n">
-        <v>2393199</v>
+        <v>2392372</v>
       </c>
       <c r="F140" t="n">
         <v>396.1213238538912</v>
@@ -5324,7 +5324,7 @@
         <v>0.45</v>
       </c>
       <c r="I140" t="n">
-        <v>281095</v>
+        <v>281462</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26359482</v>
+        <v>25969008</v>
       </c>
       <c r="E141" t="n">
-        <v>26359482</v>
+        <v>25969008</v>
       </c>
       <c r="F141" t="n">
-        <v>718.1711355435787</v>
+        <v>858.5079513013842</v>
       </c>
       <c r="G141" t="n">
-        <v>1483.71599944863</v>
+        <v>1687.70201354838</v>
       </c>
       <c r="H141" t="n">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="I141" t="n">
-        <v>357376</v>
+        <v>354983</v>
       </c>
     </row>
     <row r="142">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6451823</v>
+        <v>6478237</v>
       </c>
       <c r="E142" t="n">
-        <v>6813848</v>
+        <v>6841744</v>
       </c>
       <c r="F142" t="n">
         <v>775.036308111478</v>
@@ -5394,7 +5394,7 @@
         <v>0.29</v>
       </c>
       <c r="I142" t="n">
-        <v>67531</v>
+        <v>69081</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3502302</v>
+        <v>3365589</v>
       </c>
       <c r="E143" t="n">
-        <v>8178458</v>
+        <v>7859210</v>
       </c>
       <c r="F143" t="n">
-        <v>1226.48695141919</v>
+        <v>1929.737798356978</v>
       </c>
       <c r="G143" t="n">
-        <v>1060.163196135344</v>
+        <v>810.8018128693755</v>
       </c>
       <c r="H143" t="n">
-        <v>1.08</v>
+        <v>0.49</v>
       </c>
       <c r="I143" t="n">
-        <v>775877</v>
+        <v>754043</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1613146</v>
+        <v>1632240</v>
       </c>
       <c r="E144" t="n">
-        <v>12564041</v>
+        <v>12712756</v>
       </c>
       <c r="F144" t="n">
-        <v>200.5926567079146</v>
+        <v>200.5418489238271</v>
       </c>
       <c r="G144" t="n">
-        <v>1697.933104062127</v>
+        <v>1535.795037994276</v>
       </c>
       <c r="H144" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="I144" t="n">
-        <v>463396</v>
+        <v>517042</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>335810645</v>
+        <v>337957943</v>
       </c>
       <c r="E145" t="n">
-        <v>3021160791</v>
+        <v>3040479219</v>
       </c>
       <c r="F145" t="n">
-        <v>459246.5308779211</v>
+        <v>609515.8959889503</v>
       </c>
       <c r="G145" t="n">
-        <v>650916.1279879294</v>
+        <v>620319.2515858104</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>37646319</v>
+        <v>38162806</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>253462</v>
+        <v>256433</v>
       </c>
       <c r="E146" t="n">
-        <v>2236995</v>
+        <v>2263214</v>
       </c>
       <c r="F146" t="n">
-        <v>4.016350056601213</v>
+        <v>4.076423477198589</v>
       </c>
       <c r="G146" t="n">
-        <v>5.499014788978787</v>
+        <v>3.983657842643276</v>
       </c>
       <c r="H146" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I146" t="n">
-        <v>86695</v>
+        <v>91131</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>650501</v>
+        <v>651041</v>
       </c>
       <c r="F147" t="n">
-        <v>928.8560914682253</v>
+        <v>930.2806556140739</v>
       </c>
       <c r="G147" t="n">
-        <v>607.4119886755905</v>
+        <v>584.8974646500587</v>
       </c>
       <c r="H147" t="n">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="I147" t="n">
-        <v>6174.83</v>
+        <v>6247.79</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4913412</v>
+        <v>4914147</v>
       </c>
       <c r="E148" t="n">
-        <v>17362648</v>
+        <v>17365244</v>
       </c>
       <c r="F148" t="n">
-        <v>1731.601039605165</v>
+        <v>1608.978373713165</v>
       </c>
       <c r="G148" t="n">
-        <v>2388.526903712258</v>
+        <v>2391.137018410415</v>
       </c>
       <c r="H148" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I148" t="n">
-        <v>104366</v>
+        <v>100751</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8898237</v>
+        <v>8897520</v>
       </c>
       <c r="E149" t="n">
-        <v>41243839</v>
+        <v>41240516</v>
       </c>
       <c r="F149" t="n">
-        <v>1882.851766582497</v>
+        <v>2349.612021100225</v>
       </c>
       <c r="G149" t="n">
-        <v>3832.177006035132</v>
+        <v>2210.950596680393</v>
       </c>
       <c r="H149" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I149" t="n">
-        <v>94028</v>
+        <v>96235</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>42787594</v>
+        <v>42887369</v>
       </c>
       <c r="E150" t="n">
-        <v>247722492</v>
+        <v>248300145</v>
       </c>
       <c r="F150" t="n">
-        <v>80165.41538996404</v>
+        <v>55591.61353570529</v>
       </c>
       <c r="G150" t="n">
-        <v>47061.10802823056</v>
+        <v>64716.66579742944</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I150" t="n">
-        <v>10891274</v>
+        <v>11099054</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>83898</v>
+        <v>83765</v>
       </c>
       <c r="E151" t="n">
-        <v>83898</v>
+        <v>83765</v>
       </c>
       <c r="F151" t="n">
-        <v>4.040253404109166</v>
+        <v>9.237209820892559</v>
       </c>
       <c r="G151" t="n">
-        <v>5.314404490939211</v>
+        <v>10.62917890978744</v>
       </c>
       <c r="H151" t="n">
         <v>0.54</v>
       </c>
       <c r="I151" t="n">
-        <v>19872.74</v>
+        <v>19929.6</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4362924</v>
+        <v>4366427</v>
       </c>
       <c r="F152" t="n">
-        <v>159.7217321895289</v>
+        <v>121.3218522144691</v>
       </c>
       <c r="G152" t="n">
-        <v>104.4690716229969</v>
+        <v>218.7686290186274</v>
       </c>
       <c r="H152" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="I152" t="n">
-        <v>312613</v>
+        <v>314117</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>40463661</v>
+        <v>39687560</v>
       </c>
       <c r="E153" t="n">
-        <v>55886078</v>
+        <v>54814172</v>
       </c>
       <c r="F153" t="n">
-        <v>4391.396882077516</v>
+        <v>656.677606103233</v>
       </c>
       <c r="G153" t="n">
-        <v>6835.458824666798</v>
+        <v>97.90051958748667</v>
       </c>
       <c r="H153" t="n">
-        <v>0.53</v>
+        <v>0.08</v>
       </c>
       <c r="I153" t="n">
-        <v>338977</v>
+        <v>346500</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2182450</v>
+        <v>2106985</v>
       </c>
       <c r="E154" t="n">
-        <v>8912561</v>
+        <v>8604379</v>
       </c>
       <c r="F154" t="n">
-        <v>670.7254370869015</v>
+        <v>711.7933204314012</v>
       </c>
       <c r="G154" t="n">
-        <v>236.7640235470492</v>
+        <v>288.3470165312961</v>
       </c>
       <c r="H154" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="I154" t="n">
-        <v>566708</v>
+        <v>543971</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7366722</v>
+        <v>7387530</v>
       </c>
       <c r="E155" t="n">
-        <v>7421481</v>
+        <v>7442444</v>
       </c>
       <c r="F155" t="n">
-        <v>9544.395382071385</v>
+        <v>8438.871026178713</v>
       </c>
       <c r="G155" t="n">
-        <v>2081.813022110933</v>
+        <v>2224.230895486618</v>
       </c>
       <c r="H155" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>4711153</v>
+        <v>4832441</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>539998</v>
+        <v>539504</v>
       </c>
       <c r="E156" t="n">
-        <v>539998</v>
+        <v>539504</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>37.25</v>
+        <v>34.98</v>
       </c>
       <c r="I156" t="n">
-        <v>5529.4</v>
+        <v>5473.78</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13643010</v>
+        <v>13677149</v>
       </c>
       <c r="E157" t="n">
-        <v>13689438</v>
+        <v>13723693</v>
       </c>
       <c r="F157" t="n">
-        <v>3367.066140391491</v>
+        <v>5126.860224206888</v>
       </c>
       <c r="G157" t="n">
-        <v>1228.795414690245</v>
+        <v>3526.777645804118</v>
       </c>
       <c r="H157" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I157" t="n">
-        <v>5495682</v>
+        <v>5602473</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42875453</v>
+        <v>42835665</v>
       </c>
       <c r="E158" t="n">
-        <v>72792545</v>
+        <v>72724994</v>
       </c>
       <c r="F158" t="n">
-        <v>384.5460949876357</v>
+        <v>398.560652924108</v>
       </c>
       <c r="G158" t="n">
-        <v>826.9320723807105</v>
+        <v>942.8167708031758</v>
       </c>
       <c r="H158" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I158" t="n">
-        <v>1148460</v>
+        <v>1137500</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>25841433</v>
+        <v>26426155</v>
       </c>
       <c r="E159" t="n">
-        <v>77461493</v>
+        <v>79214783</v>
       </c>
       <c r="F159" t="n">
-        <v>2495.966835234986</v>
+        <v>4572.902118501927</v>
       </c>
       <c r="G159" t="n">
-        <v>5486.555947500113</v>
+        <v>5304.781850820871</v>
       </c>
       <c r="H159" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="I159" t="n">
-        <v>2289018</v>
+        <v>2333680</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101257691</v>
+        <v>101451084</v>
       </c>
       <c r="E160" t="n">
-        <v>107646077</v>
+        <v>107851671</v>
       </c>
       <c r="F160" t="n">
-        <v>431.2966388412121</v>
+        <v>1010.589953372796</v>
       </c>
       <c r="G160" t="n">
-        <v>1220.415482388232</v>
+        <v>1152.251382458141</v>
       </c>
       <c r="H160" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="I160" t="n">
-        <v>984811</v>
+        <v>941627</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10692419</v>
+        <v>10646029</v>
       </c>
       <c r="E161" t="n">
-        <v>46613676</v>
+        <v>46410952</v>
       </c>
       <c r="F161" t="n">
-        <v>3644.751327707594</v>
+        <v>3647.62614935841</v>
       </c>
       <c r="G161" t="n">
-        <v>3033.325682060192</v>
+        <v>4004.570922062079</v>
       </c>
       <c r="H161" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="I161" t="n">
-        <v>111498</v>
+        <v>110951</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15238563</v>
+        <v>15302336</v>
       </c>
       <c r="E162" t="n">
-        <v>93402161</v>
+        <v>93793049</v>
       </c>
       <c r="F162" t="n">
-        <v>1369.956204645885</v>
+        <v>2400.472239744954</v>
       </c>
       <c r="G162" t="n">
-        <v>1202.456118889463</v>
+        <v>787.4909845692732</v>
       </c>
       <c r="H162" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I162" t="n">
-        <v>11707733</v>
+        <v>11640405</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1487289</v>
+        <v>1496668</v>
       </c>
       <c r="E163" t="n">
-        <v>1529124</v>
+        <v>1538768</v>
       </c>
       <c r="F163" t="n">
-        <v>88.61540704631597</v>
+        <v>88.47314081701862</v>
       </c>
       <c r="G163" t="n">
-        <v>64.15194372391508</v>
+        <v>64.15316190498945</v>
       </c>
       <c r="H163" t="n">
-        <v>1.48</v>
+        <v>0.86</v>
       </c>
       <c r="I163" t="n">
-        <v>137003</v>
+        <v>139869</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97041</v>
+        <v>96903</v>
       </c>
       <c r="E164" t="n">
-        <v>275283</v>
+        <v>274892</v>
       </c>
       <c r="F164" t="n">
-        <v>4.028932297247207</v>
+        <v>4.029037072854374</v>
       </c>
       <c r="G164" t="n">
-        <v>80.36444124011456</v>
+        <v>80.36653118169322</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>47.72</v>
+        <v>47.65</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46352652</v>
+        <v>46169358</v>
       </c>
       <c r="E165" t="n">
-        <v>199682158</v>
+        <v>198892547</v>
       </c>
       <c r="F165" t="n">
-        <v>3382.273039170879</v>
+        <v>4599.496740660559</v>
       </c>
       <c r="G165" t="n">
-        <v>5758.453306171783</v>
+        <v>4978.565079351334</v>
       </c>
       <c r="H165" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I165" t="n">
-        <v>8578366</v>
+        <v>8568603</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7694732</v>
+        <v>7759903</v>
       </c>
       <c r="F166" t="n">
-        <v>471.3370512845306</v>
+        <v>508.3345407841622</v>
       </c>
       <c r="G166" t="n">
-        <v>97.71971812646633</v>
+        <v>157.2331686891969</v>
       </c>
       <c r="H166" t="n">
-        <v>0.48</v>
+        <v>0.82</v>
       </c>
       <c r="I166" t="n">
-        <v>6390329</v>
+        <v>6397512</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>662651</v>
+        <v>666787</v>
       </c>
       <c r="E167" t="n">
-        <v>2392570</v>
+        <v>2407505</v>
       </c>
       <c r="F167" t="n">
-        <v>50.65102719275136</v>
+        <v>63.93707600518145</v>
       </c>
       <c r="G167" t="n">
-        <v>10.08206617116516</v>
+        <v>10.87158692234815</v>
       </c>
       <c r="H167" t="n">
         <v>1.2</v>
       </c>
       <c r="I167" t="n">
-        <v>369632</v>
+        <v>369157</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1651029</v>
+        <v>1657239</v>
       </c>
       <c r="F168" t="n">
-        <v>567.4092787714355</v>
+        <v>572.3682358637792</v>
       </c>
       <c r="G168" t="n">
-        <v>13.99741485619379</v>
+        <v>13.99772487245499</v>
       </c>
       <c r="H168" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="I168" t="n">
-        <v>91643</v>
+        <v>88499</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12969983</v>
+        <v>13114699</v>
       </c>
       <c r="E169" t="n">
-        <v>12969983</v>
+        <v>13114699</v>
       </c>
       <c r="F169" t="n">
-        <v>374.4959617556053</v>
+        <v>130.2773921325152</v>
       </c>
       <c r="G169" t="n">
-        <v>394.6097509803079</v>
+        <v>409.5980208774397</v>
       </c>
       <c r="H169" t="n">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="I169" t="n">
-        <v>2805701</v>
+        <v>2789250</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1726919</v>
+        <v>1725908</v>
       </c>
       <c r="E170" t="n">
-        <v>6275667</v>
+        <v>6271884</v>
       </c>
       <c r="F170" t="n">
-        <v>167.6834149130374</v>
+        <v>138.1814980101348</v>
       </c>
       <c r="G170" t="n">
-        <v>1071.111258980442</v>
+        <v>171.4575954561464</v>
       </c>
       <c r="H170" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I170" t="n">
-        <v>135628</v>
+        <v>135766</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>9153127</v>
+        <v>9077092</v>
       </c>
       <c r="E171" t="n">
-        <v>20334377</v>
+        <v>20165459</v>
       </c>
       <c r="F171" t="n">
-        <v>1672.213555050855</v>
+        <v>1717.166687630439</v>
       </c>
       <c r="G171" t="n">
-        <v>1661.048896501348</v>
+        <v>1620.600452568551</v>
       </c>
       <c r="H171" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="I171" t="n">
-        <v>434176</v>
+        <v>416976</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1011728</v>
+        <v>1022125</v>
       </c>
       <c r="E172" t="n">
-        <v>2957104</v>
+        <v>2987495</v>
       </c>
       <c r="F172" t="n">
-        <v>99.00339057876323</v>
+        <v>98.97240815006406</v>
       </c>
       <c r="G172" t="n">
-        <v>669.5301725400017</v>
+        <v>669.5851548062661</v>
       </c>
       <c r="H172" t="n">
         <v>0.1</v>
       </c>
       <c r="I172" t="n">
-        <v>8800.48</v>
+        <v>11773.3</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20727785</v>
+        <v>21265530</v>
       </c>
       <c r="E173" t="n">
-        <v>82911141</v>
+        <v>85062119</v>
       </c>
       <c r="F173" t="n">
-        <v>19871.75323229668</v>
+        <v>8347.60938680859</v>
       </c>
       <c r="G173" t="n">
-        <v>28888.06500484116</v>
+        <v>14115.76447359735</v>
       </c>
       <c r="H173" t="n">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="I173" t="n">
-        <v>5795214</v>
+        <v>5850677</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4315841</v>
+        <v>4315982</v>
       </c>
       <c r="E174" t="n">
-        <v>4315841</v>
+        <v>4315982</v>
       </c>
       <c r="F174" t="n">
-        <v>1928.198761424598</v>
+        <v>1438.754098329493</v>
       </c>
       <c r="G174" t="n">
-        <v>825.2198886690408</v>
+        <v>841.2865283614531</v>
       </c>
       <c r="H174" t="n">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="I174" t="n">
-        <v>2405408</v>
+        <v>2438743</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>295744849</v>
+        <v>297980913</v>
       </c>
       <c r="E175" t="n">
-        <v>295744849</v>
+        <v>297980913</v>
       </c>
       <c r="F175" t="n">
-        <v>5831.782815061547</v>
+        <v>4672.636821248351</v>
       </c>
       <c r="G175" t="n">
-        <v>3475.706609648412</v>
+        <v>2682.055691558579</v>
       </c>
       <c r="H175" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I175" t="n">
-        <v>12703807</v>
+        <v>12724058</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12751026</v>
+        <v>12746827</v>
       </c>
       <c r="E176" t="n">
-        <v>40340669</v>
+        <v>40327386</v>
       </c>
       <c r="F176" t="n">
-        <v>2641.015758252456</v>
+        <v>3306.828959406458</v>
       </c>
       <c r="G176" t="n">
-        <v>3835.734786319018</v>
+        <v>3238.886797903522</v>
       </c>
       <c r="H176" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1603126</v>
+        <v>1622422</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26676</v>
+        <v>26671</v>
       </c>
       <c r="E177" t="n">
-        <v>209797</v>
+        <v>209764</v>
       </c>
       <c r="F177" t="n">
-        <v>417.677059969551</v>
+        <v>241.5625320061358</v>
       </c>
       <c r="G177" t="n">
-        <v>91.48932372195408</v>
+        <v>328.9509420264137</v>
       </c>
       <c r="H177" t="n">
         <v>0.47</v>
       </c>
       <c r="I177" t="n">
-        <v>126212</v>
+        <v>127287</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8033970</v>
+        <v>8107786</v>
       </c>
       <c r="E178" t="n">
-        <v>8033970</v>
+        <v>8107786</v>
       </c>
       <c r="F178" t="n">
-        <v>1671.022503091431</v>
+        <v>1509.211040841229</v>
       </c>
       <c r="G178" t="n">
-        <v>2176.063166788576</v>
+        <v>1950.047408597652</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I178" t="n">
-        <v>3798415</v>
+        <v>3797329</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1089156</v>
+        <v>1086390</v>
       </c>
       <c r="E179" t="n">
-        <v>2480660</v>
+        <v>2474361</v>
       </c>
       <c r="F179" t="n">
-        <v>264.0596477557467</v>
+        <v>425.6790719987071</v>
       </c>
       <c r="G179" t="n">
-        <v>3.935707176522408</v>
+        <v>7.637539594693775</v>
       </c>
       <c r="H179" t="n">
-        <v>0.62</v>
+        <v>0.08</v>
       </c>
       <c r="I179" t="n">
-        <v>4846.21</v>
+        <v>4841.84</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9633136</v>
+        <v>9736659</v>
       </c>
       <c r="E180" t="n">
-        <v>9633136</v>
+        <v>9736659</v>
       </c>
       <c r="F180" t="n">
-        <v>2341.63624407703</v>
+        <v>2062.719089665667</v>
       </c>
       <c r="G180" t="n">
-        <v>3662.814428930932</v>
+        <v>4958.713121047915</v>
       </c>
       <c r="H180" t="n">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
       <c r="I180" t="n">
-        <v>2357065</v>
+        <v>2414701</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17002003</v>
+        <v>17161048</v>
       </c>
       <c r="E181" t="n">
-        <v>17002003</v>
+        <v>17161048</v>
       </c>
       <c r="F181" t="n">
-        <v>2969.944402275409</v>
+        <v>2962.780600447957</v>
       </c>
       <c r="G181" t="n">
-        <v>4033.556910929404</v>
+        <v>3129.878638624589</v>
       </c>
       <c r="H181" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I181" t="n">
-        <v>2482342</v>
+        <v>3345815</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31972385</v>
+        <v>32180062</v>
       </c>
       <c r="E182" t="n">
-        <v>88560334</v>
+        <v>89135578</v>
       </c>
       <c r="F182" t="n">
-        <v>6224.306707558354</v>
+        <v>6106.499409879772</v>
       </c>
       <c r="G182" t="n">
-        <v>4872.070176097039</v>
+        <v>5887.38892713102</v>
       </c>
       <c r="H182" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I182" t="n">
-        <v>11944661</v>
+        <v>9193628</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>35541858</v>
+        <v>36223613</v>
       </c>
       <c r="E183" t="n">
-        <v>89619504</v>
+        <v>91338562</v>
       </c>
       <c r="F183" t="n">
-        <v>18522.04169752953</v>
+        <v>14908.99015492664</v>
       </c>
       <c r="G183" t="n">
-        <v>10087.54420154366</v>
+        <v>11955.32131636124</v>
       </c>
       <c r="H183" t="n">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="I183" t="n">
-        <v>2753312</v>
+        <v>2820419</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>295695149</v>
+        <v>295690500</v>
       </c>
       <c r="E184" t="n">
-        <v>300315654</v>
+        <v>300312078</v>
       </c>
       <c r="F184" t="n">
-        <v>14163.41756785524</v>
+        <v>15266.04860877298</v>
       </c>
       <c r="G184" t="n">
-        <v>20027.79936201074</v>
+        <v>24617.84953461259</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>11588419</v>
+        <v>11669479</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>408552</v>
+        <v>409957</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>16.3916173185975</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>151.9512435202843</v>
       </c>
       <c r="H185" t="n">
-        <v>5.26</v>
+        <v>2.43</v>
       </c>
       <c r="I185" t="n">
-        <v>61390</v>
+        <v>61889</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28082779</v>
+        <v>28169103</v>
       </c>
       <c r="E186" t="n">
-        <v>66717701</v>
+        <v>66922785</v>
       </c>
       <c r="F186" t="n">
-        <v>11070.10385322699</v>
+        <v>11201.13954391329</v>
       </c>
       <c r="G186" t="n">
-        <v>7324.506406990164</v>
+        <v>11137.55919195239</v>
       </c>
       <c r="H186" t="n">
         <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>644200</v>
+        <v>646933</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20029526</v>
+        <v>20491951</v>
       </c>
       <c r="F187" t="n">
-        <v>3.928768857879195</v>
+        <v>5.474851800750908</v>
       </c>
       <c r="G187" t="n">
-        <v>5.505309816404815</v>
+        <v>4.872618589729702</v>
       </c>
       <c r="H187" t="n">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="I187" t="n">
-        <v>1609.22</v>
+        <v>1151.77</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12030349</v>
+        <v>12045629</v>
       </c>
       <c r="E188" t="n">
-        <v>18335045</v>
+        <v>18358334</v>
       </c>
       <c r="F188" t="n">
-        <v>3718.789915807603</v>
+        <v>2602.942711506869</v>
       </c>
       <c r="G188" t="n">
-        <v>1847.248776889876</v>
+        <v>2271.954951777286</v>
       </c>
       <c r="H188" t="n">
-        <v>0.77</v>
+        <v>0.29</v>
       </c>
       <c r="I188" t="n">
-        <v>663326</v>
+        <v>666102</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>73336286</v>
+        <v>75184171</v>
       </c>
       <c r="E189" t="n">
-        <v>73336286</v>
+        <v>75184171</v>
       </c>
       <c r="F189" t="n">
-        <v>6546.510700540164</v>
+        <v>5637.800412104835</v>
       </c>
       <c r="G189" t="n">
-        <v>10467.34543725159</v>
+        <v>47269.87710461245</v>
       </c>
       <c r="H189" t="n">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
       <c r="I189" t="n">
-        <v>4128254</v>
+        <v>4442698</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>299981943</v>
+        <v>300642893</v>
       </c>
       <c r="E190" t="n">
-        <v>299981943</v>
+        <v>300642893</v>
       </c>
       <c r="F190" t="n">
-        <v>156538.2603218499</v>
+        <v>187629.9667412948</v>
       </c>
       <c r="G190" t="n">
-        <v>353246.8105801424</v>
+        <v>297429.8942704194</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>52559347</v>
+        <v>51898645</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9367003</v>
+        <v>9490231</v>
       </c>
       <c r="E191" t="n">
-        <v>26594483</v>
+        <v>26944349</v>
       </c>
       <c r="F191" t="n">
-        <v>2945.000374618563</v>
+        <v>3337.418219672504</v>
       </c>
       <c r="G191" t="n">
-        <v>1362.906913025961</v>
+        <v>665.6448936277751</v>
       </c>
       <c r="H191" t="n">
         <v>1.12</v>
       </c>
       <c r="I191" t="n">
-        <v>114277</v>
+        <v>118064</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4091157</v>
+        <v>4134376</v>
       </c>
       <c r="E192" t="n">
-        <v>27954589</v>
+        <v>28249897</v>
       </c>
       <c r="F192" t="n">
-        <v>2255.749146750464</v>
+        <v>3156.414423138815</v>
       </c>
       <c r="G192" t="n">
-        <v>3435.372638589875</v>
+        <v>2576.214683410239</v>
       </c>
       <c r="H192" t="n">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I192" t="n">
-        <v>2541922</v>
+        <v>2538650</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3254953</v>
+        <v>3214527</v>
       </c>
       <c r="E193" t="n">
-        <v>4832872</v>
+        <v>4772639</v>
       </c>
       <c r="F193" t="n">
-        <v>899.2173632663103</v>
+        <v>880.2464287686968</v>
       </c>
       <c r="G193" t="n">
-        <v>272.6853418647057</v>
+        <v>244.2119247157436</v>
       </c>
       <c r="H193" t="n">
-        <v>1.03</v>
+        <v>0.84</v>
       </c>
       <c r="I193" t="n">
-        <v>211300</v>
+        <v>214190</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>88020120</v>
+        <v>89197912</v>
       </c>
       <c r="E194" t="n">
-        <v>507209898</v>
+        <v>513996843</v>
       </c>
       <c r="F194" t="n">
-        <v>473382.543199789</v>
+        <v>516246.7183586903</v>
       </c>
       <c r="G194" t="n">
-        <v>455717.2682984483</v>
+        <v>440625.0233325303</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>15811489</v>
+        <v>15882552</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>731650</v>
+        <v>730907</v>
       </c>
       <c r="E195" t="n">
-        <v>797932</v>
+        <v>797121</v>
       </c>
       <c r="F195" t="n">
-        <v>4.0422468279382</v>
+        <v>4.06059194620279</v>
       </c>
       <c r="G195" t="n">
-        <v>23.28254005298582</v>
+        <v>5.339892018645023</v>
       </c>
       <c r="H195" t="n">
-        <v>0.75</v>
+        <v>0.18</v>
       </c>
       <c r="I195" t="n">
-        <v>84798</v>
+        <v>84205</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>107400488</v>
+        <v>107774995</v>
       </c>
       <c r="E196" t="n">
-        <v>264247162</v>
+        <v>265168595</v>
       </c>
       <c r="F196" t="n">
-        <v>29368.92700048024</v>
+        <v>36586.19019625216</v>
       </c>
       <c r="G196" t="n">
-        <v>24485.20002789705</v>
+        <v>33911.15700820567</v>
       </c>
       <c r="H196" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2421606</v>
+        <v>2429911</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17355675</v>
+        <v>17386360</v>
       </c>
       <c r="E197" t="n">
-        <v>17355675</v>
+        <v>17386360</v>
       </c>
       <c r="F197" t="n">
-        <v>4.264353577875906</v>
+        <v>6.928708904270897</v>
       </c>
       <c r="G197" t="n">
-        <v>3.988390665389727</v>
+        <v>48.72526088978258</v>
       </c>
       <c r="H197" t="n">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="I197" t="n">
-        <v>91849</v>
+        <v>22564</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1268307</v>
+        <v>1302586</v>
       </c>
       <c r="F198" t="n">
-        <v>3.955561916810434</v>
+        <v>3.955664784362169</v>
       </c>
       <c r="G198" t="n">
-        <v>82.19403395269259</v>
+        <v>82.19617147429325</v>
       </c>
       <c r="H198" t="n">
         <v>0.54</v>
       </c>
       <c r="I198" t="n">
-        <v>95403</v>
+        <v>3082.6</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>128920</v>
+        <v>128629</v>
       </c>
       <c r="E199" t="n">
-        <v>280657</v>
+        <v>280024</v>
       </c>
       <c r="F199" t="n">
-        <v>5.243466739579094</v>
+        <v>5.243611646111819</v>
       </c>
       <c r="G199" t="n">
-        <v>2.855259677262088</v>
+        <v>2.855338584176237</v>
       </c>
       <c r="H199" t="n">
         <v>0.14</v>
       </c>
       <c r="I199" t="n">
-        <v>45035</v>
+        <v>45241</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2268101</v>
+        <v>2279424</v>
       </c>
       <c r="F200" t="n">
-        <v>173.5184218368668</v>
+        <v>35.25332142185473</v>
       </c>
       <c r="G200" t="n">
-        <v>334.4749748999965</v>
+        <v>300.2174420236728</v>
       </c>
       <c r="H200" t="n">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="I200" t="n">
-        <v>173343</v>
+        <v>154146</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>182386</v>
+        <v>181429</v>
       </c>
       <c r="E201" t="n">
-        <v>1408383</v>
+        <v>1400999</v>
       </c>
       <c r="F201" t="n">
-        <v>3.995046839115559</v>
+        <v>3.995151341691188</v>
       </c>
       <c r="G201" t="n">
-        <v>472.0745393440955</v>
+        <v>431.8131613824464</v>
       </c>
       <c r="H201" t="n">
         <v>0.71</v>
       </c>
       <c r="I201" t="n">
-        <v>137164</v>
+        <v>140814</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30321297</v>
+        <v>30357644</v>
       </c>
       <c r="E202" t="n">
-        <v>135760884</v>
+        <v>135923628</v>
       </c>
       <c r="F202" t="n">
-        <v>10262.66898670625</v>
+        <v>8191.431283451857</v>
       </c>
       <c r="G202" t="n">
-        <v>11656.46072559101</v>
+        <v>14061.09259162975</v>
       </c>
       <c r="H202" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I202" t="n">
-        <v>9879259</v>
+        <v>9433225</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13097605</v>
+        <v>13088499</v>
       </c>
       <c r="E203" t="n">
-        <v>26183774</v>
+        <v>26165570</v>
       </c>
       <c r="F203" t="n">
-        <v>719.7630759224013</v>
+        <v>719.7801959734785</v>
       </c>
       <c r="G203" t="n">
-        <v>705.8169245427069</v>
+        <v>705.8337128751507</v>
       </c>
       <c r="H203" t="n">
         <v>0.15</v>
       </c>
       <c r="I203" t="n">
-        <v>41284</v>
+        <v>34309</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1561589</v>
+        <v>1493942</v>
       </c>
       <c r="F204" t="n">
-        <v>5.097726703273242</v>
+        <v>0.009106147822750106</v>
       </c>
       <c r="G204" t="n">
-        <v>49.11565581843042</v>
+        <v>290.1494311069204</v>
       </c>
       <c r="H204" t="n">
-        <v>1.65</v>
+        <v>0.71</v>
       </c>
       <c r="I204" t="n">
-        <v>71079</v>
+        <v>69638</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>994937</v>
+        <v>994279</v>
       </c>
       <c r="E205" t="n">
-        <v>4601724</v>
+        <v>4598683</v>
       </c>
       <c r="F205" t="n">
-        <v>4246.147025985311</v>
+        <v>4270.983874028359</v>
       </c>
       <c r="G205" t="n">
-        <v>2274.592959251042</v>
+        <v>2392.533695245049</v>
       </c>
       <c r="H205" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="I205" t="n">
-        <v>414345</v>
+        <v>412513</v>
       </c>
     </row>
     <row r="206">
@@ -7615,10 +7615,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2948286</v>
+        <v>2968456</v>
       </c>
       <c r="E206" t="n">
-        <v>2948286</v>
+        <v>2968456</v>
       </c>
       <c r="F206" t="n">
         <v>1072.047044026156</v>
@@ -7630,7 +7630,7 @@
         <v>0.17</v>
       </c>
       <c r="I206" t="n">
-        <v>374179</v>
+        <v>373363</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>572416</v>
+        <v>576810</v>
       </c>
       <c r="E207" t="n">
-        <v>572416</v>
+        <v>576810</v>
       </c>
       <c r="F207" t="n">
-        <v>455.0409902128219</v>
+        <v>4.001453196202731</v>
       </c>
       <c r="G207" t="n">
-        <v>621.5320845468227</v>
+        <v>63.73775994146356</v>
       </c>
       <c r="H207" t="n">
-        <v>0.18</v>
+        <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>1422152</v>
+        <v>1385709</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13782841</v>
+        <v>13902013</v>
       </c>
       <c r="E208" t="n">
-        <v>17547757</v>
+        <v>17699482</v>
       </c>
       <c r="F208" t="n">
-        <v>122.3863867019853</v>
+        <v>128.1604101282224</v>
       </c>
       <c r="G208" t="n">
-        <v>298.8628649450385</v>
+        <v>309.243697835477</v>
       </c>
       <c r="H208" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>781950</v>
+        <v>784874</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1973123</v>
+        <v>1962207</v>
       </c>
       <c r="E209" t="n">
-        <v>1973123</v>
+        <v>1962207</v>
       </c>
       <c r="F209" t="n">
-        <v>5.231593856684868</v>
+        <v>5.231754162516419</v>
       </c>
       <c r="G209" t="n">
-        <v>41.72201261800623</v>
+        <v>29.24288274987918</v>
       </c>
       <c r="H209" t="n">
         <v>0.8</v>
       </c>
       <c r="I209" t="n">
-        <v>3928.3</v>
+        <v>4183.02</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6036117</v>
+        <v>6052713</v>
       </c>
       <c r="E210" t="n">
-        <v>15841830</v>
+        <v>15885386</v>
       </c>
       <c r="F210" t="n">
-        <v>1662.367717813882</v>
+        <v>1769.781038168351</v>
       </c>
       <c r="G210" t="n">
-        <v>846.9031667926148</v>
+        <v>1185.376519440422</v>
       </c>
       <c r="H210" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="I210" t="n">
-        <v>73982</v>
+        <v>73791</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28371296</v>
+        <v>28518228</v>
       </c>
       <c r="F211" t="n">
-        <v>138.5188499444262</v>
+        <v>145.4851070541983</v>
       </c>
       <c r="G211" t="n">
-        <v>2008.186473808263</v>
+        <v>2556.984876122104</v>
       </c>
       <c r="H211" t="n">
-        <v>0.38</v>
+        <v>0.59</v>
       </c>
       <c r="I211" t="n">
-        <v>339435</v>
+        <v>340931</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17814265</v>
+        <v>18095919</v>
       </c>
       <c r="E212" t="n">
-        <v>17814265</v>
+        <v>18096039</v>
       </c>
       <c r="F212" t="n">
-        <v>25714.38380104545</v>
+        <v>12320.80793612166</v>
       </c>
       <c r="G212" t="n">
-        <v>14947.84049851058</v>
+        <v>12057.80902531641</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2613830</v>
+        <v>2706000</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47505742</v>
+        <v>47662382</v>
       </c>
       <c r="E213" t="n">
-        <v>308062096</v>
+        <v>309077860</v>
       </c>
       <c r="F213" t="n">
-        <v>153209.5022496259</v>
+        <v>167830.059300763</v>
       </c>
       <c r="G213" t="n">
-        <v>201179.0541326859</v>
+        <v>213227.4450878259</v>
       </c>
       <c r="H213" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I213" t="n">
-        <v>17240756</v>
+        <v>16860929</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9300160</v>
+        <v>9263600</v>
       </c>
       <c r="F214" t="n">
-        <v>4.295772277276629</v>
+        <v>227.6973360696034</v>
       </c>
       <c r="G214" t="n">
-        <v>4.007144871415998</v>
+        <v>4.040198463829447</v>
       </c>
       <c r="H214" t="n">
         <v>0.65</v>
       </c>
       <c r="I214" t="n">
-        <v>291498</v>
+        <v>291271</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6838754</v>
+        <v>6880485</v>
       </c>
       <c r="E215" t="n">
-        <v>6848490</v>
+        <v>6890293</v>
       </c>
       <c r="F215" t="n">
-        <v>1152.131979462191</v>
+        <v>77.47381565999015</v>
       </c>
       <c r="G215" t="n">
-        <v>1925.038943007379</v>
+        <v>2062.400675366324</v>
       </c>
       <c r="H215" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="I215" t="n">
-        <v>974526</v>
+        <v>982190</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4761078</v>
+        <v>4769318</v>
       </c>
       <c r="F216" t="n">
-        <v>2212.83257431729</v>
+        <v>2197.4608651628</v>
       </c>
       <c r="G216" t="n">
-        <v>141.0108772818088</v>
+        <v>160.1238352779801</v>
       </c>
       <c r="H216" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="I216" t="n">
-        <v>154000</v>
+        <v>155301</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2430608</v>
+        <v>2520409</v>
       </c>
       <c r="E217" t="n">
-        <v>4403504</v>
+        <v>4566196</v>
       </c>
       <c r="F217" t="n">
-        <v>142.8556106691224</v>
+        <v>220.3711446156542</v>
       </c>
       <c r="G217" t="n">
-        <v>122.0357256421856</v>
+        <v>131.2175399956829</v>
       </c>
       <c r="H217" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="I217" t="n">
-        <v>108068</v>
+        <v>111637</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125133430</v>
+        <v>125444964</v>
       </c>
       <c r="E218" t="n">
-        <v>2072312095</v>
+        <v>2077471354</v>
       </c>
       <c r="F218" t="n">
-        <v>5571.001623599325</v>
+        <v>4657.506315997279</v>
       </c>
       <c r="G218" t="n">
-        <v>9199.823621590505</v>
+        <v>10074.87721432578</v>
       </c>
       <c r="H218" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I218" t="n">
-        <v>5169885</v>
+        <v>5105034</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>73622768</v>
+        <v>74259515</v>
       </c>
       <c r="E219" t="n">
-        <v>74415269</v>
+        <v>75058870</v>
       </c>
       <c r="F219" t="n">
-        <v>15468.89791831889</v>
+        <v>19288.88854618884</v>
       </c>
       <c r="G219" t="n">
-        <v>23534.43938354484</v>
+        <v>22016.69803038668</v>
       </c>
       <c r="H219" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I219" t="n">
-        <v>8651307</v>
+        <v>8938715</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>234436550</v>
+        <v>236188838</v>
       </c>
       <c r="E220" t="n">
-        <v>234436550</v>
+        <v>236188838</v>
       </c>
       <c r="F220" t="n">
-        <v>145184.7619133794</v>
+        <v>99064.33361410991</v>
       </c>
       <c r="G220" t="n">
-        <v>120716.9511733893</v>
+        <v>114075.3217503238</v>
       </c>
       <c r="H220" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I220" t="n">
-        <v>42138062</v>
+        <v>43054490</v>
       </c>
     </row>
     <row r="221">
@@ -8140,10 +8140,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23472252</v>
+        <v>23535804</v>
       </c>
       <c r="E221" t="n">
-        <v>140439201</v>
+        <v>140819446</v>
       </c>
       <c r="F221" t="n">
         <v>54275.93809159836</v>
@@ -8155,7 +8155,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>13413811</v>
+        <v>13157137</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>996170</v>
+        <v>992638</v>
       </c>
       <c r="F222" t="n">
-        <v>477.5086903184234</v>
+        <v>480.0075264583045</v>
       </c>
       <c r="G222" t="n">
-        <v>573.5031243673878</v>
+        <v>98.98637111282451</v>
       </c>
       <c r="H222" t="n">
-        <v>0.88</v>
+        <v>1.67</v>
       </c>
       <c r="I222" t="n">
-        <v>70113</v>
+        <v>73986</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2289384</v>
+        <v>2288336</v>
       </c>
       <c r="F223" t="n">
-        <v>215.8361553399592</v>
+        <v>138.8022596153369</v>
       </c>
       <c r="G223" t="n">
-        <v>177.4757393801066</v>
+        <v>185.0536504666705</v>
       </c>
       <c r="H223" t="n">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="I223" t="n">
-        <v>214117</v>
+        <v>215130</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14337752</v>
+        <v>14330955</v>
       </c>
       <c r="E224" t="n">
-        <v>43997529</v>
+        <v>43976672</v>
       </c>
       <c r="F224" t="n">
-        <v>4316.490984562744</v>
+        <v>3964.859133300394</v>
       </c>
       <c r="G224" t="n">
-        <v>1466.948695105962</v>
+        <v>2387.330712414694</v>
       </c>
       <c r="H224" t="n">
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
       <c r="I224" t="n">
-        <v>1693861</v>
+        <v>2536817</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52531827</v>
+        <v>52686546</v>
       </c>
       <c r="E225" t="n">
-        <v>90733885</v>
+        <v>91001118</v>
       </c>
       <c r="F225" t="n">
-        <v>7230.398708010492</v>
+        <v>7228.175924908318</v>
       </c>
       <c r="G225" t="n">
-        <v>7124.113016831424</v>
+        <v>7169.793721847011</v>
       </c>
       <c r="H225" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>1997522</v>
+        <v>1995446</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4208665</v>
+        <v>4270583</v>
       </c>
       <c r="E226" t="n">
-        <v>4208665</v>
+        <v>4270583</v>
       </c>
       <c r="F226" t="n">
-        <v>10.00044787608627</v>
+        <v>36.59653936273981</v>
       </c>
       <c r="G226" t="n">
-        <v>34.79932248314699</v>
+        <v>13.41206439110046</v>
       </c>
       <c r="H226" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="I226" t="n">
-        <v>1541004</v>
+        <v>1548679</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>204769</v>
+        <v>211432</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>61161</v>
+        <v>61968</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6828123</v>
+        <v>6924259</v>
       </c>
       <c r="E228" t="n">
-        <v>35128616</v>
+        <v>35623208</v>
       </c>
       <c r="F228" t="n">
-        <v>231.7002307315192</v>
+        <v>100.9107274622838</v>
       </c>
       <c r="G228" t="n">
-        <v>105.8267738591464</v>
+        <v>715.9958890516202</v>
       </c>
       <c r="H228" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="I228" t="n">
-        <v>910740</v>
+        <v>913323</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>177521460</v>
+        <v>174630900</v>
       </c>
       <c r="E230" t="n">
-        <v>207397482</v>
+        <v>204020454</v>
       </c>
       <c r="F230" t="n">
-        <v>12254.82350813369</v>
+        <v>21970.77456196493</v>
       </c>
       <c r="G230" t="n">
-        <v>40809.65094602309</v>
+        <v>49393.57581914323</v>
       </c>
       <c r="H230" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I230" t="n">
-        <v>4802329</v>
+        <v>4656431</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>306374</v>
+        <v>305684</v>
       </c>
       <c r="F231" t="n">
-        <v>108.7141938792075</v>
+        <v>122.5444944445124</v>
       </c>
       <c r="G231" t="n">
-        <v>151.3095398442583</v>
+        <v>96.50071745488508</v>
       </c>
       <c r="H231" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I231" t="n">
-        <v>253208</v>
+        <v>255558</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>28898747</v>
+        <v>28647481</v>
       </c>
       <c r="E232" t="n">
-        <v>39716725</v>
+        <v>39371397</v>
       </c>
       <c r="F232" t="n">
-        <v>4411.898275937018</v>
+        <v>4688.132500829018</v>
       </c>
       <c r="G232" t="n">
-        <v>6566.462402623801</v>
+        <v>7129.57355651771</v>
       </c>
       <c r="H232" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="I232" t="n">
-        <v>335909</v>
+        <v>339674</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>2499257</v>
+        <v>2201194</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1498540</v>
+        <v>1525274</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8068464</v>
+        <v>8066699</v>
       </c>
       <c r="F234" t="n">
-        <v>465.4511914871887</v>
+        <v>1118.510472563178</v>
       </c>
       <c r="G234" t="n">
-        <v>3289.703444291573</v>
+        <v>3083.478558185978</v>
       </c>
       <c r="H234" t="n">
         <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>710371</v>
+        <v>722651</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23338607</v>
+        <v>23388321</v>
       </c>
       <c r="E235" t="n">
-        <v>23338607</v>
+        <v>23388646</v>
       </c>
       <c r="F235" t="n">
-        <v>9862.865258094685</v>
+        <v>6419.331570587808</v>
       </c>
       <c r="G235" t="n">
-        <v>17808.81696025838</v>
+        <v>39039.32775684072</v>
       </c>
       <c r="H235" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="I235" t="n">
-        <v>1878169</v>
+        <v>1851499</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3341271</v>
+        <v>3330003</v>
       </c>
       <c r="E236" t="n">
-        <v>4475843</v>
+        <v>4460749</v>
       </c>
       <c r="F236" t="n">
-        <v>288.2927272322301</v>
+        <v>199.02200938184</v>
       </c>
       <c r="G236" t="n">
-        <v>439.272552513013</v>
+        <v>495.5525468036876</v>
       </c>
       <c r="H236" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I236" t="n">
-        <v>149472</v>
+        <v>149270</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33971957</v>
+        <v>34251169</v>
       </c>
       <c r="E237" t="n">
-        <v>169535726</v>
+        <v>170929123</v>
       </c>
       <c r="F237" t="n">
-        <v>85939.8519946703</v>
+        <v>114324.5984895923</v>
       </c>
       <c r="G237" t="n">
-        <v>97476.10376199186</v>
+        <v>83334.19530371795</v>
       </c>
       <c r="H237" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>9617800</v>
+        <v>9768904</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26425368</v>
+        <v>26454120</v>
       </c>
       <c r="E238" t="n">
-        <v>59572453</v>
+        <v>59637270</v>
       </c>
       <c r="F238" t="n">
-        <v>216.9877733041995</v>
+        <v>231.5726760274562</v>
       </c>
       <c r="G238" t="n">
-        <v>205.8243412469802</v>
+        <v>159.3145101461512</v>
       </c>
       <c r="H238" t="n">
-        <v>1.02</v>
+        <v>0.54</v>
       </c>
       <c r="I238" t="n">
-        <v>463944</v>
+        <v>461927</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>2010742</v>
+        <v>1998699</v>
       </c>
       <c r="E239" t="n">
-        <v>2010742</v>
+        <v>1998699</v>
       </c>
       <c r="F239" t="n">
-        <v>238.4311668240883</v>
+        <v>50.16884743948413</v>
       </c>
       <c r="G239" t="n">
-        <v>79.88056238258721</v>
+        <v>47.29279627076487</v>
       </c>
       <c r="H239" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="I239" t="n">
-        <v>8678.75</v>
+        <v>7500.69</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71886982</v>
+        <v>71909709</v>
       </c>
       <c r="F240" t="n">
-        <v>5.295681910852948</v>
+        <v>5.295901264134868</v>
       </c>
       <c r="G240" t="n">
-        <v>3.437138363556282</v>
+        <v>3.437280733810605</v>
       </c>
       <c r="H240" t="n">
         <v>0.72</v>
       </c>
       <c r="I240" t="n">
-        <v>67685</v>
+        <v>67981</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>928921</v>
+        <v>927757</v>
       </c>
       <c r="E241" t="n">
-        <v>928921</v>
+        <v>927757</v>
       </c>
       <c r="F241" t="n">
-        <v>4.099032340148424</v>
+        <v>4.099110176665169</v>
       </c>
       <c r="G241" t="n">
-        <v>5.680771181109478</v>
+        <v>5.680879053261847</v>
       </c>
       <c r="H241" t="n">
         <v>0.75</v>
       </c>
       <c r="I241" t="n">
-        <v>15798.05</v>
+        <v>15815.38</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>118416</v>
+        <v>116931</v>
       </c>
       <c r="E242" t="n">
-        <v>118416</v>
+        <v>116931</v>
       </c>
       <c r="F242" t="n">
-        <v>85.87927283527549</v>
+        <v>4.080018440860736</v>
       </c>
       <c r="G242" t="n">
-        <v>5.154319812282266</v>
+        <v>562.9263228780496</v>
       </c>
       <c r="H242" t="n">
         <v>0.08</v>
       </c>
       <c r="I242" t="n">
-        <v>39667</v>
+        <v>39227</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3437996</v>
+        <v>3436217</v>
       </c>
       <c r="E243" t="n">
-        <v>4939010</v>
+        <v>4936453</v>
       </c>
       <c r="F243" t="n">
-        <v>132.3988869360367</v>
+        <v>132.4014010582306</v>
       </c>
       <c r="G243" t="n">
-        <v>94.07230076478326</v>
+        <v>94.07408710351058</v>
       </c>
       <c r="H243" t="n">
         <v>1.62</v>
       </c>
       <c r="I243" t="n">
-        <v>181492</v>
+        <v>181375</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>314232155</v>
+        <v>313218423</v>
       </c>
       <c r="E244" t="n">
-        <v>581401147</v>
+        <v>579525511</v>
       </c>
       <c r="F244" t="n">
-        <v>38082.13073021734</v>
+        <v>46709.3811158032</v>
       </c>
       <c r="G244" t="n">
-        <v>39246.13056911761</v>
+        <v>32256.62603498086</v>
       </c>
       <c r="H244" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I244" t="n">
-        <v>12118005</v>
+        <v>12204926</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>72838475</v>
+        <v>71337600</v>
       </c>
       <c r="E245" t="n">
-        <v>694984289</v>
+        <v>680660531</v>
       </c>
       <c r="F245" t="n">
-        <v>59538.00566952339</v>
+        <v>44637.72867607583</v>
       </c>
       <c r="G245" t="n">
-        <v>59402.31388310489</v>
+        <v>75795.9373509994</v>
       </c>
       <c r="H245" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>20591460</v>
+        <v>20760671</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81827</v>
+        <v>81471</v>
       </c>
       <c r="E246" t="n">
-        <v>680247</v>
+        <v>677286</v>
       </c>
       <c r="F246" t="n">
-        <v>11.96194424259016</v>
+        <v>11.96218813818532</v>
       </c>
       <c r="G246" t="n">
-        <v>5.448685985604778</v>
+        <v>5.448797080463971</v>
       </c>
       <c r="H246" t="n">
         <v>1</v>
       </c>
       <c r="I246" t="n">
-        <v>373.28</v>
+        <v>428.17</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1896225</v>
+        <v>1899197</v>
       </c>
       <c r="E247" t="n">
-        <v>5415376</v>
+        <v>5423862</v>
       </c>
       <c r="F247" t="n">
-        <v>408.4097304848232</v>
+        <v>288.4198690969934</v>
       </c>
       <c r="G247" t="n">
-        <v>406.4648540758056</v>
+        <v>406.490192768158</v>
       </c>
       <c r="H247" t="n">
         <v>0.31</v>
       </c>
       <c r="I247" t="n">
-        <v>74881</v>
+        <v>74556</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37771421</v>
+        <v>38127990</v>
       </c>
       <c r="E248" t="n">
-        <v>49386808</v>
+        <v>49853013</v>
       </c>
       <c r="F248" t="n">
-        <v>11513.27866339505</v>
+        <v>11564.1342056822</v>
       </c>
       <c r="G248" t="n">
-        <v>318.7768742986523</v>
+        <v>6.488762009488055</v>
       </c>
       <c r="H248" t="n">
-        <v>3.02</v>
+        <v>0.14</v>
       </c>
       <c r="I248" t="n">
-        <v>644485</v>
+        <v>538832</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9549590</v>
+        <v>10061121</v>
       </c>
       <c r="E249" t="n">
-        <v>28478625</v>
+        <v>30000181</v>
       </c>
       <c r="F249" t="n">
-        <v>2229.998551941212</v>
+        <v>753.2725177300947</v>
       </c>
       <c r="G249" t="n">
-        <v>2145.011506616196</v>
+        <v>2646.551887074926</v>
       </c>
       <c r="H249" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="I249" t="n">
-        <v>4840943</v>
+        <v>5289329</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2052474</v>
+        <v>2022353</v>
       </c>
       <c r="E250" t="n">
-        <v>5954886</v>
+        <v>5867497</v>
       </c>
       <c r="F250" t="n">
-        <v>193.8721312667982</v>
+        <v>32.44837000525452</v>
       </c>
       <c r="G250" t="n">
-        <v>71.67194718884973</v>
+        <v>246.8425773814608</v>
       </c>
       <c r="H250" t="n">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="I250" t="n">
-        <v>68503</v>
+        <v>68508</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7065180</v>
+        <v>7273441</v>
       </c>
       <c r="E251" t="n">
-        <v>7065190</v>
+        <v>7273452</v>
       </c>
       <c r="F251" t="n">
-        <v>474.3178100025124</v>
+        <v>397.1096642199339</v>
       </c>
       <c r="G251" t="n">
-        <v>2960.138266007706</v>
+        <v>2285.09616024851</v>
       </c>
       <c r="H251" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I251" t="n">
-        <v>302726</v>
+        <v>327367</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5859438</v>
+        <v>5891128</v>
       </c>
       <c r="E252" t="n">
-        <v>5859438</v>
+        <v>5891128</v>
       </c>
       <c r="F252" t="n">
-        <v>83.86630442273103</v>
+        <v>714.2326959544183</v>
       </c>
       <c r="G252" t="n">
-        <v>1079.559115231502</v>
+        <v>1479.698117298645</v>
       </c>
       <c r="H252" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="I252" t="n">
-        <v>392079</v>
+        <v>382069</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6189324</v>
+        <v>6194864</v>
       </c>
       <c r="E253" t="n">
-        <v>22607207</v>
+        <v>22627443</v>
       </c>
       <c r="F253" t="n">
-        <v>576.0412191726664</v>
+        <v>133.9630307959429</v>
       </c>
       <c r="G253" t="n">
-        <v>81.00816932978648</v>
+        <v>178.6256525295917</v>
       </c>
       <c r="H253" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="I253" t="n">
-        <v>448307</v>
+        <v>457167</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2118116</v>
+        <v>2118491</v>
       </c>
       <c r="E254" t="n">
-        <v>18683186</v>
+        <v>18686495</v>
       </c>
       <c r="F254" t="n">
-        <v>2804.195881998083</v>
+        <v>1802.865870914644</v>
       </c>
       <c r="G254" t="n">
-        <v>379.4195049487856</v>
+        <v>1988.42309369788</v>
       </c>
       <c r="H254" t="n">
-        <v>1.18</v>
+        <v>2.82</v>
       </c>
       <c r="I254" t="n">
-        <v>77082</v>
+        <v>77445</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14499577</v>
+        <v>14553953</v>
       </c>
       <c r="E255" t="n">
-        <v>29353508</v>
+        <v>29463589</v>
       </c>
       <c r="F255" t="n">
-        <v>95.95358782246493</v>
+        <v>96.31118065398648</v>
       </c>
       <c r="G255" t="n">
-        <v>21.22844473679643</v>
+        <v>297.8972010407599</v>
       </c>
       <c r="H255" t="n">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="I255" t="n">
-        <v>520588</v>
+        <v>517811</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44643372</v>
+        <v>44789011</v>
       </c>
       <c r="E256" t="n">
-        <v>44643372</v>
+        <v>44789011</v>
       </c>
       <c r="F256" t="n">
-        <v>7573.008480327643</v>
+        <v>5391.288258632339</v>
       </c>
       <c r="G256" t="n">
-        <v>8165.471467692836</v>
+        <v>5344.014404000251</v>
       </c>
       <c r="H256" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="I256" t="n">
-        <v>7694214</v>
+        <v>7880820</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>7859263</v>
+        <v>7848462</v>
       </c>
       <c r="E257" t="n">
-        <v>11197650</v>
+        <v>11182259</v>
       </c>
       <c r="F257" t="n">
-        <v>350.3309125383307</v>
+        <v>350.3405941555438</v>
       </c>
       <c r="G257" t="n">
-        <v>95.51133794504764</v>
+        <v>136.3866434288221</v>
       </c>
       <c r="H257" t="n">
         <v>0.18</v>
       </c>
       <c r="I257" t="n">
-        <v>321232</v>
+        <v>312018</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>151326909</v>
+        <v>147601226</v>
       </c>
       <c r="F258" t="n">
-        <v>254.1696436084268</v>
+        <v>262.0041629144735</v>
       </c>
       <c r="G258" t="n">
-        <v>36.74176913735391</v>
+        <v>258.4651133541041</v>
       </c>
       <c r="H258" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="I258" t="n">
-        <v>1008725</v>
+        <v>923945</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16318541</v>
+        <v>16360445</v>
       </c>
       <c r="F259" t="n">
-        <v>97.41316202778192</v>
+        <v>97.41585410236775</v>
       </c>
       <c r="G259" t="n">
-        <v>147.2636636755782</v>
+        <v>147.26773340043</v>
       </c>
       <c r="H259" t="n">
         <v>0.47</v>
       </c>
       <c r="I259" t="n">
-        <v>997015</v>
+        <v>996853</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>722603</v>
+        <v>721743</v>
       </c>
       <c r="F260" t="n">
-        <v>50.23255284015126</v>
+        <v>50.23394104864452</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01275527300779</v>
+        <v>28.01352942328666</v>
       </c>
       <c r="H260" t="n">
         <v>2.26</v>
       </c>
       <c r="I260" t="n">
-        <v>225408</v>
+        <v>225085</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3051675</v>
+        <v>3051116</v>
       </c>
       <c r="F261" t="n">
-        <v>52.19910800013373</v>
+        <v>53.32966028318646</v>
       </c>
       <c r="G261" t="n">
-        <v>23.41250303713963</v>
+        <v>23.41304367833268</v>
       </c>
       <c r="H261" t="n">
         <v>0.52</v>
       </c>
       <c r="I261" t="n">
-        <v>73787</v>
+        <v>73930</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2837127</v>
+        <v>2841804</v>
       </c>
       <c r="E262" t="n">
-        <v>2839585</v>
+        <v>2844265</v>
       </c>
       <c r="F262" t="n">
-        <v>25.68287654555559</v>
+        <v>5.389989492103211</v>
       </c>
       <c r="G262" t="n">
-        <v>23.64062857965901</v>
+        <v>30.39538181116495</v>
       </c>
       <c r="H262" t="n">
         <v>0.64</v>
       </c>
       <c r="I262" t="n">
-        <v>64481</v>
+        <v>76488</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61328817</v>
+        <v>61206309</v>
       </c>
       <c r="E263" t="n">
-        <v>101462363</v>
+        <v>101259686</v>
       </c>
       <c r="F263" t="n">
-        <v>9762.416988025883</v>
+        <v>8623.664512091156</v>
       </c>
       <c r="G263" t="n">
-        <v>10872.28967634678</v>
+        <v>11052.0187623564</v>
       </c>
       <c r="H263" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I263" t="n">
-        <v>5623603</v>
+        <v>5649832</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>697198</v>
+        <v>700599</v>
       </c>
       <c r="F264" t="n">
-        <v>169.8886981093237</v>
+        <v>169.6406557283387</v>
       </c>
       <c r="G264" t="n">
-        <v>84.48717279418443</v>
+        <v>250.5002602159676</v>
       </c>
       <c r="H264" t="n">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="I264" t="n">
-        <v>525764</v>
+        <v>547185</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1259710</v>
+        <v>1254958</v>
       </c>
       <c r="E265" t="n">
-        <v>3811387</v>
+        <v>3796688</v>
       </c>
       <c r="F265" t="n">
-        <v>48.99168908790911</v>
+        <v>48.99368337866013</v>
       </c>
       <c r="G265" t="n">
-        <v>1056.010162555873</v>
+        <v>1061.429339302668</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>22427</v>
+        <v>13745.53</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38235518</v>
+        <v>38401469</v>
       </c>
       <c r="E266" t="n">
-        <v>271083588</v>
+        <v>272260149</v>
       </c>
       <c r="F266" t="n">
-        <v>58258.05987695634</v>
+        <v>60055.35238516805</v>
       </c>
       <c r="G266" t="n">
-        <v>29513.10598311319</v>
+        <v>21005.76659133098</v>
       </c>
       <c r="H266" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="I266" t="n">
-        <v>1885995</v>
+        <v>1935438</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>59857</v>
+        <v>59351</v>
       </c>
       <c r="E267" t="n">
-        <v>312311</v>
+        <v>309668</v>
       </c>
       <c r="F267" t="n">
-        <v>5.275375926987495</v>
+        <v>4.268134144942255</v>
       </c>
       <c r="G267" t="n">
-        <v>15.33899837911907</v>
+        <v>4.016002944003258</v>
       </c>
       <c r="H267" t="n">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
       <c r="I267" t="n">
-        <v>302220</v>
+        <v>303711</v>
       </c>
     </row>
     <row r="268">
@@ -9777,10 +9777,10 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1264420</v>
+        <v>1260179</v>
       </c>
       <c r="E268" t="n">
-        <v>7841345</v>
+        <v>7815044</v>
       </c>
       <c r="F268" t="n">
         <v>1993.443092143704</v>
@@ -9792,7 +9792,7 @@
         <v>0.16</v>
       </c>
       <c r="I268" t="n">
-        <v>841976</v>
+        <v>841848</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>596642092</v>
+        <v>598683648</v>
       </c>
       <c r="E269" t="n">
-        <v>2310706795</v>
+        <v>2318613438</v>
       </c>
       <c r="F269" t="n">
-        <v>212127.0023986557</v>
+        <v>175914.1322600954</v>
       </c>
       <c r="G269" t="n">
-        <v>309630.815925391</v>
+        <v>242044.4228480115</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>30477087</v>
+        <v>30593969</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3259888</v>
+        <v>3246025</v>
       </c>
       <c r="F270" t="n">
-        <v>213.6560189765597</v>
+        <v>162.9305404216178</v>
       </c>
       <c r="G270" t="n">
-        <v>168.6899575069452</v>
+        <v>565.6483574331866</v>
       </c>
       <c r="H270" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="I270" t="n">
-        <v>30892</v>
+        <v>30716</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>902971</v>
+        <v>959126</v>
       </c>
       <c r="F271" t="n">
-        <v>112.9695655650635</v>
+        <v>25.03145089956657</v>
       </c>
       <c r="G271" t="n">
-        <v>79.48115465661974</v>
+        <v>433.3122238499122</v>
       </c>
       <c r="H271" t="n">
-        <v>2.39</v>
+        <v>3.14</v>
       </c>
       <c r="I271" t="n">
-        <v>414008</v>
+        <v>401863</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5811567</v>
+        <v>5809959</v>
       </c>
       <c r="E272" t="n">
-        <v>26019134</v>
+        <v>26011934</v>
       </c>
       <c r="F272" t="n">
-        <v>204.6824163215847</v>
+        <v>175.0551890765094</v>
       </c>
       <c r="G272" t="n">
-        <v>92.05623515399003</v>
+        <v>110.6685594344195</v>
       </c>
       <c r="H272" t="n">
-        <v>0.04</v>
+        <v>0.51</v>
       </c>
       <c r="I272" t="n">
-        <v>144824</v>
+        <v>142072</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6114314</v>
+        <v>5982295</v>
       </c>
       <c r="E273" t="n">
-        <v>11706350</v>
+        <v>11453588</v>
       </c>
       <c r="F273" t="n">
-        <v>5196.130286856992</v>
+        <v>4461.948825606055</v>
       </c>
       <c r="G273" t="n">
-        <v>2086.98112666694</v>
+        <v>3997.003886446906</v>
       </c>
       <c r="H273" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="I273" t="n">
-        <v>175673</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="274">
@@ -9987,10 +9987,10 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3287878</v>
+        <v>3292475</v>
       </c>
       <c r="E274" t="n">
-        <v>21620320</v>
+        <v>21650546</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
@@ -9999,10 +9999,10 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="I274" t="n">
-        <v>1440175</v>
+        <v>1421889</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3672390</v>
+        <v>3678405</v>
       </c>
       <c r="E275" t="n">
-        <v>6260088</v>
+        <v>6270341</v>
       </c>
       <c r="F275" t="n">
-        <v>878.8750630695424</v>
+        <v>664.2031252200089</v>
       </c>
       <c r="G275" t="n">
-        <v>519.5727983771114</v>
+        <v>496.5133943717096</v>
       </c>
       <c r="H275" t="n">
         <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>909020</v>
+        <v>919569</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>388012</v>
+        <v>387313</v>
       </c>
       <c r="E276" t="n">
-        <v>388012</v>
+        <v>387313</v>
       </c>
       <c r="F276" t="n">
-        <v>9.117647070044862</v>
+        <v>9.117885569777373</v>
       </c>
       <c r="G276" t="n">
-        <v>3.998414470966775</v>
+        <v>3.998519061633036</v>
       </c>
       <c r="H276" t="n">
         <v>0.55</v>
       </c>
       <c r="I276" t="n">
-        <v>1000.93</v>
+        <v>902.55</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7048636</v>
+        <v>7072495</v>
       </c>
       <c r="E277" t="n">
-        <v>10100472</v>
+        <v>10134621</v>
       </c>
       <c r="F277" t="n">
-        <v>512.87176226084</v>
+        <v>991.0098927087153</v>
       </c>
       <c r="G277" t="n">
-        <v>2033.259390710822</v>
+        <v>723.3196938107925</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>136905</v>
+        <v>142320</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>117547866</v>
+        <v>118008151</v>
       </c>
       <c r="E278" t="n">
-        <v>1022006445</v>
+        <v>1026008341</v>
       </c>
       <c r="F278" t="n">
-        <v>9694.448022069651</v>
+        <v>9987.840411405425</v>
       </c>
       <c r="G278" t="n">
-        <v>7047.144318223013</v>
+        <v>10955.80420047751</v>
       </c>
       <c r="H278" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I278" t="n">
-        <v>9835235</v>
+        <v>9609287</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>102663119</v>
+        <v>103530371</v>
       </c>
       <c r="E279" t="n">
-        <v>156614995</v>
+        <v>157938007</v>
       </c>
       <c r="F279" t="n">
-        <v>46893.6771899228</v>
+        <v>48354.93851890894</v>
       </c>
       <c r="G279" t="n">
-        <v>50395.69364382278</v>
+        <v>44876.48494216041</v>
       </c>
       <c r="H279" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="I279" t="n">
-        <v>7159449</v>
+        <v>7179557</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15890572</v>
+        <v>15865269</v>
       </c>
       <c r="E280" t="n">
-        <v>21800489</v>
+        <v>21765775</v>
       </c>
       <c r="F280" t="n">
-        <v>1534.56603519695</v>
+        <v>7887.86593836224</v>
       </c>
       <c r="G280" t="n">
-        <v>3595.31246547825</v>
+        <v>2040.593838792221</v>
       </c>
       <c r="H280" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I280" t="n">
-        <v>419377</v>
+        <v>370467</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5689819</v>
+        <v>5699893</v>
       </c>
       <c r="E281" t="n">
-        <v>5689819</v>
+        <v>5699893</v>
       </c>
       <c r="F281" t="n">
-        <v>12.72171081490625</v>
+        <v>525.0508099105288</v>
       </c>
       <c r="G281" t="n">
-        <v>38.89898165369289</v>
+        <v>25.0634381714526</v>
       </c>
       <c r="H281" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="I281" t="n">
-        <v>794246</v>
+        <v>768538</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>107788602</v>
+        <v>108358185</v>
       </c>
       <c r="E282" t="n">
-        <v>413494426</v>
+        <v>415679437</v>
       </c>
       <c r="F282" t="n">
-        <v>54127.45838032629</v>
+        <v>41709.95922782802</v>
       </c>
       <c r="G282" t="n">
-        <v>65215.27656644324</v>
+        <v>63044.96161308684</v>
       </c>
       <c r="H282" t="n">
         <v>0.05</v>
       </c>
       <c r="I282" t="n">
-        <v>18615552</v>
+        <v>18914132</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>666221</v>
+        <v>660814</v>
       </c>
       <c r="F283" t="n">
-        <v>4.060143077343595</v>
+        <v>4.060238363631664</v>
       </c>
       <c r="G283" t="n">
-        <v>3.937835810221986</v>
+        <v>3.937928226117247</v>
       </c>
       <c r="H283" t="n">
         <v>0.49</v>
       </c>
       <c r="I283" t="n">
-        <v>48017</v>
+        <v>46307</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3237315</v>
+        <v>3221421</v>
       </c>
       <c r="E284" t="n">
-        <v>30674040</v>
+        <v>30523436</v>
       </c>
       <c r="F284" t="n">
-        <v>1454.811175538301</v>
+        <v>702.1138254878767</v>
       </c>
       <c r="G284" t="n">
-        <v>72.29113558100558</v>
+        <v>324.2964531290005</v>
       </c>
       <c r="H284" t="n">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="I284" t="n">
-        <v>236706</v>
+        <v>238091</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>94044</v>
+        <v>94294</v>
       </c>
       <c r="F285" t="n">
-        <v>4.150322509412595</v>
+        <v>4.150385699008687</v>
       </c>
       <c r="G285" t="n">
-        <v>19.45313708731053</v>
+        <v>4.388010477475357</v>
       </c>
       <c r="H285" t="n">
         <v>3.82</v>
       </c>
       <c r="I285" t="n">
-        <v>3102.72</v>
+        <v>3110.62</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>150219</v>
+        <v>149001</v>
       </c>
       <c r="F286" t="n">
-        <v>51.55621514172415</v>
+        <v>3.953322705973391</v>
       </c>
       <c r="G286" t="n">
-        <v>6.505151377510007</v>
+        <v>5.209712819371373</v>
       </c>
       <c r="H286" t="n">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
       <c r="I286" t="n">
-        <v>165639</v>
+        <v>150167</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22668664</v>
+        <v>22812349</v>
       </c>
       <c r="E287" t="n">
-        <v>22668664</v>
+        <v>22812349</v>
       </c>
       <c r="F287" t="n">
-        <v>1772.448688353034</v>
+        <v>1079.527670356264</v>
       </c>
       <c r="G287" t="n">
-        <v>817.5572941863757</v>
+        <v>610.860613787897</v>
       </c>
       <c r="H287" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I287" t="n">
-        <v>532865</v>
+        <v>544085</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>576372</v>
+        <v>576055</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>454.84</v>
+        <v>454.38</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6053593</v>
+        <v>6040033</v>
       </c>
       <c r="E289" t="n">
-        <v>37833220</v>
+        <v>37748477</v>
       </c>
       <c r="F289" t="n">
-        <v>6489.480125552876</v>
+        <v>6487.468070232922</v>
       </c>
       <c r="G289" t="n">
-        <v>709.3765047498109</v>
+        <v>708.8040241881425</v>
       </c>
       <c r="H289" t="n">
         <v>0.39</v>
       </c>
       <c r="I289" t="n">
-        <v>327114</v>
+        <v>387697</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>495391979</v>
+        <v>494480682</v>
       </c>
       <c r="E290" t="n">
-        <v>495391979</v>
+        <v>494480682</v>
       </c>
       <c r="F290" t="n">
-        <v>1188269.457040305</v>
+        <v>1108086.846698294</v>
       </c>
       <c r="G290" t="n">
-        <v>1485593.912314538</v>
+        <v>1588604.761910992</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>31264833</v>
+        <v>31652918</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5087677</v>
+        <v>5093623</v>
       </c>
       <c r="E291" t="n">
-        <v>18945466</v>
+        <v>18967608</v>
       </c>
       <c r="F291" t="n">
-        <v>6955.132154624571</v>
+        <v>7115.256944545574</v>
       </c>
       <c r="G291" t="n">
-        <v>6873.190585825716</v>
+        <v>6882.415649027219</v>
       </c>
       <c r="H291" t="n">
         <v>0.16</v>
       </c>
       <c r="I291" t="n">
-        <v>59752</v>
+        <v>59758</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>30529610</v>
+        <v>31212178</v>
       </c>
       <c r="F292" t="n">
-        <v>6995.765653228867</v>
+        <v>5686.630047084955</v>
       </c>
       <c r="G292" t="n">
-        <v>5345.759693221401</v>
+        <v>8361.284764986796</v>
       </c>
       <c r="H292" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="I292" t="n">
-        <v>6326349</v>
+        <v>6109349</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31500987</v>
+        <v>31474315</v>
       </c>
       <c r="E293" t="n">
-        <v>112910886</v>
+        <v>112815282</v>
       </c>
       <c r="F293" t="n">
-        <v>2276.56666217631</v>
+        <v>61.37379319891463</v>
       </c>
       <c r="G293" t="n">
-        <v>5046.593581277502</v>
+        <v>5035.499799769707</v>
       </c>
       <c r="H293" t="n">
         <v>0.51</v>
       </c>
       <c r="I293" t="n">
-        <v>90681</v>
+        <v>93559</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>743817</v>
+        <v>735260</v>
       </c>
       <c r="E294" t="n">
-        <v>11863620</v>
+        <v>11727140</v>
       </c>
       <c r="F294" t="n">
-        <v>15.2629239465407</v>
+        <v>15.26302956918133</v>
       </c>
       <c r="G294" t="n">
-        <v>1.624542444590041</v>
+        <v>1.624553686765093</v>
       </c>
       <c r="H294" t="n">
         <v>2.76</v>
       </c>
       <c r="I294" t="n">
-        <v>70654</v>
+        <v>70263</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85849</v>
+        <v>86118</v>
       </c>
       <c r="F295" t="n">
-        <v>66.61793158094885</v>
+        <v>47.9599209765064</v>
       </c>
       <c r="G295" t="n">
-        <v>60.46357992775484</v>
+        <v>60.46525176775242</v>
       </c>
       <c r="H295" t="n">
         <v>1</v>
       </c>
       <c r="I295" t="n">
-        <v>58098</v>
+        <v>58463</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1523306</v>
+        <v>1579133</v>
       </c>
       <c r="F296" t="n">
-        <v>4.20348976749478</v>
+        <v>3.788770430772249</v>
       </c>
       <c r="G296" t="n">
-        <v>43.11343222548144</v>
+        <v>5.589952903203923</v>
       </c>
       <c r="H296" t="n">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="I296" t="n">
-        <v>613774</v>
+        <v>613310</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2634111505</v>
+        <v>2650813328</v>
       </c>
       <c r="E297" t="n">
-        <v>2796741014</v>
+        <v>2814474004</v>
       </c>
       <c r="F297" t="n">
-        <v>47002.72407218622</v>
+        <v>45288.70198413524</v>
       </c>
       <c r="G297" t="n">
-        <v>56794.81134436832</v>
+        <v>74863.86950479775</v>
       </c>
       <c r="H297" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I297" t="n">
-        <v>37185654</v>
+        <v>37120618</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2155821</v>
+        <v>2146389</v>
       </c>
       <c r="E298" t="n">
-        <v>16581962</v>
+        <v>16509417</v>
       </c>
       <c r="F298" t="n">
-        <v>4074.199350002525</v>
+        <v>4065.840582329149</v>
       </c>
       <c r="G298" t="n">
-        <v>4079.622151089836</v>
+        <v>1495.213808477655</v>
       </c>
       <c r="H298" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="I298" t="n">
-        <v>170635</v>
+        <v>170432</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1650044</v>
+        <v>1645034</v>
       </c>
       <c r="E299" t="n">
-        <v>1655869</v>
+        <v>1650840</v>
       </c>
       <c r="F299" t="n">
-        <v>1000.851392101747</v>
+        <v>1025.562303348582</v>
       </c>
       <c r="G299" t="n">
-        <v>1124.241089496928</v>
+        <v>851.3321319231376</v>
       </c>
       <c r="H299" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I299" t="n">
-        <v>391348</v>
+        <v>392788</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87498576</v>
+        <v>87362233</v>
       </c>
       <c r="E300" t="n">
-        <v>323462824</v>
+        <v>322958449</v>
       </c>
       <c r="F300" t="n">
-        <v>5052.013997570155</v>
+        <v>4938.881760574344</v>
       </c>
       <c r="G300" t="n">
-        <v>3048.565129854233</v>
+        <v>1220.068412437701</v>
       </c>
       <c r="H300" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I300" t="n">
-        <v>396304</v>
+        <v>367928</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2447600</v>
+        <v>2445488</v>
       </c>
       <c r="E301" t="n">
-        <v>9821079</v>
+        <v>9812605</v>
       </c>
       <c r="F301" t="n">
-        <v>43.09542736139459</v>
+        <v>127.1723248722028</v>
       </c>
       <c r="G301" t="n">
-        <v>5.300850129303051</v>
+        <v>4.019730305137506</v>
       </c>
       <c r="H301" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="I301" t="n">
-        <v>38674</v>
+        <v>38083</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60702503</v>
+        <v>60786328</v>
       </c>
       <c r="E302" t="n">
-        <v>148899126</v>
+        <v>149104742</v>
       </c>
       <c r="F302" t="n">
-        <v>1022.731728676316</v>
+        <v>2040.150727303462</v>
       </c>
       <c r="G302" t="n">
-        <v>2267.674331496284</v>
+        <v>1997.55373357753</v>
       </c>
       <c r="H302" t="n">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="I302" t="n">
-        <v>22545863</v>
+        <v>22523904</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>666446411</v>
+        <v>682459032</v>
       </c>
       <c r="E303" t="n">
-        <v>1027719208</v>
+        <v>1052412082</v>
       </c>
       <c r="F303" t="n">
-        <v>42873.57154274966</v>
+        <v>11427.86524329959</v>
       </c>
       <c r="G303" t="n">
-        <v>52352.37453766981</v>
+        <v>17568.6838351392</v>
       </c>
       <c r="H303" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I303" t="n">
-        <v>170825603</v>
+        <v>190567509</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>19938402</v>
+        <v>20551586</v>
       </c>
       <c r="E304" t="n">
-        <v>19938402</v>
+        <v>20551586</v>
       </c>
       <c r="F304" t="n">
-        <v>4028.096240970581</v>
+        <v>4252.230054397077</v>
       </c>
       <c r="G304" t="n">
-        <v>3115.816262171198</v>
+        <v>3365.587572864567</v>
       </c>
       <c r="H304" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="I304" t="n">
-        <v>7089220</v>
+        <v>7160591</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1721469</v>
+        <v>1738318</v>
       </c>
       <c r="E305" t="n">
-        <v>2824638</v>
+        <v>2852285</v>
       </c>
       <c r="F305" t="n">
-        <v>221.2802478681316</v>
+        <v>118.1319141215346</v>
       </c>
       <c r="G305" t="n">
-        <v>589.8688998422327</v>
+        <v>486.9024094695631</v>
       </c>
       <c r="H305" t="n">
-        <v>0.42</v>
+        <v>0.91</v>
       </c>
       <c r="I305" t="n">
-        <v>116138</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="306">
@@ -11105,10 +11105,10 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5835419</v>
+        <v>5823921</v>
       </c>
       <c r="E306" t="n">
-        <v>5835419</v>
+        <v>5823921</v>
       </c>
       <c r="F306" t="n">
         <v>42.45697475437552</v>
@@ -11120,7 +11120,7 @@
         <v>0.32</v>
       </c>
       <c r="I306" t="n">
-        <v>457.42</v>
+        <v>460.95</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>40043271</v>
+        <v>40521761</v>
       </c>
       <c r="E307" t="n">
-        <v>191134894</v>
+        <v>193418825</v>
       </c>
       <c r="F307" t="n">
-        <v>1245.911261558201</v>
+        <v>6028.241797212243</v>
       </c>
       <c r="G307" t="n">
-        <v>1298.836823651443</v>
+        <v>248.6734010493368</v>
       </c>
       <c r="H307" t="n">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="I307" t="n">
-        <v>399559</v>
+        <v>269469</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>382699</v>
+        <v>386215</v>
       </c>
       <c r="E308" t="n">
-        <v>715755</v>
+        <v>722331</v>
       </c>
       <c r="F308" t="n">
-        <v>680.0250731571545</v>
+        <v>713.8428818217691</v>
       </c>
       <c r="G308" t="n">
-        <v>220.1774036320283</v>
+        <v>138.1188267218402</v>
       </c>
       <c r="H308" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I308" t="n">
-        <v>1361.15</v>
+        <v>1436.22</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23426888</v>
+        <v>23474018</v>
       </c>
       <c r="E309" t="n">
-        <v>39044812</v>
+        <v>39123363</v>
       </c>
       <c r="F309" t="n">
-        <v>208.1964545847367</v>
+        <v>415.2957276988902</v>
       </c>
       <c r="G309" t="n">
-        <v>453.6577810524642</v>
+        <v>1078.705619992515</v>
       </c>
       <c r="H309" t="n">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="I309" t="n">
-        <v>1011330</v>
+        <v>1013682</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107712</v>
+        <v>107704</v>
       </c>
       <c r="F310" t="n">
-        <v>16.80650033304466</v>
+        <v>16.80682162406737</v>
       </c>
       <c r="G310" t="n">
-        <v>3.823464988631985</v>
+        <v>3.823538082075125</v>
       </c>
       <c r="H310" t="n">
         <v>0.43</v>
       </c>
       <c r="I310" t="n">
-        <v>51467</v>
+        <v>51019</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23524856</v>
+        <v>23413392</v>
       </c>
       <c r="E311" t="n">
-        <v>23524856</v>
+        <v>23413392</v>
       </c>
       <c r="F311" t="n">
-        <v>1083.662658707866</v>
+        <v>7618.538768583157</v>
       </c>
       <c r="G311" t="n">
-        <v>3268.122161682362</v>
+        <v>7142.649171776863</v>
       </c>
       <c r="H311" t="n">
-        <v>0.52</v>
+        <v>0.03</v>
       </c>
       <c r="I311" t="n">
-        <v>5972728</v>
+        <v>6042470</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3845732</v>
+        <v>3846508</v>
       </c>
       <c r="E312" t="n">
-        <v>8391337</v>
+        <v>8393030</v>
       </c>
       <c r="F312" t="n">
-        <v>1836.584587775219</v>
+        <v>1836.61963500393</v>
       </c>
       <c r="G312" t="n">
-        <v>1809.135260345166</v>
+        <v>1809.169783763069</v>
       </c>
       <c r="H312" t="n">
         <v>0.71</v>
       </c>
       <c r="I312" t="n">
-        <v>987538</v>
+        <v>1004291</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9354813</v>
+        <v>9353973</v>
       </c>
       <c r="E313" t="n">
-        <v>9354813</v>
+        <v>9353973</v>
       </c>
       <c r="F313" t="n">
-        <v>14717.21605068278</v>
+        <v>14717.45366542622</v>
       </c>
       <c r="G313" t="n">
-        <v>113059.5010495009</v>
+        <v>113061.3264357861</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>3342767</v>
+        <v>3291125</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>483771555</v>
+        <v>487923003</v>
       </c>
       <c r="E314" t="n">
-        <v>1684822865</v>
+        <v>1699281039</v>
       </c>
       <c r="F314" t="n">
-        <v>427598.1259915131</v>
+        <v>271891.3866469035</v>
       </c>
       <c r="G314" t="n">
-        <v>509654.0285325382</v>
+        <v>340272.8867696162</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>30903699</v>
+        <v>31012554</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24022247</v>
+        <v>24067749</v>
       </c>
       <c r="E315" t="n">
-        <v>24001381</v>
+        <v>24046843</v>
       </c>
       <c r="F315" t="n">
-        <v>173.7212558099025</v>
+        <v>165.4244849872454</v>
       </c>
       <c r="G315" t="n">
-        <v>791.116945202318</v>
+        <v>791.1192989373942</v>
       </c>
       <c r="H315" t="n">
         <v>0.73</v>
       </c>
       <c r="I315" t="n">
-        <v>91757</v>
+        <v>93166</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48082748</v>
+        <v>48062266</v>
       </c>
       <c r="E316" t="n">
-        <v>118668618</v>
+        <v>118618069</v>
       </c>
       <c r="F316" t="n">
-        <v>1048.184483642588</v>
+        <v>936.3397568751203</v>
       </c>
       <c r="G316" t="n">
-        <v>1677.599350207193</v>
+        <v>1604.978905858193</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>51556</v>
+        <v>51972</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12210657</v>
+        <v>12208653</v>
       </c>
       <c r="E317" t="n">
-        <v>24742901</v>
+        <v>24737058</v>
       </c>
       <c r="F317" t="n">
-        <v>274.4478453987886</v>
+        <v>274.4557815847534</v>
       </c>
       <c r="G317" t="n">
-        <v>793.5677101918194</v>
+        <v>793.5942351862708</v>
       </c>
       <c r="H317" t="n">
         <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>18157.89</v>
+        <v>15189.82</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7509080</v>
+        <v>7483381</v>
       </c>
       <c r="E318" t="n">
-        <v>19507784</v>
+        <v>19441018</v>
       </c>
       <c r="F318" t="n">
-        <v>147.6616905294108</v>
+        <v>147.6624051285717</v>
       </c>
       <c r="G318" t="n">
-        <v>460.2391097799391</v>
+        <v>460.2491708861065</v>
       </c>
       <c r="H318" t="n">
         <v>0.2</v>
       </c>
       <c r="I318" t="n">
-        <v>680840</v>
+        <v>678959</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>153458</v>
+        <v>150479</v>
       </c>
       <c r="F319" t="n">
-        <v>170.9702078120634</v>
+        <v>166.6427871326568</v>
       </c>
       <c r="G319" t="n">
-        <v>37.00305702047687</v>
+        <v>124.4273653538074</v>
       </c>
       <c r="H319" t="n">
-        <v>2.4</v>
+        <v>3.67</v>
       </c>
       <c r="I319" t="n">
-        <v>56829</v>
+        <v>56856</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19266181090</v>
+        <v>19247457627</v>
       </c>
       <c r="F320" t="n">
-        <v>52388.8635168113</v>
+        <v>51944.14426156281</v>
       </c>
       <c r="G320" t="n">
-        <v>50088.58982331214</v>
+        <v>50008.79711476681</v>
       </c>
       <c r="H320" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I320" t="n">
-        <v>49046959</v>
+        <v>48902671</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>102600705</v>
+        <v>103185346</v>
       </c>
       <c r="E321" t="n">
-        <v>155451922</v>
+        <v>156337721</v>
       </c>
       <c r="F321" t="n">
-        <v>14854.72098051925</v>
+        <v>18421.3734438849</v>
       </c>
       <c r="G321" t="n">
-        <v>15425.23637177319</v>
+        <v>18308.08488843953</v>
       </c>
       <c r="H321" t="n">
-        <v>0.87</v>
+        <v>1.12</v>
       </c>
       <c r="I321" t="n">
-        <v>7030636</v>
+        <v>6987862</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2652416</v>
+        <v>2655841</v>
       </c>
       <c r="E322" t="n">
-        <v>10609664</v>
+        <v>10623365</v>
       </c>
       <c r="F322" t="n">
-        <v>4466.49260072646</v>
+        <v>46962.05762972378</v>
       </c>
       <c r="G322" t="n">
-        <v>41408.89333262072</v>
+        <v>17462.5108018041</v>
       </c>
       <c r="H322" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="I322" t="n">
-        <v>4929103</v>
+        <v>4951304</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>212664519</v>
+        <v>213027434</v>
       </c>
       <c r="E323" t="n">
-        <v>653863366</v>
+        <v>654979193</v>
       </c>
       <c r="F323" t="n">
-        <v>113483.6391214809</v>
+        <v>84032.48620637172</v>
       </c>
       <c r="G323" t="n">
-        <v>206748.6795581301</v>
+        <v>179313.6177883218</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>10192922</v>
+        <v>11105179</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>149385438</v>
+        <v>151153086</v>
       </c>
       <c r="E324" t="n">
-        <v>390265313</v>
+        <v>394883246</v>
       </c>
       <c r="F324" t="n">
-        <v>5773.040333194963</v>
+        <v>13895.65574603024</v>
       </c>
       <c r="G324" t="n">
-        <v>5177.643508718081</v>
+        <v>3557.60175883755</v>
       </c>
       <c r="H324" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="I324" t="n">
-        <v>7096015</v>
+        <v>7016890</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2363536</v>
+        <v>2375530</v>
       </c>
       <c r="E325" t="n">
-        <v>3243687</v>
+        <v>3260148</v>
       </c>
       <c r="F325" t="n">
-        <v>276.063147623278</v>
+        <v>167.7164543432638</v>
       </c>
       <c r="G325" t="n">
-        <v>43.60746671865499</v>
+        <v>855.3042558716101</v>
       </c>
       <c r="H325" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="I325" t="n">
-        <v>185207</v>
+        <v>187884</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>403476083</v>
+        <v>405223467</v>
       </c>
       <c r="E326" t="n">
-        <v>2305577619</v>
+        <v>2315562668</v>
       </c>
       <c r="F326" t="n">
-        <v>335125.206746933</v>
+        <v>325022.4661774985</v>
       </c>
       <c r="G326" t="n">
-        <v>542929.9192418716</v>
+        <v>544133.6371384079</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>37967099</v>
+        <v>36710387</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>90937</v>
+        <v>91561</v>
       </c>
       <c r="F2" t="n">
-        <v>4.148457517056582</v>
+        <v>4.148434634171982</v>
       </c>
       <c r="G2" t="n">
-        <v>32.70828180583332</v>
+        <v>32.70810138700657</v>
       </c>
       <c r="H2" t="n">
         <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>1229.7</v>
+        <v>1002.66</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>612614806</v>
+        <v>603667169</v>
       </c>
       <c r="E3" t="n">
-        <v>1188622459</v>
+        <v>1171282121</v>
       </c>
       <c r="F3" t="n">
-        <v>9662.847401287459</v>
+        <v>20002.72177246803</v>
       </c>
       <c r="G3" t="n">
-        <v>30014.63575721522</v>
+        <v>27832.66731832368</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>22794438</v>
+        <v>22063758</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245655727</v>
+        <v>242712283</v>
       </c>
       <c r="E4" t="n">
-        <v>1540472533</v>
+        <v>1522014609</v>
       </c>
       <c r="F4" t="n">
-        <v>94957.15449319038</v>
+        <v>93863.6950043878</v>
       </c>
       <c r="G4" t="n">
-        <v>90950.7854610214</v>
+        <v>90633.48087271121</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15756395</v>
+        <v>15511311</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141298134</v>
+        <v>138525000</v>
       </c>
       <c r="E5" t="n">
-        <v>156580902</v>
+        <v>153507826</v>
       </c>
       <c r="F5" t="n">
-        <v>123144.9071210366</v>
+        <v>132404.7330736404</v>
       </c>
       <c r="G5" t="n">
-        <v>300162.3912212535</v>
+        <v>299489.7436172327</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>31897876</v>
+        <v>32023209</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49470476</v>
+        <v>49238519</v>
       </c>
       <c r="E6" t="n">
-        <v>61886297</v>
+        <v>61596125</v>
       </c>
       <c r="F6" t="n">
-        <v>10466.73666590055</v>
+        <v>10448.80963601116</v>
       </c>
       <c r="G6" t="n">
-        <v>13217.53588297203</v>
+        <v>12761.97905853711</v>
       </c>
       <c r="H6" t="n">
-        <v>0.59</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>611565</v>
+        <v>612336</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8789579</v>
+        <v>8674919</v>
       </c>
       <c r="E7" t="n">
-        <v>9011219</v>
+        <v>8893668</v>
       </c>
       <c r="F7" t="n">
-        <v>526.497154571535</v>
+        <v>394.7748470536405</v>
       </c>
       <c r="G7" t="n">
-        <v>827.3653668857595</v>
+        <v>753.0051169879946</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>68885</v>
+        <v>62515</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68538719</v>
+        <v>68495959</v>
       </c>
       <c r="E8" t="n">
-        <v>136528932</v>
+        <v>136443754</v>
       </c>
       <c r="F8" t="n">
-        <v>38829.20590633374</v>
+        <v>22283.27232919233</v>
       </c>
       <c r="G8" t="n">
-        <v>18668.39570609775</v>
+        <v>20862.8801091241</v>
       </c>
       <c r="H8" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="I8" t="n">
-        <v>1698812</v>
+        <v>1622598</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5255322</v>
+        <v>5228414</v>
       </c>
       <c r="E9" t="n">
-        <v>8396425</v>
+        <v>8353434</v>
       </c>
       <c r="F9" t="n">
-        <v>606.2680622112075</v>
+        <v>328.9615665064058</v>
       </c>
       <c r="G9" t="n">
-        <v>487.6781675950106</v>
+        <v>1179.000304675086</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>105995</v>
+        <v>105986</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14342288</v>
+        <v>14278510</v>
       </c>
       <c r="E10" t="n">
-        <v>42265796</v>
+        <v>42077848</v>
       </c>
       <c r="F10" t="n">
-        <v>3919.523196930017</v>
+        <v>3969.868502925253</v>
       </c>
       <c r="G10" t="n">
-        <v>5031.030774307472</v>
+        <v>5020.52368147881</v>
       </c>
       <c r="H10" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I10" t="n">
-        <v>820700</v>
+        <v>808933</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127667958</v>
+        <v>125060333</v>
       </c>
       <c r="E11" t="n">
-        <v>500420168</v>
+        <v>490199060</v>
       </c>
       <c r="F11" t="n">
-        <v>52029.99592811372</v>
+        <v>42673.78278191444</v>
       </c>
       <c r="G11" t="n">
-        <v>68410.27037347946</v>
+        <v>41488.5059880966</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>26784422</v>
+        <v>28251804</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7448681</v>
+        <v>7745712</v>
       </c>
       <c r="E12" t="n">
-        <v>32025361</v>
+        <v>33302437</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5.94</v>
+        <v>6.42</v>
       </c>
       <c r="I12" t="n">
-        <v>860671</v>
+        <v>777297</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>997562</v>
+        <v>998902</v>
       </c>
       <c r="E13" t="n">
-        <v>12207466</v>
+        <v>12223861</v>
       </c>
       <c r="F13" t="n">
-        <v>280.9438247375704</v>
+        <v>280.9504196702997</v>
       </c>
       <c r="G13" t="n">
-        <v>198.0175660297042</v>
+        <v>198.0222143344975</v>
       </c>
       <c r="H13" t="n">
         <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2091.99</v>
+        <v>2090.35</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>575818</v>
+        <v>572760</v>
       </c>
       <c r="E14" t="n">
-        <v>575818</v>
+        <v>572760</v>
       </c>
       <c r="F14" t="n">
-        <v>96.88985940863874</v>
+        <v>613.1770889574038</v>
       </c>
       <c r="G14" t="n">
-        <v>242.7957763134813</v>
+        <v>409.7847541305817</v>
       </c>
       <c r="H14" t="n">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="I14" t="n">
-        <v>24661</v>
+        <v>23806</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>548506400</v>
+        <v>540323532</v>
       </c>
       <c r="E15" t="n">
-        <v>686099984</v>
+        <v>675864432</v>
       </c>
       <c r="F15" t="n">
-        <v>393609.0624577455</v>
+        <v>477798.8026545887</v>
       </c>
       <c r="G15" t="n">
-        <v>484655.7661289344</v>
+        <v>574027.181971523</v>
       </c>
       <c r="H15" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>58678183</v>
+        <v>54491153</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3361479</v>
+        <v>3345261</v>
       </c>
       <c r="E16" t="n">
-        <v>9563109</v>
+        <v>9516971</v>
       </c>
       <c r="F16" t="n">
-        <v>519.2496060032514</v>
+        <v>544.1062009657001</v>
       </c>
       <c r="G16" t="n">
-        <v>102.210706378915</v>
+        <v>139.7688582923424</v>
       </c>
       <c r="H16" t="n">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="I16" t="n">
-        <v>235928</v>
+        <v>233589</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>315181</v>
+        <v>313914</v>
       </c>
       <c r="E17" t="n">
-        <v>3637899</v>
+        <v>3623276</v>
       </c>
       <c r="F17" t="n">
-        <v>19.10457454043998</v>
+        <v>18.92505590897481</v>
       </c>
       <c r="G17" t="n">
-        <v>3.920530964035869</v>
+        <v>3.95473105491924</v>
       </c>
       <c r="H17" t="n">
         <v>0.59</v>
       </c>
       <c r="I17" t="n">
-        <v>3169.82</v>
+        <v>3267.72</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1427519</v>
+        <v>1439571</v>
       </c>
       <c r="E18" t="n">
-        <v>10949916</v>
+        <v>11042365</v>
       </c>
       <c r="F18" t="n">
-        <v>780.7743837665121</v>
+        <v>680.6901313589537</v>
       </c>
       <c r="G18" t="n">
-        <v>62.31885217152347</v>
+        <v>218.4065481312441</v>
       </c>
       <c r="H18" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="I18" t="n">
-        <v>149953</v>
+        <v>156315</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22657422</v>
+        <v>22529339</v>
       </c>
       <c r="E19" t="n">
-        <v>22699844</v>
+        <v>22571521</v>
       </c>
       <c r="F19" t="n">
-        <v>798.1117420360448</v>
+        <v>705.5580886472324</v>
       </c>
       <c r="G19" t="n">
-        <v>2231.174565739222</v>
+        <v>1780.654510892975</v>
       </c>
       <c r="H19" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I19" t="n">
-        <v>845728</v>
+        <v>849511</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3642326</v>
+        <v>3926153</v>
       </c>
       <c r="E20" t="n">
-        <v>20209782</v>
+        <v>21784622</v>
       </c>
       <c r="F20" t="n">
-        <v>52.68685047466316</v>
+        <v>50.84423259641565</v>
       </c>
       <c r="G20" t="n">
-        <v>5.544276418599934</v>
+        <v>5.537969055319582</v>
       </c>
       <c r="H20" t="n">
-        <v>0.72</v>
+        <v>0.16</v>
       </c>
       <c r="I20" t="n">
-        <v>56158</v>
+        <v>56177</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7013172</v>
+        <v>6898880</v>
       </c>
       <c r="E21" t="n">
-        <v>13010913</v>
+        <v>12798878</v>
       </c>
       <c r="F21" t="n">
-        <v>112.7881398560613</v>
+        <v>299.4066468001118</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7647113653614</v>
+        <v>252.9132727441175</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>47512</v>
+        <v>48296</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72321574</v>
+        <v>71963193</v>
       </c>
       <c r="E22" t="n">
-        <v>125294426</v>
+        <v>124670563</v>
       </c>
       <c r="F22" t="n">
-        <v>1889.234133999927</v>
+        <v>1675.885711906735</v>
       </c>
       <c r="G22" t="n">
-        <v>674.7063024753044</v>
+        <v>575.6207444343646</v>
       </c>
       <c r="H22" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I22" t="n">
-        <v>628380</v>
+        <v>657986</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>178468</v>
+        <v>177013</v>
       </c>
       <c r="E23" t="n">
-        <v>536747</v>
+        <v>532369</v>
       </c>
       <c r="F23" t="n">
-        <v>158.6981782624604</v>
+        <v>158.9926497008233</v>
       </c>
       <c r="G23" t="n">
-        <v>3.917081517304936</v>
+        <v>3.91734560898061</v>
       </c>
       <c r="H23" t="n">
         <v>0.37</v>
       </c>
       <c r="I23" t="n">
-        <v>62.53</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82819151</v>
+        <v>81637826</v>
       </c>
       <c r="E24" t="n">
-        <v>243759297</v>
+        <v>240282337</v>
       </c>
       <c r="F24" t="n">
-        <v>406.8063236071736</v>
+        <v>346.2855405512132</v>
       </c>
       <c r="G24" t="n">
-        <v>196.4788889024768</v>
+        <v>246.3596199136969</v>
       </c>
       <c r="H24" t="n">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="I24" t="n">
-        <v>405720</v>
+        <v>369997</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6895357</v>
+        <v>6527688</v>
       </c>
       <c r="F25" t="n">
-        <v>4.004682267040858</v>
+        <v>4.004660552889632</v>
       </c>
       <c r="G25" t="n">
-        <v>15.27867534997601</v>
+        <v>15.27859250608355</v>
       </c>
       <c r="H25" t="n">
         <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>24344</v>
+        <v>26729</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2468890</v>
+        <v>2466404</v>
       </c>
       <c r="E26" t="n">
-        <v>2468890</v>
+        <v>2466404</v>
       </c>
       <c r="F26" t="n">
-        <v>168.4279690832053</v>
+        <v>165.1507200759933</v>
       </c>
       <c r="G26" t="n">
-        <v>497.0679586673298</v>
+        <v>405.7709720230652</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>284036</v>
+        <v>292274</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19687896</v>
+        <v>19451962</v>
       </c>
       <c r="E27" t="n">
-        <v>25339935</v>
+        <v>25036268</v>
       </c>
       <c r="F27" t="n">
-        <v>4462.26106684836</v>
+        <v>2968.767149440757</v>
       </c>
       <c r="G27" t="n">
-        <v>1775.961779041986</v>
+        <v>2125.29415283377</v>
       </c>
       <c r="H27" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="I27" t="n">
-        <v>2207891</v>
+        <v>2201408</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4702438</v>
+        <v>4672260</v>
       </c>
       <c r="E28" t="n">
-        <v>4702438</v>
+        <v>4672260</v>
       </c>
       <c r="F28" t="n">
-        <v>1207.903838506418</v>
+        <v>1475.623127539618</v>
       </c>
       <c r="G28" t="n">
-        <v>1521.654391946319</v>
+        <v>1424.045457074115</v>
       </c>
       <c r="H28" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="I28" t="n">
-        <v>1944188</v>
+        <v>1292058</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1731933</v>
+        <v>1736037</v>
       </c>
       <c r="F29" t="n">
-        <v>555.4926339083302</v>
+        <v>543.1815705544889</v>
       </c>
       <c r="G29" t="n">
-        <v>193.4247532375717</v>
+        <v>99.0147674841359</v>
       </c>
       <c r="H29" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="I29" t="n">
-        <v>106022</v>
+        <v>109124</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3404820</v>
+        <v>3319183</v>
       </c>
       <c r="E30" t="n">
-        <v>3404820</v>
+        <v>3319183</v>
       </c>
       <c r="F30" t="n">
-        <v>2076.244758829934</v>
+        <v>635.1036270646587</v>
       </c>
       <c r="G30" t="n">
-        <v>683.3746749442895</v>
+        <v>579.4536668599035</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>502006</v>
+        <v>454831</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>309239</v>
+        <v>310880</v>
       </c>
       <c r="E31" t="n">
-        <v>1443559</v>
+        <v>1451220</v>
       </c>
       <c r="F31" t="n">
-        <v>249.5209445997184</v>
+        <v>407.1793238859929</v>
       </c>
       <c r="G31" t="n">
-        <v>131.1180222680098</v>
+        <v>194.2134669810508</v>
       </c>
       <c r="H31" t="n">
-        <v>1.4</v>
+        <v>0.67</v>
       </c>
       <c r="I31" t="n">
-        <v>608887</v>
+        <v>610532</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>390589</v>
+        <v>385541</v>
       </c>
       <c r="E32" t="n">
-        <v>390589</v>
+        <v>385541</v>
       </c>
       <c r="F32" t="n">
-        <v>63.44649312575117</v>
+        <v>63.5412503399766</v>
       </c>
       <c r="G32" t="n">
-        <v>4.303031361616123</v>
+        <v>4.303019020430428</v>
       </c>
       <c r="H32" t="n">
         <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>57063</v>
+        <v>55762</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1955717</v>
+        <v>1948170</v>
       </c>
       <c r="F33" t="n">
-        <v>8.019929853288641</v>
+        <v>4.473185098158342</v>
       </c>
       <c r="G33" t="n">
-        <v>3.894012025122177</v>
+        <v>5.283165486765399</v>
       </c>
       <c r="H33" t="n">
-        <v>0.14</v>
+        <v>0.82</v>
       </c>
       <c r="I33" t="n">
-        <v>1378886</v>
+        <v>1364524</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1557665</v>
+        <v>1554259</v>
       </c>
       <c r="F34" t="n">
-        <v>135.4448385562234</v>
+        <v>136.1403589958956</v>
       </c>
       <c r="G34" t="n">
-        <v>151.1416058910126</v>
+        <v>264.1384020770506</v>
       </c>
       <c r="H34" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>169446</v>
+        <v>173835</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12512195</v>
+        <v>12673443</v>
       </c>
       <c r="E35" t="n">
-        <v>32890972</v>
+        <v>32586728</v>
       </c>
       <c r="F35" t="n">
-        <v>1580.925408236772</v>
+        <v>1538.411739726911</v>
       </c>
       <c r="G35" t="n">
-        <v>1940.620803065296</v>
+        <v>1898.690314136756</v>
       </c>
       <c r="H35" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="I35" t="n">
-        <v>1614715</v>
+        <v>1567812</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6956878</v>
+        <v>6653259</v>
       </c>
       <c r="E36" t="n">
-        <v>9581399</v>
+        <v>9163238</v>
       </c>
       <c r="F36" t="n">
-        <v>539.5666555769513</v>
+        <v>1088.029872933352</v>
       </c>
       <c r="G36" t="n">
-        <v>318.8076143988232</v>
+        <v>133.5516875694962</v>
       </c>
       <c r="H36" t="n">
-        <v>2.4</v>
+        <v>1.81</v>
       </c>
       <c r="I36" t="n">
-        <v>1047801</v>
+        <v>1049895</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>919931</v>
+        <v>913126</v>
       </c>
       <c r="E37" t="n">
-        <v>6439520</v>
+        <v>6391882</v>
       </c>
       <c r="F37" t="n">
-        <v>87.80059245556257</v>
+        <v>223.4668616452208</v>
       </c>
       <c r="G37" t="n">
-        <v>3720.879706956388</v>
+        <v>3280.797039553919</v>
       </c>
       <c r="H37" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>534651</v>
+        <v>511056</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>107790822</v>
+        <v>106880382</v>
       </c>
       <c r="E38" t="n">
-        <v>419751891</v>
+        <v>416182459</v>
       </c>
       <c r="F38" t="n">
-        <v>11799.00418153</v>
+        <v>13404.88048952032</v>
       </c>
       <c r="G38" t="n">
-        <v>44573.90585212266</v>
+        <v>29110.09562408943</v>
       </c>
       <c r="H38" t="n">
         <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>6557088</v>
+        <v>6577442</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5543386</v>
+        <v>5532177</v>
       </c>
       <c r="E39" t="n">
-        <v>5808582</v>
+        <v>5796836</v>
       </c>
       <c r="F39" t="n">
-        <v>140.3120762265298</v>
+        <v>92.38173538845359</v>
       </c>
       <c r="G39" t="n">
-        <v>2860.147106286657</v>
+        <v>2712.646073793144</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>158421</v>
+        <v>152176</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5305465</v>
+        <v>5262558</v>
       </c>
       <c r="E40" t="n">
-        <v>7809931</v>
+        <v>7746771</v>
       </c>
       <c r="F40" t="n">
-        <v>774.5124674440355</v>
+        <v>1115.779597020188</v>
       </c>
       <c r="G40" t="n">
-        <v>128.1747916452268</v>
+        <v>628.4377835039353</v>
       </c>
       <c r="H40" t="n">
-        <v>1.18</v>
+        <v>0.93</v>
       </c>
       <c r="I40" t="n">
-        <v>545418</v>
+        <v>570654</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7701421</v>
+        <v>7662730</v>
       </c>
       <c r="E41" t="n">
-        <v>7701421</v>
+        <v>7662730</v>
       </c>
       <c r="F41" t="n">
-        <v>2221.836841535974</v>
+        <v>2271.239606171102</v>
       </c>
       <c r="G41" t="n">
-        <v>910.7121280012329</v>
+        <v>210.5139180656867</v>
       </c>
       <c r="H41" t="n">
-        <v>0.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>258034</v>
+        <v>217301</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1487546</v>
+        <v>1476921</v>
       </c>
       <c r="E42" t="n">
-        <v>1487588</v>
+        <v>1476966</v>
       </c>
       <c r="F42" t="n">
-        <v>91.49921215063119</v>
+        <v>137.2961442262263</v>
       </c>
       <c r="G42" t="n">
-        <v>34.2670022403189</v>
+        <v>34.26681083043968</v>
       </c>
       <c r="H42" t="n">
         <v>1.21</v>
       </c>
       <c r="I42" t="n">
-        <v>274120</v>
+        <v>274093</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16545122</v>
+        <v>16506558</v>
       </c>
       <c r="F43" t="n">
-        <v>308.5844164049567</v>
+        <v>127.6890615656127</v>
       </c>
       <c r="G43" t="n">
-        <v>406.986975154975</v>
+        <v>523.4699919150723</v>
       </c>
       <c r="H43" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="I43" t="n">
-        <v>11266.71</v>
+        <v>11815.85</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>135316020</v>
+        <v>132722139</v>
       </c>
       <c r="E44" t="n">
-        <v>135316020</v>
+        <v>132722139</v>
       </c>
       <c r="F44" t="n">
-        <v>329319.7974548998</v>
+        <v>332051.9607292344</v>
       </c>
       <c r="G44" t="n">
-        <v>388424.5782704204</v>
+        <v>363325.5687570418</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I44" t="n">
-        <v>67159059</v>
+        <v>63143460</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65088181</v>
+        <v>63493172</v>
       </c>
       <c r="E45" t="n">
-        <v>333785545</v>
+        <v>325606008</v>
       </c>
       <c r="F45" t="n">
-        <v>48959.32522082484</v>
+        <v>65829.41580964241</v>
       </c>
       <c r="G45" t="n">
-        <v>59887.05796671767</v>
+        <v>62372.16899139856</v>
       </c>
       <c r="H45" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>16981235</v>
+        <v>16983340</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>593013</v>
+        <v>592840</v>
       </c>
       <c r="F46" t="n">
-        <v>148.082596216668</v>
+        <v>89.58322859466594</v>
       </c>
       <c r="G46" t="n">
-        <v>372.8301863493733</v>
+        <v>374.2378310607687</v>
       </c>
       <c r="H46" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I46" t="n">
-        <v>436.29</v>
+        <v>436.18</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2759933</v>
+        <v>2750978</v>
       </c>
       <c r="E47" t="n">
-        <v>11091543</v>
+        <v>11055553</v>
       </c>
       <c r="F47" t="n">
-        <v>3.802240698088243</v>
+        <v>108.1581269743461</v>
       </c>
       <c r="G47" t="n">
-        <v>385.8008395187145</v>
+        <v>393.140814065662</v>
       </c>
       <c r="H47" t="n">
         <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>27817</v>
+        <v>27093</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17550625</v>
+        <v>17530183</v>
       </c>
       <c r="E48" t="n">
-        <v>123785435</v>
+        <v>123636813</v>
       </c>
       <c r="F48" t="n">
-        <v>1501.154222474604</v>
+        <v>1399.565507218927</v>
       </c>
       <c r="G48" t="n">
-        <v>497.7946182333214</v>
+        <v>797.5969008279695</v>
       </c>
       <c r="H48" t="n">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="I48" t="n">
-        <v>948911</v>
+        <v>1017304</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1032221</v>
+        <v>1026020</v>
       </c>
       <c r="E49" t="n">
-        <v>1211581</v>
+        <v>1204302</v>
       </c>
       <c r="F49" t="n">
-        <v>1824.932814778773</v>
+        <v>2601.218452161515</v>
       </c>
       <c r="G49" t="n">
-        <v>2019.014977127321</v>
+        <v>4104.263502856303</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.65</v>
       </c>
       <c r="I49" t="n">
-        <v>260519</v>
+        <v>251347</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>149112</v>
+        <v>146916</v>
       </c>
       <c r="E50" t="n">
-        <v>1995198</v>
+        <v>1965825</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>47049</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>254187643</v>
+        <v>249535346</v>
       </c>
       <c r="E51" t="n">
-        <v>254187643</v>
+        <v>249535346</v>
       </c>
       <c r="F51" t="n">
-        <v>28259.6774859566</v>
+        <v>24958.83348181652</v>
       </c>
       <c r="G51" t="n">
-        <v>32645.32386231932</v>
+        <v>38219.45418566491</v>
       </c>
       <c r="H51" t="n">
         <v>0.21</v>
       </c>
       <c r="I51" t="n">
-        <v>14393823</v>
+        <v>14557084</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1118366</v>
+        <v>1122826</v>
       </c>
       <c r="F52" t="n">
-        <v>64.50805030456881</v>
+        <v>64.51307225888387</v>
       </c>
       <c r="G52" t="n">
-        <v>4.043060606761209</v>
+        <v>3.969791256950189</v>
       </c>
       <c r="H52" t="n">
         <v>0.7</v>
       </c>
       <c r="I52" t="n">
-        <v>191090</v>
+        <v>192315</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>116350</v>
+        <v>115079</v>
       </c>
       <c r="E54" t="n">
-        <v>116350</v>
+        <v>115079</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>13.19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6922177</v>
+        <v>6535081</v>
       </c>
       <c r="E55" t="n">
-        <v>16813435</v>
+        <v>15873209</v>
       </c>
       <c r="F55" t="n">
-        <v>279.3830523162301</v>
+        <v>549.7100280065368</v>
       </c>
       <c r="G55" t="n">
-        <v>6881.761965801211</v>
+        <v>194.7279447790029</v>
       </c>
       <c r="H55" t="n">
-        <v>0.28</v>
+        <v>0.53</v>
       </c>
       <c r="I55" t="n">
-        <v>436492</v>
+        <v>443402</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>447311585</v>
+        <v>438800703</v>
       </c>
       <c r="E56" t="n">
-        <v>447311585</v>
+        <v>438791938</v>
       </c>
       <c r="F56" t="n">
-        <v>5379.137858083935</v>
+        <v>7629.908416589644</v>
       </c>
       <c r="G56" t="n">
-        <v>4387.512627505816</v>
+        <v>1752.054028512567</v>
       </c>
       <c r="H56" t="n">
         <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>2732650</v>
+        <v>2836540</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2547306</v>
+        <v>2427592</v>
       </c>
       <c r="E57" t="n">
-        <v>2547306</v>
+        <v>2427592</v>
       </c>
       <c r="F57" t="n">
-        <v>4.058359764966588</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>9.194043754583944</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.82</v>
+        <v>14.07</v>
       </c>
       <c r="I57" t="n">
-        <v>111277</v>
+        <v>61168</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>154959120</v>
+        <v>153201978</v>
       </c>
       <c r="E58" t="n">
-        <v>203908079</v>
+        <v>201595886</v>
       </c>
       <c r="F58" t="n">
-        <v>14924.33473940988</v>
+        <v>14044.55567318688</v>
       </c>
       <c r="G58" t="n">
-        <v>9466.836973749691</v>
+        <v>10869.52360593507</v>
       </c>
       <c r="H58" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="I58" t="n">
-        <v>7213978</v>
+        <v>6248245</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1121401</v>
+        <v>1129048</v>
       </c>
       <c r="E59" t="n">
-        <v>12186971</v>
+        <v>12270076</v>
       </c>
       <c r="F59" t="n">
-        <v>571.072880801478</v>
+        <v>714.4569858215498</v>
       </c>
       <c r="G59" t="n">
-        <v>328.4116828819879</v>
+        <v>3.928980225624622</v>
       </c>
       <c r="H59" t="n">
-        <v>0.13</v>
+        <v>0.72</v>
       </c>
       <c r="I59" t="n">
-        <v>28500</v>
+        <v>29698</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2531673</v>
+        <v>2536926</v>
       </c>
       <c r="E60" t="n">
-        <v>6472441</v>
+        <v>6485872</v>
       </c>
       <c r="F60" t="n">
-        <v>203.0131271658043</v>
+        <v>113.9952491344043</v>
       </c>
       <c r="G60" t="n">
-        <v>289.007772629891</v>
+        <v>169.1507663655886</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>88194</v>
+        <v>121384</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>75004866</v>
+        <v>72506356</v>
       </c>
       <c r="E61" t="n">
-        <v>209962043</v>
+        <v>202955755</v>
       </c>
       <c r="F61" t="n">
-        <v>74010.10331414339</v>
+        <v>71802.8051372874</v>
       </c>
       <c r="G61" t="n">
-        <v>97616.33644900942</v>
+        <v>77720.53408422135</v>
       </c>
       <c r="H61" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I61" t="n">
-        <v>30766332</v>
+        <v>31865170</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>75221430</v>
+        <v>72676472</v>
       </c>
       <c r="E62" t="n">
-        <v>75221430</v>
+        <v>72676472</v>
       </c>
       <c r="F62" t="n">
-        <v>4816.644659877213</v>
+        <v>4989.96101155205</v>
       </c>
       <c r="G62" t="n">
-        <v>4960.743777727488</v>
+        <v>4503.753446199354</v>
       </c>
       <c r="H62" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I62" t="n">
-        <v>4591879</v>
+        <v>4524593</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4412606</v>
+        <v>4299973</v>
       </c>
       <c r="E63" t="n">
-        <v>8702030</v>
+        <v>8479908</v>
       </c>
       <c r="F63" t="n">
-        <v>1779.234848939242</v>
+        <v>2557.494793398957</v>
       </c>
       <c r="G63" t="n">
-        <v>2366.809905211238</v>
+        <v>1781.312296470633</v>
       </c>
       <c r="H63" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="I63" t="n">
-        <v>1692299</v>
+        <v>1675117</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1574435</v>
+        <v>1578898</v>
       </c>
       <c r="E64" t="n">
-        <v>9039819</v>
+        <v>9065442</v>
       </c>
       <c r="F64" t="n">
-        <v>525.7334453860913</v>
+        <v>938.9236354640479</v>
       </c>
       <c r="G64" t="n">
-        <v>4.06646507471503</v>
+        <v>4.020257325793409</v>
       </c>
       <c r="H64" t="n">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="I64" t="n">
-        <v>324734</v>
+        <v>327688</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>543684</v>
+        <v>574132</v>
       </c>
       <c r="F65" t="n">
-        <v>19.83964174682479</v>
+        <v>4.109502124785587</v>
       </c>
       <c r="G65" t="n">
-        <v>5.405758194812797</v>
+        <v>5.443274149258757</v>
       </c>
       <c r="H65" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="I65" t="n">
-        <v>2322.51</v>
+        <v>2364.54</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>32123784</v>
+        <v>32166874</v>
       </c>
       <c r="F66" t="n">
-        <v>783.2915879677805</v>
+        <v>923.1643979468166</v>
       </c>
       <c r="G66" t="n">
-        <v>401.3362314967727</v>
+        <v>344.5064107934799</v>
       </c>
       <c r="H66" t="n">
         <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>249150</v>
+        <v>249339</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>151969</v>
+        <v>151842</v>
       </c>
       <c r="E67" t="n">
-        <v>1026264</v>
+        <v>1025404</v>
       </c>
       <c r="F67" t="n">
-        <v>16.4935915717165</v>
+        <v>22.73869594423733</v>
       </c>
       <c r="G67" t="n">
-        <v>295.8566736178042</v>
+        <v>163.8223457119389</v>
       </c>
       <c r="H67" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="I67" t="n">
-        <v>2615251</v>
+        <v>2620980</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7539898</v>
+        <v>7553119</v>
       </c>
       <c r="E68" t="n">
-        <v>17757958</v>
+        <v>17789098</v>
       </c>
       <c r="F68" t="n">
-        <v>1451.303444393695</v>
+        <v>1449.851232444681</v>
       </c>
       <c r="G68" t="n">
-        <v>2843.56728382603</v>
+        <v>3197.42326782252</v>
       </c>
       <c r="H68" t="n">
         <v>0.72</v>
       </c>
       <c r="I68" t="n">
-        <v>28109</v>
+        <v>28177</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2935972</v>
+        <v>2929746</v>
       </c>
       <c r="E69" t="n">
-        <v>2935972</v>
+        <v>2929746</v>
       </c>
       <c r="F69" t="n">
-        <v>152.8895938329418</v>
+        <v>200.2360978633794</v>
       </c>
       <c r="G69" t="n">
-        <v>635.0165126208705</v>
+        <v>5.408442404543159</v>
       </c>
       <c r="H69" t="n">
-        <v>0.74</v>
+        <v>0.34</v>
       </c>
       <c r="I69" t="n">
-        <v>10565.57</v>
+        <v>10706.02</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3377695</v>
+        <v>3368532</v>
       </c>
       <c r="E70" t="n">
-        <v>8334289</v>
+        <v>8311681</v>
       </c>
       <c r="F70" t="n">
-        <v>1279.114100734201</v>
+        <v>1304.538692908813</v>
       </c>
       <c r="G70" t="n">
-        <v>1227.113117141899</v>
+        <v>1209.143822417427</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>100526</v>
+        <v>94597</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23359670</v>
+        <v>23276771</v>
       </c>
       <c r="F71" t="n">
-        <v>605.9388899480447</v>
+        <v>8.647611141221892</v>
       </c>
       <c r="G71" t="n">
-        <v>5.590816730133954</v>
+        <v>22.85623709472841</v>
       </c>
       <c r="H71" t="n">
-        <v>0.85</v>
+        <v>0.17</v>
       </c>
       <c r="I71" t="n">
-        <v>124474</v>
+        <v>122975</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>271927</v>
+        <v>269910</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2671.91</v>
+        <v>2479.22</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>72632668</v>
+        <v>71041395</v>
       </c>
       <c r="E73" t="n">
-        <v>151475998</v>
+        <v>148157386</v>
       </c>
       <c r="F73" t="n">
-        <v>16892.33464565737</v>
+        <v>18223.66797260828</v>
       </c>
       <c r="G73" t="n">
-        <v>3349.474623084165</v>
+        <v>3493.532478298625</v>
       </c>
       <c r="H73" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I73" t="n">
-        <v>13974017</v>
+        <v>13524792</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>203622534</v>
+        <v>200957364</v>
       </c>
       <c r="F75" t="n">
-        <v>22437.83069773881</v>
+        <v>5815.242620783933</v>
       </c>
       <c r="G75" t="n">
-        <v>9106.764168246031</v>
+        <v>15369.74690215066</v>
       </c>
       <c r="H75" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="I75" t="n">
-        <v>4198178</v>
+        <v>4118797</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>84158537</v>
+        <v>81695458</v>
       </c>
       <c r="E76" t="n">
-        <v>115562769</v>
+        <v>112180578</v>
       </c>
       <c r="F76" t="n">
-        <v>2146.97078830767</v>
+        <v>523.5034282083093</v>
       </c>
       <c r="G76" t="n">
-        <v>3483.993226196146</v>
+        <v>7106.894450898812</v>
       </c>
       <c r="H76" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>847922</v>
+        <v>933168</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>190237</v>
+        <v>196597</v>
       </c>
       <c r="E77" t="n">
-        <v>198662</v>
+        <v>205303</v>
       </c>
       <c r="F77" t="n">
-        <v>5.284278273312491</v>
+        <v>4.013330067654609</v>
       </c>
       <c r="G77" t="n">
-        <v>4.025692478953089</v>
+        <v>5.140322269501977</v>
       </c>
       <c r="H77" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="I77" t="n">
-        <v>610.14</v>
+        <v>611.55</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6947131</v>
+        <v>6879664</v>
       </c>
       <c r="E78" t="n">
-        <v>7642308</v>
+        <v>7568090</v>
       </c>
       <c r="F78" t="n">
-        <v>146.1427219761101</v>
+        <v>214.1456630651482</v>
       </c>
       <c r="G78" t="n">
-        <v>382.7827405051123</v>
+        <v>236.6009419810967</v>
       </c>
       <c r="H78" t="n">
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="I78" t="n">
-        <v>587194</v>
+        <v>577685</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28186503</v>
+        <v>28919805</v>
       </c>
       <c r="E79" t="n">
-        <v>28186503</v>
+        <v>28919805</v>
       </c>
       <c r="F79" t="n">
-        <v>4225.2446641679</v>
+        <v>859.6828564799878</v>
       </c>
       <c r="G79" t="n">
-        <v>70.28153248525012</v>
+        <v>931.3037461095075</v>
       </c>
       <c r="H79" t="n">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="I79" t="n">
-        <v>430546</v>
+        <v>289074</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>281288638</v>
+        <v>274452695</v>
       </c>
       <c r="E80" t="n">
-        <v>281288638</v>
+        <v>274452695</v>
       </c>
       <c r="F80" t="n">
-        <v>73.4758885798493</v>
+        <v>1643.316163086784</v>
       </c>
       <c r="G80" t="n">
-        <v>14348.35809694405</v>
+        <v>10984.36910275974</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I80" t="n">
-        <v>16611407</v>
+        <v>14753249</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>625840920</v>
+        <v>606697468</v>
       </c>
       <c r="E81" t="n">
-        <v>625840920</v>
+        <v>606697468</v>
       </c>
       <c r="F81" t="n">
-        <v>1607308.019541953</v>
+        <v>1289059.111420961</v>
       </c>
       <c r="G81" t="n">
-        <v>1484695.378951703</v>
+        <v>1355806.570938346</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>235003890</v>
+        <v>249890030</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>110323</v>
+        <v>110124</v>
       </c>
       <c r="E82" t="n">
-        <v>110323</v>
+        <v>110124</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>127.29</v>
+        <v>132.87</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>197610332</v>
+        <v>194315798</v>
       </c>
       <c r="E83" t="n">
-        <v>686516153</v>
+        <v>675070642</v>
       </c>
       <c r="F83" t="n">
-        <v>687.4281857805728</v>
+        <v>709.7319783632979</v>
       </c>
       <c r="G83" t="n">
-        <v>4230.13564626147</v>
+        <v>4355.895185739715</v>
       </c>
       <c r="H83" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="I83" t="n">
-        <v>25491005</v>
+        <v>26298669</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4551135</v>
+        <v>4172366</v>
       </c>
       <c r="E84" t="n">
-        <v>4551129</v>
+        <v>4172366</v>
       </c>
       <c r="F84" t="n">
-        <v>824.7332798867194</v>
+        <v>731.2811475234362</v>
       </c>
       <c r="G84" t="n">
-        <v>919.7764021640305</v>
+        <v>1621.678088327205</v>
       </c>
       <c r="H84" t="n">
-        <v>0.75</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>4165034</v>
+        <v>4088349</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>114778234</v>
+        <v>112624723</v>
       </c>
       <c r="E85" t="n">
-        <v>488477572</v>
+        <v>479262504</v>
       </c>
       <c r="F85" t="n">
-        <v>270504.0388763967</v>
+        <v>320155.0042709967</v>
       </c>
       <c r="G85" t="n">
-        <v>412580.4985191055</v>
+        <v>328871.3755822668</v>
       </c>
       <c r="H85" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I85" t="n">
-        <v>11680577</v>
+        <v>11506180</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>73168988</v>
+        <v>73210616</v>
       </c>
       <c r="E86" t="n">
-        <v>83952094</v>
+        <v>83999857</v>
       </c>
       <c r="F86" t="n">
-        <v>2019.213810094827</v>
+        <v>9462.979061589984</v>
       </c>
       <c r="G86" t="n">
-        <v>5339.255162775677</v>
+        <v>2835.733720270159</v>
       </c>
       <c r="H86" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="I86" t="n">
-        <v>1189464</v>
+        <v>1194360</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3189221</v>
+        <v>3096553</v>
       </c>
       <c r="E87" t="n">
-        <v>15990031</v>
+        <v>15525413</v>
       </c>
       <c r="F87" t="n">
-        <v>3.990959736617403</v>
+        <v>3.838637750709826</v>
       </c>
       <c r="G87" t="n">
-        <v>3.923169685292312</v>
+        <v>9.2831579172743</v>
       </c>
       <c r="H87" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="I87" t="n">
-        <v>22410</v>
+        <v>24154</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>516348</v>
+        <v>513984</v>
       </c>
       <c r="E88" t="n">
-        <v>8832104</v>
+        <v>8791666</v>
       </c>
       <c r="F88" t="n">
-        <v>899.9495161172047</v>
+        <v>5.531831315134437</v>
       </c>
       <c r="G88" t="n">
-        <v>4.122694205161273</v>
+        <v>5.273128316662218</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2</v>
+        <v>1.32</v>
       </c>
       <c r="I88" t="n">
-        <v>330395</v>
+        <v>326262</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5873445</v>
+        <v>5875559</v>
       </c>
       <c r="E89" t="n">
-        <v>7981263</v>
+        <v>7984005</v>
       </c>
       <c r="F89" t="n">
-        <v>1853.261028790823</v>
+        <v>1158.022849389684</v>
       </c>
       <c r="G89" t="n">
-        <v>134.4351946502428</v>
+        <v>95.18836370846671</v>
       </c>
       <c r="H89" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I89" t="n">
-        <v>6450516</v>
+        <v>6377778</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>41446640</v>
+        <v>41325908</v>
       </c>
       <c r="E90" t="n">
-        <v>48408691</v>
+        <v>48267680</v>
       </c>
       <c r="F90" t="n">
-        <v>211.6660183432627</v>
+        <v>67.65170917393969</v>
       </c>
       <c r="G90" t="n">
-        <v>4.393787390133353</v>
+        <v>112.3252080332154</v>
       </c>
       <c r="H90" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>861840</v>
+        <v>859760</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14456454</v>
+        <v>14204933</v>
       </c>
       <c r="F91" t="n">
-        <v>132.4613787423046</v>
+        <v>134.2601648014572</v>
       </c>
       <c r="G91" t="n">
-        <v>225.1960261914663</v>
+        <v>236.9049731859914</v>
       </c>
       <c r="H91" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="I91" t="n">
-        <v>499370</v>
+        <v>472109</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35993427</v>
+        <v>35576135</v>
       </c>
       <c r="E92" t="n">
-        <v>35993427</v>
+        <v>35576135</v>
       </c>
       <c r="F92" t="n">
-        <v>770.2235891297211</v>
+        <v>598.814326892804</v>
       </c>
       <c r="G92" t="n">
-        <v>75.31609157048163</v>
+        <v>42.57419998249414</v>
       </c>
       <c r="H92" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="I92" t="n">
-        <v>594295</v>
+        <v>609524</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17718960</v>
+        <v>17689386</v>
       </c>
       <c r="F93" t="n">
-        <v>95.07404857921279</v>
+        <v>122.2258343436103</v>
       </c>
       <c r="G93" t="n">
-        <v>293.3791569405366</v>
+        <v>396.561061045612</v>
       </c>
       <c r="H93" t="n">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="I93" t="n">
-        <v>168588</v>
+        <v>167032</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>531188</v>
+        <v>532083</v>
       </c>
       <c r="E94" t="n">
-        <v>6442793</v>
+        <v>6453652</v>
       </c>
       <c r="F94" t="n">
-        <v>887.9867144055651</v>
+        <v>887.9685157958032</v>
       </c>
       <c r="G94" t="n">
-        <v>777.2243605724688</v>
+        <v>2737.775481307897</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>2905686</v>
+        <v>2858837</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25328938</v>
+        <v>25093512</v>
       </c>
       <c r="E95" t="n">
-        <v>35801464</v>
+        <v>35468700</v>
       </c>
       <c r="F95" t="n">
-        <v>4.259446302747325</v>
+        <v>3.005160308583949</v>
       </c>
       <c r="G95" t="n">
-        <v>2.859704059043374</v>
+        <v>5.438076288077895</v>
       </c>
       <c r="H95" t="n">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="I95" t="n">
-        <v>88071</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1291198922</v>
+        <v>1262766366</v>
       </c>
       <c r="E96" t="n">
-        <v>6191563262</v>
+        <v>6055223333</v>
       </c>
       <c r="F96" t="n">
-        <v>405861.602948101</v>
+        <v>381450.4930609125</v>
       </c>
       <c r="G96" t="n">
-        <v>773752.0639372934</v>
+        <v>597442.6124529836</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>200193590</v>
+        <v>189465872</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>271069507</v>
+        <v>265951665</v>
       </c>
       <c r="E97" t="n">
-        <v>1170086475</v>
+        <v>1147995025</v>
       </c>
       <c r="F97" t="n">
-        <v>122408.1596045403</v>
+        <v>309148.825729749</v>
       </c>
       <c r="G97" t="n">
-        <v>776729.2499064313</v>
+        <v>1016879.872679798</v>
       </c>
       <c r="H97" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>111722662</v>
+        <v>110608563</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5053230</v>
+        <v>5010060</v>
       </c>
       <c r="E98" t="n">
-        <v>5599986</v>
+        <v>5552145</v>
       </c>
       <c r="F98" t="n">
-        <v>1037.731452503224</v>
+        <v>1005.132812679316</v>
       </c>
       <c r="G98" t="n">
-        <v>364.031797674724</v>
+        <v>330.3063130855245</v>
       </c>
       <c r="H98" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="I98" t="n">
-        <v>704220</v>
+        <v>706236</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89998</v>
+        <v>90126</v>
       </c>
       <c r="E99" t="n">
-        <v>89998</v>
+        <v>90126</v>
       </c>
       <c r="F99" t="n">
-        <v>5.599845879768558</v>
+        <v>5.595856545104009</v>
       </c>
       <c r="G99" t="n">
-        <v>234.7763040748394</v>
+        <v>324.7182948329297</v>
       </c>
       <c r="H99" t="n">
-        <v>0.52</v>
+        <v>0.29</v>
       </c>
       <c r="I99" t="n">
-        <v>5029.03</v>
+        <v>4844.68</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113576396</v>
+        <v>112523023</v>
       </c>
       <c r="E100" t="n">
-        <v>113576396</v>
+        <v>112523023</v>
       </c>
       <c r="F100" t="n">
-        <v>7468.908301954609</v>
+        <v>18397.77646944451</v>
       </c>
       <c r="G100" t="n">
-        <v>13388.43670546654</v>
+        <v>30197.38413369789</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6013562</v>
+        <v>5866693</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3799083</v>
+        <v>3766776</v>
       </c>
       <c r="F101" t="n">
-        <v>143.2315855300565</v>
+        <v>1263.880738502115</v>
       </c>
       <c r="G101" t="n">
-        <v>2547.836785760175</v>
+        <v>1325.821616372941</v>
       </c>
       <c r="H101" t="n">
-        <v>1.78</v>
+        <v>0.85</v>
       </c>
       <c r="I101" t="n">
-        <v>308582</v>
+        <v>306544</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2044038727</v>
+        <v>2044088775</v>
       </c>
       <c r="E102" t="n">
-        <v>2044038727</v>
+        <v>2044088775</v>
       </c>
       <c r="F102" t="n">
-        <v>7506678.817291885</v>
+        <v>7949455.522512351</v>
       </c>
       <c r="G102" t="n">
-        <v>3498862.85097099</v>
+        <v>3573506.53327168</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>4830817237</v>
+        <v>5137204584</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5341665</v>
+        <v>5339029</v>
       </c>
       <c r="E103" t="n">
-        <v>5347711</v>
+        <v>5345072</v>
       </c>
       <c r="F103" t="n">
-        <v>284.7341071287182</v>
+        <v>284.7325166504887</v>
       </c>
       <c r="G103" t="n">
-        <v>57.75770474771056</v>
+        <v>56.87249965957244</v>
       </c>
       <c r="H103" t="n">
         <v>0.09</v>
       </c>
       <c r="I103" t="n">
-        <v>155868</v>
+        <v>154680</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2434258</v>
+        <v>2451288</v>
       </c>
       <c r="F104" t="n">
-        <v>4.070139571771394</v>
+        <v>323.3112931212677</v>
       </c>
       <c r="G104" t="n">
-        <v>314.7057878484114</v>
+        <v>9.325779056612255</v>
       </c>
       <c r="H104" t="n">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="I104" t="n">
-        <v>25032</v>
+        <v>46853</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4385774</v>
+        <v>4406701</v>
       </c>
       <c r="E105" t="n">
-        <v>5757949</v>
+        <v>5785423</v>
       </c>
       <c r="F105" t="n">
-        <v>10446.54169114381</v>
+        <v>10431.28140798453</v>
       </c>
       <c r="G105" t="n">
-        <v>12514.57186892329</v>
+        <v>12522.93312813346</v>
       </c>
       <c r="H105" t="n">
         <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>659217</v>
+        <v>628430</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20192654</v>
+        <v>20146593</v>
       </c>
       <c r="F106" t="n">
-        <v>73.72414447781652</v>
+        <v>953.7243595099451</v>
       </c>
       <c r="G106" t="n">
-        <v>774.3538005024031</v>
+        <v>136.7929473521756</v>
       </c>
       <c r="H106" t="n">
         <v>0.98</v>
       </c>
       <c r="I106" t="n">
-        <v>127703</v>
+        <v>127788</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1377164</v>
+        <v>1350573</v>
       </c>
       <c r="E107" t="n">
-        <v>5134585</v>
+        <v>5035441</v>
       </c>
       <c r="F107" t="n">
-        <v>1776.797727504067</v>
+        <v>1696.268769098799</v>
       </c>
       <c r="G107" t="n">
-        <v>164.4577507983829</v>
+        <v>237.2414353526417</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I107" t="n">
-        <v>622798</v>
+        <v>603545</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3573474</v>
+        <v>4002895</v>
       </c>
       <c r="E108" t="n">
-        <v>10293067</v>
+        <v>11529975</v>
       </c>
       <c r="F108" t="n">
-        <v>711.4000300893149</v>
+        <v>184.6866327159133</v>
       </c>
       <c r="G108" t="n">
-        <v>930.2456372283737</v>
+        <v>55.98572263806641</v>
       </c>
       <c r="H108" t="n">
-        <v>1.43</v>
+        <v>2.98</v>
       </c>
       <c r="I108" t="n">
-        <v>394769</v>
+        <v>451390</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80180045</v>
+        <v>80009189</v>
       </c>
       <c r="E109" t="n">
-        <v>102035339</v>
+        <v>101817911</v>
       </c>
       <c r="F109" t="n">
-        <v>6257.793861743187</v>
+        <v>3440.691661003681</v>
       </c>
       <c r="G109" t="n">
-        <v>747.9355389261016</v>
+        <v>948.8424408519686</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I109" t="n">
-        <v>6229044</v>
+        <v>6269146</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>23017369</v>
+        <v>22537165</v>
       </c>
       <c r="E110" t="n">
-        <v>29858793</v>
+        <v>29235859</v>
       </c>
       <c r="F110" t="n">
-        <v>19319.33092957693</v>
+        <v>18902.90357549949</v>
       </c>
       <c r="G110" t="n">
-        <v>13727.25001651546</v>
+        <v>15576.71678692226</v>
       </c>
       <c r="H110" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="I110" t="n">
-        <v>183275</v>
+        <v>165108</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>614710</v>
+        <v>616663</v>
       </c>
       <c r="E111" t="n">
-        <v>614710</v>
+        <v>616663</v>
       </c>
       <c r="F111" t="n">
-        <v>6.49101939995366</v>
+        <v>4.093718520663941</v>
       </c>
       <c r="G111" t="n">
-        <v>328.8823910173886</v>
+        <v>88.13426006101531</v>
       </c>
       <c r="H111" t="n">
-        <v>0.65</v>
+        <v>2.03</v>
       </c>
       <c r="I111" t="n">
-        <v>82837</v>
+        <v>81897</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13795349</v>
+        <v>13827732</v>
       </c>
       <c r="E112" t="n">
-        <v>13795349</v>
+        <v>13827732</v>
       </c>
       <c r="F112" t="n">
-        <v>1655.945959829806</v>
+        <v>1381.531633790609</v>
       </c>
       <c r="G112" t="n">
-        <v>1335.585170625177</v>
+        <v>2200.787867719202</v>
       </c>
       <c r="H112" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I112" t="n">
-        <v>4405506</v>
+        <v>4395272</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99701083</v>
+        <v>98883595</v>
       </c>
       <c r="E113" t="n">
-        <v>123326671</v>
+        <v>122315467</v>
       </c>
       <c r="F113" t="n">
-        <v>93.9130079411392</v>
+        <v>163.5231655870279</v>
       </c>
       <c r="G113" t="n">
-        <v>851.1930346980535</v>
+        <v>1027.501351153138</v>
       </c>
       <c r="H113" t="n">
-        <v>0.18</v>
+        <v>0.79</v>
       </c>
       <c r="I113" t="n">
-        <v>744078</v>
+        <v>753486</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>842990</v>
+        <v>828850</v>
       </c>
       <c r="F114" t="n">
-        <v>236.9887908401481</v>
+        <v>211.5756030355995</v>
       </c>
       <c r="G114" t="n">
-        <v>298.3308372667133</v>
+        <v>268.9502137745043</v>
       </c>
       <c r="H114" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I114" t="n">
-        <v>30959</v>
+        <v>30614</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2876314</v>
+        <v>2860561</v>
       </c>
       <c r="F115" t="n">
-        <v>912.6237586329029</v>
+        <v>280.4281038682564</v>
       </c>
       <c r="G115" t="n">
-        <v>184.9602494189816</v>
+        <v>2349.616179936425</v>
       </c>
       <c r="H115" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I115" t="n">
-        <v>24450</v>
+        <v>21526</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10834291</v>
+        <v>10821137</v>
       </c>
       <c r="E116" t="n">
-        <v>15932780</v>
+        <v>15913435</v>
       </c>
       <c r="F116" t="n">
-        <v>102718.9162117286</v>
+        <v>101006.8285570387</v>
       </c>
       <c r="G116" t="n">
-        <v>1992.521019000066</v>
+        <v>2059.882683206568</v>
       </c>
       <c r="H116" t="n">
-        <v>0.53</v>
+        <v>0.03</v>
       </c>
       <c r="I116" t="n">
-        <v>436885</v>
+        <v>413717</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3270500</v>
+        <v>3275568</v>
       </c>
       <c r="F117" t="n">
-        <v>64.41474292334851</v>
+        <v>43.16403239720665</v>
       </c>
       <c r="G117" t="n">
-        <v>5.424230373402755</v>
+        <v>325.4294313938861</v>
       </c>
       <c r="H117" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="I117" t="n">
-        <v>35655</v>
+        <v>35649</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1075475</v>
+        <v>1095615</v>
       </c>
       <c r="F118" t="n">
-        <v>5.595571726383986</v>
+        <v>5.595524570859702</v>
       </c>
       <c r="G118" t="n">
-        <v>54.06182785948515</v>
+        <v>52.86490812068853</v>
       </c>
       <c r="H118" t="n">
         <v>0.72</v>
       </c>
       <c r="I118" t="n">
-        <v>3950.14</v>
+        <v>4071.76</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5367555</v>
+        <v>5207217</v>
       </c>
       <c r="E119" t="n">
-        <v>7509987</v>
+        <v>7285651</v>
       </c>
       <c r="F119" t="n">
-        <v>1612.021618978053</v>
+        <v>2009.44304942466</v>
       </c>
       <c r="G119" t="n">
-        <v>1219.231554144066</v>
+        <v>2155.890126414135</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I119" t="n">
-        <v>110184</v>
+        <v>106116</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10266421</v>
+        <v>10153652</v>
       </c>
       <c r="E120" t="n">
-        <v>28278419</v>
+        <v>27967801</v>
       </c>
       <c r="F120" t="n">
-        <v>29.20199766651128</v>
+        <v>616.557792399756</v>
       </c>
       <c r="G120" t="n">
-        <v>522.1459487271915</v>
+        <v>46.96042364776591</v>
       </c>
       <c r="H120" t="n">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="I120" t="n">
-        <v>352300</v>
+        <v>350774</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50862456</v>
+        <v>50488875</v>
       </c>
       <c r="E121" t="n">
-        <v>129575014</v>
+        <v>128623295</v>
       </c>
       <c r="F121" t="n">
-        <v>572.0647968788024</v>
+        <v>888.2493244616409</v>
       </c>
       <c r="G121" t="n">
-        <v>11932.97921557798</v>
+        <v>12087.35251500961</v>
       </c>
       <c r="H121" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="I121" t="n">
-        <v>2232621</v>
+        <v>2370811</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14113201</v>
+        <v>13944384</v>
       </c>
       <c r="E122" t="n">
-        <v>68352487</v>
+        <v>67534877</v>
       </c>
       <c r="F122" t="n">
-        <v>1371.877288581338</v>
+        <v>1238.831240869384</v>
       </c>
       <c r="G122" t="n">
-        <v>5293.837504261483</v>
+        <v>5423.380789544346</v>
       </c>
       <c r="H122" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="I122" t="n">
-        <v>3554094</v>
+        <v>3505569</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>495545</v>
+        <v>505525</v>
       </c>
       <c r="F123" t="n">
-        <v>3.920580456676014</v>
+        <v>4.110343216503222</v>
       </c>
       <c r="G123" t="n">
-        <v>4.683385849189126</v>
+        <v>4.095780005291839</v>
       </c>
       <c r="H123" t="n">
-        <v>0.48</v>
+        <v>0.96</v>
       </c>
       <c r="I123" t="n">
-        <v>5527.84</v>
+        <v>7476.02</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4454179</v>
+        <v>4509168</v>
       </c>
       <c r="E124" t="n">
-        <v>10153105</v>
+        <v>10278449</v>
       </c>
       <c r="F124" t="n">
-        <v>793.5209063228159</v>
+        <v>239.3128360965212</v>
       </c>
       <c r="G124" t="n">
-        <v>2211.767588816702</v>
+        <v>2781.322355802498</v>
       </c>
       <c r="H124" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="I124" t="n">
-        <v>98740</v>
+        <v>105526</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1869413427</v>
+        <v>1858073937</v>
       </c>
       <c r="F125" t="n">
-        <v>73310.06984996636</v>
+        <v>76574.64175710213</v>
       </c>
       <c r="G125" t="n">
-        <v>71819.90029514449</v>
+        <v>72801.70490118201</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="I125" t="n">
-        <v>25495490</v>
+        <v>25844861</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9497412</v>
+        <v>9350793</v>
       </c>
       <c r="E126" t="n">
-        <v>34584245</v>
+        <v>34049991</v>
       </c>
       <c r="F126" t="n">
-        <v>1722.944321840917</v>
+        <v>1722.948669022912</v>
       </c>
       <c r="G126" t="n">
-        <v>5.391483997846745</v>
+        <v>5.354480585586932</v>
       </c>
       <c r="H126" t="n">
         <v>0.26</v>
       </c>
       <c r="I126" t="n">
-        <v>150621</v>
+        <v>156821</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>562310</v>
+        <v>562689</v>
       </c>
       <c r="F127" t="n">
-        <v>23.70354055499712</v>
+        <v>29.27845154152223</v>
       </c>
       <c r="G127" t="n">
-        <v>35.57416412150091</v>
+        <v>35.57396639483873</v>
       </c>
       <c r="H127" t="n">
         <v>0.82</v>
       </c>
       <c r="I127" t="n">
-        <v>21612</v>
+        <v>21333</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12231235</v>
+        <v>12145707</v>
       </c>
       <c r="E128" t="n">
-        <v>17733526</v>
+        <v>17609523</v>
       </c>
       <c r="F128" t="n">
-        <v>2960.806434845621</v>
+        <v>2938.787808759201</v>
       </c>
       <c r="G128" t="n">
-        <v>7759.110077414854</v>
+        <v>743.191486880766</v>
       </c>
       <c r="H128" t="n">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>2205507</v>
+        <v>2255518</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31872493</v>
+        <v>31565521</v>
       </c>
       <c r="E129" t="n">
-        <v>99240718</v>
+        <v>98284905</v>
       </c>
       <c r="F129" t="n">
-        <v>8177.012275632057</v>
+        <v>6281.198430755066</v>
       </c>
       <c r="G129" t="n">
-        <v>23095.4130504222</v>
+        <v>10402.62602889947</v>
       </c>
       <c r="H129" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="I129" t="n">
-        <v>12184136</v>
+        <v>12104168</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1928644</v>
+        <v>1922972</v>
       </c>
       <c r="E130" t="n">
-        <v>13830110</v>
+        <v>13789444</v>
       </c>
       <c r="F130" t="n">
-        <v>226.6128698988559</v>
+        <v>189.953075102677</v>
       </c>
       <c r="G130" t="n">
-        <v>3.93938663745438</v>
+        <v>3.939353439087649</v>
       </c>
       <c r="H130" t="n">
         <v>0.65</v>
       </c>
       <c r="I130" t="n">
-        <v>1851274</v>
+        <v>1845079</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7944577</v>
+        <v>7914626</v>
       </c>
       <c r="F131" t="n">
-        <v>95.76895111973771</v>
+        <v>114.8746624812987</v>
       </c>
       <c r="G131" t="n">
-        <v>121.7544345803373</v>
+        <v>68.94465900464806</v>
       </c>
       <c r="H131" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="I131" t="n">
-        <v>480254</v>
+        <v>399828</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>199196507</v>
+        <v>194857125</v>
       </c>
       <c r="E132" t="n">
-        <v>1127973021</v>
+        <v>1103400772</v>
       </c>
       <c r="F132" t="n">
-        <v>491068.9490374794</v>
+        <v>488655.9685082563</v>
       </c>
       <c r="G132" t="n">
-        <v>519738.0181100432</v>
+        <v>489410.2070754973</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>59527431</v>
+        <v>58864766</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1039301</v>
+        <v>1043029</v>
       </c>
       <c r="E133" t="n">
-        <v>1039301</v>
+        <v>1043029</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>12667.79</v>
+        <v>12287.76</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>508230</v>
+        <v>501623</v>
       </c>
       <c r="E134" t="n">
-        <v>1710631</v>
+        <v>1688394</v>
       </c>
       <c r="F134" t="n">
-        <v>238.1666057859824</v>
+        <v>204.664602725142</v>
       </c>
       <c r="G134" t="n">
-        <v>152.4669014125514</v>
+        <v>117.8346525410542</v>
       </c>
       <c r="H134" t="n">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="I134" t="n">
-        <v>631658</v>
+        <v>632655</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>16460371</v>
+        <v>16458511</v>
       </c>
       <c r="F135" t="n">
-        <v>4.002857868076807</v>
+        <v>3.845274933519741</v>
       </c>
       <c r="G135" t="n">
-        <v>4.899274103636204</v>
+        <v>4.226867637551892</v>
       </c>
       <c r="H135" t="n">
         <v>0.64</v>
       </c>
       <c r="I135" t="n">
-        <v>739.55</v>
+        <v>739.27</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>138674247</v>
+        <v>137134960</v>
       </c>
       <c r="E136" t="n">
-        <v>1027216643</v>
+        <v>1015814517</v>
       </c>
       <c r="F136" t="n">
-        <v>59035.12365766314</v>
+        <v>27568.32899251168</v>
       </c>
       <c r="G136" t="n">
-        <v>59455.27216671957</v>
+        <v>40956.98707304241</v>
       </c>
       <c r="H136" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I136" t="n">
-        <v>12479995</v>
+        <v>12224918</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>33732690</v>
+        <v>31195171</v>
       </c>
       <c r="E137" t="n">
-        <v>160468350</v>
+        <v>148397226</v>
       </c>
       <c r="F137" t="n">
-        <v>16618.34961340957</v>
+        <v>17954.38468695775</v>
       </c>
       <c r="G137" t="n">
-        <v>36476.12826972863</v>
+        <v>18494.05861523858</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>1332600</v>
+        <v>1348236</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8241498</v>
+        <v>8039726</v>
       </c>
       <c r="E138" t="n">
-        <v>11041310</v>
+        <v>10770992</v>
       </c>
       <c r="F138" t="n">
-        <v>6.634186488698793</v>
+        <v>235.4764142774041</v>
       </c>
       <c r="G138" t="n">
-        <v>304.6880280761037</v>
+        <v>39.91977196266699</v>
       </c>
       <c r="H138" t="n">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="I138" t="n">
-        <v>60593</v>
+        <v>59676</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1257741</v>
+        <v>1264508</v>
       </c>
       <c r="F139" t="n">
-        <v>6.544518192648964</v>
+        <v>5.324585058223558</v>
       </c>
       <c r="G139" t="n">
-        <v>82.10726983187159</v>
+        <v>57.78651072781621</v>
       </c>
       <c r="H139" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="I139" t="n">
-        <v>48430</v>
+        <v>48438</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2392372</v>
+        <v>2360782</v>
       </c>
       <c r="E140" t="n">
-        <v>2392372</v>
+        <v>2360782</v>
       </c>
       <c r="F140" t="n">
-        <v>396.1213238538912</v>
+        <v>17.78088021671239</v>
       </c>
       <c r="G140" t="n">
-        <v>201.6614544443451</v>
+        <v>381.70350264509</v>
       </c>
       <c r="H140" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I140" t="n">
-        <v>281462</v>
+        <v>273275</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>25969008</v>
+        <v>25996730</v>
       </c>
       <c r="E141" t="n">
-        <v>25969008</v>
+        <v>25996730</v>
       </c>
       <c r="F141" t="n">
-        <v>858.5079513013842</v>
+        <v>904.0362028804674</v>
       </c>
       <c r="G141" t="n">
-        <v>1687.70201354838</v>
+        <v>1167.802703452277</v>
       </c>
       <c r="H141" t="n">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="I141" t="n">
-        <v>354983</v>
+        <v>348049</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6478237</v>
+        <v>6418517</v>
       </c>
       <c r="E142" t="n">
-        <v>6841744</v>
+        <v>6778673</v>
       </c>
       <c r="F142" t="n">
-        <v>775.036308111478</v>
+        <v>1196.429611500725</v>
       </c>
       <c r="G142" t="n">
-        <v>237.6099347476652</v>
+        <v>1956.24409147035</v>
       </c>
       <c r="H142" t="n">
         <v>0.29</v>
       </c>
       <c r="I142" t="n">
-        <v>69081</v>
+        <v>68207</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3365589</v>
+        <v>3355411</v>
       </c>
       <c r="E143" t="n">
-        <v>7859210</v>
+        <v>7835443</v>
       </c>
       <c r="F143" t="n">
-        <v>1929.737798356978</v>
+        <v>1800.881048312605</v>
       </c>
       <c r="G143" t="n">
-        <v>810.8018128693755</v>
+        <v>917.4101872581626</v>
       </c>
       <c r="H143" t="n">
-        <v>0.49</v>
+        <v>0.88</v>
       </c>
       <c r="I143" t="n">
-        <v>754043</v>
+        <v>758126</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1632240</v>
+        <v>1570320</v>
       </c>
       <c r="E144" t="n">
-        <v>12712756</v>
+        <v>12196283</v>
       </c>
       <c r="F144" t="n">
-        <v>200.5418489238271</v>
+        <v>282.5501666595364</v>
       </c>
       <c r="G144" t="n">
-        <v>1535.795037994276</v>
+        <v>1118.63432740567</v>
       </c>
       <c r="H144" t="n">
-        <v>1.63</v>
+        <v>0.11</v>
       </c>
       <c r="I144" t="n">
-        <v>517042</v>
+        <v>521181</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>337957943</v>
+        <v>329969349</v>
       </c>
       <c r="E145" t="n">
-        <v>3040479219</v>
+        <v>2968608868</v>
       </c>
       <c r="F145" t="n">
-        <v>609515.8959889503</v>
+        <v>527024.0103300749</v>
       </c>
       <c r="G145" t="n">
-        <v>620319.2515858104</v>
+        <v>683664.8908091872</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>38162806</v>
+        <v>37145675</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>256433</v>
+        <v>257506</v>
       </c>
       <c r="E146" t="n">
-        <v>2263214</v>
+        <v>2272681</v>
       </c>
       <c r="F146" t="n">
-        <v>4.076423477198589</v>
+        <v>4.093088508921772</v>
       </c>
       <c r="G146" t="n">
-        <v>3.983657842643276</v>
+        <v>5.436296394032635</v>
       </c>
       <c r="H146" t="n">
-        <v>0.62</v>
+        <v>0.97</v>
       </c>
       <c r="I146" t="n">
-        <v>91131</v>
+        <v>93999</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>651041</v>
+        <v>645339</v>
       </c>
       <c r="F147" t="n">
-        <v>930.2806556140739</v>
+        <v>930.2654373408061</v>
       </c>
       <c r="G147" t="n">
-        <v>584.8974646500587</v>
+        <v>584.8878964306219</v>
       </c>
       <c r="H147" t="n">
         <v>0.19</v>
       </c>
       <c r="I147" t="n">
-        <v>6247.79</v>
+        <v>6548.63</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4914147</v>
+        <v>4912627</v>
       </c>
       <c r="E148" t="n">
-        <v>17365244</v>
+        <v>17359871</v>
       </c>
       <c r="F148" t="n">
-        <v>1608.978373713165</v>
+        <v>1592.795165253797</v>
       </c>
       <c r="G148" t="n">
-        <v>2391.137018410415</v>
+        <v>2271.953257358071</v>
       </c>
       <c r="H148" t="n">
         <v>0.23</v>
       </c>
       <c r="I148" t="n">
-        <v>100751</v>
+        <v>106158</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8897520</v>
+        <v>8895846</v>
       </c>
       <c r="E149" t="n">
-        <v>41240516</v>
+        <v>41232757</v>
       </c>
       <c r="F149" t="n">
-        <v>2349.612021100225</v>
+        <v>2320.90723264219</v>
       </c>
       <c r="G149" t="n">
-        <v>2210.950596680393</v>
+        <v>2844.241281211452</v>
       </c>
       <c r="H149" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="I149" t="n">
-        <v>96235</v>
+        <v>93971</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>42887369</v>
+        <v>42531743</v>
       </c>
       <c r="E150" t="n">
-        <v>248300145</v>
+        <v>246241217</v>
       </c>
       <c r="F150" t="n">
-        <v>55591.61353570529</v>
+        <v>79406.90834713817</v>
       </c>
       <c r="G150" t="n">
-        <v>64716.66579742944</v>
+        <v>72683.36103244369</v>
       </c>
       <c r="H150" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I150" t="n">
-        <v>11099054</v>
+        <v>11312723</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>83765</v>
+        <v>83628</v>
       </c>
       <c r="E151" t="n">
-        <v>83765</v>
+        <v>83628</v>
       </c>
       <c r="F151" t="n">
-        <v>9.237209820892559</v>
+        <v>10.7123411510375</v>
       </c>
       <c r="G151" t="n">
-        <v>10.62917890978744</v>
+        <v>9.155470292272311</v>
       </c>
       <c r="H151" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="I151" t="n">
-        <v>19929.6</v>
+        <v>20198</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4366427</v>
+        <v>4367394</v>
       </c>
       <c r="F152" t="n">
-        <v>121.3218522144691</v>
+        <v>405.5352536556818</v>
       </c>
       <c r="G152" t="n">
-        <v>218.7686290186274</v>
+        <v>95.7492490989589</v>
       </c>
       <c r="H152" t="n">
         <v>0.44</v>
       </c>
       <c r="I152" t="n">
-        <v>314117</v>
+        <v>317606</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39687560</v>
+        <v>39556846</v>
       </c>
       <c r="E153" t="n">
-        <v>54814172</v>
+        <v>54633637</v>
       </c>
       <c r="F153" t="n">
-        <v>656.677606103233</v>
+        <v>4671.076866937844</v>
       </c>
       <c r="G153" t="n">
-        <v>97.90051958748667</v>
+        <v>6752.708361888073</v>
       </c>
       <c r="H153" t="n">
-        <v>0.08</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I153" t="n">
-        <v>346500</v>
+        <v>332151</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2106985</v>
+        <v>2152100</v>
       </c>
       <c r="E154" t="n">
-        <v>8604379</v>
+        <v>8788621</v>
       </c>
       <c r="F154" t="n">
-        <v>711.7933204314012</v>
+        <v>1375.418259032661</v>
       </c>
       <c r="G154" t="n">
-        <v>288.3470165312961</v>
+        <v>634.4963375962298</v>
       </c>
       <c r="H154" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="I154" t="n">
-        <v>543971</v>
+        <v>557791</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7387530</v>
+        <v>7267938</v>
       </c>
       <c r="E155" t="n">
-        <v>7442444</v>
+        <v>7321963</v>
       </c>
       <c r="F155" t="n">
-        <v>8438.871026178713</v>
+        <v>4902.430229323579</v>
       </c>
       <c r="G155" t="n">
-        <v>2224.230895486618</v>
+        <v>1487.127208111929</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I155" t="n">
-        <v>4832441</v>
+        <v>4878225</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>539504</v>
+        <v>533044</v>
       </c>
       <c r="E156" t="n">
-        <v>539504</v>
+        <v>533044</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>34.98</v>
+        <v>30.16</v>
       </c>
       <c r="I156" t="n">
-        <v>5473.78</v>
+        <v>5755.88</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13677149</v>
+        <v>13475624</v>
       </c>
       <c r="E157" t="n">
-        <v>13723693</v>
+        <v>13521483</v>
       </c>
       <c r="F157" t="n">
-        <v>5126.860224206888</v>
+        <v>1840.908122659228</v>
       </c>
       <c r="G157" t="n">
-        <v>3526.777645804118</v>
+        <v>3984.215197139749</v>
       </c>
       <c r="H157" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I157" t="n">
-        <v>5602473</v>
+        <v>5745750</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42835665</v>
+        <v>42856992</v>
       </c>
       <c r="E158" t="n">
-        <v>72724994</v>
+        <v>72761202</v>
       </c>
       <c r="F158" t="n">
-        <v>398.560652924108</v>
+        <v>439.6641170457337</v>
       </c>
       <c r="G158" t="n">
-        <v>942.8167708031758</v>
+        <v>822.7780124095405</v>
       </c>
       <c r="H158" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I158" t="n">
-        <v>1137500</v>
+        <v>1149131</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>26426155</v>
+        <v>26083802</v>
       </c>
       <c r="E159" t="n">
-        <v>79214783</v>
+        <v>78187171</v>
       </c>
       <c r="F159" t="n">
-        <v>4572.902118501927</v>
+        <v>17680.34405053291</v>
       </c>
       <c r="G159" t="n">
-        <v>5304.781850820871</v>
+        <v>12997.38323764755</v>
       </c>
       <c r="H159" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I159" t="n">
-        <v>2333680</v>
+        <v>2415387</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101451084</v>
+        <v>100874835</v>
       </c>
       <c r="E160" t="n">
-        <v>107851671</v>
+        <v>107239066</v>
       </c>
       <c r="F160" t="n">
-        <v>1010.589953372796</v>
+        <v>850.948588632759</v>
       </c>
       <c r="G160" t="n">
-        <v>1152.251382458141</v>
+        <v>1212.853937774866</v>
       </c>
       <c r="H160" t="n">
-        <v>0.49</v>
+        <v>1.08</v>
       </c>
       <c r="I160" t="n">
-        <v>941627</v>
+        <v>977800</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10646029</v>
+        <v>10658287</v>
       </c>
       <c r="E161" t="n">
-        <v>46410952</v>
+        <v>46361685</v>
       </c>
       <c r="F161" t="n">
-        <v>3647.62614935841</v>
+        <v>3640.001525874591</v>
       </c>
       <c r="G161" t="n">
-        <v>4004.570922062079</v>
+        <v>3019.724673946183</v>
       </c>
       <c r="H161" t="n">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="I161" t="n">
-        <v>110951</v>
+        <v>112229</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15302336</v>
+        <v>15044755</v>
       </c>
       <c r="E162" t="n">
-        <v>93793049</v>
+        <v>92214251</v>
       </c>
       <c r="F162" t="n">
-        <v>2400.472239744954</v>
+        <v>1820.852786766563</v>
       </c>
       <c r="G162" t="n">
-        <v>787.4909845692732</v>
+        <v>1405.626506733769</v>
       </c>
       <c r="H162" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I162" t="n">
-        <v>11640405</v>
+        <v>11804900</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1496668</v>
+        <v>1468877</v>
       </c>
       <c r="E163" t="n">
-        <v>1538768</v>
+        <v>1510195</v>
       </c>
       <c r="F163" t="n">
-        <v>88.47314081701862</v>
+        <v>97.40893277160598</v>
       </c>
       <c r="G163" t="n">
-        <v>64.15316190498945</v>
+        <v>64.15186344962009</v>
       </c>
       <c r="H163" t="n">
-        <v>0.86</v>
+        <v>1.46</v>
       </c>
       <c r="I163" t="n">
-        <v>139869</v>
+        <v>82528</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96903</v>
+        <v>97031</v>
       </c>
       <c r="E164" t="n">
-        <v>274892</v>
+        <v>275255</v>
       </c>
       <c r="F164" t="n">
-        <v>4.029037072854374</v>
+        <v>4.02901484869274</v>
       </c>
       <c r="G164" t="n">
-        <v>80.36653118169322</v>
+        <v>80.36608788004406</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>47.65</v>
+        <v>47.71</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46169358</v>
+        <v>45830059</v>
       </c>
       <c r="E165" t="n">
-        <v>198892547</v>
+        <v>197430883</v>
       </c>
       <c r="F165" t="n">
-        <v>4599.496740660559</v>
+        <v>4236.011126029239</v>
       </c>
       <c r="G165" t="n">
-        <v>4978.565079351334</v>
+        <v>5825.690139084976</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I165" t="n">
-        <v>8568603</v>
+        <v>8327070</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7759903</v>
+        <v>7922701</v>
       </c>
       <c r="F166" t="n">
-        <v>508.3345407841622</v>
+        <v>487.3060029721782</v>
       </c>
       <c r="G166" t="n">
-        <v>157.2331686891969</v>
+        <v>2268.847724685279</v>
       </c>
       <c r="H166" t="n">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
       <c r="I166" t="n">
-        <v>6397512</v>
+        <v>6386608</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>666787</v>
+        <v>664361</v>
       </c>
       <c r="E167" t="n">
-        <v>2407505</v>
+        <v>2398745</v>
       </c>
       <c r="F167" t="n">
-        <v>63.93707600518145</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>10.87158692234815</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>1.2</v>
+        <v>6.11</v>
       </c>
       <c r="I167" t="n">
-        <v>369157</v>
+        <v>370999</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1657239</v>
+        <v>1642405</v>
       </c>
       <c r="F168" t="n">
-        <v>572.3682358637792</v>
+        <v>728.4862318431987</v>
       </c>
       <c r="G168" t="n">
-        <v>13.99772487245499</v>
+        <v>13.01910561028425</v>
       </c>
       <c r="H168" t="n">
         <v>1.5</v>
       </c>
       <c r="I168" t="n">
-        <v>88499</v>
+        <v>89405</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13114699</v>
+        <v>12988127</v>
       </c>
       <c r="E169" t="n">
-        <v>13114699</v>
+        <v>12988127</v>
       </c>
       <c r="F169" t="n">
-        <v>130.2773921325152</v>
+        <v>160.8313912567129</v>
       </c>
       <c r="G169" t="n">
-        <v>409.5980208774397</v>
+        <v>564.8105393318891</v>
       </c>
       <c r="H169" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I169" t="n">
-        <v>2789250</v>
+        <v>2678014</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1725908</v>
+        <v>1730179</v>
       </c>
       <c r="E170" t="n">
-        <v>6271884</v>
+        <v>6287351</v>
       </c>
       <c r="F170" t="n">
-        <v>138.1814980101348</v>
+        <v>140.7498364699219</v>
       </c>
       <c r="G170" t="n">
-        <v>171.4575954561464</v>
+        <v>162.9190777166929</v>
       </c>
       <c r="H170" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="I170" t="n">
-        <v>135766</v>
+        <v>134316</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>9077092</v>
+        <v>9026382</v>
       </c>
       <c r="E171" t="n">
-        <v>20165459</v>
+        <v>20047622</v>
       </c>
       <c r="F171" t="n">
-        <v>1717.166687630439</v>
+        <v>1789.858133961452</v>
       </c>
       <c r="G171" t="n">
-        <v>1620.600452568551</v>
+        <v>1550.22599424775</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="I171" t="n">
-        <v>416976</v>
+        <v>405354</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1022125</v>
+        <v>1020421</v>
       </c>
       <c r="E172" t="n">
-        <v>2987495</v>
+        <v>2982513</v>
       </c>
       <c r="F172" t="n">
-        <v>98.97240815006406</v>
+        <v>87.97445935688771</v>
       </c>
       <c r="G172" t="n">
-        <v>669.5851548062661</v>
+        <v>126.8096312449372</v>
       </c>
       <c r="H172" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="I172" t="n">
-        <v>11773.3</v>
+        <v>13861.21</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>21265530</v>
+        <v>20906044</v>
       </c>
       <c r="E173" t="n">
-        <v>85062119</v>
+        <v>83624176</v>
       </c>
       <c r="F173" t="n">
-        <v>8347.60938680859</v>
+        <v>6397.962914441079</v>
       </c>
       <c r="G173" t="n">
-        <v>14115.76447359735</v>
+        <v>8380.899693403186</v>
       </c>
       <c r="H173" t="n">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="I173" t="n">
-        <v>5850677</v>
+        <v>5902732</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4315982</v>
+        <v>4314378</v>
       </c>
       <c r="E174" t="n">
-        <v>4315982</v>
+        <v>4314378</v>
       </c>
       <c r="F174" t="n">
-        <v>1438.754098329493</v>
+        <v>2317.855114273611</v>
       </c>
       <c r="G174" t="n">
-        <v>841.2865283614531</v>
+        <v>1023.516019012914</v>
       </c>
       <c r="H174" t="n">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="I174" t="n">
-        <v>2438743</v>
+        <v>2450100</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>297980913</v>
+        <v>290809364</v>
       </c>
       <c r="E175" t="n">
-        <v>297980913</v>
+        <v>290809364</v>
       </c>
       <c r="F175" t="n">
-        <v>4672.636821248351</v>
+        <v>5741.99203969591</v>
       </c>
       <c r="G175" t="n">
-        <v>2682.055691558579</v>
+        <v>3863.273844375779</v>
       </c>
       <c r="H175" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="I175" t="n">
-        <v>12724058</v>
+        <v>12469759</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12746827</v>
+        <v>12655688</v>
       </c>
       <c r="E176" t="n">
-        <v>40327386</v>
+        <v>40039048</v>
       </c>
       <c r="F176" t="n">
-        <v>3306.828959406458</v>
+        <v>2631.78594107705</v>
       </c>
       <c r="G176" t="n">
-        <v>3238.886797903522</v>
+        <v>3591.056643570824</v>
       </c>
       <c r="H176" t="n">
         <v>0.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1622422</v>
+        <v>1569118</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26671</v>
+        <v>26289</v>
       </c>
       <c r="E177" t="n">
-        <v>209764</v>
+        <v>206754</v>
       </c>
       <c r="F177" t="n">
-        <v>241.5625320061358</v>
+        <v>326.8929627506348</v>
       </c>
       <c r="G177" t="n">
-        <v>328.9509420264137</v>
+        <v>96.53895134253602</v>
       </c>
       <c r="H177" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I177" t="n">
-        <v>127287</v>
+        <v>126664</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8107786</v>
+        <v>8008026</v>
       </c>
       <c r="E178" t="n">
-        <v>8107786</v>
+        <v>8008026</v>
       </c>
       <c r="F178" t="n">
-        <v>1509.211040841229</v>
+        <v>1852.171326930967</v>
       </c>
       <c r="G178" t="n">
-        <v>1950.047408597652</v>
+        <v>2077.284141987398</v>
       </c>
       <c r="H178" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="I178" t="n">
-        <v>3797329</v>
+        <v>3478702</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1086390</v>
+        <v>1087719</v>
       </c>
       <c r="E179" t="n">
-        <v>2474361</v>
+        <v>2477387</v>
       </c>
       <c r="F179" t="n">
-        <v>425.6790719987071</v>
+        <v>425.7360880855887</v>
       </c>
       <c r="G179" t="n">
-        <v>7.637539594693775</v>
+        <v>7.637392287729487</v>
       </c>
       <c r="H179" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I179" t="n">
-        <v>4841.84</v>
+        <v>4843.41</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9736659</v>
+        <v>9752110</v>
       </c>
       <c r="E180" t="n">
-        <v>9736659</v>
+        <v>9752110</v>
       </c>
       <c r="F180" t="n">
-        <v>2062.719089665667</v>
+        <v>2159.271036459489</v>
       </c>
       <c r="G180" t="n">
-        <v>4958.713121047915</v>
+        <v>3902.554898604333</v>
       </c>
       <c r="H180" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="I180" t="n">
-        <v>2414701</v>
+        <v>2361353</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17161048</v>
+        <v>16717447</v>
       </c>
       <c r="E181" t="n">
-        <v>17161048</v>
+        <v>16717447</v>
       </c>
       <c r="F181" t="n">
-        <v>2962.780600447957</v>
+        <v>3495.666566797478</v>
       </c>
       <c r="G181" t="n">
-        <v>3129.878638624589</v>
+        <v>2675.326032646928</v>
       </c>
       <c r="H181" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="I181" t="n">
-        <v>3345815</v>
+        <v>3291932</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>32180062</v>
+        <v>31765923</v>
       </c>
       <c r="E182" t="n">
-        <v>89135578</v>
+        <v>87988454</v>
       </c>
       <c r="F182" t="n">
-        <v>6106.499409879772</v>
+        <v>5156.313257477518</v>
       </c>
       <c r="G182" t="n">
-        <v>5887.38892713102</v>
+        <v>5804.037284724633</v>
       </c>
       <c r="H182" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I182" t="n">
-        <v>9193628</v>
+        <v>11984571</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>36223613</v>
+        <v>35697731</v>
       </c>
       <c r="E183" t="n">
-        <v>91338562</v>
+        <v>90012539</v>
       </c>
       <c r="F183" t="n">
-        <v>14908.99015492664</v>
+        <v>15034.06370470402</v>
       </c>
       <c r="G183" t="n">
-        <v>11955.32131636124</v>
+        <v>13364.36235274031</v>
       </c>
       <c r="H183" t="n">
         <v>0.6</v>
       </c>
       <c r="I183" t="n">
-        <v>2820419</v>
+        <v>2819632</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>295690500</v>
+        <v>293034703</v>
       </c>
       <c r="E184" t="n">
-        <v>300312078</v>
+        <v>297614756</v>
       </c>
       <c r="F184" t="n">
-        <v>15266.04860877298</v>
+        <v>17009.64291552779</v>
       </c>
       <c r="G184" t="n">
-        <v>24617.84953461259</v>
+        <v>19684.0876849521</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>11669479</v>
+        <v>11495230</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>409957</v>
+        <v>403279</v>
       </c>
       <c r="F185" t="n">
-        <v>16.3916173185975</v>
+        <v>8.302341173073776</v>
       </c>
       <c r="G185" t="n">
-        <v>151.9512435202843</v>
+        <v>244.9208728991687</v>
       </c>
       <c r="H185" t="n">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="I185" t="n">
-        <v>61889</v>
+        <v>61245</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28169103</v>
+        <v>28081338</v>
       </c>
       <c r="E186" t="n">
-        <v>66922785</v>
+        <v>66714277</v>
       </c>
       <c r="F186" t="n">
-        <v>11201.13954391329</v>
+        <v>11247.20842925804</v>
       </c>
       <c r="G186" t="n">
-        <v>11137.55919195239</v>
+        <v>11059.67457925305</v>
       </c>
       <c r="H186" t="n">
         <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>646933</v>
+        <v>595280</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20491951</v>
+        <v>20034030</v>
       </c>
       <c r="F187" t="n">
-        <v>5.474851800750908</v>
+        <v>5.474983874482469</v>
       </c>
       <c r="G187" t="n">
-        <v>4.872618589729702</v>
+        <v>634.7143965150625</v>
       </c>
       <c r="H187" t="n">
         <v>0.95</v>
       </c>
       <c r="I187" t="n">
-        <v>1151.77</v>
+        <v>1158.19</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12045629</v>
+        <v>12022314</v>
       </c>
       <c r="E188" t="n">
-        <v>18358334</v>
+        <v>18322799</v>
       </c>
       <c r="F188" t="n">
-        <v>2602.942711506869</v>
+        <v>3572.801486868023</v>
       </c>
       <c r="G188" t="n">
-        <v>2271.954951777286</v>
+        <v>1540.599169697885</v>
       </c>
       <c r="H188" t="n">
-        <v>0.29</v>
+        <v>0.72</v>
       </c>
       <c r="I188" t="n">
-        <v>666102</v>
+        <v>668439</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>75184171</v>
+        <v>75820312</v>
       </c>
       <c r="E189" t="n">
-        <v>75184171</v>
+        <v>75820312</v>
       </c>
       <c r="F189" t="n">
-        <v>5637.800412104835</v>
+        <v>4355.958044850541</v>
       </c>
       <c r="G189" t="n">
-        <v>47269.87710461245</v>
+        <v>9886.187279360927</v>
       </c>
       <c r="H189" t="n">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
       <c r="I189" t="n">
-        <v>4442698</v>
+        <v>4638403</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>300642893</v>
+        <v>296864630</v>
       </c>
       <c r="E190" t="n">
-        <v>300642893</v>
+        <v>296864630</v>
       </c>
       <c r="F190" t="n">
-        <v>187629.9667412948</v>
+        <v>209942.7936172076</v>
       </c>
       <c r="G190" t="n">
-        <v>297429.8942704194</v>
+        <v>268104.6309940169</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>51898645</v>
+        <v>50240418</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9490231</v>
+        <v>9447838</v>
       </c>
       <c r="E191" t="n">
-        <v>26944349</v>
+        <v>26823987</v>
       </c>
       <c r="F191" t="n">
-        <v>3337.418219672504</v>
+        <v>714.63395312843</v>
       </c>
       <c r="G191" t="n">
-        <v>665.6448936277751</v>
+        <v>974.9743116719517</v>
       </c>
       <c r="H191" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="I191" t="n">
-        <v>118064</v>
+        <v>114065</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4134376</v>
+        <v>4117603</v>
       </c>
       <c r="E192" t="n">
-        <v>28249897</v>
+        <v>28135294</v>
       </c>
       <c r="F192" t="n">
-        <v>3156.414423138815</v>
+        <v>2835.137820356344</v>
       </c>
       <c r="G192" t="n">
-        <v>2576.214683410239</v>
+        <v>3464.710904211516</v>
       </c>
       <c r="H192" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="I192" t="n">
-        <v>2538650</v>
+        <v>2522280</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3214527</v>
+        <v>3156748</v>
       </c>
       <c r="E193" t="n">
-        <v>4772639</v>
+        <v>4686319</v>
       </c>
       <c r="F193" t="n">
-        <v>880.2464287686968</v>
+        <v>272.3760418538179</v>
       </c>
       <c r="G193" t="n">
-        <v>244.2119247157436</v>
+        <v>369.5752494719245</v>
       </c>
       <c r="H193" t="n">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="I193" t="n">
-        <v>214190</v>
+        <v>222260</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>89197912</v>
+        <v>88692076</v>
       </c>
       <c r="E194" t="n">
-        <v>513996843</v>
+        <v>511081998</v>
       </c>
       <c r="F194" t="n">
-        <v>516246.7183586903</v>
+        <v>553698.081270221</v>
       </c>
       <c r="G194" t="n">
-        <v>440625.0233325303</v>
+        <v>533848.2998668776</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I194" t="n">
-        <v>15882552</v>
+        <v>15886614</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>730907</v>
+        <v>725509</v>
       </c>
       <c r="E195" t="n">
-        <v>797121</v>
+        <v>791235</v>
       </c>
       <c r="F195" t="n">
-        <v>4.06059194620279</v>
+        <v>4.060557726403368</v>
       </c>
       <c r="G195" t="n">
-        <v>5.339892018645023</v>
+        <v>5.339847017808634</v>
       </c>
       <c r="H195" t="n">
         <v>0.18</v>
       </c>
       <c r="I195" t="n">
-        <v>84205</v>
+        <v>82999</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>107774995</v>
+        <v>106711665</v>
       </c>
       <c r="E196" t="n">
-        <v>265168595</v>
+        <v>262552387</v>
       </c>
       <c r="F196" t="n">
-        <v>36586.19019625216</v>
+        <v>38569.43935260442</v>
       </c>
       <c r="G196" t="n">
-        <v>33911.15700820567</v>
+        <v>42631.83574935501</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2429911</v>
+        <v>2400667</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17386360</v>
+        <v>17791816</v>
       </c>
       <c r="E197" t="n">
-        <v>17386360</v>
+        <v>17791816</v>
       </c>
       <c r="F197" t="n">
-        <v>6.928708904270897</v>
+        <v>6.928943405733841</v>
       </c>
       <c r="G197" t="n">
-        <v>48.72526088978258</v>
+        <v>46.5598897490075</v>
       </c>
       <c r="H197" t="n">
-        <v>0.49</v>
+        <v>1.06</v>
       </c>
       <c r="I197" t="n">
-        <v>22564</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1302586</v>
+        <v>1302072</v>
       </c>
       <c r="F198" t="n">
-        <v>3.955664784362169</v>
+        <v>2.955373401554756</v>
       </c>
       <c r="G198" t="n">
-        <v>82.19617147429325</v>
+        <v>82.19407971737368</v>
       </c>
       <c r="H198" t="n">
         <v>0.54</v>
       </c>
       <c r="I198" t="n">
-        <v>3082.6</v>
+        <v>3556.87</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>128629</v>
+        <v>145035</v>
       </c>
       <c r="E199" t="n">
-        <v>280024</v>
+        <v>315738</v>
       </c>
       <c r="F199" t="n">
-        <v>5.243611646111819</v>
+        <v>5.243583214249149</v>
       </c>
       <c r="G199" t="n">
-        <v>2.855338584176237</v>
+        <v>3.849615654184058</v>
       </c>
       <c r="H199" t="n">
         <v>0.14</v>
       </c>
       <c r="I199" t="n">
-        <v>45241</v>
+        <v>52125</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2279424</v>
+        <v>2261374</v>
       </c>
       <c r="F200" t="n">
-        <v>35.25332142185473</v>
+        <v>118.1851732751215</v>
       </c>
       <c r="G200" t="n">
-        <v>300.2174420236728</v>
+        <v>133.1818263376994</v>
       </c>
       <c r="H200" t="n">
-        <v>3.08</v>
+        <v>2.2</v>
       </c>
       <c r="I200" t="n">
-        <v>154146</v>
+        <v>152061</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>181429</v>
+        <v>185745</v>
       </c>
       <c r="E201" t="n">
-        <v>1400999</v>
+        <v>1434324</v>
       </c>
       <c r="F201" t="n">
-        <v>3.995151341691188</v>
+        <v>4.072051921999601</v>
       </c>
       <c r="G201" t="n">
-        <v>431.8131613824464</v>
+        <v>284.5640945795093</v>
       </c>
       <c r="H201" t="n">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="I201" t="n">
-        <v>140814</v>
+        <v>135922</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30357644</v>
+        <v>29826013</v>
       </c>
       <c r="E202" t="n">
-        <v>135923628</v>
+        <v>133543297</v>
       </c>
       <c r="F202" t="n">
-        <v>8191.431283451857</v>
+        <v>8904.115174746605</v>
       </c>
       <c r="G202" t="n">
-        <v>14061.09259162975</v>
+        <v>10875.569298655</v>
       </c>
       <c r="H202" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I202" t="n">
-        <v>9433225</v>
+        <v>8986013</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13088499</v>
+        <v>13100744</v>
       </c>
       <c r="E203" t="n">
-        <v>26165570</v>
+        <v>26190049</v>
       </c>
       <c r="F203" t="n">
-        <v>719.7801959734785</v>
+        <v>752.7029743508882</v>
       </c>
       <c r="G203" t="n">
-        <v>705.8337128751507</v>
+        <v>710.8394157852489</v>
       </c>
       <c r="H203" t="n">
         <v>0.15</v>
       </c>
       <c r="I203" t="n">
-        <v>34309</v>
+        <v>47749</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1493942</v>
+        <v>1415734</v>
       </c>
       <c r="F204" t="n">
-        <v>0.009106147822750106</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>290.1494311069204</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>0.71</v>
+        <v>4.59</v>
       </c>
       <c r="I204" t="n">
-        <v>69638</v>
+        <v>33557</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>994279</v>
+        <v>995755</v>
       </c>
       <c r="E205" t="n">
-        <v>4598683</v>
+        <v>4605508</v>
       </c>
       <c r="F205" t="n">
-        <v>4270.983874028359</v>
+        <v>4275.951806034336</v>
       </c>
       <c r="G205" t="n">
-        <v>2392.533695245049</v>
+        <v>2358.546610293947</v>
       </c>
       <c r="H205" t="n">
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="I205" t="n">
-        <v>412513</v>
+        <v>490959</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2968456</v>
+        <v>2921856</v>
       </c>
       <c r="E206" t="n">
-        <v>2968456</v>
+        <v>2921856</v>
       </c>
       <c r="F206" t="n">
-        <v>1072.047044026156</v>
+        <v>880.6994688741461</v>
       </c>
       <c r="G206" t="n">
-        <v>730.0275124739779</v>
+        <v>2832.225934097562</v>
       </c>
       <c r="H206" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I206" t="n">
-        <v>373363</v>
+        <v>362529</v>
       </c>
     </row>
     <row r="207">
@@ -7650,10 +7650,10 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>576810</v>
+        <v>577174</v>
       </c>
       <c r="E207" t="n">
-        <v>576810</v>
+        <v>577174</v>
       </c>
       <c r="F207" t="n">
         <v>4.001453196202731</v>
@@ -7665,7 +7665,7 @@
         <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>1385709</v>
+        <v>1402809</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13902013</v>
+        <v>13990989</v>
       </c>
       <c r="E208" t="n">
-        <v>17699482</v>
+        <v>17812763</v>
       </c>
       <c r="F208" t="n">
-        <v>128.1604101282224</v>
+        <v>153.841618721427</v>
       </c>
       <c r="G208" t="n">
-        <v>309.243697835477</v>
+        <v>211.0801044473702</v>
       </c>
       <c r="H208" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I208" t="n">
-        <v>784874</v>
+        <v>790086</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1962207</v>
+        <v>1976523</v>
       </c>
       <c r="E209" t="n">
-        <v>1962207</v>
+        <v>1976523</v>
       </c>
       <c r="F209" t="n">
-        <v>5.231754162516419</v>
+        <v>6.834493065419627</v>
       </c>
       <c r="G209" t="n">
-        <v>29.24288274987918</v>
+        <v>27.84200774232373</v>
       </c>
       <c r="H209" t="n">
         <v>0.8</v>
       </c>
       <c r="I209" t="n">
-        <v>4183.02</v>
+        <v>3101.28</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6052713</v>
+        <v>6083345</v>
       </c>
       <c r="E210" t="n">
-        <v>15885386</v>
+        <v>15965774</v>
       </c>
       <c r="F210" t="n">
-        <v>1769.781038168351</v>
+        <v>1719.169013778619</v>
       </c>
       <c r="G210" t="n">
-        <v>1185.376519440422</v>
+        <v>729.7421506157343</v>
       </c>
       <c r="H210" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="I210" t="n">
-        <v>73791</v>
+        <v>74434</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28518228</v>
+        <v>28583589</v>
       </c>
       <c r="F211" t="n">
-        <v>145.4851070541983</v>
+        <v>509.3921119072748</v>
       </c>
       <c r="G211" t="n">
-        <v>2556.984876122104</v>
+        <v>2050.787330546503</v>
       </c>
       <c r="H211" t="n">
-        <v>0.59</v>
+        <v>0.28</v>
       </c>
       <c r="I211" t="n">
-        <v>340931</v>
+        <v>342249</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>18095919</v>
+        <v>18021639</v>
       </c>
       <c r="E212" t="n">
-        <v>18096039</v>
+        <v>18021732</v>
       </c>
       <c r="F212" t="n">
-        <v>12320.80793612166</v>
+        <v>9646.355963346474</v>
       </c>
       <c r="G212" t="n">
-        <v>12057.80902531641</v>
+        <v>27515.60793158588</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2706000</v>
+        <v>2844660</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47662382</v>
+        <v>46527702</v>
       </c>
       <c r="E213" t="n">
-        <v>309077860</v>
+        <v>301719764</v>
       </c>
       <c r="F213" t="n">
-        <v>167830.059300763</v>
+        <v>125319.2771160218</v>
       </c>
       <c r="G213" t="n">
-        <v>213227.4450878259</v>
+        <v>210852.1863032866</v>
       </c>
       <c r="H213" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="I213" t="n">
-        <v>16860929</v>
+        <v>17309817</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9263600</v>
+        <v>9236685</v>
       </c>
       <c r="F214" t="n">
-        <v>227.6973360696034</v>
+        <v>4.927212665091832</v>
       </c>
       <c r="G214" t="n">
-        <v>4.040198463829447</v>
+        <v>1.103450533100391</v>
       </c>
       <c r="H214" t="n">
-        <v>0.65</v>
+        <v>2.69</v>
       </c>
       <c r="I214" t="n">
-        <v>291271</v>
+        <v>291943</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6880485</v>
+        <v>6842713</v>
       </c>
       <c r="E215" t="n">
-        <v>6890293</v>
+        <v>6852467</v>
       </c>
       <c r="F215" t="n">
-        <v>77.47381565999015</v>
+        <v>1447.874307627106</v>
       </c>
       <c r="G215" t="n">
-        <v>2062.400675366324</v>
+        <v>66.92409075429559</v>
       </c>
       <c r="H215" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="I215" t="n">
-        <v>982190</v>
+        <v>989277</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4769318</v>
+        <v>4768677</v>
       </c>
       <c r="F216" t="n">
-        <v>2197.4608651628</v>
+        <v>2191.801462535237</v>
       </c>
       <c r="G216" t="n">
-        <v>160.1238352779801</v>
+        <v>150.237493984507</v>
       </c>
       <c r="H216" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="I216" t="n">
-        <v>155301</v>
+        <v>155240</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2520409</v>
+        <v>2527156</v>
       </c>
       <c r="E217" t="n">
-        <v>4566196</v>
+        <v>4578419</v>
       </c>
       <c r="F217" t="n">
-        <v>220.3711446156542</v>
+        <v>250.2709332185421</v>
       </c>
       <c r="G217" t="n">
-        <v>131.2175399956829</v>
+        <v>1061.226896391953</v>
       </c>
       <c r="H217" t="n">
-        <v>0.55</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I217" t="n">
-        <v>111637</v>
+        <v>104057</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125444964</v>
+        <v>125105020</v>
       </c>
       <c r="E218" t="n">
-        <v>2077471354</v>
+        <v>2071841597</v>
       </c>
       <c r="F218" t="n">
-        <v>4657.506315997279</v>
+        <v>6405.133815965258</v>
       </c>
       <c r="G218" t="n">
-        <v>10074.87721432578</v>
+        <v>17261.23398437466</v>
       </c>
       <c r="H218" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>5105034</v>
+        <v>5048202</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>74259515</v>
+        <v>72460781</v>
       </c>
       <c r="E219" t="n">
-        <v>75058870</v>
+        <v>73240774</v>
       </c>
       <c r="F219" t="n">
-        <v>19288.88854618884</v>
+        <v>16319.89383914451</v>
       </c>
       <c r="G219" t="n">
-        <v>22016.69803038668</v>
+        <v>19681.90110991005</v>
       </c>
       <c r="H219" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I219" t="n">
-        <v>8938715</v>
+        <v>8610672</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>236188838</v>
+        <v>233579344</v>
       </c>
       <c r="E220" t="n">
-        <v>236188838</v>
+        <v>233579344</v>
       </c>
       <c r="F220" t="n">
-        <v>99064.33361410991</v>
+        <v>99686.69291867923</v>
       </c>
       <c r="G220" t="n">
-        <v>114075.3217503238</v>
+        <v>134017.5784152489</v>
       </c>
       <c r="H220" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>43054490</v>
+        <v>42886818</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23535804</v>
+        <v>23003558</v>
       </c>
       <c r="E221" t="n">
-        <v>140819446</v>
+        <v>137634912</v>
       </c>
       <c r="F221" t="n">
-        <v>54275.93809159836</v>
+        <v>72528.10036252374</v>
       </c>
       <c r="G221" t="n">
-        <v>74310.96779154114</v>
+        <v>87847.65116503504</v>
       </c>
       <c r="H221" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I221" t="n">
-        <v>13157137</v>
+        <v>12767782</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>992638</v>
+        <v>1013545</v>
       </c>
       <c r="F222" t="n">
-        <v>480.0075264583045</v>
+        <v>685.6173772757862</v>
       </c>
       <c r="G222" t="n">
-        <v>98.98637111282451</v>
+        <v>317.3039439923122</v>
       </c>
       <c r="H222" t="n">
-        <v>1.67</v>
+        <v>2.23</v>
       </c>
       <c r="I222" t="n">
-        <v>73986</v>
+        <v>73228</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2288336</v>
+        <v>2289621</v>
       </c>
       <c r="F223" t="n">
-        <v>138.8022596153369</v>
+        <v>150.6698676399193</v>
       </c>
       <c r="G223" t="n">
-        <v>185.0536504666705</v>
+        <v>180.5312393932982</v>
       </c>
       <c r="H223" t="n">
         <v>0.49</v>
       </c>
       <c r="I223" t="n">
-        <v>215130</v>
+        <v>214014</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14330955</v>
+        <v>14040083</v>
       </c>
       <c r="E224" t="n">
-        <v>43976672</v>
+        <v>43084088</v>
       </c>
       <c r="F224" t="n">
-        <v>3964.859133300394</v>
+        <v>819.9356871351737</v>
       </c>
       <c r="G224" t="n">
-        <v>2387.330712414694</v>
+        <v>1966.583576943585</v>
       </c>
       <c r="H224" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="I224" t="n">
-        <v>2536817</v>
+        <v>2499579</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52686546</v>
+        <v>52229233</v>
       </c>
       <c r="E225" t="n">
-        <v>91001118</v>
+        <v>90211240</v>
       </c>
       <c r="F225" t="n">
-        <v>7228.175924908318</v>
+        <v>14589.54010171486</v>
       </c>
       <c r="G225" t="n">
-        <v>7169.793721847011</v>
+        <v>11325.9631405935</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I225" t="n">
-        <v>1995446</v>
+        <v>1916080</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4270583</v>
+        <v>4214035</v>
       </c>
       <c r="E226" t="n">
-        <v>4270583</v>
+        <v>4214035</v>
       </c>
       <c r="F226" t="n">
-        <v>36.59653936273981</v>
+        <v>38.25997729919191</v>
       </c>
       <c r="G226" t="n">
-        <v>13.41206439110046</v>
+        <v>4.037313372679522</v>
       </c>
       <c r="H226" t="n">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="I226" t="n">
-        <v>1548679</v>
+        <v>1540785</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211432</v>
+        <v>210071</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>61968</v>
+        <v>62697</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6924259</v>
+        <v>6921776</v>
       </c>
       <c r="E228" t="n">
-        <v>35623208</v>
+        <v>35610436</v>
       </c>
       <c r="F228" t="n">
-        <v>100.9107274622838</v>
+        <v>99.51634929482897</v>
       </c>
       <c r="G228" t="n">
-        <v>715.9958890516202</v>
+        <v>111.1501297720494</v>
       </c>
       <c r="H228" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="I228" t="n">
-        <v>913323</v>
+        <v>911844</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>174630900</v>
+        <v>174490242</v>
       </c>
       <c r="E230" t="n">
-        <v>204020454</v>
+        <v>203856124</v>
       </c>
       <c r="F230" t="n">
-        <v>21970.77456196493</v>
+        <v>19267.22365507638</v>
       </c>
       <c r="G230" t="n">
-        <v>49393.57581914323</v>
+        <v>53306.42111946116</v>
       </c>
       <c r="H230" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="I230" t="n">
-        <v>4656431</v>
+        <v>4360031</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>305684</v>
+        <v>302621</v>
       </c>
       <c r="F231" t="n">
-        <v>122.5444944445124</v>
+        <v>375.1624716525728</v>
       </c>
       <c r="G231" t="n">
-        <v>96.50071745488508</v>
+        <v>115.3179734593261</v>
       </c>
       <c r="H231" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I231" t="n">
-        <v>255558</v>
+        <v>259567</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>28647481</v>
+        <v>28912129</v>
       </c>
       <c r="E232" t="n">
-        <v>39371397</v>
+        <v>39735114</v>
       </c>
       <c r="F232" t="n">
-        <v>4688.132500829018</v>
+        <v>7405.275756635724</v>
       </c>
       <c r="G232" t="n">
-        <v>7129.57355651771</v>
+        <v>9272.88798622102</v>
       </c>
       <c r="H232" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="I232" t="n">
-        <v>339674</v>
+        <v>387966</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>2201194</v>
+        <v>2371228</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1525274</v>
+        <v>1555874</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8066699</v>
+        <v>8053964</v>
       </c>
       <c r="F234" t="n">
-        <v>1118.510472563178</v>
+        <v>526.4537164793115</v>
       </c>
       <c r="G234" t="n">
-        <v>3083.478558185978</v>
+        <v>3334.747303523026</v>
       </c>
       <c r="H234" t="n">
         <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>722651</v>
+        <v>697894</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23388321</v>
+        <v>23281756</v>
       </c>
       <c r="E235" t="n">
-        <v>23388646</v>
+        <v>23281756</v>
       </c>
       <c r="F235" t="n">
-        <v>6419.331570587808</v>
+        <v>9115.181590478674</v>
       </c>
       <c r="G235" t="n">
-        <v>39039.32775684072</v>
+        <v>7048.398124362136</v>
       </c>
       <c r="H235" t="n">
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="I235" t="n">
-        <v>1851499</v>
+        <v>1815664</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3330003</v>
+        <v>3321847</v>
       </c>
       <c r="E236" t="n">
-        <v>4460749</v>
+        <v>4449824</v>
       </c>
       <c r="F236" t="n">
-        <v>199.02200938184</v>
+        <v>202.3688643332981</v>
       </c>
       <c r="G236" t="n">
-        <v>495.5525468036876</v>
+        <v>371.1979048579391</v>
       </c>
       <c r="H236" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="I236" t="n">
-        <v>149270</v>
+        <v>148138</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34251169</v>
+        <v>33568013</v>
       </c>
       <c r="E237" t="n">
-        <v>170929123</v>
+        <v>167519858</v>
       </c>
       <c r="F237" t="n">
-        <v>114324.5984895923</v>
+        <v>92294.90938769944</v>
       </c>
       <c r="G237" t="n">
-        <v>83334.19530371795</v>
+        <v>98520.43509786241</v>
       </c>
       <c r="H237" t="n">
         <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>9768904</v>
+        <v>9788064</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26454120</v>
+        <v>26319024</v>
       </c>
       <c r="E238" t="n">
-        <v>59637270</v>
+        <v>59332713</v>
       </c>
       <c r="F238" t="n">
-        <v>231.5726760274562</v>
+        <v>195.2757109969799</v>
       </c>
       <c r="G238" t="n">
-        <v>159.3145101461512</v>
+        <v>144.3946949243514</v>
       </c>
       <c r="H238" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="I238" t="n">
-        <v>461927</v>
+        <v>441235</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1998699</v>
+        <v>1919731</v>
       </c>
       <c r="E239" t="n">
-        <v>1998699</v>
+        <v>1919731</v>
       </c>
       <c r="F239" t="n">
-        <v>50.16884743948413</v>
+        <v>223.2391873672012</v>
       </c>
       <c r="G239" t="n">
-        <v>47.29279627076487</v>
+        <v>53.36564453155662</v>
       </c>
       <c r="H239" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="I239" t="n">
-        <v>7500.69</v>
+        <v>7314.65</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71909709</v>
+        <v>71750331</v>
       </c>
       <c r="F240" t="n">
-        <v>5.295901264134868</v>
+        <v>4.091728333553166</v>
       </c>
       <c r="G240" t="n">
-        <v>3.437280733810605</v>
+        <v>4.220113546601364</v>
       </c>
       <c r="H240" t="n">
         <v>0.72</v>
       </c>
       <c r="I240" t="n">
-        <v>67981</v>
+        <v>68247</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>927757</v>
+        <v>925667</v>
       </c>
       <c r="E241" t="n">
-        <v>927757</v>
+        <v>925667</v>
       </c>
       <c r="F241" t="n">
-        <v>4.099110176665169</v>
+        <v>3.901865585792775</v>
       </c>
       <c r="G241" t="n">
-        <v>5.680879053261847</v>
+        <v>5.384074704700911</v>
       </c>
       <c r="H241" t="n">
         <v>0.75</v>
       </c>
       <c r="I241" t="n">
-        <v>15815.38</v>
+        <v>15650.65</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>116931</v>
+        <v>118642</v>
       </c>
       <c r="E242" t="n">
-        <v>116931</v>
+        <v>118642</v>
       </c>
       <c r="F242" t="n">
-        <v>4.080018440860736</v>
+        <v>45.05451584042971</v>
       </c>
       <c r="G242" t="n">
-        <v>562.9263228780496</v>
+        <v>257.2095135022983</v>
       </c>
       <c r="H242" t="n">
-        <v>0.08</v>
+        <v>0.91</v>
       </c>
       <c r="I242" t="n">
-        <v>39227</v>
+        <v>39834</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3436217</v>
+        <v>3454202</v>
       </c>
       <c r="E243" t="n">
-        <v>4936453</v>
+        <v>4962290</v>
       </c>
       <c r="F243" t="n">
-        <v>132.4014010582306</v>
+        <v>499.0950269871252</v>
       </c>
       <c r="G243" t="n">
-        <v>94.07408710351058</v>
+        <v>71.37250428337539</v>
       </c>
       <c r="H243" t="n">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
-        <v>181375</v>
+        <v>176424</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>313218423</v>
+        <v>308623474</v>
       </c>
       <c r="E244" t="n">
-        <v>579525511</v>
+        <v>571023808</v>
       </c>
       <c r="F244" t="n">
-        <v>46709.3811158032</v>
+        <v>36588.92499543419</v>
       </c>
       <c r="G244" t="n">
-        <v>32256.62603498086</v>
+        <v>39337.05005128541</v>
       </c>
       <c r="H244" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I244" t="n">
-        <v>12204926</v>
+        <v>12353468</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>71337600</v>
+        <v>70324696</v>
       </c>
       <c r="E245" t="n">
-        <v>680660531</v>
+        <v>670988421</v>
       </c>
       <c r="F245" t="n">
-        <v>44637.72867607583</v>
+        <v>44647.21614968187</v>
       </c>
       <c r="G245" t="n">
-        <v>75795.9373509994</v>
+        <v>60645.05315797701</v>
       </c>
       <c r="H245" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>20760671</v>
+        <v>20803820</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81471</v>
+        <v>81378</v>
       </c>
       <c r="E246" t="n">
-        <v>677286</v>
+        <v>676508</v>
       </c>
       <c r="F246" t="n">
-        <v>11.96218813818532</v>
+        <v>11.96199245116671</v>
       </c>
       <c r="G246" t="n">
-        <v>5.448797080463971</v>
+        <v>5.448707944693544</v>
       </c>
       <c r="H246" t="n">
         <v>1</v>
       </c>
       <c r="I246" t="n">
-        <v>428.17</v>
+        <v>424.16</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1899197</v>
+        <v>1894994</v>
       </c>
       <c r="E247" t="n">
-        <v>5423862</v>
+        <v>5411860</v>
       </c>
       <c r="F247" t="n">
-        <v>288.4198690969934</v>
+        <v>376.4808740123235</v>
       </c>
       <c r="G247" t="n">
-        <v>406.490192768158</v>
+        <v>164.3748201523003</v>
       </c>
       <c r="H247" t="n">
         <v>0.31</v>
       </c>
       <c r="I247" t="n">
-        <v>74556</v>
+        <v>72887</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>38127990</v>
+        <v>37535789</v>
       </c>
       <c r="E248" t="n">
-        <v>49853013</v>
+        <v>49078418</v>
       </c>
       <c r="F248" t="n">
-        <v>11564.1342056822</v>
+        <v>11802.25599331117</v>
       </c>
       <c r="G248" t="n">
-        <v>6.488762009488055</v>
+        <v>215.9751793748738</v>
       </c>
       <c r="H248" t="n">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
       <c r="I248" t="n">
-        <v>538832</v>
+        <v>430867</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>10061121</v>
+        <v>10035506</v>
       </c>
       <c r="E249" t="n">
-        <v>30000181</v>
+        <v>29923804</v>
       </c>
       <c r="F249" t="n">
-        <v>753.2725177300947</v>
+        <v>487.7924040485508</v>
       </c>
       <c r="G249" t="n">
-        <v>2646.551887074926</v>
+        <v>2560.626459193023</v>
       </c>
       <c r="H249" t="n">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="I249" t="n">
-        <v>5289329</v>
+        <v>5396517</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2022353</v>
+        <v>2029001</v>
       </c>
       <c r="E250" t="n">
-        <v>5867497</v>
+        <v>5886783</v>
       </c>
       <c r="F250" t="n">
-        <v>32.44837000525452</v>
+        <v>129.2225352604946</v>
       </c>
       <c r="G250" t="n">
-        <v>246.8425773814608</v>
+        <v>194.9003385642434</v>
       </c>
       <c r="H250" t="n">
-        <v>0.6</v>
+        <v>0.09</v>
       </c>
       <c r="I250" t="n">
-        <v>68508</v>
+        <v>67852</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7273441</v>
+        <v>7221002</v>
       </c>
       <c r="E251" t="n">
-        <v>7273452</v>
+        <v>7221013</v>
       </c>
       <c r="F251" t="n">
-        <v>397.1096642199339</v>
+        <v>1047.199721551968</v>
       </c>
       <c r="G251" t="n">
-        <v>2285.09616024851</v>
+        <v>930.5319775835796</v>
       </c>
       <c r="H251" t="n">
-        <v>1.71</v>
+        <v>1.22</v>
       </c>
       <c r="I251" t="n">
-        <v>327367</v>
+        <v>337304</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5891128</v>
+        <v>5824561</v>
       </c>
       <c r="E252" t="n">
-        <v>5891128</v>
+        <v>5824561</v>
       </c>
       <c r="F252" t="n">
-        <v>714.2326959544183</v>
+        <v>375.9109689660031</v>
       </c>
       <c r="G252" t="n">
-        <v>1479.698117298645</v>
+        <v>1439.238529896903</v>
       </c>
       <c r="H252" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I252" t="n">
-        <v>382069</v>
+        <v>393726</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6194864</v>
+        <v>6203952</v>
       </c>
       <c r="E253" t="n">
-        <v>22627443</v>
+        <v>22660637</v>
       </c>
       <c r="F253" t="n">
-        <v>133.9630307959429</v>
+        <v>1323.091056755317</v>
       </c>
       <c r="G253" t="n">
-        <v>178.6256525295917</v>
+        <v>167.0402359466563</v>
       </c>
       <c r="H253" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="I253" t="n">
-        <v>457167</v>
+        <v>469125</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2118491</v>
+        <v>2260633</v>
       </c>
       <c r="E254" t="n">
-        <v>18686495</v>
+        <v>19940281</v>
       </c>
       <c r="F254" t="n">
-        <v>1802.865870914644</v>
+        <v>471.2312225795602</v>
       </c>
       <c r="G254" t="n">
-        <v>1988.42309369788</v>
+        <v>50.61542714634995</v>
       </c>
       <c r="H254" t="n">
-        <v>2.82</v>
+        <v>2.79</v>
       </c>
       <c r="I254" t="n">
-        <v>77445</v>
+        <v>80875</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14553953</v>
+        <v>14603796</v>
       </c>
       <c r="E255" t="n">
-        <v>29463589</v>
+        <v>29564493</v>
       </c>
       <c r="F255" t="n">
-        <v>96.31118065398648</v>
+        <v>47.9473385885906</v>
       </c>
       <c r="G255" t="n">
-        <v>297.8972010407599</v>
+        <v>435.9904976943869</v>
       </c>
       <c r="H255" t="n">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
       <c r="I255" t="n">
-        <v>517811</v>
+        <v>520413</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44789011</v>
+        <v>43981759</v>
       </c>
       <c r="E256" t="n">
-        <v>44789011</v>
+        <v>43981759</v>
       </c>
       <c r="F256" t="n">
-        <v>5391.288258632339</v>
+        <v>5634.70562481934</v>
       </c>
       <c r="G256" t="n">
-        <v>5344.014404000251</v>
+        <v>4476.85393847461</v>
       </c>
       <c r="H256" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="I256" t="n">
-        <v>7880820</v>
+        <v>7988055</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>7848462</v>
+        <v>7867558</v>
       </c>
       <c r="E257" t="n">
-        <v>11182259</v>
+        <v>11209467</v>
       </c>
       <c r="F257" t="n">
-        <v>350.3405941555438</v>
+        <v>265.9228196513293</v>
       </c>
       <c r="G257" t="n">
-        <v>136.3866434288221</v>
+        <v>134.582253344249</v>
       </c>
       <c r="H257" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I257" t="n">
-        <v>312018</v>
+        <v>309777</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>147601226</v>
+        <v>146459555</v>
       </c>
       <c r="F258" t="n">
-        <v>262.0041629144735</v>
+        <v>226.3618786171578</v>
       </c>
       <c r="G258" t="n">
-        <v>258.4651133541041</v>
+        <v>71.58855631767584</v>
       </c>
       <c r="H258" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="I258" t="n">
-        <v>923945</v>
+        <v>1272659</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16360445</v>
+        <v>16492207</v>
       </c>
       <c r="F259" t="n">
-        <v>97.41585410236775</v>
+        <v>121.4403413967724</v>
       </c>
       <c r="G259" t="n">
-        <v>147.26773340043</v>
+        <v>157.4285305433384</v>
       </c>
       <c r="H259" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I259" t="n">
-        <v>996853</v>
+        <v>982285</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>721743</v>
+        <v>723075</v>
       </c>
       <c r="F260" t="n">
-        <v>50.23394104864452</v>
+        <v>50.23765719774506</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01352942328666</v>
+        <v>28.01560177616195</v>
       </c>
       <c r="H260" t="n">
         <v>2.26</v>
       </c>
       <c r="I260" t="n">
-        <v>225085</v>
+        <v>225369</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3051116</v>
+        <v>3109769</v>
       </c>
       <c r="F261" t="n">
-        <v>53.32966028318646</v>
+        <v>13.09988050812184</v>
       </c>
       <c r="G261" t="n">
-        <v>23.41304367833268</v>
+        <v>59.69955901897275</v>
       </c>
       <c r="H261" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="I261" t="n">
-        <v>73930</v>
+        <v>75263</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2841804</v>
+        <v>2794574</v>
       </c>
       <c r="E262" t="n">
-        <v>2844265</v>
+        <v>2796995</v>
       </c>
       <c r="F262" t="n">
-        <v>5.389989492103211</v>
+        <v>52.54477488641339</v>
       </c>
       <c r="G262" t="n">
-        <v>30.39538181116495</v>
+        <v>25.04002575416779</v>
       </c>
       <c r="H262" t="n">
         <v>0.64</v>
       </c>
       <c r="I262" t="n">
-        <v>76488</v>
+        <v>63696</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61206309</v>
+        <v>61029172</v>
       </c>
       <c r="E263" t="n">
-        <v>101259686</v>
+        <v>100966630</v>
       </c>
       <c r="F263" t="n">
-        <v>8623.664512091156</v>
+        <v>8702.870388341315</v>
       </c>
       <c r="G263" t="n">
-        <v>11052.0187623564</v>
+        <v>9783.962402541614</v>
       </c>
       <c r="H263" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I263" t="n">
-        <v>5649832</v>
+        <v>5731080</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>700599</v>
+        <v>692867</v>
       </c>
       <c r="F264" t="n">
-        <v>169.6406557283387</v>
+        <v>3500.921250174761</v>
       </c>
       <c r="G264" t="n">
-        <v>250.5002602159676</v>
+        <v>232.4406300842123</v>
       </c>
       <c r="H264" t="n">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="I264" t="n">
-        <v>547185</v>
+        <v>553129</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1254958</v>
+        <v>1241730</v>
       </c>
       <c r="E265" t="n">
-        <v>3796688</v>
+        <v>3756238</v>
       </c>
       <c r="F265" t="n">
-        <v>48.99368337866013</v>
+        <v>48.99075493465339</v>
       </c>
       <c r="G265" t="n">
-        <v>1061.429339302668</v>
+        <v>1061.915542771015</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>13745.53</v>
+        <v>15721.14</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38401469</v>
+        <v>37304426</v>
       </c>
       <c r="E266" t="n">
-        <v>272260149</v>
+        <v>264482294</v>
       </c>
       <c r="F266" t="n">
-        <v>60055.35238516805</v>
+        <v>63392.96635418313</v>
       </c>
       <c r="G266" t="n">
-        <v>21005.76659133098</v>
+        <v>33005.19756261675</v>
       </c>
       <c r="H266" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I266" t="n">
-        <v>1935438</v>
+        <v>1817430</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>59351</v>
+        <v>58595</v>
       </c>
       <c r="E267" t="n">
-        <v>309668</v>
+        <v>305725</v>
       </c>
       <c r="F267" t="n">
-        <v>4.268134144942255</v>
+        <v>3.958315902442223</v>
       </c>
       <c r="G267" t="n">
-        <v>4.016002944003258</v>
+        <v>14.05522906959714</v>
       </c>
       <c r="H267" t="n">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="I267" t="n">
-        <v>303711</v>
+        <v>302140</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1260179</v>
+        <v>1256475</v>
       </c>
       <c r="E268" t="n">
-        <v>7815044</v>
+        <v>7792096</v>
       </c>
       <c r="F268" t="n">
-        <v>1993.443092143704</v>
+        <v>1642.055174112368</v>
       </c>
       <c r="G268" t="n">
-        <v>2887.847867886929</v>
+        <v>2436.552088833239</v>
       </c>
       <c r="H268" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I268" t="n">
-        <v>841848</v>
+        <v>815029</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>598683648</v>
+        <v>590601980</v>
       </c>
       <c r="E269" t="n">
-        <v>2318613438</v>
+        <v>2287314332</v>
       </c>
       <c r="F269" t="n">
-        <v>175914.1322600954</v>
+        <v>144448.1346159809</v>
       </c>
       <c r="G269" t="n">
-        <v>242044.4228480115</v>
+        <v>262982.0030514348</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>30593969</v>
+        <v>29788704</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3246025</v>
+        <v>3292021</v>
       </c>
       <c r="F270" t="n">
-        <v>162.9305404216178</v>
+        <v>405.2842589811671</v>
       </c>
       <c r="G270" t="n">
-        <v>565.6483574331866</v>
+        <v>112.0151477606581</v>
       </c>
       <c r="H270" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I270" t="n">
-        <v>30716</v>
+        <v>31171</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>959126</v>
+        <v>955272</v>
       </c>
       <c r="F271" t="n">
-        <v>25.03145089956657</v>
+        <v>25.03081389044939</v>
       </c>
       <c r="G271" t="n">
-        <v>433.3122238499122</v>
+        <v>314.2680278349083</v>
       </c>
       <c r="H271" t="n">
-        <v>3.14</v>
+        <v>2.72</v>
       </c>
       <c r="I271" t="n">
-        <v>401863</v>
+        <v>392955</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5809959</v>
+        <v>5796876</v>
       </c>
       <c r="E272" t="n">
-        <v>26011934</v>
+        <v>25953359</v>
       </c>
       <c r="F272" t="n">
-        <v>175.0551890765094</v>
+        <v>151.5249002431846</v>
       </c>
       <c r="G272" t="n">
-        <v>110.6685594344195</v>
+        <v>97.10344335886009</v>
       </c>
       <c r="H272" t="n">
         <v>0.51</v>
       </c>
       <c r="I272" t="n">
-        <v>142072</v>
+        <v>143323</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>5982295</v>
+        <v>5989057</v>
       </c>
       <c r="E273" t="n">
-        <v>11453588</v>
+        <v>11466535</v>
       </c>
       <c r="F273" t="n">
-        <v>4461.948825606055</v>
+        <v>96.90103175516711</v>
       </c>
       <c r="G273" t="n">
-        <v>3997.003886446906</v>
+        <v>60.00802006486848</v>
       </c>
       <c r="H273" t="n">
-        <v>0.82</v>
+        <v>3.75</v>
       </c>
       <c r="I273" t="n">
-        <v>176000</v>
+        <v>208301</v>
       </c>
     </row>
     <row r="274">
@@ -9987,10 +9987,10 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3292475</v>
+        <v>3283688</v>
       </c>
       <c r="E274" t="n">
-        <v>21650546</v>
+        <v>21592767</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
@@ -9999,10 +9999,10 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="I274" t="n">
-        <v>1421889</v>
+        <v>1383109</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3678405</v>
+        <v>3678252</v>
       </c>
       <c r="E275" t="n">
-        <v>6270341</v>
+        <v>6270081</v>
       </c>
       <c r="F275" t="n">
-        <v>664.2031252200089</v>
+        <v>710.4348593302645</v>
       </c>
       <c r="G275" t="n">
-        <v>496.5133943717096</v>
+        <v>456.9416834875865</v>
       </c>
       <c r="H275" t="n">
         <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>919569</v>
+        <v>1001372</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>387313</v>
+        <v>427668</v>
       </c>
       <c r="E276" t="n">
-        <v>387313</v>
+        <v>427668</v>
       </c>
       <c r="F276" t="n">
-        <v>9.117885569777373</v>
+        <v>3.88581208573965</v>
       </c>
       <c r="G276" t="n">
-        <v>3.998519061633036</v>
+        <v>4.09893478814236</v>
       </c>
       <c r="H276" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="I276" t="n">
-        <v>902.55</v>
+        <v>954.59</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7072495</v>
+        <v>7048104</v>
       </c>
       <c r="E277" t="n">
-        <v>10134621</v>
+        <v>10099646</v>
       </c>
       <c r="F277" t="n">
-        <v>991.0098927087153</v>
+        <v>137.6837633135002</v>
       </c>
       <c r="G277" t="n">
-        <v>723.3196938107925</v>
+        <v>2066.120691044814</v>
       </c>
       <c r="H277" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>142320</v>
+        <v>142638</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>118008151</v>
+        <v>116543007</v>
       </c>
       <c r="E278" t="n">
-        <v>1026008341</v>
+        <v>1013269816</v>
       </c>
       <c r="F278" t="n">
-        <v>9987.840411405425</v>
+        <v>10300.51406582461</v>
       </c>
       <c r="G278" t="n">
-        <v>10955.80420047751</v>
+        <v>10971.57881435556</v>
       </c>
       <c r="H278" t="n">
         <v>0.2</v>
       </c>
       <c r="I278" t="n">
-        <v>9609287</v>
+        <v>9366214</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>103530371</v>
+        <v>101820317</v>
       </c>
       <c r="E279" t="n">
-        <v>157938007</v>
+        <v>155329281</v>
       </c>
       <c r="F279" t="n">
-        <v>48354.93851890894</v>
+        <v>44349.26979810053</v>
       </c>
       <c r="G279" t="n">
-        <v>44876.48494216041</v>
+        <v>48841.05779695145</v>
       </c>
       <c r="H279" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="I279" t="n">
-        <v>7179557</v>
+        <v>7194811</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15865269</v>
+        <v>15770529</v>
       </c>
       <c r="E280" t="n">
-        <v>21765775</v>
+        <v>21635800</v>
       </c>
       <c r="F280" t="n">
-        <v>7887.86593836224</v>
+        <v>1886.427787333282</v>
       </c>
       <c r="G280" t="n">
-        <v>2040.593838792221</v>
+        <v>3118.41200998956</v>
       </c>
       <c r="H280" t="n">
         <v>0.09</v>
       </c>
       <c r="I280" t="n">
-        <v>370467</v>
+        <v>356853</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5699893</v>
+        <v>5636963</v>
       </c>
       <c r="E281" t="n">
-        <v>5699893</v>
+        <v>5636963</v>
       </c>
       <c r="F281" t="n">
-        <v>525.0508099105288</v>
+        <v>29.43264375194432</v>
       </c>
       <c r="G281" t="n">
-        <v>25.0634381714526</v>
+        <v>338.2042789005652</v>
       </c>
       <c r="H281" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="I281" t="n">
-        <v>768538</v>
+        <v>806371</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>108358185</v>
+        <v>106778504</v>
       </c>
       <c r="E282" t="n">
-        <v>415679437</v>
+        <v>409619528</v>
       </c>
       <c r="F282" t="n">
-        <v>41709.95922782802</v>
+        <v>46789.48520944131</v>
       </c>
       <c r="G282" t="n">
-        <v>63044.96161308684</v>
+        <v>71296.46326662149</v>
       </c>
       <c r="H282" t="n">
         <v>0.05</v>
       </c>
       <c r="I282" t="n">
-        <v>18914132</v>
+        <v>18618613</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>660814</v>
+        <v>756608</v>
       </c>
       <c r="F283" t="n">
-        <v>4.060238363631664</v>
+        <v>4.060233270664694</v>
       </c>
       <c r="G283" t="n">
-        <v>3.937928226117247</v>
+        <v>3.937923286570208</v>
       </c>
       <c r="H283" t="n">
         <v>0.49</v>
       </c>
       <c r="I283" t="n">
-        <v>46307</v>
+        <v>52545</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3221421</v>
+        <v>3166474</v>
       </c>
       <c r="E284" t="n">
-        <v>30523436</v>
+        <v>30002806</v>
       </c>
       <c r="F284" t="n">
-        <v>702.1138254878767</v>
+        <v>1467.614053276634</v>
       </c>
       <c r="G284" t="n">
-        <v>324.2964531290005</v>
+        <v>323.7740898478356</v>
       </c>
       <c r="H284" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>238091</v>
+        <v>240012</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>94294</v>
+        <v>93763</v>
       </c>
       <c r="F285" t="n">
-        <v>4.150385699008687</v>
+        <v>4.150321659562951</v>
       </c>
       <c r="G285" t="n">
-        <v>4.388010477475357</v>
+        <v>19.45313310394741</v>
       </c>
       <c r="H285" t="n">
         <v>3.82</v>
       </c>
       <c r="I285" t="n">
-        <v>3110.62</v>
+        <v>2033.76</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>149001</v>
+        <v>144948</v>
       </c>
       <c r="F286" t="n">
-        <v>3.953322705973391</v>
+        <v>3.953289390163322</v>
       </c>
       <c r="G286" t="n">
-        <v>5.209712819371373</v>
+        <v>5.209668915593282</v>
       </c>
       <c r="H286" t="n">
         <v>0.67</v>
       </c>
       <c r="I286" t="n">
-        <v>150167</v>
+        <v>116945</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22812349</v>
+        <v>22754323</v>
       </c>
       <c r="E287" t="n">
-        <v>22812349</v>
+        <v>22754323</v>
       </c>
       <c r="F287" t="n">
-        <v>1079.527670356264</v>
+        <v>1173.938935357393</v>
       </c>
       <c r="G287" t="n">
-        <v>610.860613787897</v>
+        <v>1543.696105939787</v>
       </c>
       <c r="H287" t="n">
         <v>0.22</v>
       </c>
       <c r="I287" t="n">
-        <v>544085</v>
+        <v>530547</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>576055</v>
+        <v>576263</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>454.38</v>
+        <v>454.75</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6040033</v>
+        <v>6024621</v>
       </c>
       <c r="E289" t="n">
-        <v>37748477</v>
+        <v>37652159</v>
       </c>
       <c r="F289" t="n">
-        <v>6487.468070232922</v>
+        <v>6487.429636194061</v>
       </c>
       <c r="G289" t="n">
-        <v>708.8040241881425</v>
+        <v>675.9773799732288</v>
       </c>
       <c r="H289" t="n">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="I289" t="n">
-        <v>387697</v>
+        <v>317575</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494480682</v>
+        <v>494159538</v>
       </c>
       <c r="E290" t="n">
-        <v>494480682</v>
+        <v>494159538</v>
       </c>
       <c r="F290" t="n">
-        <v>1108086.846698294</v>
+        <v>1375284.664333934</v>
       </c>
       <c r="G290" t="n">
-        <v>1588604.761910992</v>
+        <v>1262124.947608748</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>31652918</v>
+        <v>32277589</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5093623</v>
+        <v>5091565</v>
       </c>
       <c r="E291" t="n">
-        <v>18967608</v>
+        <v>18959945</v>
       </c>
       <c r="F291" t="n">
-        <v>7115.256944545574</v>
+        <v>7149.210328838431</v>
       </c>
       <c r="G291" t="n">
-        <v>6882.415649027219</v>
+        <v>6918.196870383961</v>
       </c>
       <c r="H291" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I291" t="n">
-        <v>59758</v>
+        <v>57959</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31212178</v>
+        <v>30950474</v>
       </c>
       <c r="F292" t="n">
-        <v>5686.630047084955</v>
+        <v>2581.308320642282</v>
       </c>
       <c r="G292" t="n">
-        <v>8361.284764986796</v>
+        <v>3710.001651967614</v>
       </c>
       <c r="H292" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="I292" t="n">
-        <v>6109349</v>
+        <v>6009314</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31474315</v>
+        <v>31518514</v>
       </c>
       <c r="E293" t="n">
-        <v>112815282</v>
+        <v>112973708</v>
       </c>
       <c r="F293" t="n">
-        <v>61.37379319891463</v>
+        <v>61.48005523101577</v>
       </c>
       <c r="G293" t="n">
-        <v>5035.499799769707</v>
+        <v>4960.663238713762</v>
       </c>
       <c r="H293" t="n">
         <v>0.51</v>
       </c>
       <c r="I293" t="n">
-        <v>93559</v>
+        <v>95064</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>735260</v>
+        <v>764080</v>
       </c>
       <c r="E294" t="n">
-        <v>11727140</v>
+        <v>12186811</v>
       </c>
       <c r="F294" t="n">
-        <v>15.26302956918133</v>
+        <v>12.8623982237126</v>
       </c>
       <c r="G294" t="n">
-        <v>1.624553686765093</v>
+        <v>2.297744819368278</v>
       </c>
       <c r="H294" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>70263</v>
+        <v>71756</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>86118</v>
+        <v>85490</v>
       </c>
       <c r="F295" t="n">
-        <v>47.9599209765064</v>
+        <v>47.95965868917237</v>
       </c>
       <c r="G295" t="n">
-        <v>60.46525176775242</v>
+        <v>61.87708716136396</v>
       </c>
       <c r="H295" t="n">
         <v>1</v>
       </c>
       <c r="I295" t="n">
-        <v>58463</v>
+        <v>57826</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1579133</v>
+        <v>1504013</v>
       </c>
       <c r="F296" t="n">
-        <v>3.788770430772249</v>
+        <v>3.969209912693731</v>
       </c>
       <c r="G296" t="n">
-        <v>5.589952903203923</v>
+        <v>5.422753377979236</v>
       </c>
       <c r="H296" t="n">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="I296" t="n">
-        <v>613310</v>
+        <v>613783</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2650813328</v>
+        <v>2613072773</v>
       </c>
       <c r="E297" t="n">
-        <v>2814474004</v>
+        <v>2774403355</v>
       </c>
       <c r="F297" t="n">
-        <v>45288.70198413524</v>
+        <v>33927.44153086878</v>
       </c>
       <c r="G297" t="n">
-        <v>74863.86950479775</v>
+        <v>74630.31705159217</v>
       </c>
       <c r="H297" t="n">
         <v>0.15</v>
       </c>
       <c r="I297" t="n">
-        <v>37120618</v>
+        <v>36976711</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2146389</v>
+        <v>2150715</v>
       </c>
       <c r="E298" t="n">
-        <v>16509417</v>
+        <v>16542692</v>
       </c>
       <c r="F298" t="n">
-        <v>4065.840582329149</v>
+        <v>4059.574703499395</v>
       </c>
       <c r="G298" t="n">
-        <v>1495.213808477655</v>
+        <v>4053.393832391494</v>
       </c>
       <c r="H298" t="n">
         <v>0.54</v>
       </c>
       <c r="I298" t="n">
-        <v>170432</v>
+        <v>169448</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1645034</v>
+        <v>1619097</v>
       </c>
       <c r="E299" t="n">
-        <v>1650840</v>
+        <v>1624812</v>
       </c>
       <c r="F299" t="n">
-        <v>1025.562303348582</v>
+        <v>780.8161912542888</v>
       </c>
       <c r="G299" t="n">
-        <v>851.3321319231376</v>
+        <v>1579.26041457365</v>
       </c>
       <c r="H299" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I299" t="n">
-        <v>392788</v>
+        <v>401599</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87362233</v>
+        <v>87483142</v>
       </c>
       <c r="E300" t="n">
-        <v>322958449</v>
+        <v>323403917</v>
       </c>
       <c r="F300" t="n">
-        <v>4938.881760574344</v>
+        <v>5568.375637353247</v>
       </c>
       <c r="G300" t="n">
-        <v>1220.068412437701</v>
+        <v>3253.6307063283</v>
       </c>
       <c r="H300" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I300" t="n">
-        <v>367928</v>
+        <v>369772</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2445488</v>
+        <v>2510232</v>
       </c>
       <c r="E301" t="n">
-        <v>9812605</v>
+        <v>10072389</v>
       </c>
       <c r="F301" t="n">
-        <v>127.1723248722028</v>
+        <v>134.6646954457463</v>
       </c>
       <c r="G301" t="n">
-        <v>4.019730305137506</v>
+        <v>4.180177789961641</v>
       </c>
       <c r="H301" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="I301" t="n">
-        <v>38083</v>
+        <v>40881</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60786328</v>
+        <v>60093633</v>
       </c>
       <c r="E302" t="n">
-        <v>149104742</v>
+        <v>147405608</v>
       </c>
       <c r="F302" t="n">
-        <v>2040.150727303462</v>
+        <v>2187.310328945821</v>
       </c>
       <c r="G302" t="n">
-        <v>1997.55373357753</v>
+        <v>3131.238624550421</v>
       </c>
       <c r="H302" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="I302" t="n">
-        <v>22523904</v>
+        <v>22411520</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>682459032</v>
+        <v>657748052</v>
       </c>
       <c r="E303" t="n">
-        <v>1052412082</v>
+        <v>1014305570</v>
       </c>
       <c r="F303" t="n">
-        <v>11427.86524329959</v>
+        <v>31806.650784088</v>
       </c>
       <c r="G303" t="n">
-        <v>17568.6838351392</v>
+        <v>52641.73751160019</v>
       </c>
       <c r="H303" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I303" t="n">
-        <v>190567509</v>
+        <v>158466834</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20551586</v>
+        <v>19990563</v>
       </c>
       <c r="E304" t="n">
-        <v>20551586</v>
+        <v>19990563</v>
       </c>
       <c r="F304" t="n">
-        <v>4252.230054397077</v>
+        <v>4572.517279127813</v>
       </c>
       <c r="G304" t="n">
-        <v>3365.587572864567</v>
+        <v>3932.705048587829</v>
       </c>
       <c r="H304" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="I304" t="n">
-        <v>7160591</v>
+        <v>7071729</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1738318</v>
+        <v>1733801</v>
       </c>
       <c r="E305" t="n">
-        <v>2852285</v>
+        <v>2844873</v>
       </c>
       <c r="F305" t="n">
-        <v>118.1319141215346</v>
+        <v>246.7792909307596</v>
       </c>
       <c r="G305" t="n">
-        <v>486.9024094695631</v>
+        <v>431.4570763616883</v>
       </c>
       <c r="H305" t="n">
         <v>0.91</v>
       </c>
       <c r="I305" t="n">
-        <v>121765</v>
+        <v>127181</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5823921</v>
+        <v>5686954</v>
       </c>
       <c r="E306" t="n">
-        <v>5823921</v>
+        <v>5686954</v>
       </c>
       <c r="F306" t="n">
-        <v>42.45697475437552</v>
+        <v>41.99678892715425</v>
       </c>
       <c r="G306" t="n">
-        <v>5.485393099449663</v>
+        <v>5.48552422087851</v>
       </c>
       <c r="H306" t="n">
         <v>0.32</v>
       </c>
       <c r="I306" t="n">
-        <v>460.95</v>
+        <v>473.65</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>40521761</v>
+        <v>39863016</v>
       </c>
       <c r="E307" t="n">
-        <v>193418825</v>
+        <v>190274232</v>
       </c>
       <c r="F307" t="n">
-        <v>6028.241797212243</v>
+        <v>125.3347566827018</v>
       </c>
       <c r="G307" t="n">
-        <v>248.6734010493368</v>
+        <v>450.4314051619066</v>
       </c>
       <c r="H307" t="n">
-        <v>0.33</v>
+        <v>1.04</v>
       </c>
       <c r="I307" t="n">
-        <v>269469</v>
+        <v>410749</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>386215</v>
+        <v>382499</v>
       </c>
       <c r="E308" t="n">
-        <v>722331</v>
+        <v>715381</v>
       </c>
       <c r="F308" t="n">
-        <v>713.8428818217691</v>
+        <v>682.7110847973858</v>
       </c>
       <c r="G308" t="n">
-        <v>138.1188267218402</v>
+        <v>298.5459765574135</v>
       </c>
       <c r="H308" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="I308" t="n">
-        <v>1436.22</v>
+        <v>1402.73</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23474018</v>
+        <v>23538751</v>
       </c>
       <c r="E309" t="n">
-        <v>39123363</v>
+        <v>39231251</v>
       </c>
       <c r="F309" t="n">
-        <v>415.2957276988902</v>
+        <v>707.0606210784467</v>
       </c>
       <c r="G309" t="n">
-        <v>1078.705619992515</v>
+        <v>851.2156401631657</v>
       </c>
       <c r="H309" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>1013682</v>
+        <v>1027594</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107704</v>
+        <v>107762</v>
       </c>
       <c r="F310" t="n">
-        <v>16.80682162406737</v>
+        <v>8.209112044953381</v>
       </c>
       <c r="G310" t="n">
-        <v>3.823538082075125</v>
+        <v>83.7687762868956</v>
       </c>
       <c r="H310" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="I310" t="n">
-        <v>51019</v>
+        <v>50676</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23413392</v>
+        <v>23217491</v>
       </c>
       <c r="E311" t="n">
-        <v>23413392</v>
+        <v>23217491</v>
       </c>
       <c r="F311" t="n">
-        <v>7618.538768583157</v>
+        <v>5523.923165907984</v>
       </c>
       <c r="G311" t="n">
-        <v>7142.649171776863</v>
+        <v>7632.261186103309</v>
       </c>
       <c r="H311" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I311" t="n">
-        <v>6042470</v>
+        <v>6270383</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3846508</v>
+        <v>3839229</v>
       </c>
       <c r="E312" t="n">
-        <v>8393030</v>
+        <v>8377149</v>
       </c>
       <c r="F312" t="n">
-        <v>1836.61963500393</v>
+        <v>1836.749858114395</v>
       </c>
       <c r="G312" t="n">
-        <v>1809.169783763069</v>
+        <v>1809.298060577773</v>
       </c>
       <c r="H312" t="n">
         <v>0.71</v>
       </c>
       <c r="I312" t="n">
-        <v>1004291</v>
+        <v>995277</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9353973</v>
+        <v>9355813</v>
       </c>
       <c r="E313" t="n">
-        <v>9353973</v>
+        <v>9355813</v>
       </c>
       <c r="F313" t="n">
-        <v>14717.45366542622</v>
+        <v>15535.89855173356</v>
       </c>
       <c r="G313" t="n">
-        <v>113061.3264357861</v>
+        <v>113045.7892344917</v>
       </c>
       <c r="H313" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I313" t="n">
-        <v>3291125</v>
+        <v>3171276</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>487923003</v>
+        <v>480158609</v>
       </c>
       <c r="E314" t="n">
-        <v>1699281039</v>
+        <v>1672240118</v>
       </c>
       <c r="F314" t="n">
-        <v>271891.3866469035</v>
+        <v>424150.8415191142</v>
       </c>
       <c r="G314" t="n">
-        <v>340272.8867696162</v>
+        <v>473648.9712155475</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>31012554</v>
+        <v>30510948</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24067749</v>
+        <v>23882850</v>
       </c>
       <c r="E315" t="n">
-        <v>24046843</v>
+        <v>23862105</v>
       </c>
       <c r="F315" t="n">
-        <v>165.4244849872454</v>
+        <v>203.9312653534826</v>
       </c>
       <c r="G315" t="n">
-        <v>791.1192989373942</v>
+        <v>759.6859448011794</v>
       </c>
       <c r="H315" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="I315" t="n">
-        <v>93166</v>
+        <v>93670</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48062266</v>
+        <v>48053433</v>
       </c>
       <c r="E316" t="n">
-        <v>118618069</v>
+        <v>118596274</v>
       </c>
       <c r="F316" t="n">
-        <v>936.3397568751203</v>
+        <v>944.7755175180367</v>
       </c>
       <c r="G316" t="n">
-        <v>1604.978905858193</v>
+        <v>1711.925467896285</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>51972</v>
+        <v>42807</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12208653</v>
+        <v>12148393</v>
       </c>
       <c r="E317" t="n">
-        <v>24737058</v>
+        <v>24611908</v>
       </c>
       <c r="F317" t="n">
-        <v>274.4557815847534</v>
+        <v>274.453468665376</v>
       </c>
       <c r="G317" t="n">
-        <v>793.5942351862708</v>
+        <v>607.0447119149719</v>
       </c>
       <c r="H317" t="n">
         <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>15189.82</v>
+        <v>13296.03</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7483381</v>
+        <v>7621569</v>
       </c>
       <c r="E318" t="n">
-        <v>19441018</v>
+        <v>19800018</v>
       </c>
       <c r="F318" t="n">
-        <v>147.6624051285717</v>
+        <v>197.359419310357</v>
       </c>
       <c r="G318" t="n">
-        <v>460.2491708861065</v>
+        <v>374.1168349277731</v>
       </c>
       <c r="H318" t="n">
         <v>0.2</v>
       </c>
       <c r="I318" t="n">
-        <v>678959</v>
+        <v>676932</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>150479</v>
+        <v>153231</v>
       </c>
       <c r="F319" t="n">
-        <v>166.6427871326568</v>
+        <v>179.991398858397</v>
       </c>
       <c r="G319" t="n">
-        <v>124.4273653538074</v>
+        <v>273.4248083786405</v>
       </c>
       <c r="H319" t="n">
-        <v>3.67</v>
+        <v>2.96</v>
       </c>
       <c r="I319" t="n">
-        <v>56856</v>
+        <v>58507</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19247457627</v>
+        <v>19194706632</v>
       </c>
       <c r="F320" t="n">
-        <v>51944.14426156281</v>
+        <v>51921.57917979363</v>
       </c>
       <c r="G320" t="n">
-        <v>50008.79711476681</v>
+        <v>50144.45422314469</v>
       </c>
       <c r="H320" t="n">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I320" t="n">
-        <v>48902671</v>
+        <v>48773524</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>103185346</v>
+        <v>102175883</v>
       </c>
       <c r="E321" t="n">
-        <v>156337721</v>
+        <v>154808269</v>
       </c>
       <c r="F321" t="n">
-        <v>18421.3734438849</v>
+        <v>21188.54568245946</v>
       </c>
       <c r="G321" t="n">
-        <v>18308.08488843953</v>
+        <v>15281.98206531419</v>
       </c>
       <c r="H321" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="I321" t="n">
-        <v>6987862</v>
+        <v>7228469</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2655841</v>
+        <v>2660014</v>
       </c>
       <c r="E322" t="n">
-        <v>10623365</v>
+        <v>10640056</v>
       </c>
       <c r="F322" t="n">
-        <v>46962.05762972378</v>
+        <v>33517.30823496237</v>
       </c>
       <c r="G322" t="n">
-        <v>17462.5108018041</v>
+        <v>11026.56325296922</v>
       </c>
       <c r="H322" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="I322" t="n">
-        <v>4951304</v>
+        <v>4986301</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>213027434</v>
+        <v>210725146</v>
       </c>
       <c r="E323" t="n">
-        <v>654979193</v>
+        <v>647900522</v>
       </c>
       <c r="F323" t="n">
-        <v>84032.48620637172</v>
+        <v>81412.5378520847</v>
       </c>
       <c r="G323" t="n">
-        <v>179313.6177883218</v>
+        <v>184375.9327282026</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>11105179</v>
+        <v>11246831</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>151153086</v>
+        <v>146465115</v>
       </c>
       <c r="E324" t="n">
-        <v>394883246</v>
+        <v>382636051</v>
       </c>
       <c r="F324" t="n">
-        <v>13895.65574603024</v>
+        <v>8249.036173433684</v>
       </c>
       <c r="G324" t="n">
-        <v>3557.60175883755</v>
+        <v>4365.039033064393</v>
       </c>
       <c r="H324" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="I324" t="n">
-        <v>7016890</v>
+        <v>6924731</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2375530</v>
+        <v>2393871</v>
       </c>
       <c r="E325" t="n">
-        <v>3260148</v>
+        <v>3285302</v>
       </c>
       <c r="F325" t="n">
-        <v>167.7164543432638</v>
+        <v>262.5697832245377</v>
       </c>
       <c r="G325" t="n">
-        <v>855.3042558716101</v>
+        <v>5795.364769305277</v>
       </c>
       <c r="H325" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="I325" t="n">
-        <v>187884</v>
+        <v>187797</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>405223467</v>
+        <v>397147936</v>
       </c>
       <c r="E326" t="n">
-        <v>2315562668</v>
+        <v>2269416775</v>
       </c>
       <c r="F326" t="n">
-        <v>325022.4661774985</v>
+        <v>478387.5583417276</v>
       </c>
       <c r="G326" t="n">
-        <v>544133.6371384079</v>
+        <v>533158.7380973694</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>36710387</v>
+        <v>36209941</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91561</v>
+        <v>92552</v>
       </c>
       <c r="F2" t="n">
-        <v>4.148434634171982</v>
+        <v>5.570926264539513</v>
       </c>
       <c r="G2" t="n">
-        <v>32.70810138700657</v>
+        <v>31.24842363932129</v>
       </c>
       <c r="H2" t="n">
         <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>1002.66</v>
+        <v>756.74</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603667169</v>
+        <v>604432500</v>
       </c>
       <c r="E3" t="n">
-        <v>1171282121</v>
+        <v>1172748671</v>
       </c>
       <c r="F3" t="n">
-        <v>20002.72177246803</v>
+        <v>15244.52430848763</v>
       </c>
       <c r="G3" t="n">
-        <v>27832.66731832368</v>
+        <v>24751.15276790882</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="I3" t="n">
-        <v>22063758</v>
+        <v>22206351</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>242712283</v>
+        <v>243452124</v>
       </c>
       <c r="E4" t="n">
-        <v>1522014609</v>
+        <v>1526654052</v>
       </c>
       <c r="F4" t="n">
-        <v>93863.6950043878</v>
+        <v>76106.60542153069</v>
       </c>
       <c r="G4" t="n">
-        <v>90633.48087271121</v>
+        <v>88014.03160974041</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15511311</v>
+        <v>15373787</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138525000</v>
+        <v>139124601</v>
       </c>
       <c r="E5" t="n">
-        <v>153507826</v>
+        <v>154172280</v>
       </c>
       <c r="F5" t="n">
-        <v>132404.7330736404</v>
+        <v>143960.9870512185</v>
       </c>
       <c r="G5" t="n">
-        <v>299489.7436172327</v>
+        <v>274416.7012546394</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>32023209</v>
+        <v>32896996</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49238519</v>
+        <v>49045749</v>
       </c>
       <c r="E6" t="n">
-        <v>61596125</v>
+        <v>61354974</v>
       </c>
       <c r="F6" t="n">
-        <v>10448.80963601116</v>
+        <v>8388.709497580641</v>
       </c>
       <c r="G6" t="n">
-        <v>12761.97905853711</v>
+        <v>8088.447866838584</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.29</v>
       </c>
       <c r="I6" t="n">
-        <v>612336</v>
+        <v>619676</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8674919</v>
+        <v>8704931</v>
       </c>
       <c r="E7" t="n">
-        <v>8893668</v>
+        <v>8924437</v>
       </c>
       <c r="F7" t="n">
-        <v>394.7748470536405</v>
+        <v>482.1029072889817</v>
       </c>
       <c r="G7" t="n">
-        <v>753.0051169879946</v>
+        <v>166.1924915932231</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>62515</v>
+        <v>62291</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68495959</v>
+        <v>68413520</v>
       </c>
       <c r="E8" t="n">
-        <v>136443754</v>
+        <v>136279537</v>
       </c>
       <c r="F8" t="n">
-        <v>22283.27232919233</v>
+        <v>19486.25902620956</v>
       </c>
       <c r="G8" t="n">
-        <v>20862.8801091241</v>
+        <v>19453.55860314736</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="I8" t="n">
-        <v>1622598</v>
+        <v>1598543</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5228414</v>
+        <v>5219203</v>
       </c>
       <c r="E9" t="n">
-        <v>8353434</v>
+        <v>8338717</v>
       </c>
       <c r="F9" t="n">
-        <v>328.9615665064058</v>
+        <v>319.7395452096706</v>
       </c>
       <c r="G9" t="n">
-        <v>1179.000304675086</v>
+        <v>572.6614502949631</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.53</v>
       </c>
       <c r="I9" t="n">
-        <v>105986</v>
+        <v>105665</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14278510</v>
+        <v>14330039</v>
       </c>
       <c r="E10" t="n">
-        <v>42077848</v>
+        <v>42229699</v>
       </c>
       <c r="F10" t="n">
-        <v>3969.868502925253</v>
+        <v>3937.398159251623</v>
       </c>
       <c r="G10" t="n">
-        <v>5020.52368147881</v>
+        <v>4904.707619053989</v>
       </c>
       <c r="H10" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>808933</v>
+        <v>799023</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>125060333</v>
+        <v>124206825</v>
       </c>
       <c r="E11" t="n">
-        <v>490199060</v>
+        <v>486853562</v>
       </c>
       <c r="F11" t="n">
-        <v>42673.78278191444</v>
+        <v>39376.03521547705</v>
       </c>
       <c r="G11" t="n">
-        <v>41488.5059880966</v>
+        <v>48765.23790606349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>28251804</v>
+        <v>28566460</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7745712</v>
+        <v>7595559</v>
       </c>
       <c r="E12" t="n">
-        <v>33302437</v>
+        <v>32656857</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>6.42</v>
+        <v>6.62</v>
       </c>
       <c r="I12" t="n">
-        <v>777297</v>
+        <v>752769</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>998902</v>
+        <v>997925</v>
       </c>
       <c r="E13" t="n">
-        <v>12223861</v>
+        <v>12211914</v>
       </c>
       <c r="F13" t="n">
-        <v>280.9504196702997</v>
+        <v>280.9401134002316</v>
       </c>
       <c r="G13" t="n">
-        <v>198.0222143344975</v>
+        <v>198.0149501687318</v>
       </c>
       <c r="H13" t="n">
         <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2090.35</v>
+        <v>2088.55</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>572760</v>
+        <v>568758</v>
       </c>
       <c r="E14" t="n">
-        <v>572760</v>
+        <v>568758</v>
       </c>
       <c r="F14" t="n">
-        <v>613.1770889574038</v>
+        <v>17.15123781812846</v>
       </c>
       <c r="G14" t="n">
-        <v>409.7847541305817</v>
+        <v>440.3598766275036</v>
       </c>
       <c r="H14" t="n">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>23806</v>
+        <v>23706</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>540323532</v>
+        <v>544271429</v>
       </c>
       <c r="E15" t="n">
-        <v>675864432</v>
+        <v>680802664</v>
       </c>
       <c r="F15" t="n">
-        <v>477798.8026545887</v>
+        <v>442592.0784217431</v>
       </c>
       <c r="G15" t="n">
-        <v>574027.181971523</v>
+        <v>539499.1290914388</v>
       </c>
       <c r="H15" t="n">
         <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>54491153</v>
+        <v>54894117</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3345261</v>
+        <v>3350819</v>
       </c>
       <c r="E16" t="n">
-        <v>9516971</v>
+        <v>9532782</v>
       </c>
       <c r="F16" t="n">
-        <v>544.1062009657001</v>
+        <v>191.3793637149477</v>
       </c>
       <c r="G16" t="n">
-        <v>139.7688582923424</v>
+        <v>651.6633850328794</v>
       </c>
       <c r="H16" t="n">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="I16" t="n">
-        <v>233589</v>
+        <v>232292</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>313914</v>
+        <v>313452</v>
       </c>
       <c r="E17" t="n">
-        <v>3623276</v>
+        <v>3617947</v>
       </c>
       <c r="F17" t="n">
-        <v>18.92505590897481</v>
+        <v>19.02713715402036</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95473105491924</v>
+        <v>3.995241256963902</v>
       </c>
       <c r="H17" t="n">
         <v>0.59</v>
       </c>
       <c r="I17" t="n">
-        <v>3267.72</v>
+        <v>3106.09</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1439571</v>
+        <v>1369788</v>
       </c>
       <c r="E18" t="n">
-        <v>11042365</v>
+        <v>10507087</v>
       </c>
       <c r="F18" t="n">
-        <v>680.6901313589537</v>
+        <v>407.4941949847012</v>
       </c>
       <c r="G18" t="n">
-        <v>218.4065481312441</v>
+        <v>133.7053976163344</v>
       </c>
       <c r="H18" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>156315</v>
+        <v>156026</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22529339</v>
+        <v>22318878</v>
       </c>
       <c r="E19" t="n">
-        <v>22571521</v>
+        <v>22360666</v>
       </c>
       <c r="F19" t="n">
-        <v>705.5580886472324</v>
+        <v>820.8139561731942</v>
       </c>
       <c r="G19" t="n">
-        <v>1780.654510892975</v>
+        <v>1156.288031607101</v>
       </c>
       <c r="H19" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="I19" t="n">
-        <v>849511</v>
+        <v>864895</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3926153</v>
+        <v>3912048</v>
       </c>
       <c r="E20" t="n">
-        <v>21784622</v>
+        <v>21706357</v>
       </c>
       <c r="F20" t="n">
-        <v>50.84423259641565</v>
+        <v>47.68864299945324</v>
       </c>
       <c r="G20" t="n">
-        <v>5.537969055319582</v>
+        <v>13.47884104627937</v>
       </c>
       <c r="H20" t="n">
-        <v>0.16</v>
+        <v>0.61</v>
       </c>
       <c r="I20" t="n">
-        <v>56177</v>
+        <v>2341.25</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6898880</v>
+        <v>6896303</v>
       </c>
       <c r="E21" t="n">
-        <v>12798878</v>
+        <v>12794097</v>
       </c>
       <c r="F21" t="n">
-        <v>299.4066468001118</v>
+        <v>295.144453185028</v>
       </c>
       <c r="G21" t="n">
-        <v>252.9132727441175</v>
+        <v>203.2721301309282</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>48296</v>
+        <v>48068</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71963193</v>
+        <v>72164768</v>
       </c>
       <c r="E22" t="n">
-        <v>124670563</v>
+        <v>125016786</v>
       </c>
       <c r="F22" t="n">
-        <v>1675.885711906735</v>
+        <v>1856.581143769501</v>
       </c>
       <c r="G22" t="n">
-        <v>575.6207444343646</v>
+        <v>820.3381047330188</v>
       </c>
       <c r="H22" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I22" t="n">
-        <v>657986</v>
+        <v>662636</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>177013</v>
+        <v>176496</v>
       </c>
       <c r="E23" t="n">
-        <v>532369</v>
+        <v>530815</v>
       </c>
       <c r="F23" t="n">
-        <v>158.9926497008233</v>
+        <v>197.5801788440594</v>
       </c>
       <c r="G23" t="n">
-        <v>3.91734560898061</v>
+        <v>3.916975894430192</v>
       </c>
       <c r="H23" t="n">
         <v>0.37</v>
       </c>
       <c r="I23" t="n">
-        <v>61.99</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81637826</v>
+        <v>81490663</v>
       </c>
       <c r="E24" t="n">
-        <v>240282337</v>
+        <v>239849194</v>
       </c>
       <c r="F24" t="n">
-        <v>346.2855405512132</v>
+        <v>567.8134095652223</v>
       </c>
       <c r="G24" t="n">
-        <v>246.3596199136969</v>
+        <v>493.7702134736282</v>
       </c>
       <c r="H24" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="I24" t="n">
-        <v>369997</v>
+        <v>377911</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6527688</v>
+        <v>6847449</v>
       </c>
       <c r="F25" t="n">
-        <v>4.004660552889632</v>
+        <v>8.945244679060547</v>
       </c>
       <c r="G25" t="n">
-        <v>15.27859250608355</v>
+        <v>4.096525556106637</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="I25" t="n">
-        <v>26729</v>
+        <v>27259</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2466404</v>
+        <v>2454640</v>
       </c>
       <c r="E26" t="n">
-        <v>2466404</v>
+        <v>2454640</v>
       </c>
       <c r="F26" t="n">
-        <v>165.1507200759933</v>
+        <v>175.3287048694401</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7709720230652</v>
+        <v>75.55441228800598</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="I26" t="n">
-        <v>292274</v>
+        <v>295702</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19451962</v>
+        <v>19319889</v>
       </c>
       <c r="E27" t="n">
-        <v>25036268</v>
+        <v>24866283</v>
       </c>
       <c r="F27" t="n">
-        <v>2968.767149440757</v>
+        <v>3548.542709269906</v>
       </c>
       <c r="G27" t="n">
-        <v>2125.29415283377</v>
+        <v>2836.104277440779</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="I27" t="n">
-        <v>2201408</v>
+        <v>2074336</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4672260</v>
+        <v>4647904</v>
       </c>
       <c r="E28" t="n">
-        <v>4672260</v>
+        <v>4647904</v>
       </c>
       <c r="F28" t="n">
-        <v>1475.623127539618</v>
+        <v>1572.895122285638</v>
       </c>
       <c r="G28" t="n">
-        <v>1424.045457074115</v>
+        <v>1681.034842829849</v>
       </c>
       <c r="H28" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I28" t="n">
-        <v>1292058</v>
+        <v>1898948</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1736037</v>
+        <v>1725066</v>
       </c>
       <c r="F29" t="n">
-        <v>543.1815705544889</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>99.0147674841359</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.95</v>
+        <v>4.09</v>
       </c>
       <c r="I29" t="n">
-        <v>109124</v>
+        <v>112691</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3319183</v>
+        <v>3233113</v>
       </c>
       <c r="E30" t="n">
-        <v>3319183</v>
+        <v>3233113</v>
       </c>
       <c r="F30" t="n">
-        <v>635.1036270646587</v>
+        <v>558.3927982844156</v>
       </c>
       <c r="G30" t="n">
-        <v>579.4536668599035</v>
+        <v>662.2477919880545</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>454831</v>
+        <v>498151</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>310880</v>
+        <v>310510</v>
       </c>
       <c r="E31" t="n">
-        <v>1451220</v>
+        <v>1449491</v>
       </c>
       <c r="F31" t="n">
-        <v>407.1793238859929</v>
+        <v>96.69282995060546</v>
       </c>
       <c r="G31" t="n">
-        <v>194.2134669810508</v>
+        <v>467.8975995033072</v>
       </c>
       <c r="H31" t="n">
-        <v>0.67</v>
+        <v>2.03</v>
       </c>
       <c r="I31" t="n">
-        <v>610532</v>
+        <v>620438</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>385541</v>
+        <v>382812</v>
       </c>
       <c r="E32" t="n">
-        <v>385541</v>
+        <v>382812</v>
       </c>
       <c r="F32" t="n">
-        <v>63.5412503399766</v>
+        <v>63.82323693739097</v>
       </c>
       <c r="G32" t="n">
-        <v>4.303019020430428</v>
+        <v>5.413071850573394</v>
       </c>
       <c r="H32" t="n">
-        <v>0.51</v>
+        <v>0.22</v>
       </c>
       <c r="I32" t="n">
-        <v>55762</v>
+        <v>54991</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1948170</v>
+        <v>1947834</v>
       </c>
       <c r="F33" t="n">
-        <v>4.473185098158342</v>
+        <v>5.774848688960401</v>
       </c>
       <c r="G33" t="n">
-        <v>5.283165486765399</v>
+        <v>282.8844838674582</v>
       </c>
       <c r="H33" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1364524</v>
+        <v>1354258</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1554259</v>
+        <v>1552604</v>
       </c>
       <c r="F34" t="n">
-        <v>136.1403589958956</v>
+        <v>121.6352096408147</v>
       </c>
       <c r="G34" t="n">
-        <v>264.1384020770506</v>
+        <v>41.43933838388984</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>173835</v>
+        <v>177895</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12673443</v>
+        <v>12812763</v>
       </c>
       <c r="E35" t="n">
-        <v>32586728</v>
+        <v>32266758</v>
       </c>
       <c r="F35" t="n">
-        <v>1538.411739726911</v>
+        <v>1821.172873128506</v>
       </c>
       <c r="G35" t="n">
-        <v>1898.690314136756</v>
+        <v>872.3308211447176</v>
       </c>
       <c r="H35" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="I35" t="n">
-        <v>1567812</v>
+        <v>1584186</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6653259</v>
+        <v>6930000</v>
       </c>
       <c r="E36" t="n">
-        <v>9163238</v>
+        <v>9544381</v>
       </c>
       <c r="F36" t="n">
-        <v>1088.029872933352</v>
+        <v>155.7521978107693</v>
       </c>
       <c r="G36" t="n">
-        <v>133.5516875694962</v>
+        <v>79.90546794566684</v>
       </c>
       <c r="H36" t="n">
-        <v>1.81</v>
+        <v>2.76</v>
       </c>
       <c r="I36" t="n">
-        <v>1049895</v>
+        <v>1008846</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>913126</v>
+        <v>916607</v>
       </c>
       <c r="E37" t="n">
-        <v>6391882</v>
+        <v>6416252</v>
       </c>
       <c r="F37" t="n">
-        <v>223.4668616452208</v>
+        <v>516.3270584071045</v>
       </c>
       <c r="G37" t="n">
-        <v>3280.797039553919</v>
+        <v>5148.809405067465</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>511056</v>
+        <v>423927</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>106880382</v>
+        <v>107540555</v>
       </c>
       <c r="E38" t="n">
-        <v>416182459</v>
+        <v>418728867</v>
       </c>
       <c r="F38" t="n">
-        <v>13404.88048952032</v>
+        <v>15023.58705639193</v>
       </c>
       <c r="G38" t="n">
-        <v>29110.09562408943</v>
+        <v>36517.51267202364</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I38" t="n">
-        <v>6577442</v>
+        <v>6618046</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5532177</v>
+        <v>5469707</v>
       </c>
       <c r="E39" t="n">
-        <v>5796836</v>
+        <v>5731378</v>
       </c>
       <c r="F39" t="n">
-        <v>92.38173538845359</v>
+        <v>71.95294480876369</v>
       </c>
       <c r="G39" t="n">
-        <v>2712.646073793144</v>
+        <v>2681.456150314709</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>152176</v>
+        <v>175022</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5262558</v>
+        <v>5356871</v>
       </c>
       <c r="E40" t="n">
-        <v>7746771</v>
+        <v>7885604</v>
       </c>
       <c r="F40" t="n">
-        <v>1115.779597020188</v>
+        <v>1266.315205024364</v>
       </c>
       <c r="G40" t="n">
-        <v>628.4377835039353</v>
+        <v>2118.972345956714</v>
       </c>
       <c r="H40" t="n">
         <v>0.93</v>
       </c>
       <c r="I40" t="n">
-        <v>570654</v>
+        <v>586204</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7662730</v>
+        <v>7658488</v>
       </c>
       <c r="E41" t="n">
-        <v>7662730</v>
+        <v>7658488</v>
       </c>
       <c r="F41" t="n">
-        <v>2271.239606171102</v>
+        <v>1635.388734734234</v>
       </c>
       <c r="G41" t="n">
-        <v>210.5139180656867</v>
+        <v>3113.436062017533</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I41" t="n">
-        <v>217301</v>
+        <v>221515</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1476921</v>
+        <v>1490251</v>
       </c>
       <c r="E42" t="n">
-        <v>1476966</v>
+        <v>1490291</v>
       </c>
       <c r="F42" t="n">
-        <v>137.2961442262263</v>
+        <v>345.7873208310662</v>
       </c>
       <c r="G42" t="n">
-        <v>34.26681083043968</v>
+        <v>35.68303351624854</v>
       </c>
       <c r="H42" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
       <c r="I42" t="n">
-        <v>274093</v>
+        <v>277191</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16506558</v>
+        <v>16499241</v>
       </c>
       <c r="F43" t="n">
-        <v>127.6890615656127</v>
+        <v>305.218153004336</v>
       </c>
       <c r="G43" t="n">
-        <v>523.4699919150723</v>
+        <v>535.9714144012485</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="I43" t="n">
-        <v>11815.85</v>
+        <v>10769.42</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>132722139</v>
+        <v>133389187</v>
       </c>
       <c r="E44" t="n">
-        <v>132722139</v>
+        <v>133389187</v>
       </c>
       <c r="F44" t="n">
-        <v>332051.9607292344</v>
+        <v>352084.449353916</v>
       </c>
       <c r="G44" t="n">
-        <v>363325.5687570418</v>
+        <v>351502.6851824486</v>
       </c>
       <c r="H44" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>63143460</v>
+        <v>63157617</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>63493172</v>
+        <v>63430842</v>
       </c>
       <c r="E45" t="n">
-        <v>325606008</v>
+        <v>325286371</v>
       </c>
       <c r="F45" t="n">
-        <v>65829.41580964241</v>
+        <v>44217.7311429312</v>
       </c>
       <c r="G45" t="n">
-        <v>62372.16899139856</v>
+        <v>87936.29076132541</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I45" t="n">
-        <v>16983340</v>
+        <v>18008910</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>592840</v>
+        <v>592893</v>
       </c>
       <c r="F46" t="n">
-        <v>89.58322859466594</v>
+        <v>90.1863179336677</v>
       </c>
       <c r="G46" t="n">
-        <v>374.2378310607687</v>
+        <v>374.1627625534035</v>
       </c>
       <c r="H46" t="n">
         <v>0.42</v>
       </c>
       <c r="I46" t="n">
-        <v>436.18</v>
+        <v>435.91</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2750978</v>
+        <v>2722535</v>
       </c>
       <c r="E47" t="n">
-        <v>11055553</v>
+        <v>10941248</v>
       </c>
       <c r="F47" t="n">
-        <v>108.1581269743461</v>
+        <v>183.8760054566256</v>
       </c>
       <c r="G47" t="n">
-        <v>393.140814065662</v>
+        <v>771.3435880862555</v>
       </c>
       <c r="H47" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="I47" t="n">
-        <v>27093</v>
+        <v>24473</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17530183</v>
+        <v>17427177</v>
       </c>
       <c r="E48" t="n">
-        <v>123636813</v>
+        <v>122905617</v>
       </c>
       <c r="F48" t="n">
-        <v>1399.565507218927</v>
+        <v>1545.669034301973</v>
       </c>
       <c r="G48" t="n">
-        <v>797.5969008279695</v>
+        <v>652.89827316105</v>
       </c>
       <c r="H48" t="n">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="I48" t="n">
-        <v>1017304</v>
+        <v>1040774</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1026020</v>
+        <v>1028695</v>
       </c>
       <c r="E49" t="n">
-        <v>1204302</v>
+        <v>1207442</v>
       </c>
       <c r="F49" t="n">
-        <v>2601.218452161515</v>
+        <v>2601.775919955055</v>
       </c>
       <c r="G49" t="n">
-        <v>4104.263502856303</v>
+        <v>3935.374729267784</v>
       </c>
       <c r="H49" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>251347</v>
+        <v>253758</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>146916</v>
+        <v>170165</v>
       </c>
       <c r="E50" t="n">
-        <v>1965825</v>
+        <v>2276903</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46037</v>
+        <v>52491</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>249535346</v>
+        <v>248581980</v>
       </c>
       <c r="E51" t="n">
-        <v>249535346</v>
+        <v>248581980</v>
       </c>
       <c r="F51" t="n">
-        <v>24958.83348181652</v>
+        <v>20096.93198768355</v>
       </c>
       <c r="G51" t="n">
-        <v>38219.45418566491</v>
+        <v>44380.69272196255</v>
       </c>
       <c r="H51" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="I51" t="n">
-        <v>14557084</v>
+        <v>14785339</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1122826</v>
+        <v>1125718</v>
       </c>
       <c r="F52" t="n">
-        <v>64.51307225888387</v>
+        <v>64.33727717396903</v>
       </c>
       <c r="G52" t="n">
-        <v>3.969791256950189</v>
+        <v>3.92875556958758</v>
       </c>
       <c r="H52" t="n">
         <v>0.7</v>
       </c>
       <c r="I52" t="n">
-        <v>192315</v>
+        <v>190155</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115079</v>
+        <v>114344</v>
       </c>
       <c r="E54" t="n">
-        <v>115079</v>
+        <v>114344</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6535081</v>
+        <v>6559926</v>
       </c>
       <c r="E55" t="n">
-        <v>15873209</v>
+        <v>15933554</v>
       </c>
       <c r="F55" t="n">
-        <v>549.7100280065368</v>
+        <v>301.1789698203269</v>
       </c>
       <c r="G55" t="n">
-        <v>194.7279447790029</v>
+        <v>245.503768415985</v>
       </c>
       <c r="H55" t="n">
-        <v>0.53</v>
+        <v>1.42</v>
       </c>
       <c r="I55" t="n">
-        <v>443402</v>
+        <v>452842</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>438800703</v>
+        <v>439924918</v>
       </c>
       <c r="E56" t="n">
-        <v>438791938</v>
+        <v>439924918</v>
       </c>
       <c r="F56" t="n">
-        <v>7629.908416589644</v>
+        <v>6209.845761784743</v>
       </c>
       <c r="G56" t="n">
-        <v>1752.054028512567</v>
+        <v>3182.456579306451</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="I56" t="n">
-        <v>2836540</v>
+        <v>2854916</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2427592</v>
+        <v>2502721</v>
       </c>
       <c r="E57" t="n">
-        <v>2427592</v>
+        <v>2502721</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5.2716324987575</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3.039468826859137</v>
       </c>
       <c r="H57" t="n">
-        <v>14.07</v>
+        <v>0.54</v>
       </c>
       <c r="I57" t="n">
-        <v>61168</v>
+        <v>109079</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>153201978</v>
+        <v>151648067</v>
       </c>
       <c r="E58" t="n">
-        <v>201595886</v>
+        <v>199551120</v>
       </c>
       <c r="F58" t="n">
-        <v>14044.55567318688</v>
+        <v>13205.24944906194</v>
       </c>
       <c r="G58" t="n">
-        <v>10869.52360593507</v>
+        <v>12032.40681872932</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I58" t="n">
-        <v>6248245</v>
+        <v>6967290</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1129048</v>
+        <v>1112692</v>
       </c>
       <c r="E59" t="n">
-        <v>12270076</v>
+        <v>12092324</v>
       </c>
       <c r="F59" t="n">
-        <v>714.4569858215498</v>
+        <v>767.6138335640926</v>
       </c>
       <c r="G59" t="n">
-        <v>3.928980225624622</v>
+        <v>3.93110525699222</v>
       </c>
       <c r="H59" t="n">
-        <v>0.72</v>
+        <v>0.49</v>
       </c>
       <c r="I59" t="n">
-        <v>29698</v>
+        <v>29283</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2536926</v>
+        <v>2534056</v>
       </c>
       <c r="E60" t="n">
-        <v>6485872</v>
+        <v>6478534</v>
       </c>
       <c r="F60" t="n">
-        <v>113.9952491344043</v>
+        <v>145.3548905036508</v>
       </c>
       <c r="G60" t="n">
-        <v>169.1507663655886</v>
+        <v>180.7510464609171</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>121384</v>
+        <v>121979</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>72506356</v>
+        <v>71498657</v>
       </c>
       <c r="E61" t="n">
-        <v>202955755</v>
+        <v>200144456</v>
       </c>
       <c r="F61" t="n">
-        <v>71802.8051372874</v>
+        <v>63400.98461602636</v>
       </c>
       <c r="G61" t="n">
-        <v>77720.53408422135</v>
+        <v>92839.69399808951</v>
       </c>
       <c r="H61" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>31865170</v>
+        <v>32194263</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>72676472</v>
+        <v>71793791</v>
       </c>
       <c r="E62" t="n">
-        <v>72676472</v>
+        <v>71793791</v>
       </c>
       <c r="F62" t="n">
-        <v>4989.96101155205</v>
+        <v>3853.277764823413</v>
       </c>
       <c r="G62" t="n">
-        <v>4503.753446199354</v>
+        <v>3302.953870666201</v>
       </c>
       <c r="H62" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="I62" t="n">
-        <v>4524593</v>
+        <v>4538941</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4299973</v>
+        <v>4230041</v>
       </c>
       <c r="E63" t="n">
-        <v>8479908</v>
+        <v>8341997</v>
       </c>
       <c r="F63" t="n">
-        <v>2557.494793398957</v>
+        <v>1552.79303115861</v>
       </c>
       <c r="G63" t="n">
-        <v>1781.312296470633</v>
+        <v>2527.491963476879</v>
       </c>
       <c r="H63" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>1675117</v>
+        <v>1642539</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1578898</v>
+        <v>1573486</v>
       </c>
       <c r="E64" t="n">
-        <v>9065442</v>
+        <v>9034369</v>
       </c>
       <c r="F64" t="n">
-        <v>938.9236354640479</v>
+        <v>550.3735288517232</v>
       </c>
       <c r="G64" t="n">
-        <v>4.020257325793409</v>
+        <v>5.135541524744902</v>
       </c>
       <c r="H64" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
       <c r="I64" t="n">
-        <v>327688</v>
+        <v>329165</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>574132</v>
+        <v>576672</v>
       </c>
       <c r="F65" t="n">
-        <v>4.109502124785587</v>
+        <v>10.93667791542739</v>
       </c>
       <c r="G65" t="n">
-        <v>5.443274149258757</v>
+        <v>3.955955745905691</v>
       </c>
       <c r="H65" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I65" t="n">
-        <v>2364.54</v>
+        <v>2027.88</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>32166874</v>
+        <v>32099957</v>
       </c>
       <c r="F66" t="n">
-        <v>923.1643979468166</v>
+        <v>732.8186476832346</v>
       </c>
       <c r="G66" t="n">
-        <v>344.5064107934799</v>
+        <v>407.9091878795655</v>
       </c>
       <c r="H66" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I66" t="n">
-        <v>249339</v>
+        <v>248766</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>151842</v>
+        <v>150628</v>
       </c>
       <c r="E67" t="n">
-        <v>1025404</v>
+        <v>1017208</v>
       </c>
       <c r="F67" t="n">
-        <v>22.73869594423733</v>
+        <v>15.53836898256049</v>
       </c>
       <c r="G67" t="n">
-        <v>163.8223457119389</v>
+        <v>81.39701011358949</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
       <c r="I67" t="n">
-        <v>2620980</v>
+        <v>2619600</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7553119</v>
+        <v>7546682</v>
       </c>
       <c r="E68" t="n">
-        <v>17789098</v>
+        <v>17773936</v>
       </c>
       <c r="F68" t="n">
-        <v>1449.851232444681</v>
+        <v>1451.417929635513</v>
       </c>
       <c r="G68" t="n">
-        <v>3197.42326782252</v>
+        <v>3198.963580952186</v>
       </c>
       <c r="H68" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="I68" t="n">
-        <v>28177</v>
+        <v>28856</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2929746</v>
+        <v>2912000</v>
       </c>
       <c r="E69" t="n">
-        <v>2929746</v>
+        <v>2912000</v>
       </c>
       <c r="F69" t="n">
-        <v>200.2360978633794</v>
+        <v>553.1779080739955</v>
       </c>
       <c r="G69" t="n">
-        <v>5.408442404543159</v>
+        <v>37.59470156227686</v>
       </c>
       <c r="H69" t="n">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="I69" t="n">
-        <v>10706.02</v>
+        <v>11343.72</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3368532</v>
+        <v>3367321</v>
       </c>
       <c r="E70" t="n">
-        <v>8311681</v>
+        <v>8308693</v>
       </c>
       <c r="F70" t="n">
-        <v>1304.538692908813</v>
+        <v>1163.670288120287</v>
       </c>
       <c r="G70" t="n">
-        <v>1209.143822417427</v>
+        <v>1126.192465178212</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>94597</v>
+        <v>92052</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23276771</v>
+        <v>23266823</v>
       </c>
       <c r="F71" t="n">
-        <v>8.647611141221892</v>
+        <v>641.2170499039154</v>
       </c>
       <c r="G71" t="n">
-        <v>22.85623709472841</v>
+        <v>16.60434840208858</v>
       </c>
       <c r="H71" t="n">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>122975</v>
+        <v>121280</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>269910</v>
+        <v>269620</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2479.22</v>
+        <v>2486.63</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>71041395</v>
+        <v>71314323</v>
       </c>
       <c r="E73" t="n">
-        <v>148157386</v>
+        <v>148726579</v>
       </c>
       <c r="F73" t="n">
-        <v>18223.66797260828</v>
+        <v>14587.40292025815</v>
       </c>
       <c r="G73" t="n">
-        <v>3493.532478298625</v>
+        <v>1716.165852822717</v>
       </c>
       <c r="H73" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I73" t="n">
-        <v>13524792</v>
+        <v>13659620</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>200957364</v>
+        <v>197412889</v>
       </c>
       <c r="F75" t="n">
-        <v>5815.242620783933</v>
+        <v>8081.036111166746</v>
       </c>
       <c r="G75" t="n">
-        <v>15369.74690215066</v>
+        <v>34948.43451840388</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="I75" t="n">
-        <v>4118797</v>
+        <v>4243220</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>81695458</v>
+        <v>81716526</v>
       </c>
       <c r="E76" t="n">
-        <v>112180578</v>
+        <v>112209507</v>
       </c>
       <c r="F76" t="n">
-        <v>523.5034282083093</v>
+        <v>2089.424845912883</v>
       </c>
       <c r="G76" t="n">
-        <v>7106.894450898812</v>
+        <v>4247.467873230727</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I76" t="n">
-        <v>933168</v>
+        <v>680542</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>196597</v>
+        <v>184901</v>
       </c>
       <c r="E77" t="n">
-        <v>205303</v>
+        <v>193090</v>
       </c>
       <c r="F77" t="n">
-        <v>4.013330067654609</v>
+        <v>4.046068030076942</v>
       </c>
       <c r="G77" t="n">
-        <v>5.140322269501977</v>
+        <v>3.797508768413425</v>
       </c>
       <c r="H77" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="I77" t="n">
-        <v>611.55</v>
+        <v>601.77</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6879664</v>
+        <v>7039048</v>
       </c>
       <c r="E78" t="n">
-        <v>7568090</v>
+        <v>7743423</v>
       </c>
       <c r="F78" t="n">
-        <v>214.1456630651482</v>
+        <v>233.1046845387561</v>
       </c>
       <c r="G78" t="n">
-        <v>236.6009419810967</v>
+        <v>237.4725942773901</v>
       </c>
       <c r="H78" t="n">
-        <v>0.52</v>
+        <v>1.7</v>
       </c>
       <c r="I78" t="n">
-        <v>577685</v>
+        <v>592230</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28919805</v>
+        <v>29229485</v>
       </c>
       <c r="E79" t="n">
-        <v>28919805</v>
+        <v>29229485</v>
       </c>
       <c r="F79" t="n">
-        <v>859.6828564799878</v>
+        <v>84.48905626569213</v>
       </c>
       <c r="G79" t="n">
-        <v>931.3037461095075</v>
+        <v>1038.57965288269</v>
       </c>
       <c r="H79" t="n">
-        <v>0.79</v>
+        <v>0.41</v>
       </c>
       <c r="I79" t="n">
-        <v>289074</v>
+        <v>280404</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>274452695</v>
+        <v>274886899</v>
       </c>
       <c r="E80" t="n">
-        <v>274452695</v>
+        <v>274886899</v>
       </c>
       <c r="F80" t="n">
-        <v>1643.316163086784</v>
+        <v>964.2313845891573</v>
       </c>
       <c r="G80" t="n">
-        <v>10984.36910275974</v>
+        <v>2138.304742547188</v>
       </c>
       <c r="H80" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="I80" t="n">
-        <v>14753249</v>
+        <v>11832818</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>606697468</v>
+        <v>604247497</v>
       </c>
       <c r="E81" t="n">
-        <v>606697468</v>
+        <v>604247497</v>
       </c>
       <c r="F81" t="n">
-        <v>1289059.111420961</v>
+        <v>812844.1370714814</v>
       </c>
       <c r="G81" t="n">
-        <v>1355806.570938346</v>
+        <v>794064.7095267945</v>
       </c>
       <c r="H81" t="n">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
       <c r="I81" t="n">
-        <v>249890030</v>
+        <v>255377691</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>110124</v>
+        <v>110098</v>
       </c>
       <c r="E82" t="n">
-        <v>110124</v>
+        <v>110098</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>132.87</v>
+        <v>132.78</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>194315798</v>
+        <v>195434311</v>
       </c>
       <c r="E83" t="n">
-        <v>675070642</v>
+        <v>678956459</v>
       </c>
       <c r="F83" t="n">
-        <v>709.7319783632979</v>
+        <v>904.2066890003358</v>
       </c>
       <c r="G83" t="n">
-        <v>4355.895185739715</v>
+        <v>3362.162223964826</v>
       </c>
       <c r="H83" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I83" t="n">
-        <v>26298669</v>
+        <v>26289153</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4172366</v>
+        <v>4154782</v>
       </c>
       <c r="E84" t="n">
-        <v>4172366</v>
+        <v>4154782</v>
       </c>
       <c r="F84" t="n">
-        <v>731.2811475234362</v>
+        <v>735.8621357406111</v>
       </c>
       <c r="G84" t="n">
-        <v>1621.678088327205</v>
+        <v>17653.54575623105</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="I84" t="n">
-        <v>4088349</v>
+        <v>3912924</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>112624723</v>
+        <v>111789145</v>
       </c>
       <c r="E85" t="n">
-        <v>479262504</v>
+        <v>475656807</v>
       </c>
       <c r="F85" t="n">
-        <v>320155.0042709967</v>
+        <v>229490.2635164908</v>
       </c>
       <c r="G85" t="n">
-        <v>328871.3755822668</v>
+        <v>408777.0278056382</v>
       </c>
       <c r="H85" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="I85" t="n">
-        <v>11506180</v>
+        <v>11611135</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>73210616</v>
+        <v>73099508</v>
       </c>
       <c r="E86" t="n">
-        <v>83999857</v>
+        <v>83872375</v>
       </c>
       <c r="F86" t="n">
-        <v>9462.979061589984</v>
+        <v>9863.200490353231</v>
       </c>
       <c r="G86" t="n">
-        <v>2835.733720270159</v>
+        <v>2967.587450743014</v>
       </c>
       <c r="H86" t="n">
         <v>0.19</v>
       </c>
       <c r="I86" t="n">
-        <v>1194360</v>
+        <v>1037802</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3096553</v>
+        <v>3091853</v>
       </c>
       <c r="E87" t="n">
-        <v>15525413</v>
+        <v>15501849</v>
       </c>
       <c r="F87" t="n">
-        <v>3.838637750709826</v>
+        <v>3.844880543852067</v>
       </c>
       <c r="G87" t="n">
-        <v>9.2831579172743</v>
+        <v>3.876296359742955</v>
       </c>
       <c r="H87" t="n">
-        <v>0.62</v>
+        <v>0.82</v>
       </c>
       <c r="I87" t="n">
-        <v>24154</v>
+        <v>25489</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>513984</v>
+        <v>533628</v>
       </c>
       <c r="E88" t="n">
-        <v>8791666</v>
+        <v>9127666</v>
       </c>
       <c r="F88" t="n">
-        <v>5.531831315134437</v>
+        <v>5.58816772406505</v>
       </c>
       <c r="G88" t="n">
-        <v>5.273128316662218</v>
+        <v>5.561485919204147</v>
       </c>
       <c r="H88" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="I88" t="n">
-        <v>326262</v>
+        <v>317269</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5875559</v>
+        <v>5894386</v>
       </c>
       <c r="E89" t="n">
-        <v>7984005</v>
+        <v>8009542</v>
       </c>
       <c r="F89" t="n">
-        <v>1158.022849389684</v>
+        <v>860.2848369974301</v>
       </c>
       <c r="G89" t="n">
-        <v>95.18836370846671</v>
+        <v>376.2893028120119</v>
       </c>
       <c r="H89" t="n">
-        <v>0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I89" t="n">
-        <v>6377778</v>
+        <v>6393311</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>41325908</v>
+        <v>41116674</v>
       </c>
       <c r="E90" t="n">
-        <v>48267680</v>
+        <v>48023299</v>
       </c>
       <c r="F90" t="n">
-        <v>67.65170917393969</v>
+        <v>933.2606552163713</v>
       </c>
       <c r="G90" t="n">
-        <v>112.3252080332154</v>
+        <v>675.0127895664572</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="I90" t="n">
-        <v>859760</v>
+        <v>812058</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14204933</v>
+        <v>14268581</v>
       </c>
       <c r="F91" t="n">
-        <v>134.2601648014572</v>
+        <v>300.3742178260143</v>
       </c>
       <c r="G91" t="n">
-        <v>236.9049731859914</v>
+        <v>175.2888073595039</v>
       </c>
       <c r="H91" t="n">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="I91" t="n">
-        <v>472109</v>
+        <v>326867</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35576135</v>
+        <v>35660955</v>
       </c>
       <c r="E92" t="n">
-        <v>35576135</v>
+        <v>35660955</v>
       </c>
       <c r="F92" t="n">
-        <v>598.814326892804</v>
+        <v>116.4629908409036</v>
       </c>
       <c r="G92" t="n">
-        <v>42.57419998249414</v>
+        <v>368.9400264461639</v>
       </c>
       <c r="H92" t="n">
-        <v>0.41</v>
+        <v>0.77</v>
       </c>
       <c r="I92" t="n">
-        <v>609524</v>
+        <v>737532</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17689386</v>
+        <v>17578561</v>
       </c>
       <c r="F93" t="n">
-        <v>122.2258343436103</v>
+        <v>125.5871404520785</v>
       </c>
       <c r="G93" t="n">
-        <v>396.561061045612</v>
+        <v>261.3035422935524</v>
       </c>
       <c r="H93" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="I93" t="n">
-        <v>167032</v>
+        <v>165909</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>532083</v>
+        <v>531521</v>
       </c>
       <c r="E94" t="n">
-        <v>6453652</v>
+        <v>6446832</v>
       </c>
       <c r="F94" t="n">
-        <v>887.9685157958032</v>
+        <v>1270.250729508484</v>
       </c>
       <c r="G94" t="n">
-        <v>2737.775481307897</v>
+        <v>2895.328112218063</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I94" t="n">
-        <v>2858837</v>
+        <v>2806007</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25093512</v>
+        <v>24996279</v>
       </c>
       <c r="E95" t="n">
-        <v>35468700</v>
+        <v>35331264</v>
       </c>
       <c r="F95" t="n">
-        <v>3.005160308583949</v>
+        <v>4.530046960821273</v>
       </c>
       <c r="G95" t="n">
-        <v>5.438076288077895</v>
+        <v>1121.144285745673</v>
       </c>
       <c r="H95" t="n">
-        <v>0.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I95" t="n">
-        <v>72603</v>
+        <v>89954</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1262766366</v>
+        <v>1260661608</v>
       </c>
       <c r="E96" t="n">
-        <v>6055223333</v>
+        <v>6045130588</v>
       </c>
       <c r="F96" t="n">
-        <v>381450.4930609125</v>
+        <v>410473.8043079856</v>
       </c>
       <c r="G96" t="n">
-        <v>597442.6124529836</v>
+        <v>547180.2606080945</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>189465872</v>
+        <v>183962689</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>265951665</v>
+        <v>264334250</v>
       </c>
       <c r="E97" t="n">
-        <v>1147995025</v>
+        <v>1141013365</v>
       </c>
       <c r="F97" t="n">
-        <v>309148.825729749</v>
+        <v>102632.8218237798</v>
       </c>
       <c r="G97" t="n">
-        <v>1016879.872679798</v>
+        <v>1016854.514949449</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I97" t="n">
-        <v>110608563</v>
+        <v>112073885</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5010060</v>
+        <v>4980476</v>
       </c>
       <c r="E98" t="n">
-        <v>5552145</v>
+        <v>5519360</v>
       </c>
       <c r="F98" t="n">
-        <v>1005.132812679316</v>
+        <v>1094.911496359001</v>
       </c>
       <c r="G98" t="n">
-        <v>330.3063130855245</v>
+        <v>375.8115896181566</v>
       </c>
       <c r="H98" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I98" t="n">
-        <v>706236</v>
+        <v>688428</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90126</v>
+        <v>90165</v>
       </c>
       <c r="E99" t="n">
-        <v>90126</v>
+        <v>90165</v>
       </c>
       <c r="F99" t="n">
-        <v>5.595856545104009</v>
+        <v>5.510441688527398</v>
       </c>
       <c r="G99" t="n">
-        <v>324.7182948329297</v>
+        <v>332.7188973059227</v>
       </c>
       <c r="H99" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="I99" t="n">
-        <v>4844.68</v>
+        <v>4823.3</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>112523023</v>
+        <v>112723685</v>
       </c>
       <c r="E100" t="n">
-        <v>112523023</v>
+        <v>112723685</v>
       </c>
       <c r="F100" t="n">
-        <v>18397.77646944451</v>
+        <v>23372.36383587964</v>
       </c>
       <c r="G100" t="n">
-        <v>30197.38413369789</v>
+        <v>5883.147920975314</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>5866693</v>
+        <v>5915538</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3766776</v>
+        <v>3760377</v>
       </c>
       <c r="F101" t="n">
-        <v>1263.880738502115</v>
+        <v>1730.565555385211</v>
       </c>
       <c r="G101" t="n">
-        <v>1325.821616372941</v>
+        <v>1069.079869016871</v>
       </c>
       <c r="H101" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="I101" t="n">
-        <v>306544</v>
+        <v>318371</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2044088775</v>
+        <v>2048545489</v>
       </c>
       <c r="E102" t="n">
-        <v>2044088775</v>
+        <v>2048545489</v>
       </c>
       <c r="F102" t="n">
-        <v>7949455.522512351</v>
+        <v>7787091.112044615</v>
       </c>
       <c r="G102" t="n">
-        <v>3573506.53327168</v>
+        <v>4505939.595994465</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5137204584</v>
+        <v>5450016602</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5339029</v>
+        <v>5339775</v>
       </c>
       <c r="E103" t="n">
-        <v>5345072</v>
+        <v>5345818</v>
       </c>
       <c r="F103" t="n">
-        <v>284.7325166504887</v>
+        <v>284.722774407354</v>
       </c>
       <c r="G103" t="n">
-        <v>56.87249965957244</v>
+        <v>56.87055374301229</v>
       </c>
       <c r="H103" t="n">
         <v>0.09</v>
       </c>
       <c r="I103" t="n">
-        <v>154680</v>
+        <v>153088</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2451288</v>
+        <v>2324585</v>
       </c>
       <c r="F104" t="n">
-        <v>323.3112931212677</v>
+        <v>267.3790676716877</v>
       </c>
       <c r="G104" t="n">
-        <v>9.325779056612255</v>
+        <v>23.611443545065</v>
       </c>
       <c r="H104" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I104" t="n">
-        <v>46853</v>
+        <v>71654</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4406701</v>
+        <v>4418912</v>
       </c>
       <c r="E105" t="n">
-        <v>5785423</v>
+        <v>5801455</v>
       </c>
       <c r="F105" t="n">
-        <v>10431.28140798453</v>
+        <v>10878.5583064294</v>
       </c>
       <c r="G105" t="n">
-        <v>12522.93312813346</v>
+        <v>5947.702181092116</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>628430</v>
+        <v>621345</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20146593</v>
+        <v>20145487</v>
       </c>
       <c r="F106" t="n">
-        <v>953.7243595099451</v>
+        <v>52.27374441689037</v>
       </c>
       <c r="G106" t="n">
-        <v>136.7929473521756</v>
+        <v>762.6193014180421</v>
       </c>
       <c r="H106" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>127788</v>
+        <v>128220</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1350573</v>
+        <v>1359716</v>
       </c>
       <c r="E107" t="n">
-        <v>5035441</v>
+        <v>5069525</v>
       </c>
       <c r="F107" t="n">
-        <v>1696.268769098799</v>
+        <v>195.4982962112516</v>
       </c>
       <c r="G107" t="n">
-        <v>237.2414353526417</v>
+        <v>313.0270218380414</v>
       </c>
       <c r="H107" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I107" t="n">
-        <v>603545</v>
+        <v>608379</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4002895</v>
+        <v>3998979</v>
       </c>
       <c r="E108" t="n">
-        <v>11529975</v>
+        <v>11518680</v>
       </c>
       <c r="F108" t="n">
-        <v>184.6866327159133</v>
+        <v>929.5047024351386</v>
       </c>
       <c r="G108" t="n">
-        <v>55.98572263806641</v>
+        <v>8874.973226255797</v>
       </c>
       <c r="H108" t="n">
-        <v>2.98</v>
+        <v>1.31</v>
       </c>
       <c r="I108" t="n">
-        <v>451390</v>
+        <v>515224</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80009189</v>
+        <v>79662371</v>
       </c>
       <c r="E109" t="n">
-        <v>101817911</v>
+        <v>101376559</v>
       </c>
       <c r="F109" t="n">
-        <v>3440.691661003681</v>
+        <v>3792.913655029801</v>
       </c>
       <c r="G109" t="n">
-        <v>948.8424408519686</v>
+        <v>887.8939500278896</v>
       </c>
       <c r="H109" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="I109" t="n">
-        <v>6269146</v>
+        <v>6174344</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22537165</v>
+        <v>22393754</v>
       </c>
       <c r="E110" t="n">
-        <v>29235859</v>
+        <v>29049822</v>
       </c>
       <c r="F110" t="n">
-        <v>18902.90357549949</v>
+        <v>21231.70678852264</v>
       </c>
       <c r="G110" t="n">
-        <v>15576.71678692226</v>
+        <v>11565.89323448134</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="I110" t="n">
-        <v>165108</v>
+        <v>159130</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>616663</v>
+        <v>607028</v>
       </c>
       <c r="E111" t="n">
-        <v>616663</v>
+        <v>607028</v>
       </c>
       <c r="F111" t="n">
-        <v>4.093718520663941</v>
+        <v>15.16143405622558</v>
       </c>
       <c r="G111" t="n">
-        <v>88.13426006101531</v>
+        <v>330.0528434149438</v>
       </c>
       <c r="H111" t="n">
-        <v>2.03</v>
+        <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>81897</v>
+        <v>77736</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13827732</v>
+        <v>13537883</v>
       </c>
       <c r="E112" t="n">
-        <v>13827732</v>
+        <v>13537883</v>
       </c>
       <c r="F112" t="n">
-        <v>1381.531633790609</v>
+        <v>1627.683145954036</v>
       </c>
       <c r="G112" t="n">
-        <v>2200.787867719202</v>
+        <v>2183.974672897197</v>
       </c>
       <c r="H112" t="n">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="I112" t="n">
-        <v>4395272</v>
+        <v>4506653</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98883595</v>
+        <v>98978226</v>
       </c>
       <c r="E113" t="n">
-        <v>122315467</v>
+        <v>122432524</v>
       </c>
       <c r="F113" t="n">
-        <v>163.5231655870279</v>
+        <v>165.9224784115371</v>
       </c>
       <c r="G113" t="n">
-        <v>1027.501351153138</v>
+        <v>790.4802413442463</v>
       </c>
       <c r="H113" t="n">
-        <v>0.79</v>
+        <v>0.34</v>
       </c>
       <c r="I113" t="n">
-        <v>753486</v>
+        <v>757137</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>828850</v>
+        <v>833574</v>
       </c>
       <c r="F114" t="n">
-        <v>211.5756030355995</v>
+        <v>186.074225322465</v>
       </c>
       <c r="G114" t="n">
-        <v>268.9502137745043</v>
+        <v>239.0948683159598</v>
       </c>
       <c r="H114" t="n">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="I114" t="n">
-        <v>30614</v>
+        <v>29620</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2860561</v>
+        <v>2845739</v>
       </c>
       <c r="F115" t="n">
-        <v>280.4281038682564</v>
+        <v>295.9796603726216</v>
       </c>
       <c r="G115" t="n">
-        <v>2349.616179936425</v>
+        <v>2066.186165637807</v>
       </c>
       <c r="H115" t="n">
-        <v>0.98</v>
+        <v>0.33</v>
       </c>
       <c r="I115" t="n">
-        <v>21526</v>
+        <v>21777</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10821137</v>
+        <v>10913352</v>
       </c>
       <c r="E116" t="n">
-        <v>15913435</v>
+        <v>16049045</v>
       </c>
       <c r="F116" t="n">
-        <v>101006.8285570387</v>
+        <v>3899.995024710106</v>
       </c>
       <c r="G116" t="n">
-        <v>2059.882683206568</v>
+        <v>1951.64738704158</v>
       </c>
       <c r="H116" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="I116" t="n">
-        <v>413717</v>
+        <v>408117</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3275568</v>
+        <v>3255042</v>
       </c>
       <c r="F117" t="n">
-        <v>43.16403239720665</v>
+        <v>43.16255552163503</v>
       </c>
       <c r="G117" t="n">
-        <v>325.4294313938861</v>
+        <v>388.2453508935054</v>
       </c>
       <c r="H117" t="n">
         <v>0.45</v>
       </c>
       <c r="I117" t="n">
-        <v>35649</v>
+        <v>37919</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1095615</v>
+        <v>1085030</v>
       </c>
       <c r="F118" t="n">
-        <v>5.595524570859702</v>
+        <v>5.526176910900745</v>
       </c>
       <c r="G118" t="n">
-        <v>52.86490812068853</v>
+        <v>35.43834430329713</v>
       </c>
       <c r="H118" t="n">
-        <v>0.72</v>
+        <v>0.29</v>
       </c>
       <c r="I118" t="n">
-        <v>4071.76</v>
+        <v>3342.54</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5207217</v>
+        <v>5177122</v>
       </c>
       <c r="E119" t="n">
-        <v>7285651</v>
+        <v>7243545</v>
       </c>
       <c r="F119" t="n">
-        <v>2009.44304942466</v>
+        <v>1054.686064965397</v>
       </c>
       <c r="G119" t="n">
-        <v>2155.890126414135</v>
+        <v>1439.935826700189</v>
       </c>
       <c r="H119" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>106116</v>
+        <v>102943</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10153652</v>
+        <v>10069695</v>
       </c>
       <c r="E120" t="n">
-        <v>27967801</v>
+        <v>27736546</v>
       </c>
       <c r="F120" t="n">
-        <v>616.557792399756</v>
+        <v>663.9167990626473</v>
       </c>
       <c r="G120" t="n">
-        <v>46.96042364776591</v>
+        <v>52.74518837398098</v>
       </c>
       <c r="H120" t="n">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="I120" t="n">
-        <v>350774</v>
+        <v>348213</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50488875</v>
+        <v>51892684</v>
       </c>
       <c r="E121" t="n">
-        <v>128623295</v>
+        <v>132199579</v>
       </c>
       <c r="F121" t="n">
-        <v>888.2493244616409</v>
+        <v>541.5477571689737</v>
       </c>
       <c r="G121" t="n">
-        <v>12087.35251500961</v>
+        <v>11233.69285053698</v>
       </c>
       <c r="H121" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I121" t="n">
-        <v>2370811</v>
+        <v>2753576</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13944384</v>
+        <v>13838900</v>
       </c>
       <c r="E122" t="n">
-        <v>67534877</v>
+        <v>67024000</v>
       </c>
       <c r="F122" t="n">
-        <v>1238.831240869384</v>
+        <v>1129.411611569757</v>
       </c>
       <c r="G122" t="n">
-        <v>5423.380789544346</v>
+        <v>4477.158614605322</v>
       </c>
       <c r="H122" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="I122" t="n">
-        <v>3505569</v>
+        <v>3599514</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>505525</v>
+        <v>535264</v>
       </c>
       <c r="F123" t="n">
-        <v>4.110343216503222</v>
+        <v>3.906539857664534</v>
       </c>
       <c r="G123" t="n">
-        <v>4.095780005291839</v>
+        <v>3.895050516175771</v>
       </c>
       <c r="H123" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="I123" t="n">
-        <v>7476.02</v>
+        <v>7459.83</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4509168</v>
+        <v>4476289</v>
       </c>
       <c r="E124" t="n">
-        <v>10278449</v>
+        <v>10203502</v>
       </c>
       <c r="F124" t="n">
-        <v>239.3128360965212</v>
+        <v>259.0976785240805</v>
       </c>
       <c r="G124" t="n">
-        <v>2781.322355802498</v>
+        <v>2924.867812328436</v>
       </c>
       <c r="H124" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I124" t="n">
-        <v>105526</v>
+        <v>98927</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1858073937</v>
+        <v>1870079703</v>
       </c>
       <c r="F125" t="n">
-        <v>76574.64175710213</v>
+        <v>72867.00173739075</v>
       </c>
       <c r="G125" t="n">
-        <v>72801.70490118201</v>
+        <v>76000.82785093402</v>
       </c>
       <c r="H125" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="I125" t="n">
-        <v>25844861</v>
+        <v>26015548</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9350793</v>
+        <v>9405286</v>
       </c>
       <c r="E126" t="n">
-        <v>34049991</v>
+        <v>34248468</v>
       </c>
       <c r="F126" t="n">
-        <v>1722.948669022912</v>
+        <v>1722.785020942406</v>
       </c>
       <c r="G126" t="n">
-        <v>5.354480585586932</v>
+        <v>5.354016974205945</v>
       </c>
       <c r="H126" t="n">
         <v>0.26</v>
       </c>
       <c r="I126" t="n">
-        <v>156821</v>
+        <v>158066</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>562689</v>
+        <v>543095</v>
       </c>
       <c r="F127" t="n">
-        <v>29.27845154152223</v>
+        <v>19.01056958996604</v>
       </c>
       <c r="G127" t="n">
-        <v>35.57396639483873</v>
+        <v>23.22295817416731</v>
       </c>
       <c r="H127" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="I127" t="n">
-        <v>21333</v>
+        <v>20733</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12145707</v>
+        <v>12238660</v>
       </c>
       <c r="E128" t="n">
-        <v>17609523</v>
+        <v>17744292</v>
       </c>
       <c r="F128" t="n">
-        <v>2938.787808759201</v>
+        <v>3118.736922403209</v>
       </c>
       <c r="G128" t="n">
-        <v>743.191486880766</v>
+        <v>6942.269851311252</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="I128" t="n">
-        <v>2255518</v>
+        <v>2278944</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31565521</v>
+        <v>32542464</v>
       </c>
       <c r="E129" t="n">
-        <v>98284905</v>
+        <v>101326792</v>
       </c>
       <c r="F129" t="n">
-        <v>6281.198430755066</v>
+        <v>8599.935849150736</v>
       </c>
       <c r="G129" t="n">
-        <v>10402.62602889947</v>
+        <v>3792.310700436687</v>
       </c>
       <c r="H129" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I129" t="n">
-        <v>12104168</v>
+        <v>11905789</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1922972</v>
+        <v>2063982</v>
       </c>
       <c r="E130" t="n">
-        <v>13789444</v>
+        <v>14800607</v>
       </c>
       <c r="F130" t="n">
-        <v>189.953075102677</v>
+        <v>5.096326182941364</v>
       </c>
       <c r="G130" t="n">
-        <v>3.939353439087649</v>
+        <v>4.004410269899747</v>
       </c>
       <c r="H130" t="n">
-        <v>0.65</v>
+        <v>0.28</v>
       </c>
       <c r="I130" t="n">
-        <v>1845079</v>
+        <v>1838637</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7914626</v>
+        <v>7888466</v>
       </c>
       <c r="F131" t="n">
-        <v>114.8746624812987</v>
+        <v>184.8126527756684</v>
       </c>
       <c r="G131" t="n">
-        <v>68.94465900464806</v>
+        <v>55.3114479788754</v>
       </c>
       <c r="H131" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="I131" t="n">
-        <v>399828</v>
+        <v>475823</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>194857125</v>
+        <v>195405033</v>
       </c>
       <c r="E132" t="n">
-        <v>1103400772</v>
+        <v>1106503362</v>
       </c>
       <c r="F132" t="n">
-        <v>488655.9685082563</v>
+        <v>520404.9792970064</v>
       </c>
       <c r="G132" t="n">
-        <v>489410.2070754973</v>
+        <v>504738.4418071128</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>58864766</v>
+        <v>60469698</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1043029</v>
+        <v>1033125</v>
       </c>
       <c r="E133" t="n">
-        <v>1043029</v>
+        <v>1033125</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>12287.76</v>
+        <v>12121.97</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>501623</v>
+        <v>500735</v>
       </c>
       <c r="E134" t="n">
-        <v>1688394</v>
+        <v>1685406</v>
       </c>
       <c r="F134" t="n">
-        <v>204.664602725142</v>
+        <v>132.9974265431572</v>
       </c>
       <c r="G134" t="n">
-        <v>117.8346525410542</v>
+        <v>152.8210201474504</v>
       </c>
       <c r="H134" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="I134" t="n">
-        <v>632655</v>
+        <v>630046</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>16458511</v>
+        <v>16508342</v>
       </c>
       <c r="F135" t="n">
-        <v>3.845274933519741</v>
+        <v>3.845143273470084</v>
       </c>
       <c r="G135" t="n">
-        <v>4.226867637551892</v>
+        <v>4.226722911982804</v>
       </c>
       <c r="H135" t="n">
         <v>0.64</v>
       </c>
       <c r="I135" t="n">
-        <v>739.27</v>
+        <v>741.38</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>137134960</v>
+        <v>137061061</v>
       </c>
       <c r="E136" t="n">
-        <v>1015814517</v>
+        <v>1015267120</v>
       </c>
       <c r="F136" t="n">
-        <v>27568.32899251168</v>
+        <v>40739.64950223108</v>
       </c>
       <c r="G136" t="n">
-        <v>40956.98707304241</v>
+        <v>41037.10409419412</v>
       </c>
       <c r="H136" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I136" t="n">
-        <v>12224918</v>
+        <v>12089086</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31195171</v>
+        <v>31194778</v>
       </c>
       <c r="E137" t="n">
-        <v>148397226</v>
+        <v>148284554</v>
       </c>
       <c r="F137" t="n">
-        <v>17954.38468695775</v>
+        <v>16644.61969321931</v>
       </c>
       <c r="G137" t="n">
-        <v>18494.05861523858</v>
+        <v>17001.60333178628</v>
       </c>
       <c r="H137" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I137" t="n">
-        <v>1348236</v>
+        <v>1127734</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8039726</v>
+        <v>8079024</v>
       </c>
       <c r="E138" t="n">
-        <v>10770992</v>
+        <v>10823640</v>
       </c>
       <c r="F138" t="n">
-        <v>235.4764142774041</v>
+        <v>389.1283656501864</v>
       </c>
       <c r="G138" t="n">
-        <v>39.91977196266699</v>
+        <v>46.05808006834849</v>
       </c>
       <c r="H138" t="n">
-        <v>0.86</v>
+        <v>0.59</v>
       </c>
       <c r="I138" t="n">
-        <v>59676</v>
+        <v>59570</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1264508</v>
+        <v>1242490</v>
       </c>
       <c r="F139" t="n">
-        <v>5.324585058223558</v>
+        <v>97.4928218126895</v>
       </c>
       <c r="G139" t="n">
-        <v>57.78651072781621</v>
+        <v>4.014621503496403</v>
       </c>
       <c r="H139" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="I139" t="n">
-        <v>48438</v>
+        <v>47527</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2360782</v>
+        <v>2395405</v>
       </c>
       <c r="E140" t="n">
-        <v>2360782</v>
+        <v>2395405</v>
       </c>
       <c r="F140" t="n">
-        <v>17.78088021671239</v>
+        <v>1014.047861571272</v>
       </c>
       <c r="G140" t="n">
-        <v>381.70350264509</v>
+        <v>262.4160289661816</v>
       </c>
       <c r="H140" t="n">
-        <v>0.23</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>273275</v>
+        <v>269348</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>25996730</v>
+        <v>25583691</v>
       </c>
       <c r="E141" t="n">
-        <v>25996730</v>
+        <v>25583691</v>
       </c>
       <c r="F141" t="n">
-        <v>904.0362028804674</v>
+        <v>1217.712797471171</v>
       </c>
       <c r="G141" t="n">
-        <v>1167.802703452277</v>
+        <v>1666.349283536017</v>
       </c>
       <c r="H141" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="I141" t="n">
-        <v>348049</v>
+        <v>345448</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6418517</v>
+        <v>6382560</v>
       </c>
       <c r="E142" t="n">
-        <v>6778673</v>
+        <v>6740698</v>
       </c>
       <c r="F142" t="n">
-        <v>1196.429611500725</v>
+        <v>22.81554634273746</v>
       </c>
       <c r="G142" t="n">
-        <v>1956.24409147035</v>
+        <v>855.5824421600111</v>
       </c>
       <c r="H142" t="n">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="I142" t="n">
-        <v>68207</v>
+        <v>69729</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3355411</v>
+        <v>3271465</v>
       </c>
       <c r="E143" t="n">
-        <v>7835443</v>
+        <v>7639415</v>
       </c>
       <c r="F143" t="n">
-        <v>1800.881048312605</v>
+        <v>1859.27467207105</v>
       </c>
       <c r="G143" t="n">
-        <v>917.4101872581626</v>
+        <v>830.2307110786805</v>
       </c>
       <c r="H143" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="I143" t="n">
-        <v>758126</v>
+        <v>753274</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1570320</v>
+        <v>1556959</v>
       </c>
       <c r="E144" t="n">
-        <v>12196283</v>
+        <v>12092515</v>
       </c>
       <c r="F144" t="n">
-        <v>282.5501666595364</v>
+        <v>200.1179146312435</v>
       </c>
       <c r="G144" t="n">
-        <v>1118.63432740567</v>
+        <v>3191.170570315339</v>
       </c>
       <c r="H144" t="n">
-        <v>0.11</v>
+        <v>1.33</v>
       </c>
       <c r="I144" t="n">
-        <v>521181</v>
+        <v>508948</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>329969349</v>
+        <v>333164342</v>
       </c>
       <c r="E145" t="n">
-        <v>2968608868</v>
+        <v>2997353007</v>
       </c>
       <c r="F145" t="n">
-        <v>527024.0103300749</v>
+        <v>416431.9033693909</v>
       </c>
       <c r="G145" t="n">
-        <v>683664.8908091872</v>
+        <v>633974.6146948553</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>37145675</v>
+        <v>37079561</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>257506</v>
+        <v>262340</v>
       </c>
       <c r="E146" t="n">
-        <v>2272681</v>
+        <v>2315347</v>
       </c>
       <c r="F146" t="n">
-        <v>4.093088508921772</v>
+        <v>52.0920704821191</v>
       </c>
       <c r="G146" t="n">
-        <v>5.436296394032635</v>
+        <v>4.111499864702662</v>
       </c>
       <c r="H146" t="n">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="I146" t="n">
-        <v>93999</v>
+        <v>79997</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>645339</v>
+        <v>643341</v>
       </c>
       <c r="F147" t="n">
-        <v>930.2654373408061</v>
+        <v>929.0063231304215</v>
       </c>
       <c r="G147" t="n">
-        <v>584.8878964306219</v>
+        <v>623.5702340014089</v>
       </c>
       <c r="H147" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I147" t="n">
-        <v>6548.63</v>
+        <v>5755.2</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4912627</v>
+        <v>4886688</v>
       </c>
       <c r="E148" t="n">
-        <v>17359871</v>
+        <v>17268211</v>
       </c>
       <c r="F148" t="n">
-        <v>1592.795165253797</v>
+        <v>1715.28338188051</v>
       </c>
       <c r="G148" t="n">
-        <v>2271.953257358071</v>
+        <v>2638.22245947259</v>
       </c>
       <c r="H148" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>106158</v>
+        <v>105343</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8895846</v>
+        <v>8832294</v>
       </c>
       <c r="E149" t="n">
-        <v>41232757</v>
+        <v>40938188</v>
       </c>
       <c r="F149" t="n">
-        <v>2320.90723264219</v>
+        <v>1844.436363573315</v>
       </c>
       <c r="G149" t="n">
-        <v>2844.241281211452</v>
+        <v>4357.008170453432</v>
       </c>
       <c r="H149" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I149" t="n">
-        <v>93971</v>
+        <v>94971</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>42531743</v>
+        <v>42523161</v>
       </c>
       <c r="E150" t="n">
-        <v>246241217</v>
+        <v>246191529</v>
       </c>
       <c r="F150" t="n">
-        <v>79406.90834713817</v>
+        <v>86703.22449787991</v>
       </c>
       <c r="G150" t="n">
-        <v>72683.36103244369</v>
+        <v>60050.85385720636</v>
       </c>
       <c r="H150" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I150" t="n">
-        <v>11312723</v>
+        <v>11096554</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>83628</v>
+        <v>81609</v>
       </c>
       <c r="E151" t="n">
-        <v>83628</v>
+        <v>81609</v>
       </c>
       <c r="F151" t="n">
-        <v>10.7123411510375</v>
+        <v>4.116665437094671</v>
       </c>
       <c r="G151" t="n">
-        <v>9.155470292272311</v>
+        <v>7.854064435491324</v>
       </c>
       <c r="H151" t="n">
-        <v>0.43</v>
+        <v>1.32</v>
       </c>
       <c r="I151" t="n">
-        <v>20198</v>
+        <v>19896.85</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4367394</v>
+        <v>4348385</v>
       </c>
       <c r="F152" t="n">
-        <v>405.5352536556818</v>
+        <v>561.2845277538711</v>
       </c>
       <c r="G152" t="n">
-        <v>95.7492490989589</v>
+        <v>229.0814233575683</v>
       </c>
       <c r="H152" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="I152" t="n">
-        <v>317606</v>
+        <v>287443</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39556846</v>
+        <v>39151632</v>
       </c>
       <c r="E153" t="n">
-        <v>54633637</v>
+        <v>54073979</v>
       </c>
       <c r="F153" t="n">
-        <v>4671.076866937844</v>
+        <v>4603.092058932704</v>
       </c>
       <c r="G153" t="n">
-        <v>6752.708361888073</v>
+        <v>14140.55392787014</v>
       </c>
       <c r="H153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I153" t="n">
-        <v>332151</v>
+        <v>345250</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2152100</v>
+        <v>2139491</v>
       </c>
       <c r="E154" t="n">
-        <v>8788621</v>
+        <v>8737128</v>
       </c>
       <c r="F154" t="n">
-        <v>1375.418259032661</v>
+        <v>749.1956204924021</v>
       </c>
       <c r="G154" t="n">
-        <v>634.4963375962298</v>
+        <v>386.7815955490337</v>
       </c>
       <c r="H154" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I154" t="n">
-        <v>557791</v>
+        <v>564848</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7267938</v>
+        <v>7286729</v>
       </c>
       <c r="E155" t="n">
-        <v>7321963</v>
+        <v>7340893</v>
       </c>
       <c r="F155" t="n">
-        <v>4902.430229323579</v>
+        <v>8585.651185466795</v>
       </c>
       <c r="G155" t="n">
-        <v>1487.127208111929</v>
+        <v>1907.627817477806</v>
       </c>
       <c r="H155" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I155" t="n">
-        <v>4878225</v>
+        <v>4883115</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>533044</v>
+        <v>536948</v>
       </c>
       <c r="E156" t="n">
-        <v>533044</v>
+        <v>536948</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>30.16</v>
+        <v>26.74</v>
       </c>
       <c r="I156" t="n">
-        <v>5755.88</v>
+        <v>6246.2</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13475624</v>
+        <v>13488217</v>
       </c>
       <c r="E157" t="n">
-        <v>13521483</v>
+        <v>13534119</v>
       </c>
       <c r="F157" t="n">
-        <v>1840.908122659228</v>
+        <v>5163.454517520185</v>
       </c>
       <c r="G157" t="n">
-        <v>3984.215197139749</v>
+        <v>3585.320155306166</v>
       </c>
       <c r="H157" t="n">
         <v>0.2</v>
       </c>
       <c r="I157" t="n">
-        <v>5745750</v>
+        <v>5750405</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42856992</v>
+        <v>42838171</v>
       </c>
       <c r="E158" t="n">
-        <v>72761202</v>
+        <v>72729249</v>
       </c>
       <c r="F158" t="n">
-        <v>439.6641170457337</v>
+        <v>459.542278691045</v>
       </c>
       <c r="G158" t="n">
-        <v>822.7780124095405</v>
+        <v>874.5414364957321</v>
       </c>
       <c r="H158" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="I158" t="n">
-        <v>1149131</v>
+        <v>1110706</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>26083802</v>
+        <v>25930630</v>
       </c>
       <c r="E159" t="n">
-        <v>78187171</v>
+        <v>77727325</v>
       </c>
       <c r="F159" t="n">
-        <v>17680.34405053291</v>
+        <v>15623.04589371155</v>
       </c>
       <c r="G159" t="n">
-        <v>12997.38323764755</v>
+        <v>7949.014699923197</v>
       </c>
       <c r="H159" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I159" t="n">
-        <v>2415387</v>
+        <v>2432903</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>100874835</v>
+        <v>100893828</v>
       </c>
       <c r="E160" t="n">
-        <v>107239066</v>
+        <v>107259258</v>
       </c>
       <c r="F160" t="n">
-        <v>850.948588632759</v>
+        <v>402.1297973155484</v>
       </c>
       <c r="G160" t="n">
-        <v>1212.853937774866</v>
+        <v>1742.261434660885</v>
       </c>
       <c r="H160" t="n">
-        <v>1.08</v>
+        <v>0.13</v>
       </c>
       <c r="I160" t="n">
-        <v>977800</v>
+        <v>977305</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10658287</v>
+        <v>10668645</v>
       </c>
       <c r="E161" t="n">
-        <v>46361685</v>
+        <v>46439685</v>
       </c>
       <c r="F161" t="n">
-        <v>3640.001525874591</v>
+        <v>3617.992300417523</v>
       </c>
       <c r="G161" t="n">
-        <v>3019.724673946183</v>
+        <v>2985.105003958746</v>
       </c>
       <c r="H161" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="I161" t="n">
-        <v>112229</v>
+        <v>112852</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15044755</v>
+        <v>15042885</v>
       </c>
       <c r="E162" t="n">
-        <v>92214251</v>
+        <v>92202790</v>
       </c>
       <c r="F162" t="n">
-        <v>1820.852786766563</v>
+        <v>3201.831789515315</v>
       </c>
       <c r="G162" t="n">
-        <v>1405.626506733769</v>
+        <v>1208.399037128343</v>
       </c>
       <c r="H162" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I162" t="n">
-        <v>11804900</v>
+        <v>11795588</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1468877</v>
+        <v>1487367</v>
       </c>
       <c r="E163" t="n">
-        <v>1510195</v>
+        <v>1529205</v>
       </c>
       <c r="F163" t="n">
-        <v>97.40893277160598</v>
+        <v>99.02305671267408</v>
       </c>
       <c r="G163" t="n">
-        <v>64.15186344962009</v>
+        <v>87.55245111213975</v>
       </c>
       <c r="H163" t="n">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="I163" t="n">
-        <v>82528</v>
+        <v>130797</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97031</v>
+        <v>97123</v>
       </c>
       <c r="E164" t="n">
-        <v>275255</v>
+        <v>275516</v>
       </c>
       <c r="F164" t="n">
-        <v>4.02901484869274</v>
+        <v>3.88471229148504</v>
       </c>
       <c r="G164" t="n">
-        <v>80.36608788004406</v>
+        <v>80.5256198582214</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>47.71</v>
+        <v>40.77</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>45830059</v>
+        <v>45889514</v>
       </c>
       <c r="E165" t="n">
-        <v>197430883</v>
+        <v>197687010</v>
       </c>
       <c r="F165" t="n">
-        <v>4236.011126029239</v>
+        <v>4910.923135340675</v>
       </c>
       <c r="G165" t="n">
-        <v>5825.690139084976</v>
+        <v>10041.7874323377</v>
       </c>
       <c r="H165" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I165" t="n">
-        <v>8327070</v>
+        <v>8631736</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7922701</v>
+        <v>7899624</v>
       </c>
       <c r="F166" t="n">
-        <v>487.3060029721782</v>
+        <v>528.2297785101665</v>
       </c>
       <c r="G166" t="n">
-        <v>2268.847724685279</v>
+        <v>1815.00015621119</v>
       </c>
       <c r="H166" t="n">
-        <v>0.61</v>
+        <v>0.09</v>
       </c>
       <c r="I166" t="n">
-        <v>6386608</v>
+        <v>6395673</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>664361</v>
+        <v>663154</v>
       </c>
       <c r="E167" t="n">
-        <v>2398745</v>
+        <v>2394388</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>50.88717569839704</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>10.27122329360454</v>
       </c>
       <c r="H167" t="n">
-        <v>6.11</v>
+        <v>1.37</v>
       </c>
       <c r="I167" t="n">
-        <v>370999</v>
+        <v>382441</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1642405</v>
+        <v>1652431</v>
       </c>
       <c r="F168" t="n">
-        <v>728.4862318431987</v>
+        <v>674.5985374217956</v>
       </c>
       <c r="G168" t="n">
-        <v>13.01910561028425</v>
+        <v>13.73055422707896</v>
       </c>
       <c r="H168" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="I168" t="n">
-        <v>89405</v>
+        <v>88834</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12988127</v>
+        <v>12962775</v>
       </c>
       <c r="E169" t="n">
-        <v>12988127</v>
+        <v>12962775</v>
       </c>
       <c r="F169" t="n">
-        <v>160.8313912567129</v>
+        <v>1805.153204313728</v>
       </c>
       <c r="G169" t="n">
-        <v>564.8105393318891</v>
+        <v>452.573449413715</v>
       </c>
       <c r="H169" t="n">
-        <v>2.82</v>
+        <v>1.77</v>
       </c>
       <c r="I169" t="n">
-        <v>2678014</v>
+        <v>2645890</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1730179</v>
+        <v>1728150</v>
       </c>
       <c r="E170" t="n">
-        <v>6287351</v>
+        <v>6279897</v>
       </c>
       <c r="F170" t="n">
-        <v>140.7498364699219</v>
+        <v>991.056582795489</v>
       </c>
       <c r="G170" t="n">
-        <v>162.9190777166929</v>
+        <v>137.6947640643956</v>
       </c>
       <c r="H170" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I170" t="n">
-        <v>134316</v>
+        <v>135623</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>9026382</v>
+        <v>9013682</v>
       </c>
       <c r="E171" t="n">
-        <v>20047622</v>
+        <v>20019416</v>
       </c>
       <c r="F171" t="n">
-        <v>1789.858133961452</v>
+        <v>1775.766787707673</v>
       </c>
       <c r="G171" t="n">
-        <v>1550.22599424775</v>
+        <v>1750.908557594376</v>
       </c>
       <c r="H171" t="n">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="I171" t="n">
-        <v>405354</v>
+        <v>402211</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1020421</v>
+        <v>1017701</v>
       </c>
       <c r="E172" t="n">
-        <v>2982513</v>
+        <v>2974562</v>
       </c>
       <c r="F172" t="n">
-        <v>87.97445935688771</v>
+        <v>87.99964899201319</v>
       </c>
       <c r="G172" t="n">
-        <v>126.8096312449372</v>
+        <v>126.878091072857</v>
       </c>
       <c r="H172" t="n">
         <v>0.27</v>
       </c>
       <c r="I172" t="n">
-        <v>13861.21</v>
+        <v>13872.94</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20906044</v>
+        <v>20202183</v>
       </c>
       <c r="E173" t="n">
-        <v>83624176</v>
+        <v>80808730</v>
       </c>
       <c r="F173" t="n">
-        <v>6397.962914441079</v>
+        <v>20431.7299797792</v>
       </c>
       <c r="G173" t="n">
-        <v>8380.899693403186</v>
+        <v>19502.02395332516</v>
       </c>
       <c r="H173" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="I173" t="n">
-        <v>5902732</v>
+        <v>6008803</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4314378</v>
+        <v>4245910</v>
       </c>
       <c r="E174" t="n">
-        <v>4314378</v>
+        <v>4245910</v>
       </c>
       <c r="F174" t="n">
-        <v>2317.855114273611</v>
+        <v>2482.573136581383</v>
       </c>
       <c r="G174" t="n">
-        <v>1023.516019012914</v>
+        <v>893.2348051948508</v>
       </c>
       <c r="H174" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="I174" t="n">
-        <v>2450100</v>
+        <v>2459796</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>290809364</v>
+        <v>288640637</v>
       </c>
       <c r="E175" t="n">
-        <v>290809364</v>
+        <v>288640637</v>
       </c>
       <c r="F175" t="n">
-        <v>5741.99203969591</v>
+        <v>4027.52596937498</v>
       </c>
       <c r="G175" t="n">
-        <v>3863.273844375779</v>
+        <v>12707.12822660941</v>
       </c>
       <c r="H175" t="n">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="I175" t="n">
-        <v>12469759</v>
+        <v>12127571</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12655688</v>
+        <v>12623754</v>
       </c>
       <c r="E176" t="n">
-        <v>40039048</v>
+        <v>39938015</v>
       </c>
       <c r="F176" t="n">
-        <v>2631.78594107705</v>
+        <v>3682.312286021483</v>
       </c>
       <c r="G176" t="n">
-        <v>3591.056643570824</v>
+        <v>3604.027787453049</v>
       </c>
       <c r="H176" t="n">
         <v>0.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1569118</v>
+        <v>1488395</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26289</v>
+        <v>26482</v>
       </c>
       <c r="E177" t="n">
-        <v>206754</v>
+        <v>208274</v>
       </c>
       <c r="F177" t="n">
-        <v>326.8929627506348</v>
+        <v>152.2622594078395</v>
       </c>
       <c r="G177" t="n">
-        <v>96.53895134253602</v>
+        <v>625.6392836506208</v>
       </c>
       <c r="H177" t="n">
-        <v>0.48</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I177" t="n">
-        <v>126664</v>
+        <v>129345</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8008026</v>
+        <v>8055683</v>
       </c>
       <c r="E178" t="n">
-        <v>8008026</v>
+        <v>8055683</v>
       </c>
       <c r="F178" t="n">
-        <v>1852.171326930967</v>
+        <v>2155.545216324641</v>
       </c>
       <c r="G178" t="n">
-        <v>2077.284141987398</v>
+        <v>1406.104414550316</v>
       </c>
       <c r="H178" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I178" t="n">
-        <v>3478702</v>
+        <v>3459789</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1087719</v>
+        <v>1086882</v>
       </c>
       <c r="E179" t="n">
-        <v>2477387</v>
+        <v>2475480</v>
       </c>
       <c r="F179" t="n">
-        <v>425.7360880855887</v>
+        <v>262.7809714000925</v>
       </c>
       <c r="G179" t="n">
-        <v>7.637392287729487</v>
+        <v>181.3746185367314</v>
       </c>
       <c r="H179" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I179" t="n">
-        <v>4843.41</v>
+        <v>4834.17</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9752110</v>
+        <v>9055324</v>
       </c>
       <c r="E180" t="n">
-        <v>9752110</v>
+        <v>9055324</v>
       </c>
       <c r="F180" t="n">
-        <v>2159.271036459489</v>
+        <v>1618.98316499679</v>
       </c>
       <c r="G180" t="n">
-        <v>3902.554898604333</v>
+        <v>3978.978372507951</v>
       </c>
       <c r="H180" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="I180" t="n">
-        <v>2361353</v>
+        <v>2610632</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>16717447</v>
+        <v>16717595</v>
       </c>
       <c r="E181" t="n">
-        <v>16717447</v>
+        <v>16717595</v>
       </c>
       <c r="F181" t="n">
-        <v>3495.666566797478</v>
+        <v>2775.663466418966</v>
       </c>
       <c r="G181" t="n">
-        <v>2675.326032646928</v>
+        <v>3209.284980052682</v>
       </c>
       <c r="H181" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="I181" t="n">
-        <v>3291932</v>
+        <v>3263723</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31765923</v>
+        <v>31501612</v>
       </c>
       <c r="E182" t="n">
-        <v>87988454</v>
+        <v>87256340</v>
       </c>
       <c r="F182" t="n">
-        <v>5156.313257477518</v>
+        <v>5224.39186126067</v>
       </c>
       <c r="G182" t="n">
-        <v>5804.037284724633</v>
+        <v>5432.399307483289</v>
       </c>
       <c r="H182" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I182" t="n">
-        <v>11984571</v>
+        <v>11958077</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>35697731</v>
+        <v>36306761</v>
       </c>
       <c r="E183" t="n">
-        <v>90012539</v>
+        <v>91548222</v>
       </c>
       <c r="F183" t="n">
-        <v>15034.06370470402</v>
+        <v>15870.89596484445</v>
       </c>
       <c r="G183" t="n">
-        <v>13364.36235274031</v>
+        <v>11171.94058221209</v>
       </c>
       <c r="H183" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="I183" t="n">
-        <v>2819632</v>
+        <v>2838958</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>293034703</v>
+        <v>296020991</v>
       </c>
       <c r="E184" t="n">
-        <v>297614756</v>
+        <v>300647680</v>
       </c>
       <c r="F184" t="n">
-        <v>17009.64291552779</v>
+        <v>17295.58173610231</v>
       </c>
       <c r="G184" t="n">
-        <v>19684.0876849521</v>
+        <v>26579.76176569226</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>11495230</v>
+        <v>11516697</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>403279</v>
+        <v>402953</v>
       </c>
       <c r="F185" t="n">
-        <v>8.302341173073776</v>
+        <v>300.2486571622021</v>
       </c>
       <c r="G185" t="n">
-        <v>244.9208728991687</v>
+        <v>50.14356791464299</v>
       </c>
       <c r="H185" t="n">
-        <v>1.95</v>
+        <v>3.19</v>
       </c>
       <c r="I185" t="n">
-        <v>61245</v>
+        <v>61736</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28081338</v>
+        <v>28086250</v>
       </c>
       <c r="E186" t="n">
-        <v>66714277</v>
+        <v>66725946</v>
       </c>
       <c r="F186" t="n">
-        <v>11247.20842925804</v>
+        <v>10305.01654318967</v>
       </c>
       <c r="G186" t="n">
-        <v>11059.67457925305</v>
+        <v>3224.246535582975</v>
       </c>
       <c r="H186" t="n">
         <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>595280</v>
+        <v>603847</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20034030</v>
+        <v>19487801</v>
       </c>
       <c r="F187" t="n">
-        <v>5.474983874482469</v>
+        <v>3.872333239471654</v>
       </c>
       <c r="G187" t="n">
-        <v>634.7143965150625</v>
+        <v>2682.430472528031</v>
       </c>
       <c r="H187" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="I187" t="n">
-        <v>1158.19</v>
+        <v>1382.12</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12022314</v>
+        <v>12015472</v>
       </c>
       <c r="E188" t="n">
-        <v>18322799</v>
+        <v>18312373</v>
       </c>
       <c r="F188" t="n">
-        <v>3572.801486868023</v>
+        <v>3627.27526920289</v>
       </c>
       <c r="G188" t="n">
-        <v>1540.599169697885</v>
+        <v>1739.125701385468</v>
       </c>
       <c r="H188" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="I188" t="n">
-        <v>668439</v>
+        <v>667924</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>75820312</v>
+        <v>78233408</v>
       </c>
       <c r="E189" t="n">
-        <v>75820312</v>
+        <v>78233408</v>
       </c>
       <c r="F189" t="n">
-        <v>4355.958044850541</v>
+        <v>6901.669754803585</v>
       </c>
       <c r="G189" t="n">
-        <v>9886.187279360927</v>
+        <v>9866.186109487988</v>
       </c>
       <c r="H189" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="I189" t="n">
-        <v>4638403</v>
+        <v>4645134</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>296864630</v>
+        <v>295621557</v>
       </c>
       <c r="E190" t="n">
-        <v>296864630</v>
+        <v>295621557</v>
       </c>
       <c r="F190" t="n">
-        <v>209942.7936172076</v>
+        <v>199343.2185603918</v>
       </c>
       <c r="G190" t="n">
-        <v>268104.6309940169</v>
+        <v>260788.9573531791</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>50240418</v>
+        <v>49953463</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9447838</v>
+        <v>9523886</v>
       </c>
       <c r="E191" t="n">
-        <v>26823987</v>
+        <v>27039900</v>
       </c>
       <c r="F191" t="n">
-        <v>714.63395312843</v>
+        <v>686.2817929800564</v>
       </c>
       <c r="G191" t="n">
-        <v>974.9743116719517</v>
+        <v>997.6615364149847</v>
       </c>
       <c r="H191" t="n">
-        <v>1.11</v>
+        <v>1.48</v>
       </c>
       <c r="I191" t="n">
-        <v>114065</v>
+        <v>111763</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4117603</v>
+        <v>4115655</v>
       </c>
       <c r="E192" t="n">
-        <v>28135294</v>
+        <v>28121980</v>
       </c>
       <c r="F192" t="n">
-        <v>2835.137820356344</v>
+        <v>3532.997868192796</v>
       </c>
       <c r="G192" t="n">
-        <v>3464.710904211516</v>
+        <v>1954.275879359907</v>
       </c>
       <c r="H192" t="n">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="I192" t="n">
-        <v>2522280</v>
+        <v>2519973</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3156748</v>
+        <v>3109960</v>
       </c>
       <c r="E193" t="n">
-        <v>4686319</v>
+        <v>4616413</v>
       </c>
       <c r="F193" t="n">
-        <v>272.3760418538179</v>
+        <v>152.907323074701</v>
       </c>
       <c r="G193" t="n">
-        <v>369.5752494719245</v>
+        <v>771.954843947488</v>
       </c>
       <c r="H193" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I193" t="n">
-        <v>222260</v>
+        <v>222791</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>88692076</v>
+        <v>88520491</v>
       </c>
       <c r="E194" t="n">
-        <v>511081998</v>
+        <v>510093252</v>
       </c>
       <c r="F194" t="n">
-        <v>553698.081270221</v>
+        <v>533573.2863144281</v>
       </c>
       <c r="G194" t="n">
-        <v>533848.2998668776</v>
+        <v>476234.9281080963</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>15886614</v>
+        <v>15956217</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>725509</v>
+        <v>722104</v>
       </c>
       <c r="E195" t="n">
-        <v>791235</v>
+        <v>787521</v>
       </c>
       <c r="F195" t="n">
-        <v>4.060557726403368</v>
+        <v>4.06047063315933</v>
       </c>
       <c r="G195" t="n">
-        <v>5.339847017808634</v>
+        <v>5.339732485611142</v>
       </c>
       <c r="H195" t="n">
         <v>0.18</v>
       </c>
       <c r="I195" t="n">
-        <v>82999</v>
+        <v>84381</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>106711665</v>
+        <v>106635472</v>
       </c>
       <c r="E196" t="n">
-        <v>262552387</v>
+        <v>262364923</v>
       </c>
       <c r="F196" t="n">
-        <v>38569.43935260442</v>
+        <v>41831.60962412269</v>
       </c>
       <c r="G196" t="n">
-        <v>42631.83574935501</v>
+        <v>46036.77287376389</v>
       </c>
       <c r="H196" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2400667</v>
+        <v>2397930</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17791816</v>
+        <v>17719816</v>
       </c>
       <c r="E197" t="n">
-        <v>17791816</v>
+        <v>17719816</v>
       </c>
       <c r="F197" t="n">
-        <v>6.928943405733841</v>
+        <v>6.928865358661151</v>
       </c>
       <c r="G197" t="n">
-        <v>46.5598897490075</v>
+        <v>46.77130169182681</v>
       </c>
       <c r="H197" t="n">
         <v>1.06</v>
       </c>
       <c r="I197" t="n">
-        <v>45408</v>
+        <v>42520</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1302072</v>
+        <v>1309093</v>
       </c>
       <c r="F198" t="n">
-        <v>2.955373401554756</v>
+        <v>3.00678191935594</v>
       </c>
       <c r="G198" t="n">
-        <v>82.19407971737368</v>
+        <v>370.5436242454364</v>
       </c>
       <c r="H198" t="n">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
       <c r="I198" t="n">
-        <v>3556.87</v>
+        <v>16970.95</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>145035</v>
+        <v>135028</v>
       </c>
       <c r="E199" t="n">
-        <v>315738</v>
+        <v>293953</v>
       </c>
       <c r="F199" t="n">
-        <v>5.243583214249149</v>
+        <v>5.353720227784747</v>
       </c>
       <c r="G199" t="n">
-        <v>3.849615654184058</v>
+        <v>3.808985170691253</v>
       </c>
       <c r="H199" t="n">
         <v>0.14</v>
       </c>
       <c r="I199" t="n">
-        <v>52125</v>
+        <v>53436</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2261374</v>
+        <v>2332355</v>
       </c>
       <c r="F200" t="n">
-        <v>118.1851732751215</v>
+        <v>377.6946170646257</v>
       </c>
       <c r="G200" t="n">
-        <v>133.1818263376994</v>
+        <v>244.1199869710641</v>
       </c>
       <c r="H200" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I200" t="n">
-        <v>152061</v>
+        <v>156666</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>185745</v>
+        <v>181071</v>
       </c>
       <c r="E201" t="n">
-        <v>1434324</v>
+        <v>1398232</v>
       </c>
       <c r="F201" t="n">
-        <v>4.072051921999601</v>
+        <v>4.072050397943634</v>
       </c>
       <c r="G201" t="n">
-        <v>284.5640945795093</v>
+        <v>226.0974347892428</v>
       </c>
       <c r="H201" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="I201" t="n">
-        <v>135922</v>
+        <v>126765</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>29826013</v>
+        <v>29996688</v>
       </c>
       <c r="E202" t="n">
-        <v>133543297</v>
+        <v>134307477</v>
       </c>
       <c r="F202" t="n">
-        <v>8904.115174746605</v>
+        <v>8908.006405152752</v>
       </c>
       <c r="G202" t="n">
-        <v>10875.569298655</v>
+        <v>13167.87405691507</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I202" t="n">
-        <v>8986013</v>
+        <v>8859796</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13100744</v>
+        <v>13105259</v>
       </c>
       <c r="E203" t="n">
-        <v>26190049</v>
+        <v>26199075</v>
       </c>
       <c r="F203" t="n">
-        <v>752.7029743508882</v>
+        <v>752.9054559614025</v>
       </c>
       <c r="G203" t="n">
-        <v>710.8394157852489</v>
+        <v>710.665728108415</v>
       </c>
       <c r="H203" t="n">
         <v>0.15</v>
       </c>
       <c r="I203" t="n">
-        <v>47749</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1415734</v>
+        <v>1444341</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>32.48402120152798</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>440.1689179317781</v>
       </c>
       <c r="H204" t="n">
-        <v>4.59</v>
+        <v>0.99</v>
       </c>
       <c r="I204" t="n">
-        <v>33557</v>
+        <v>67968</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>995755</v>
+        <v>996729</v>
       </c>
       <c r="E205" t="n">
-        <v>4605508</v>
+        <v>4610015</v>
       </c>
       <c r="F205" t="n">
-        <v>4275.951806034336</v>
+        <v>4289.892319168233</v>
       </c>
       <c r="G205" t="n">
-        <v>2358.546610293947</v>
+        <v>2486.774268683895</v>
       </c>
       <c r="H205" t="n">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="I205" t="n">
-        <v>490959</v>
+        <v>492421</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2921856</v>
+        <v>3033634</v>
       </c>
       <c r="E206" t="n">
-        <v>2921856</v>
+        <v>3033634</v>
       </c>
       <c r="F206" t="n">
-        <v>880.6994688741461</v>
+        <v>586.6603729372372</v>
       </c>
       <c r="G206" t="n">
-        <v>2832.225934097562</v>
+        <v>1251.184722020066</v>
       </c>
       <c r="H206" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="I206" t="n">
-        <v>362529</v>
+        <v>391353</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>577174</v>
+        <v>570399</v>
       </c>
       <c r="E207" t="n">
-        <v>577174</v>
+        <v>570399</v>
       </c>
       <c r="F207" t="n">
-        <v>4.001453196202731</v>
+        <v>434.8063627659836</v>
       </c>
       <c r="G207" t="n">
-        <v>63.73775994146356</v>
+        <v>16.69242849238422</v>
       </c>
       <c r="H207" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="I207" t="n">
-        <v>1402809</v>
+        <v>1382401</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13990989</v>
+        <v>14024565</v>
       </c>
       <c r="E208" t="n">
-        <v>17812763</v>
+        <v>17855511</v>
       </c>
       <c r="F208" t="n">
-        <v>153.841618721427</v>
+        <v>239.0843390909238</v>
       </c>
       <c r="G208" t="n">
-        <v>211.0801044473702</v>
+        <v>149.590756562521</v>
       </c>
       <c r="H208" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I208" t="n">
-        <v>790086</v>
+        <v>782438</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1976523</v>
+        <v>1972008</v>
       </c>
       <c r="E209" t="n">
-        <v>1976523</v>
+        <v>1972008</v>
       </c>
       <c r="F209" t="n">
-        <v>6.834493065419627</v>
+        <v>5.35208185184181</v>
       </c>
       <c r="G209" t="n">
-        <v>27.84200774232373</v>
+        <v>8.060000849380144</v>
       </c>
       <c r="H209" t="n">
-        <v>0.8</v>
+        <v>0.31</v>
       </c>
       <c r="I209" t="n">
-        <v>3101.28</v>
+        <v>2870.37</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6083345</v>
+        <v>6038624</v>
       </c>
       <c r="E210" t="n">
-        <v>15965774</v>
+        <v>15848395</v>
       </c>
       <c r="F210" t="n">
-        <v>1719.169013778619</v>
+        <v>1744.683840977897</v>
       </c>
       <c r="G210" t="n">
-        <v>729.7421506157343</v>
+        <v>1050.798157670504</v>
       </c>
       <c r="H210" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="I210" t="n">
-        <v>74434</v>
+        <v>72197</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28583589</v>
+        <v>28909758</v>
       </c>
       <c r="F211" t="n">
-        <v>509.3921119072748</v>
+        <v>671.054380114324</v>
       </c>
       <c r="G211" t="n">
-        <v>2050.787330546503</v>
+        <v>1151.343934890634</v>
       </c>
       <c r="H211" t="n">
-        <v>0.28</v>
+        <v>2.04</v>
       </c>
       <c r="I211" t="n">
-        <v>342249</v>
+        <v>340640</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>18021639</v>
+        <v>17823157</v>
       </c>
       <c r="E212" t="n">
-        <v>18021732</v>
+        <v>17823157</v>
       </c>
       <c r="F212" t="n">
-        <v>9646.355963346474</v>
+        <v>12064.00808259495</v>
       </c>
       <c r="G212" t="n">
-        <v>27515.60793158588</v>
+        <v>30257.30904430342</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2844660</v>
+        <v>2965071</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>46527702</v>
+        <v>46745228</v>
       </c>
       <c r="E213" t="n">
-        <v>301719764</v>
+        <v>303130360</v>
       </c>
       <c r="F213" t="n">
-        <v>125319.2771160218</v>
+        <v>141364.8563233454</v>
       </c>
       <c r="G213" t="n">
-        <v>210852.1863032866</v>
+        <v>215063.9834572342</v>
       </c>
       <c r="H213" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="I213" t="n">
-        <v>17309817</v>
+        <v>17325006</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9236685</v>
+        <v>9322268</v>
       </c>
       <c r="F214" t="n">
-        <v>4.927212665091832</v>
+        <v>214.6056507589548</v>
       </c>
       <c r="G214" t="n">
-        <v>1.103450533100391</v>
+        <v>4.033028422285511</v>
       </c>
       <c r="H214" t="n">
-        <v>2.69</v>
+        <v>0.75</v>
       </c>
       <c r="I214" t="n">
-        <v>291943</v>
+        <v>267227</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6842713</v>
+        <v>7019766</v>
       </c>
       <c r="E215" t="n">
-        <v>6852467</v>
+        <v>7029737</v>
       </c>
       <c r="F215" t="n">
-        <v>1447.874307627106</v>
+        <v>343.9950367883229</v>
       </c>
       <c r="G215" t="n">
-        <v>66.92409075429559</v>
+        <v>39.99908151128176</v>
       </c>
       <c r="H215" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="I215" t="n">
-        <v>989277</v>
+        <v>984064</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4768677</v>
+        <v>4807092</v>
       </c>
       <c r="F216" t="n">
-        <v>2191.801462535237</v>
+        <v>1080.562709626403</v>
       </c>
       <c r="G216" t="n">
-        <v>150.237493984507</v>
+        <v>154.6035052214449</v>
       </c>
       <c r="H216" t="n">
-        <v>1.83</v>
+        <v>2.31</v>
       </c>
       <c r="I216" t="n">
-        <v>155240</v>
+        <v>69494</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2527156</v>
+        <v>2619557</v>
       </c>
       <c r="E217" t="n">
-        <v>4578419</v>
+        <v>4745820</v>
       </c>
       <c r="F217" t="n">
-        <v>250.2709332185421</v>
+        <v>201.3507678178311</v>
       </c>
       <c r="G217" t="n">
-        <v>1061.226896391953</v>
+        <v>848.533599108813</v>
       </c>
       <c r="H217" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="I217" t="n">
-        <v>104057</v>
+        <v>105790</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125105020</v>
+        <v>125050953</v>
       </c>
       <c r="E218" t="n">
-        <v>2071841597</v>
+        <v>2070946209</v>
       </c>
       <c r="F218" t="n">
-        <v>6405.133815965258</v>
+        <v>6097.467531751405</v>
       </c>
       <c r="G218" t="n">
-        <v>17261.23398437466</v>
+        <v>11772.6765598004</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>5048202</v>
+        <v>5012743</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>72460781</v>
+        <v>72915019</v>
       </c>
       <c r="E219" t="n">
-        <v>73240774</v>
+        <v>73699902</v>
       </c>
       <c r="F219" t="n">
-        <v>16319.89383914451</v>
+        <v>11920.58608661856</v>
       </c>
       <c r="G219" t="n">
-        <v>19681.90110991005</v>
+        <v>11789.17729859535</v>
       </c>
       <c r="H219" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I219" t="n">
-        <v>8610672</v>
+        <v>8607800</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>233579344</v>
+        <v>231601221</v>
       </c>
       <c r="E220" t="n">
-        <v>233579344</v>
+        <v>231601221</v>
       </c>
       <c r="F220" t="n">
-        <v>99686.69291867923</v>
+        <v>127218.480697265</v>
       </c>
       <c r="G220" t="n">
-        <v>134017.5784152489</v>
+        <v>154514.9684504709</v>
       </c>
       <c r="H220" t="n">
         <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>42886818</v>
+        <v>43146686</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23003558</v>
+        <v>23103689</v>
       </c>
       <c r="E221" t="n">
-        <v>137634912</v>
+        <v>138234017</v>
       </c>
       <c r="F221" t="n">
-        <v>72528.10036252374</v>
+        <v>89902.19592343998</v>
       </c>
       <c r="G221" t="n">
-        <v>87847.65116503504</v>
+        <v>87435.29977780134</v>
       </c>
       <c r="H221" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>12767782</v>
+        <v>12629238</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1013545</v>
+        <v>1003785</v>
       </c>
       <c r="F222" t="n">
-        <v>685.6173772757862</v>
+        <v>392.5965368876887</v>
       </c>
       <c r="G222" t="n">
-        <v>317.3039439923122</v>
+        <v>266.4114706303872</v>
       </c>
       <c r="H222" t="n">
-        <v>2.23</v>
+        <v>1.52</v>
       </c>
       <c r="I222" t="n">
-        <v>73228</v>
+        <v>68108</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2289621</v>
+        <v>2275479</v>
       </c>
       <c r="F223" t="n">
-        <v>150.6698676399193</v>
+        <v>116.7934602893406</v>
       </c>
       <c r="G223" t="n">
-        <v>180.5312393932982</v>
+        <v>130.7051345905661</v>
       </c>
       <c r="H223" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="I223" t="n">
-        <v>214014</v>
+        <v>212891</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14040083</v>
+        <v>14468365</v>
       </c>
       <c r="E224" t="n">
-        <v>43084088</v>
+        <v>44398336</v>
       </c>
       <c r="F224" t="n">
-        <v>819.9356871351737</v>
+        <v>2003.700845345617</v>
       </c>
       <c r="G224" t="n">
-        <v>1966.583576943585</v>
+        <v>1114.157114231145</v>
       </c>
       <c r="H224" t="n">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
       <c r="I224" t="n">
-        <v>2499579</v>
+        <v>2567677</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52229233</v>
+        <v>52164417</v>
       </c>
       <c r="E225" t="n">
-        <v>90211240</v>
+        <v>90099289</v>
       </c>
       <c r="F225" t="n">
-        <v>14589.54010171486</v>
+        <v>14241.61801637361</v>
       </c>
       <c r="G225" t="n">
-        <v>11325.9631405935</v>
+        <v>13155.43604686205</v>
       </c>
       <c r="H225" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I225" t="n">
-        <v>1916080</v>
+        <v>1943929</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4214035</v>
+        <v>4183008</v>
       </c>
       <c r="E226" t="n">
-        <v>4214035</v>
+        <v>4183008</v>
       </c>
       <c r="F226" t="n">
-        <v>38.25997729919191</v>
+        <v>32.22535417068438</v>
       </c>
       <c r="G226" t="n">
-        <v>4.037313372679522</v>
+        <v>3.963606959233484</v>
       </c>
       <c r="H226" t="n">
         <v>0.73</v>
       </c>
       <c r="I226" t="n">
-        <v>1540785</v>
+        <v>1531764</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>210071</v>
+        <v>211672</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>62697</v>
+        <v>60637</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6921776</v>
+        <v>6840199</v>
       </c>
       <c r="E228" t="n">
-        <v>35610436</v>
+        <v>35190746</v>
       </c>
       <c r="F228" t="n">
-        <v>99.51634929482897</v>
+        <v>153.8758929506406</v>
       </c>
       <c r="G228" t="n">
-        <v>111.1501297720494</v>
+        <v>113.3855012287569</v>
       </c>
       <c r="H228" t="n">
         <v>0.74</v>
       </c>
       <c r="I228" t="n">
-        <v>911844</v>
+        <v>577331</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>174490242</v>
+        <v>176022778</v>
       </c>
       <c r="E230" t="n">
-        <v>203856124</v>
+        <v>205646578</v>
       </c>
       <c r="F230" t="n">
-        <v>19267.22365507638</v>
+        <v>30713.62131854011</v>
       </c>
       <c r="G230" t="n">
-        <v>53306.42111946116</v>
+        <v>33285.55388802844</v>
       </c>
       <c r="H230" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I230" t="n">
-        <v>4360031</v>
+        <v>3813874</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>302621</v>
+        <v>303118</v>
       </c>
       <c r="F231" t="n">
-        <v>375.1624716525728</v>
+        <v>664.2759111136301</v>
       </c>
       <c r="G231" t="n">
-        <v>115.3179734593261</v>
+        <v>126.16422718524</v>
       </c>
       <c r="H231" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I231" t="n">
-        <v>259567</v>
+        <v>261451</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>28912129</v>
+        <v>28758200</v>
       </c>
       <c r="E232" t="n">
-        <v>39735114</v>
+        <v>39523563</v>
       </c>
       <c r="F232" t="n">
-        <v>7405.275756635724</v>
+        <v>5520.728747252735</v>
       </c>
       <c r="G232" t="n">
-        <v>9272.88798622102</v>
+        <v>7007.735183479069</v>
       </c>
       <c r="H232" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I232" t="n">
-        <v>387966</v>
+        <v>299175</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>2371228</v>
+        <v>1896522</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1555874</v>
+        <v>1613059</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8053964</v>
+        <v>8038855</v>
       </c>
       <c r="F234" t="n">
-        <v>526.4537164793115</v>
+        <v>526.2883576222124</v>
       </c>
       <c r="G234" t="n">
-        <v>3334.747303523026</v>
+        <v>3330.619954016206</v>
       </c>
       <c r="H234" t="n">
         <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>697894</v>
+        <v>674167</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23281756</v>
+        <v>23318109</v>
       </c>
       <c r="E235" t="n">
-        <v>23281756</v>
+        <v>23318109</v>
       </c>
       <c r="F235" t="n">
-        <v>9115.181590478674</v>
+        <v>5259.059382611586</v>
       </c>
       <c r="G235" t="n">
-        <v>7048.398124362136</v>
+        <v>6380.099783720308</v>
       </c>
       <c r="H235" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I235" t="n">
-        <v>1815664</v>
+        <v>1748564</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3321847</v>
+        <v>3322166</v>
       </c>
       <c r="E236" t="n">
-        <v>4449824</v>
+        <v>4450251</v>
       </c>
       <c r="F236" t="n">
-        <v>202.3688643332981</v>
+        <v>231.913424643495</v>
       </c>
       <c r="G236" t="n">
-        <v>371.1979048579391</v>
+        <v>355.2401576772811</v>
       </c>
       <c r="H236" t="n">
         <v>0.65</v>
       </c>
       <c r="I236" t="n">
-        <v>148138</v>
+        <v>146561</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33568013</v>
+        <v>33915267</v>
       </c>
       <c r="E237" t="n">
-        <v>167519858</v>
+        <v>169252817</v>
       </c>
       <c r="F237" t="n">
-        <v>92294.90938769944</v>
+        <v>88937.96859712442</v>
       </c>
       <c r="G237" t="n">
-        <v>98520.43509786241</v>
+        <v>64924.36829297185</v>
       </c>
       <c r="H237" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>9788064</v>
+        <v>9951863</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26319024</v>
+        <v>26309703</v>
       </c>
       <c r="E238" t="n">
-        <v>59332713</v>
+        <v>59311700</v>
       </c>
       <c r="F238" t="n">
-        <v>195.2757109969799</v>
+        <v>194.8827604431827</v>
       </c>
       <c r="G238" t="n">
-        <v>144.3946949243514</v>
+        <v>116.3123932952505</v>
       </c>
       <c r="H238" t="n">
-        <v>0.35</v>
+        <v>0.86</v>
       </c>
       <c r="I238" t="n">
-        <v>441235</v>
+        <v>454074</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1919731</v>
+        <v>1863817</v>
       </c>
       <c r="E239" t="n">
-        <v>1919731</v>
+        <v>1863817</v>
       </c>
       <c r="F239" t="n">
-        <v>223.2391873672012</v>
+        <v>186.0652802706639</v>
       </c>
       <c r="G239" t="n">
-        <v>53.36564453155662</v>
+        <v>89.08189204129945</v>
       </c>
       <c r="H239" t="n">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
       <c r="I239" t="n">
-        <v>7314.65</v>
+        <v>8521.379999999999</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71750331</v>
+        <v>71597632</v>
       </c>
       <c r="F240" t="n">
-        <v>4.091728333553166</v>
+        <v>4.091469480284751</v>
       </c>
       <c r="G240" t="n">
-        <v>4.220113546601364</v>
+        <v>4.219846571353846</v>
       </c>
       <c r="H240" t="n">
         <v>0.72</v>
       </c>
       <c r="I240" t="n">
-        <v>68247</v>
+        <v>68240</v>
       </c>
     </row>
     <row r="241">
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>925667</v>
+        <v>925150</v>
       </c>
       <c r="E241" t="n">
-        <v>925667</v>
+        <v>925150</v>
       </c>
       <c r="F241" t="n">
         <v>3.901865585792775</v>
@@ -8847,7 +8847,7 @@
         <v>0.75</v>
       </c>
       <c r="I241" t="n">
-        <v>15650.65</v>
+        <v>6916.26</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>118642</v>
+        <v>117852</v>
       </c>
       <c r="E242" t="n">
-        <v>118642</v>
+        <v>117852</v>
       </c>
       <c r="F242" t="n">
-        <v>45.05451584042971</v>
+        <v>24.69930644746372</v>
       </c>
       <c r="G242" t="n">
-        <v>257.2095135022983</v>
+        <v>4.061669810102132</v>
       </c>
       <c r="H242" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="I242" t="n">
-        <v>39834</v>
+        <v>39375</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3454202</v>
+        <v>3445052</v>
       </c>
       <c r="E243" t="n">
-        <v>4962290</v>
+        <v>4949145</v>
       </c>
       <c r="F243" t="n">
-        <v>499.0950269871252</v>
+        <v>397.35247711556</v>
       </c>
       <c r="G243" t="n">
-        <v>71.37250428337539</v>
+        <v>80.23329494943759</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
       </c>
       <c r="I243" t="n">
-        <v>176424</v>
+        <v>180219</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>308623474</v>
+        <v>309929773</v>
       </c>
       <c r="E244" t="n">
-        <v>571023808</v>
+        <v>573440759</v>
       </c>
       <c r="F244" t="n">
-        <v>36588.92499543419</v>
+        <v>29424.15778870754</v>
       </c>
       <c r="G244" t="n">
-        <v>39337.05005128541</v>
+        <v>41469.99888045261</v>
       </c>
       <c r="H244" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I244" t="n">
-        <v>12353468</v>
+        <v>12227589</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>70324696</v>
+        <v>70500474</v>
       </c>
       <c r="E245" t="n">
-        <v>670988421</v>
+        <v>672658454</v>
       </c>
       <c r="F245" t="n">
-        <v>44647.21614968187</v>
+        <v>47425.46768251744</v>
       </c>
       <c r="G245" t="n">
-        <v>60645.05315797701</v>
+        <v>59692.79349304832</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>20803820</v>
+        <v>21055609</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81378</v>
+        <v>81227</v>
       </c>
       <c r="E246" t="n">
-        <v>676508</v>
+        <v>675259</v>
       </c>
       <c r="F246" t="n">
-        <v>11.96199245116671</v>
+        <v>104.5540657978158</v>
       </c>
       <c r="G246" t="n">
-        <v>5.448707944693544</v>
+        <v>5.501288328940597</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="I246" t="n">
-        <v>424.16</v>
+        <v>408.7</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1894994</v>
+        <v>1889980</v>
       </c>
       <c r="E247" t="n">
-        <v>5411860</v>
+        <v>5397539</v>
       </c>
       <c r="F247" t="n">
-        <v>376.4808740123235</v>
+        <v>397.8360189139116</v>
       </c>
       <c r="G247" t="n">
-        <v>164.3748201523003</v>
+        <v>164.838309909347</v>
       </c>
       <c r="H247" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="I247" t="n">
-        <v>72887</v>
+        <v>71514</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37535789</v>
+        <v>37667379</v>
       </c>
       <c r="E248" t="n">
-        <v>49078418</v>
+        <v>49250270</v>
       </c>
       <c r="F248" t="n">
-        <v>11802.25599331117</v>
+        <v>12660.78631166813</v>
       </c>
       <c r="G248" t="n">
-        <v>215.9751793748738</v>
+        <v>1168.426785697689</v>
       </c>
       <c r="H248" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="I248" t="n">
-        <v>430867</v>
+        <v>635128</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>10035506</v>
+        <v>9759698</v>
       </c>
       <c r="E249" t="n">
-        <v>29923804</v>
+        <v>28964932</v>
       </c>
       <c r="F249" t="n">
-        <v>487.7924040485508</v>
+        <v>656.2562255624152</v>
       </c>
       <c r="G249" t="n">
-        <v>2560.626459193023</v>
+        <v>2005.941403454257</v>
       </c>
       <c r="H249" t="n">
-        <v>0.92</v>
+        <v>0.43</v>
       </c>
       <c r="I249" t="n">
-        <v>5396517</v>
+        <v>5479814</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2029001</v>
+        <v>2015378</v>
       </c>
       <c r="E250" t="n">
-        <v>5886783</v>
+        <v>5847259</v>
       </c>
       <c r="F250" t="n">
-        <v>129.2225352604946</v>
+        <v>218.7799098574681</v>
       </c>
       <c r="G250" t="n">
-        <v>194.9003385642434</v>
+        <v>82.37415973290634</v>
       </c>
       <c r="H250" t="n">
-        <v>0.09</v>
+        <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>67852</v>
+        <v>55163</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7221002</v>
+        <v>7236583</v>
       </c>
       <c r="E251" t="n">
-        <v>7221013</v>
+        <v>7236593</v>
       </c>
       <c r="F251" t="n">
-        <v>1047.199721551968</v>
+        <v>184.6319180508231</v>
       </c>
       <c r="G251" t="n">
-        <v>930.5319775835796</v>
+        <v>951.3541563253602</v>
       </c>
       <c r="H251" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="I251" t="n">
-        <v>337304</v>
+        <v>338413</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5824561</v>
+        <v>6027869</v>
       </c>
       <c r="E252" t="n">
-        <v>5824561</v>
+        <v>6027869</v>
       </c>
       <c r="F252" t="n">
-        <v>375.9109689660031</v>
+        <v>397.3718083120877</v>
       </c>
       <c r="G252" t="n">
-        <v>1439.238529896903</v>
+        <v>1495.902685147351</v>
       </c>
       <c r="H252" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I252" t="n">
-        <v>393726</v>
+        <v>393300</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6203952</v>
+        <v>6200991</v>
       </c>
       <c r="E253" t="n">
-        <v>22660637</v>
+        <v>22649822</v>
       </c>
       <c r="F253" t="n">
-        <v>1323.091056755317</v>
+        <v>1393.328730279303</v>
       </c>
       <c r="G253" t="n">
-        <v>167.0402359466563</v>
+        <v>554.685252831315</v>
       </c>
       <c r="H253" t="n">
-        <v>2.04</v>
+        <v>1.59</v>
       </c>
       <c r="I253" t="n">
-        <v>469125</v>
+        <v>517250</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2260633</v>
+        <v>2251813</v>
       </c>
       <c r="E254" t="n">
-        <v>19940281</v>
+        <v>19862488</v>
       </c>
       <c r="F254" t="n">
-        <v>471.2312225795602</v>
+        <v>126.0612258647015</v>
       </c>
       <c r="G254" t="n">
-        <v>50.61542714634995</v>
+        <v>4805.611223019766</v>
       </c>
       <c r="H254" t="n">
-        <v>2.79</v>
+        <v>1.35</v>
       </c>
       <c r="I254" t="n">
-        <v>80875</v>
+        <v>79024</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14603796</v>
+        <v>14552964</v>
       </c>
       <c r="E255" t="n">
-        <v>29564493</v>
+        <v>29461587</v>
       </c>
       <c r="F255" t="n">
-        <v>47.9473385885906</v>
+        <v>96.18946509766486</v>
       </c>
       <c r="G255" t="n">
-        <v>435.9904976943869</v>
+        <v>297.4045071110232</v>
       </c>
       <c r="H255" t="n">
-        <v>1.18</v>
+        <v>0.64</v>
       </c>
       <c r="I255" t="n">
-        <v>520413</v>
+        <v>496568</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>43981759</v>
+        <v>44260237</v>
       </c>
       <c r="E256" t="n">
-        <v>43981759</v>
+        <v>44260237</v>
       </c>
       <c r="F256" t="n">
-        <v>5634.70562481934</v>
+        <v>4553.195985048565</v>
       </c>
       <c r="G256" t="n">
-        <v>4476.85393847461</v>
+        <v>2390.818070160604</v>
       </c>
       <c r="H256" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I256" t="n">
-        <v>7988055</v>
+        <v>8226797</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>7867558</v>
+        <v>8268416</v>
       </c>
       <c r="E257" t="n">
-        <v>11209467</v>
+        <v>11780598</v>
       </c>
       <c r="F257" t="n">
-        <v>265.9228196513293</v>
+        <v>40.72577918338817</v>
       </c>
       <c r="G257" t="n">
-        <v>134.582253344249</v>
+        <v>100.0117257264614</v>
       </c>
       <c r="H257" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>309777</v>
+        <v>334968</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>146459555</v>
+        <v>146697243</v>
       </c>
       <c r="F258" t="n">
-        <v>226.3618786171578</v>
+        <v>273.1610966045551</v>
       </c>
       <c r="G258" t="n">
-        <v>71.58855631767584</v>
+        <v>62.66688161236784</v>
       </c>
       <c r="H258" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="I258" t="n">
-        <v>1272659</v>
+        <v>1301378</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16492207</v>
+        <v>15982396</v>
       </c>
       <c r="F259" t="n">
-        <v>121.4403413967724</v>
+        <v>93.30703812222202</v>
       </c>
       <c r="G259" t="n">
-        <v>157.4285305433384</v>
+        <v>157.3706880429678</v>
       </c>
       <c r="H259" t="n">
         <v>0.5</v>
       </c>
       <c r="I259" t="n">
-        <v>982285</v>
+        <v>975347</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>723075</v>
+        <v>723097</v>
       </c>
       <c r="F260" t="n">
-        <v>50.23765719774506</v>
+        <v>50.23194849412065</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01560177616195</v>
+        <v>28.01241825255993</v>
       </c>
       <c r="H260" t="n">
         <v>2.26</v>
       </c>
       <c r="I260" t="n">
-        <v>225369</v>
+        <v>228107</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3109769</v>
+        <v>3120072</v>
       </c>
       <c r="F261" t="n">
-        <v>13.09988050812184</v>
+        <v>23.96037999045974</v>
       </c>
       <c r="G261" t="n">
-        <v>59.69955901897275</v>
+        <v>61.00684971728494</v>
       </c>
       <c r="H261" t="n">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="I261" t="n">
-        <v>75263</v>
+        <v>74804</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2794574</v>
+        <v>2847475</v>
       </c>
       <c r="E262" t="n">
-        <v>2796995</v>
+        <v>2849941</v>
       </c>
       <c r="F262" t="n">
-        <v>52.54477488641339</v>
+        <v>30.22270438941474</v>
       </c>
       <c r="G262" t="n">
-        <v>25.04002575416779</v>
+        <v>4.152317053450323</v>
       </c>
       <c r="H262" t="n">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
       <c r="I262" t="n">
-        <v>63696</v>
+        <v>79956</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61029172</v>
+        <v>61040466</v>
       </c>
       <c r="E263" t="n">
-        <v>100966630</v>
+        <v>100985316</v>
       </c>
       <c r="F263" t="n">
-        <v>8702.870388341315</v>
+        <v>8890.962975301671</v>
       </c>
       <c r="G263" t="n">
-        <v>9783.962402541614</v>
+        <v>10140.11439370723</v>
       </c>
       <c r="H263" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I263" t="n">
-        <v>5731080</v>
+        <v>5910883</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>692867</v>
+        <v>699412</v>
       </c>
       <c r="F264" t="n">
-        <v>3500.921250174761</v>
+        <v>3321.143471996786</v>
       </c>
       <c r="G264" t="n">
-        <v>232.4406300842123</v>
+        <v>108.7119066651675</v>
       </c>
       <c r="H264" t="n">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="I264" t="n">
-        <v>553129</v>
+        <v>502414</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1241730</v>
+        <v>1234478</v>
       </c>
       <c r="E265" t="n">
-        <v>3756238</v>
+        <v>3734160</v>
       </c>
       <c r="F265" t="n">
-        <v>48.99075493465339</v>
+        <v>13.92347780935851</v>
       </c>
       <c r="G265" t="n">
-        <v>1061.915542771015</v>
+        <v>889.2218143250037</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>15721.14</v>
+        <v>12323.15</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>37304426</v>
+        <v>37157813</v>
       </c>
       <c r="E266" t="n">
-        <v>264482294</v>
+        <v>263442833</v>
       </c>
       <c r="F266" t="n">
-        <v>63392.96635418313</v>
+        <v>80714.1087958412</v>
       </c>
       <c r="G266" t="n">
-        <v>33005.19756261675</v>
+        <v>28592.33242148117</v>
       </c>
       <c r="H266" t="n">
         <v>0.23</v>
       </c>
       <c r="I266" t="n">
-        <v>1817430</v>
+        <v>1847592</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>58595</v>
+        <v>61533</v>
       </c>
       <c r="E267" t="n">
-        <v>305725</v>
+        <v>321053</v>
       </c>
       <c r="F267" t="n">
-        <v>3.958315902442223</v>
+        <v>22.27096934613967</v>
       </c>
       <c r="G267" t="n">
-        <v>14.05522906959714</v>
+        <v>5.294176506787599</v>
       </c>
       <c r="H267" t="n">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>302140</v>
+        <v>312285</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1256475</v>
+        <v>1255374</v>
       </c>
       <c r="E268" t="n">
-        <v>7792096</v>
+        <v>7785267</v>
       </c>
       <c r="F268" t="n">
-        <v>1642.055174112368</v>
+        <v>2190.747306258284</v>
       </c>
       <c r="G268" t="n">
-        <v>2436.552088833239</v>
+        <v>2612.02309427725</v>
       </c>
       <c r="H268" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="I268" t="n">
-        <v>815029</v>
+        <v>784281</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>590601980</v>
+        <v>592809577</v>
       </c>
       <c r="E269" t="n">
-        <v>2287314332</v>
+        <v>2295864029</v>
       </c>
       <c r="F269" t="n">
-        <v>144448.1346159809</v>
+        <v>172339.0707105837</v>
       </c>
       <c r="G269" t="n">
-        <v>262982.0030514348</v>
+        <v>233804.3175321645</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>29788704</v>
+        <v>29244277</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3292021</v>
+        <v>3291020</v>
       </c>
       <c r="F270" t="n">
-        <v>405.2842589811671</v>
+        <v>164.9861279914904</v>
       </c>
       <c r="G270" t="n">
-        <v>112.0151477606581</v>
+        <v>77.84696792299965</v>
       </c>
       <c r="H270" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="I270" t="n">
-        <v>31171</v>
+        <v>30973</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>955272</v>
+        <v>915854</v>
       </c>
       <c r="F271" t="n">
-        <v>25.03081389044939</v>
+        <v>38.14472012265891</v>
       </c>
       <c r="G271" t="n">
-        <v>314.2680278349083</v>
+        <v>0.1773974866795085</v>
       </c>
       <c r="H271" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="I271" t="n">
-        <v>392955</v>
+        <v>371556</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5796876</v>
+        <v>5834955</v>
       </c>
       <c r="E272" t="n">
-        <v>25953359</v>
+        <v>26123841</v>
       </c>
       <c r="F272" t="n">
-        <v>151.5249002431846</v>
+        <v>297.7424117758866</v>
       </c>
       <c r="G272" t="n">
-        <v>97.10344335886009</v>
+        <v>72.18461786157441</v>
       </c>
       <c r="H272" t="n">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
       <c r="I272" t="n">
-        <v>143323</v>
+        <v>143849</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>5989057</v>
+        <v>6077665</v>
       </c>
       <c r="E273" t="n">
-        <v>11466535</v>
+        <v>11636183</v>
       </c>
       <c r="F273" t="n">
-        <v>96.90103175516711</v>
+        <v>4184.1735427651</v>
       </c>
       <c r="G273" t="n">
-        <v>60.00802006486848</v>
+        <v>49.76511006528624</v>
       </c>
       <c r="H273" t="n">
-        <v>3.75</v>
+        <v>1.88</v>
       </c>
       <c r="I273" t="n">
-        <v>208301</v>
+        <v>204592</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3283688</v>
+        <v>3244835</v>
       </c>
       <c r="E274" t="n">
-        <v>21592767</v>
+        <v>21337281</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>159.4083834424728</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>193.4298566806762</v>
       </c>
       <c r="H274" t="n">
-        <v>4.41</v>
+        <v>2.39</v>
       </c>
       <c r="I274" t="n">
-        <v>1383109</v>
+        <v>1417370</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3678252</v>
+        <v>3667436</v>
       </c>
       <c r="E275" t="n">
-        <v>6270081</v>
+        <v>6251643</v>
       </c>
       <c r="F275" t="n">
-        <v>710.4348593302645</v>
+        <v>505.5291106929451</v>
       </c>
       <c r="G275" t="n">
-        <v>456.9416834875865</v>
+        <v>514.9765887133968</v>
       </c>
       <c r="H275" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="I275" t="n">
-        <v>1001372</v>
+        <v>1095018</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>427668</v>
+        <v>431131</v>
       </c>
       <c r="E276" t="n">
-        <v>427668</v>
+        <v>431131</v>
       </c>
       <c r="F276" t="n">
-        <v>3.88581208573965</v>
+        <v>21.26075004411852</v>
       </c>
       <c r="G276" t="n">
-        <v>4.09893478814236</v>
+        <v>5.323493107882882</v>
       </c>
       <c r="H276" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="I276" t="n">
-        <v>954.59</v>
+        <v>518.1799999999999</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7048104</v>
+        <v>7146236</v>
       </c>
       <c r="E277" t="n">
-        <v>10099646</v>
+        <v>10240247</v>
       </c>
       <c r="F277" t="n">
-        <v>137.6837633135002</v>
+        <v>475.0696697445385</v>
       </c>
       <c r="G277" t="n">
-        <v>2066.120691044814</v>
+        <v>819.1579741736388</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I277" t="n">
-        <v>142638</v>
+        <v>160488</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>116543007</v>
+        <v>116286117</v>
       </c>
       <c r="E278" t="n">
-        <v>1013269816</v>
+        <v>1011036316</v>
       </c>
       <c r="F278" t="n">
-        <v>10300.51406582461</v>
+        <v>12356.83278832179</v>
       </c>
       <c r="G278" t="n">
-        <v>10971.57881435556</v>
+        <v>11019.38272804473</v>
       </c>
       <c r="H278" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I278" t="n">
-        <v>9366214</v>
+        <v>9107805</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>101820317</v>
+        <v>103224396</v>
       </c>
       <c r="E279" t="n">
-        <v>155329281</v>
+        <v>157471235</v>
       </c>
       <c r="F279" t="n">
-        <v>44349.26979810053</v>
+        <v>45592.21730808735</v>
       </c>
       <c r="G279" t="n">
-        <v>48841.05779695145</v>
+        <v>50032.44977117438</v>
       </c>
       <c r="H279" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I279" t="n">
-        <v>7194811</v>
+        <v>7282739</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15770529</v>
+        <v>15747787</v>
       </c>
       <c r="E280" t="n">
-        <v>21635800</v>
+        <v>21604599</v>
       </c>
       <c r="F280" t="n">
-        <v>1886.427787333282</v>
+        <v>1363.458965297172</v>
       </c>
       <c r="G280" t="n">
-        <v>3118.41200998956</v>
+        <v>5289.944871915634</v>
       </c>
       <c r="H280" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="I280" t="n">
-        <v>356853</v>
+        <v>355745</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5636963</v>
+        <v>5548284</v>
       </c>
       <c r="E281" t="n">
-        <v>5636963</v>
+        <v>5548284</v>
       </c>
       <c r="F281" t="n">
-        <v>29.43264375194432</v>
+        <v>46.82765379144104</v>
       </c>
       <c r="G281" t="n">
-        <v>338.2042789005652</v>
+        <v>297.7284659251707</v>
       </c>
       <c r="H281" t="n">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="I281" t="n">
-        <v>806371</v>
+        <v>784144</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>106778504</v>
+        <v>109464630</v>
       </c>
       <c r="E282" t="n">
-        <v>409619528</v>
+        <v>419923938</v>
       </c>
       <c r="F282" t="n">
-        <v>46789.48520944131</v>
+        <v>53813.99218097082</v>
       </c>
       <c r="G282" t="n">
-        <v>71296.46326662149</v>
+        <v>71810.31107856566</v>
       </c>
       <c r="H282" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>18618613</v>
+        <v>18900182</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>756608</v>
+        <v>749867</v>
       </c>
       <c r="F283" t="n">
-        <v>4.060233270664694</v>
+        <v>4.154070139348365</v>
       </c>
       <c r="G283" t="n">
-        <v>3.937923286570208</v>
+        <v>4.031238287631801</v>
       </c>
       <c r="H283" t="n">
         <v>0.49</v>
       </c>
       <c r="I283" t="n">
-        <v>52545</v>
+        <v>52163</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3166474</v>
+        <v>3170380</v>
       </c>
       <c r="E284" t="n">
-        <v>30002806</v>
+        <v>30039816</v>
       </c>
       <c r="F284" t="n">
-        <v>1467.614053276634</v>
+        <v>1467.792482990787</v>
       </c>
       <c r="G284" t="n">
-        <v>323.7740898478356</v>
+        <v>355.0437355425378</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>240012</v>
+        <v>237654</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>93763</v>
+        <v>93879</v>
       </c>
       <c r="F285" t="n">
-        <v>4.150321659562951</v>
+        <v>4.150339278585756</v>
       </c>
       <c r="G285" t="n">
-        <v>19.45313310394741</v>
+        <v>4.387961399313239</v>
       </c>
       <c r="H285" t="n">
         <v>3.82</v>
       </c>
       <c r="I285" t="n">
-        <v>2033.76</v>
+        <v>1941.46</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>144948</v>
+        <v>140928</v>
       </c>
       <c r="F286" t="n">
-        <v>3.953289390163322</v>
+        <v>5.57587643235282</v>
       </c>
       <c r="G286" t="n">
-        <v>5.209668915593282</v>
+        <v>5.506486347589235</v>
       </c>
       <c r="H286" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="I286" t="n">
-        <v>116945</v>
+        <v>95453</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22754323</v>
+        <v>21747142</v>
       </c>
       <c r="E287" t="n">
-        <v>22754323</v>
+        <v>21747142</v>
       </c>
       <c r="F287" t="n">
-        <v>1173.938935357393</v>
+        <v>2608.75506942421</v>
       </c>
       <c r="G287" t="n">
-        <v>1543.696105939787</v>
+        <v>6697.63501288805</v>
       </c>
       <c r="H287" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I287" t="n">
-        <v>530547</v>
+        <v>506544</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>576263</v>
+        <v>575840</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>454.75</v>
+        <v>454.56</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6024621</v>
+        <v>5995391</v>
       </c>
       <c r="E289" t="n">
-        <v>37652159</v>
+        <v>37469481</v>
       </c>
       <c r="F289" t="n">
-        <v>6487.429636194061</v>
+        <v>6691.473111165293</v>
       </c>
       <c r="G289" t="n">
-        <v>675.9773799732288</v>
+        <v>553.6398452067311</v>
       </c>
       <c r="H289" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I289" t="n">
-        <v>317575</v>
+        <v>318666</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494159538</v>
+        <v>493665979</v>
       </c>
       <c r="E290" t="n">
-        <v>494159538</v>
+        <v>493665979</v>
       </c>
       <c r="F290" t="n">
-        <v>1375284.664333934</v>
+        <v>1047796.757525328</v>
       </c>
       <c r="G290" t="n">
-        <v>1262124.947608748</v>
+        <v>1244014.648167642</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32277589</v>
+        <v>32460112</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5091565</v>
+        <v>5085751</v>
       </c>
       <c r="E291" t="n">
-        <v>18959945</v>
+        <v>18938295</v>
       </c>
       <c r="F291" t="n">
-        <v>7149.210328838431</v>
+        <v>7148.284304001867</v>
       </c>
       <c r="G291" t="n">
-        <v>6918.196870383961</v>
+        <v>6940.347260416394</v>
       </c>
       <c r="H291" t="n">
         <v>0.11</v>
       </c>
       <c r="I291" t="n">
-        <v>57959</v>
+        <v>59029</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>30950474</v>
+        <v>30928507</v>
       </c>
       <c r="F292" t="n">
-        <v>2581.308320642282</v>
+        <v>6488.286700930556</v>
       </c>
       <c r="G292" t="n">
-        <v>3710.001651967614</v>
+        <v>5466.178964013169</v>
       </c>
       <c r="H292" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="I292" t="n">
-        <v>6009314</v>
+        <v>5707693</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31518514</v>
+        <v>31527862</v>
       </c>
       <c r="E293" t="n">
-        <v>112973708</v>
+        <v>113007215</v>
       </c>
       <c r="F293" t="n">
-        <v>61.48005523101577</v>
+        <v>32.22626980978026</v>
       </c>
       <c r="G293" t="n">
-        <v>4960.663238713762</v>
+        <v>4934.770364480451</v>
       </c>
       <c r="H293" t="n">
         <v>0.51</v>
       </c>
       <c r="I293" t="n">
-        <v>95064</v>
+        <v>95161</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>764080</v>
+        <v>787667</v>
       </c>
       <c r="E294" t="n">
-        <v>12186811</v>
+        <v>12563014</v>
       </c>
       <c r="F294" t="n">
-        <v>12.8623982237126</v>
+        <v>12.86237871949029</v>
       </c>
       <c r="G294" t="n">
-        <v>2.297744819368278</v>
+        <v>2.297741335124906</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>71756</v>
+        <v>70984</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85490</v>
+        <v>86180</v>
       </c>
       <c r="F295" t="n">
-        <v>47.95965868917237</v>
+        <v>70.04724700401711</v>
       </c>
       <c r="G295" t="n">
-        <v>61.87708716136396</v>
+        <v>61.87706400248835</v>
       </c>
       <c r="H295" t="n">
         <v>1</v>
       </c>
       <c r="I295" t="n">
-        <v>57826</v>
+        <v>57471</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1504013</v>
+        <v>1572559</v>
       </c>
       <c r="F296" t="n">
-        <v>3.969209912693731</v>
+        <v>3.969150630822534</v>
       </c>
       <c r="G296" t="n">
-        <v>5.422753377979236</v>
+        <v>5.422672386806092</v>
       </c>
       <c r="H296" t="n">
         <v>0.7</v>
       </c>
       <c r="I296" t="n">
-        <v>613783</v>
+        <v>613890</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2613072773</v>
+        <v>2626614677</v>
       </c>
       <c r="E297" t="n">
-        <v>2774403355</v>
+        <v>2788781334</v>
       </c>
       <c r="F297" t="n">
-        <v>33927.44153086878</v>
+        <v>41189.9121984813</v>
       </c>
       <c r="G297" t="n">
-        <v>74630.31705159217</v>
+        <v>56115.40244993804</v>
       </c>
       <c r="H297" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I297" t="n">
-        <v>36976711</v>
+        <v>37265935</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2150715</v>
+        <v>2164633</v>
       </c>
       <c r="E298" t="n">
-        <v>16542692</v>
+        <v>16649739</v>
       </c>
       <c r="F298" t="n">
-        <v>4059.574703499395</v>
+        <v>1384.58076168088</v>
       </c>
       <c r="G298" t="n">
-        <v>4053.393832391494</v>
+        <v>4079.788698326849</v>
       </c>
       <c r="H298" t="n">
-        <v>0.54</v>
+        <v>0.84</v>
       </c>
       <c r="I298" t="n">
-        <v>169448</v>
+        <v>171808</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1619097</v>
+        <v>1631958</v>
       </c>
       <c r="E299" t="n">
-        <v>1624812</v>
+        <v>1637718</v>
       </c>
       <c r="F299" t="n">
-        <v>780.8161912542888</v>
+        <v>1437.619964168467</v>
       </c>
       <c r="G299" t="n">
-        <v>1579.26041457365</v>
+        <v>3438.749817100061</v>
       </c>
       <c r="H299" t="n">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="I299" t="n">
-        <v>401599</v>
+        <v>405723</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87483142</v>
+        <v>86615434</v>
       </c>
       <c r="E300" t="n">
-        <v>323403917</v>
+        <v>320195754</v>
       </c>
       <c r="F300" t="n">
-        <v>5568.375637353247</v>
+        <v>6694.756881109577</v>
       </c>
       <c r="G300" t="n">
-        <v>3253.6307063283</v>
+        <v>13593.21282010611</v>
       </c>
       <c r="H300" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="I300" t="n">
-        <v>369772</v>
+        <v>368622</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2510232</v>
+        <v>2518991</v>
       </c>
       <c r="E301" t="n">
-        <v>10072389</v>
+        <v>10107538</v>
       </c>
       <c r="F301" t="n">
-        <v>134.6646954457463</v>
+        <v>85.61426459805517</v>
       </c>
       <c r="G301" t="n">
-        <v>4.180177789961641</v>
+        <v>3.89610643156434</v>
       </c>
       <c r="H301" t="n">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I301" t="n">
-        <v>40881</v>
+        <v>41119</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60093633</v>
+        <v>60374624</v>
       </c>
       <c r="E302" t="n">
-        <v>147405608</v>
+        <v>148094861</v>
       </c>
       <c r="F302" t="n">
-        <v>2187.310328945821</v>
+        <v>2581.654349768944</v>
       </c>
       <c r="G302" t="n">
-        <v>3131.238624550421</v>
+        <v>1624.337655268489</v>
       </c>
       <c r="H302" t="n">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="I302" t="n">
-        <v>22411520</v>
+        <v>22509608</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>657748052</v>
+        <v>673048761</v>
       </c>
       <c r="E303" t="n">
-        <v>1014305570</v>
+        <v>1037900614</v>
       </c>
       <c r="F303" t="n">
-        <v>31806.650784088</v>
+        <v>44757.87716298711</v>
       </c>
       <c r="G303" t="n">
-        <v>52641.73751160019</v>
+        <v>43075.23841818875</v>
       </c>
       <c r="H303" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I303" t="n">
-        <v>158466834</v>
+        <v>192213620</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>19990563</v>
+        <v>20390927</v>
       </c>
       <c r="E304" t="n">
-        <v>19990563</v>
+        <v>20390927</v>
       </c>
       <c r="F304" t="n">
-        <v>4572.517279127813</v>
+        <v>3216.593571158551</v>
       </c>
       <c r="G304" t="n">
-        <v>3932.705048587829</v>
+        <v>3084.935411136501</v>
       </c>
       <c r="H304" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="I304" t="n">
-        <v>7071729</v>
+        <v>7107548</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1733801</v>
+        <v>1704637</v>
       </c>
       <c r="E305" t="n">
-        <v>2844873</v>
+        <v>2797020</v>
       </c>
       <c r="F305" t="n">
-        <v>246.7792909307596</v>
+        <v>349.4832386292859</v>
       </c>
       <c r="G305" t="n">
-        <v>431.4570763616883</v>
+        <v>315.072094875082</v>
       </c>
       <c r="H305" t="n">
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
       <c r="I305" t="n">
-        <v>127181</v>
+        <v>133989</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5686954</v>
+        <v>5653836</v>
       </c>
       <c r="E306" t="n">
-        <v>5686954</v>
+        <v>5653836</v>
       </c>
       <c r="F306" t="n">
-        <v>41.99678892715425</v>
+        <v>37.79429666380394</v>
       </c>
       <c r="G306" t="n">
-        <v>5.48552422087851</v>
+        <v>5.631819096926305</v>
       </c>
       <c r="H306" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I306" t="n">
-        <v>473.65</v>
+        <v>464.08</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39863016</v>
+        <v>39803991</v>
       </c>
       <c r="E307" t="n">
-        <v>190274232</v>
+        <v>189991919</v>
       </c>
       <c r="F307" t="n">
-        <v>125.3347566827018</v>
+        <v>185.6728202913023</v>
       </c>
       <c r="G307" t="n">
-        <v>450.4314051619066</v>
+        <v>342.3189330975003</v>
       </c>
       <c r="H307" t="n">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="I307" t="n">
-        <v>410749</v>
+        <v>409172</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>382499</v>
+        <v>380330</v>
       </c>
       <c r="E308" t="n">
-        <v>715381</v>
+        <v>711325</v>
       </c>
       <c r="F308" t="n">
-        <v>682.7110847973858</v>
+        <v>78.22203124277665</v>
       </c>
       <c r="G308" t="n">
-        <v>298.5459765574135</v>
+        <v>304.0753285431664</v>
       </c>
       <c r="H308" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="I308" t="n">
-        <v>1402.73</v>
+        <v>1406.16</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23538751</v>
+        <v>23444086</v>
       </c>
       <c r="E309" t="n">
-        <v>39231251</v>
+        <v>39073475</v>
       </c>
       <c r="F309" t="n">
-        <v>707.0606210784467</v>
+        <v>5260.127257323998</v>
       </c>
       <c r="G309" t="n">
-        <v>851.2156401631657</v>
+        <v>5660.189747576388</v>
       </c>
       <c r="H309" t="n">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="I309" t="n">
-        <v>1027594</v>
+        <v>953176</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107762</v>
+        <v>107764</v>
       </c>
       <c r="F310" t="n">
-        <v>8.209112044953381</v>
+        <v>8.20915467428838</v>
       </c>
       <c r="G310" t="n">
-        <v>83.7687762868956</v>
+        <v>83.76921129219303</v>
       </c>
       <c r="H310" t="n">
         <v>0.24</v>
       </c>
       <c r="I310" t="n">
-        <v>50676</v>
+        <v>50144</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23217491</v>
+        <v>23289127</v>
       </c>
       <c r="E311" t="n">
-        <v>23217491</v>
+        <v>23289127</v>
       </c>
       <c r="F311" t="n">
-        <v>5523.923165907984</v>
+        <v>5686.676998368501</v>
       </c>
       <c r="G311" t="n">
-        <v>7632.261186103309</v>
+        <v>7551.844970804209</v>
       </c>
       <c r="H311" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I311" t="n">
-        <v>6270383</v>
+        <v>6119440</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3839229</v>
+        <v>3825702</v>
       </c>
       <c r="E312" t="n">
-        <v>8377149</v>
+        <v>8347631</v>
       </c>
       <c r="F312" t="n">
-        <v>1836.749858114395</v>
+        <v>1847.630259667217</v>
       </c>
       <c r="G312" t="n">
-        <v>1809.298060577773</v>
+        <v>1907.625330641741</v>
       </c>
       <c r="H312" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>995277</v>
+        <v>982487</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9355813</v>
+        <v>9351909</v>
       </c>
       <c r="E313" t="n">
-        <v>9355813</v>
+        <v>9351909</v>
       </c>
       <c r="F313" t="n">
-        <v>15535.89855173356</v>
+        <v>14799.5686286847</v>
       </c>
       <c r="G313" t="n">
-        <v>113045.7892344917</v>
+        <v>113549.908053303</v>
       </c>
       <c r="H313" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>3171276</v>
+        <v>993631</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>480158609</v>
+        <v>482634162</v>
       </c>
       <c r="E314" t="n">
-        <v>1672240118</v>
+        <v>1680861684</v>
       </c>
       <c r="F314" t="n">
-        <v>424150.8415191142</v>
+        <v>414692.6782076298</v>
       </c>
       <c r="G314" t="n">
-        <v>473648.9712155475</v>
+        <v>452710.6052460279</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>30510948</v>
+        <v>31059775</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>23882850</v>
+        <v>23917775</v>
       </c>
       <c r="E315" t="n">
-        <v>23862105</v>
+        <v>23896999</v>
       </c>
       <c r="F315" t="n">
-        <v>203.9312653534826</v>
+        <v>163.5496896819141</v>
       </c>
       <c r="G315" t="n">
-        <v>759.6859448011794</v>
+        <v>758.5272026864559</v>
       </c>
       <c r="H315" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="I315" t="n">
-        <v>93670</v>
+        <v>69427</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48053433</v>
+        <v>47998468</v>
       </c>
       <c r="E316" t="n">
-        <v>118596274</v>
+        <v>118460627</v>
       </c>
       <c r="F316" t="n">
-        <v>944.7755175180367</v>
+        <v>952.0375925309553</v>
       </c>
       <c r="G316" t="n">
-        <v>1711.925467896285</v>
+        <v>1707.713504017081</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>42807</v>
+        <v>42516</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12148393</v>
+        <v>12063773</v>
       </c>
       <c r="E317" t="n">
-        <v>24611908</v>
+        <v>24437446</v>
       </c>
       <c r="F317" t="n">
-        <v>274.453468665376</v>
+        <v>274.5496086506536</v>
       </c>
       <c r="G317" t="n">
-        <v>607.0447119149719</v>
+        <v>124.0444197730116</v>
       </c>
       <c r="H317" t="n">
         <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>13296.03</v>
+        <v>19518.36</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7621569</v>
+        <v>7609710</v>
       </c>
       <c r="E318" t="n">
-        <v>19800018</v>
+        <v>19769208</v>
       </c>
       <c r="F318" t="n">
-        <v>197.359419310357</v>
+        <v>179.9061123887436</v>
       </c>
       <c r="G318" t="n">
-        <v>374.1168349277731</v>
+        <v>434.0146894932683</v>
       </c>
       <c r="H318" t="n">
         <v>0.2</v>
       </c>
       <c r="I318" t="n">
-        <v>676932</v>
+        <v>677041</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>153231</v>
+        <v>149026</v>
       </c>
       <c r="F319" t="n">
-        <v>179.991398858397</v>
+        <v>290.6550251549241</v>
       </c>
       <c r="G319" t="n">
-        <v>273.4248083786405</v>
+        <v>250.1794218835163</v>
       </c>
       <c r="H319" t="n">
-        <v>2.96</v>
+        <v>0.57</v>
       </c>
       <c r="I319" t="n">
-        <v>58507</v>
+        <v>56242</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19194706632</v>
+        <v>19230483766</v>
       </c>
       <c r="F320" t="n">
-        <v>51921.57917979363</v>
+        <v>52051.21653402246</v>
       </c>
       <c r="G320" t="n">
-        <v>50144.45422314469</v>
+        <v>49776.07195564954</v>
       </c>
       <c r="H320" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I320" t="n">
-        <v>48773524</v>
+        <v>48767421</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>102175883</v>
+        <v>100483441</v>
       </c>
       <c r="E321" t="n">
-        <v>154808269</v>
+        <v>152244024</v>
       </c>
       <c r="F321" t="n">
-        <v>21188.54568245946</v>
+        <v>13158.69687773432</v>
       </c>
       <c r="G321" t="n">
-        <v>15281.98206531419</v>
+        <v>19051.54813044451</v>
       </c>
       <c r="H321" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I321" t="n">
-        <v>7228469</v>
+        <v>7281190</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2660014</v>
+        <v>2654906</v>
       </c>
       <c r="E322" t="n">
-        <v>10640056</v>
+        <v>10619622</v>
       </c>
       <c r="F322" t="n">
-        <v>33517.30823496237</v>
+        <v>38667.20895393854</v>
       </c>
       <c r="G322" t="n">
-        <v>11026.56325296922</v>
+        <v>18095.2475514462</v>
       </c>
       <c r="H322" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="I322" t="n">
-        <v>4986301</v>
+        <v>5061463</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>210725146</v>
+        <v>211685154</v>
       </c>
       <c r="E323" t="n">
-        <v>647900522</v>
+        <v>650852187</v>
       </c>
       <c r="F323" t="n">
-        <v>81412.5378520847</v>
+        <v>88711.44657365259</v>
       </c>
       <c r="G323" t="n">
-        <v>184375.9327282026</v>
+        <v>153629.8500908762</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>11246831</v>
+        <v>11405939</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>146465115</v>
+        <v>147389760</v>
       </c>
       <c r="E324" t="n">
-        <v>382636051</v>
+        <v>385051661</v>
       </c>
       <c r="F324" t="n">
-        <v>8249.036173433684</v>
+        <v>9128.105780708329</v>
       </c>
       <c r="G324" t="n">
-        <v>4365.039033064393</v>
+        <v>8260.366421755847</v>
       </c>
       <c r="H324" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="I324" t="n">
-        <v>6924731</v>
+        <v>6966688</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2393871</v>
+        <v>2395639</v>
       </c>
       <c r="E325" t="n">
-        <v>3285302</v>
+        <v>3287627</v>
       </c>
       <c r="F325" t="n">
-        <v>262.5697832245377</v>
+        <v>262.9202740607776</v>
       </c>
       <c r="G325" t="n">
-        <v>5795.364769305277</v>
+        <v>3761.051071913394</v>
       </c>
       <c r="H325" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="I325" t="n">
-        <v>187797</v>
+        <v>251540</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>397147936</v>
+        <v>397797848</v>
       </c>
       <c r="E326" t="n">
-        <v>2269416775</v>
+        <v>2273130561</v>
       </c>
       <c r="F326" t="n">
-        <v>478387.5583417276</v>
+        <v>414998.3986276927</v>
       </c>
       <c r="G326" t="n">
-        <v>533158.7380973694</v>
+        <v>483738.3034626015</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>36209941</v>
+        <v>36379940</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92552</v>
+        <v>92652</v>
       </c>
       <c r="F2" t="n">
-        <v>5.570926264539513</v>
+        <v>5.570874042794945</v>
       </c>
       <c r="G2" t="n">
-        <v>31.24842363932129</v>
+        <v>31.2481307172613</v>
       </c>
       <c r="H2" t="n">
         <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>756.74</v>
+        <v>757.47</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>604432500</v>
+        <v>601748946</v>
       </c>
       <c r="E3" t="n">
-        <v>1172748671</v>
+        <v>1167584672</v>
       </c>
       <c r="F3" t="n">
-        <v>15244.52430848763</v>
+        <v>16986.3277632679</v>
       </c>
       <c r="G3" t="n">
-        <v>24751.15276790882</v>
+        <v>28772.79540718724</v>
       </c>
       <c r="H3" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I3" t="n">
-        <v>22206351</v>
+        <v>22514098</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243452124</v>
+        <v>245169259</v>
       </c>
       <c r="E4" t="n">
-        <v>1526654052</v>
+        <v>1537421961</v>
       </c>
       <c r="F4" t="n">
-        <v>76106.60542153069</v>
+        <v>63919.35607718978</v>
       </c>
       <c r="G4" t="n">
-        <v>88014.03160974041</v>
+        <v>94761.83808074109</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15373787</v>
+        <v>15528327</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139124601</v>
+        <v>139246269</v>
       </c>
       <c r="E5" t="n">
-        <v>154172280</v>
+        <v>154307107</v>
       </c>
       <c r="F5" t="n">
-        <v>143960.9870512185</v>
+        <v>154879.6426331027</v>
       </c>
       <c r="G5" t="n">
-        <v>274416.7012546394</v>
+        <v>251258.3904350951</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>32896996</v>
+        <v>33123040</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49045749</v>
+        <v>49721802</v>
       </c>
       <c r="E6" t="n">
-        <v>61354974</v>
+        <v>62200699</v>
       </c>
       <c r="F6" t="n">
-        <v>8388.709497580641</v>
+        <v>11435.14955725441</v>
       </c>
       <c r="G6" t="n">
-        <v>8088.447866838584</v>
+        <v>9106.741522612641</v>
       </c>
       <c r="H6" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
-        <v>619676</v>
+        <v>513987</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8704931</v>
+        <v>8727310</v>
       </c>
       <c r="E7" t="n">
-        <v>8924437</v>
+        <v>8947380</v>
       </c>
       <c r="F7" t="n">
-        <v>482.1029072889817</v>
+        <v>735.2155160051108</v>
       </c>
       <c r="G7" t="n">
-        <v>166.1924915932231</v>
+        <v>689.4284957831134</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>0.53</v>
       </c>
       <c r="I7" t="n">
-        <v>62291</v>
+        <v>62656</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68413520</v>
+        <v>68667963</v>
       </c>
       <c r="E8" t="n">
-        <v>136279537</v>
+        <v>136786386</v>
       </c>
       <c r="F8" t="n">
-        <v>19486.25902620956</v>
+        <v>46445.94129566755</v>
       </c>
       <c r="G8" t="n">
-        <v>19453.55860314736</v>
+        <v>18807.5190995851</v>
       </c>
       <c r="H8" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="I8" t="n">
-        <v>1598543</v>
+        <v>1497812</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5219203</v>
+        <v>5227076</v>
       </c>
       <c r="E9" t="n">
-        <v>8338717</v>
+        <v>8351296</v>
       </c>
       <c r="F9" t="n">
-        <v>319.7395452096706</v>
+        <v>398.9312444591808</v>
       </c>
       <c r="G9" t="n">
-        <v>572.6614502949631</v>
+        <v>519.5744521725042</v>
       </c>
       <c r="H9" t="n">
-        <v>0.53</v>
+        <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>105665</v>
+        <v>104635</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14330039</v>
+        <v>14295147</v>
       </c>
       <c r="E10" t="n">
-        <v>42229699</v>
+        <v>42126875</v>
       </c>
       <c r="F10" t="n">
-        <v>3937.398159251623</v>
+        <v>3952.798672108883</v>
       </c>
       <c r="G10" t="n">
-        <v>4904.707619053989</v>
+        <v>4951.307730869421</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="I10" t="n">
-        <v>799023</v>
+        <v>776818</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>124206825</v>
+        <v>124979662</v>
       </c>
       <c r="E11" t="n">
-        <v>486853562</v>
+        <v>489882854</v>
       </c>
       <c r="F11" t="n">
-        <v>39376.03521547705</v>
+        <v>48522.60181559522</v>
       </c>
       <c r="G11" t="n">
-        <v>48765.23790606349</v>
+        <v>71327.54988080847</v>
       </c>
       <c r="H11" t="n">
         <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>28566460</v>
+        <v>28845329</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7595559</v>
+        <v>7577978</v>
       </c>
       <c r="E12" t="n">
-        <v>32656857</v>
+        <v>32581272</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2720.839008877355</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3142.268174139001</v>
       </c>
       <c r="H12" t="n">
-        <v>6.62</v>
+        <v>0.18</v>
       </c>
       <c r="I12" t="n">
-        <v>752769</v>
+        <v>676364</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>997925</v>
+        <v>998967</v>
       </c>
       <c r="E13" t="n">
-        <v>12211914</v>
+        <v>12224660</v>
       </c>
       <c r="F13" t="n">
-        <v>280.9401134002316</v>
+        <v>280.9405378556255</v>
       </c>
       <c r="G13" t="n">
-        <v>198.0149501687318</v>
+        <v>203.7129356245244</v>
       </c>
       <c r="H13" t="n">
         <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2088.55</v>
+        <v>2109.96</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>568758</v>
+        <v>563218</v>
       </c>
       <c r="E14" t="n">
-        <v>568758</v>
+        <v>563218</v>
       </c>
       <c r="F14" t="n">
-        <v>17.15123781812846</v>
+        <v>35.23675489469431</v>
       </c>
       <c r="G14" t="n">
-        <v>440.3598766275036</v>
+        <v>1172.529198020703</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>23706</v>
+        <v>23831</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>544271429</v>
+        <v>545659594</v>
       </c>
       <c r="E15" t="n">
-        <v>680802664</v>
+        <v>682539053</v>
       </c>
       <c r="F15" t="n">
-        <v>442592.0784217431</v>
+        <v>428242.6661765517</v>
       </c>
       <c r="G15" t="n">
-        <v>539499.1290914388</v>
+        <v>371463.1928606526</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>54894117</v>
+        <v>54468883</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3350819</v>
+        <v>3343817</v>
       </c>
       <c r="E16" t="n">
-        <v>9532782</v>
+        <v>9512864</v>
       </c>
       <c r="F16" t="n">
-        <v>191.3793637149477</v>
+        <v>190.9375354820472</v>
       </c>
       <c r="G16" t="n">
-        <v>651.6633850328794</v>
+        <v>361.4566170970709</v>
       </c>
       <c r="H16" t="n">
         <v>0.42</v>
       </c>
       <c r="I16" t="n">
-        <v>232292</v>
+        <v>232905</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>313452</v>
+        <v>313896</v>
       </c>
       <c r="E17" t="n">
-        <v>3617947</v>
+        <v>3623076</v>
       </c>
       <c r="F17" t="n">
-        <v>19.02713715402036</v>
+        <v>19.02659040668535</v>
       </c>
       <c r="G17" t="n">
-        <v>3.995241256963902</v>
+        <v>3.995180841514981</v>
       </c>
       <c r="H17" t="n">
         <v>0.59</v>
       </c>
       <c r="I17" t="n">
-        <v>3106.09</v>
+        <v>3108.32</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1369788</v>
+        <v>1363266</v>
       </c>
       <c r="E18" t="n">
-        <v>10507087</v>
+        <v>10457057</v>
       </c>
       <c r="F18" t="n">
-        <v>407.4941949847012</v>
+        <v>302.9092763684386</v>
       </c>
       <c r="G18" t="n">
-        <v>133.7053976163344</v>
+        <v>143.0325839120768</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="I18" t="n">
-        <v>156026</v>
+        <v>155986</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22318878</v>
+        <v>22341388</v>
       </c>
       <c r="E19" t="n">
-        <v>22360666</v>
+        <v>22383219</v>
       </c>
       <c r="F19" t="n">
-        <v>820.8139561731942</v>
+        <v>732.275884772186</v>
       </c>
       <c r="G19" t="n">
-        <v>1156.288031607101</v>
+        <v>1222.998314697706</v>
       </c>
       <c r="H19" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="I19" t="n">
-        <v>864895</v>
+        <v>874821</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3912048</v>
+        <v>3694966</v>
       </c>
       <c r="E20" t="n">
-        <v>21706357</v>
+        <v>20501856</v>
       </c>
       <c r="F20" t="n">
-        <v>47.68864299945324</v>
+        <v>4.109298948110004</v>
       </c>
       <c r="G20" t="n">
-        <v>13.47884104627937</v>
+        <v>146.7406242941704</v>
       </c>
       <c r="H20" t="n">
-        <v>0.61</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>2341.25</v>
+        <v>43571</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6896303</v>
+        <v>6888637</v>
       </c>
       <c r="E21" t="n">
-        <v>12794097</v>
+        <v>12779874</v>
       </c>
       <c r="F21" t="n">
-        <v>295.144453185028</v>
+        <v>493.801883012359</v>
       </c>
       <c r="G21" t="n">
-        <v>203.2721301309282</v>
+        <v>210.1280798732083</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>48068</v>
+        <v>50736</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72164768</v>
+        <v>72642855</v>
       </c>
       <c r="E22" t="n">
-        <v>125016786</v>
+        <v>125842005</v>
       </c>
       <c r="F22" t="n">
-        <v>1856.581143769501</v>
+        <v>1600.324854376108</v>
       </c>
       <c r="G22" t="n">
-        <v>820.3381047330188</v>
+        <v>570.4703574125668</v>
       </c>
       <c r="H22" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="I22" t="n">
-        <v>662636</v>
+        <v>667072</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>176496</v>
+        <v>176835</v>
       </c>
       <c r="E23" t="n">
-        <v>530815</v>
+        <v>531834</v>
       </c>
       <c r="F23" t="n">
-        <v>197.5801788440594</v>
+        <v>232.264150768403</v>
       </c>
       <c r="G23" t="n">
-        <v>3.916975894430192</v>
+        <v>4.050206064294249</v>
       </c>
       <c r="H23" t="n">
         <v>0.37</v>
       </c>
       <c r="I23" t="n">
-        <v>60.7</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81490663</v>
+        <v>81701721</v>
       </c>
       <c r="E24" t="n">
-        <v>239849194</v>
+        <v>240470395</v>
       </c>
       <c r="F24" t="n">
-        <v>567.8134095652223</v>
+        <v>500.3806454413481</v>
       </c>
       <c r="G24" t="n">
-        <v>493.7702134736282</v>
+        <v>496.3807267572594</v>
       </c>
       <c r="H24" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
       <c r="I24" t="n">
-        <v>377911</v>
+        <v>409415</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6847449</v>
+        <v>6848308</v>
       </c>
       <c r="F25" t="n">
-        <v>8.945244679060547</v>
+        <v>4.165723050773634</v>
       </c>
       <c r="G25" t="n">
-        <v>4.096525556106637</v>
+        <v>4.096642456017082</v>
       </c>
       <c r="H25" t="n">
         <v>0.58</v>
       </c>
       <c r="I25" t="n">
-        <v>27259</v>
+        <v>25325</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2454640</v>
+        <v>2447407</v>
       </c>
       <c r="E26" t="n">
-        <v>2454640</v>
+        <v>2447407</v>
       </c>
       <c r="F26" t="n">
-        <v>175.3287048694401</v>
+        <v>254.0264787672958</v>
       </c>
       <c r="G26" t="n">
-        <v>75.55441228800598</v>
+        <v>389.3386581471306</v>
       </c>
       <c r="H26" t="n">
-        <v>2.76</v>
+        <v>3.57</v>
       </c>
       <c r="I26" t="n">
-        <v>295702</v>
+        <v>302095</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19319889</v>
+        <v>19372533</v>
       </c>
       <c r="E27" t="n">
-        <v>24866283</v>
+        <v>24934039</v>
       </c>
       <c r="F27" t="n">
-        <v>3548.542709269906</v>
+        <v>4883.085104180787</v>
       </c>
       <c r="G27" t="n">
-        <v>2836.104277440779</v>
+        <v>1610.571514622536</v>
       </c>
       <c r="H27" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I27" t="n">
-        <v>2074336</v>
+        <v>2067454</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4647904</v>
+        <v>4631194</v>
       </c>
       <c r="E28" t="n">
-        <v>4647904</v>
+        <v>4631194</v>
       </c>
       <c r="F28" t="n">
-        <v>1572.895122285638</v>
+        <v>1356.448736077748</v>
       </c>
       <c r="G28" t="n">
-        <v>1681.034842829849</v>
+        <v>1985.491754577101</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>1898948</v>
+        <v>1309621</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1725066</v>
+        <v>1673752</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.09967689804138</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>164.9717347438776</v>
       </c>
       <c r="H29" t="n">
-        <v>4.09</v>
+        <v>2.29</v>
       </c>
       <c r="I29" t="n">
-        <v>112691</v>
+        <v>161078</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3233113</v>
+        <v>3261234</v>
       </c>
       <c r="E30" t="n">
-        <v>3233113</v>
+        <v>3261234</v>
       </c>
       <c r="F30" t="n">
-        <v>558.3927982844156</v>
+        <v>506.1249416366589</v>
       </c>
       <c r="G30" t="n">
-        <v>662.2477919880545</v>
+        <v>702.9127602492181</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I30" t="n">
-        <v>498151</v>
+        <v>511851</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>310510</v>
+        <v>313275</v>
       </c>
       <c r="E31" t="n">
-        <v>1449491</v>
+        <v>1462399</v>
       </c>
       <c r="F31" t="n">
-        <v>96.69282995060546</v>
+        <v>144.3466218205578</v>
       </c>
       <c r="G31" t="n">
-        <v>467.8975995033072</v>
+        <v>39.97784703646732</v>
       </c>
       <c r="H31" t="n">
-        <v>2.03</v>
+        <v>1.35</v>
       </c>
       <c r="I31" t="n">
-        <v>620438</v>
+        <v>624736</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>382812</v>
+        <v>388944</v>
       </c>
       <c r="E32" t="n">
-        <v>382812</v>
+        <v>388944</v>
       </c>
       <c r="F32" t="n">
-        <v>63.82323693739097</v>
+        <v>5.405808906974662</v>
       </c>
       <c r="G32" t="n">
-        <v>5.413071850573394</v>
+        <v>5.413201981945531</v>
       </c>
       <c r="H32" t="n">
         <v>0.22</v>
       </c>
       <c r="I32" t="n">
-        <v>54991</v>
+        <v>55665</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1947834</v>
+        <v>1851373</v>
       </c>
       <c r="F33" t="n">
-        <v>5.774848688960401</v>
+        <v>52.24756453752016</v>
       </c>
       <c r="G33" t="n">
-        <v>282.8844838674582</v>
+        <v>10.13208584849937</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="I33" t="n">
-        <v>1354258</v>
+        <v>1358418</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1552604</v>
+        <v>1628161</v>
       </c>
       <c r="F34" t="n">
-        <v>121.6352096408147</v>
+        <v>83.90616137995478</v>
       </c>
       <c r="G34" t="n">
-        <v>41.43933838388984</v>
+        <v>98.57564374621164</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>177895</v>
+        <v>166390</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12812763</v>
+        <v>12778160</v>
       </c>
       <c r="E35" t="n">
-        <v>32266758</v>
+        <v>32179616</v>
       </c>
       <c r="F35" t="n">
-        <v>1821.172873128506</v>
+        <v>773.6145261188826</v>
       </c>
       <c r="G35" t="n">
-        <v>872.3308211447176</v>
+        <v>1203.348925671854</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I35" t="n">
-        <v>1584186</v>
+        <v>1590880</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6930000</v>
+        <v>6765275</v>
       </c>
       <c r="E36" t="n">
-        <v>9544381</v>
+        <v>9317512</v>
       </c>
       <c r="F36" t="n">
-        <v>155.7521978107693</v>
+        <v>88.31512557331298</v>
       </c>
       <c r="G36" t="n">
-        <v>79.90546794566684</v>
+        <v>174.1836318945585</v>
       </c>
       <c r="H36" t="n">
-        <v>2.76</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1008846</v>
+        <v>902700</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>916607</v>
+        <v>912380</v>
       </c>
       <c r="E37" t="n">
-        <v>6416252</v>
+        <v>6386663</v>
       </c>
       <c r="F37" t="n">
-        <v>516.3270584071045</v>
+        <v>499.6787951721636</v>
       </c>
       <c r="G37" t="n">
-        <v>5148.809405067465</v>
+        <v>5206.17727571917</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I37" t="n">
-        <v>423927</v>
+        <v>349946</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>107540555</v>
+        <v>107844143</v>
       </c>
       <c r="E38" t="n">
-        <v>418728867</v>
+        <v>419886771</v>
       </c>
       <c r="F38" t="n">
-        <v>15023.58705639193</v>
+        <v>12432.85421140463</v>
       </c>
       <c r="G38" t="n">
-        <v>36517.51267202364</v>
+        <v>33116.18650396549</v>
       </c>
       <c r="H38" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>6618046</v>
+        <v>6525265</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5469707</v>
+        <v>5477857</v>
       </c>
       <c r="E39" t="n">
-        <v>5731378</v>
+        <v>5739918</v>
       </c>
       <c r="F39" t="n">
-        <v>71.95294480876369</v>
+        <v>75.40052610307735</v>
       </c>
       <c r="G39" t="n">
-        <v>2681.456150314709</v>
+        <v>2635.606182616093</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>175022</v>
+        <v>171436</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5356871</v>
+        <v>5374161</v>
       </c>
       <c r="E40" t="n">
-        <v>7885604</v>
+        <v>7911056</v>
       </c>
       <c r="F40" t="n">
-        <v>1266.315205024364</v>
+        <v>1166.961548627828</v>
       </c>
       <c r="G40" t="n">
-        <v>2118.972345956714</v>
+        <v>2374.950050935647</v>
       </c>
       <c r="H40" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="I40" t="n">
-        <v>586204</v>
+        <v>599400</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7658488</v>
+        <v>7660067</v>
       </c>
       <c r="E41" t="n">
-        <v>7658488</v>
+        <v>7660067</v>
       </c>
       <c r="F41" t="n">
-        <v>1635.388734734234</v>
+        <v>1717.372183332219</v>
       </c>
       <c r="G41" t="n">
-        <v>3113.436062017533</v>
+        <v>2187.292104848863</v>
       </c>
       <c r="H41" t="n">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="I41" t="n">
-        <v>221515</v>
+        <v>257538</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1490251</v>
+        <v>1490978</v>
       </c>
       <c r="E42" t="n">
-        <v>1490291</v>
+        <v>1490978</v>
       </c>
       <c r="F42" t="n">
-        <v>345.7873208310662</v>
+        <v>95.65772933768878</v>
       </c>
       <c r="G42" t="n">
-        <v>35.68303351624854</v>
+        <v>55.44803081547806</v>
       </c>
       <c r="H42" t="n">
         <v>0.14</v>
       </c>
       <c r="I42" t="n">
-        <v>277191</v>
+        <v>275978</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16499241</v>
+        <v>16425131</v>
       </c>
       <c r="F43" t="n">
-        <v>305.218153004336</v>
+        <v>311.1308874368621</v>
       </c>
       <c r="G43" t="n">
-        <v>535.9714144012485</v>
+        <v>472.1179198756482</v>
       </c>
       <c r="H43" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="I43" t="n">
-        <v>10769.42</v>
+        <v>10420.32</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>133389187</v>
+        <v>133810673</v>
       </c>
       <c r="E44" t="n">
-        <v>133389187</v>
+        <v>133810673</v>
       </c>
       <c r="F44" t="n">
-        <v>352084.449353916</v>
+        <v>324391.2389583177</v>
       </c>
       <c r="G44" t="n">
-        <v>351502.6851824486</v>
+        <v>337333.901048751</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>63157617</v>
+        <v>65821660</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>63430842</v>
+        <v>64090442</v>
       </c>
       <c r="E45" t="n">
-        <v>325286371</v>
+        <v>328668934</v>
       </c>
       <c r="F45" t="n">
-        <v>44217.7311429312</v>
+        <v>104115.8669783231</v>
       </c>
       <c r="G45" t="n">
-        <v>87936.29076132541</v>
+        <v>51585.07584073694</v>
       </c>
       <c r="H45" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I45" t="n">
-        <v>18008910</v>
+        <v>18323409</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>592893</v>
+        <v>592905</v>
       </c>
       <c r="F46" t="n">
-        <v>90.1863179336677</v>
+        <v>74.24570354888233</v>
       </c>
       <c r="G46" t="n">
-        <v>374.1627625534035</v>
+        <v>374.294099880849</v>
       </c>
       <c r="H46" t="n">
         <v>0.42</v>
       </c>
       <c r="I46" t="n">
-        <v>435.91</v>
+        <v>436.17</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2722535</v>
+        <v>2715751</v>
       </c>
       <c r="E47" t="n">
-        <v>10941248</v>
+        <v>10913984</v>
       </c>
       <c r="F47" t="n">
-        <v>183.8760054566256</v>
+        <v>185.422707690039</v>
       </c>
       <c r="G47" t="n">
-        <v>771.3435880862555</v>
+        <v>649.474137867003</v>
       </c>
       <c r="H47" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="I47" t="n">
-        <v>24473</v>
+        <v>25102</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17427177</v>
+        <v>17336361</v>
       </c>
       <c r="E48" t="n">
-        <v>122905617</v>
+        <v>122241787</v>
       </c>
       <c r="F48" t="n">
-        <v>1545.669034301973</v>
+        <v>1302.020195916328</v>
       </c>
       <c r="G48" t="n">
-        <v>652.89827316105</v>
+        <v>1772.251634511875</v>
       </c>
       <c r="H48" t="n">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>1040774</v>
+        <v>1040115</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1028695</v>
+        <v>1026975</v>
       </c>
       <c r="E49" t="n">
-        <v>1207442</v>
+        <v>1205424</v>
       </c>
       <c r="F49" t="n">
-        <v>2601.775919955055</v>
+        <v>2442.64845187756</v>
       </c>
       <c r="G49" t="n">
-        <v>3935.374729267784</v>
+        <v>3935.469336494055</v>
       </c>
       <c r="H49" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>253758</v>
+        <v>256889</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>170165</v>
+        <v>169948</v>
       </c>
       <c r="E50" t="n">
-        <v>2276903</v>
+        <v>2273999</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>52491</v>
+        <v>52522</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>248581980</v>
+        <v>250323004</v>
       </c>
       <c r="E51" t="n">
-        <v>248581980</v>
+        <v>250323004</v>
       </c>
       <c r="F51" t="n">
-        <v>20096.93198768355</v>
+        <v>31106.08941501493</v>
       </c>
       <c r="G51" t="n">
-        <v>44380.69272196255</v>
+        <v>28196.49703357991</v>
       </c>
       <c r="H51" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I51" t="n">
-        <v>14785339</v>
+        <v>14728611</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1125718</v>
+        <v>1120977</v>
       </c>
       <c r="F52" t="n">
-        <v>64.33727717396903</v>
+        <v>64.33782539643487</v>
       </c>
       <c r="G52" t="n">
-        <v>3.92875556958758</v>
+        <v>3.928789046790232</v>
       </c>
       <c r="H52" t="n">
         <v>0.7</v>
       </c>
       <c r="I52" t="n">
-        <v>190155</v>
+        <v>191055</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>114344</v>
+        <v>114678</v>
       </c>
       <c r="E54" t="n">
-        <v>114344</v>
+        <v>114678</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>13.9</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6559926</v>
+        <v>6599664</v>
       </c>
       <c r="E55" t="n">
-        <v>15933554</v>
+        <v>16030076</v>
       </c>
       <c r="F55" t="n">
-        <v>301.1789698203269</v>
+        <v>170.1395609086055</v>
       </c>
       <c r="G55" t="n">
-        <v>245.503768415985</v>
+        <v>1644.089275729329</v>
       </c>
       <c r="H55" t="n">
-        <v>1.42</v>
+        <v>0.6</v>
       </c>
       <c r="I55" t="n">
-        <v>452842</v>
+        <v>453506</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>439924918</v>
+        <v>442013764</v>
       </c>
       <c r="E56" t="n">
-        <v>439924918</v>
+        <v>442013764</v>
       </c>
       <c r="F56" t="n">
-        <v>6209.845761784743</v>
+        <v>5445.370043656122</v>
       </c>
       <c r="G56" t="n">
-        <v>3182.456579306451</v>
+        <v>3849.992612582097</v>
       </c>
       <c r="H56" t="n">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="I56" t="n">
-        <v>2854916</v>
+        <v>2844427</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2502721</v>
+        <v>2517856</v>
       </c>
       <c r="E57" t="n">
-        <v>2502721</v>
+        <v>2517856</v>
       </c>
       <c r="F57" t="n">
-        <v>5.2716324987575</v>
+        <v>5.271598794676917</v>
       </c>
       <c r="G57" t="n">
-        <v>3.039468826859137</v>
+        <v>3.039449394073885</v>
       </c>
       <c r="H57" t="n">
         <v>0.54</v>
       </c>
       <c r="I57" t="n">
-        <v>109079</v>
+        <v>109386</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>151648067</v>
+        <v>148585585</v>
       </c>
       <c r="E58" t="n">
-        <v>199551120</v>
+        <v>195521252</v>
       </c>
       <c r="F58" t="n">
-        <v>13205.24944906194</v>
+        <v>14876.70679426771</v>
       </c>
       <c r="G58" t="n">
-        <v>12032.40681872932</v>
+        <v>9691.671951007198</v>
       </c>
       <c r="H58" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="I58" t="n">
-        <v>6967290</v>
+        <v>7187993</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1112692</v>
+        <v>1114976</v>
       </c>
       <c r="E59" t="n">
-        <v>12092324</v>
+        <v>12117142</v>
       </c>
       <c r="F59" t="n">
-        <v>767.6138335640926</v>
+        <v>778.5981479226343</v>
       </c>
       <c r="G59" t="n">
-        <v>3.93110525699222</v>
+        <v>3.93103342244791</v>
       </c>
       <c r="H59" t="n">
         <v>0.49</v>
       </c>
       <c r="I59" t="n">
-        <v>29283</v>
+        <v>29343</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2534056</v>
+        <v>2538323</v>
       </c>
       <c r="E60" t="n">
-        <v>6478534</v>
+        <v>6489444</v>
       </c>
       <c r="F60" t="n">
-        <v>145.3548905036508</v>
+        <v>145.3552703136595</v>
       </c>
       <c r="G60" t="n">
-        <v>180.7510464609171</v>
+        <v>186.4771017017827</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>121979</v>
+        <v>120163</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>71498657</v>
+        <v>71858716</v>
       </c>
       <c r="E61" t="n">
-        <v>200144456</v>
+        <v>201161278</v>
       </c>
       <c r="F61" t="n">
-        <v>63400.98461602636</v>
+        <v>80787.49449215725</v>
       </c>
       <c r="G61" t="n">
-        <v>92839.69399808951</v>
+        <v>83124.59941234687</v>
       </c>
       <c r="H61" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I61" t="n">
-        <v>32194263</v>
+        <v>32634468</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>71793791</v>
+        <v>71935608</v>
       </c>
       <c r="E62" t="n">
-        <v>71793791</v>
+        <v>71935608</v>
       </c>
       <c r="F62" t="n">
-        <v>3853.277764823413</v>
+        <v>3955.497948657714</v>
       </c>
       <c r="G62" t="n">
-        <v>3302.953870666201</v>
+        <v>5099.290415715997</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="I62" t="n">
-        <v>4538941</v>
+        <v>4410552</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4230041</v>
+        <v>4215179</v>
       </c>
       <c r="E63" t="n">
-        <v>8341997</v>
+        <v>8312687</v>
       </c>
       <c r="F63" t="n">
-        <v>1552.79303115861</v>
+        <v>1870.424439529054</v>
       </c>
       <c r="G63" t="n">
-        <v>2527.491963476879</v>
+        <v>2023.137924927685</v>
       </c>
       <c r="H63" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="I63" t="n">
-        <v>1642539</v>
+        <v>1631735</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1573486</v>
+        <v>1569436</v>
       </c>
       <c r="E64" t="n">
-        <v>9034369</v>
+        <v>9011116</v>
       </c>
       <c r="F64" t="n">
-        <v>550.3735288517232</v>
+        <v>2.661766550137933</v>
       </c>
       <c r="G64" t="n">
-        <v>5.135541524744902</v>
+        <v>560.2289398820795</v>
       </c>
       <c r="H64" t="n">
-        <v>0.66</v>
+        <v>1.4</v>
       </c>
       <c r="I64" t="n">
-        <v>329165</v>
+        <v>324426</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>576672</v>
+        <v>571622</v>
       </c>
       <c r="F65" t="n">
-        <v>10.93667791542739</v>
+        <v>8.84501714075078</v>
       </c>
       <c r="G65" t="n">
-        <v>3.955955745905691</v>
+        <v>5.513337169699019</v>
       </c>
       <c r="H65" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="I65" t="n">
-        <v>2027.88</v>
+        <v>2284.45</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>32099957</v>
+        <v>32061411</v>
       </c>
       <c r="F66" t="n">
-        <v>732.8186476832346</v>
+        <v>878.500277929125</v>
       </c>
       <c r="G66" t="n">
-        <v>407.9091878795655</v>
+        <v>329.1175014713855</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I66" t="n">
-        <v>248766</v>
+        <v>250572</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>150628</v>
+        <v>150781</v>
       </c>
       <c r="E67" t="n">
-        <v>1017208</v>
+        <v>1018243</v>
       </c>
       <c r="F67" t="n">
-        <v>15.53836898256049</v>
+        <v>42.77705530253017</v>
       </c>
       <c r="G67" t="n">
-        <v>81.39701011358949</v>
+        <v>167.625780860681</v>
       </c>
       <c r="H67" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="I67" t="n">
-        <v>2619600</v>
+        <v>2664338</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7546682</v>
+        <v>7542233</v>
       </c>
       <c r="E68" t="n">
-        <v>17773936</v>
+        <v>17763457</v>
       </c>
       <c r="F68" t="n">
-        <v>1451.417929635513</v>
+        <v>1507.928549522587</v>
       </c>
       <c r="G68" t="n">
-        <v>3198.963580952186</v>
+        <v>2984.776764565344</v>
       </c>
       <c r="H68" t="n">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="I68" t="n">
-        <v>28856</v>
+        <v>29692</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2912000</v>
+        <v>2903772</v>
       </c>
       <c r="E69" t="n">
-        <v>2912000</v>
+        <v>2903772</v>
       </c>
       <c r="F69" t="n">
-        <v>553.1779080739955</v>
+        <v>321.253349427425</v>
       </c>
       <c r="G69" t="n">
-        <v>37.59470156227686</v>
+        <v>4.097976263667293</v>
       </c>
       <c r="H69" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="I69" t="n">
-        <v>11343.72</v>
+        <v>14378.05</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3367321</v>
+        <v>3362602</v>
       </c>
       <c r="E70" t="n">
-        <v>8308693</v>
+        <v>8297049</v>
       </c>
       <c r="F70" t="n">
-        <v>1163.670288120287</v>
+        <v>1312.184415754326</v>
       </c>
       <c r="G70" t="n">
-        <v>1126.192465178212</v>
+        <v>1208.729810721458</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>92052</v>
+        <v>59187</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23266823</v>
+        <v>23223525</v>
       </c>
       <c r="F71" t="n">
-        <v>641.2170499039154</v>
+        <v>182.5090601818959</v>
       </c>
       <c r="G71" t="n">
-        <v>16.60434840208858</v>
+        <v>16.60489003684284</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>121280</v>
+        <v>118548</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>269620</v>
+        <v>269755</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2486.63</v>
+        <v>2177.98</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>71314323</v>
+        <v>71747130</v>
       </c>
       <c r="E73" t="n">
-        <v>148726579</v>
+        <v>149629201</v>
       </c>
       <c r="F73" t="n">
-        <v>14587.40292025815</v>
+        <v>15586.68136983839</v>
       </c>
       <c r="G73" t="n">
-        <v>1716.165852822717</v>
+        <v>127.5621494120053</v>
       </c>
       <c r="H73" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I73" t="n">
-        <v>13659620</v>
+        <v>13698672</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>197412889</v>
+        <v>198280045</v>
       </c>
       <c r="F75" t="n">
-        <v>8081.036111166746</v>
+        <v>9981.164584155875</v>
       </c>
       <c r="G75" t="n">
-        <v>34948.43451840388</v>
+        <v>25774.56998615411</v>
       </c>
       <c r="H75" t="n">
-        <v>0.41</v>
+        <v>0.05</v>
       </c>
       <c r="I75" t="n">
-        <v>4243220</v>
+        <v>4236892</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>81716526</v>
+        <v>82542636</v>
       </c>
       <c r="E76" t="n">
-        <v>112209507</v>
+        <v>113343885</v>
       </c>
       <c r="F76" t="n">
-        <v>2089.424845912883</v>
+        <v>1062.659370143533</v>
       </c>
       <c r="G76" t="n">
-        <v>4247.467873230727</v>
+        <v>8363.848030567999</v>
       </c>
       <c r="H76" t="n">
         <v>0.19</v>
       </c>
       <c r="I76" t="n">
-        <v>680542</v>
+        <v>708779</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>184901</v>
+        <v>185039</v>
       </c>
       <c r="E77" t="n">
-        <v>193090</v>
+        <v>193234</v>
       </c>
       <c r="F77" t="n">
-        <v>4.046068030076942</v>
+        <v>4.046165298393167</v>
       </c>
       <c r="G77" t="n">
-        <v>3.797508768413425</v>
+        <v>3.797600061313349</v>
       </c>
       <c r="H77" t="n">
         <v>0.52</v>
       </c>
       <c r="I77" t="n">
-        <v>601.77</v>
+        <v>597.67</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7039048</v>
+        <v>7356711</v>
       </c>
       <c r="E78" t="n">
-        <v>7743423</v>
+        <v>8092874</v>
       </c>
       <c r="F78" t="n">
-        <v>233.1046845387561</v>
+        <v>254.6630645117432</v>
       </c>
       <c r="G78" t="n">
-        <v>237.4725942773901</v>
+        <v>143.6815769070052</v>
       </c>
       <c r="H78" t="n">
-        <v>1.7</v>
+        <v>2.34</v>
       </c>
       <c r="I78" t="n">
-        <v>592230</v>
+        <v>637010</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29229485</v>
+        <v>29282955</v>
       </c>
       <c r="E79" t="n">
-        <v>29229485</v>
+        <v>29282955</v>
       </c>
       <c r="F79" t="n">
-        <v>84.48905626569213</v>
+        <v>185.5735384753303</v>
       </c>
       <c r="G79" t="n">
-        <v>1038.57965288269</v>
+        <v>394.7444980126663</v>
       </c>
       <c r="H79" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="I79" t="n">
-        <v>280404</v>
+        <v>277949</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>274886899</v>
+        <v>277251230</v>
       </c>
       <c r="E80" t="n">
-        <v>274886899</v>
+        <v>277251230</v>
       </c>
       <c r="F80" t="n">
-        <v>964.2313845891573</v>
+        <v>59.80782409353591</v>
       </c>
       <c r="G80" t="n">
-        <v>2138.304742547188</v>
+        <v>3214.444117581751</v>
       </c>
       <c r="H80" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I80" t="n">
-        <v>11832818</v>
+        <v>10715604</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>604247497</v>
+        <v>613236059</v>
       </c>
       <c r="E81" t="n">
-        <v>604247497</v>
+        <v>613236059</v>
       </c>
       <c r="F81" t="n">
-        <v>812844.1370714814</v>
+        <v>1393663.175188042</v>
       </c>
       <c r="G81" t="n">
-        <v>794064.7095267945</v>
+        <v>1532051.694649643</v>
       </c>
       <c r="H81" t="n">
-        <v>0.58</v>
+        <v>0.32</v>
       </c>
       <c r="I81" t="n">
-        <v>255377691</v>
+        <v>256867100</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>110098</v>
+        <v>112415</v>
       </c>
       <c r="E82" t="n">
-        <v>110098</v>
+        <v>112415</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>132.78</v>
+        <v>148.12</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>195434311</v>
+        <v>196627756</v>
       </c>
       <c r="E83" t="n">
-        <v>678956459</v>
+        <v>683102593</v>
       </c>
       <c r="F83" t="n">
-        <v>904.2066890003358</v>
+        <v>1504.28771055285</v>
       </c>
       <c r="G83" t="n">
-        <v>3362.162223964826</v>
+        <v>3697.801449180032</v>
       </c>
       <c r="H83" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="I83" t="n">
-        <v>26289153</v>
+        <v>25994512</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4154782</v>
+        <v>4089927</v>
       </c>
       <c r="E84" t="n">
-        <v>4154782</v>
+        <v>4089927</v>
       </c>
       <c r="F84" t="n">
-        <v>735.8621357406111</v>
+        <v>566.314511884094</v>
       </c>
       <c r="G84" t="n">
-        <v>17653.54575623105</v>
+        <v>4968.357772112782</v>
       </c>
       <c r="H84" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I84" t="n">
-        <v>3912924</v>
+        <v>3861565</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>111789145</v>
+        <v>111691356</v>
       </c>
       <c r="E85" t="n">
-        <v>475656807</v>
+        <v>475190769</v>
       </c>
       <c r="F85" t="n">
-        <v>229490.2635164908</v>
+        <v>229219.8717336415</v>
       </c>
       <c r="G85" t="n">
-        <v>408777.0278056382</v>
+        <v>388326.4982091433</v>
       </c>
       <c r="H85" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="I85" t="n">
-        <v>11611135</v>
+        <v>12142794</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>73099508</v>
+        <v>73072353</v>
       </c>
       <c r="E86" t="n">
-        <v>83872375</v>
+        <v>83841217</v>
       </c>
       <c r="F86" t="n">
-        <v>9863.200490353231</v>
+        <v>1862.73534067641</v>
       </c>
       <c r="G86" t="n">
-        <v>2967.587450743014</v>
+        <v>2743.821684293908</v>
       </c>
       <c r="H86" t="n">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="I86" t="n">
-        <v>1037802</v>
+        <v>1199897</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3091853</v>
+        <v>3078452</v>
       </c>
       <c r="E87" t="n">
-        <v>15501849</v>
+        <v>15434659</v>
       </c>
       <c r="F87" t="n">
-        <v>3.844880543852067</v>
+        <v>72.39150084325323</v>
       </c>
       <c r="G87" t="n">
-        <v>3.876296359742955</v>
+        <v>3.934800044024183</v>
       </c>
       <c r="H87" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="I87" t="n">
-        <v>25489</v>
+        <v>26225</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>533628</v>
+        <v>533316</v>
       </c>
       <c r="E88" t="n">
-        <v>9127666</v>
+        <v>9122342</v>
       </c>
       <c r="F88" t="n">
-        <v>5.58816772406505</v>
+        <v>19.08377204437426</v>
       </c>
       <c r="G88" t="n">
-        <v>5.561485919204147</v>
+        <v>108.5959812148859</v>
       </c>
       <c r="H88" t="n">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="I88" t="n">
-        <v>317269</v>
+        <v>312977</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5894386</v>
+        <v>5911950</v>
       </c>
       <c r="E89" t="n">
-        <v>8009542</v>
+        <v>8032962</v>
       </c>
       <c r="F89" t="n">
-        <v>860.2848369974301</v>
+        <v>63.95569978821485</v>
       </c>
       <c r="G89" t="n">
-        <v>376.2893028120119</v>
+        <v>160.7065152736063</v>
       </c>
       <c r="H89" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I89" t="n">
-        <v>6393311</v>
+        <v>6438654</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>41116674</v>
+        <v>40769350</v>
       </c>
       <c r="E90" t="n">
-        <v>48023299</v>
+        <v>47617632</v>
       </c>
       <c r="F90" t="n">
-        <v>933.2606552163713</v>
+        <v>870.8434225177083</v>
       </c>
       <c r="G90" t="n">
-        <v>675.0127895664572</v>
+        <v>134.8184175027355</v>
       </c>
       <c r="H90" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="I90" t="n">
-        <v>812058</v>
+        <v>837053</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14268581</v>
+        <v>14308944</v>
       </c>
       <c r="F91" t="n">
-        <v>300.3742178260143</v>
+        <v>221.3056466550904</v>
       </c>
       <c r="G91" t="n">
-        <v>175.2888073595039</v>
+        <v>165.5629134901715</v>
       </c>
       <c r="H91" t="n">
-        <v>1.49</v>
+        <v>1.84</v>
       </c>
       <c r="I91" t="n">
-        <v>326867</v>
+        <v>102042</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35660955</v>
+        <v>35441352</v>
       </c>
       <c r="E92" t="n">
-        <v>35660955</v>
+        <v>35441352</v>
       </c>
       <c r="F92" t="n">
-        <v>116.4629908409036</v>
+        <v>176.3512494112167</v>
       </c>
       <c r="G92" t="n">
-        <v>368.9400264461639</v>
+        <v>657.1534872205049</v>
       </c>
       <c r="H92" t="n">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="I92" t="n">
-        <v>737532</v>
+        <v>741069</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17578561</v>
+        <v>17399671</v>
       </c>
       <c r="F93" t="n">
-        <v>125.5871404520785</v>
+        <v>128.4023708736588</v>
       </c>
       <c r="G93" t="n">
-        <v>261.3035422935524</v>
+        <v>461.9740128986826</v>
       </c>
       <c r="H93" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="I93" t="n">
-        <v>165909</v>
+        <v>167439</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>531521</v>
+        <v>536542</v>
       </c>
       <c r="E94" t="n">
-        <v>6446832</v>
+        <v>6507734</v>
       </c>
       <c r="F94" t="n">
-        <v>1270.250729508484</v>
+        <v>1165.836769643139</v>
       </c>
       <c r="G94" t="n">
-        <v>2895.328112218063</v>
+        <v>2635.30933862976</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I94" t="n">
-        <v>2806007</v>
+        <v>2763833</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24996279</v>
+        <v>24995723</v>
       </c>
       <c r="E95" t="n">
-        <v>35331264</v>
+        <v>35330478</v>
       </c>
       <c r="F95" t="n">
-        <v>4.530046960821273</v>
+        <v>4.225323442166884</v>
       </c>
       <c r="G95" t="n">
-        <v>1121.144285745673</v>
+        <v>4.143944514697575</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>89954</v>
+        <v>83716</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1260661608</v>
+        <v>1265497367</v>
       </c>
       <c r="E96" t="n">
-        <v>6045130588</v>
+        <v>6068319043</v>
       </c>
       <c r="F96" t="n">
-        <v>410473.8043079856</v>
+        <v>370511.4978678867</v>
       </c>
       <c r="G96" t="n">
-        <v>547180.2606080945</v>
+        <v>426133.6318788305</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>183962689</v>
+        <v>182145604</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>264334250</v>
+        <v>266968518</v>
       </c>
       <c r="E97" t="n">
-        <v>1141013365</v>
+        <v>1152384329</v>
       </c>
       <c r="F97" t="n">
-        <v>102632.8218237798</v>
+        <v>328491.5414431531</v>
       </c>
       <c r="G97" t="n">
-        <v>1016854.514949449</v>
+        <v>1079076.790957105</v>
       </c>
       <c r="H97" t="n">
         <v>0.17</v>
       </c>
       <c r="I97" t="n">
-        <v>112073885</v>
+        <v>109973937</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4980476</v>
+        <v>4979395</v>
       </c>
       <c r="E98" t="n">
-        <v>5519360</v>
+        <v>5518162</v>
       </c>
       <c r="F98" t="n">
-        <v>1094.911496359001</v>
+        <v>1189.742463468376</v>
       </c>
       <c r="G98" t="n">
-        <v>375.8115896181566</v>
+        <v>354.8735569312769</v>
       </c>
       <c r="H98" t="n">
         <v>0.27</v>
       </c>
       <c r="I98" t="n">
-        <v>688428</v>
+        <v>682044</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90165</v>
+        <v>90139</v>
       </c>
       <c r="E99" t="n">
-        <v>90165</v>
+        <v>90139</v>
       </c>
       <c r="F99" t="n">
-        <v>5.510441688527398</v>
+        <v>5.510470307569182</v>
       </c>
       <c r="G99" t="n">
-        <v>332.7188973059227</v>
+        <v>287.3581008081876</v>
       </c>
       <c r="H99" t="n">
         <v>0.37</v>
       </c>
       <c r="I99" t="n">
-        <v>4823.3</v>
+        <v>4876.56</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>112723685</v>
+        <v>113418447</v>
       </c>
       <c r="E100" t="n">
-        <v>112723685</v>
+        <v>113418447</v>
       </c>
       <c r="F100" t="n">
-        <v>23372.36383587964</v>
+        <v>18543.01759428134</v>
       </c>
       <c r="G100" t="n">
-        <v>5883.147920975314</v>
+        <v>13670.98843698853</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>5915538</v>
+        <v>5961343</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3760377</v>
+        <v>3745588</v>
       </c>
       <c r="F101" t="n">
-        <v>1730.565555385211</v>
+        <v>1210.275927821874</v>
       </c>
       <c r="G101" t="n">
-        <v>1069.079869016871</v>
+        <v>1530.471911136975</v>
       </c>
       <c r="H101" t="n">
         <v>0.96</v>
       </c>
       <c r="I101" t="n">
-        <v>318371</v>
+        <v>321357</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2048545489</v>
+        <v>2049398159</v>
       </c>
       <c r="E102" t="n">
-        <v>2048545489</v>
+        <v>2049398159</v>
       </c>
       <c r="F102" t="n">
-        <v>7787091.112044615</v>
+        <v>7438912.000662227</v>
       </c>
       <c r="G102" t="n">
-        <v>4505939.595994465</v>
+        <v>4691969.47692468</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5450016602</v>
+        <v>5574717497</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5339775</v>
+        <v>5330707</v>
       </c>
       <c r="E103" t="n">
-        <v>5345818</v>
+        <v>5336741</v>
       </c>
       <c r="F103" t="n">
-        <v>284.722774407354</v>
+        <v>284.6016335851006</v>
       </c>
       <c r="G103" t="n">
-        <v>56.87055374301229</v>
+        <v>61.27576806429712</v>
       </c>
       <c r="H103" t="n">
         <v>0.09</v>
       </c>
       <c r="I103" t="n">
-        <v>153088</v>
+        <v>152448</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2324585</v>
+        <v>2325362</v>
       </c>
       <c r="F104" t="n">
-        <v>267.3790676716877</v>
+        <v>263.7916282678571</v>
       </c>
       <c r="G104" t="n">
-        <v>23.611443545065</v>
+        <v>23.67297737201511</v>
       </c>
       <c r="H104" t="n">
         <v>0.65</v>
       </c>
       <c r="I104" t="n">
-        <v>71654</v>
+        <v>71500</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4418912</v>
+        <v>4334410</v>
       </c>
       <c r="E105" t="n">
-        <v>5801455</v>
+        <v>5690515</v>
       </c>
       <c r="F105" t="n">
-        <v>10878.5583064294</v>
+        <v>11158.41306076849</v>
       </c>
       <c r="G105" t="n">
-        <v>5947.702181092116</v>
+        <v>12310.09354582155</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I105" t="n">
-        <v>621345</v>
+        <v>625489</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20145487</v>
+        <v>20152452</v>
       </c>
       <c r="F106" t="n">
-        <v>52.27374441689037</v>
+        <v>143.9387083431178</v>
       </c>
       <c r="G106" t="n">
-        <v>762.6193014180421</v>
+        <v>704.0943054657751</v>
       </c>
       <c r="H106" t="n">
         <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>128220</v>
+        <v>128484</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1359716</v>
+        <v>1354753</v>
       </c>
       <c r="E107" t="n">
-        <v>5069525</v>
+        <v>5051021</v>
       </c>
       <c r="F107" t="n">
-        <v>195.4982962112516</v>
+        <v>169.8183974876397</v>
       </c>
       <c r="G107" t="n">
-        <v>313.0270218380414</v>
+        <v>319.3517539308307</v>
       </c>
       <c r="H107" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="I107" t="n">
-        <v>608379</v>
+        <v>608236</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3998979</v>
+        <v>3911803</v>
       </c>
       <c r="E108" t="n">
-        <v>11518680</v>
+        <v>11267579</v>
       </c>
       <c r="F108" t="n">
-        <v>929.5047024351386</v>
+        <v>566.7223900718284</v>
       </c>
       <c r="G108" t="n">
-        <v>8874.973226255797</v>
+        <v>9444.26430879838</v>
       </c>
       <c r="H108" t="n">
-        <v>1.31</v>
+        <v>0.97</v>
       </c>
       <c r="I108" t="n">
-        <v>515224</v>
+        <v>528399</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>79662371</v>
+        <v>79947861</v>
       </c>
       <c r="E109" t="n">
-        <v>101376559</v>
+        <v>101739866</v>
       </c>
       <c r="F109" t="n">
-        <v>3792.913655029801</v>
+        <v>3715.413299513112</v>
       </c>
       <c r="G109" t="n">
-        <v>887.8939500278896</v>
+        <v>525.1764649421002</v>
       </c>
       <c r="H109" t="n">
-        <v>1.01</v>
+        <v>0.5</v>
       </c>
       <c r="I109" t="n">
-        <v>6174344</v>
+        <v>6164902</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22393754</v>
+        <v>22399096</v>
       </c>
       <c r="E110" t="n">
-        <v>29049822</v>
+        <v>29056751</v>
       </c>
       <c r="F110" t="n">
-        <v>21231.70678852264</v>
+        <v>19248.68627784112</v>
       </c>
       <c r="G110" t="n">
-        <v>11565.89323448134</v>
+        <v>18687.57223371372</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="I110" t="n">
-        <v>159130</v>
+        <v>157420</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>607028</v>
+        <v>609013</v>
       </c>
       <c r="E111" t="n">
-        <v>607028</v>
+        <v>609013</v>
       </c>
       <c r="F111" t="n">
-        <v>15.16143405622558</v>
+        <v>3.982503231694922</v>
       </c>
       <c r="G111" t="n">
-        <v>330.0528434149438</v>
+        <v>329.7770335137423</v>
       </c>
       <c r="H111" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="I111" t="n">
-        <v>77736</v>
+        <v>77845</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13537883</v>
+        <v>13620112</v>
       </c>
       <c r="E112" t="n">
-        <v>13537883</v>
+        <v>13620112</v>
       </c>
       <c r="F112" t="n">
-        <v>1627.683145954036</v>
+        <v>2470.546692068675</v>
       </c>
       <c r="G112" t="n">
-        <v>2183.974672897197</v>
+        <v>2846.08324927111</v>
       </c>
       <c r="H112" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I112" t="n">
-        <v>4506653</v>
+        <v>4393225</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98978226</v>
+        <v>98530701</v>
       </c>
       <c r="E113" t="n">
-        <v>122432524</v>
+        <v>121878951</v>
       </c>
       <c r="F113" t="n">
-        <v>165.9224784115371</v>
+        <v>301.8444681190818</v>
       </c>
       <c r="G113" t="n">
-        <v>790.4802413442463</v>
+        <v>1640.211406000228</v>
       </c>
       <c r="H113" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="I113" t="n">
-        <v>757137</v>
+        <v>777852</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>833574</v>
+        <v>835394</v>
       </c>
       <c r="F114" t="n">
-        <v>186.074225322465</v>
+        <v>198.8525720963821</v>
       </c>
       <c r="G114" t="n">
-        <v>239.0948683159598</v>
+        <v>193.5590924377194</v>
       </c>
       <c r="H114" t="n">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="I114" t="n">
-        <v>29620</v>
+        <v>28671</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2845739</v>
+        <v>2858202</v>
       </c>
       <c r="F115" t="n">
-        <v>295.9796603726216</v>
+        <v>248.7871978011169</v>
       </c>
       <c r="G115" t="n">
-        <v>2066.186165637807</v>
+        <v>2144.623562182145</v>
       </c>
       <c r="H115" t="n">
-        <v>0.33</v>
+        <v>0.99</v>
       </c>
       <c r="I115" t="n">
-        <v>21777</v>
+        <v>21533</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10913352</v>
+        <v>10781466</v>
       </c>
       <c r="E116" t="n">
-        <v>16049045</v>
+        <v>15855096</v>
       </c>
       <c r="F116" t="n">
-        <v>3899.995024710106</v>
+        <v>2150.786095214033</v>
       </c>
       <c r="G116" t="n">
-        <v>1951.64738704158</v>
+        <v>6939.305705539107</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="I116" t="n">
-        <v>408117</v>
+        <v>412995</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3255042</v>
+        <v>3215217</v>
       </c>
       <c r="F117" t="n">
-        <v>43.16255552163503</v>
+        <v>7.703003449428179</v>
       </c>
       <c r="G117" t="n">
-        <v>388.2453508935054</v>
+        <v>242.5976932209146</v>
       </c>
       <c r="H117" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="I117" t="n">
-        <v>37919</v>
+        <v>37490</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1085030</v>
+        <v>1088435</v>
       </c>
       <c r="F118" t="n">
-        <v>5.526176910900745</v>
+        <v>3.897982508957462</v>
       </c>
       <c r="G118" t="n">
-        <v>35.43834430329713</v>
+        <v>5.525707066239781</v>
       </c>
       <c r="H118" t="n">
         <v>0.29</v>
       </c>
       <c r="I118" t="n">
-        <v>3342.54</v>
+        <v>3376.41</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5177122</v>
+        <v>5179757</v>
       </c>
       <c r="E119" t="n">
-        <v>7243545</v>
+        <v>7247230</v>
       </c>
       <c r="F119" t="n">
-        <v>1054.686064965397</v>
+        <v>1530.483299463403</v>
       </c>
       <c r="G119" t="n">
-        <v>1439.935826700189</v>
+        <v>1416.169317775487</v>
       </c>
       <c r="H119" t="n">
         <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>102943</v>
+        <v>102680</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10069695</v>
+        <v>10089188</v>
       </c>
       <c r="E120" t="n">
-        <v>27736546</v>
+        <v>27790236</v>
       </c>
       <c r="F120" t="n">
-        <v>663.9167990626473</v>
+        <v>642.0684157361069</v>
       </c>
       <c r="G120" t="n">
-        <v>52.74518837398098</v>
+        <v>38.36439460874038</v>
       </c>
       <c r="H120" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="I120" t="n">
-        <v>348213</v>
+        <v>347321</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51892684</v>
+        <v>51970589</v>
       </c>
       <c r="E121" t="n">
-        <v>132199579</v>
+        <v>132398047</v>
       </c>
       <c r="F121" t="n">
-        <v>541.5477571689737</v>
+        <v>641.0948141024807</v>
       </c>
       <c r="G121" t="n">
-        <v>11233.69285053698</v>
+        <v>11915.18931904926</v>
       </c>
       <c r="H121" t="n">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I121" t="n">
-        <v>2753576</v>
+        <v>2362904</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13838900</v>
+        <v>13783671</v>
       </c>
       <c r="E122" t="n">
-        <v>67024000</v>
+        <v>66756519</v>
       </c>
       <c r="F122" t="n">
-        <v>1129.411611569757</v>
+        <v>2370.48295168199</v>
       </c>
       <c r="G122" t="n">
-        <v>4477.158614605322</v>
+        <v>2228.505421284203</v>
       </c>
       <c r="H122" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="I122" t="n">
-        <v>3599514</v>
+        <v>3619913</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>535264</v>
+        <v>529034</v>
       </c>
       <c r="F123" t="n">
-        <v>3.906539857664534</v>
+        <v>3.906576270585767</v>
       </c>
       <c r="G123" t="n">
-        <v>3.895050516175771</v>
+        <v>3.895086822004665</v>
       </c>
       <c r="H123" t="n">
         <v>0.87</v>
       </c>
       <c r="I123" t="n">
-        <v>7459.83</v>
+        <v>7549.82</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4476289</v>
+        <v>4501828</v>
       </c>
       <c r="E124" t="n">
-        <v>10203502</v>
+        <v>10261717</v>
       </c>
       <c r="F124" t="n">
-        <v>259.0976785240805</v>
+        <v>445.3017473507537</v>
       </c>
       <c r="G124" t="n">
-        <v>2924.867812328436</v>
+        <v>2233.410051530202</v>
       </c>
       <c r="H124" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="I124" t="n">
-        <v>98927</v>
+        <v>99473</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1870079703</v>
+        <v>1880614958</v>
       </c>
       <c r="F125" t="n">
-        <v>72867.00173739075</v>
+        <v>76798.42738246471</v>
       </c>
       <c r="G125" t="n">
-        <v>76000.82785093402</v>
+        <v>72848.70043708447</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="I125" t="n">
-        <v>26015548</v>
+        <v>26253819</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9405286</v>
+        <v>9371093</v>
       </c>
       <c r="E126" t="n">
-        <v>34248468</v>
+        <v>34123282</v>
       </c>
       <c r="F126" t="n">
-        <v>1722.785020942406</v>
+        <v>1753.078044190524</v>
       </c>
       <c r="G126" t="n">
-        <v>5.354016974205945</v>
+        <v>5.354014991811001</v>
       </c>
       <c r="H126" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I126" t="n">
-        <v>158066</v>
+        <v>157711</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>543095</v>
+        <v>540531</v>
       </c>
       <c r="F127" t="n">
-        <v>19.01056958996604</v>
+        <v>22.96141846453144</v>
       </c>
       <c r="G127" t="n">
-        <v>23.22295817416731</v>
+        <v>21.08498436038551</v>
       </c>
       <c r="H127" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="I127" t="n">
-        <v>20733</v>
+        <v>19802.72</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12238660</v>
+        <v>12277944</v>
       </c>
       <c r="E128" t="n">
-        <v>17744292</v>
+        <v>17801248</v>
       </c>
       <c r="F128" t="n">
-        <v>3118.736922403209</v>
+        <v>2670.199482270144</v>
       </c>
       <c r="G128" t="n">
-        <v>6942.269851311252</v>
+        <v>7279.98058392728</v>
       </c>
       <c r="H128" t="n">
-        <v>0.59</v>
+        <v>0.83</v>
       </c>
       <c r="I128" t="n">
-        <v>2278944</v>
+        <v>2284062</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>32542464</v>
+        <v>32383386</v>
       </c>
       <c r="E129" t="n">
-        <v>101326792</v>
+        <v>100831472</v>
       </c>
       <c r="F129" t="n">
-        <v>8599.935849150736</v>
+        <v>6472.239298235852</v>
       </c>
       <c r="G129" t="n">
-        <v>3792.310700436687</v>
+        <v>9609.811150274783</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="I129" t="n">
-        <v>11905789</v>
+        <v>11781442</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2063982</v>
+        <v>2083867</v>
       </c>
       <c r="E130" t="n">
-        <v>14800607</v>
+        <v>14943202</v>
       </c>
       <c r="F130" t="n">
-        <v>5.096326182941364</v>
+        <v>4.112303297763154</v>
       </c>
       <c r="G130" t="n">
-        <v>4.004410269899747</v>
+        <v>3.895151222248997</v>
       </c>
       <c r="H130" t="n">
-        <v>0.28</v>
+        <v>0.53</v>
       </c>
       <c r="I130" t="n">
-        <v>1838637</v>
+        <v>1943962</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7888466</v>
+        <v>7891543</v>
       </c>
       <c r="F131" t="n">
-        <v>184.8126527756684</v>
+        <v>286.6650580200285</v>
       </c>
       <c r="G131" t="n">
-        <v>55.3114479788754</v>
+        <v>55.31348519900769</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="I131" t="n">
-        <v>475823</v>
+        <v>480552</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>195405033</v>
+        <v>198743429</v>
       </c>
       <c r="E132" t="n">
-        <v>1106503362</v>
+        <v>1125407413</v>
       </c>
       <c r="F132" t="n">
-        <v>520404.9792970064</v>
+        <v>491141.8072683628</v>
       </c>
       <c r="G132" t="n">
-        <v>504738.4418071128</v>
+        <v>419831.0913176217</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>60469698</v>
+        <v>60904207</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1033125</v>
+        <v>1023697</v>
       </c>
       <c r="E133" t="n">
-        <v>1033125</v>
+        <v>1023697</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>12121.97</v>
+        <v>12304.46</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>500735</v>
+        <v>500897</v>
       </c>
       <c r="E134" t="n">
-        <v>1685406</v>
+        <v>1685948</v>
       </c>
       <c r="F134" t="n">
-        <v>132.9974265431572</v>
+        <v>175.3900052656407</v>
       </c>
       <c r="G134" t="n">
-        <v>152.8210201474504</v>
+        <v>224.8735573033027</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6</v>
+        <v>1.19</v>
       </c>
       <c r="I134" t="n">
-        <v>630046</v>
+        <v>632864</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>16508342</v>
+        <v>16489582</v>
       </c>
       <c r="F135" t="n">
-        <v>3.845143273470084</v>
+        <v>3.845284897014115</v>
       </c>
       <c r="G135" t="n">
-        <v>4.226722911982804</v>
+        <v>4.226878589791369</v>
       </c>
       <c r="H135" t="n">
         <v>0.64</v>
       </c>
       <c r="I135" t="n">
-        <v>741.38</v>
+        <v>739.49</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>137061061</v>
+        <v>137538650</v>
       </c>
       <c r="E136" t="n">
-        <v>1015267120</v>
+        <v>1018804815</v>
       </c>
       <c r="F136" t="n">
-        <v>40739.64950223108</v>
+        <v>40678.39123090405</v>
       </c>
       <c r="G136" t="n">
-        <v>41037.10409419412</v>
+        <v>41262.47286507309</v>
       </c>
       <c r="H136" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I136" t="n">
-        <v>12089086</v>
+        <v>11942839</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31194778</v>
+        <v>31165124</v>
       </c>
       <c r="E137" t="n">
-        <v>148284554</v>
+        <v>148143593</v>
       </c>
       <c r="F137" t="n">
-        <v>16644.61969321931</v>
+        <v>6592.793777518074</v>
       </c>
       <c r="G137" t="n">
-        <v>17001.60333178628</v>
+        <v>5520.316139147828</v>
       </c>
       <c r="H137" t="n">
         <v>0.34</v>
       </c>
       <c r="I137" t="n">
-        <v>1127734</v>
+        <v>1234980</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8079024</v>
+        <v>8100760</v>
       </c>
       <c r="E138" t="n">
-        <v>10823640</v>
+        <v>10852760</v>
       </c>
       <c r="F138" t="n">
-        <v>389.1283656501864</v>
+        <v>160.2158485847731</v>
       </c>
       <c r="G138" t="n">
-        <v>46.05808006834849</v>
+        <v>103.3204826256011</v>
       </c>
       <c r="H138" t="n">
         <v>0.59</v>
       </c>
       <c r="I138" t="n">
-        <v>59570</v>
+        <v>58583</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1242490</v>
+        <v>1238212</v>
       </c>
       <c r="F139" t="n">
-        <v>97.4928218126895</v>
+        <v>19.90521279246912</v>
       </c>
       <c r="G139" t="n">
-        <v>4.014621503496403</v>
+        <v>4.014680182486184</v>
       </c>
       <c r="H139" t="n">
         <v>0.93</v>
       </c>
       <c r="I139" t="n">
-        <v>47527</v>
+        <v>48016</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2395405</v>
+        <v>2346281</v>
       </c>
       <c r="E140" t="n">
-        <v>2395405</v>
+        <v>2346281</v>
       </c>
       <c r="F140" t="n">
-        <v>1014.047861571272</v>
+        <v>976.6216375531451</v>
       </c>
       <c r="G140" t="n">
-        <v>262.4160289661816</v>
+        <v>242.6512782174273</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I140" t="n">
-        <v>269348</v>
+        <v>262200</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>25583691</v>
+        <v>25458528</v>
       </c>
       <c r="E141" t="n">
-        <v>25583691</v>
+        <v>25458528</v>
       </c>
       <c r="F141" t="n">
-        <v>1217.712797471171</v>
+        <v>1188.979175708144</v>
       </c>
       <c r="G141" t="n">
-        <v>1666.349283536017</v>
+        <v>1168.057392942382</v>
       </c>
       <c r="H141" t="n">
-        <v>0.39</v>
+        <v>1.16</v>
       </c>
       <c r="I141" t="n">
-        <v>345448</v>
+        <v>336563</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6382560</v>
+        <v>6449011</v>
       </c>
       <c r="E142" t="n">
-        <v>6740698</v>
+        <v>6810878</v>
       </c>
       <c r="F142" t="n">
-        <v>22.81554634273746</v>
+        <v>955.4830145213483</v>
       </c>
       <c r="G142" t="n">
-        <v>855.5824421600111</v>
+        <v>544.7031236538768</v>
       </c>
       <c r="H142" t="n">
-        <v>0.45</v>
+        <v>1.02</v>
       </c>
       <c r="I142" t="n">
-        <v>69729</v>
+        <v>68789</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3271465</v>
+        <v>3338511</v>
       </c>
       <c r="E143" t="n">
-        <v>7639415</v>
+        <v>7795979</v>
       </c>
       <c r="F143" t="n">
-        <v>1859.27467207105</v>
+        <v>2715.919714203727</v>
       </c>
       <c r="G143" t="n">
-        <v>830.2307110786805</v>
+        <v>324.031550179444</v>
       </c>
       <c r="H143" t="n">
-        <v>0.99</v>
+        <v>0.7</v>
       </c>
       <c r="I143" t="n">
-        <v>753274</v>
+        <v>795648</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1556959</v>
+        <v>1557292</v>
       </c>
       <c r="E144" t="n">
-        <v>12092515</v>
+        <v>12095096</v>
       </c>
       <c r="F144" t="n">
-        <v>200.1179146312435</v>
+        <v>200.0433372364419</v>
       </c>
       <c r="G144" t="n">
-        <v>3191.170570315339</v>
+        <v>9497.126863054933</v>
       </c>
       <c r="H144" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="I144" t="n">
-        <v>508948</v>
+        <v>508766</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>333164342</v>
+        <v>334563564</v>
       </c>
       <c r="E145" t="n">
-        <v>2997353007</v>
+        <v>3009941275</v>
       </c>
       <c r="F145" t="n">
-        <v>416431.9033693909</v>
+        <v>518253.4989205194</v>
       </c>
       <c r="G145" t="n">
-        <v>633974.6146948553</v>
+        <v>728235.4562863644</v>
       </c>
       <c r="H145" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I145" t="n">
-        <v>37079561</v>
+        <v>36556530</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>262340</v>
+        <v>262021</v>
       </c>
       <c r="E146" t="n">
-        <v>2315347</v>
+        <v>2312534</v>
       </c>
       <c r="F146" t="n">
-        <v>52.0920704821191</v>
+        <v>4.014561846139736</v>
       </c>
       <c r="G146" t="n">
-        <v>4.111499864702662</v>
+        <v>8.943176867630998</v>
       </c>
       <c r="H146" t="n">
-        <v>0.86</v>
+        <v>0.61</v>
       </c>
       <c r="I146" t="n">
-        <v>79997</v>
+        <v>75553</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>643341</v>
+        <v>643826</v>
       </c>
       <c r="F147" t="n">
-        <v>929.0063231304215</v>
+        <v>928.0176232360153</v>
       </c>
       <c r="G147" t="n">
-        <v>623.5702340014089</v>
+        <v>623.5779524034499</v>
       </c>
       <c r="H147" t="n">
         <v>0.1</v>
       </c>
       <c r="I147" t="n">
-        <v>5755.2</v>
+        <v>5677.08</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4886688</v>
+        <v>4896824</v>
       </c>
       <c r="E148" t="n">
-        <v>17268211</v>
+        <v>17304028</v>
       </c>
       <c r="F148" t="n">
-        <v>1715.28338188051</v>
+        <v>1711.67854256725</v>
       </c>
       <c r="G148" t="n">
-        <v>2638.22245947259</v>
+        <v>2567.066056014015</v>
       </c>
       <c r="H148" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I148" t="n">
-        <v>105343</v>
+        <v>106025</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8832294</v>
+        <v>8886471</v>
       </c>
       <c r="E149" t="n">
-        <v>40938188</v>
+        <v>41189303</v>
       </c>
       <c r="F149" t="n">
-        <v>1844.436363573315</v>
+        <v>1816.059696935592</v>
       </c>
       <c r="G149" t="n">
-        <v>4357.008170453432</v>
+        <v>4927.143610084608</v>
       </c>
       <c r="H149" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I149" t="n">
-        <v>94971</v>
+        <v>96665</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>42523161</v>
+        <v>42806247</v>
       </c>
       <c r="E150" t="n">
-        <v>246191529</v>
+        <v>247830484</v>
       </c>
       <c r="F150" t="n">
-        <v>86703.22449787991</v>
+        <v>75769.35597325009</v>
       </c>
       <c r="G150" t="n">
-        <v>60050.85385720636</v>
+        <v>47453.465993567</v>
       </c>
       <c r="H150" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>11096554</v>
+        <v>10811726</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>81609</v>
+        <v>80961</v>
       </c>
       <c r="E151" t="n">
-        <v>81609</v>
+        <v>80961</v>
       </c>
       <c r="F151" t="n">
-        <v>4.116665437094671</v>
+        <v>4.116725607591167</v>
       </c>
       <c r="G151" t="n">
-        <v>7.854064435491324</v>
+        <v>9.314310866688849</v>
       </c>
       <c r="H151" t="n">
-        <v>1.32</v>
+        <v>0.88</v>
       </c>
       <c r="I151" t="n">
-        <v>19896.85</v>
+        <v>20183</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4348385</v>
+        <v>4380520</v>
       </c>
       <c r="F152" t="n">
-        <v>561.2845277538711</v>
+        <v>306.76292049292</v>
       </c>
       <c r="G152" t="n">
-        <v>229.0814233575683</v>
+        <v>236.7938387414762</v>
       </c>
       <c r="H152" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="I152" t="n">
-        <v>287443</v>
+        <v>310828</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39151632</v>
+        <v>38748358</v>
       </c>
       <c r="E153" t="n">
-        <v>54073979</v>
+        <v>53517001</v>
       </c>
       <c r="F153" t="n">
-        <v>4603.092058932704</v>
+        <v>740.2723565872178</v>
       </c>
       <c r="G153" t="n">
-        <v>14140.55392787014</v>
+        <v>2860.968127418607</v>
       </c>
       <c r="H153" t="n">
-        <v>0.23</v>
+        <v>0.93</v>
       </c>
       <c r="I153" t="n">
-        <v>345250</v>
+        <v>359558</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2139491</v>
+        <v>2095160</v>
       </c>
       <c r="E154" t="n">
-        <v>8737128</v>
+        <v>8556089</v>
       </c>
       <c r="F154" t="n">
-        <v>749.1956204924021</v>
+        <v>355.6086466304874</v>
       </c>
       <c r="G154" t="n">
-        <v>386.7815955490337</v>
+        <v>1163.652571340252</v>
       </c>
       <c r="H154" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>564848</v>
+        <v>543082</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7286729</v>
+        <v>7431630</v>
       </c>
       <c r="E155" t="n">
-        <v>7340893</v>
+        <v>7486871</v>
       </c>
       <c r="F155" t="n">
-        <v>8585.651185466795</v>
+        <v>547.619992929735</v>
       </c>
       <c r="G155" t="n">
-        <v>1907.627817477806</v>
+        <v>7831.724584100384</v>
       </c>
       <c r="H155" t="n">
         <v>0.22</v>
       </c>
       <c r="I155" t="n">
-        <v>4883115</v>
+        <v>5033356</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>536948</v>
+        <v>554363</v>
       </c>
       <c r="E156" t="n">
-        <v>536948</v>
+        <v>554363</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>26.74</v>
+        <v>26.62</v>
       </c>
       <c r="I156" t="n">
-        <v>6246.2</v>
+        <v>6506.16</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13488217</v>
+        <v>13492407</v>
       </c>
       <c r="E157" t="n">
-        <v>13534119</v>
+        <v>13538323</v>
       </c>
       <c r="F157" t="n">
-        <v>5163.454517520185</v>
+        <v>2101.036969763574</v>
       </c>
       <c r="G157" t="n">
-        <v>3585.320155306166</v>
+        <v>3894.615752989343</v>
       </c>
       <c r="H157" t="n">
         <v>0.2</v>
       </c>
       <c r="I157" t="n">
-        <v>5750405</v>
+        <v>5759858</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42838171</v>
+        <v>42872805</v>
       </c>
       <c r="E158" t="n">
-        <v>72729249</v>
+        <v>72788048</v>
       </c>
       <c r="F158" t="n">
-        <v>459.542278691045</v>
+        <v>348.8480695608267</v>
       </c>
       <c r="G158" t="n">
-        <v>874.5414364957321</v>
+        <v>733.4295603145783</v>
       </c>
       <c r="H158" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I158" t="n">
-        <v>1110706</v>
+        <v>1111149</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>25930630</v>
+        <v>25137334</v>
       </c>
       <c r="E159" t="n">
-        <v>77727325</v>
+        <v>75349882</v>
       </c>
       <c r="F159" t="n">
-        <v>15623.04589371155</v>
+        <v>16140.65177437025</v>
       </c>
       <c r="G159" t="n">
-        <v>7949.014699923197</v>
+        <v>10674.60853281735</v>
       </c>
       <c r="H159" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I159" t="n">
-        <v>2432903</v>
+        <v>2516357</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>100893828</v>
+        <v>101052516</v>
       </c>
       <c r="E160" t="n">
-        <v>107259258</v>
+        <v>107427957</v>
       </c>
       <c r="F160" t="n">
-        <v>402.1297973155484</v>
+        <v>1003.103300573781</v>
       </c>
       <c r="G160" t="n">
-        <v>1742.261434660885</v>
+        <v>1289.948761373207</v>
       </c>
       <c r="H160" t="n">
-        <v>0.13</v>
+        <v>0.87</v>
       </c>
       <c r="I160" t="n">
-        <v>977305</v>
+        <v>978492</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10668645</v>
+        <v>10659484</v>
       </c>
       <c r="E161" t="n">
-        <v>46439685</v>
+        <v>46380087</v>
       </c>
       <c r="F161" t="n">
-        <v>3617.992300417523</v>
+        <v>3640.08493080212</v>
       </c>
       <c r="G161" t="n">
-        <v>2985.105003958746</v>
+        <v>2982.124593791227</v>
       </c>
       <c r="H161" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="I161" t="n">
-        <v>112852</v>
+        <v>110866</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15042885</v>
+        <v>15138993</v>
       </c>
       <c r="E162" t="n">
-        <v>92202790</v>
+        <v>92791864</v>
       </c>
       <c r="F162" t="n">
-        <v>3201.831789515315</v>
+        <v>5767.42264380972</v>
       </c>
       <c r="G162" t="n">
-        <v>1208.399037128343</v>
+        <v>1226.053389347236</v>
       </c>
       <c r="H162" t="n">
         <v>0.16</v>
       </c>
       <c r="I162" t="n">
-        <v>11795588</v>
+        <v>11727183</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1487367</v>
+        <v>1490650</v>
       </c>
       <c r="E163" t="n">
-        <v>1529205</v>
+        <v>1532580</v>
       </c>
       <c r="F163" t="n">
-        <v>99.02305671267408</v>
+        <v>75.92616872172869</v>
       </c>
       <c r="G163" t="n">
-        <v>87.55245111213975</v>
+        <v>87.55232513212552</v>
       </c>
       <c r="H163" t="n">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I163" t="n">
-        <v>130797</v>
+        <v>130906</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97123</v>
+        <v>97032</v>
       </c>
       <c r="E164" t="n">
-        <v>275516</v>
+        <v>275256</v>
       </c>
       <c r="F164" t="n">
-        <v>3.88471229148504</v>
+        <v>3.884673000917805</v>
       </c>
       <c r="G164" t="n">
-        <v>80.5256198582214</v>
+        <v>80.52480540993186</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>40.77</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>45889514</v>
+        <v>46454550</v>
       </c>
       <c r="E165" t="n">
-        <v>197687010</v>
+        <v>200121120</v>
       </c>
       <c r="F165" t="n">
-        <v>4910.923135340675</v>
+        <v>4441.020337128358</v>
       </c>
       <c r="G165" t="n">
-        <v>10041.7874323377</v>
+        <v>6026.665757423323</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I165" t="n">
-        <v>8631736</v>
+        <v>8655414</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7899624</v>
+        <v>7910092</v>
       </c>
       <c r="F166" t="n">
-        <v>528.2297785101665</v>
+        <v>503.7434907949243</v>
       </c>
       <c r="G166" t="n">
-        <v>1815.00015621119</v>
+        <v>1746.483033351621</v>
       </c>
       <c r="H166" t="n">
         <v>0.09</v>
       </c>
       <c r="I166" t="n">
-        <v>6395673</v>
+        <v>6353774</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>663154</v>
+        <v>663965</v>
       </c>
       <c r="E167" t="n">
-        <v>2394388</v>
+        <v>2397314</v>
       </c>
       <c r="F167" t="n">
-        <v>50.88717569839704</v>
+        <v>50.88389178244444</v>
       </c>
       <c r="G167" t="n">
-        <v>10.27122329360454</v>
+        <v>10.27155838142538</v>
       </c>
       <c r="H167" t="n">
         <v>1.37</v>
       </c>
       <c r="I167" t="n">
-        <v>382441</v>
+        <v>392706</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1652431</v>
+        <v>1612366</v>
       </c>
       <c r="F168" t="n">
-        <v>674.5985374217956</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>13.73055422707896</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1.28</v>
+        <v>5.78</v>
       </c>
       <c r="I168" t="n">
-        <v>88834</v>
+        <v>84914</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12962775</v>
+        <v>12896882</v>
       </c>
       <c r="E169" t="n">
-        <v>12962775</v>
+        <v>12896882</v>
       </c>
       <c r="F169" t="n">
-        <v>1805.153204313728</v>
+        <v>2006.839155525504</v>
       </c>
       <c r="G169" t="n">
-        <v>452.573449413715</v>
+        <v>339.5458110878284</v>
       </c>
       <c r="H169" t="n">
-        <v>1.77</v>
+        <v>2.89</v>
       </c>
       <c r="I169" t="n">
-        <v>2645890</v>
+        <v>2964231</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1728150</v>
+        <v>1664247</v>
       </c>
       <c r="E170" t="n">
-        <v>6279897</v>
+        <v>6047627</v>
       </c>
       <c r="F170" t="n">
-        <v>991.056582795489</v>
+        <v>197.3519450737742</v>
       </c>
       <c r="G170" t="n">
-        <v>137.6947640643956</v>
+        <v>174.3044009105602</v>
       </c>
       <c r="H170" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I170" t="n">
-        <v>135623</v>
+        <v>134593</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>9013682</v>
+        <v>8887190</v>
       </c>
       <c r="E171" t="n">
-        <v>20019416</v>
+        <v>19734338</v>
       </c>
       <c r="F171" t="n">
-        <v>1775.766787707673</v>
+        <v>1871.265598973077</v>
       </c>
       <c r="G171" t="n">
-        <v>1750.908557594376</v>
+        <v>1580.645531066507</v>
       </c>
       <c r="H171" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="I171" t="n">
-        <v>402211</v>
+        <v>415426</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1017701</v>
+        <v>1018546</v>
       </c>
       <c r="E172" t="n">
-        <v>2974562</v>
+        <v>2977034</v>
       </c>
       <c r="F172" t="n">
-        <v>87.99964899201319</v>
+        <v>88.00176452186149</v>
       </c>
       <c r="G172" t="n">
-        <v>126.878091072857</v>
+        <v>126.6959694417578</v>
       </c>
       <c r="H172" t="n">
         <v>0.27</v>
       </c>
       <c r="I172" t="n">
-        <v>13872.94</v>
+        <v>10564.88</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20202183</v>
+        <v>20186094</v>
       </c>
       <c r="E173" t="n">
-        <v>80808730</v>
+        <v>80744376</v>
       </c>
       <c r="F173" t="n">
-        <v>20431.7299797792</v>
+        <v>20603.05266466989</v>
       </c>
       <c r="G173" t="n">
-        <v>19502.02395332516</v>
+        <v>27264.27840834289</v>
       </c>
       <c r="H173" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I173" t="n">
-        <v>6008803</v>
+        <v>5500002</v>
       </c>
     </row>
     <row r="174">
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4245910</v>
+        <v>4270546</v>
       </c>
       <c r="E174" t="n">
-        <v>4245910</v>
+        <v>4270546</v>
       </c>
       <c r="F174" t="n">
         <v>2482.573136581383</v>
@@ -6510,7 +6510,7 @@
         <v>0.46</v>
       </c>
       <c r="I174" t="n">
-        <v>2459796</v>
+        <v>2492357</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>288640637</v>
+        <v>292715492</v>
       </c>
       <c r="E175" t="n">
-        <v>288640637</v>
+        <v>292715492</v>
       </c>
       <c r="F175" t="n">
-        <v>4027.52596937498</v>
+        <v>9730.788560502813</v>
       </c>
       <c r="G175" t="n">
-        <v>12707.12822660941</v>
+        <v>2902.036134970622</v>
       </c>
       <c r="H175" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="I175" t="n">
-        <v>12127571</v>
+        <v>12160675</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12623754</v>
+        <v>12702297</v>
       </c>
       <c r="E176" t="n">
-        <v>39938015</v>
+        <v>40186305</v>
       </c>
       <c r="F176" t="n">
-        <v>3682.312286021483</v>
+        <v>3881.867236361673</v>
       </c>
       <c r="G176" t="n">
-        <v>3604.027787453049</v>
+        <v>3389.1777638476</v>
       </c>
       <c r="H176" t="n">
         <v>0.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1488395</v>
+        <v>1492419</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26482</v>
+        <v>26630</v>
       </c>
       <c r="E177" t="n">
-        <v>208274</v>
+        <v>209440</v>
       </c>
       <c r="F177" t="n">
-        <v>152.2622594078395</v>
+        <v>152.2325430762066</v>
       </c>
       <c r="G177" t="n">
-        <v>625.6392836506208</v>
+        <v>517.3332910729602</v>
       </c>
       <c r="H177" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I177" t="n">
-        <v>129345</v>
+        <v>129254</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8055683</v>
+        <v>8074141</v>
       </c>
       <c r="E178" t="n">
-        <v>8055683</v>
+        <v>8074141</v>
       </c>
       <c r="F178" t="n">
-        <v>2155.545216324641</v>
+        <v>2147.02813347424</v>
       </c>
       <c r="G178" t="n">
-        <v>1406.104414550316</v>
+        <v>2264.324605579772</v>
       </c>
       <c r="H178" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I178" t="n">
-        <v>3459789</v>
+        <v>3461219</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1086882</v>
+        <v>1087810</v>
       </c>
       <c r="E179" t="n">
-        <v>2475480</v>
+        <v>2477594</v>
       </c>
       <c r="F179" t="n">
-        <v>262.7809714000925</v>
+        <v>262.8822558872475</v>
       </c>
       <c r="G179" t="n">
-        <v>181.3746185367314</v>
+        <v>181.4716651386453</v>
       </c>
       <c r="H179" t="n">
         <v>0.13</v>
       </c>
       <c r="I179" t="n">
-        <v>4834.17</v>
+        <v>4843.95</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9055324</v>
+        <v>9216232</v>
       </c>
       <c r="E180" t="n">
-        <v>9055324</v>
+        <v>9216232</v>
       </c>
       <c r="F180" t="n">
-        <v>1618.98316499679</v>
+        <v>2624.200181999789</v>
       </c>
       <c r="G180" t="n">
-        <v>3978.978372507951</v>
+        <v>2404.779057642234</v>
       </c>
       <c r="H180" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I180" t="n">
-        <v>2610632</v>
+        <v>2971598</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>16717595</v>
+        <v>16836692</v>
       </c>
       <c r="E181" t="n">
-        <v>16717595</v>
+        <v>16836692</v>
       </c>
       <c r="F181" t="n">
-        <v>2775.663466418966</v>
+        <v>2727.619440160996</v>
       </c>
       <c r="G181" t="n">
-        <v>3209.284980052682</v>
+        <v>3386.831529171389</v>
       </c>
       <c r="H181" t="n">
         <v>0.18</v>
       </c>
       <c r="I181" t="n">
-        <v>3263723</v>
+        <v>3252242</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31501612</v>
+        <v>31398368</v>
       </c>
       <c r="E182" t="n">
-        <v>87256340</v>
+        <v>86970363</v>
       </c>
       <c r="F182" t="n">
-        <v>5224.39186126067</v>
+        <v>4440.833016844195</v>
       </c>
       <c r="G182" t="n">
-        <v>5432.399307483289</v>
+        <v>5498.414499568284</v>
       </c>
       <c r="H182" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I182" t="n">
-        <v>11958077</v>
+        <v>12010044</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>36306761</v>
+        <v>36820248</v>
       </c>
       <c r="E183" t="n">
-        <v>91548222</v>
+        <v>92842987</v>
       </c>
       <c r="F183" t="n">
-        <v>15870.89596484445</v>
+        <v>14977.8848875369</v>
       </c>
       <c r="G183" t="n">
-        <v>11171.94058221209</v>
+        <v>8664.635660399466</v>
       </c>
       <c r="H183" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="I183" t="n">
-        <v>2838958</v>
+        <v>2849805</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>296020991</v>
+        <v>296848032</v>
       </c>
       <c r="E184" t="n">
-        <v>300647680</v>
+        <v>301486461</v>
       </c>
       <c r="F184" t="n">
-        <v>17295.58173610231</v>
+        <v>38991.09205898587</v>
       </c>
       <c r="G184" t="n">
-        <v>26579.76176569226</v>
+        <v>17717.25573903906</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>11516697</v>
+        <v>11558398</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>402953</v>
+        <v>404177</v>
       </c>
       <c r="F185" t="n">
-        <v>300.2486571622021</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>50.14356791464299</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>3.19</v>
+        <v>3.94</v>
       </c>
       <c r="I185" t="n">
-        <v>61736</v>
+        <v>62149</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28086250</v>
+        <v>28220522</v>
       </c>
       <c r="E186" t="n">
-        <v>66725946</v>
+        <v>67044943</v>
       </c>
       <c r="F186" t="n">
-        <v>10305.01654318967</v>
+        <v>10451.07947234069</v>
       </c>
       <c r="G186" t="n">
-        <v>3224.246535582975</v>
+        <v>10672.03413485538</v>
       </c>
       <c r="H186" t="n">
         <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>603847</v>
+        <v>489799</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>19487801</v>
+        <v>19506851</v>
       </c>
       <c r="F187" t="n">
-        <v>3.872333239471654</v>
+        <v>3.872453894252544</v>
       </c>
       <c r="G187" t="n">
-        <v>2682.430472528031</v>
+        <v>2682.263683697448</v>
       </c>
       <c r="H187" t="n">
         <v>0.85</v>
       </c>
       <c r="I187" t="n">
-        <v>1382.12</v>
+        <v>1381.86</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12015472</v>
+        <v>12084209</v>
       </c>
       <c r="E188" t="n">
-        <v>18312373</v>
+        <v>18417131</v>
       </c>
       <c r="F188" t="n">
-        <v>3627.27526920289</v>
+        <v>3609.496392736374</v>
       </c>
       <c r="G188" t="n">
-        <v>1739.125701385468</v>
+        <v>1242.795973211119</v>
       </c>
       <c r="H188" t="n">
         <v>0.77</v>
       </c>
       <c r="I188" t="n">
-        <v>667924</v>
+        <v>669641</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>78233408</v>
+        <v>80241425</v>
       </c>
       <c r="E189" t="n">
-        <v>78233408</v>
+        <v>80241425</v>
       </c>
       <c r="F189" t="n">
-        <v>6901.669754803585</v>
+        <v>10093.74364559514</v>
       </c>
       <c r="G189" t="n">
-        <v>9866.186109487988</v>
+        <v>8417.241485595878</v>
       </c>
       <c r="H189" t="n">
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
       <c r="I189" t="n">
-        <v>4645134</v>
+        <v>4997139</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>295621557</v>
+        <v>298572815</v>
       </c>
       <c r="E190" t="n">
-        <v>295621557</v>
+        <v>298572815</v>
       </c>
       <c r="F190" t="n">
-        <v>199343.2185603918</v>
+        <v>188165.8411510184</v>
       </c>
       <c r="G190" t="n">
-        <v>260788.9573531791</v>
+        <v>291739.3356295151</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>49953463</v>
+        <v>50118702</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9523886</v>
+        <v>9538257</v>
       </c>
       <c r="E191" t="n">
-        <v>27039900</v>
+        <v>27080702</v>
       </c>
       <c r="F191" t="n">
-        <v>686.2817929800564</v>
+        <v>755.3932033055025</v>
       </c>
       <c r="G191" t="n">
-        <v>997.6615364149847</v>
+        <v>1160.838091738386</v>
       </c>
       <c r="H191" t="n">
         <v>1.48</v>
       </c>
       <c r="I191" t="n">
-        <v>111763</v>
+        <v>110133</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4115655</v>
+        <v>4159408</v>
       </c>
       <c r="E192" t="n">
-        <v>28121980</v>
+        <v>28420941</v>
       </c>
       <c r="F192" t="n">
-        <v>3532.997868192796</v>
+        <v>2168.90646698233</v>
       </c>
       <c r="G192" t="n">
-        <v>1954.275879359907</v>
+        <v>3102.027454363729</v>
       </c>
       <c r="H192" t="n">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
       <c r="I192" t="n">
-        <v>2519973</v>
+        <v>2568554</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3109960</v>
+        <v>2958794</v>
       </c>
       <c r="E193" t="n">
-        <v>4616413</v>
+        <v>4391601</v>
       </c>
       <c r="F193" t="n">
-        <v>152.907323074701</v>
+        <v>235.8083624994948</v>
       </c>
       <c r="G193" t="n">
-        <v>771.954843947488</v>
+        <v>466.8044463314179</v>
       </c>
       <c r="H193" t="n">
-        <v>0.65</v>
+        <v>1.14</v>
       </c>
       <c r="I193" t="n">
-        <v>222791</v>
+        <v>230751</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>88520491</v>
+        <v>88914497</v>
       </c>
       <c r="E194" t="n">
-        <v>510093252</v>
+        <v>512363681</v>
       </c>
       <c r="F194" t="n">
-        <v>533573.2863144281</v>
+        <v>481490.6911536722</v>
       </c>
       <c r="G194" t="n">
-        <v>476234.9281080963</v>
+        <v>495476.2614984091</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I194" t="n">
-        <v>15956217</v>
+        <v>16093537</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>722104</v>
+        <v>724765</v>
       </c>
       <c r="E195" t="n">
-        <v>787521</v>
+        <v>790424</v>
       </c>
       <c r="F195" t="n">
-        <v>4.06047063315933</v>
+        <v>4.060745808814666</v>
       </c>
       <c r="G195" t="n">
-        <v>5.339732485611142</v>
+        <v>3.998521920171583</v>
       </c>
       <c r="H195" t="n">
         <v>0.18</v>
       </c>
       <c r="I195" t="n">
-        <v>84381</v>
+        <v>84234</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>106635472</v>
+        <v>107019443</v>
       </c>
       <c r="E196" t="n">
-        <v>262364923</v>
+        <v>263309641</v>
       </c>
       <c r="F196" t="n">
-        <v>41831.60962412269</v>
+        <v>14946.50746014858</v>
       </c>
       <c r="G196" t="n">
-        <v>46036.77287376389</v>
+        <v>17654.81438692454</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.61</v>
       </c>
       <c r="I196" t="n">
-        <v>2397930</v>
+        <v>2222501</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17719816</v>
+        <v>17742790</v>
       </c>
       <c r="E197" t="n">
-        <v>17719816</v>
+        <v>17742790</v>
       </c>
       <c r="F197" t="n">
-        <v>6.928865358661151</v>
+        <v>5.544202838659461</v>
       </c>
       <c r="G197" t="n">
-        <v>46.77130169182681</v>
+        <v>45.24372234384671</v>
       </c>
       <c r="H197" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="I197" t="n">
-        <v>42520</v>
+        <v>39154</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1309093</v>
+        <v>1333636</v>
       </c>
       <c r="F198" t="n">
-        <v>3.00678191935594</v>
+        <v>291.7812933398957</v>
       </c>
       <c r="G198" t="n">
-        <v>370.5436242454364</v>
+        <v>5.505044728761243</v>
       </c>
       <c r="H198" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="I198" t="n">
-        <v>16970.95</v>
+        <v>17388.76</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>135028</v>
+        <v>135819</v>
       </c>
       <c r="E199" t="n">
-        <v>293953</v>
+        <v>295675</v>
       </c>
       <c r="F199" t="n">
-        <v>5.353720227784747</v>
+        <v>10.32247145158781</v>
       </c>
       <c r="G199" t="n">
-        <v>3.808985170691253</v>
+        <v>5.273300025298868</v>
       </c>
       <c r="H199" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I199" t="n">
-        <v>53436</v>
+        <v>562.8</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2332355</v>
+        <v>2312380</v>
       </c>
       <c r="F200" t="n">
-        <v>377.6946170646257</v>
+        <v>1445.333908154467</v>
       </c>
       <c r="G200" t="n">
-        <v>244.1199869710641</v>
+        <v>1186.309575102385</v>
       </c>
       <c r="H200" t="n">
-        <v>2.16</v>
+        <v>1.31</v>
       </c>
       <c r="I200" t="n">
-        <v>156666</v>
+        <v>155275</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>181071</v>
+        <v>186026</v>
       </c>
       <c r="E201" t="n">
-        <v>1398232</v>
+        <v>1436497</v>
       </c>
       <c r="F201" t="n">
-        <v>4.072050397943634</v>
+        <v>6.843840625074304</v>
       </c>
       <c r="G201" t="n">
-        <v>226.0974347892428</v>
+        <v>122.7297915232246</v>
       </c>
       <c r="H201" t="n">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="I201" t="n">
-        <v>126765</v>
+        <v>120138</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>29996688</v>
+        <v>30321121</v>
       </c>
       <c r="E202" t="n">
-        <v>134307477</v>
+        <v>135760097</v>
       </c>
       <c r="F202" t="n">
-        <v>8908.006405152752</v>
+        <v>8199.584400612448</v>
       </c>
       <c r="G202" t="n">
-        <v>13167.87405691507</v>
+        <v>16310.56541150047</v>
       </c>
       <c r="H202" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I202" t="n">
-        <v>8859796</v>
+        <v>8804501</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13105259</v>
+        <v>13092618</v>
       </c>
       <c r="E203" t="n">
-        <v>26199075</v>
+        <v>26173804</v>
       </c>
       <c r="F203" t="n">
-        <v>752.9054559614025</v>
+        <v>719.9994508163828</v>
       </c>
       <c r="G203" t="n">
-        <v>710.665728108415</v>
+        <v>704.5804611056019</v>
       </c>
       <c r="H203" t="n">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="I203" t="n">
-        <v>42248</v>
+        <v>46249</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1444341</v>
+        <v>1449398</v>
       </c>
       <c r="F204" t="n">
-        <v>32.48402120152798</v>
+        <v>1229.606171601181</v>
       </c>
       <c r="G204" t="n">
-        <v>440.1689179317781</v>
+        <v>265.3650968130243</v>
       </c>
       <c r="H204" t="n">
-        <v>0.99</v>
+        <v>2.34</v>
       </c>
       <c r="I204" t="n">
-        <v>67968</v>
+        <v>68273</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>996729</v>
+        <v>1010236</v>
       </c>
       <c r="E205" t="n">
-        <v>4610015</v>
+        <v>4672485</v>
       </c>
       <c r="F205" t="n">
-        <v>4289.892319168233</v>
+        <v>4601.528017049823</v>
       </c>
       <c r="G205" t="n">
-        <v>2486.774268683895</v>
+        <v>2126.55299368886</v>
       </c>
       <c r="H205" t="n">
-        <v>0.73</v>
+        <v>0.41</v>
       </c>
       <c r="I205" t="n">
-        <v>492421</v>
+        <v>483107</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3033634</v>
+        <v>3076273</v>
       </c>
       <c r="E206" t="n">
-        <v>3033634</v>
+        <v>3076273</v>
       </c>
       <c r="F206" t="n">
-        <v>586.6603729372372</v>
+        <v>606.3769640884445</v>
       </c>
       <c r="G206" t="n">
-        <v>1251.184722020066</v>
+        <v>768.7765165914784</v>
       </c>
       <c r="H206" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I206" t="n">
-        <v>391353</v>
+        <v>403869</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>570399</v>
+        <v>574329</v>
       </c>
       <c r="E207" t="n">
-        <v>570399</v>
+        <v>574329</v>
       </c>
       <c r="F207" t="n">
-        <v>434.8063627659836</v>
+        <v>322.5788247040157</v>
       </c>
       <c r="G207" t="n">
-        <v>16.69242849238422</v>
+        <v>5.28323136714674</v>
       </c>
       <c r="H207" t="n">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="I207" t="n">
-        <v>1382401</v>
+        <v>1407616</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14024565</v>
+        <v>13869685</v>
       </c>
       <c r="E208" t="n">
-        <v>17855511</v>
+        <v>17658324</v>
       </c>
       <c r="F208" t="n">
-        <v>239.0843390909238</v>
+        <v>228.9196487484657</v>
       </c>
       <c r="G208" t="n">
-        <v>149.590756562521</v>
+        <v>132.6495175116986</v>
       </c>
       <c r="H208" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="I208" t="n">
-        <v>782438</v>
+        <v>789730</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1972008</v>
+        <v>1880470</v>
       </c>
       <c r="E209" t="n">
-        <v>1972008</v>
+        <v>1880470</v>
       </c>
       <c r="F209" t="n">
-        <v>5.35208185184181</v>
+        <v>3.994697584578335</v>
       </c>
       <c r="G209" t="n">
-        <v>8.060000849380144</v>
+        <v>28.26602367146457</v>
       </c>
       <c r="H209" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="I209" t="n">
-        <v>2870.37</v>
+        <v>2201.56</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6038624</v>
+        <v>6043934</v>
       </c>
       <c r="E210" t="n">
-        <v>15848395</v>
+        <v>15862330</v>
       </c>
       <c r="F210" t="n">
-        <v>1744.683840977897</v>
+        <v>6595.104929609698</v>
       </c>
       <c r="G210" t="n">
-        <v>1050.798157670504</v>
+        <v>739.5484762414576</v>
       </c>
       <c r="H210" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="I210" t="n">
-        <v>72197</v>
+        <v>74161</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28909758</v>
+        <v>29800662</v>
       </c>
       <c r="F211" t="n">
-        <v>671.054380114324</v>
+        <v>776.3181611362781</v>
       </c>
       <c r="G211" t="n">
-        <v>1151.343934890634</v>
+        <v>608.4781478149922</v>
       </c>
       <c r="H211" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="I211" t="n">
-        <v>340640</v>
+        <v>354013</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17823157</v>
+        <v>17869554</v>
       </c>
       <c r="E212" t="n">
-        <v>17823157</v>
+        <v>17869554</v>
       </c>
       <c r="F212" t="n">
-        <v>12064.00808259495</v>
+        <v>26000.3540130416</v>
       </c>
       <c r="G212" t="n">
-        <v>30257.30904430342</v>
+        <v>14399.92149005958</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2965071</v>
+        <v>2990090</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>46745228</v>
+        <v>47148036</v>
       </c>
       <c r="E213" t="n">
-        <v>303130360</v>
+        <v>305742467</v>
       </c>
       <c r="F213" t="n">
-        <v>141364.8563233454</v>
+        <v>133613.7151924307</v>
       </c>
       <c r="G213" t="n">
-        <v>215063.9834572342</v>
+        <v>278908.6374228311</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="I213" t="n">
-        <v>17325006</v>
+        <v>17345134</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9322268</v>
+        <v>9354394</v>
       </c>
       <c r="F214" t="n">
-        <v>214.6056507589548</v>
+        <v>89.7890432594222</v>
       </c>
       <c r="G214" t="n">
-        <v>4.033028422285511</v>
+        <v>4.952456839167589</v>
       </c>
       <c r="H214" t="n">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="I214" t="n">
-        <v>267227</v>
+        <v>300346</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7019766</v>
+        <v>7039621</v>
       </c>
       <c r="E215" t="n">
-        <v>7029737</v>
+        <v>7049705</v>
       </c>
       <c r="F215" t="n">
-        <v>343.9950367883229</v>
+        <v>94.26133753248567</v>
       </c>
       <c r="G215" t="n">
-        <v>39.99908151128176</v>
+        <v>61.64682030670123</v>
       </c>
       <c r="H215" t="n">
-        <v>1.3</v>
+        <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>984064</v>
+        <v>968933</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4807092</v>
+        <v>4835965</v>
       </c>
       <c r="F216" t="n">
-        <v>1080.562709626403</v>
+        <v>2109.590063395372</v>
       </c>
       <c r="G216" t="n">
-        <v>154.6035052214449</v>
+        <v>156.0970158934792</v>
       </c>
       <c r="H216" t="n">
-        <v>2.31</v>
+        <v>0.17</v>
       </c>
       <c r="I216" t="n">
-        <v>69494</v>
+        <v>160219</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2619557</v>
+        <v>2606722</v>
       </c>
       <c r="E217" t="n">
-        <v>4745820</v>
+        <v>4722567</v>
       </c>
       <c r="F217" t="n">
-        <v>201.3507678178311</v>
+        <v>914.9790529778149</v>
       </c>
       <c r="G217" t="n">
-        <v>848.533599108813</v>
+        <v>118.1761370252692</v>
       </c>
       <c r="H217" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="I217" t="n">
-        <v>105790</v>
+        <v>101103</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125050953</v>
+        <v>125214987</v>
       </c>
       <c r="E218" t="n">
-        <v>2070946209</v>
+        <v>2073662736</v>
       </c>
       <c r="F218" t="n">
-        <v>6097.467531751405</v>
+        <v>5114.812185569724</v>
       </c>
       <c r="G218" t="n">
-        <v>11772.6765598004</v>
+        <v>13625.24784056492</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>5012743</v>
+        <v>5069540</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>72915019</v>
+        <v>73207395</v>
       </c>
       <c r="E219" t="n">
-        <v>73699902</v>
+        <v>73995425</v>
       </c>
       <c r="F219" t="n">
-        <v>11920.58608661856</v>
+        <v>13487.46833857052</v>
       </c>
       <c r="G219" t="n">
-        <v>11789.17729859535</v>
+        <v>21022.22788434772</v>
       </c>
       <c r="H219" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I219" t="n">
-        <v>8607800</v>
+        <v>8610378</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>231601221</v>
+        <v>234664794</v>
       </c>
       <c r="E220" t="n">
-        <v>231601221</v>
+        <v>234664794</v>
       </c>
       <c r="F220" t="n">
-        <v>127218.480697265</v>
+        <v>97440.44284515755</v>
       </c>
       <c r="G220" t="n">
-        <v>154514.9684504709</v>
+        <v>136335.9726553748</v>
       </c>
       <c r="H220" t="n">
         <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>43146686</v>
+        <v>43751741</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23103689</v>
+        <v>23139203</v>
       </c>
       <c r="E221" t="n">
-        <v>138234017</v>
+        <v>138446505</v>
       </c>
       <c r="F221" t="n">
-        <v>89902.19592343998</v>
+        <v>101061.0891850991</v>
       </c>
       <c r="G221" t="n">
-        <v>87435.29977780134</v>
+        <v>75682.82187133942</v>
       </c>
       <c r="H221" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I221" t="n">
-        <v>12629238</v>
+        <v>12582399</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1003785</v>
+        <v>1003801</v>
       </c>
       <c r="F222" t="n">
-        <v>392.5965368876887</v>
+        <v>326.8120642788794</v>
       </c>
       <c r="G222" t="n">
-        <v>266.4114706303872</v>
+        <v>364.8807854336367</v>
       </c>
       <c r="H222" t="n">
         <v>1.52</v>
       </c>
       <c r="I222" t="n">
-        <v>68108</v>
+        <v>66801</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2275479</v>
+        <v>2288485</v>
       </c>
       <c r="F223" t="n">
-        <v>116.7934602893406</v>
+        <v>146.5719726225789</v>
       </c>
       <c r="G223" t="n">
-        <v>130.7051345905661</v>
+        <v>202.7991174022471</v>
       </c>
       <c r="H223" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I223" t="n">
-        <v>212891</v>
+        <v>214018</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14468365</v>
+        <v>14260074</v>
       </c>
       <c r="E224" t="n">
-        <v>44398336</v>
+        <v>43759163</v>
       </c>
       <c r="F224" t="n">
-        <v>2003.700845345617</v>
+        <v>743.239270081752</v>
       </c>
       <c r="G224" t="n">
-        <v>1114.157114231145</v>
+        <v>1292.593445885919</v>
       </c>
       <c r="H224" t="n">
-        <v>0.03</v>
+        <v>0.59</v>
       </c>
       <c r="I224" t="n">
-        <v>2567677</v>
+        <v>2569645</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52164417</v>
+        <v>52080177</v>
       </c>
       <c r="E225" t="n">
-        <v>90099289</v>
+        <v>89953788</v>
       </c>
       <c r="F225" t="n">
-        <v>14241.61801637361</v>
+        <v>6870.137595412881</v>
       </c>
       <c r="G225" t="n">
-        <v>13155.43604686205</v>
+        <v>12794.97572757085</v>
       </c>
       <c r="H225" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="I225" t="n">
-        <v>1943929</v>
+        <v>1970039</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4183008</v>
+        <v>4181847</v>
       </c>
       <c r="E226" t="n">
-        <v>4183008</v>
+        <v>4181847</v>
       </c>
       <c r="F226" t="n">
-        <v>32.22535417068438</v>
+        <v>30.40066910018739</v>
       </c>
       <c r="G226" t="n">
-        <v>3.963606959233484</v>
+        <v>13.63434703239885</v>
       </c>
       <c r="H226" t="n">
         <v>0.73</v>
       </c>
       <c r="I226" t="n">
-        <v>1531764</v>
+        <v>1531649</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211672</v>
+        <v>211580</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>60637</v>
+        <v>59201</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6840199</v>
+        <v>6716512</v>
       </c>
       <c r="E228" t="n">
-        <v>35190746</v>
+        <v>34554411</v>
       </c>
       <c r="F228" t="n">
-        <v>153.8758929506406</v>
+        <v>338.8316872739529</v>
       </c>
       <c r="G228" t="n">
-        <v>113.3855012287569</v>
+        <v>260.73779244875</v>
       </c>
       <c r="H228" t="n">
-        <v>0.74</v>
+        <v>0.29</v>
       </c>
       <c r="I228" t="n">
-        <v>577331</v>
+        <v>776287</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>176022778</v>
+        <v>175163753</v>
       </c>
       <c r="E230" t="n">
-        <v>205646578</v>
+        <v>204642984</v>
       </c>
       <c r="F230" t="n">
-        <v>30713.62131854011</v>
+        <v>24981.6058321066</v>
       </c>
       <c r="G230" t="n">
-        <v>33285.55388802844</v>
+        <v>53156.80988833518</v>
       </c>
       <c r="H230" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I230" t="n">
-        <v>3813874</v>
+        <v>3902216</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>303118</v>
+        <v>301380</v>
       </c>
       <c r="F231" t="n">
-        <v>664.2759111136301</v>
+        <v>173.5646184374118</v>
       </c>
       <c r="G231" t="n">
-        <v>126.16422718524</v>
+        <v>27.04112022023833</v>
       </c>
       <c r="H231" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="I231" t="n">
-        <v>261451</v>
+        <v>269788</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>28758200</v>
+        <v>28892447</v>
       </c>
       <c r="E232" t="n">
-        <v>39523563</v>
+        <v>39616595</v>
       </c>
       <c r="F232" t="n">
-        <v>5520.728747252735</v>
+        <v>5442.509460969823</v>
       </c>
       <c r="G232" t="n">
-        <v>7007.735183479069</v>
+        <v>6121.066449846962</v>
       </c>
       <c r="H232" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="I232" t="n">
-        <v>299175</v>
+        <v>294664</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1896522</v>
+        <v>1656773</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1613059</v>
+        <v>1595666</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8038855</v>
+        <v>8055247</v>
       </c>
       <c r="F234" t="n">
-        <v>526.2883576222124</v>
+        <v>526.5220962367703</v>
       </c>
       <c r="G234" t="n">
-        <v>3330.619954016206</v>
+        <v>3329.521555922757</v>
       </c>
       <c r="H234" t="n">
         <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>674167</v>
+        <v>686672</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23318109</v>
+        <v>23483924</v>
       </c>
       <c r="E235" t="n">
-        <v>23318109</v>
+        <v>23483924</v>
       </c>
       <c r="F235" t="n">
-        <v>5259.059382611586</v>
+        <v>4312.696991903017</v>
       </c>
       <c r="G235" t="n">
-        <v>6380.099783720308</v>
+        <v>41015.06504067047</v>
       </c>
       <c r="H235" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I235" t="n">
-        <v>1748564</v>
+        <v>1743273</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3322166</v>
+        <v>3308664</v>
       </c>
       <c r="E236" t="n">
-        <v>4450251</v>
+        <v>4432165</v>
       </c>
       <c r="F236" t="n">
-        <v>231.913424643495</v>
+        <v>174.2941317034485</v>
       </c>
       <c r="G236" t="n">
-        <v>355.2401576772811</v>
+        <v>166.2796872317905</v>
       </c>
       <c r="H236" t="n">
         <v>0.65</v>
       </c>
       <c r="I236" t="n">
-        <v>146561</v>
+        <v>146842</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33915267</v>
+        <v>34005450</v>
       </c>
       <c r="E237" t="n">
-        <v>169252817</v>
+        <v>169702873</v>
       </c>
       <c r="F237" t="n">
-        <v>88937.96859712442</v>
+        <v>69835.66390251133</v>
       </c>
       <c r="G237" t="n">
-        <v>64924.36829297185</v>
+        <v>77441.98961364783</v>
       </c>
       <c r="H237" t="n">
         <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>9951863</v>
+        <v>10006478</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26309703</v>
+        <v>26439376</v>
       </c>
       <c r="E238" t="n">
-        <v>59311700</v>
+        <v>59604031</v>
       </c>
       <c r="F238" t="n">
-        <v>194.8827604431827</v>
+        <v>533.50199447233</v>
       </c>
       <c r="G238" t="n">
-        <v>116.3123932952505</v>
+        <v>168.6492776361438</v>
       </c>
       <c r="H238" t="n">
-        <v>0.86</v>
+        <v>1.12</v>
       </c>
       <c r="I238" t="n">
-        <v>454074</v>
+        <v>437163</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1863817</v>
+        <v>1861265</v>
       </c>
       <c r="E239" t="n">
-        <v>1863817</v>
+        <v>1861265</v>
       </c>
       <c r="F239" t="n">
-        <v>186.0652802706639</v>
+        <v>163.5125045261492</v>
       </c>
       <c r="G239" t="n">
-        <v>89.08189204129945</v>
+        <v>89.70756141927203</v>
       </c>
       <c r="H239" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="I239" t="n">
-        <v>8521.379999999999</v>
+        <v>8608.17</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71597632</v>
+        <v>71846416</v>
       </c>
       <c r="F240" t="n">
-        <v>4.091469480284751</v>
+        <v>4.091558708229371</v>
       </c>
       <c r="G240" t="n">
-        <v>4.219846571353846</v>
+        <v>4.219938598983037</v>
       </c>
       <c r="H240" t="n">
         <v>0.72</v>
       </c>
       <c r="I240" t="n">
-        <v>68240</v>
+        <v>68762</v>
       </c>
     </row>
     <row r="241">
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>925150</v>
+        <v>914471</v>
       </c>
       <c r="E241" t="n">
-        <v>925150</v>
+        <v>914471</v>
       </c>
       <c r="F241" t="n">
         <v>3.901865585792775</v>
@@ -8847,7 +8847,7 @@
         <v>0.75</v>
       </c>
       <c r="I241" t="n">
-        <v>6916.26</v>
+        <v>16433.33</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>117852</v>
+        <v>118920</v>
       </c>
       <c r="E242" t="n">
-        <v>117852</v>
+        <v>118920</v>
       </c>
       <c r="F242" t="n">
-        <v>24.69930644746372</v>
+        <v>91.98055824289965</v>
       </c>
       <c r="G242" t="n">
-        <v>4.061669810102132</v>
+        <v>5.510934912321544</v>
       </c>
       <c r="H242" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="I242" t="n">
-        <v>39375</v>
+        <v>39863</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3445052</v>
+        <v>3453356</v>
       </c>
       <c r="E243" t="n">
-        <v>4949145</v>
+        <v>4961074</v>
       </c>
       <c r="F243" t="n">
-        <v>397.35247711556</v>
+        <v>417.0673075214623</v>
       </c>
       <c r="G243" t="n">
-        <v>80.23329494943759</v>
+        <v>80.23376429951294</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I243" t="n">
-        <v>180219</v>
+        <v>179247</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>309929773</v>
+        <v>311484798</v>
       </c>
       <c r="E244" t="n">
-        <v>573440759</v>
+        <v>576317910</v>
       </c>
       <c r="F244" t="n">
-        <v>29424.15778870754</v>
+        <v>33287.50710710006</v>
       </c>
       <c r="G244" t="n">
-        <v>41469.99888045261</v>
+        <v>28634.12461132032</v>
       </c>
       <c r="H244" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>12227589</v>
+        <v>12282376</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>70500474</v>
+        <v>71019694</v>
       </c>
       <c r="E245" t="n">
-        <v>672658454</v>
+        <v>677604679</v>
       </c>
       <c r="F245" t="n">
-        <v>47425.46768251744</v>
+        <v>47670.70170418251</v>
       </c>
       <c r="G245" t="n">
-        <v>59692.79349304832</v>
+        <v>62072.27515860713</v>
       </c>
       <c r="H245" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>21055609</v>
+        <v>21057969</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81227</v>
+        <v>81279</v>
       </c>
       <c r="E246" t="n">
-        <v>675259</v>
+        <v>675687</v>
       </c>
       <c r="F246" t="n">
-        <v>104.5540657978158</v>
+        <v>104.4177922652174</v>
       </c>
       <c r="G246" t="n">
-        <v>5.501288328940597</v>
+        <v>5.533069801168101</v>
       </c>
       <c r="H246" t="n">
         <v>0.71</v>
       </c>
       <c r="I246" t="n">
-        <v>408.7</v>
+        <v>409.28</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1889980</v>
+        <v>1896504</v>
       </c>
       <c r="E247" t="n">
-        <v>5397539</v>
+        <v>5416173</v>
       </c>
       <c r="F247" t="n">
-        <v>397.8360189139116</v>
+        <v>418.1470638838196</v>
       </c>
       <c r="G247" t="n">
-        <v>164.838309909347</v>
+        <v>144.3573960076547</v>
       </c>
       <c r="H247" t="n">
         <v>0.43</v>
       </c>
       <c r="I247" t="n">
-        <v>71514</v>
+        <v>71017</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37667379</v>
+        <v>37708043</v>
       </c>
       <c r="E248" t="n">
-        <v>49250270</v>
+        <v>49303311</v>
       </c>
       <c r="F248" t="n">
-        <v>12660.78631166813</v>
+        <v>604.2982614250335</v>
       </c>
       <c r="G248" t="n">
-        <v>1168.426785697689</v>
+        <v>268.0017379188213</v>
       </c>
       <c r="H248" t="n">
-        <v>0.24</v>
+        <v>2.65</v>
       </c>
       <c r="I248" t="n">
-        <v>635128</v>
+        <v>660115</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9759698</v>
+        <v>9561814</v>
       </c>
       <c r="E249" t="n">
-        <v>28964932</v>
+        <v>28377650</v>
       </c>
       <c r="F249" t="n">
-        <v>656.2562255624152</v>
+        <v>1123.683376391147</v>
       </c>
       <c r="G249" t="n">
-        <v>2005.941403454257</v>
+        <v>2062.273768392683</v>
       </c>
       <c r="H249" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="I249" t="n">
-        <v>5479814</v>
+        <v>2975436</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2015378</v>
+        <v>2000514</v>
       </c>
       <c r="E250" t="n">
-        <v>5847259</v>
+        <v>5804135</v>
       </c>
       <c r="F250" t="n">
-        <v>218.7799098574681</v>
+        <v>219.5920127430387</v>
       </c>
       <c r="G250" t="n">
-        <v>82.37415973290634</v>
+        <v>76.45424153160046</v>
       </c>
       <c r="H250" t="n">
-        <v>0.72</v>
+        <v>2.87</v>
       </c>
       <c r="I250" t="n">
-        <v>55163</v>
+        <v>61620</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7236583</v>
+        <v>7288116</v>
       </c>
       <c r="E251" t="n">
-        <v>7236593</v>
+        <v>7288127</v>
       </c>
       <c r="F251" t="n">
-        <v>184.6319180508231</v>
+        <v>389.6245274340539</v>
       </c>
       <c r="G251" t="n">
-        <v>951.3541563253602</v>
+        <v>1015.289484403568</v>
       </c>
       <c r="H251" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="I251" t="n">
-        <v>338413</v>
+        <v>346305</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6027869</v>
+        <v>6075979</v>
       </c>
       <c r="E252" t="n">
-        <v>6027869</v>
+        <v>6075979</v>
       </c>
       <c r="F252" t="n">
-        <v>397.3718083120877</v>
+        <v>856.2264053746098</v>
       </c>
       <c r="G252" t="n">
-        <v>1495.902685147351</v>
+        <v>650.6219028586771</v>
       </c>
       <c r="H252" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I252" t="n">
-        <v>393300</v>
+        <v>470496</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6200991</v>
+        <v>6206712</v>
       </c>
       <c r="E253" t="n">
-        <v>22649822</v>
+        <v>22670719</v>
       </c>
       <c r="F253" t="n">
-        <v>1393.328730279303</v>
+        <v>1323.086978534234</v>
       </c>
       <c r="G253" t="n">
-        <v>554.685252831315</v>
+        <v>430.7281998869885</v>
       </c>
       <c r="H253" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="I253" t="n">
-        <v>517250</v>
+        <v>520277</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2251813</v>
+        <v>2153324</v>
       </c>
       <c r="E254" t="n">
-        <v>19862488</v>
+        <v>18993745</v>
       </c>
       <c r="F254" t="n">
-        <v>126.0612258647015</v>
+        <v>125.6676394593874</v>
       </c>
       <c r="G254" t="n">
-        <v>4805.611223019766</v>
+        <v>4429.428908256601</v>
       </c>
       <c r="H254" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="I254" t="n">
-        <v>79024</v>
+        <v>79294</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14552964</v>
+        <v>14539837</v>
       </c>
       <c r="E255" t="n">
-        <v>29461587</v>
+        <v>29435013</v>
       </c>
       <c r="F255" t="n">
-        <v>96.18946509766486</v>
+        <v>47.83199109179556</v>
       </c>
       <c r="G255" t="n">
-        <v>297.4045071110232</v>
+        <v>442.4182202517082</v>
       </c>
       <c r="H255" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
       <c r="I255" t="n">
-        <v>496568</v>
+        <v>485320</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44260237</v>
+        <v>44481010</v>
       </c>
       <c r="E256" t="n">
-        <v>44260237</v>
+        <v>44481010</v>
       </c>
       <c r="F256" t="n">
-        <v>4553.195985048565</v>
+        <v>5623.100187581717</v>
       </c>
       <c r="G256" t="n">
-        <v>2390.818070160604</v>
+        <v>4498.04028578077</v>
       </c>
       <c r="H256" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I256" t="n">
-        <v>8226797</v>
+        <v>8135454</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8268416</v>
+        <v>9071620</v>
       </c>
       <c r="E257" t="n">
-        <v>11780598</v>
+        <v>12924980</v>
       </c>
       <c r="F257" t="n">
-        <v>40.72577918338817</v>
+        <v>56.38476317337636</v>
       </c>
       <c r="G257" t="n">
-        <v>100.0117257264614</v>
+        <v>32.79532696898887</v>
       </c>
       <c r="H257" t="n">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="I257" t="n">
-        <v>334968</v>
+        <v>424763</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>146697243</v>
+        <v>148040956</v>
       </c>
       <c r="F258" t="n">
-        <v>273.1610966045551</v>
+        <v>309.5640591470668</v>
       </c>
       <c r="G258" t="n">
-        <v>62.66688161236784</v>
+        <v>88.00161648346813</v>
       </c>
       <c r="H258" t="n">
-        <v>1.72</v>
+        <v>1.02</v>
       </c>
       <c r="I258" t="n">
-        <v>1301378</v>
+        <v>1359151</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>15982396</v>
+        <v>16253772</v>
       </c>
       <c r="F259" t="n">
-        <v>93.30703812222202</v>
+        <v>93.7393978967753</v>
       </c>
       <c r="G259" t="n">
-        <v>157.3706880429678</v>
+        <v>124.0666661353658</v>
       </c>
       <c r="H259" t="n">
         <v>0.5</v>
       </c>
       <c r="I259" t="n">
-        <v>975347</v>
+        <v>974776</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>723097</v>
+        <v>723464</v>
       </c>
       <c r="F260" t="n">
-        <v>50.23194849412065</v>
+        <v>40.23241088998346</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01241825255993</v>
+        <v>28.01333201917751</v>
       </c>
       <c r="H260" t="n">
         <v>2.26</v>
       </c>
       <c r="I260" t="n">
-        <v>228107</v>
+        <v>226346</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3120072</v>
+        <v>3021145</v>
       </c>
       <c r="F261" t="n">
-        <v>23.96037999045974</v>
+        <v>34.73606115947149</v>
       </c>
       <c r="G261" t="n">
-        <v>61.00684971728494</v>
+        <v>64.10411177546308</v>
       </c>
       <c r="H261" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>74804</v>
+        <v>72380</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2847475</v>
+        <v>2810120</v>
       </c>
       <c r="E262" t="n">
-        <v>2849941</v>
+        <v>2812553</v>
       </c>
       <c r="F262" t="n">
-        <v>30.22270438941474</v>
+        <v>31.27360610981209</v>
       </c>
       <c r="G262" t="n">
-        <v>4.152317053450323</v>
+        <v>502.2655496677928</v>
       </c>
       <c r="H262" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>79956</v>
+        <v>81595</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61040466</v>
+        <v>61219529</v>
       </c>
       <c r="E263" t="n">
-        <v>100985316</v>
+        <v>101281556</v>
       </c>
       <c r="F263" t="n">
-        <v>8890.962975301671</v>
+        <v>10312.27747075085</v>
       </c>
       <c r="G263" t="n">
-        <v>10140.11439370723</v>
+        <v>8730.663267652033</v>
       </c>
       <c r="H263" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I263" t="n">
-        <v>5910883</v>
+        <v>6184523</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>699412</v>
+        <v>688172</v>
       </c>
       <c r="F264" t="n">
-        <v>3321.143471996786</v>
+        <v>3344.416161696466</v>
       </c>
       <c r="G264" t="n">
-        <v>108.7119066651675</v>
+        <v>444.757958601319</v>
       </c>
       <c r="H264" t="n">
-        <v>0.76</v>
+        <v>0.35</v>
       </c>
       <c r="I264" t="n">
-        <v>502414</v>
+        <v>591794</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1234478</v>
+        <v>1238352</v>
       </c>
       <c r="E265" t="n">
-        <v>3734160</v>
+        <v>3745931</v>
       </c>
       <c r="F265" t="n">
-        <v>13.92347780935851</v>
+        <v>13.92393199396722</v>
       </c>
       <c r="G265" t="n">
-        <v>889.2218143250037</v>
+        <v>889.2508207892879</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>12323.15</v>
+        <v>12270.65</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>37157813</v>
+        <v>37449192</v>
       </c>
       <c r="E266" t="n">
-        <v>263442833</v>
+        <v>265508661</v>
       </c>
       <c r="F266" t="n">
-        <v>80714.1087958412</v>
+        <v>73559.13645870922</v>
       </c>
       <c r="G266" t="n">
-        <v>28592.33242148117</v>
+        <v>28436.79958772206</v>
       </c>
       <c r="H266" t="n">
         <v>0.23</v>
       </c>
       <c r="I266" t="n">
-        <v>1847592</v>
+        <v>1848263</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>61533</v>
+        <v>60215</v>
       </c>
       <c r="E267" t="n">
-        <v>321053</v>
+        <v>314179</v>
       </c>
       <c r="F267" t="n">
-        <v>22.27096934613967</v>
+        <v>3.931265838541213</v>
       </c>
       <c r="G267" t="n">
-        <v>5.294176506787599</v>
+        <v>3.953572907206665</v>
       </c>
       <c r="H267" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="I267" t="n">
-        <v>312285</v>
+        <v>310185</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1255374</v>
+        <v>1257594</v>
       </c>
       <c r="E268" t="n">
-        <v>7785267</v>
+        <v>7799032</v>
       </c>
       <c r="F268" t="n">
-        <v>2190.747306258284</v>
+        <v>2227.412942308347</v>
       </c>
       <c r="G268" t="n">
-        <v>2612.02309427725</v>
+        <v>2435.542212980043</v>
       </c>
       <c r="H268" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="I268" t="n">
-        <v>784281</v>
+        <v>763961</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>592809577</v>
+        <v>588829695</v>
       </c>
       <c r="E269" t="n">
-        <v>2295864029</v>
+        <v>2280450533</v>
       </c>
       <c r="F269" t="n">
-        <v>172339.0707105837</v>
+        <v>164275.0789248089</v>
       </c>
       <c r="G269" t="n">
-        <v>233804.3175321645</v>
+        <v>259882.5509392452</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>29244277</v>
+        <v>30575467</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3291020</v>
+        <v>3270670</v>
       </c>
       <c r="F270" t="n">
-        <v>164.9861279914904</v>
+        <v>171.5921337622081</v>
       </c>
       <c r="G270" t="n">
-        <v>77.84696792299965</v>
+        <v>157.2402589613746</v>
       </c>
       <c r="H270" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I270" t="n">
-        <v>30973</v>
+        <v>30894</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>915854</v>
+        <v>899168</v>
       </c>
       <c r="F271" t="n">
-        <v>38.14472012265891</v>
+        <v>172.1400317995929</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1773974866795085</v>
+        <v>182.8238524884466</v>
       </c>
       <c r="H271" t="n">
-        <v>2.54</v>
+        <v>3.21</v>
       </c>
       <c r="I271" t="n">
-        <v>371556</v>
+        <v>348332</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5834955</v>
+        <v>5841259</v>
       </c>
       <c r="E272" t="n">
-        <v>26123841</v>
+        <v>26152068</v>
       </c>
       <c r="F272" t="n">
-        <v>297.7424117758866</v>
+        <v>144.7638854128972</v>
       </c>
       <c r="G272" t="n">
-        <v>72.18461786157441</v>
+        <v>118.5374722425699</v>
       </c>
       <c r="H272" t="n">
         <v>0.15</v>
       </c>
       <c r="I272" t="n">
-        <v>143849</v>
+        <v>143930</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6077665</v>
+        <v>6178826</v>
       </c>
       <c r="E273" t="n">
-        <v>11636183</v>
+        <v>11829864</v>
       </c>
       <c r="F273" t="n">
-        <v>4184.1735427651</v>
+        <v>85.11241565901264</v>
       </c>
       <c r="G273" t="n">
-        <v>49.76511006528624</v>
+        <v>24.74893720539616</v>
       </c>
       <c r="H273" t="n">
-        <v>1.88</v>
+        <v>2.79</v>
       </c>
       <c r="I273" t="n">
-        <v>204592</v>
+        <v>202224</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3244835</v>
+        <v>3206113</v>
       </c>
       <c r="E274" t="n">
-        <v>21337281</v>
+        <v>21082653</v>
       </c>
       <c r="F274" t="n">
-        <v>159.4083834424728</v>
+        <v>99.09037808214399</v>
       </c>
       <c r="G274" t="n">
-        <v>193.4298566806762</v>
+        <v>188.7750098310796</v>
       </c>
       <c r="H274" t="n">
-        <v>2.39</v>
+        <v>1.52</v>
       </c>
       <c r="I274" t="n">
-        <v>1417370</v>
+        <v>1423187</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3667436</v>
+        <v>3675120</v>
       </c>
       <c r="E275" t="n">
-        <v>6251643</v>
+        <v>6264741</v>
       </c>
       <c r="F275" t="n">
-        <v>505.5291106929451</v>
+        <v>655.4716822513168</v>
       </c>
       <c r="G275" t="n">
-        <v>514.9765887133968</v>
+        <v>834.1575749545011</v>
       </c>
       <c r="H275" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="I275" t="n">
-        <v>1095018</v>
+        <v>1156700</v>
       </c>
     </row>
     <row r="276">
@@ -10057,10 +10057,10 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>431131</v>
+        <v>432015</v>
       </c>
       <c r="E276" t="n">
-        <v>431131</v>
+        <v>432015</v>
       </c>
       <c r="F276" t="n">
         <v>21.26075004411852</v>
@@ -10072,7 +10072,7 @@
         <v>0.77</v>
       </c>
       <c r="I276" t="n">
-        <v>518.1799999999999</v>
+        <v>519.02</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7146236</v>
+        <v>7223525</v>
       </c>
       <c r="E277" t="n">
-        <v>10240247</v>
+        <v>10350848</v>
       </c>
       <c r="F277" t="n">
-        <v>475.0696697445385</v>
+        <v>1097.404799874432</v>
       </c>
       <c r="G277" t="n">
-        <v>819.1579741736388</v>
+        <v>971.6752872826549</v>
       </c>
       <c r="H277" t="n">
         <v>0.19</v>
       </c>
       <c r="I277" t="n">
-        <v>160488</v>
+        <v>162038</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>116286117</v>
+        <v>117549314</v>
       </c>
       <c r="E278" t="n">
-        <v>1011036316</v>
+        <v>1022019041</v>
       </c>
       <c r="F278" t="n">
-        <v>12356.83278832179</v>
+        <v>10344.80065660408</v>
       </c>
       <c r="G278" t="n">
-        <v>11019.38272804473</v>
+        <v>10666.27067947282</v>
       </c>
       <c r="H278" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I278" t="n">
-        <v>9107805</v>
+        <v>9247495</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>103224396</v>
+        <v>104774988</v>
       </c>
       <c r="E279" t="n">
-        <v>157471235</v>
+        <v>159836700</v>
       </c>
       <c r="F279" t="n">
-        <v>45592.21730808735</v>
+        <v>44307.46867199319</v>
       </c>
       <c r="G279" t="n">
-        <v>50032.44977117438</v>
+        <v>47735.14876818041</v>
       </c>
       <c r="H279" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I279" t="n">
-        <v>7282739</v>
+        <v>7231444</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15747787</v>
+        <v>15781377</v>
       </c>
       <c r="E280" t="n">
-        <v>21604599</v>
+        <v>21650682</v>
       </c>
       <c r="F280" t="n">
-        <v>1363.458965297172</v>
+        <v>1382.966711310999</v>
       </c>
       <c r="G280" t="n">
-        <v>5289.944871915634</v>
+        <v>4346.928975581777</v>
       </c>
       <c r="H280" t="n">
         <v>0.23</v>
       </c>
       <c r="I280" t="n">
-        <v>355745</v>
+        <v>351456</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5548284</v>
+        <v>5563137</v>
       </c>
       <c r="E281" t="n">
-        <v>5548284</v>
+        <v>5563137</v>
       </c>
       <c r="F281" t="n">
-        <v>46.82765379144104</v>
+        <v>46.82877953796908</v>
       </c>
       <c r="G281" t="n">
-        <v>297.7284659251707</v>
+        <v>278.9014410711677</v>
       </c>
       <c r="H281" t="n">
         <v>0.34</v>
       </c>
       <c r="I281" t="n">
-        <v>784144</v>
+        <v>760002</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>109464630</v>
+        <v>110960590</v>
       </c>
       <c r="E282" t="n">
-        <v>419923938</v>
+        <v>425662684</v>
       </c>
       <c r="F282" t="n">
-        <v>53813.99218097082</v>
+        <v>46980.58345647591</v>
       </c>
       <c r="G282" t="n">
-        <v>71810.31107856566</v>
+        <v>74643.46797180877</v>
       </c>
       <c r="H282" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I282" t="n">
-        <v>18900182</v>
+        <v>19331690</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>749867</v>
+        <v>753865</v>
       </c>
       <c r="F283" t="n">
-        <v>4.154070139348365</v>
+        <v>4.154223141224614</v>
       </c>
       <c r="G283" t="n">
-        <v>4.031238287631801</v>
+        <v>4.031386765389982</v>
       </c>
       <c r="H283" t="n">
         <v>0.49</v>
       </c>
       <c r="I283" t="n">
-        <v>52163</v>
+        <v>51218</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3170380</v>
+        <v>3163097</v>
       </c>
       <c r="E284" t="n">
-        <v>30039816</v>
+        <v>29970812</v>
       </c>
       <c r="F284" t="n">
-        <v>1467.792482990787</v>
+        <v>1365.650137393939</v>
       </c>
       <c r="G284" t="n">
-        <v>355.0437355425378</v>
+        <v>108.3723066091506</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>237654</v>
+        <v>249761</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>93879</v>
+        <v>93519</v>
       </c>
       <c r="F285" t="n">
-        <v>4.150339278585756</v>
+        <v>1087.947736419121</v>
       </c>
       <c r="G285" t="n">
-        <v>4.387961399313239</v>
+        <v>129.5274078426908</v>
       </c>
       <c r="H285" t="n">
-        <v>3.82</v>
+        <v>0.11</v>
       </c>
       <c r="I285" t="n">
-        <v>1941.46</v>
+        <v>1747.55</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>140928</v>
+        <v>139756</v>
       </c>
       <c r="F286" t="n">
-        <v>5.57587643235282</v>
+        <v>5.575946643308297</v>
       </c>
       <c r="G286" t="n">
-        <v>5.506486347589235</v>
+        <v>5.506555684790746</v>
       </c>
       <c r="H286" t="n">
         <v>0.75</v>
       </c>
       <c r="I286" t="n">
-        <v>95453</v>
+        <v>94227</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21747142</v>
+        <v>21839156</v>
       </c>
       <c r="E287" t="n">
-        <v>21747142</v>
+        <v>21839156</v>
       </c>
       <c r="F287" t="n">
-        <v>2608.75506942421</v>
+        <v>7113.344306018759</v>
       </c>
       <c r="G287" t="n">
-        <v>6697.63501288805</v>
+        <v>904.1530874952651</v>
       </c>
       <c r="H287" t="n">
         <v>0.18</v>
       </c>
       <c r="I287" t="n">
-        <v>506544</v>
+        <v>526450</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>575840</v>
+        <v>576054</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>454.56</v>
+        <v>454.6</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5995391</v>
+        <v>5976167</v>
       </c>
       <c r="E289" t="n">
-        <v>37469481</v>
+        <v>37349336</v>
       </c>
       <c r="F289" t="n">
-        <v>6691.473111165293</v>
+        <v>6945.298549936791</v>
       </c>
       <c r="G289" t="n">
-        <v>553.6398452067311</v>
+        <v>207.5122590148005</v>
       </c>
       <c r="H289" t="n">
-        <v>0.11</v>
+        <v>0.73</v>
       </c>
       <c r="I289" t="n">
-        <v>318666</v>
+        <v>320436</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>493665979</v>
+        <v>494497113</v>
       </c>
       <c r="E290" t="n">
-        <v>493665979</v>
+        <v>494497113</v>
       </c>
       <c r="F290" t="n">
-        <v>1047796.757525328</v>
+        <v>1179247.904044672</v>
       </c>
       <c r="G290" t="n">
-        <v>1244014.648167642</v>
+        <v>1325100.442216045</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32460112</v>
+        <v>31833497</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5085751</v>
+        <v>5093544</v>
       </c>
       <c r="E291" t="n">
-        <v>18938295</v>
+        <v>18967316</v>
       </c>
       <c r="F291" t="n">
-        <v>7148.284304001867</v>
+        <v>7127.262501514442</v>
       </c>
       <c r="G291" t="n">
-        <v>6940.347260416394</v>
+        <v>6885.48604341614</v>
       </c>
       <c r="H291" t="n">
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="I291" t="n">
-        <v>59029</v>
+        <v>58339</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>30928507</v>
+        <v>31530089</v>
       </c>
       <c r="F292" t="n">
-        <v>6488.286700930556</v>
+        <v>5811.865352187547</v>
       </c>
       <c r="G292" t="n">
-        <v>5466.178964013169</v>
+        <v>5903.424230520282</v>
       </c>
       <c r="H292" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I292" t="n">
-        <v>5707693</v>
+        <v>5663300</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31527862</v>
+        <v>31494756</v>
       </c>
       <c r="E293" t="n">
-        <v>113007215</v>
+        <v>112888550</v>
       </c>
       <c r="F293" t="n">
-        <v>32.22626980978026</v>
+        <v>32.1414241771631</v>
       </c>
       <c r="G293" t="n">
-        <v>4934.770364480451</v>
+        <v>4928.175622601786</v>
       </c>
       <c r="H293" t="n">
         <v>0.51</v>
       </c>
       <c r="I293" t="n">
-        <v>95161</v>
+        <v>95696</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>787667</v>
+        <v>767374</v>
       </c>
       <c r="E294" t="n">
-        <v>12563014</v>
+        <v>12239342</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86237871949029</v>
+        <v>12.86218421649672</v>
       </c>
       <c r="G294" t="n">
-        <v>2.297741335124906</v>
+        <v>2.297706589019394</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>70984</v>
+        <v>70616</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>86180</v>
+        <v>84993</v>
       </c>
       <c r="F295" t="n">
-        <v>70.04724700401711</v>
+        <v>70.06841552092155</v>
       </c>
       <c r="G295" t="n">
-        <v>61.87706400248835</v>
+        <v>43.83286896355601</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>57471</v>
+        <v>57283</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1572559</v>
+        <v>1521487</v>
       </c>
       <c r="F296" t="n">
-        <v>3.969150630822534</v>
+        <v>3.969228365696733</v>
       </c>
       <c r="G296" t="n">
-        <v>5.422672386806092</v>
+        <v>11.44904434815341</v>
       </c>
       <c r="H296" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I296" t="n">
-        <v>613890</v>
+        <v>612904</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2626614677</v>
+        <v>2661677788</v>
       </c>
       <c r="E297" t="n">
-        <v>2788781334</v>
+        <v>2826009234</v>
       </c>
       <c r="F297" t="n">
-        <v>41189.9121984813</v>
+        <v>37317.3006894793</v>
       </c>
       <c r="G297" t="n">
-        <v>56115.40244993804</v>
+        <v>53931.40982448981</v>
       </c>
       <c r="H297" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I297" t="n">
-        <v>37265935</v>
+        <v>37352184</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2164633</v>
+        <v>2188565</v>
       </c>
       <c r="E298" t="n">
-        <v>16649739</v>
+        <v>16833823</v>
       </c>
       <c r="F298" t="n">
-        <v>1384.58076168088</v>
+        <v>4083.918070991976</v>
       </c>
       <c r="G298" t="n">
-        <v>4079.788698326849</v>
+        <v>4071.411535616118</v>
       </c>
       <c r="H298" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I298" t="n">
-        <v>171808</v>
+        <v>180657</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1631958</v>
+        <v>1633049</v>
       </c>
       <c r="E299" t="n">
-        <v>1637718</v>
+        <v>1638814</v>
       </c>
       <c r="F299" t="n">
-        <v>1437.619964168467</v>
+        <v>913.5216203487829</v>
       </c>
       <c r="G299" t="n">
-        <v>3438.749817100061</v>
+        <v>3928.56464711858</v>
       </c>
       <c r="H299" t="n">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="I299" t="n">
-        <v>405723</v>
+        <v>401683</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>86615434</v>
+        <v>86766500</v>
       </c>
       <c r="E300" t="n">
-        <v>320195754</v>
+        <v>320753419</v>
       </c>
       <c r="F300" t="n">
-        <v>6694.756881109577</v>
+        <v>9763.703657577473</v>
       </c>
       <c r="G300" t="n">
-        <v>13593.21282010611</v>
+        <v>16675.85561632319</v>
       </c>
       <c r="H300" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="I300" t="n">
-        <v>368622</v>
+        <v>369644</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2518991</v>
+        <v>2453956</v>
       </c>
       <c r="E301" t="n">
-        <v>10107538</v>
+        <v>9846582</v>
       </c>
       <c r="F301" t="n">
-        <v>85.61426459805517</v>
+        <v>25.9814068299116</v>
       </c>
       <c r="G301" t="n">
-        <v>3.89610643156434</v>
+        <v>3.877558178312847</v>
       </c>
       <c r="H301" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="I301" t="n">
-        <v>41119</v>
+        <v>44828</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60374624</v>
+        <v>60988671</v>
       </c>
       <c r="E302" t="n">
-        <v>148094861</v>
+        <v>149601076</v>
       </c>
       <c r="F302" t="n">
-        <v>2581.654349768944</v>
+        <v>2086.039692522456</v>
       </c>
       <c r="G302" t="n">
-        <v>1624.337655268489</v>
+        <v>2467.590146481286</v>
       </c>
       <c r="H302" t="n">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="I302" t="n">
-        <v>22509608</v>
+        <v>22564020</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>673048761</v>
+        <v>677095660</v>
       </c>
       <c r="E303" t="n">
-        <v>1037900614</v>
+        <v>1044141290</v>
       </c>
       <c r="F303" t="n">
-        <v>44757.87716298711</v>
+        <v>41807.29801071516</v>
       </c>
       <c r="G303" t="n">
-        <v>43075.23841818875</v>
+        <v>54282.20738128893</v>
       </c>
       <c r="H303" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I303" t="n">
-        <v>192213620</v>
+        <v>157227073</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20390927</v>
+        <v>20108278</v>
       </c>
       <c r="E304" t="n">
-        <v>20390927</v>
+        <v>20108278</v>
       </c>
       <c r="F304" t="n">
-        <v>3216.593571158551</v>
+        <v>4693.806038940743</v>
       </c>
       <c r="G304" t="n">
-        <v>3084.935411136501</v>
+        <v>4116.891862760028</v>
       </c>
       <c r="H304" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I304" t="n">
-        <v>7107548</v>
+        <v>7078999</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1704637</v>
+        <v>1678201</v>
       </c>
       <c r="E305" t="n">
-        <v>2797020</v>
+        <v>2753643</v>
       </c>
       <c r="F305" t="n">
-        <v>349.4832386292859</v>
+        <v>276.0108456534969</v>
       </c>
       <c r="G305" t="n">
-        <v>315.072094875082</v>
+        <v>21.64966209015364</v>
       </c>
       <c r="H305" t="n">
-        <v>0.53</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I305" t="n">
-        <v>133989</v>
+        <v>139303</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5653836</v>
+        <v>5688180</v>
       </c>
       <c r="E306" t="n">
-        <v>5653836</v>
+        <v>5688180</v>
       </c>
       <c r="F306" t="n">
-        <v>37.79429666380394</v>
+        <v>41.96810058081949</v>
       </c>
       <c r="G306" t="n">
-        <v>5.631819096926305</v>
+        <v>5.631929394768269</v>
       </c>
       <c r="H306" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I306" t="n">
-        <v>464.08</v>
+        <v>477.5</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39803991</v>
+        <v>39799394</v>
       </c>
       <c r="E307" t="n">
-        <v>189991919</v>
+        <v>189969677</v>
       </c>
       <c r="F307" t="n">
-        <v>185.6728202913023</v>
+        <v>184.5736342427447</v>
       </c>
       <c r="G307" t="n">
-        <v>342.3189330975003</v>
+        <v>305.968916249494</v>
       </c>
       <c r="H307" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="I307" t="n">
-        <v>409172</v>
+        <v>408540</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>380330</v>
+        <v>380847</v>
       </c>
       <c r="E308" t="n">
-        <v>711325</v>
+        <v>712291</v>
       </c>
       <c r="F308" t="n">
-        <v>78.22203124277665</v>
+        <v>78.22463456796852</v>
       </c>
       <c r="G308" t="n">
-        <v>304.0753285431664</v>
+        <v>292.4508597326758</v>
       </c>
       <c r="H308" t="n">
         <v>0.19</v>
       </c>
       <c r="I308" t="n">
-        <v>1406.16</v>
+        <v>1422.03</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23444086</v>
+        <v>23463434</v>
       </c>
       <c r="E309" t="n">
-        <v>39073475</v>
+        <v>39105722</v>
       </c>
       <c r="F309" t="n">
-        <v>5260.127257323998</v>
+        <v>4998.41267096601</v>
       </c>
       <c r="G309" t="n">
-        <v>5660.189747576388</v>
+        <v>5121.958333521007</v>
       </c>
       <c r="H309" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>953176</v>
+        <v>812341</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107764</v>
+        <v>108071</v>
       </c>
       <c r="F310" t="n">
-        <v>8.20915467428838</v>
+        <v>5.03371598440194</v>
       </c>
       <c r="G310" t="n">
-        <v>83.76921129219303</v>
+        <v>11.24989815378039</v>
       </c>
       <c r="H310" t="n">
-        <v>0.24</v>
+        <v>0.79</v>
       </c>
       <c r="I310" t="n">
-        <v>50144</v>
+        <v>49743</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23289127</v>
+        <v>23498925</v>
       </c>
       <c r="E311" t="n">
-        <v>23289127</v>
+        <v>23498925</v>
       </c>
       <c r="F311" t="n">
-        <v>5686.676998368501</v>
+        <v>9995.314303284584</v>
       </c>
       <c r="G311" t="n">
-        <v>7551.844970804209</v>
+        <v>7903.633620837153</v>
       </c>
       <c r="H311" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I311" t="n">
-        <v>6119440</v>
+        <v>6181915</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3825702</v>
+        <v>3831655</v>
       </c>
       <c r="E312" t="n">
-        <v>8347631</v>
+        <v>8360623</v>
       </c>
       <c r="F312" t="n">
-        <v>1847.630259667217</v>
+        <v>1798.849029600021</v>
       </c>
       <c r="G312" t="n">
-        <v>1907.625330641741</v>
+        <v>1974.578282919192</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>982487</v>
+        <v>940450</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9351909</v>
+        <v>9355752</v>
       </c>
       <c r="E313" t="n">
-        <v>9351909</v>
+        <v>9355752</v>
       </c>
       <c r="F313" t="n">
-        <v>14799.5686286847</v>
+        <v>14960.3246224356</v>
       </c>
       <c r="G313" t="n">
-        <v>113549.908053303</v>
+        <v>113565.6694139091</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>993631</v>
+        <v>999974</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>482634162</v>
+        <v>485786748</v>
       </c>
       <c r="E314" t="n">
-        <v>1680861684</v>
+        <v>1691841141</v>
       </c>
       <c r="F314" t="n">
-        <v>414692.6782076298</v>
+        <v>478826.5653492667</v>
       </c>
       <c r="G314" t="n">
-        <v>452710.6052460279</v>
+        <v>327787.0292379062</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>31059775</v>
+        <v>31457393</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>23917775</v>
+        <v>23955559</v>
       </c>
       <c r="E315" t="n">
-        <v>23896999</v>
+        <v>23934750</v>
       </c>
       <c r="F315" t="n">
-        <v>163.5496896819141</v>
+        <v>171.8036858131416</v>
       </c>
       <c r="G315" t="n">
-        <v>758.5272026864559</v>
+        <v>775.9759442374641</v>
       </c>
       <c r="H315" t="n">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="I315" t="n">
-        <v>69427</v>
+        <v>92486</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>47998468</v>
+        <v>48080271</v>
       </c>
       <c r="E316" t="n">
-        <v>118460627</v>
+        <v>118662524</v>
       </c>
       <c r="F316" t="n">
-        <v>952.0375925309553</v>
+        <v>953.2955510863371</v>
       </c>
       <c r="G316" t="n">
-        <v>1707.713504017081</v>
+        <v>1697.85858700015</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>42516</v>
+        <v>40021</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12063773</v>
+        <v>12010447</v>
       </c>
       <c r="E317" t="n">
-        <v>24437446</v>
+        <v>24328185</v>
       </c>
       <c r="F317" t="n">
-        <v>274.5496086506536</v>
+        <v>247.741009820904</v>
       </c>
       <c r="G317" t="n">
-        <v>124.0444197730116</v>
+        <v>124.1072111903234</v>
       </c>
       <c r="H317" t="n">
         <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>19518.36</v>
+        <v>19305.33</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7609710</v>
+        <v>7641318</v>
       </c>
       <c r="E318" t="n">
-        <v>19769208</v>
+        <v>19851324</v>
       </c>
       <c r="F318" t="n">
-        <v>179.9061123887436</v>
+        <v>178.0943917987491</v>
       </c>
       <c r="G318" t="n">
-        <v>434.0146894932683</v>
+        <v>511.1840156297404</v>
       </c>
       <c r="H318" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I318" t="n">
-        <v>677041</v>
+        <v>678207</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>149026</v>
+        <v>148750</v>
       </c>
       <c r="F319" t="n">
-        <v>290.6550251549241</v>
+        <v>308.1420502233008</v>
       </c>
       <c r="G319" t="n">
-        <v>250.1794218835163</v>
+        <v>267.321264214732</v>
       </c>
       <c r="H319" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="I319" t="n">
-        <v>56242</v>
+        <v>56013</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19230483766</v>
+        <v>19253015696</v>
       </c>
       <c r="F320" t="n">
-        <v>52051.21653402246</v>
+        <v>52020.27642865582</v>
       </c>
       <c r="G320" t="n">
-        <v>49776.07195564954</v>
+        <v>49776.23548062238</v>
       </c>
       <c r="H320" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="I320" t="n">
-        <v>48767421</v>
+        <v>48954151</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>100483441</v>
+        <v>100195169</v>
       </c>
       <c r="E321" t="n">
-        <v>152244024</v>
+        <v>151807258</v>
       </c>
       <c r="F321" t="n">
-        <v>13158.69687773432</v>
+        <v>25743.14924496556</v>
       </c>
       <c r="G321" t="n">
-        <v>19051.54813044451</v>
+        <v>16047.75441889767</v>
       </c>
       <c r="H321" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I321" t="n">
-        <v>7281190</v>
+        <v>7128055</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2654906</v>
+        <v>2658607</v>
       </c>
       <c r="E322" t="n">
-        <v>10619622</v>
+        <v>10634427</v>
       </c>
       <c r="F322" t="n">
-        <v>38667.20895393854</v>
+        <v>29470.68668153997</v>
       </c>
       <c r="G322" t="n">
-        <v>18095.2475514462</v>
+        <v>15581.65054463314</v>
       </c>
       <c r="H322" t="n">
         <v>0.66</v>
       </c>
       <c r="I322" t="n">
-        <v>5061463</v>
+        <v>5047638</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>211685154</v>
+        <v>213297351</v>
       </c>
       <c r="E323" t="n">
-        <v>650852187</v>
+        <v>655809087</v>
       </c>
       <c r="F323" t="n">
-        <v>88711.44657365259</v>
+        <v>79678.38754519838</v>
       </c>
       <c r="G323" t="n">
-        <v>153629.8500908762</v>
+        <v>154324.1137645069</v>
       </c>
       <c r="H323" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I323" t="n">
-        <v>11405939</v>
+        <v>11459529</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>147389760</v>
+        <v>148171200</v>
       </c>
       <c r="E324" t="n">
-        <v>385051661</v>
+        <v>387093151</v>
       </c>
       <c r="F324" t="n">
-        <v>9128.105780708329</v>
+        <v>11178.59112871829</v>
       </c>
       <c r="G324" t="n">
-        <v>8260.366421755847</v>
+        <v>6442.288303857623</v>
       </c>
       <c r="H324" t="n">
         <v>0.31</v>
       </c>
       <c r="I324" t="n">
-        <v>6966688</v>
+        <v>6671899</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2395639</v>
+        <v>2381748</v>
       </c>
       <c r="E325" t="n">
-        <v>3287627</v>
+        <v>3268550</v>
       </c>
       <c r="F325" t="n">
-        <v>262.9202740607776</v>
+        <v>151.1528005158774</v>
       </c>
       <c r="G325" t="n">
-        <v>3761.051071913394</v>
+        <v>4166.183665223606</v>
       </c>
       <c r="H325" t="n">
-        <v>1.71</v>
+        <v>1.06</v>
       </c>
       <c r="I325" t="n">
-        <v>251540</v>
+        <v>252807</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>397797848</v>
+        <v>399581986</v>
       </c>
       <c r="E326" t="n">
-        <v>2273130561</v>
+        <v>2283325637</v>
       </c>
       <c r="F326" t="n">
-        <v>414998.3986276927</v>
+        <v>387333.2389015967</v>
       </c>
       <c r="G326" t="n">
-        <v>483738.3034626015</v>
+        <v>483305.3998765663</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>36379940</v>
+        <v>36349210</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92652</v>
+        <v>92642</v>
       </c>
       <c r="F2" t="n">
-        <v>5.570874042794945</v>
+        <v>5.571171496163006</v>
       </c>
       <c r="G2" t="n">
-        <v>31.2481307172613</v>
+        <v>31.24979919184106</v>
       </c>
       <c r="H2" t="n">
         <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>757.47</v>
+        <v>757.25</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601748946</v>
+        <v>601084716</v>
       </c>
       <c r="E3" t="n">
-        <v>1167584672</v>
+        <v>1166295854</v>
       </c>
       <c r="F3" t="n">
-        <v>16986.3277632679</v>
+        <v>16594.08661557323</v>
       </c>
       <c r="G3" t="n">
-        <v>28772.79540718724</v>
+        <v>30180.51485377366</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="I3" t="n">
-        <v>22514098</v>
+        <v>22705878</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245169259</v>
+        <v>244879042</v>
       </c>
       <c r="E4" t="n">
-        <v>1537421961</v>
+        <v>1535602049</v>
       </c>
       <c r="F4" t="n">
-        <v>63919.35607718978</v>
+        <v>56654.3974796113</v>
       </c>
       <c r="G4" t="n">
-        <v>94761.83808074109</v>
+        <v>121226.9200968428</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15528327</v>
+        <v>15531424</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139246269</v>
+        <v>138668254</v>
       </c>
       <c r="E5" t="n">
-        <v>154307107</v>
+        <v>153666575</v>
       </c>
       <c r="F5" t="n">
-        <v>154879.6426331027</v>
+        <v>126100.9354304265</v>
       </c>
       <c r="G5" t="n">
-        <v>251258.3904350951</v>
+        <v>280166.4009490501</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>33123040</v>
+        <v>33465044</v>
       </c>
     </row>
     <row r="6">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49721802</v>
+        <v>49797970</v>
       </c>
       <c r="E6" t="n">
-        <v>62200699</v>
+        <v>62295983</v>
       </c>
       <c r="F6" t="n">
         <v>11435.14955725441</v>
@@ -652,7 +652,7 @@
         <v>0.5</v>
       </c>
       <c r="I6" t="n">
-        <v>513987</v>
+        <v>515157</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8727310</v>
+        <v>8709608</v>
       </c>
       <c r="E7" t="n">
-        <v>8947380</v>
+        <v>8929232</v>
       </c>
       <c r="F7" t="n">
         <v>735.2155160051108</v>
@@ -687,7 +687,7 @@
         <v>0.53</v>
       </c>
       <c r="I7" t="n">
-        <v>62656</v>
+        <v>52440</v>
       </c>
     </row>
     <row r="8">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68667963</v>
+        <v>68474105</v>
       </c>
       <c r="E8" t="n">
-        <v>136786386</v>
+        <v>136400223</v>
       </c>
       <c r="F8" t="n">
         <v>46445.94129566755</v>
@@ -722,7 +722,7 @@
         <v>0.17</v>
       </c>
       <c r="I8" t="n">
-        <v>1497812</v>
+        <v>1471783</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5227076</v>
+        <v>5226347</v>
       </c>
       <c r="E9" t="n">
-        <v>8351296</v>
+        <v>8350132</v>
       </c>
       <c r="F9" t="n">
-        <v>398.9312444591808</v>
+        <v>308.6408126295859</v>
       </c>
       <c r="G9" t="n">
-        <v>519.5744521725042</v>
+        <v>556.9075093898365</v>
       </c>
       <c r="H9" t="n">
-        <v>0.14</v>
+        <v>0.49</v>
       </c>
       <c r="I9" t="n">
-        <v>104635</v>
+        <v>104563</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14295147</v>
+        <v>14287552</v>
       </c>
       <c r="E10" t="n">
-        <v>42126875</v>
+        <v>42104492</v>
       </c>
       <c r="F10" t="n">
-        <v>3952.798672108883</v>
+        <v>3871.904956082827</v>
       </c>
       <c r="G10" t="n">
-        <v>4951.307730869421</v>
+        <v>4951.684868039877</v>
       </c>
       <c r="H10" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>776818</v>
+        <v>779985</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>124979662</v>
+        <v>125238423</v>
       </c>
       <c r="E11" t="n">
-        <v>489882854</v>
+        <v>490897118</v>
       </c>
       <c r="F11" t="n">
-        <v>48522.60181559522</v>
+        <v>40014.93986924963</v>
       </c>
       <c r="G11" t="n">
-        <v>71327.54988080847</v>
+        <v>62973.67633651135</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>28845329</v>
+        <v>28880346</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7577978</v>
+        <v>7566813</v>
       </c>
       <c r="E12" t="n">
-        <v>32581272</v>
+        <v>32533268</v>
       </c>
       <c r="F12" t="n">
-        <v>2720.839008877355</v>
+        <v>5582.138774956696</v>
       </c>
       <c r="G12" t="n">
-        <v>3142.268174139001</v>
+        <v>3535.681382272879</v>
       </c>
       <c r="H12" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I12" t="n">
-        <v>676364</v>
+        <v>675746</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>998967</v>
+        <v>999034</v>
       </c>
       <c r="E13" t="n">
-        <v>12224660</v>
+        <v>12225483</v>
       </c>
       <c r="F13" t="n">
         <v>280.9405378556255</v>
@@ -897,7 +897,7 @@
         <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2109.96</v>
+        <v>2108.61</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>563218</v>
+        <v>564137</v>
       </c>
       <c r="E14" t="n">
-        <v>563218</v>
+        <v>564137</v>
       </c>
       <c r="F14" t="n">
-        <v>35.23675489469431</v>
+        <v>97.54640996649181</v>
       </c>
       <c r="G14" t="n">
-        <v>1172.529198020703</v>
+        <v>422.5207796415978</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I14" t="n">
-        <v>23831</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>545659594</v>
+        <v>545395243</v>
       </c>
       <c r="E15" t="n">
-        <v>682539053</v>
+        <v>682208388</v>
       </c>
       <c r="F15" t="n">
-        <v>428242.6661765517</v>
+        <v>422047.4514359887</v>
       </c>
       <c r="G15" t="n">
-        <v>371463.1928606526</v>
+        <v>543010.954273641</v>
       </c>
       <c r="H15" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>54468883</v>
+        <v>53551727</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3343817</v>
+        <v>3345577</v>
       </c>
       <c r="E16" t="n">
-        <v>9512864</v>
+        <v>9517871</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9375354820472</v>
+        <v>190.5595212821214</v>
       </c>
       <c r="G16" t="n">
-        <v>361.4566170970709</v>
+        <v>122.9323447107811</v>
       </c>
       <c r="H16" t="n">
         <v>0.42</v>
       </c>
       <c r="I16" t="n">
-        <v>232905</v>
+        <v>232723</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>313896</v>
+        <v>313862</v>
       </c>
       <c r="E17" t="n">
-        <v>3623076</v>
+        <v>3622679</v>
       </c>
       <c r="F17" t="n">
-        <v>19.02659040668535</v>
+        <v>19.02787025102443</v>
       </c>
       <c r="G17" t="n">
-        <v>3.995180841514981</v>
+        <v>3.99539518970598</v>
       </c>
       <c r="H17" t="n">
         <v>0.59</v>
       </c>
       <c r="I17" t="n">
-        <v>3108.32</v>
+        <v>3108.58</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1363266</v>
+        <v>1358161</v>
       </c>
       <c r="E18" t="n">
-        <v>10457057</v>
+        <v>10417900</v>
       </c>
       <c r="F18" t="n">
-        <v>302.9092763684386</v>
+        <v>362.4464739682708</v>
       </c>
       <c r="G18" t="n">
-        <v>143.0325839120768</v>
+        <v>139.9334904223494</v>
       </c>
       <c r="H18" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="n">
-        <v>155986</v>
+        <v>155642</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22341388</v>
+        <v>22394008</v>
       </c>
       <c r="E19" t="n">
-        <v>22383219</v>
+        <v>22435937</v>
       </c>
       <c r="F19" t="n">
-        <v>732.275884772186</v>
+        <v>890.5355071568105</v>
       </c>
       <c r="G19" t="n">
-        <v>1222.998314697706</v>
+        <v>1598.59462420567</v>
       </c>
       <c r="H19" t="n">
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
       <c r="I19" t="n">
-        <v>874821</v>
+        <v>878593</v>
       </c>
     </row>
     <row r="20">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3694966</v>
+        <v>3927554</v>
       </c>
       <c r="E20" t="n">
-        <v>20501856</v>
+        <v>21792396</v>
       </c>
       <c r="F20" t="n">
         <v>4.109298948110004</v>
@@ -1142,7 +1142,7 @@
         <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>43571</v>
+        <v>2297.67</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6888637</v>
+        <v>6894843</v>
       </c>
       <c r="E21" t="n">
-        <v>12779874</v>
+        <v>12791387</v>
       </c>
       <c r="F21" t="n">
-        <v>493.801883012359</v>
+        <v>361.9670735262949</v>
       </c>
       <c r="G21" t="n">
-        <v>210.1280798732083</v>
+        <v>212.6157290009894</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>50736</v>
+        <v>51177</v>
       </c>
     </row>
     <row r="22">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72642855</v>
+        <v>72880794</v>
       </c>
       <c r="E22" t="n">
-        <v>125842005</v>
+        <v>126254196</v>
       </c>
       <c r="F22" t="n">
         <v>1600.324854376108</v>
@@ -1212,7 +1212,7 @@
         <v>0.13</v>
       </c>
       <c r="I22" t="n">
-        <v>667072</v>
+        <v>671152</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>176835</v>
+        <v>177120</v>
       </c>
       <c r="E23" t="n">
-        <v>531834</v>
+        <v>532692</v>
       </c>
       <c r="F23" t="n">
-        <v>232.264150768403</v>
+        <v>232.2680835698464</v>
       </c>
       <c r="G23" t="n">
-        <v>4.050206064294249</v>
+        <v>4.050274644211567</v>
       </c>
       <c r="H23" t="n">
         <v>0.37</v>
       </c>
       <c r="I23" t="n">
-        <v>60.84</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="24">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81701721</v>
+        <v>81909021</v>
       </c>
       <c r="E24" t="n">
-        <v>240470395</v>
+        <v>241080535</v>
       </c>
       <c r="F24" t="n">
         <v>500.3806454413481</v>
@@ -1282,7 +1282,7 @@
         <v>0.58</v>
       </c>
       <c r="I24" t="n">
-        <v>409415</v>
+        <v>376199</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6848308</v>
+        <v>6714220</v>
       </c>
       <c r="F25" t="n">
-        <v>4.165723050773634</v>
+        <v>3.061527854182841</v>
       </c>
       <c r="G25" t="n">
-        <v>4.096642456017082</v>
+        <v>4.096782687147822</v>
       </c>
       <c r="H25" t="n">
         <v>0.58</v>
       </c>
       <c r="I25" t="n">
-        <v>25325</v>
+        <v>27302</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2447407</v>
+        <v>2445095</v>
       </c>
       <c r="E26" t="n">
-        <v>2447407</v>
+        <v>2445095</v>
       </c>
       <c r="F26" t="n">
         <v>254.0264787672958</v>
@@ -1352,7 +1352,7 @@
         <v>3.57</v>
       </c>
       <c r="I26" t="n">
-        <v>302095</v>
+        <v>304048</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19372533</v>
+        <v>19394591</v>
       </c>
       <c r="E27" t="n">
-        <v>24934039</v>
+        <v>24962431</v>
       </c>
       <c r="F27" t="n">
-        <v>4883.085104180787</v>
+        <v>4859.441527225741</v>
       </c>
       <c r="G27" t="n">
-        <v>1610.571514622536</v>
+        <v>1561.599130943775</v>
       </c>
       <c r="H27" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="I27" t="n">
-        <v>2067454</v>
+        <v>2059370</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4631194</v>
+        <v>4623032</v>
       </c>
       <c r="E28" t="n">
-        <v>4631194</v>
+        <v>4623032</v>
       </c>
       <c r="F28" t="n">
-        <v>1356.448736077748</v>
+        <v>1119.030856382249</v>
       </c>
       <c r="G28" t="n">
-        <v>1985.491754577101</v>
+        <v>4773.639606251452</v>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>1309621</v>
+        <v>1913760</v>
       </c>
     </row>
     <row r="29">
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1673752</v>
+        <v>1675260</v>
       </c>
       <c r="F29" t="n">
         <v>5.09967689804138</v>
@@ -1457,7 +1457,7 @@
         <v>2.29</v>
       </c>
       <c r="I29" t="n">
-        <v>161078</v>
+        <v>161463</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3261234</v>
+        <v>3309787</v>
       </c>
       <c r="E30" t="n">
-        <v>3261234</v>
+        <v>3309787</v>
       </c>
       <c r="F30" t="n">
-        <v>506.1249416366589</v>
+        <v>450.3439493131428</v>
       </c>
       <c r="G30" t="n">
-        <v>702.9127602492181</v>
+        <v>699.560172600909</v>
       </c>
       <c r="H30" t="n">
         <v>0.21</v>
       </c>
       <c r="I30" t="n">
-        <v>511851</v>
+        <v>524734</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>313275</v>
+        <v>308098</v>
       </c>
       <c r="E31" t="n">
-        <v>1462399</v>
+        <v>1438231</v>
       </c>
       <c r="F31" t="n">
-        <v>144.3466218205578</v>
+        <v>156.3350182359565</v>
       </c>
       <c r="G31" t="n">
-        <v>39.97784703646732</v>
+        <v>837.8919267027629</v>
       </c>
       <c r="H31" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>624736</v>
+        <v>622838</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>388944</v>
+        <v>340243</v>
       </c>
       <c r="E32" t="n">
-        <v>388944</v>
+        <v>340243</v>
       </c>
       <c r="F32" t="n">
-        <v>5.405808906974662</v>
+        <v>4.119561656652271</v>
       </c>
       <c r="G32" t="n">
-        <v>5.413201981945531</v>
+        <v>300.657119030588</v>
       </c>
       <c r="H32" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="I32" t="n">
-        <v>55665</v>
+        <v>47235</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1851373</v>
+        <v>1841229</v>
       </c>
       <c r="F33" t="n">
-        <v>52.24756453752016</v>
+        <v>52.24844921686712</v>
       </c>
       <c r="G33" t="n">
-        <v>10.13208584849937</v>
+        <v>10.13225740955051</v>
       </c>
       <c r="H33" t="n">
         <v>0.95</v>
       </c>
       <c r="I33" t="n">
-        <v>1358418</v>
+        <v>1181992</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1628161</v>
+        <v>1621356</v>
       </c>
       <c r="F34" t="n">
-        <v>83.90616137995478</v>
+        <v>457.4145216148357</v>
       </c>
       <c r="G34" t="n">
-        <v>98.57564374621164</v>
+        <v>62.84003630263895</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I34" t="n">
-        <v>166390</v>
+        <v>210303</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12778160</v>
+        <v>12717560</v>
       </c>
       <c r="E35" t="n">
-        <v>32179616</v>
+        <v>32027005</v>
       </c>
       <c r="F35" t="n">
-        <v>773.6145261188826</v>
+        <v>811.7991146199031</v>
       </c>
       <c r="G35" t="n">
-        <v>1203.348925671854</v>
+        <v>1103.496891485377</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="I35" t="n">
-        <v>1590880</v>
+        <v>1591352</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6765275</v>
+        <v>6770941</v>
       </c>
       <c r="E36" t="n">
-        <v>9317512</v>
+        <v>9325316</v>
       </c>
       <c r="F36" t="n">
-        <v>88.31512557331298</v>
+        <v>652.5263360015725</v>
       </c>
       <c r="G36" t="n">
-        <v>174.1836318945585</v>
+        <v>268.8979019120962</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2.04</v>
       </c>
       <c r="I36" t="n">
-        <v>902700</v>
+        <v>903560</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>912380</v>
+        <v>912434</v>
       </c>
       <c r="E37" t="n">
-        <v>6386663</v>
+        <v>6387038</v>
       </c>
       <c r="F37" t="n">
-        <v>499.6787951721636</v>
+        <v>503.5867507380327</v>
       </c>
       <c r="G37" t="n">
-        <v>5206.17727571917</v>
+        <v>4849.999489365234</v>
       </c>
       <c r="H37" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>349946</v>
+        <v>313706</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>107844143</v>
+        <v>108146446</v>
       </c>
       <c r="E38" t="n">
-        <v>419886771</v>
+        <v>421063775</v>
       </c>
       <c r="F38" t="n">
-        <v>12432.85421140463</v>
+        <v>11583.90593900062</v>
       </c>
       <c r="G38" t="n">
-        <v>33116.18650396549</v>
+        <v>30511.46977881191</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I38" t="n">
-        <v>6525265</v>
+        <v>6427379</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5477857</v>
+        <v>5449201</v>
       </c>
       <c r="E39" t="n">
-        <v>5739918</v>
+        <v>5709891</v>
       </c>
       <c r="F39" t="n">
-        <v>75.40052610307735</v>
+        <v>122.667658024174</v>
       </c>
       <c r="G39" t="n">
-        <v>2635.606182616093</v>
+        <v>2633.681882063796</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>171436</v>
+        <v>169680</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5374161</v>
+        <v>5315301</v>
       </c>
       <c r="E40" t="n">
-        <v>7911056</v>
+        <v>7824411</v>
       </c>
       <c r="F40" t="n">
-        <v>1166.961548627828</v>
+        <v>1153.883024838879</v>
       </c>
       <c r="G40" t="n">
-        <v>2374.950050935647</v>
+        <v>2295.161966581049</v>
       </c>
       <c r="H40" t="n">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
       <c r="I40" t="n">
-        <v>599400</v>
+        <v>644408</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7660067</v>
+        <v>7643896</v>
       </c>
       <c r="E41" t="n">
-        <v>7660067</v>
+        <v>7643896</v>
       </c>
       <c r="F41" t="n">
-        <v>1717.372183332219</v>
+        <v>1717.648098850711</v>
       </c>
       <c r="G41" t="n">
-        <v>2187.292104848863</v>
+        <v>2252.460559090548</v>
       </c>
       <c r="H41" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="I41" t="n">
-        <v>257538</v>
+        <v>219284</v>
       </c>
     </row>
     <row r="42">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1490978</v>
+        <v>1490291</v>
       </c>
       <c r="E42" t="n">
-        <v>1490978</v>
+        <v>1490329</v>
       </c>
       <c r="F42" t="n">
         <v>95.65772933768878</v>
@@ -1912,7 +1912,7 @@
         <v>0.14</v>
       </c>
       <c r="I42" t="n">
-        <v>275978</v>
+        <v>276459</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16425131</v>
+        <v>16424008</v>
       </c>
       <c r="F43" t="n">
-        <v>311.1308874368621</v>
+        <v>351.0239066662683</v>
       </c>
       <c r="G43" t="n">
-        <v>472.1179198756482</v>
+        <v>523.959125581206</v>
       </c>
       <c r="H43" t="n">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
       <c r="I43" t="n">
-        <v>10420.32</v>
+        <v>10417.78</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>133810673</v>
+        <v>134320549</v>
       </c>
       <c r="E44" t="n">
-        <v>133810673</v>
+        <v>134320549</v>
       </c>
       <c r="F44" t="n">
-        <v>324391.2389583177</v>
+        <v>393615.5211500511</v>
       </c>
       <c r="G44" t="n">
-        <v>337333.901048751</v>
+        <v>320736.7640167492</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>65821660</v>
+        <v>63116471</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64090442</v>
+        <v>64087288</v>
       </c>
       <c r="E45" t="n">
-        <v>328668934</v>
+        <v>328652759</v>
       </c>
       <c r="F45" t="n">
-        <v>104115.8669783231</v>
+        <v>75232.45915694379</v>
       </c>
       <c r="G45" t="n">
-        <v>51585.07584073694</v>
+        <v>54204.91430777474</v>
       </c>
       <c r="H45" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>18323409</v>
+        <v>18040918</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>592905</v>
+        <v>592863</v>
       </c>
       <c r="F46" t="n">
-        <v>74.24570354888233</v>
+        <v>90.37210841995388</v>
       </c>
       <c r="G46" t="n">
-        <v>374.294099880849</v>
+        <v>375.4420456731856</v>
       </c>
       <c r="H46" t="n">
         <v>0.42</v>
       </c>
       <c r="I46" t="n">
-        <v>436.17</v>
+        <v>436.14</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2715751</v>
+        <v>2722324</v>
       </c>
       <c r="E47" t="n">
-        <v>10913984</v>
+        <v>10940399</v>
       </c>
       <c r="F47" t="n">
-        <v>185.422707690039</v>
+        <v>314.3412947943339</v>
       </c>
       <c r="G47" t="n">
-        <v>649.474137867003</v>
+        <v>166.8544845826931</v>
       </c>
       <c r="H47" t="n">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>25102</v>
+        <v>24694</v>
       </c>
     </row>
     <row r="48">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17336361</v>
+        <v>17332899</v>
       </c>
       <c r="E48" t="n">
-        <v>122241787</v>
+        <v>122217373</v>
       </c>
       <c r="F48" t="n">
         <v>1302.020195916328</v>
@@ -2122,7 +2122,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>1040115</v>
+        <v>1038380</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1026975</v>
+        <v>1030362</v>
       </c>
       <c r="E49" t="n">
-        <v>1205424</v>
+        <v>1209399</v>
       </c>
       <c r="F49" t="n">
-        <v>2442.64845187756</v>
+        <v>1364.701982383137</v>
       </c>
       <c r="G49" t="n">
-        <v>3935.469336494055</v>
+        <v>3631.671297136422</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I49" t="n">
-        <v>256889</v>
+        <v>259203</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>169948</v>
+        <v>146737</v>
       </c>
       <c r="E50" t="n">
-        <v>2273999</v>
+        <v>1963417</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>52522</v>
+        <v>45430</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>250323004</v>
+        <v>249994728</v>
       </c>
       <c r="E51" t="n">
-        <v>250323004</v>
+        <v>249994728</v>
       </c>
       <c r="F51" t="n">
-        <v>31106.08941501493</v>
+        <v>34213.60387553716</v>
       </c>
       <c r="G51" t="n">
-        <v>28196.49703357991</v>
+        <v>24602.9015959508</v>
       </c>
       <c r="H51" t="n">
         <v>0.21</v>
       </c>
       <c r="I51" t="n">
-        <v>14728611</v>
+        <v>14645009</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1120977</v>
+        <v>1124214</v>
       </c>
       <c r="F52" t="n">
-        <v>64.33782539643487</v>
+        <v>136.485888576284</v>
       </c>
       <c r="G52" t="n">
-        <v>3.928789046790232</v>
+        <v>3.928967006580752</v>
       </c>
       <c r="H52" t="n">
         <v>0.7</v>
       </c>
       <c r="I52" t="n">
-        <v>191055</v>
+        <v>192177</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>114678</v>
+        <v>115247</v>
       </c>
       <c r="E54" t="n">
-        <v>114678</v>
+        <v>115247</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>13.94</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6599664</v>
+        <v>6621909</v>
       </c>
       <c r="E55" t="n">
-        <v>16030076</v>
+        <v>16084107</v>
       </c>
       <c r="F55" t="n">
-        <v>170.1395609086055</v>
+        <v>212.4021475676454</v>
       </c>
       <c r="G55" t="n">
-        <v>1644.089275729329</v>
+        <v>716.7859938420585</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6</v>
+        <v>1.11</v>
       </c>
       <c r="I55" t="n">
-        <v>453506</v>
+        <v>455057</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>442013764</v>
+        <v>439576798</v>
       </c>
       <c r="E56" t="n">
-        <v>442013764</v>
+        <v>439576798</v>
       </c>
       <c r="F56" t="n">
-        <v>5445.370043656122</v>
+        <v>8315.457530530241</v>
       </c>
       <c r="G56" t="n">
-        <v>3849.992612582097</v>
+        <v>9427.908400388167</v>
       </c>
       <c r="H56" t="n">
-        <v>0.39</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>2844427</v>
+        <v>2854867</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2517856</v>
+        <v>2520084</v>
       </c>
       <c r="E57" t="n">
-        <v>2517856</v>
+        <v>2520084</v>
       </c>
       <c r="F57" t="n">
         <v>5.271598794676917</v>
@@ -2433,7 +2433,7 @@
         <v>0.54</v>
       </c>
       <c r="I57" t="n">
-        <v>109386</v>
+        <v>109446</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>148585585</v>
+        <v>148211984</v>
       </c>
       <c r="E58" t="n">
-        <v>195521252</v>
+        <v>195029637</v>
       </c>
       <c r="F58" t="n">
-        <v>14876.70679426771</v>
+        <v>13958.96582451304</v>
       </c>
       <c r="G58" t="n">
-        <v>9691.671951007198</v>
+        <v>12186.75210293069</v>
       </c>
       <c r="H58" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="I58" t="n">
-        <v>7187993</v>
+        <v>7310302</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1114976</v>
+        <v>1115046</v>
       </c>
       <c r="E59" t="n">
-        <v>12117142</v>
+        <v>12117899</v>
       </c>
       <c r="F59" t="n">
-        <v>778.5981479226343</v>
+        <v>790.2292185046483</v>
       </c>
       <c r="G59" t="n">
-        <v>3.93103342244791</v>
+        <v>3.93123861849244</v>
       </c>
       <c r="H59" t="n">
         <v>0.49</v>
       </c>
       <c r="I59" t="n">
-        <v>29343</v>
+        <v>29345</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2538323</v>
+        <v>2537509</v>
       </c>
       <c r="E60" t="n">
-        <v>6489444</v>
+        <v>6487361</v>
       </c>
       <c r="F60" t="n">
-        <v>145.3552703136595</v>
+        <v>211.5981696663569</v>
       </c>
       <c r="G60" t="n">
-        <v>186.4771017017827</v>
+        <v>250.9208394586151</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>120163</v>
+        <v>118940</v>
       </c>
     </row>
     <row r="61">
@@ -2558,10 +2558,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>71858716</v>
+        <v>71517736</v>
       </c>
       <c r="E61" t="n">
-        <v>201161278</v>
+        <v>200206739</v>
       </c>
       <c r="F61" t="n">
         <v>80787.49449215725</v>
@@ -2573,7 +2573,7 @@
         <v>0.13</v>
       </c>
       <c r="I61" t="n">
-        <v>32634468</v>
+        <v>32615552</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>71935608</v>
+        <v>72026306</v>
       </c>
       <c r="E62" t="n">
-        <v>71935608</v>
+        <v>72026306</v>
       </c>
       <c r="F62" t="n">
-        <v>3955.497948657714</v>
+        <v>4407.141385582206</v>
       </c>
       <c r="G62" t="n">
-        <v>5099.290415715997</v>
+        <v>5225.442968353393</v>
       </c>
       <c r="H62" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="I62" t="n">
-        <v>4410552</v>
+        <v>4265241</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4215179</v>
+        <v>4210140</v>
       </c>
       <c r="E63" t="n">
-        <v>8312687</v>
+        <v>8302751</v>
       </c>
       <c r="F63" t="n">
-        <v>1870.424439529054</v>
+        <v>2094.690173001336</v>
       </c>
       <c r="G63" t="n">
-        <v>2023.137924927685</v>
+        <v>2066.647247851578</v>
       </c>
       <c r="H63" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>1631735</v>
+        <v>1633268</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1569436</v>
+        <v>1568870</v>
       </c>
       <c r="E64" t="n">
-        <v>9011116</v>
+        <v>9007866</v>
       </c>
       <c r="F64" t="n">
-        <v>2.661766550137933</v>
+        <v>470.9216997443153</v>
       </c>
       <c r="G64" t="n">
-        <v>560.2289398820795</v>
+        <v>29.46756216770601</v>
       </c>
       <c r="H64" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="I64" t="n">
-        <v>324426</v>
+        <v>312473</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>571622</v>
+        <v>571399</v>
       </c>
       <c r="F65" t="n">
-        <v>8.84501714075078</v>
+        <v>8.845195474080574</v>
       </c>
       <c r="G65" t="n">
-        <v>5.513337169699019</v>
+        <v>5.513448329661754</v>
       </c>
       <c r="H65" t="n">
         <v>0.41</v>
       </c>
       <c r="I65" t="n">
-        <v>2284.45</v>
+        <v>2282.1</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>32061411</v>
+        <v>32029506</v>
       </c>
       <c r="F66" t="n">
-        <v>878.500277929125</v>
+        <v>823.0624772611067</v>
       </c>
       <c r="G66" t="n">
-        <v>329.1175014713855</v>
+        <v>322.5245424550454</v>
       </c>
       <c r="H66" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>250572</v>
+        <v>250578</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>150781</v>
+        <v>151463</v>
       </c>
       <c r="E67" t="n">
-        <v>1018243</v>
+        <v>1022847</v>
       </c>
       <c r="F67" t="n">
-        <v>42.77705530253017</v>
+        <v>42.77717703611689</v>
       </c>
       <c r="G67" t="n">
-        <v>167.625780860681</v>
+        <v>168.9054918945365</v>
       </c>
       <c r="H67" t="n">
         <v>0.48</v>
       </c>
       <c r="I67" t="n">
-        <v>2664338</v>
+        <v>2664520</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7542233</v>
+        <v>7538684</v>
       </c>
       <c r="E68" t="n">
-        <v>17763457</v>
+        <v>17755099</v>
       </c>
       <c r="F68" t="n">
-        <v>1507.928549522587</v>
+        <v>1445.243600807533</v>
       </c>
       <c r="G68" t="n">
-        <v>2984.776764565344</v>
+        <v>2984.814197691846</v>
       </c>
       <c r="H68" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>29692</v>
+        <v>29863</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2903772</v>
+        <v>2940218</v>
       </c>
       <c r="E69" t="n">
-        <v>2903772</v>
+        <v>2940218</v>
       </c>
       <c r="F69" t="n">
-        <v>321.253349427425</v>
+        <v>295.8363487766194</v>
       </c>
       <c r="G69" t="n">
-        <v>4.097976263667293</v>
+        <v>4.098058887108365</v>
       </c>
       <c r="H69" t="n">
         <v>0.72</v>
       </c>
       <c r="I69" t="n">
-        <v>14378.05</v>
+        <v>14479.6</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3362602</v>
+        <v>3363851</v>
       </c>
       <c r="E70" t="n">
-        <v>8297049</v>
+        <v>8300130</v>
       </c>
       <c r="F70" t="n">
-        <v>1312.184415754326</v>
+        <v>1217.348860717888</v>
       </c>
       <c r="G70" t="n">
-        <v>1208.729810721458</v>
+        <v>1174.813132604284</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>59187</v>
+        <v>57954</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23223525</v>
+        <v>23282104</v>
       </c>
       <c r="F71" t="n">
-        <v>182.5090601818959</v>
+        <v>182.510053753357</v>
       </c>
       <c r="G71" t="n">
-        <v>16.60489003684284</v>
+        <v>16.60498043314886</v>
       </c>
       <c r="H71" t="n">
         <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>118548</v>
+        <v>118476</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>269755</v>
+        <v>271964</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2177.98</v>
+        <v>2227.23</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>71747130</v>
+        <v>71890757</v>
       </c>
       <c r="E73" t="n">
-        <v>149629201</v>
+        <v>149928736</v>
       </c>
       <c r="F73" t="n">
-        <v>15586.68136983839</v>
+        <v>15318.51519891369</v>
       </c>
       <c r="G73" t="n">
-        <v>127.5621494120053</v>
+        <v>8772.514370784145</v>
       </c>
       <c r="H73" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I73" t="n">
-        <v>13698672</v>
+        <v>13745810</v>
       </c>
     </row>
     <row r="74">
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>198280045</v>
+        <v>195633056</v>
       </c>
       <c r="F75" t="n">
         <v>9981.164584155875</v>
@@ -3053,7 +3053,7 @@
         <v>0.05</v>
       </c>
       <c r="I75" t="n">
-        <v>4236892</v>
+        <v>4217789</v>
       </c>
     </row>
     <row r="76">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>82542636</v>
+        <v>83034639</v>
       </c>
       <c r="E76" t="n">
-        <v>113343885</v>
+        <v>114019482</v>
       </c>
       <c r="F76" t="n">
         <v>1062.659370143533</v>
@@ -3088,7 +3088,7 @@
         <v>0.19</v>
       </c>
       <c r="I76" t="n">
-        <v>708779</v>
+        <v>949149</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>185039</v>
+        <v>185109</v>
       </c>
       <c r="E77" t="n">
-        <v>193234</v>
+        <v>193307</v>
       </c>
       <c r="F77" t="n">
-        <v>4.046165298393167</v>
+        <v>4.046233809890412</v>
       </c>
       <c r="G77" t="n">
-        <v>3.797600061313349</v>
+        <v>3.797664363991799</v>
       </c>
       <c r="H77" t="n">
         <v>0.52</v>
       </c>
       <c r="I77" t="n">
-        <v>597.67</v>
+        <v>597.46</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7356711</v>
+        <v>7330897</v>
       </c>
       <c r="E78" t="n">
-        <v>8092874</v>
+        <v>8064476</v>
       </c>
       <c r="F78" t="n">
-        <v>254.6630645117432</v>
+        <v>320.5197135248253</v>
       </c>
       <c r="G78" t="n">
-        <v>143.6815769070052</v>
+        <v>99.22432151206729</v>
       </c>
       <c r="H78" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I78" t="n">
-        <v>637010</v>
+        <v>633519</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29282955</v>
+        <v>29281935</v>
       </c>
       <c r="E79" t="n">
-        <v>29282955</v>
+        <v>29281935</v>
       </c>
       <c r="F79" t="n">
-        <v>185.5735384753303</v>
+        <v>186.2889178099698</v>
       </c>
       <c r="G79" t="n">
-        <v>394.7444980126663</v>
+        <v>222.0442763077512</v>
       </c>
       <c r="H79" t="n">
         <v>0.38</v>
       </c>
       <c r="I79" t="n">
-        <v>277949</v>
+        <v>276085</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>277251230</v>
+        <v>274671870</v>
       </c>
       <c r="E80" t="n">
-        <v>277251230</v>
+        <v>274671870</v>
       </c>
       <c r="F80" t="n">
-        <v>59.80782409353591</v>
+        <v>88.27214729024924</v>
       </c>
       <c r="G80" t="n">
-        <v>3214.444117581751</v>
+        <v>3877.997303838116</v>
       </c>
       <c r="H80" t="n">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>10715604</v>
+        <v>10517320</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>613236059</v>
+        <v>612299391</v>
       </c>
       <c r="E81" t="n">
-        <v>613236059</v>
+        <v>612299391</v>
       </c>
       <c r="F81" t="n">
-        <v>1393663.175188042</v>
+        <v>737798.4044473441</v>
       </c>
       <c r="G81" t="n">
-        <v>1532051.694649643</v>
+        <v>600786.0886531777</v>
       </c>
       <c r="H81" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I81" t="n">
-        <v>256867100</v>
+        <v>256526469</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>112415</v>
+        <v>112387</v>
       </c>
       <c r="E82" t="n">
-        <v>112415</v>
+        <v>112387</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>148.12</v>
+        <v>148.08</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>196627756</v>
+        <v>196302898</v>
       </c>
       <c r="E83" t="n">
-        <v>683102593</v>
+        <v>681974010</v>
       </c>
       <c r="F83" t="n">
-        <v>1504.28771055285</v>
+        <v>684.0034359906502</v>
       </c>
       <c r="G83" t="n">
-        <v>3697.801449180032</v>
+        <v>4105.585901288725</v>
       </c>
       <c r="H83" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="I83" t="n">
-        <v>25994512</v>
+        <v>25608865</v>
       </c>
     </row>
     <row r="84">
@@ -3351,10 +3351,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4089927</v>
+        <v>4110191</v>
       </c>
       <c r="E84" t="n">
-        <v>4089927</v>
+        <v>4110191</v>
       </c>
       <c r="F84" t="n">
         <v>566.314511884094</v>
@@ -3366,7 +3366,7 @@
         <v>0.29</v>
       </c>
       <c r="I84" t="n">
-        <v>3861565</v>
+        <v>3781240</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>111691356</v>
+        <v>111865472</v>
       </c>
       <c r="E85" t="n">
-        <v>475190769</v>
+        <v>475931544</v>
       </c>
       <c r="F85" t="n">
-        <v>229219.8717336415</v>
+        <v>280958.8839056069</v>
       </c>
       <c r="G85" t="n">
-        <v>388326.4982091433</v>
+        <v>405415.4845872012</v>
       </c>
       <c r="H85" t="n">
-        <v>0.42</v>
+        <v>0.78</v>
       </c>
       <c r="I85" t="n">
-        <v>12142794</v>
+        <v>12263261</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>73072353</v>
+        <v>73090830</v>
       </c>
       <c r="E86" t="n">
-        <v>83841217</v>
+        <v>83862417</v>
       </c>
       <c r="F86" t="n">
-        <v>1862.73534067641</v>
+        <v>6997.54906666161</v>
       </c>
       <c r="G86" t="n">
-        <v>2743.821684293908</v>
+        <v>4144.986473857219</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="I86" t="n">
-        <v>1199897</v>
+        <v>1201851</v>
       </c>
     </row>
     <row r="87">
@@ -3456,10 +3456,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3078452</v>
+        <v>3144007</v>
       </c>
       <c r="E87" t="n">
-        <v>15434659</v>
+        <v>15763340</v>
       </c>
       <c r="F87" t="n">
         <v>72.39150084325323</v>
@@ -3471,7 +3471,7 @@
         <v>0.87</v>
       </c>
       <c r="I87" t="n">
-        <v>26225</v>
+        <v>28214</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>533316</v>
+        <v>532179</v>
       </c>
       <c r="E88" t="n">
-        <v>9122342</v>
+        <v>9102884</v>
       </c>
       <c r="F88" t="n">
-        <v>19.08377204437426</v>
+        <v>18.78100356197604</v>
       </c>
       <c r="G88" t="n">
-        <v>108.5959812148859</v>
+        <v>108.6494206662723</v>
       </c>
       <c r="H88" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="I88" t="n">
-        <v>312977</v>
+        <v>311817</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5911950</v>
+        <v>5936473</v>
       </c>
       <c r="E89" t="n">
-        <v>8032962</v>
+        <v>8066583</v>
       </c>
       <c r="F89" t="n">
-        <v>63.95569978821485</v>
+        <v>1179.491815659658</v>
       </c>
       <c r="G89" t="n">
-        <v>160.7065152736063</v>
+        <v>103.3924433054953</v>
       </c>
       <c r="H89" t="n">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="I89" t="n">
-        <v>6438654</v>
+        <v>6470657</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40769350</v>
+        <v>40685324</v>
       </c>
       <c r="E90" t="n">
-        <v>47617632</v>
+        <v>47519492</v>
       </c>
       <c r="F90" t="n">
-        <v>870.8434225177083</v>
+        <v>141.1438175740423</v>
       </c>
       <c r="G90" t="n">
-        <v>134.8184175027355</v>
+        <v>134.8397802405676</v>
       </c>
       <c r="H90" t="n">
         <v>0.39</v>
       </c>
       <c r="I90" t="n">
-        <v>837053</v>
+        <v>855123</v>
       </c>
     </row>
     <row r="91">
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14308944</v>
+        <v>14342707</v>
       </c>
       <c r="F91" t="n">
         <v>221.3056466550904</v>
@@ -3611,7 +3611,7 @@
         <v>1.84</v>
       </c>
       <c r="I91" t="n">
-        <v>102042</v>
+        <v>228989</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35441352</v>
+        <v>35294035</v>
       </c>
       <c r="E92" t="n">
-        <v>35441352</v>
+        <v>35294035</v>
       </c>
       <c r="F92" t="n">
-        <v>176.3512494112167</v>
+        <v>692.811681904148</v>
       </c>
       <c r="G92" t="n">
-        <v>657.1534872205049</v>
+        <v>55.09899276237811</v>
       </c>
       <c r="H92" t="n">
-        <v>1.12</v>
+        <v>0.84</v>
       </c>
       <c r="I92" t="n">
-        <v>741069</v>
+        <v>740158</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17399671</v>
+        <v>17417640</v>
       </c>
       <c r="F93" t="n">
-        <v>128.4023708736588</v>
+        <v>118.3138740374555</v>
       </c>
       <c r="G93" t="n">
-        <v>461.9740128986826</v>
+        <v>282.2721999247801</v>
       </c>
       <c r="H93" t="n">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
       <c r="I93" t="n">
-        <v>167439</v>
+        <v>166817</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>536542</v>
+        <v>535973</v>
       </c>
       <c r="E94" t="n">
-        <v>6507734</v>
+        <v>6500831</v>
       </c>
       <c r="F94" t="n">
-        <v>1165.836769643139</v>
+        <v>976.9677880812297</v>
       </c>
       <c r="G94" t="n">
-        <v>2635.30933862976</v>
+        <v>2972.014684217224</v>
       </c>
       <c r="H94" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="I94" t="n">
-        <v>2763833</v>
+        <v>2761898</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24995723</v>
+        <v>24979204</v>
       </c>
       <c r="E95" t="n">
-        <v>35330478</v>
+        <v>35307129</v>
       </c>
       <c r="F95" t="n">
-        <v>4.225323442166884</v>
+        <v>4.225394987250691</v>
       </c>
       <c r="G95" t="n">
-        <v>4.143944514697575</v>
+        <v>4.144014681836648</v>
       </c>
       <c r="H95" t="n">
         <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>83716</v>
+        <v>70899</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1265497367</v>
+        <v>1264156134</v>
       </c>
       <c r="E96" t="n">
-        <v>6068319043</v>
+        <v>6061887554</v>
       </c>
       <c r="F96" t="n">
-        <v>370511.4978678867</v>
+        <v>483367.3427997663</v>
       </c>
       <c r="G96" t="n">
-        <v>426133.6318788305</v>
+        <v>553717.2404710019</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>182145604</v>
+        <v>181356208</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>266968518</v>
+        <v>265570979</v>
       </c>
       <c r="E97" t="n">
-        <v>1152384329</v>
+        <v>1146351773</v>
       </c>
       <c r="F97" t="n">
-        <v>328491.5414431531</v>
+        <v>300467.5784645216</v>
       </c>
       <c r="G97" t="n">
-        <v>1079076.790957105</v>
+        <v>999735.9812469891</v>
       </c>
       <c r="H97" t="n">
         <v>0.17</v>
       </c>
       <c r="I97" t="n">
-        <v>109973937</v>
+        <v>110339878</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4979395</v>
+        <v>4988466</v>
       </c>
       <c r="E98" t="n">
-        <v>5518162</v>
+        <v>5528214</v>
       </c>
       <c r="F98" t="n">
-        <v>1189.742463468376</v>
+        <v>1141.78620361632</v>
       </c>
       <c r="G98" t="n">
-        <v>354.8735569312769</v>
+        <v>331.8223763867379</v>
       </c>
       <c r="H98" t="n">
         <v>0.27</v>
       </c>
       <c r="I98" t="n">
-        <v>682044</v>
+        <v>679568</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90139</v>
+        <v>90161</v>
       </c>
       <c r="E99" t="n">
-        <v>90139</v>
+        <v>90161</v>
       </c>
       <c r="F99" t="n">
-        <v>5.510470307569182</v>
+        <v>5.51064859043978</v>
       </c>
       <c r="G99" t="n">
-        <v>287.3581008081876</v>
+        <v>442.5704767482573</v>
       </c>
       <c r="H99" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="I99" t="n">
-        <v>4876.56</v>
+        <v>4908.34</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113418447</v>
+        <v>113469893</v>
       </c>
       <c r="E100" t="n">
-        <v>113418447</v>
+        <v>113469893</v>
       </c>
       <c r="F100" t="n">
-        <v>18543.01759428134</v>
+        <v>8740.448488161705</v>
       </c>
       <c r="G100" t="n">
-        <v>13670.98843698853</v>
+        <v>16675.95310954781</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>5961343</v>
+        <v>5973060</v>
       </c>
     </row>
     <row r="101">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3745588</v>
+        <v>3754225</v>
       </c>
       <c r="F101" t="n">
         <v>1210.275927821874</v>
@@ -3961,7 +3961,7 @@
         <v>0.96</v>
       </c>
       <c r="I101" t="n">
-        <v>321357</v>
+        <v>318281</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2049398159</v>
+        <v>2044340388</v>
       </c>
       <c r="E102" t="n">
-        <v>2049398159</v>
+        <v>2044340388</v>
       </c>
       <c r="F102" t="n">
-        <v>7438912.000662227</v>
+        <v>7513266.03267977</v>
       </c>
       <c r="G102" t="n">
-        <v>4691969.47692468</v>
+        <v>5089653.82775779</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5574717497</v>
+        <v>5637951710</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5330707</v>
+        <v>5354001</v>
       </c>
       <c r="E103" t="n">
-        <v>5336741</v>
+        <v>5360060</v>
       </c>
       <c r="F103" t="n">
-        <v>284.6016335851006</v>
+        <v>261.0329788411246</v>
       </c>
       <c r="G103" t="n">
-        <v>61.27576806429712</v>
+        <v>81.85133681263757</v>
       </c>
       <c r="H103" t="n">
-        <v>0.09</v>
+        <v>0.57</v>
       </c>
       <c r="I103" t="n">
-        <v>152448</v>
+        <v>153320</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2325362</v>
+        <v>2323391</v>
       </c>
       <c r="F104" t="n">
-        <v>263.7916282678571</v>
+        <v>263.7524583911423</v>
       </c>
       <c r="G104" t="n">
-        <v>23.67297737201511</v>
+        <v>23.6733782135538</v>
       </c>
       <c r="H104" t="n">
         <v>0.65</v>
       </c>
       <c r="I104" t="n">
-        <v>71500</v>
+        <v>71730</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4334410</v>
+        <v>4346205</v>
       </c>
       <c r="E105" t="n">
-        <v>5690515</v>
+        <v>5706000</v>
       </c>
       <c r="F105" t="n">
-        <v>11158.41306076849</v>
+        <v>11182.98415004177</v>
       </c>
       <c r="G105" t="n">
-        <v>12310.09354582155</v>
+        <v>12401.00145584156</v>
       </c>
       <c r="H105" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>625489</v>
+        <v>633899</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20152452</v>
+        <v>20196818</v>
       </c>
       <c r="F106" t="n">
-        <v>143.9387083431178</v>
+        <v>143.9412348612182</v>
       </c>
       <c r="G106" t="n">
-        <v>704.0943054657751</v>
+        <v>858.9982189819832</v>
       </c>
       <c r="H106" t="n">
         <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>128484</v>
+        <v>128425</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1354753</v>
+        <v>1350750</v>
       </c>
       <c r="E107" t="n">
-        <v>5051021</v>
+        <v>5036097</v>
       </c>
       <c r="F107" t="n">
-        <v>169.8183974876397</v>
+        <v>169.9047175884243</v>
       </c>
       <c r="G107" t="n">
-        <v>319.3517539308307</v>
+        <v>319.3339799025881</v>
       </c>
       <c r="H107" t="n">
         <v>0.33</v>
       </c>
       <c r="I107" t="n">
-        <v>608236</v>
+        <v>608721</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3911803</v>
+        <v>3998060</v>
       </c>
       <c r="E108" t="n">
-        <v>11267579</v>
+        <v>11516034</v>
       </c>
       <c r="F108" t="n">
-        <v>566.7223900718284</v>
+        <v>11.5596680930449</v>
       </c>
       <c r="G108" t="n">
-        <v>9444.26430879838</v>
+        <v>7185.061438175497</v>
       </c>
       <c r="H108" t="n">
-        <v>0.97</v>
+        <v>2.26</v>
       </c>
       <c r="I108" t="n">
-        <v>528399</v>
+        <v>538726</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>79947861</v>
+        <v>80062672</v>
       </c>
       <c r="E109" t="n">
-        <v>101739866</v>
+        <v>101885973</v>
       </c>
       <c r="F109" t="n">
-        <v>3715.413299513112</v>
+        <v>3205.711295008041</v>
       </c>
       <c r="G109" t="n">
-        <v>525.1764649421002</v>
+        <v>535.28850339721</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="I109" t="n">
-        <v>6164902</v>
+        <v>6164174</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22399096</v>
+        <v>22374763</v>
       </c>
       <c r="E110" t="n">
-        <v>29056751</v>
+        <v>29025186</v>
       </c>
       <c r="F110" t="n">
-        <v>19248.68627784112</v>
+        <v>21514.72048583572</v>
       </c>
       <c r="G110" t="n">
-        <v>18687.57223371372</v>
+        <v>12232.06979738207</v>
       </c>
       <c r="H110" t="n">
         <v>0.36</v>
       </c>
       <c r="I110" t="n">
-        <v>157420</v>
+        <v>161715</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>609013</v>
+        <v>609449</v>
       </c>
       <c r="E111" t="n">
-        <v>609013</v>
+        <v>609449</v>
       </c>
       <c r="F111" t="n">
-        <v>3.982503231694922</v>
+        <v>11.8175013690162</v>
       </c>
       <c r="G111" t="n">
-        <v>329.7770335137423</v>
+        <v>80.8875370259873</v>
       </c>
       <c r="H111" t="n">
         <v>0.54</v>
       </c>
       <c r="I111" t="n">
-        <v>77845</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13620112</v>
+        <v>13619282</v>
       </c>
       <c r="E112" t="n">
-        <v>13620112</v>
+        <v>13619282</v>
       </c>
       <c r="F112" t="n">
-        <v>2470.546692068675</v>
+        <v>2255.111930606524</v>
       </c>
       <c r="G112" t="n">
-        <v>2846.08324927111</v>
+        <v>3166.756864040759</v>
       </c>
       <c r="H112" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="I112" t="n">
-        <v>4393225</v>
+        <v>4385611</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98530701</v>
+        <v>98421988</v>
       </c>
       <c r="E113" t="n">
-        <v>121878951</v>
+        <v>121744477</v>
       </c>
       <c r="F113" t="n">
-        <v>301.8444681190818</v>
+        <v>298.8591139734952</v>
       </c>
       <c r="G113" t="n">
-        <v>1640.211406000228</v>
+        <v>1786.42498167617</v>
       </c>
       <c r="H113" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I113" t="n">
-        <v>777852</v>
+        <v>779579</v>
       </c>
     </row>
     <row r="114">
@@ -4407,16 +4407,16 @@
         <v>835394</v>
       </c>
       <c r="F114" t="n">
-        <v>198.8525720963821</v>
+        <v>53.76070095861018</v>
       </c>
       <c r="G114" t="n">
-        <v>193.5590924377194</v>
+        <v>486.9662205879443</v>
       </c>
       <c r="H114" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I114" t="n">
-        <v>28671</v>
+        <v>27688</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2858202</v>
+        <v>2858384</v>
       </c>
       <c r="F115" t="n">
-        <v>248.7871978011169</v>
+        <v>201.5818345584647</v>
       </c>
       <c r="G115" t="n">
-        <v>2144.623562182145</v>
+        <v>2158.156374794814</v>
       </c>
       <c r="H115" t="n">
         <v>0.99</v>
       </c>
       <c r="I115" t="n">
-        <v>21533</v>
+        <v>19852.69</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10781466</v>
+        <v>10856449</v>
       </c>
       <c r="E116" t="n">
-        <v>15855096</v>
+        <v>15965365</v>
       </c>
       <c r="F116" t="n">
-        <v>2150.786095214033</v>
+        <v>3359.288687529923</v>
       </c>
       <c r="G116" t="n">
-        <v>6939.305705539107</v>
+        <v>1258.18823269217</v>
       </c>
       <c r="H116" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="I116" t="n">
-        <v>412995</v>
+        <v>417932</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3215217</v>
+        <v>3214549</v>
       </c>
       <c r="F117" t="n">
-        <v>7.703003449428179</v>
+        <v>7.70315213555978</v>
       </c>
       <c r="G117" t="n">
-        <v>242.5976932209146</v>
+        <v>389.6609544992187</v>
       </c>
       <c r="H117" t="n">
         <v>0.19</v>
       </c>
       <c r="I117" t="n">
-        <v>37490</v>
+        <v>37509</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1088435</v>
+        <v>1088737</v>
       </c>
       <c r="F118" t="n">
-        <v>3.897982508957462</v>
+        <v>3.898061100122323</v>
       </c>
       <c r="G118" t="n">
-        <v>5.525707066239781</v>
+        <v>5.525818475604503</v>
       </c>
       <c r="H118" t="n">
         <v>0.29</v>
       </c>
       <c r="I118" t="n">
-        <v>3376.41</v>
+        <v>3377.95</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5179757</v>
+        <v>5214246</v>
       </c>
       <c r="E119" t="n">
-        <v>7247230</v>
+        <v>7295486</v>
       </c>
       <c r="F119" t="n">
-        <v>1530.483299463403</v>
+        <v>996.902407994819</v>
       </c>
       <c r="G119" t="n">
-        <v>1416.169317775487</v>
+        <v>476.9435738790933</v>
       </c>
       <c r="H119" t="n">
         <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>102680</v>
+        <v>103975</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10089188</v>
+        <v>10078450</v>
       </c>
       <c r="E120" t="n">
-        <v>27790236</v>
+        <v>27760661</v>
       </c>
       <c r="F120" t="n">
-        <v>642.0684157361069</v>
+        <v>566.7902643940442</v>
       </c>
       <c r="G120" t="n">
-        <v>38.36439460874038</v>
+        <v>38.36516811207307</v>
       </c>
       <c r="H120" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="I120" t="n">
-        <v>347321</v>
+        <v>345871</v>
       </c>
     </row>
     <row r="121">
@@ -4646,10 +4646,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51970589</v>
+        <v>52357074</v>
       </c>
       <c r="E121" t="n">
-        <v>132398047</v>
+        <v>133382640</v>
       </c>
       <c r="F121" t="n">
         <v>641.0948141024807</v>
@@ -4661,7 +4661,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I121" t="n">
-        <v>2362904</v>
+        <v>2368727</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13783671</v>
+        <v>13770022</v>
       </c>
       <c r="E122" t="n">
-        <v>66756519</v>
+        <v>66690417</v>
       </c>
       <c r="F122" t="n">
-        <v>2370.48295168199</v>
+        <v>2555.136654279288</v>
       </c>
       <c r="G122" t="n">
-        <v>2228.505421284203</v>
+        <v>3125.709098756655</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I122" t="n">
-        <v>3619913</v>
+        <v>3616067</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>529034</v>
+        <v>517127</v>
       </c>
       <c r="F123" t="n">
-        <v>3.906576270585767</v>
+        <v>4.045021275496537</v>
       </c>
       <c r="G123" t="n">
-        <v>3.895086822004665</v>
+        <v>3.958221602633465</v>
       </c>
       <c r="H123" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="I123" t="n">
-        <v>7549.82</v>
+        <v>7809.97</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4501828</v>
+        <v>4503588</v>
       </c>
       <c r="E124" t="n">
-        <v>10261717</v>
+        <v>10265729</v>
       </c>
       <c r="F124" t="n">
-        <v>445.3017473507537</v>
+        <v>1121.098941724036</v>
       </c>
       <c r="G124" t="n">
-        <v>2233.410051530202</v>
+        <v>1218.248677116761</v>
       </c>
       <c r="H124" t="n">
-        <v>1.45</v>
+        <v>0.87</v>
       </c>
       <c r="I124" t="n">
-        <v>99473</v>
+        <v>100235</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1880614958</v>
+        <v>1880904673</v>
       </c>
       <c r="F125" t="n">
-        <v>76798.42738246471</v>
+        <v>76944.8164009076</v>
       </c>
       <c r="G125" t="n">
-        <v>72848.70043708447</v>
+        <v>69422.55535035889</v>
       </c>
       <c r="H125" t="n">
         <v>0.53</v>
       </c>
       <c r="I125" t="n">
-        <v>26253819</v>
+        <v>26176124</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9371093</v>
+        <v>9369410</v>
       </c>
       <c r="E126" t="n">
-        <v>34123282</v>
+        <v>34117152</v>
       </c>
       <c r="F126" t="n">
-        <v>1753.078044190524</v>
+        <v>1161.767267058739</v>
       </c>
       <c r="G126" t="n">
-        <v>5.354014991811001</v>
+        <v>5.354156227839343</v>
       </c>
       <c r="H126" t="n">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>157711</v>
+        <v>159814</v>
       </c>
     </row>
     <row r="127">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>540531</v>
+        <v>540664</v>
       </c>
       <c r="F127" t="n">
         <v>22.96141846453144</v>
@@ -4871,7 +4871,7 @@
         <v>0.72</v>
       </c>
       <c r="I127" t="n">
-        <v>19802.72</v>
+        <v>19810.52</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12277944</v>
+        <v>12242045</v>
       </c>
       <c r="E128" t="n">
-        <v>17801248</v>
+        <v>17749199</v>
       </c>
       <c r="F128" t="n">
-        <v>2670.199482270144</v>
+        <v>2022.621707961762</v>
       </c>
       <c r="G128" t="n">
-        <v>7279.98058392728</v>
+        <v>2999.264369801172</v>
       </c>
       <c r="H128" t="n">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="I128" t="n">
-        <v>2284062</v>
+        <v>2268731</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>32383386</v>
+        <v>32279688</v>
       </c>
       <c r="E129" t="n">
-        <v>100831472</v>
+        <v>100508591</v>
       </c>
       <c r="F129" t="n">
-        <v>6472.239298235852</v>
+        <v>5859.374421296004</v>
       </c>
       <c r="G129" t="n">
-        <v>9609.811150274783</v>
+        <v>7236.414672343494</v>
       </c>
       <c r="H129" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I129" t="n">
-        <v>11781442</v>
+        <v>11900638</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2083867</v>
+        <v>2074717</v>
       </c>
       <c r="E130" t="n">
-        <v>14943202</v>
+        <v>14877589</v>
       </c>
       <c r="F130" t="n">
-        <v>4.112303297763154</v>
+        <v>4.112386210066042</v>
       </c>
       <c r="G130" t="n">
-        <v>3.895151222248997</v>
+        <v>3.895229756329425</v>
       </c>
       <c r="H130" t="n">
         <v>0.53</v>
       </c>
       <c r="I130" t="n">
-        <v>1943962</v>
+        <v>1936067</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7891543</v>
+        <v>7899145</v>
       </c>
       <c r="F131" t="n">
-        <v>286.6650580200285</v>
+        <v>132.029554784085</v>
       </c>
       <c r="G131" t="n">
-        <v>55.31348519900769</v>
+        <v>151.7628325942987</v>
       </c>
       <c r="H131" t="n">
-        <v>0.87</v>
+        <v>1.68</v>
       </c>
       <c r="I131" t="n">
-        <v>480552</v>
+        <v>402969</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>198743429</v>
+        <v>200134290</v>
       </c>
       <c r="E132" t="n">
-        <v>1125407413</v>
+        <v>1133283321</v>
       </c>
       <c r="F132" t="n">
-        <v>491141.8072683628</v>
+        <v>333156.8050956585</v>
       </c>
       <c r="G132" t="n">
-        <v>419831.0913176217</v>
+        <v>498308.3304039962</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>60904207</v>
+        <v>60277017</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1023697</v>
+        <v>1024617</v>
       </c>
       <c r="E133" t="n">
-        <v>1023697</v>
+        <v>1024617</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>12304.46</v>
+        <v>12139.93</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>500897</v>
+        <v>502862</v>
       </c>
       <c r="E134" t="n">
-        <v>1685948</v>
+        <v>1692564</v>
       </c>
       <c r="F134" t="n">
-        <v>175.3900052656407</v>
+        <v>175.3253845756047</v>
       </c>
       <c r="G134" t="n">
-        <v>224.8735573033027</v>
+        <v>224.6924814525386</v>
       </c>
       <c r="H134" t="n">
         <v>1.19</v>
       </c>
       <c r="I134" t="n">
-        <v>632864</v>
+        <v>633226</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>16489582</v>
+        <v>16659166</v>
       </c>
       <c r="F135" t="n">
-        <v>3.845284897014115</v>
+        <v>5.333497773369229</v>
       </c>
       <c r="G135" t="n">
-        <v>4.226878589791369</v>
+        <v>3.908146162967376</v>
       </c>
       <c r="H135" t="n">
-        <v>0.64</v>
+        <v>0.96</v>
       </c>
       <c r="I135" t="n">
-        <v>739.49</v>
+        <v>758.03</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>137538650</v>
+        <v>137348991</v>
       </c>
       <c r="E136" t="n">
-        <v>1018804815</v>
+        <v>1017399933</v>
       </c>
       <c r="F136" t="n">
-        <v>40678.39123090405</v>
+        <v>59368.24690467396</v>
       </c>
       <c r="G136" t="n">
-        <v>41262.47286507309</v>
+        <v>59170.38740624298</v>
       </c>
       <c r="H136" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>11942839</v>
+        <v>11834201</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31165124</v>
+        <v>31253206</v>
       </c>
       <c r="E137" t="n">
-        <v>148143593</v>
+        <v>148562293</v>
       </c>
       <c r="F137" t="n">
-        <v>6592.793777518074</v>
+        <v>3619.76273534536</v>
       </c>
       <c r="G137" t="n">
-        <v>5520.316139147828</v>
+        <v>3650.217704173595</v>
       </c>
       <c r="H137" t="n">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="I137" t="n">
-        <v>1234980</v>
+        <v>1238722</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8100760</v>
+        <v>8110863</v>
       </c>
       <c r="E138" t="n">
-        <v>10852760</v>
+        <v>10866296</v>
       </c>
       <c r="F138" t="n">
-        <v>160.2158485847731</v>
+        <v>136.4101594055497</v>
       </c>
       <c r="G138" t="n">
-        <v>103.3204826256011</v>
+        <v>81.77466597080731</v>
       </c>
       <c r="H138" t="n">
-        <v>0.59</v>
+        <v>0.96</v>
       </c>
       <c r="I138" t="n">
-        <v>58583</v>
+        <v>58283</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1238212</v>
+        <v>1250215</v>
       </c>
       <c r="F139" t="n">
-        <v>19.90521279246912</v>
+        <v>19.90561412158144</v>
       </c>
       <c r="G139" t="n">
-        <v>4.014680182486184</v>
+        <v>4.014761126510781</v>
       </c>
       <c r="H139" t="n">
         <v>0.93</v>
       </c>
       <c r="I139" t="n">
-        <v>48016</v>
+        <v>48213</v>
       </c>
     </row>
     <row r="140">
@@ -5309,10 +5309,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2346281</v>
+        <v>2348101</v>
       </c>
       <c r="E140" t="n">
-        <v>2346281</v>
+        <v>2348101</v>
       </c>
       <c r="F140" t="n">
         <v>976.6216375531451</v>
@@ -5324,7 +5324,7 @@
         <v>0.46</v>
       </c>
       <c r="I140" t="n">
-        <v>262200</v>
+        <v>260649</v>
       </c>
     </row>
     <row r="141">
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>25458528</v>
+        <v>25307844</v>
       </c>
       <c r="E141" t="n">
-        <v>25458528</v>
+        <v>25307844</v>
       </c>
       <c r="F141" t="n">
         <v>1188.979175708144</v>
@@ -5359,7 +5359,7 @@
         <v>1.16</v>
       </c>
       <c r="I141" t="n">
-        <v>336563</v>
+        <v>332276</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6449011</v>
+        <v>6487631</v>
       </c>
       <c r="E142" t="n">
-        <v>6810878</v>
+        <v>6851665</v>
       </c>
       <c r="F142" t="n">
-        <v>955.4830145213483</v>
+        <v>819.2911228415961</v>
       </c>
       <c r="G142" t="n">
-        <v>544.7031236538768</v>
+        <v>417.5684271776333</v>
       </c>
       <c r="H142" t="n">
         <v>1.02</v>
       </c>
       <c r="I142" t="n">
-        <v>68789</v>
+        <v>68686</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3338511</v>
+        <v>3431500</v>
       </c>
       <c r="E143" t="n">
-        <v>7795979</v>
+        <v>8013126</v>
       </c>
       <c r="F143" t="n">
-        <v>2715.919714203727</v>
+        <v>1614.452640529442</v>
       </c>
       <c r="G143" t="n">
-        <v>324.031550179444</v>
+        <v>795.0683523205587</v>
       </c>
       <c r="H143" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="I143" t="n">
-        <v>795648</v>
+        <v>773436</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1557292</v>
+        <v>1562288</v>
       </c>
       <c r="E144" t="n">
-        <v>12095096</v>
+        <v>12133904</v>
       </c>
       <c r="F144" t="n">
-        <v>200.0433372364419</v>
+        <v>200.2583111143028</v>
       </c>
       <c r="G144" t="n">
-        <v>9497.126863054933</v>
+        <v>1060.02448996646</v>
       </c>
       <c r="H144" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="I144" t="n">
-        <v>508766</v>
+        <v>508515</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>334563564</v>
+        <v>334352201</v>
       </c>
       <c r="E145" t="n">
-        <v>3009941275</v>
+        <v>3008039725</v>
       </c>
       <c r="F145" t="n">
-        <v>518253.4989205194</v>
+        <v>513180.503237229</v>
       </c>
       <c r="G145" t="n">
-        <v>728235.4562863644</v>
+        <v>741802.1314638916</v>
       </c>
       <c r="H145" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>36556530</v>
+        <v>36604161</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>262021</v>
+        <v>260503</v>
       </c>
       <c r="E146" t="n">
-        <v>2312534</v>
+        <v>2299137</v>
       </c>
       <c r="F146" t="n">
-        <v>4.014561846139736</v>
+        <v>4.169979705204252</v>
       </c>
       <c r="G146" t="n">
-        <v>8.943176867630998</v>
+        <v>5.417522201363899</v>
       </c>
       <c r="H146" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="I146" t="n">
-        <v>75553</v>
+        <v>72239</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>643826</v>
+        <v>643827</v>
       </c>
       <c r="F147" t="n">
-        <v>928.0176232360153</v>
+        <v>928.0596590439608</v>
       </c>
       <c r="G147" t="n">
-        <v>623.5779524034499</v>
+        <v>622.0344973749635</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
       <c r="I147" t="n">
-        <v>5677.08</v>
+        <v>5676.98</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4896824</v>
+        <v>4902034</v>
       </c>
       <c r="E148" t="n">
-        <v>17304028</v>
+        <v>17322441</v>
       </c>
       <c r="F148" t="n">
-        <v>1711.67854256725</v>
+        <v>1576.925631822273</v>
       </c>
       <c r="G148" t="n">
-        <v>2567.066056014015</v>
+        <v>2478.736033244348</v>
       </c>
       <c r="H148" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>106025</v>
+        <v>105791</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8886471</v>
+        <v>8933895</v>
       </c>
       <c r="E149" t="n">
-        <v>41189303</v>
+        <v>41409116</v>
       </c>
       <c r="F149" t="n">
-        <v>1816.059696935592</v>
+        <v>3829.255189620599</v>
       </c>
       <c r="G149" t="n">
-        <v>4927.143610084608</v>
+        <v>3408.796104584771</v>
       </c>
       <c r="H149" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I149" t="n">
-        <v>96665</v>
+        <v>103515</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>42806247</v>
+        <v>42671771</v>
       </c>
       <c r="E150" t="n">
-        <v>247830484</v>
+        <v>247051921</v>
       </c>
       <c r="F150" t="n">
-        <v>75769.35597325009</v>
+        <v>79038.87386122371</v>
       </c>
       <c r="G150" t="n">
-        <v>47453.465993567</v>
+        <v>49288.73911993919</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I150" t="n">
-        <v>10811726</v>
+        <v>10774693</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>80961</v>
+        <v>79537</v>
       </c>
       <c r="E151" t="n">
-        <v>80961</v>
+        <v>79537</v>
       </c>
       <c r="F151" t="n">
-        <v>4.116725607591167</v>
+        <v>4.116808609056712</v>
       </c>
       <c r="G151" t="n">
-        <v>9.314310866688849</v>
+        <v>9.314498661923745</v>
       </c>
       <c r="H151" t="n">
         <v>0.88</v>
       </c>
       <c r="I151" t="n">
-        <v>20183</v>
+        <v>19902.94</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4380520</v>
+        <v>4361601</v>
       </c>
       <c r="F152" t="n">
-        <v>306.76292049292</v>
+        <v>342.4171318147551</v>
       </c>
       <c r="G152" t="n">
-        <v>236.7938387414762</v>
+        <v>250.9549348266058</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="I152" t="n">
-        <v>310828</v>
+        <v>282966</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>38748358</v>
+        <v>38816553</v>
       </c>
       <c r="E153" t="n">
-        <v>53517001</v>
+        <v>53611187</v>
       </c>
       <c r="F153" t="n">
-        <v>740.2723565872178</v>
+        <v>1116.884141596163</v>
       </c>
       <c r="G153" t="n">
-        <v>2860.968127418607</v>
+        <v>1909.338677303959</v>
       </c>
       <c r="H153" t="n">
-        <v>0.93</v>
+        <v>1.16</v>
       </c>
       <c r="I153" t="n">
-        <v>359558</v>
+        <v>361391</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2095160</v>
+        <v>2090279</v>
       </c>
       <c r="E154" t="n">
-        <v>8556089</v>
+        <v>8536160</v>
       </c>
       <c r="F154" t="n">
-        <v>355.6086466304874</v>
+        <v>362.7268741558515</v>
       </c>
       <c r="G154" t="n">
-        <v>1163.652571340252</v>
+        <v>1230.404181168622</v>
       </c>
       <c r="H154" t="n">
         <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>543082</v>
+        <v>547080</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7431630</v>
+        <v>7492593</v>
       </c>
       <c r="E155" t="n">
-        <v>7486871</v>
+        <v>7548287</v>
       </c>
       <c r="F155" t="n">
-        <v>547.619992929735</v>
+        <v>4507.441177759323</v>
       </c>
       <c r="G155" t="n">
-        <v>7831.724584100384</v>
+        <v>3803.564955233449</v>
       </c>
       <c r="H155" t="n">
         <v>0.22</v>
       </c>
       <c r="I155" t="n">
-        <v>5033356</v>
+        <v>5054316</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>554363</v>
+        <v>562995</v>
       </c>
       <c r="E156" t="n">
-        <v>554363</v>
+        <v>562995</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>26.62</v>
+        <v>29.5</v>
       </c>
       <c r="I156" t="n">
-        <v>6506.16</v>
+        <v>5862.4</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13492407</v>
+        <v>13516762</v>
       </c>
       <c r="E157" t="n">
-        <v>13538323</v>
+        <v>13562760</v>
       </c>
       <c r="F157" t="n">
-        <v>2101.036969763574</v>
+        <v>2017.642644491235</v>
       </c>
       <c r="G157" t="n">
-        <v>3894.615752989343</v>
+        <v>3596.046850555515</v>
       </c>
       <c r="H157" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="I157" t="n">
-        <v>5759858</v>
+        <v>5765744</v>
       </c>
     </row>
     <row r="158">
@@ -5939,10 +5939,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42872805</v>
+        <v>42875025</v>
       </c>
       <c r="E158" t="n">
-        <v>72788048</v>
+        <v>72791818</v>
       </c>
       <c r="F158" t="n">
         <v>348.8480695608267</v>
@@ -5954,7 +5954,7 @@
         <v>0.03</v>
       </c>
       <c r="I158" t="n">
-        <v>1111149</v>
+        <v>1108503</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>25137334</v>
+        <v>25164919</v>
       </c>
       <c r="E159" t="n">
-        <v>75349882</v>
+        <v>75432569</v>
       </c>
       <c r="F159" t="n">
-        <v>16140.65177437025</v>
+        <v>12821.46078418824</v>
       </c>
       <c r="G159" t="n">
-        <v>10674.60853281735</v>
+        <v>11501.8378315507</v>
       </c>
       <c r="H159" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>2516357</v>
+        <v>2559299</v>
       </c>
     </row>
     <row r="160">
@@ -6009,10 +6009,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101052516</v>
+        <v>101078012</v>
       </c>
       <c r="E160" t="n">
-        <v>107427957</v>
+        <v>107455061</v>
       </c>
       <c r="F160" t="n">
         <v>1003.103300573781</v>
@@ -6024,7 +6024,7 @@
         <v>0.87</v>
       </c>
       <c r="I160" t="n">
-        <v>978492</v>
+        <v>949454</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10659484</v>
+        <v>10636983</v>
       </c>
       <c r="E161" t="n">
-        <v>46380087</v>
+        <v>46282503</v>
       </c>
       <c r="F161" t="n">
-        <v>3640.08493080212</v>
+        <v>3648.157957466153</v>
       </c>
       <c r="G161" t="n">
-        <v>2982.124593791227</v>
+        <v>3968.050094404191</v>
       </c>
       <c r="H161" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="I161" t="n">
-        <v>110866</v>
+        <v>111051</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15138993</v>
+        <v>15048345</v>
       </c>
       <c r="E162" t="n">
-        <v>92791864</v>
+        <v>92236255</v>
       </c>
       <c r="F162" t="n">
-        <v>5767.42264380972</v>
+        <v>1550.455615449887</v>
       </c>
       <c r="G162" t="n">
-        <v>1226.053389347236</v>
+        <v>1660.613989797926</v>
       </c>
       <c r="H162" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I162" t="n">
-        <v>11727183</v>
+        <v>11341526</v>
       </c>
     </row>
     <row r="163">
@@ -6114,10 +6114,10 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1490650</v>
+        <v>1492340</v>
       </c>
       <c r="E163" t="n">
-        <v>1532580</v>
+        <v>1534318</v>
       </c>
       <c r="F163" t="n">
         <v>75.92616872172869</v>
@@ -6129,7 +6129,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="I163" t="n">
-        <v>130906</v>
+        <v>131645</v>
       </c>
     </row>
     <row r="164">
@@ -6145,16 +6145,16 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97032</v>
+        <v>97025</v>
       </c>
       <c r="E164" t="n">
-        <v>275256</v>
+        <v>275238</v>
       </c>
       <c r="F164" t="n">
-        <v>3.884673000917805</v>
+        <v>3.884848962412618</v>
       </c>
       <c r="G164" t="n">
-        <v>80.52480540993186</v>
+        <v>80.52845288943041</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
@@ -6180,10 +6180,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46454550</v>
+        <v>46559965</v>
       </c>
       <c r="E165" t="n">
-        <v>200121120</v>
+        <v>200575238</v>
       </c>
       <c r="F165" t="n">
         <v>4441.020337128358</v>
@@ -6195,7 +6195,7 @@
         <v>0.09</v>
       </c>
       <c r="I165" t="n">
-        <v>8655414</v>
+        <v>8696391</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7910092</v>
+        <v>7882482</v>
       </c>
       <c r="F166" t="n">
-        <v>503.7434907949243</v>
+        <v>503.9028700254117</v>
       </c>
       <c r="G166" t="n">
-        <v>1746.483033351621</v>
+        <v>1746.51824596114</v>
       </c>
       <c r="H166" t="n">
         <v>0.09</v>
       </c>
       <c r="I166" t="n">
-        <v>6353774</v>
+        <v>6327231</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>663965</v>
+        <v>663903</v>
       </c>
       <c r="E167" t="n">
-        <v>2397314</v>
+        <v>2397092</v>
       </c>
       <c r="F167" t="n">
-        <v>50.88389178244444</v>
+        <v>50.65249221559475</v>
       </c>
       <c r="G167" t="n">
-        <v>10.27155838142538</v>
+        <v>10.90161260539158</v>
       </c>
       <c r="H167" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="I167" t="n">
-        <v>392706</v>
+        <v>393840</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1612366</v>
+        <v>1648990</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>5.78</v>
       </c>
       <c r="I168" t="n">
-        <v>84914</v>
+        <v>82678</v>
       </c>
     </row>
     <row r="169">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12896882</v>
+        <v>12971467</v>
       </c>
       <c r="E169" t="n">
-        <v>12896882</v>
+        <v>12971467</v>
       </c>
       <c r="F169" t="n">
         <v>2006.839155525504</v>
@@ -6335,7 +6335,7 @@
         <v>2.89</v>
       </c>
       <c r="I169" t="n">
-        <v>2964231</v>
+        <v>3012173</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1664247</v>
+        <v>1664025</v>
       </c>
       <c r="E170" t="n">
-        <v>6047627</v>
+        <v>6046821</v>
       </c>
       <c r="F170" t="n">
-        <v>197.3519450737742</v>
+        <v>886.3825401532506</v>
       </c>
       <c r="G170" t="n">
-        <v>174.3044009105602</v>
+        <v>280.1183489644612</v>
       </c>
       <c r="H170" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I170" t="n">
-        <v>134593</v>
+        <v>134601</v>
       </c>
     </row>
     <row r="171">
@@ -6390,10 +6390,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8887190</v>
+        <v>8881453</v>
       </c>
       <c r="E171" t="n">
-        <v>19734338</v>
+        <v>19721599</v>
       </c>
       <c r="F171" t="n">
         <v>1871.265598973077</v>
@@ -6405,7 +6405,7 @@
         <v>0.16</v>
       </c>
       <c r="I171" t="n">
-        <v>415426</v>
+        <v>414933</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1018546</v>
+        <v>1017397</v>
       </c>
       <c r="E172" t="n">
-        <v>2977034</v>
+        <v>2973675</v>
       </c>
       <c r="F172" t="n">
-        <v>88.00176452186149</v>
+        <v>88.00151527613083</v>
       </c>
       <c r="G172" t="n">
-        <v>126.6959694417578</v>
+        <v>126.6956106031635</v>
       </c>
       <c r="H172" t="n">
         <v>0.27</v>
       </c>
       <c r="I172" t="n">
-        <v>10564.88</v>
+        <v>10242.61</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20186094</v>
+        <v>20300458</v>
       </c>
       <c r="E173" t="n">
-        <v>80744376</v>
+        <v>81201833</v>
       </c>
       <c r="F173" t="n">
-        <v>20603.05266466989</v>
+        <v>16492.98136343374</v>
       </c>
       <c r="G173" t="n">
-        <v>27264.27840834289</v>
+        <v>29091.52570115241</v>
       </c>
       <c r="H173" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="I173" t="n">
-        <v>5500002</v>
+        <v>5973294</v>
       </c>
     </row>
     <row r="174">
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4270546</v>
+        <v>4263482</v>
       </c>
       <c r="E174" t="n">
-        <v>4270546</v>
+        <v>4263482</v>
       </c>
       <c r="F174" t="n">
         <v>2482.573136581383</v>
@@ -6510,7 +6510,7 @@
         <v>0.46</v>
       </c>
       <c r="I174" t="n">
-        <v>2492357</v>
+        <v>2496992</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>292715492</v>
+        <v>294702728</v>
       </c>
       <c r="E175" t="n">
-        <v>292715492</v>
+        <v>294702728</v>
       </c>
       <c r="F175" t="n">
-        <v>9730.788560502813</v>
+        <v>3268.738086055873</v>
       </c>
       <c r="G175" t="n">
-        <v>2902.036134970622</v>
+        <v>4274.578631718649</v>
       </c>
       <c r="H175" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I175" t="n">
-        <v>12160675</v>
+        <v>12206385</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12702297</v>
+        <v>12759702</v>
       </c>
       <c r="E176" t="n">
-        <v>40186305</v>
+        <v>40367919</v>
       </c>
       <c r="F176" t="n">
-        <v>3881.867236361673</v>
+        <v>2122.871392533324</v>
       </c>
       <c r="G176" t="n">
-        <v>3389.1777638476</v>
+        <v>3646.225636850563</v>
       </c>
       <c r="H176" t="n">
         <v>0.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1492419</v>
+        <v>1479242</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26630</v>
+        <v>26599</v>
       </c>
       <c r="E177" t="n">
-        <v>209440</v>
+        <v>209193</v>
       </c>
       <c r="F177" t="n">
-        <v>152.2325430762066</v>
+        <v>92.49695703754352</v>
       </c>
       <c r="G177" t="n">
-        <v>517.3332910729602</v>
+        <v>626.1788071722332</v>
       </c>
       <c r="H177" t="n">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I177" t="n">
-        <v>129254</v>
+        <v>129370</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8074141</v>
+        <v>8101593</v>
       </c>
       <c r="E178" t="n">
-        <v>8074141</v>
+        <v>8101593</v>
       </c>
       <c r="F178" t="n">
-        <v>2147.02813347424</v>
+        <v>1583.279137964052</v>
       </c>
       <c r="G178" t="n">
-        <v>2264.324605579772</v>
+        <v>1519.518987841756</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I178" t="n">
-        <v>3461219</v>
+        <v>3425363</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1087810</v>
+        <v>1087725</v>
       </c>
       <c r="E179" t="n">
-        <v>2477594</v>
+        <v>2477400</v>
       </c>
       <c r="F179" t="n">
-        <v>262.8822558872475</v>
+        <v>262.8959780801898</v>
       </c>
       <c r="G179" t="n">
-        <v>181.4716651386453</v>
+        <v>181.4811377795209</v>
       </c>
       <c r="H179" t="n">
         <v>0.13</v>
       </c>
       <c r="I179" t="n">
-        <v>4843.95</v>
+        <v>4841.6</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9216232</v>
+        <v>9328139</v>
       </c>
       <c r="E180" t="n">
-        <v>9216232</v>
+        <v>9328139</v>
       </c>
       <c r="F180" t="n">
-        <v>2624.200181999789</v>
+        <v>2750.777691868837</v>
       </c>
       <c r="G180" t="n">
-        <v>2404.779057642234</v>
+        <v>3473.285122516239</v>
       </c>
       <c r="H180" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="I180" t="n">
-        <v>2971598</v>
+        <v>2919109</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>16836692</v>
+        <v>16845245</v>
       </c>
       <c r="E181" t="n">
-        <v>16836692</v>
+        <v>16845245</v>
       </c>
       <c r="F181" t="n">
-        <v>2727.619440160996</v>
+        <v>1978.014224261668</v>
       </c>
       <c r="G181" t="n">
-        <v>3386.831529171389</v>
+        <v>2384.175644598354</v>
       </c>
       <c r="H181" t="n">
         <v>0.18</v>
       </c>
       <c r="I181" t="n">
-        <v>3252242</v>
+        <v>3234982</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31398368</v>
+        <v>31230338</v>
       </c>
       <c r="E182" t="n">
-        <v>86970363</v>
+        <v>86504938</v>
       </c>
       <c r="F182" t="n">
-        <v>4440.833016844195</v>
+        <v>5264.805942555448</v>
       </c>
       <c r="G182" t="n">
-        <v>5498.414499568284</v>
+        <v>5913.126784974761</v>
       </c>
       <c r="H182" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I182" t="n">
-        <v>12010044</v>
+        <v>11747693</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>36820248</v>
+        <v>37033917</v>
       </c>
       <c r="E183" t="n">
-        <v>92842987</v>
+        <v>93381760</v>
       </c>
       <c r="F183" t="n">
-        <v>14977.8848875369</v>
+        <v>10853.08818706203</v>
       </c>
       <c r="G183" t="n">
-        <v>8664.635660399466</v>
+        <v>12353.51191614296</v>
       </c>
       <c r="H183" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="I183" t="n">
-        <v>2849805</v>
+        <v>2861521</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>296848032</v>
+        <v>297687512</v>
       </c>
       <c r="E184" t="n">
-        <v>301486461</v>
+        <v>302340229</v>
       </c>
       <c r="F184" t="n">
-        <v>38991.09205898587</v>
+        <v>19227.58755186618</v>
       </c>
       <c r="G184" t="n">
-        <v>17717.25573903906</v>
+        <v>27904.90324474746</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>11558398</v>
+        <v>11596848</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>404177</v>
+        <v>405078</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>335.0187290177707</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2.458888492000147</v>
       </c>
       <c r="H185" t="n">
-        <v>3.94</v>
+        <v>1.48</v>
       </c>
       <c r="I185" t="n">
-        <v>62149</v>
+        <v>62339</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28220522</v>
+        <v>28561769</v>
       </c>
       <c r="E186" t="n">
-        <v>67044943</v>
+        <v>67855663</v>
       </c>
       <c r="F186" t="n">
-        <v>10451.07947234069</v>
+        <v>10497.78471855896</v>
       </c>
       <c r="G186" t="n">
-        <v>10672.03413485538</v>
+        <v>2516.157470064687</v>
       </c>
       <c r="H186" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I186" t="n">
-        <v>489799</v>
+        <v>505042</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>19506851</v>
+        <v>19507846</v>
       </c>
       <c r="F187" t="n">
-        <v>3.872453894252544</v>
+        <v>3.872531970709203</v>
       </c>
       <c r="G187" t="n">
-        <v>2682.263683697448</v>
+        <v>2682.308757286193</v>
       </c>
       <c r="H187" t="n">
         <v>0.85</v>
       </c>
       <c r="I187" t="n">
-        <v>1381.86</v>
+        <v>1380.96</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12084209</v>
+        <v>12100076</v>
       </c>
       <c r="E188" t="n">
-        <v>18417131</v>
+        <v>18441314</v>
       </c>
       <c r="F188" t="n">
-        <v>3609.496392736374</v>
+        <v>1201.579556069171</v>
       </c>
       <c r="G188" t="n">
-        <v>1242.795973211119</v>
+        <v>921.8120028221539</v>
       </c>
       <c r="H188" t="n">
         <v>0.77</v>
       </c>
       <c r="I188" t="n">
-        <v>669641</v>
+        <v>672952</v>
       </c>
     </row>
     <row r="189">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>80241425</v>
+        <v>79244433</v>
       </c>
       <c r="E189" t="n">
-        <v>80241425</v>
+        <v>79244433</v>
       </c>
       <c r="F189" t="n">
         <v>10093.74364559514</v>
@@ -7035,7 +7035,7 @@
         <v>0.08</v>
       </c>
       <c r="I189" t="n">
-        <v>4997139</v>
+        <v>4968903</v>
       </c>
     </row>
     <row r="190">
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>298572815</v>
+        <v>298505069</v>
       </c>
       <c r="E190" t="n">
-        <v>298572815</v>
+        <v>298505069</v>
       </c>
       <c r="F190" t="n">
         <v>188165.8411510184</v>
@@ -7070,7 +7070,7 @@
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>50118702</v>
+        <v>50027759</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9538257</v>
+        <v>9576659</v>
       </c>
       <c r="E191" t="n">
-        <v>27080702</v>
+        <v>27189733</v>
       </c>
       <c r="F191" t="n">
-        <v>755.3932033055025</v>
+        <v>720.1542177291757</v>
       </c>
       <c r="G191" t="n">
-        <v>1160.838091738386</v>
+        <v>1051.380714740384</v>
       </c>
       <c r="H191" t="n">
         <v>1.48</v>
       </c>
       <c r="I191" t="n">
-        <v>110133</v>
+        <v>107063</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4159408</v>
+        <v>4254301</v>
       </c>
       <c r="E192" t="n">
-        <v>28420941</v>
+        <v>29069339</v>
       </c>
       <c r="F192" t="n">
-        <v>2168.90646698233</v>
+        <v>1759.535497054096</v>
       </c>
       <c r="G192" t="n">
-        <v>3102.027454363729</v>
+        <v>2851.931677319955</v>
       </c>
       <c r="H192" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="I192" t="n">
-        <v>2568554</v>
+        <v>2562274</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2958794</v>
+        <v>2957112</v>
       </c>
       <c r="E193" t="n">
-        <v>4391601</v>
+        <v>4389105</v>
       </c>
       <c r="F193" t="n">
-        <v>235.8083624994948</v>
+        <v>571.7515885979266</v>
       </c>
       <c r="G193" t="n">
-        <v>466.8044463314179</v>
+        <v>123.7972936244142</v>
       </c>
       <c r="H193" t="n">
-        <v>1.14</v>
+        <v>0.68</v>
       </c>
       <c r="I193" t="n">
-        <v>230751</v>
+        <v>228644</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>88914497</v>
+        <v>88786309</v>
       </c>
       <c r="E194" t="n">
-        <v>512363681</v>
+        <v>511625008</v>
       </c>
       <c r="F194" t="n">
-        <v>481490.6911536722</v>
+        <v>372083.7934001396</v>
       </c>
       <c r="G194" t="n">
-        <v>495476.2614984091</v>
+        <v>562879.509205868</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I194" t="n">
-        <v>16093537</v>
+        <v>16064925</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>724765</v>
+        <v>725481</v>
       </c>
       <c r="E195" t="n">
-        <v>790424</v>
+        <v>791204</v>
       </c>
       <c r="F195" t="n">
-        <v>4.060745808814666</v>
+        <v>4.060963674676752</v>
       </c>
       <c r="G195" t="n">
-        <v>3.998521920171583</v>
+        <v>3.998736447617087</v>
       </c>
       <c r="H195" t="n">
         <v>0.18</v>
       </c>
       <c r="I195" t="n">
-        <v>84234</v>
+        <v>84443</v>
       </c>
     </row>
     <row r="196">
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>107019443</v>
+        <v>107151654</v>
       </c>
       <c r="E196" t="n">
-        <v>263309641</v>
+        <v>263634932</v>
       </c>
       <c r="F196" t="n">
         <v>14946.50746014858</v>
@@ -7280,7 +7280,7 @@
         <v>0.61</v>
       </c>
       <c r="I196" t="n">
-        <v>2222501</v>
+        <v>2383220</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17742790</v>
+        <v>17745694</v>
       </c>
       <c r="E197" t="n">
-        <v>17742790</v>
+        <v>17745694</v>
       </c>
       <c r="F197" t="n">
-        <v>5.544202838659461</v>
+        <v>5.544903996826128</v>
       </c>
       <c r="G197" t="n">
-        <v>45.24372234384671</v>
+        <v>60.07474167183214</v>
       </c>
       <c r="H197" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="I197" t="n">
-        <v>39154</v>
+        <v>38859</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1333636</v>
+        <v>1322674</v>
       </c>
       <c r="F198" t="n">
-        <v>291.7812933398957</v>
+        <v>18.67908866606836</v>
       </c>
       <c r="G198" t="n">
-        <v>5.505044728761243</v>
+        <v>5.505137942663533</v>
       </c>
       <c r="H198" t="n">
         <v>0.67</v>
       </c>
       <c r="I198" t="n">
-        <v>17388.76</v>
+        <v>19764.76</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>135819</v>
+        <v>136020</v>
       </c>
       <c r="E199" t="n">
-        <v>295675</v>
+        <v>296113</v>
       </c>
       <c r="F199" t="n">
-        <v>10.32247145158781</v>
+        <v>10.32264623633392</v>
       </c>
       <c r="G199" t="n">
-        <v>5.273300025298868</v>
+        <v>5.27338931519523</v>
       </c>
       <c r="H199" t="n">
         <v>0.27</v>
       </c>
       <c r="I199" t="n">
-        <v>562.8</v>
+        <v>556.73</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2312380</v>
+        <v>2322643</v>
       </c>
       <c r="F200" t="n">
-        <v>1445.333908154467</v>
+        <v>595.0715548270308</v>
       </c>
       <c r="G200" t="n">
-        <v>1186.309575102385</v>
+        <v>505.907489532191</v>
       </c>
       <c r="H200" t="n">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="I200" t="n">
-        <v>155275</v>
+        <v>154957</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>186026</v>
+        <v>181697</v>
       </c>
       <c r="E201" t="n">
-        <v>1436497</v>
+        <v>1403064</v>
       </c>
       <c r="F201" t="n">
-        <v>6.843840625074304</v>
+        <v>5.579715413889732</v>
       </c>
       <c r="G201" t="n">
-        <v>122.7297915232246</v>
+        <v>216.8627574272629</v>
       </c>
       <c r="H201" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="I201" t="n">
-        <v>120138</v>
+        <v>126143</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30321121</v>
+        <v>30298306</v>
       </c>
       <c r="E202" t="n">
-        <v>135760097</v>
+        <v>135657945</v>
       </c>
       <c r="F202" t="n">
-        <v>8199.584400612448</v>
+        <v>12907.11635450407</v>
       </c>
       <c r="G202" t="n">
-        <v>16310.56541150047</v>
+        <v>10455.96900611192</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I202" t="n">
-        <v>8804501</v>
+        <v>8785201</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13092618</v>
+        <v>13081465</v>
       </c>
       <c r="E203" t="n">
-        <v>26173804</v>
+        <v>26151508</v>
       </c>
       <c r="F203" t="n">
-        <v>719.9994508163828</v>
+        <v>720.0212896478071</v>
       </c>
       <c r="G203" t="n">
-        <v>704.5804611056019</v>
+        <v>704.6018322523403</v>
       </c>
       <c r="H203" t="n">
         <v>0.39</v>
       </c>
       <c r="I203" t="n">
-        <v>46249</v>
+        <v>46224</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1449398</v>
+        <v>1457692</v>
       </c>
       <c r="F204" t="n">
-        <v>1229.606171601181</v>
+        <v>598.0892859792747</v>
       </c>
       <c r="G204" t="n">
-        <v>265.3650968130243</v>
+        <v>329.9532640898503</v>
       </c>
       <c r="H204" t="n">
-        <v>2.34</v>
+        <v>3.37</v>
       </c>
       <c r="I204" t="n">
-        <v>68273</v>
+        <v>65837</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1010236</v>
+        <v>1010208</v>
       </c>
       <c r="E205" t="n">
-        <v>4672485</v>
+        <v>4672357</v>
       </c>
       <c r="F205" t="n">
-        <v>4601.528017049823</v>
+        <v>3674.317095026257</v>
       </c>
       <c r="G205" t="n">
-        <v>2126.55299368886</v>
+        <v>2843.846617343744</v>
       </c>
       <c r="H205" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="I205" t="n">
-        <v>483107</v>
+        <v>487360</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3076273</v>
+        <v>3071433</v>
       </c>
       <c r="E206" t="n">
-        <v>3076273</v>
+        <v>3071433</v>
       </c>
       <c r="F206" t="n">
-        <v>606.3769640884445</v>
+        <v>602.4500984966622</v>
       </c>
       <c r="G206" t="n">
-        <v>768.7765165914784</v>
+        <v>778.7422690608167</v>
       </c>
       <c r="H206" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="I206" t="n">
-        <v>403869</v>
+        <v>403358</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>574329</v>
+        <v>575136</v>
       </c>
       <c r="E207" t="n">
-        <v>574329</v>
+        <v>575136</v>
       </c>
       <c r="F207" t="n">
-        <v>322.5788247040157</v>
+        <v>422.5647647523231</v>
       </c>
       <c r="G207" t="n">
-        <v>5.28323136714674</v>
+        <v>5.283337887713834</v>
       </c>
       <c r="H207" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="I207" t="n">
-        <v>1407616</v>
+        <v>1406005</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13869685</v>
+        <v>13722717</v>
       </c>
       <c r="E208" t="n">
-        <v>17658324</v>
+        <v>17471210</v>
       </c>
       <c r="F208" t="n">
-        <v>228.9196487484657</v>
+        <v>255.7913653463605</v>
       </c>
       <c r="G208" t="n">
-        <v>132.6495175116986</v>
+        <v>441.28765070153</v>
       </c>
       <c r="H208" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I208" t="n">
-        <v>789730</v>
+        <v>791713</v>
       </c>
     </row>
     <row r="209">
@@ -7720,10 +7720,10 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1880470</v>
+        <v>1931064</v>
       </c>
       <c r="E209" t="n">
-        <v>1880470</v>
+        <v>1931064</v>
       </c>
       <c r="F209" t="n">
         <v>3.994697584578335</v>
@@ -7735,7 +7735,7 @@
         <v>0.33</v>
       </c>
       <c r="I209" t="n">
-        <v>2201.56</v>
+        <v>2220.49</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6043934</v>
+        <v>6033283</v>
       </c>
       <c r="E210" t="n">
-        <v>15862330</v>
+        <v>15834376</v>
       </c>
       <c r="F210" t="n">
-        <v>6595.104929609698</v>
+        <v>500.077038319607</v>
       </c>
       <c r="G210" t="n">
-        <v>739.5484762414576</v>
+        <v>1225.123443882538</v>
       </c>
       <c r="H210" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="I210" t="n">
-        <v>74161</v>
+        <v>74016</v>
       </c>
     </row>
     <row r="211">
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29800662</v>
+        <v>29645036</v>
       </c>
       <c r="F211" t="n">
         <v>776.3181611362781</v>
@@ -7805,7 +7805,7 @@
         <v>1.53</v>
       </c>
       <c r="I211" t="n">
-        <v>354013</v>
+        <v>348187</v>
       </c>
     </row>
     <row r="212">
@@ -7825,10 +7825,10 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17869554</v>
+        <v>17871668</v>
       </c>
       <c r="E212" t="n">
-        <v>17869554</v>
+        <v>17871668</v>
       </c>
       <c r="F212" t="n">
         <v>26000.3540130416</v>
@@ -7840,7 +7840,7 @@
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2990090</v>
+        <v>3002575</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47148036</v>
+        <v>47167970</v>
       </c>
       <c r="E213" t="n">
-        <v>305742467</v>
+        <v>305871730</v>
       </c>
       <c r="F213" t="n">
-        <v>133613.7151924307</v>
+        <v>148344.8824266522</v>
       </c>
       <c r="G213" t="n">
-        <v>278908.6374228311</v>
+        <v>205484.6087814948</v>
       </c>
       <c r="H213" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I213" t="n">
-        <v>17345134</v>
+        <v>17326438</v>
       </c>
     </row>
     <row r="214">
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9354394</v>
+        <v>9366084</v>
       </c>
       <c r="F214" t="n">
         <v>89.7890432594222</v>
@@ -7910,7 +7910,7 @@
         <v>0.54</v>
       </c>
       <c r="I214" t="n">
-        <v>300346</v>
+        <v>34108</v>
       </c>
     </row>
     <row r="215">
@@ -7930,10 +7930,10 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7039621</v>
+        <v>7036267</v>
       </c>
       <c r="E215" t="n">
-        <v>7049705</v>
+        <v>7046347</v>
       </c>
       <c r="F215" t="n">
         <v>94.26133753248567</v>
@@ -7945,7 +7945,7 @@
         <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>968933</v>
+        <v>966054</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4835965</v>
+        <v>4834132</v>
       </c>
       <c r="F216" t="n">
-        <v>2109.590063395372</v>
+        <v>1908.173904166345</v>
       </c>
       <c r="G216" t="n">
-        <v>156.0970158934792</v>
+        <v>144.5921198899299</v>
       </c>
       <c r="H216" t="n">
-        <v>0.17</v>
+        <v>0.66</v>
       </c>
       <c r="I216" t="n">
-        <v>160219</v>
+        <v>160483</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2606722</v>
+        <v>2605080</v>
       </c>
       <c r="E217" t="n">
-        <v>4722567</v>
+        <v>4719593</v>
       </c>
       <c r="F217" t="n">
-        <v>914.9790529778149</v>
+        <v>668.1456271583135</v>
       </c>
       <c r="G217" t="n">
-        <v>118.1761370252692</v>
+        <v>156.5300903297791</v>
       </c>
       <c r="H217" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="I217" t="n">
-        <v>101103</v>
+        <v>100329</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125214987</v>
+        <v>125136488</v>
       </c>
       <c r="E218" t="n">
-        <v>2073662736</v>
+        <v>2072362732</v>
       </c>
       <c r="F218" t="n">
-        <v>5114.812185569724</v>
+        <v>4336.747187677789</v>
       </c>
       <c r="G218" t="n">
-        <v>13625.24784056492</v>
+        <v>13229.21217602711</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>5069540</v>
+        <v>5016231</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>73207395</v>
+        <v>73308688</v>
       </c>
       <c r="E219" t="n">
-        <v>73995425</v>
+        <v>74097808</v>
       </c>
       <c r="F219" t="n">
-        <v>13487.46833857052</v>
+        <v>12276.06066693782</v>
       </c>
       <c r="G219" t="n">
-        <v>21022.22788434772</v>
+        <v>19351.66249880748</v>
       </c>
       <c r="H219" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I219" t="n">
-        <v>8610378</v>
+        <v>8610011</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>234664794</v>
+        <v>235840497</v>
       </c>
       <c r="E220" t="n">
-        <v>234664794</v>
+        <v>235840497</v>
       </c>
       <c r="F220" t="n">
-        <v>97440.44284515755</v>
+        <v>86102.64754198595</v>
       </c>
       <c r="G220" t="n">
-        <v>136335.9726553748</v>
+        <v>123606.3491731942</v>
       </c>
       <c r="H220" t="n">
         <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>43751741</v>
+        <v>44014322</v>
       </c>
     </row>
     <row r="221">
@@ -8140,10 +8140,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23139203</v>
+        <v>23114280</v>
       </c>
       <c r="E221" t="n">
-        <v>138446505</v>
+        <v>138297384</v>
       </c>
       <c r="F221" t="n">
         <v>101061.0891850991</v>
@@ -8155,7 +8155,7 @@
         <v>0.14</v>
       </c>
       <c r="I221" t="n">
-        <v>12582399</v>
+        <v>12564977</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1003801</v>
+        <v>1020114</v>
       </c>
       <c r="F222" t="n">
-        <v>326.8120642788794</v>
+        <v>102.70122433408</v>
       </c>
       <c r="G222" t="n">
-        <v>364.8807854336367</v>
+        <v>130.888208146959</v>
       </c>
       <c r="H222" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="I222" t="n">
-        <v>66801</v>
+        <v>68366</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2288485</v>
+        <v>2279456</v>
       </c>
       <c r="F223" t="n">
-        <v>146.5719726225789</v>
+        <v>131.189705941718</v>
       </c>
       <c r="G223" t="n">
-        <v>202.7991174022471</v>
+        <v>210.6299927307931</v>
       </c>
       <c r="H223" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I223" t="n">
-        <v>214018</v>
+        <v>212329</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14260074</v>
+        <v>14387968</v>
       </c>
       <c r="E224" t="n">
-        <v>43759163</v>
+        <v>44151626</v>
       </c>
       <c r="F224" t="n">
-        <v>743.239270081752</v>
+        <v>1507.879996938141</v>
       </c>
       <c r="G224" t="n">
-        <v>1292.593445885919</v>
+        <v>862.6510486463634</v>
       </c>
       <c r="H224" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="I224" t="n">
-        <v>2569645</v>
+        <v>2583425</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52080177</v>
+        <v>52252351</v>
       </c>
       <c r="E225" t="n">
-        <v>89953788</v>
+        <v>90251169</v>
       </c>
       <c r="F225" t="n">
-        <v>6870.137595412881</v>
+        <v>14419.99783509732</v>
       </c>
       <c r="G225" t="n">
-        <v>12794.97572757085</v>
+        <v>12244.27020241982</v>
       </c>
       <c r="H225" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="I225" t="n">
-        <v>1970039</v>
+        <v>1985662</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4181847</v>
+        <v>4176495</v>
       </c>
       <c r="E226" t="n">
-        <v>4181847</v>
+        <v>4176495</v>
       </c>
       <c r="F226" t="n">
-        <v>30.40066910018739</v>
+        <v>30.40727662418568</v>
       </c>
       <c r="G226" t="n">
-        <v>13.63434703239885</v>
+        <v>4.164343813593673</v>
       </c>
       <c r="H226" t="n">
         <v>0.73</v>
       </c>
       <c r="I226" t="n">
-        <v>1531649</v>
+        <v>1534056</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211580</v>
+        <v>211491</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>59201</v>
+        <v>59185</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6716512</v>
+        <v>6708998</v>
       </c>
       <c r="E228" t="n">
-        <v>34554411</v>
+        <v>34515758</v>
       </c>
       <c r="F228" t="n">
-        <v>338.8316872739529</v>
+        <v>298.2999689089248</v>
       </c>
       <c r="G228" t="n">
-        <v>260.73779244875</v>
+        <v>260.7412802202836</v>
       </c>
       <c r="H228" t="n">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
       <c r="I228" t="n">
-        <v>776287</v>
+        <v>904302</v>
       </c>
     </row>
     <row r="229">
@@ -8447,10 +8447,10 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>175163753</v>
+        <v>175140481</v>
       </c>
       <c r="E230" t="n">
-        <v>204642984</v>
+        <v>204615795</v>
       </c>
       <c r="F230" t="n">
         <v>24981.6058321066</v>
@@ -8462,7 +8462,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I230" t="n">
-        <v>3902216</v>
+        <v>3834984</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>301380</v>
+        <v>300484</v>
       </c>
       <c r="F231" t="n">
-        <v>173.5646184374118</v>
+        <v>4.244682482050378</v>
       </c>
       <c r="G231" t="n">
-        <v>27.04112022023833</v>
+        <v>130.0343899157088</v>
       </c>
       <c r="H231" t="n">
-        <v>0.47</v>
+        <v>0.83</v>
       </c>
       <c r="I231" t="n">
-        <v>269788</v>
+        <v>272100</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>28892447</v>
+        <v>28814245</v>
       </c>
       <c r="E232" t="n">
-        <v>39616595</v>
+        <v>39509368</v>
       </c>
       <c r="F232" t="n">
-        <v>5442.509460969823</v>
+        <v>5757.811098410485</v>
       </c>
       <c r="G232" t="n">
-        <v>6121.066449846962</v>
+        <v>5625.095270034884</v>
       </c>
       <c r="H232" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I232" t="n">
-        <v>294664</v>
+        <v>297189</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1656773</v>
+        <v>1615288</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1595666</v>
+        <v>1593987</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8055247</v>
+        <v>8049402</v>
       </c>
       <c r="F234" t="n">
-        <v>526.5220962367703</v>
+        <v>454.4561340156224</v>
       </c>
       <c r="G234" t="n">
-        <v>3329.521555922757</v>
+        <v>3286.458452833922</v>
       </c>
       <c r="H234" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I234" t="n">
-        <v>686672</v>
+        <v>684923</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23483924</v>
+        <v>23785421</v>
       </c>
       <c r="E235" t="n">
-        <v>23483924</v>
+        <v>23790053</v>
       </c>
       <c r="F235" t="n">
-        <v>4312.696991903017</v>
+        <v>4045.90728604583</v>
       </c>
       <c r="G235" t="n">
-        <v>41015.06504067047</v>
+        <v>40699.59994919303</v>
       </c>
       <c r="H235" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I235" t="n">
-        <v>1743273</v>
+        <v>1787945</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3308664</v>
+        <v>3326945</v>
       </c>
       <c r="E236" t="n">
-        <v>4432165</v>
+        <v>4456654</v>
       </c>
       <c r="F236" t="n">
-        <v>174.2941317034485</v>
+        <v>139.9432217148442</v>
       </c>
       <c r="G236" t="n">
-        <v>166.2796872317905</v>
+        <v>226.5628973599092</v>
       </c>
       <c r="H236" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I236" t="n">
-        <v>146842</v>
+        <v>147713</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34005450</v>
+        <v>33915890</v>
       </c>
       <c r="E237" t="n">
-        <v>169702873</v>
+        <v>169255928</v>
       </c>
       <c r="F237" t="n">
-        <v>69835.66390251133</v>
+        <v>63331.63939833792</v>
       </c>
       <c r="G237" t="n">
-        <v>77441.98961364783</v>
+        <v>82907.88840885489</v>
       </c>
       <c r="H237" t="n">
         <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>10006478</v>
+        <v>9953666</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26439376</v>
+        <v>26503793</v>
       </c>
       <c r="E238" t="n">
-        <v>59604031</v>
+        <v>59749250</v>
       </c>
       <c r="F238" t="n">
-        <v>533.50199447233</v>
+        <v>544.9570515232432</v>
       </c>
       <c r="G238" t="n">
-        <v>168.6492776361438</v>
+        <v>96.90851513674937</v>
       </c>
       <c r="H238" t="n">
-        <v>1.12</v>
+        <v>0.44</v>
       </c>
       <c r="I238" t="n">
-        <v>437163</v>
+        <v>437542</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1861265</v>
+        <v>1898572</v>
       </c>
       <c r="E239" t="n">
-        <v>1861265</v>
+        <v>1898572</v>
       </c>
       <c r="F239" t="n">
-        <v>163.5125045261492</v>
+        <v>163.5152731936843</v>
       </c>
       <c r="G239" t="n">
-        <v>89.70756141927203</v>
+        <v>89.70908038819539</v>
       </c>
       <c r="H239" t="n">
         <v>0.26</v>
       </c>
       <c r="I239" t="n">
-        <v>8608.17</v>
+        <v>11072.49</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71846416</v>
+        <v>71874784</v>
       </c>
       <c r="F240" t="n">
-        <v>4.091558708229371</v>
+        <v>4.091723865708354</v>
       </c>
       <c r="G240" t="n">
-        <v>4.219938598983037</v>
+        <v>4.220108938570018</v>
       </c>
       <c r="H240" t="n">
         <v>0.72</v>
       </c>
       <c r="I240" t="n">
-        <v>68762</v>
+        <v>68751</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>914471</v>
+        <v>912958</v>
       </c>
       <c r="E241" t="n">
-        <v>914471</v>
+        <v>912958</v>
       </c>
       <c r="F241" t="n">
-        <v>3.901865585792775</v>
+        <v>5.132070602072112</v>
       </c>
       <c r="G241" t="n">
-        <v>5.384074704700911</v>
+        <v>25.07420213461543</v>
       </c>
       <c r="H241" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="I241" t="n">
-        <v>16433.33</v>
+        <v>16441</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>118920</v>
+        <v>118284</v>
       </c>
       <c r="E242" t="n">
-        <v>118920</v>
+        <v>118284</v>
       </c>
       <c r="F242" t="n">
-        <v>91.98055824289965</v>
+        <v>19.29635666320194</v>
       </c>
       <c r="G242" t="n">
-        <v>5.510934912321544</v>
+        <v>3.78789317544316</v>
       </c>
       <c r="H242" t="n">
-        <v>0.08</v>
+        <v>0.91</v>
       </c>
       <c r="I242" t="n">
-        <v>39863</v>
+        <v>39533</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3453356</v>
+        <v>3430192</v>
       </c>
       <c r="E243" t="n">
-        <v>4961074</v>
+        <v>4927796</v>
       </c>
       <c r="F243" t="n">
-        <v>417.0673075214623</v>
+        <v>173.5714730793083</v>
       </c>
       <c r="G243" t="n">
-        <v>80.23376429951294</v>
+        <v>232.8629825467208</v>
       </c>
       <c r="H243" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="I243" t="n">
-        <v>179247</v>
+        <v>177577</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>311484798</v>
+        <v>311052034</v>
       </c>
       <c r="E244" t="n">
-        <v>576317910</v>
+        <v>575517197</v>
       </c>
       <c r="F244" t="n">
-        <v>33287.50710710006</v>
+        <v>33389.8094985181</v>
       </c>
       <c r="G244" t="n">
-        <v>28634.12461132032</v>
+        <v>34092.95873400907</v>
       </c>
       <c r="H244" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>12282376</v>
+        <v>12320514</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>71019694</v>
+        <v>70874408</v>
       </c>
       <c r="E245" t="n">
-        <v>677604679</v>
+        <v>676218494</v>
       </c>
       <c r="F245" t="n">
-        <v>47670.70170418251</v>
+        <v>50775.91742551463</v>
       </c>
       <c r="G245" t="n">
-        <v>62072.27515860713</v>
+        <v>57439.44407184595</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>21057969</v>
+        <v>21006902</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81279</v>
+        <v>81239</v>
       </c>
       <c r="E246" t="n">
-        <v>675687</v>
+        <v>675355</v>
       </c>
       <c r="F246" t="n">
-        <v>104.4177922652174</v>
+        <v>104.4225220097307</v>
       </c>
       <c r="G246" t="n">
-        <v>5.533069801168101</v>
+        <v>5.53332042901577</v>
       </c>
       <c r="H246" t="n">
         <v>0.71</v>
       </c>
       <c r="I246" t="n">
-        <v>409.28</v>
+        <v>399.69</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1896504</v>
+        <v>1894844</v>
       </c>
       <c r="E247" t="n">
-        <v>5416173</v>
+        <v>5411430</v>
       </c>
       <c r="F247" t="n">
-        <v>418.1470638838196</v>
+        <v>418.2008811516857</v>
       </c>
       <c r="G247" t="n">
-        <v>144.3573960076547</v>
+        <v>144.3617746177115</v>
       </c>
       <c r="H247" t="n">
         <v>0.43</v>
       </c>
       <c r="I247" t="n">
-        <v>71017</v>
+        <v>70745</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37708043</v>
+        <v>37538195</v>
       </c>
       <c r="E248" t="n">
-        <v>49303311</v>
+        <v>49081235</v>
       </c>
       <c r="F248" t="n">
-        <v>604.2982614250335</v>
+        <v>336.9470668024278</v>
       </c>
       <c r="G248" t="n">
-        <v>268.0017379188213</v>
+        <v>189.7852976900211</v>
       </c>
       <c r="H248" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="I248" t="n">
-        <v>660115</v>
+        <v>661440</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9561814</v>
+        <v>9562914</v>
       </c>
       <c r="E249" t="n">
-        <v>28377650</v>
+        <v>28380915</v>
       </c>
       <c r="F249" t="n">
-        <v>1123.683376391147</v>
+        <v>870.2930188341958</v>
       </c>
       <c r="G249" t="n">
-        <v>2062.273768392683</v>
+        <v>2947.238405011324</v>
       </c>
       <c r="H249" t="n">
-        <v>0.79</v>
+        <v>1.23</v>
       </c>
       <c r="I249" t="n">
-        <v>2975436</v>
+        <v>5544321</v>
       </c>
     </row>
     <row r="250">
@@ -9147,10 +9147,10 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2000514</v>
+        <v>1995231</v>
       </c>
       <c r="E250" t="n">
-        <v>5804135</v>
+        <v>5788806</v>
       </c>
       <c r="F250" t="n">
         <v>219.5920127430387</v>
@@ -9162,7 +9162,7 @@
         <v>2.87</v>
       </c>
       <c r="I250" t="n">
-        <v>61620</v>
+        <v>61544</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7288116</v>
+        <v>7292876</v>
       </c>
       <c r="E251" t="n">
-        <v>7288127</v>
+        <v>7292887</v>
       </c>
       <c r="F251" t="n">
-        <v>389.6245274340539</v>
+        <v>141.5012568494274</v>
       </c>
       <c r="G251" t="n">
-        <v>1015.289484403568</v>
+        <v>537.9128133938152</v>
       </c>
       <c r="H251" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I251" t="n">
-        <v>346305</v>
+        <v>346896</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6075979</v>
+        <v>6112444</v>
       </c>
       <c r="E252" t="n">
-        <v>6075979</v>
+        <v>6112444</v>
       </c>
       <c r="F252" t="n">
-        <v>856.2264053746098</v>
+        <v>673.8747067549584</v>
       </c>
       <c r="G252" t="n">
-        <v>650.6219028586771</v>
+        <v>950.4601004934068</v>
       </c>
       <c r="H252" t="n">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="I252" t="n">
-        <v>470496</v>
+        <v>478503</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6206712</v>
+        <v>6207924</v>
       </c>
       <c r="E253" t="n">
-        <v>22670719</v>
+        <v>22675146</v>
       </c>
       <c r="F253" t="n">
-        <v>1323.086978534234</v>
+        <v>1323.113654627986</v>
       </c>
       <c r="G253" t="n">
-        <v>430.7281998869885</v>
+        <v>375.8730540574707</v>
       </c>
       <c r="H253" t="n">
-        <v>1.46</v>
+        <v>1.86</v>
       </c>
       <c r="I253" t="n">
-        <v>520277</v>
+        <v>521240</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2153324</v>
+        <v>2275562</v>
       </c>
       <c r="E254" t="n">
-        <v>18993745</v>
+        <v>20071971</v>
       </c>
       <c r="F254" t="n">
-        <v>125.6676394593874</v>
+        <v>1309.337677287982</v>
       </c>
       <c r="G254" t="n">
-        <v>4429.428908256601</v>
+        <v>4167.805404767888</v>
       </c>
       <c r="H254" t="n">
-        <v>1.15</v>
+        <v>2.62</v>
       </c>
       <c r="I254" t="n">
-        <v>79294</v>
+        <v>79219</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14539837</v>
+        <v>14532149</v>
       </c>
       <c r="E255" t="n">
-        <v>29435013</v>
+        <v>29419448</v>
       </c>
       <c r="F255" t="n">
-        <v>47.83199109179556</v>
+        <v>96.14305425454648</v>
       </c>
       <c r="G255" t="n">
-        <v>442.4182202517082</v>
+        <v>307.02660433367</v>
       </c>
       <c r="H255" t="n">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="I255" t="n">
-        <v>485320</v>
+        <v>484549</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44481010</v>
+        <v>44432085</v>
       </c>
       <c r="E256" t="n">
-        <v>44481010</v>
+        <v>44432085</v>
       </c>
       <c r="F256" t="n">
-        <v>5623.100187581717</v>
+        <v>5624.876766820988</v>
       </c>
       <c r="G256" t="n">
-        <v>4498.04028578077</v>
+        <v>4527.706786982278</v>
       </c>
       <c r="H256" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I256" t="n">
-        <v>8135454</v>
+        <v>8138920</v>
       </c>
     </row>
     <row r="257">
@@ -9392,10 +9392,10 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>9071620</v>
+        <v>8969679</v>
       </c>
       <c r="E257" t="n">
-        <v>12924980</v>
+        <v>12779737</v>
       </c>
       <c r="F257" t="n">
         <v>56.38476317337636</v>
@@ -9407,7 +9407,7 @@
         <v>0.38</v>
       </c>
       <c r="I257" t="n">
-        <v>424763</v>
+        <v>427486</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>148040956</v>
+        <v>147924025</v>
       </c>
       <c r="F258" t="n">
-        <v>309.5640591470668</v>
+        <v>309.5734487615937</v>
       </c>
       <c r="G258" t="n">
-        <v>88.00161648346813</v>
+        <v>85.57510397408771</v>
       </c>
       <c r="H258" t="n">
         <v>1.02</v>
       </c>
       <c r="I258" t="n">
-        <v>1359151</v>
+        <v>1385782</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16253772</v>
+        <v>16383193</v>
       </c>
       <c r="F259" t="n">
-        <v>93.7393978967753</v>
+        <v>93.74098513457385</v>
       </c>
       <c r="G259" t="n">
-        <v>124.0666661353658</v>
+        <v>124.0687668881596</v>
       </c>
       <c r="H259" t="n">
         <v>0.5</v>
       </c>
       <c r="I259" t="n">
-        <v>974776</v>
+        <v>972864</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>723464</v>
+        <v>722861</v>
       </c>
       <c r="F260" t="n">
-        <v>40.23241088998346</v>
+        <v>40.23363120874652</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01333201917751</v>
+        <v>28.01418171209728</v>
       </c>
       <c r="H260" t="n">
         <v>2.26</v>
       </c>
       <c r="I260" t="n">
-        <v>226346</v>
+        <v>226394</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3021145</v>
+        <v>3037742</v>
       </c>
       <c r="F261" t="n">
-        <v>34.73606115947149</v>
+        <v>34.73667087237128</v>
       </c>
       <c r="G261" t="n">
-        <v>64.10411177546308</v>
+        <v>64.10523697799252</v>
       </c>
       <c r="H261" t="n">
         <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>72380</v>
+        <v>72606</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2810120</v>
+        <v>2810112</v>
       </c>
       <c r="E262" t="n">
-        <v>2812553</v>
+        <v>2812545</v>
       </c>
       <c r="F262" t="n">
-        <v>31.27360610981209</v>
+        <v>31.27423664859155</v>
       </c>
       <c r="G262" t="n">
-        <v>502.2655496677928</v>
+        <v>502.2756763511545</v>
       </c>
       <c r="H262" t="n">
         <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>81595</v>
+        <v>81252</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61219529</v>
+        <v>61206966</v>
       </c>
       <c r="E263" t="n">
-        <v>101281556</v>
+        <v>101260772</v>
       </c>
       <c r="F263" t="n">
-        <v>10312.27747075085</v>
+        <v>8716.036204457549</v>
       </c>
       <c r="G263" t="n">
-        <v>8730.663267652033</v>
+        <v>9065.08414595242</v>
       </c>
       <c r="H263" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I263" t="n">
-        <v>6184523</v>
+        <v>6126439</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>688172</v>
+        <v>687873</v>
       </c>
       <c r="F264" t="n">
-        <v>3344.416161696466</v>
+        <v>3344.514268804027</v>
       </c>
       <c r="G264" t="n">
-        <v>444.757958601319</v>
+        <v>479.1655628488152</v>
       </c>
       <c r="H264" t="n">
         <v>0.35</v>
       </c>
       <c r="I264" t="n">
-        <v>591794</v>
+        <v>603442</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1238352</v>
+        <v>1237567</v>
       </c>
       <c r="E265" t="n">
-        <v>3745931</v>
+        <v>3743556</v>
       </c>
       <c r="F265" t="n">
-        <v>13.92393199396722</v>
+        <v>13.92435433096099</v>
       </c>
       <c r="G265" t="n">
-        <v>889.2508207892879</v>
+        <v>889.2777933081518</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>12270.65</v>
+        <v>12074.44</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>37449192</v>
+        <v>37470248</v>
       </c>
       <c r="E266" t="n">
-        <v>265508661</v>
+        <v>265657943</v>
       </c>
       <c r="F266" t="n">
-        <v>73559.13645870922</v>
+        <v>64057.64942910531</v>
       </c>
       <c r="G266" t="n">
-        <v>28436.79958772206</v>
+        <v>35693.79493648366</v>
       </c>
       <c r="H266" t="n">
         <v>0.23</v>
       </c>
       <c r="I266" t="n">
-        <v>1848263</v>
+        <v>1865899</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>60215</v>
+        <v>59503</v>
       </c>
       <c r="E267" t="n">
-        <v>314179</v>
+        <v>310463</v>
       </c>
       <c r="F267" t="n">
-        <v>3.931265838541213</v>
+        <v>5.161884635863419</v>
       </c>
       <c r="G267" t="n">
-        <v>3.953572907206665</v>
+        <v>14.81724605052281</v>
       </c>
       <c r="H267" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="I267" t="n">
-        <v>310185</v>
+        <v>312105</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1257594</v>
+        <v>1258240</v>
       </c>
       <c r="E268" t="n">
-        <v>7799032</v>
+        <v>7803042</v>
       </c>
       <c r="F268" t="n">
-        <v>2227.412942308347</v>
+        <v>2221.009832435352</v>
       </c>
       <c r="G268" t="n">
-        <v>2435.542212980043</v>
+        <v>2413.483905987295</v>
       </c>
       <c r="H268" t="n">
         <v>0.08</v>
       </c>
       <c r="I268" t="n">
-        <v>763961</v>
+        <v>764028</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>588829695</v>
+        <v>589301917</v>
       </c>
       <c r="E269" t="n">
-        <v>2280450533</v>
+        <v>2282279379</v>
       </c>
       <c r="F269" t="n">
-        <v>164275.0789248089</v>
+        <v>143312.0786031163</v>
       </c>
       <c r="G269" t="n">
-        <v>259882.5509392452</v>
+        <v>313607.494181436</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>30575467</v>
+        <v>30391454</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3270670</v>
+        <v>3268453</v>
       </c>
       <c r="F270" t="n">
-        <v>171.5921337622081</v>
+        <v>163.2414713014936</v>
       </c>
       <c r="G270" t="n">
-        <v>157.2402589613746</v>
+        <v>157.1692197589755</v>
       </c>
       <c r="H270" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I270" t="n">
-        <v>30894</v>
+        <v>30834</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>899168</v>
+        <v>897123</v>
       </c>
       <c r="F271" t="n">
-        <v>172.1400317995929</v>
+        <v>36.43755823585517</v>
       </c>
       <c r="G271" t="n">
-        <v>182.8238524884466</v>
+        <v>117.5515093042275</v>
       </c>
       <c r="H271" t="n">
-        <v>3.21</v>
+        <v>3.69</v>
       </c>
       <c r="I271" t="n">
-        <v>348332</v>
+        <v>348527</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5841259</v>
+        <v>5838499</v>
       </c>
       <c r="E272" t="n">
-        <v>26152068</v>
+        <v>26139708</v>
       </c>
       <c r="F272" t="n">
-        <v>144.7638854128972</v>
+        <v>144.7621258688246</v>
       </c>
       <c r="G272" t="n">
-        <v>118.5374722425699</v>
+        <v>96.31468707304718</v>
       </c>
       <c r="H272" t="n">
         <v>0.15</v>
       </c>
       <c r="I272" t="n">
-        <v>143930</v>
+        <v>144119</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6178826</v>
+        <v>6184600</v>
       </c>
       <c r="E273" t="n">
-        <v>11829864</v>
+        <v>11840918</v>
       </c>
       <c r="F273" t="n">
-        <v>85.11241565901264</v>
+        <v>4168.259512619917</v>
       </c>
       <c r="G273" t="n">
-        <v>24.74893720539616</v>
+        <v>58.41579747393425</v>
       </c>
       <c r="H273" t="n">
-        <v>2.79</v>
+        <v>1.07</v>
       </c>
       <c r="I273" t="n">
-        <v>202224</v>
+        <v>199949</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3206113</v>
+        <v>3195823</v>
       </c>
       <c r="E274" t="n">
-        <v>21082653</v>
+        <v>21014986</v>
       </c>
       <c r="F274" t="n">
-        <v>99.09037808214399</v>
+        <v>202.5663338829011</v>
       </c>
       <c r="G274" t="n">
-        <v>188.7750098310796</v>
+        <v>188.7842584830956</v>
       </c>
       <c r="H274" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="I274" t="n">
-        <v>1423187</v>
+        <v>1421633</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3675120</v>
+        <v>3675136</v>
       </c>
       <c r="E275" t="n">
-        <v>6264741</v>
+        <v>6264768</v>
       </c>
       <c r="F275" t="n">
-        <v>655.4716822513168</v>
+        <v>705.9887616447105</v>
       </c>
       <c r="G275" t="n">
-        <v>834.1575749545011</v>
+        <v>554.5616643435657</v>
       </c>
       <c r="H275" t="n">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>1156700</v>
+        <v>1169682</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>432015</v>
+        <v>433105</v>
       </c>
       <c r="E276" t="n">
-        <v>432015</v>
+        <v>433105</v>
       </c>
       <c r="F276" t="n">
-        <v>21.26075004411852</v>
+        <v>3.682039178717563</v>
       </c>
       <c r="G276" t="n">
-        <v>5.323493107882882</v>
+        <v>3.269629254415521</v>
       </c>
       <c r="H276" t="n">
-        <v>0.77</v>
+        <v>0.2</v>
       </c>
       <c r="I276" t="n">
-        <v>519.02</v>
+        <v>478.08</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7223525</v>
+        <v>7257556</v>
       </c>
       <c r="E277" t="n">
-        <v>10350848</v>
+        <v>10399583</v>
       </c>
       <c r="F277" t="n">
-        <v>1097.404799874432</v>
+        <v>449.017775051051</v>
       </c>
       <c r="G277" t="n">
-        <v>971.6752872826549</v>
+        <v>2250.140163337699</v>
       </c>
       <c r="H277" t="n">
         <v>0.19</v>
       </c>
       <c r="I277" t="n">
-        <v>162038</v>
+        <v>164143</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>117549314</v>
+        <v>117558652</v>
       </c>
       <c r="E278" t="n">
-        <v>1022019041</v>
+        <v>1022100224</v>
       </c>
       <c r="F278" t="n">
-        <v>10344.80065660408</v>
+        <v>13535.95933265086</v>
       </c>
       <c r="G278" t="n">
-        <v>10666.27067947282</v>
+        <v>10962.40350662557</v>
       </c>
       <c r="H278" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I278" t="n">
-        <v>9247495</v>
+        <v>9256748</v>
       </c>
     </row>
     <row r="279">
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>104774988</v>
+        <v>104486687</v>
       </c>
       <c r="E279" t="n">
-        <v>159836700</v>
+        <v>159396890</v>
       </c>
       <c r="F279" t="n">
         <v>44307.46867199319</v>
@@ -10177,7 +10177,7 @@
         <v>0.25</v>
       </c>
       <c r="I279" t="n">
-        <v>7231444</v>
+        <v>7221496</v>
       </c>
     </row>
     <row r="280">
@@ -10197,10 +10197,10 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15781377</v>
+        <v>15771448</v>
       </c>
       <c r="E280" t="n">
-        <v>21650682</v>
+        <v>21637060</v>
       </c>
       <c r="F280" t="n">
         <v>1382.966711310999</v>
@@ -10212,7 +10212,7 @@
         <v>0.23</v>
       </c>
       <c r="I280" t="n">
-        <v>351456</v>
+        <v>351102</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5563137</v>
+        <v>5564222</v>
       </c>
       <c r="E281" t="n">
-        <v>5563137</v>
+        <v>5564222</v>
       </c>
       <c r="F281" t="n">
-        <v>46.82877953796908</v>
+        <v>46.82960151115812</v>
       </c>
       <c r="G281" t="n">
-        <v>278.9014410711677</v>
+        <v>278.9063365544411</v>
       </c>
       <c r="H281" t="n">
         <v>0.34</v>
       </c>
       <c r="I281" t="n">
-        <v>760002</v>
+        <v>752367</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>110960590</v>
+        <v>111024073</v>
       </c>
       <c r="E282" t="n">
-        <v>425662684</v>
+        <v>425906215</v>
       </c>
       <c r="F282" t="n">
-        <v>46980.58345647591</v>
+        <v>44315.62262708847</v>
       </c>
       <c r="G282" t="n">
-        <v>74643.46797180877</v>
+        <v>80063.78932948594</v>
       </c>
       <c r="H282" t="n">
         <v>0.05</v>
       </c>
       <c r="I282" t="n">
-        <v>19331690</v>
+        <v>19702643</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>753865</v>
+        <v>756245</v>
       </c>
       <c r="F283" t="n">
-        <v>4.154223141224614</v>
+        <v>4.154293482406031</v>
       </c>
       <c r="G283" t="n">
-        <v>4.031386765389982</v>
+        <v>4.031455026650435</v>
       </c>
       <c r="H283" t="n">
         <v>0.49</v>
       </c>
       <c r="I283" t="n">
-        <v>51218</v>
+        <v>50591</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3163097</v>
+        <v>3161533</v>
       </c>
       <c r="E284" t="n">
-        <v>29970812</v>
+        <v>29955996</v>
       </c>
       <c r="F284" t="n">
-        <v>1365.650137393939</v>
+        <v>1386.045520420599</v>
       </c>
       <c r="G284" t="n">
-        <v>108.3723066091506</v>
+        <v>113.6094138927171</v>
       </c>
       <c r="H284" t="n">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="I284" t="n">
-        <v>249761</v>
+        <v>261736</v>
       </c>
     </row>
     <row r="285">
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>93519</v>
+        <v>93560</v>
       </c>
       <c r="F285" t="n">
         <v>1087.947736419121</v>
@@ -10387,7 +10387,7 @@
         <v>0.11</v>
       </c>
       <c r="I285" t="n">
-        <v>1747.55</v>
+        <v>1764.62</v>
       </c>
     </row>
     <row r="286">
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>139756</v>
+        <v>139696</v>
       </c>
       <c r="F286" t="n">
         <v>5.575946643308297</v>
@@ -10422,7 +10422,7 @@
         <v>0.75</v>
       </c>
       <c r="I286" t="n">
-        <v>94227</v>
+        <v>94195</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21839156</v>
+        <v>21829337</v>
       </c>
       <c r="E287" t="n">
-        <v>21839156</v>
+        <v>21829337</v>
       </c>
       <c r="F287" t="n">
-        <v>7113.344306018759</v>
+        <v>2134.394766531934</v>
       </c>
       <c r="G287" t="n">
-        <v>904.1530874952651</v>
+        <v>1021.432115190224</v>
       </c>
       <c r="H287" t="n">
         <v>0.18</v>
       </c>
       <c r="I287" t="n">
-        <v>526450</v>
+        <v>528415</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>576054</v>
+        <v>575941</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>454.6</v>
+        <v>454.66</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5976167</v>
+        <v>5938847</v>
       </c>
       <c r="E289" t="n">
-        <v>37349336</v>
+        <v>37116091</v>
       </c>
       <c r="F289" t="n">
-        <v>6945.298549936791</v>
+        <v>6889.24564558681</v>
       </c>
       <c r="G289" t="n">
-        <v>207.5122590148005</v>
+        <v>279.4574805280814</v>
       </c>
       <c r="H289" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="I289" t="n">
-        <v>320436</v>
+        <v>383174</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494497113</v>
+        <v>494402468</v>
       </c>
       <c r="E290" t="n">
-        <v>494497113</v>
+        <v>494402468</v>
       </c>
       <c r="F290" t="n">
-        <v>1179247.904044672</v>
+        <v>1182565.44221267</v>
       </c>
       <c r="G290" t="n">
-        <v>1325100.442216045</v>
+        <v>1317833.447069365</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>31833497</v>
+        <v>32760849</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5093544</v>
+        <v>5093833</v>
       </c>
       <c r="E291" t="n">
-        <v>18967316</v>
+        <v>18968390</v>
       </c>
       <c r="F291" t="n">
-        <v>7127.262501514442</v>
+        <v>7127.478683740846</v>
       </c>
       <c r="G291" t="n">
-        <v>6885.48604341614</v>
+        <v>6937.559032342071</v>
       </c>
       <c r="H291" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="I291" t="n">
-        <v>58339</v>
+        <v>58966</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31530089</v>
+        <v>31523621</v>
       </c>
       <c r="F292" t="n">
-        <v>5811.865352187547</v>
+        <v>4362.135710680955</v>
       </c>
       <c r="G292" t="n">
-        <v>5903.424230520282</v>
+        <v>16312.90197043578</v>
       </c>
       <c r="H292" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="I292" t="n">
-        <v>5663300</v>
+        <v>5639662</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31494756</v>
+        <v>31497769</v>
       </c>
       <c r="E293" t="n">
-        <v>112888550</v>
+        <v>112899351</v>
       </c>
       <c r="F293" t="n">
-        <v>32.1414241771631</v>
+        <v>32.14240968651515</v>
       </c>
       <c r="G293" t="n">
-        <v>4928.175622601786</v>
+        <v>4911.209769150824</v>
       </c>
       <c r="H293" t="n">
         <v>0.51</v>
       </c>
       <c r="I293" t="n">
-        <v>95696</v>
+        <v>95464</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>767374</v>
+        <v>766649</v>
       </c>
       <c r="E294" t="n">
-        <v>12239342</v>
+        <v>12227781</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86218421649672</v>
+        <v>12.86287429437516</v>
       </c>
       <c r="G294" t="n">
-        <v>2.297706589019394</v>
+        <v>2.29782986485354</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>70616</v>
+        <v>70004</v>
       </c>
     </row>
     <row r="295">
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>84993</v>
+        <v>85275</v>
       </c>
       <c r="F295" t="n">
         <v>70.06841552092155</v>
@@ -10735,7 +10735,7 @@
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>57283</v>
+        <v>57740</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1521487</v>
+        <v>1521683</v>
       </c>
       <c r="F296" t="n">
-        <v>3.969228365696733</v>
+        <v>3.969333071800622</v>
       </c>
       <c r="G296" t="n">
-        <v>11.44904434815341</v>
+        <v>11.44934636776944</v>
       </c>
       <c r="H296" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I296" t="n">
-        <v>612904</v>
+        <v>615377</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2661677788</v>
+        <v>2656726043</v>
       </c>
       <c r="E297" t="n">
-        <v>2826009234</v>
+        <v>2820751770</v>
       </c>
       <c r="F297" t="n">
-        <v>37317.3006894793</v>
+        <v>43787.9870805699</v>
       </c>
       <c r="G297" t="n">
-        <v>53931.40982448981</v>
+        <v>64175.53236652629</v>
       </c>
       <c r="H297" t="n">
         <v>0.18</v>
       </c>
       <c r="I297" t="n">
-        <v>37352184</v>
+        <v>38954565</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2188565</v>
+        <v>2176858</v>
       </c>
       <c r="E298" t="n">
-        <v>16833823</v>
+        <v>16743775</v>
       </c>
       <c r="F298" t="n">
-        <v>4083.918070991976</v>
+        <v>4055.41605314247</v>
       </c>
       <c r="G298" t="n">
-        <v>4071.411535616118</v>
+        <v>1467.554609016678</v>
       </c>
       <c r="H298" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="I298" t="n">
-        <v>180657</v>
+        <v>180536</v>
       </c>
     </row>
     <row r="299">
@@ -10860,10 +10860,10 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1633049</v>
+        <v>1632914</v>
       </c>
       <c r="E299" t="n">
-        <v>1638814</v>
+        <v>1638678</v>
       </c>
       <c r="F299" t="n">
         <v>913.5216203487829</v>
@@ -10875,7 +10875,7 @@
         <v>0.49</v>
       </c>
       <c r="I299" t="n">
-        <v>401683</v>
+        <v>399319</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>86766500</v>
+        <v>86776404</v>
       </c>
       <c r="E300" t="n">
-        <v>320753419</v>
+        <v>320789705</v>
       </c>
       <c r="F300" t="n">
-        <v>9763.703657577473</v>
+        <v>8978.336219837174</v>
       </c>
       <c r="G300" t="n">
-        <v>16675.85561632319</v>
+        <v>13315.66437520175</v>
       </c>
       <c r="H300" t="n">
         <v>0.32</v>
       </c>
       <c r="I300" t="n">
-        <v>369644</v>
+        <v>340734</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2453956</v>
+        <v>2430491</v>
       </c>
       <c r="E301" t="n">
-        <v>9846582</v>
+        <v>9752427</v>
       </c>
       <c r="F301" t="n">
-        <v>25.9814068299116</v>
+        <v>23.39889978995421</v>
       </c>
       <c r="G301" t="n">
-        <v>3.877558178312847</v>
+        <v>10.44548878769229</v>
       </c>
       <c r="H301" t="n">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="I301" t="n">
-        <v>44828</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60988671</v>
+        <v>61268042</v>
       </c>
       <c r="E302" t="n">
-        <v>149601076</v>
+        <v>150286355</v>
       </c>
       <c r="F302" t="n">
-        <v>2086.039692522456</v>
+        <v>2052.906862032719</v>
       </c>
       <c r="G302" t="n">
-        <v>2467.590146481286</v>
+        <v>783.1839533607161</v>
       </c>
       <c r="H302" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
-        <v>22564020</v>
+        <v>22550161</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>677095660</v>
+        <v>675482574</v>
       </c>
       <c r="E303" t="n">
-        <v>1044141290</v>
+        <v>1041653768</v>
       </c>
       <c r="F303" t="n">
-        <v>41807.29801071516</v>
+        <v>37689.77773240593</v>
       </c>
       <c r="G303" t="n">
-        <v>54282.20738128893</v>
+        <v>63770.77339527098</v>
       </c>
       <c r="H303" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I303" t="n">
-        <v>157227073</v>
+        <v>160419890</v>
       </c>
     </row>
     <row r="304">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20108278</v>
+        <v>20225318</v>
       </c>
       <c r="E304" t="n">
-        <v>20108278</v>
+        <v>20225318</v>
       </c>
       <c r="F304" t="n">
         <v>4693.806038940743</v>
@@ -11050,7 +11050,7 @@
         <v>0.27</v>
       </c>
       <c r="I304" t="n">
-        <v>7078999</v>
+        <v>7094564</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1678201</v>
+        <v>1722803</v>
       </c>
       <c r="E305" t="n">
-        <v>2753643</v>
+        <v>2826827</v>
       </c>
       <c r="F305" t="n">
-        <v>276.0108456534969</v>
+        <v>80.96306494797473</v>
       </c>
       <c r="G305" t="n">
-        <v>21.64966209015364</v>
+        <v>4.007884393236521</v>
       </c>
       <c r="H305" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="I305" t="n">
-        <v>139303</v>
+        <v>143945</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5688180</v>
+        <v>5684780</v>
       </c>
       <c r="E306" t="n">
-        <v>5688180</v>
+        <v>5684780</v>
       </c>
       <c r="F306" t="n">
-        <v>41.96810058081949</v>
+        <v>41.69559993287115</v>
       </c>
       <c r="G306" t="n">
-        <v>5.631929394768269</v>
+        <v>5.632077962028696</v>
       </c>
       <c r="H306" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>477.5</v>
+        <v>477.29</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39799394</v>
+        <v>39810928</v>
       </c>
       <c r="E307" t="n">
-        <v>189969677</v>
+        <v>190024197</v>
       </c>
       <c r="F307" t="n">
-        <v>184.5736342427447</v>
+        <v>214.3951616495829</v>
       </c>
       <c r="G307" t="n">
-        <v>305.968916249494</v>
+        <v>304.5577724427563</v>
       </c>
       <c r="H307" t="n">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I307" t="n">
-        <v>408540</v>
+        <v>411125</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>380847</v>
+        <v>380951</v>
       </c>
       <c r="E308" t="n">
-        <v>712291</v>
+        <v>712486</v>
       </c>
       <c r="F308" t="n">
-        <v>78.22463456796852</v>
+        <v>78.22710394359089</v>
       </c>
       <c r="G308" t="n">
-        <v>292.4508597326758</v>
+        <v>292.4600917479834</v>
       </c>
       <c r="H308" t="n">
         <v>0.19</v>
       </c>
       <c r="I308" t="n">
-        <v>1422.03</v>
+        <v>1422.25</v>
       </c>
     </row>
     <row r="309">
@@ -11210,10 +11210,10 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23463434</v>
+        <v>23456309</v>
       </c>
       <c r="E309" t="n">
-        <v>39105722</v>
+        <v>39093848</v>
       </c>
       <c r="F309" t="n">
         <v>4998.41267096601</v>
@@ -11225,7 +11225,7 @@
         <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>812341</v>
+        <v>800736</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>108071</v>
+        <v>108021</v>
       </c>
       <c r="F310" t="n">
-        <v>5.03371598440194</v>
+        <v>5.03378717082219</v>
       </c>
       <c r="G310" t="n">
-        <v>11.24989815378039</v>
+        <v>11.25005724896578</v>
       </c>
       <c r="H310" t="n">
         <v>0.79</v>
       </c>
       <c r="I310" t="n">
-        <v>49743</v>
+        <v>49513</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23498925</v>
+        <v>23387528</v>
       </c>
       <c r="E311" t="n">
-        <v>23498925</v>
+        <v>23387528</v>
       </c>
       <c r="F311" t="n">
-        <v>9995.314303284584</v>
+        <v>6863.460324897353</v>
       </c>
       <c r="G311" t="n">
-        <v>7903.633620837153</v>
+        <v>6986.033769452682</v>
       </c>
       <c r="H311" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="I311" t="n">
-        <v>6181915</v>
+        <v>6173459</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3831655</v>
+        <v>3829984</v>
       </c>
       <c r="E312" t="n">
-        <v>8360623</v>
+        <v>8356977</v>
       </c>
       <c r="F312" t="n">
-        <v>1798.849029600021</v>
+        <v>1798.896482267396</v>
       </c>
       <c r="G312" t="n">
-        <v>1974.578282919192</v>
+        <v>1974.630371229508</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>940450</v>
+        <v>925876</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9355752</v>
+        <v>9359325</v>
       </c>
       <c r="E313" t="n">
-        <v>9355752</v>
+        <v>9359325</v>
       </c>
       <c r="F313" t="n">
-        <v>14960.3246224356</v>
+        <v>14816.46930281268</v>
       </c>
       <c r="G313" t="n">
-        <v>113565.6694139091</v>
+        <v>113641.7374271181</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>999974</v>
+        <v>3225827</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>485786748</v>
+        <v>486387740</v>
       </c>
       <c r="E314" t="n">
-        <v>1691841141</v>
+        <v>1693934205</v>
       </c>
       <c r="F314" t="n">
-        <v>478826.5653492667</v>
+        <v>369444.0786707916</v>
       </c>
       <c r="G314" t="n">
-        <v>327787.0292379062</v>
+        <v>493006.3481311369</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>31457393</v>
+        <v>31253758</v>
       </c>
     </row>
     <row r="315">
@@ -11420,10 +11420,10 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>23955559</v>
+        <v>23959483</v>
       </c>
       <c r="E315" t="n">
-        <v>23934750</v>
+        <v>23938671</v>
       </c>
       <c r="F315" t="n">
         <v>171.8036858131416</v>
@@ -11435,7 +11435,7 @@
         <v>0.73</v>
       </c>
       <c r="I315" t="n">
-        <v>92486</v>
+        <v>67932</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48080271</v>
+        <v>48024794</v>
       </c>
       <c r="E316" t="n">
-        <v>118662524</v>
+        <v>118525606</v>
       </c>
       <c r="F316" t="n">
-        <v>953.2955510863371</v>
+        <v>953.3400282654211</v>
       </c>
       <c r="G316" t="n">
-        <v>1697.85858700015</v>
+        <v>1697.937802685514</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>40021</v>
+        <v>37489</v>
       </c>
     </row>
     <row r="317">
@@ -11490,10 +11490,10 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12010447</v>
+        <v>12011656</v>
       </c>
       <c r="E317" t="n">
-        <v>24328185</v>
+        <v>24328892</v>
       </c>
       <c r="F317" t="n">
         <v>247.741009820904</v>
@@ -11505,7 +11505,7 @@
         <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>19305.33</v>
+        <v>19306.77</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7641318</v>
+        <v>7594341</v>
       </c>
       <c r="E318" t="n">
-        <v>19851324</v>
+        <v>19729280</v>
       </c>
       <c r="F318" t="n">
-        <v>178.0943917987491</v>
+        <v>177.7644317540885</v>
       </c>
       <c r="G318" t="n">
-        <v>511.1840156297404</v>
+        <v>499.0086259180349</v>
       </c>
       <c r="H318" t="n">
         <v>0.25</v>
       </c>
       <c r="I318" t="n">
-        <v>678207</v>
+        <v>679758</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>148750</v>
+        <v>148739</v>
       </c>
       <c r="F319" t="n">
-        <v>308.1420502233008</v>
+        <v>308.1513967058321</v>
       </c>
       <c r="G319" t="n">
-        <v>267.321264214732</v>
+        <v>267.3293725320629</v>
       </c>
       <c r="H319" t="n">
         <v>0.19</v>
       </c>
       <c r="I319" t="n">
-        <v>56013</v>
+        <v>56360</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19253015696</v>
+        <v>19246997998</v>
       </c>
       <c r="F320" t="n">
-        <v>52020.27642865582</v>
+        <v>52148.01385526517</v>
       </c>
       <c r="G320" t="n">
-        <v>49776.23548062238</v>
+        <v>49775.80045593897</v>
       </c>
       <c r="H320" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="I320" t="n">
-        <v>48954151</v>
+        <v>48871553</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>100195169</v>
+        <v>99899908</v>
       </c>
       <c r="E321" t="n">
-        <v>151807258</v>
+        <v>151359903</v>
       </c>
       <c r="F321" t="n">
-        <v>25743.14924496556</v>
+        <v>14443.86869577156</v>
       </c>
       <c r="G321" t="n">
-        <v>16047.75441889767</v>
+        <v>21298.6553187438</v>
       </c>
       <c r="H321" t="n">
         <v>1.09</v>
       </c>
       <c r="I321" t="n">
-        <v>7128055</v>
+        <v>6929501</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2658607</v>
+        <v>2643641</v>
       </c>
       <c r="E322" t="n">
-        <v>10634427</v>
+        <v>10574563</v>
       </c>
       <c r="F322" t="n">
-        <v>29470.68668153997</v>
+        <v>10979.44850542133</v>
       </c>
       <c r="G322" t="n">
-        <v>15581.65054463314</v>
+        <v>30335.33782640583</v>
       </c>
       <c r="H322" t="n">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="I322" t="n">
-        <v>5047638</v>
+        <v>5042886</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>213297351</v>
+        <v>212983384</v>
       </c>
       <c r="E323" t="n">
-        <v>655809087</v>
+        <v>654843754</v>
       </c>
       <c r="F323" t="n">
-        <v>79678.38754519838</v>
+        <v>140937.1344498024</v>
       </c>
       <c r="G323" t="n">
-        <v>154324.1137645069</v>
+        <v>223342.2798655038</v>
       </c>
       <c r="H323" t="n">
         <v>0.1</v>
       </c>
       <c r="I323" t="n">
-        <v>11459529</v>
+        <v>11265471</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>148171200</v>
+        <v>149050280</v>
       </c>
       <c r="E324" t="n">
-        <v>387093151</v>
+        <v>389389723</v>
       </c>
       <c r="F324" t="n">
-        <v>11178.59112871829</v>
+        <v>9600.969855712765</v>
       </c>
       <c r="G324" t="n">
-        <v>6442.288303857623</v>
+        <v>4945.338480553039</v>
       </c>
       <c r="H324" t="n">
         <v>0.31</v>
       </c>
       <c r="I324" t="n">
-        <v>6671899</v>
+        <v>6668631</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2381748</v>
+        <v>2401097</v>
       </c>
       <c r="E325" t="n">
-        <v>3268550</v>
+        <v>3295118</v>
       </c>
       <c r="F325" t="n">
-        <v>151.1528005158774</v>
+        <v>100.0120136608889</v>
       </c>
       <c r="G325" t="n">
-        <v>4166.183665223606</v>
+        <v>4127.13081813348</v>
       </c>
       <c r="H325" t="n">
         <v>1.06</v>
       </c>
       <c r="I325" t="n">
-        <v>252807</v>
+        <v>253561</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>399581986</v>
+        <v>399228260</v>
       </c>
       <c r="E326" t="n">
-        <v>2283325637</v>
+        <v>2281304344</v>
       </c>
       <c r="F326" t="n">
-        <v>387333.2389015967</v>
+        <v>337517.4751320022</v>
       </c>
       <c r="G326" t="n">
-        <v>483305.3998765663</v>
+        <v>538599.4862192679</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>36349210</v>
+        <v>36175652</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92642</v>
+        <v>92747</v>
       </c>
       <c r="F2" t="n">
-        <v>5.571171496163006</v>
+        <v>5.571540997234159</v>
       </c>
       <c r="G2" t="n">
-        <v>31.24979919184106</v>
+        <v>31.25187179619055</v>
       </c>
       <c r="H2" t="n">
         <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>757.25</v>
+        <v>758.14</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>601084716</v>
+        <v>612567732</v>
       </c>
       <c r="E3" t="n">
-        <v>1166295854</v>
+        <v>1188582949</v>
       </c>
       <c r="F3" t="n">
-        <v>16594.08661557323</v>
+        <v>13217.03273544076</v>
       </c>
       <c r="G3" t="n">
-        <v>30180.51485377366</v>
+        <v>25220.11364852955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="I3" t="n">
-        <v>22705878</v>
+        <v>23328224</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244879042</v>
+        <v>245871609</v>
       </c>
       <c r="E4" t="n">
-        <v>1535602049</v>
+        <v>1541826300</v>
       </c>
       <c r="F4" t="n">
-        <v>56654.3974796113</v>
+        <v>54721.67914793627</v>
       </c>
       <c r="G4" t="n">
-        <v>121226.9200968428</v>
+        <v>111821.6708418069</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15531424</v>
+        <v>15666389</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138668254</v>
+        <v>139633397</v>
       </c>
       <c r="E5" t="n">
-        <v>153666575</v>
+        <v>154736106</v>
       </c>
       <c r="F5" t="n">
-        <v>126100.9354304265</v>
+        <v>153962.7809267602</v>
       </c>
       <c r="G5" t="n">
-        <v>280166.4009490501</v>
+        <v>284832.4068496515</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>33465044</v>
+        <v>33828132</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49797970</v>
+        <v>50047008</v>
       </c>
       <c r="E6" t="n">
-        <v>62295983</v>
+        <v>62607523</v>
       </c>
       <c r="F6" t="n">
-        <v>11435.14955725441</v>
+        <v>8478.532867192687</v>
       </c>
       <c r="G6" t="n">
-        <v>9106.741522612641</v>
+        <v>9253.510439776457</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="I6" t="n">
-        <v>515157</v>
+        <v>506586</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8709608</v>
+        <v>8711276</v>
       </c>
       <c r="E7" t="n">
-        <v>8929232</v>
+        <v>8930943</v>
       </c>
       <c r="F7" t="n">
-        <v>735.2155160051108</v>
+        <v>323.4551752182874</v>
       </c>
       <c r="G7" t="n">
-        <v>689.4284957831134</v>
+        <v>582.2502138932986</v>
       </c>
       <c r="H7" t="n">
-        <v>0.53</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>52440</v>
+        <v>43145</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68474105</v>
+        <v>68867217</v>
       </c>
       <c r="E8" t="n">
-        <v>136400223</v>
+        <v>137183300</v>
       </c>
       <c r="F8" t="n">
-        <v>46445.94129566755</v>
+        <v>26980.78972641817</v>
       </c>
       <c r="G8" t="n">
-        <v>18807.5190995851</v>
+        <v>22023.16518244509</v>
       </c>
       <c r="H8" t="n">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="I8" t="n">
-        <v>1471783</v>
+        <v>1415517</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5226347</v>
+        <v>5234621</v>
       </c>
       <c r="E9" t="n">
-        <v>8350132</v>
+        <v>8363352</v>
       </c>
       <c r="F9" t="n">
-        <v>308.6408126295859</v>
+        <v>298.1089765667364</v>
       </c>
       <c r="G9" t="n">
-        <v>556.9075093898365</v>
+        <v>511.0954535317838</v>
       </c>
       <c r="H9" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="I9" t="n">
-        <v>104563</v>
+        <v>104585</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14287552</v>
+        <v>14350238</v>
       </c>
       <c r="E10" t="n">
-        <v>42104492</v>
+        <v>42289225</v>
       </c>
       <c r="F10" t="n">
-        <v>3871.904956082827</v>
+        <v>2839.842282175579</v>
       </c>
       <c r="G10" t="n">
-        <v>4951.684868039877</v>
+        <v>4952.405836600408</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>779985</v>
+        <v>786920</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>125238423</v>
+        <v>125745137</v>
       </c>
       <c r="E11" t="n">
-        <v>490897118</v>
+        <v>492883285</v>
       </c>
       <c r="F11" t="n">
-        <v>40014.93986924963</v>
+        <v>66835.6128606588</v>
       </c>
       <c r="G11" t="n">
-        <v>62973.67633651135</v>
+        <v>53397.83234484014</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>28880346</v>
+        <v>29013874</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7566813</v>
+        <v>7511576</v>
       </c>
       <c r="E12" t="n">
-        <v>32533268</v>
+        <v>32295775</v>
       </c>
       <c r="F12" t="n">
-        <v>5582.138774956696</v>
+        <v>3667.600768571484</v>
       </c>
       <c r="G12" t="n">
-        <v>3535.681382272879</v>
+        <v>4805.929872297741</v>
       </c>
       <c r="H12" t="n">
         <v>0.25</v>
       </c>
       <c r="I12" t="n">
-        <v>675746</v>
+        <v>744393</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>999034</v>
+        <v>1004034</v>
       </c>
       <c r="E13" t="n">
-        <v>12225483</v>
+        <v>12286666</v>
       </c>
       <c r="F13" t="n">
-        <v>280.9405378556255</v>
+        <v>271.02348202043</v>
       </c>
       <c r="G13" t="n">
-        <v>203.7129356245244</v>
+        <v>203.7699883924672</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2108.61</v>
+        <v>2148.87</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>564137</v>
+        <v>565600</v>
       </c>
       <c r="E14" t="n">
-        <v>564137</v>
+        <v>565600</v>
       </c>
       <c r="F14" t="n">
-        <v>97.54640996649181</v>
+        <v>820.0571076291544</v>
       </c>
       <c r="G14" t="n">
-        <v>422.5207796415978</v>
+        <v>226.4113826630792</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>0.66</v>
       </c>
       <c r="I14" t="n">
-        <v>24077</v>
+        <v>23911</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>545395243</v>
+        <v>552778295</v>
       </c>
       <c r="E15" t="n">
-        <v>682208388</v>
+        <v>691443489</v>
       </c>
       <c r="F15" t="n">
-        <v>422047.4514359887</v>
+        <v>472178.6330715465</v>
       </c>
       <c r="G15" t="n">
-        <v>543010.954273641</v>
+        <v>445751.5321362977</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>53551727</v>
+        <v>54944409</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3345577</v>
+        <v>3354280</v>
       </c>
       <c r="E16" t="n">
-        <v>9517871</v>
+        <v>9542629</v>
       </c>
       <c r="F16" t="n">
-        <v>190.5595212821214</v>
+        <v>185.7567882425546</v>
       </c>
       <c r="G16" t="n">
-        <v>122.9323447107811</v>
+        <v>97.14392549899779</v>
       </c>
       <c r="H16" t="n">
         <v>0.42</v>
       </c>
       <c r="I16" t="n">
-        <v>232723</v>
+        <v>232735</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>313862</v>
+        <v>311175</v>
       </c>
       <c r="E17" t="n">
-        <v>3622679</v>
+        <v>3591659</v>
       </c>
       <c r="F17" t="n">
-        <v>19.02787025102443</v>
+        <v>18.99968391119642</v>
       </c>
       <c r="G17" t="n">
-        <v>3.99539518970598</v>
+        <v>4.132720159282148</v>
       </c>
       <c r="H17" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3108.58</v>
+        <v>3242.92</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1358161</v>
+        <v>1360346</v>
       </c>
       <c r="E18" t="n">
-        <v>10417900</v>
+        <v>10434661</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4464739682708</v>
+        <v>383.0856446455467</v>
       </c>
       <c r="G18" t="n">
-        <v>139.9334904223494</v>
+        <v>157.2187402577038</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="I18" t="n">
-        <v>155642</v>
+        <v>155668</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22394008</v>
+        <v>22333186</v>
       </c>
       <c r="E19" t="n">
-        <v>22435937</v>
+        <v>22375001</v>
       </c>
       <c r="F19" t="n">
-        <v>890.5355071568105</v>
+        <v>1618.440799216538</v>
       </c>
       <c r="G19" t="n">
-        <v>1598.59462420567</v>
+        <v>997.528810562224</v>
       </c>
       <c r="H19" t="n">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="I19" t="n">
-        <v>878593</v>
+        <v>874884</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3927554</v>
+        <v>3863441</v>
       </c>
       <c r="E20" t="n">
-        <v>21792396</v>
+        <v>21436656</v>
       </c>
       <c r="F20" t="n">
-        <v>4.109298948110004</v>
+        <v>19.13520740837478</v>
       </c>
       <c r="G20" t="n">
-        <v>146.7406242941704</v>
+        <v>4.001947717964625</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="I20" t="n">
-        <v>2297.67</v>
+        <v>43854</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6894843</v>
+        <v>6902920</v>
       </c>
       <c r="E21" t="n">
-        <v>12791387</v>
+        <v>12806373</v>
       </c>
       <c r="F21" t="n">
-        <v>361.9670735262949</v>
+        <v>49.95433066297499</v>
       </c>
       <c r="G21" t="n">
-        <v>212.6157290009894</v>
+        <v>202.577855674621</v>
       </c>
       <c r="H21" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>51177</v>
+        <v>51504</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72880794</v>
+        <v>73000162</v>
       </c>
       <c r="E22" t="n">
-        <v>126254196</v>
+        <v>126457958</v>
       </c>
       <c r="F22" t="n">
-        <v>1600.324854376108</v>
+        <v>1619.886895467519</v>
       </c>
       <c r="G22" t="n">
-        <v>570.4703574125668</v>
+        <v>831.2728751474444</v>
       </c>
       <c r="H22" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I22" t="n">
-        <v>671152</v>
+        <v>746743</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>177120</v>
+        <v>178654</v>
       </c>
       <c r="E23" t="n">
-        <v>532692</v>
+        <v>537307</v>
       </c>
       <c r="F23" t="n">
-        <v>232.2680835698464</v>
+        <v>201.9316127004857</v>
       </c>
       <c r="G23" t="n">
-        <v>4.050274644211567</v>
+        <v>4.032386854466473</v>
       </c>
       <c r="H23" t="n">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
       <c r="I23" t="n">
-        <v>60.91</v>
+        <v>92.89</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81909021</v>
+        <v>82229313</v>
       </c>
       <c r="E24" t="n">
-        <v>241080535</v>
+        <v>241928837</v>
       </c>
       <c r="F24" t="n">
-        <v>500.3806454413481</v>
+        <v>618.3050202475567</v>
       </c>
       <c r="G24" t="n">
-        <v>496.3807267572594</v>
+        <v>424.257604956197</v>
       </c>
       <c r="H24" t="n">
         <v>0.58</v>
       </c>
       <c r="I24" t="n">
-        <v>376199</v>
+        <v>406990</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6714220</v>
+        <v>6995677</v>
       </c>
       <c r="F25" t="n">
-        <v>3.061527854182841</v>
+        <v>15.82907687055008</v>
       </c>
       <c r="G25" t="n">
-        <v>4.096782687147822</v>
+        <v>4.127192055019589</v>
       </c>
       <c r="H25" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>27302</v>
+        <v>25404</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2445095</v>
+        <v>2442282</v>
       </c>
       <c r="E26" t="n">
-        <v>2445095</v>
+        <v>2442282</v>
       </c>
       <c r="F26" t="n">
-        <v>254.0264787672958</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>389.3386581471306</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.57</v>
+        <v>6.43</v>
       </c>
       <c r="I26" t="n">
-        <v>304048</v>
+        <v>313178</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19394591</v>
+        <v>19398379</v>
       </c>
       <c r="E27" t="n">
-        <v>24962431</v>
+        <v>24967306</v>
       </c>
       <c r="F27" t="n">
-        <v>4859.441527225741</v>
+        <v>4464.168008479969</v>
       </c>
       <c r="G27" t="n">
-        <v>1561.599130943775</v>
+        <v>1095.610901730214</v>
       </c>
       <c r="H27" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="I27" t="n">
-        <v>2059370</v>
+        <v>2036601</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4623032</v>
+        <v>4664471</v>
       </c>
       <c r="E28" t="n">
-        <v>4623032</v>
+        <v>4664471</v>
       </c>
       <c r="F28" t="n">
-        <v>1119.030856382249</v>
+        <v>1250.434168450489</v>
       </c>
       <c r="G28" t="n">
-        <v>4773.639606251452</v>
+        <v>6998.231413302184</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I28" t="n">
-        <v>1913760</v>
+        <v>1967946</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1675260</v>
+        <v>1726592</v>
       </c>
       <c r="F29" t="n">
-        <v>5.09967689804138</v>
+        <v>44.35852693032836</v>
       </c>
       <c r="G29" t="n">
-        <v>164.9717347438776</v>
+        <v>5.426663325290631</v>
       </c>
       <c r="H29" t="n">
-        <v>2.29</v>
+        <v>3.71</v>
       </c>
       <c r="I29" t="n">
-        <v>161463</v>
+        <v>115254</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3309787</v>
+        <v>3359885</v>
       </c>
       <c r="E30" t="n">
-        <v>3309787</v>
+        <v>3359884</v>
       </c>
       <c r="F30" t="n">
-        <v>450.3439493131428</v>
+        <v>188.2700271296731</v>
       </c>
       <c r="G30" t="n">
-        <v>699.560172600909</v>
+        <v>729.2656844155462</v>
       </c>
       <c r="H30" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I30" t="n">
-        <v>524734</v>
+        <v>536635</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>308098</v>
+        <v>323895</v>
       </c>
       <c r="E31" t="n">
-        <v>1438231</v>
+        <v>1511974</v>
       </c>
       <c r="F31" t="n">
-        <v>156.3350182359565</v>
+        <v>374.3908389997725</v>
       </c>
       <c r="G31" t="n">
-        <v>837.8919267027629</v>
+        <v>207.6392289218033</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1.32</v>
       </c>
       <c r="I31" t="n">
-        <v>622838</v>
+        <v>631980</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>340243</v>
+        <v>345364</v>
       </c>
       <c r="E32" t="n">
-        <v>340243</v>
+        <v>345364</v>
       </c>
       <c r="F32" t="n">
-        <v>4.119561656652271</v>
+        <v>4.260608188746449</v>
       </c>
       <c r="G32" t="n">
-        <v>300.657119030588</v>
+        <v>151.5820296132998</v>
       </c>
       <c r="H32" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="I32" t="n">
-        <v>47235</v>
+        <v>49297</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1841229</v>
+        <v>1852332</v>
       </c>
       <c r="F33" t="n">
-        <v>52.24844921686712</v>
+        <v>52.25104526026969</v>
       </c>
       <c r="G33" t="n">
-        <v>10.13225740955051</v>
+        <v>10.05627306059267</v>
       </c>
       <c r="H33" t="n">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1181992</v>
+        <v>1373768</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1621356</v>
+        <v>1601811</v>
       </c>
       <c r="F34" t="n">
-        <v>457.4145216148357</v>
+        <v>395.7695725683134</v>
       </c>
       <c r="G34" t="n">
-        <v>62.84003630263895</v>
+        <v>49.07130144857208</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06</v>
+        <v>0.49</v>
       </c>
       <c r="I34" t="n">
-        <v>210303</v>
+        <v>182818</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12717560</v>
+        <v>12847380</v>
       </c>
       <c r="E35" t="n">
-        <v>32027005</v>
+        <v>31974805</v>
       </c>
       <c r="F35" t="n">
-        <v>811.7991146199031</v>
+        <v>1002.036890520237</v>
       </c>
       <c r="G35" t="n">
-        <v>1103.496891485377</v>
+        <v>1169.442582974255</v>
       </c>
       <c r="H35" t="n">
-        <v>0.84</v>
+        <v>0.53</v>
       </c>
       <c r="I35" t="n">
-        <v>1591352</v>
+        <v>1590883</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6770941</v>
+        <v>6712996</v>
       </c>
       <c r="E36" t="n">
-        <v>9325316</v>
+        <v>9245511</v>
       </c>
       <c r="F36" t="n">
-        <v>652.5263360015725</v>
+        <v>738.0382262398923</v>
       </c>
       <c r="G36" t="n">
-        <v>268.8979019120962</v>
+        <v>265.6259687044338</v>
       </c>
       <c r="H36" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="I36" t="n">
-        <v>903560</v>
+        <v>841721</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>912434</v>
+        <v>909053</v>
       </c>
       <c r="E37" t="n">
-        <v>6387038</v>
+        <v>6363369</v>
       </c>
       <c r="F37" t="n">
-        <v>503.5867507380327</v>
+        <v>519.2637627402713</v>
       </c>
       <c r="G37" t="n">
-        <v>4849.999489365234</v>
+        <v>4336.926469507283</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>313706</v>
+        <v>229235</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>108146446</v>
+        <v>109735401</v>
       </c>
       <c r="E38" t="n">
-        <v>421063775</v>
+        <v>427225596</v>
       </c>
       <c r="F38" t="n">
-        <v>11583.90593900062</v>
+        <v>11632.84637337227</v>
       </c>
       <c r="G38" t="n">
-        <v>30511.46977881191</v>
+        <v>29500.48833283397</v>
       </c>
       <c r="H38" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>6427379</v>
+        <v>6686610</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5449201</v>
+        <v>5601004</v>
       </c>
       <c r="E39" t="n">
-        <v>5709891</v>
+        <v>5868956</v>
       </c>
       <c r="F39" t="n">
-        <v>122.667658024174</v>
+        <v>731.0077689101402</v>
       </c>
       <c r="G39" t="n">
-        <v>2633.681882063796</v>
+        <v>2716.320979453941</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>169680</v>
+        <v>125600</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5315301</v>
+        <v>5501020</v>
       </c>
       <c r="E40" t="n">
-        <v>7824411</v>
+        <v>8097799</v>
       </c>
       <c r="F40" t="n">
-        <v>1153.883024838879</v>
+        <v>1989.975156586892</v>
       </c>
       <c r="G40" t="n">
-        <v>2295.161966581049</v>
+        <v>2319.763039864217</v>
       </c>
       <c r="H40" t="n">
-        <v>0.68</v>
+        <v>1.11</v>
       </c>
       <c r="I40" t="n">
-        <v>644408</v>
+        <v>585478</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7643896</v>
+        <v>7672294</v>
       </c>
       <c r="E41" t="n">
-        <v>7643896</v>
+        <v>7672294</v>
       </c>
       <c r="F41" t="n">
-        <v>1717.648098850711</v>
+        <v>1471.187921150515</v>
       </c>
       <c r="G41" t="n">
-        <v>2252.460559090548</v>
+        <v>2105.571019616496</v>
       </c>
       <c r="H41" t="n">
         <v>0.75</v>
       </c>
       <c r="I41" t="n">
-        <v>219284</v>
+        <v>229837</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1490291</v>
+        <v>1485889</v>
       </c>
       <c r="E42" t="n">
-        <v>1490329</v>
+        <v>1485928</v>
       </c>
       <c r="F42" t="n">
-        <v>95.65772933768878</v>
+        <v>367.3708120394977</v>
       </c>
       <c r="G42" t="n">
-        <v>55.44803081547806</v>
+        <v>38.45053766321598</v>
       </c>
       <c r="H42" t="n">
         <v>0.14</v>
       </c>
       <c r="I42" t="n">
-        <v>276459</v>
+        <v>276288</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16424008</v>
+        <v>16402918</v>
       </c>
       <c r="F43" t="n">
-        <v>351.0239066662683</v>
+        <v>314.8625140045564</v>
       </c>
       <c r="G43" t="n">
-        <v>523.959125581206</v>
+        <v>501.1497920534875</v>
       </c>
       <c r="H43" t="n">
-        <v>0.39</v>
+        <v>0.62</v>
       </c>
       <c r="I43" t="n">
-        <v>10417.78</v>
+        <v>10426.52</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>134320549</v>
+        <v>135341363</v>
       </c>
       <c r="E44" t="n">
-        <v>134320549</v>
+        <v>135341363</v>
       </c>
       <c r="F44" t="n">
-        <v>393615.5211500511</v>
+        <v>252370.9415107223</v>
       </c>
       <c r="G44" t="n">
-        <v>320736.7640167492</v>
+        <v>404339.1721816006</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>63116471</v>
+        <v>65692431</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64087288</v>
+        <v>64794138</v>
       </c>
       <c r="E45" t="n">
-        <v>328652759</v>
+        <v>332277632</v>
       </c>
       <c r="F45" t="n">
-        <v>75232.45915694379</v>
+        <v>54654.60756506819</v>
       </c>
       <c r="G45" t="n">
-        <v>54204.91430777474</v>
+        <v>77969.77664178323</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I45" t="n">
-        <v>18040918</v>
+        <v>18639479</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>592863</v>
+        <v>594192</v>
       </c>
       <c r="F46" t="n">
-        <v>90.37210841995388</v>
+        <v>74.14849729904337</v>
       </c>
       <c r="G46" t="n">
-        <v>375.4420456731856</v>
+        <v>375.3314979721633</v>
       </c>
       <c r="H46" t="n">
         <v>0.42</v>
       </c>
       <c r="I46" t="n">
-        <v>436.14</v>
+        <v>793.42</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2722324</v>
+        <v>2729480</v>
       </c>
       <c r="E47" t="n">
-        <v>10940399</v>
+        <v>10969157</v>
       </c>
       <c r="F47" t="n">
-        <v>314.3412947943339</v>
+        <v>59.81816907562951</v>
       </c>
       <c r="G47" t="n">
-        <v>166.8544845826931</v>
+        <v>457.2086473385576</v>
       </c>
       <c r="H47" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I47" t="n">
-        <v>24694</v>
+        <v>24805</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17332899</v>
+        <v>17394383</v>
       </c>
       <c r="E48" t="n">
-        <v>122217373</v>
+        <v>122642832</v>
       </c>
       <c r="F48" t="n">
-        <v>1302.020195916328</v>
+        <v>568.4623639372713</v>
       </c>
       <c r="G48" t="n">
-        <v>1772.251634511875</v>
+        <v>5628.838752732196</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I48" t="n">
-        <v>1038380</v>
+        <v>1032969</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1030362</v>
+        <v>1032357</v>
       </c>
       <c r="E49" t="n">
-        <v>1209399</v>
+        <v>1211740</v>
       </c>
       <c r="F49" t="n">
-        <v>1364.701982383137</v>
+        <v>1364.608334447878</v>
       </c>
       <c r="G49" t="n">
-        <v>3631.671297136422</v>
+        <v>2957.441550578335</v>
       </c>
       <c r="H49" t="n">
-        <v>0.92</v>
+        <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>259203</v>
+        <v>251012</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>146737</v>
+        <v>147943</v>
       </c>
       <c r="E50" t="n">
-        <v>1963417</v>
+        <v>1979565</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>45430</v>
+        <v>46989</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>249994728</v>
+        <v>252772469</v>
       </c>
       <c r="E51" t="n">
-        <v>249994728</v>
+        <v>252772469</v>
       </c>
       <c r="F51" t="n">
-        <v>34213.60387553716</v>
+        <v>31140.43136200915</v>
       </c>
       <c r="G51" t="n">
-        <v>24602.9015959508</v>
+        <v>23216.74140932797</v>
       </c>
       <c r="H51" t="n">
         <v>0.21</v>
       </c>
       <c r="I51" t="n">
-        <v>14645009</v>
+        <v>14940496</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1124214</v>
+        <v>1120734</v>
       </c>
       <c r="F52" t="n">
-        <v>136.485888576284</v>
+        <v>64.34445378650827</v>
       </c>
       <c r="G52" t="n">
-        <v>3.928967006580752</v>
+        <v>3.884198180987749</v>
       </c>
       <c r="H52" t="n">
         <v>0.7</v>
       </c>
       <c r="I52" t="n">
-        <v>192177</v>
+        <v>189844</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115247</v>
+        <v>116247</v>
       </c>
       <c r="E54" t="n">
-        <v>115247</v>
+        <v>116247</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6621909</v>
+        <v>6631036</v>
       </c>
       <c r="E55" t="n">
-        <v>16084107</v>
+        <v>16106275</v>
       </c>
       <c r="F55" t="n">
-        <v>212.4021475676454</v>
+        <v>349.613432544821</v>
       </c>
       <c r="G55" t="n">
-        <v>716.7859938420585</v>
+        <v>846.2386045348637</v>
       </c>
       <c r="H55" t="n">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
       <c r="I55" t="n">
-        <v>455057</v>
+        <v>450310</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>439576798</v>
+        <v>455325194</v>
       </c>
       <c r="E56" t="n">
-        <v>439576798</v>
+        <v>455342951</v>
       </c>
       <c r="F56" t="n">
-        <v>8315.457530530241</v>
+        <v>4229.713645267917</v>
       </c>
       <c r="G56" t="n">
-        <v>9427.908400388167</v>
+        <v>2664.630542959626</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>2854867</v>
+        <v>3036645</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2520084</v>
+        <v>2537142</v>
       </c>
       <c r="E57" t="n">
-        <v>2520084</v>
+        <v>2537142</v>
       </c>
       <c r="F57" t="n">
-        <v>5.271598794676917</v>
+        <v>3.769118473589007</v>
       </c>
       <c r="G57" t="n">
-        <v>3.039449394073885</v>
+        <v>5.507699714850096</v>
       </c>
       <c r="H57" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="I57" t="n">
-        <v>109446</v>
+        <v>109722</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>148211984</v>
+        <v>151902300</v>
       </c>
       <c r="E58" t="n">
-        <v>195029637</v>
+        <v>199885661</v>
       </c>
       <c r="F58" t="n">
-        <v>13958.96582451304</v>
+        <v>9740.709768810904</v>
       </c>
       <c r="G58" t="n">
-        <v>12186.75210293069</v>
+        <v>12700.82867764738</v>
       </c>
       <c r="H58" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I58" t="n">
-        <v>7310302</v>
+        <v>7455554</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1115046</v>
+        <v>1116358</v>
       </c>
       <c r="E59" t="n">
-        <v>12117899</v>
+        <v>12132166</v>
       </c>
       <c r="F59" t="n">
-        <v>790.2292185046483</v>
+        <v>788.2004742233179</v>
       </c>
       <c r="G59" t="n">
-        <v>3.93123861849244</v>
+        <v>3.931545069175481</v>
       </c>
       <c r="H59" t="n">
         <v>0.49</v>
       </c>
       <c r="I59" t="n">
-        <v>29345</v>
+        <v>29379</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2537509</v>
+        <v>2536566</v>
       </c>
       <c r="E60" t="n">
-        <v>6487361</v>
+        <v>6484951</v>
       </c>
       <c r="F60" t="n">
-        <v>211.5981696663569</v>
+        <v>145.3704358426692</v>
       </c>
       <c r="G60" t="n">
-        <v>250.9208394586151</v>
+        <v>250.680343559802</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>118940</v>
+        <v>118332</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>71517736</v>
+        <v>72008439</v>
       </c>
       <c r="E61" t="n">
-        <v>200206739</v>
+        <v>201576135</v>
       </c>
       <c r="F61" t="n">
-        <v>80787.49449215725</v>
+        <v>80215.24512989521</v>
       </c>
       <c r="G61" t="n">
-        <v>83124.59941234687</v>
+        <v>82373.5846716103</v>
       </c>
       <c r="H61" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>32615552</v>
+        <v>32905877</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>72026306</v>
+        <v>74069025</v>
       </c>
       <c r="E62" t="n">
-        <v>72026306</v>
+        <v>74069025</v>
       </c>
       <c r="F62" t="n">
-        <v>4407.141385582206</v>
+        <v>1402.261421679052</v>
       </c>
       <c r="G62" t="n">
-        <v>5225.442968353393</v>
+        <v>4923.995931203259</v>
       </c>
       <c r="H62" t="n">
         <v>0.32</v>
       </c>
       <c r="I62" t="n">
-        <v>4265241</v>
+        <v>4118190</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4210140</v>
+        <v>4223778</v>
       </c>
       <c r="E63" t="n">
-        <v>8302751</v>
+        <v>8329646</v>
       </c>
       <c r="F63" t="n">
-        <v>2094.690173001336</v>
+        <v>1672.117241574893</v>
       </c>
       <c r="G63" t="n">
-        <v>2066.647247851578</v>
+        <v>2151.987133652266</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I63" t="n">
-        <v>1633268</v>
+        <v>1641850</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1568870</v>
+        <v>1583118</v>
       </c>
       <c r="E64" t="n">
-        <v>9007866</v>
+        <v>9089671</v>
       </c>
       <c r="F64" t="n">
-        <v>470.9216997443153</v>
+        <v>395.3015187684843</v>
       </c>
       <c r="G64" t="n">
-        <v>29.46756216770601</v>
+        <v>3.874216516958303</v>
       </c>
       <c r="H64" t="n">
-        <v>1.34</v>
+        <v>0.66</v>
       </c>
       <c r="I64" t="n">
-        <v>312473</v>
+        <v>194509</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>571399</v>
+        <v>541538</v>
       </c>
       <c r="F65" t="n">
-        <v>8.845195474080574</v>
+        <v>7.766226941560632</v>
       </c>
       <c r="G65" t="n">
-        <v>5.513448329661754</v>
+        <v>216.5103410519846</v>
       </c>
       <c r="H65" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="I65" t="n">
-        <v>2282.1</v>
+        <v>2170.85</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>32029506</v>
+        <v>32056444</v>
       </c>
       <c r="F66" t="n">
-        <v>823.0624772611067</v>
+        <v>801.5509946627927</v>
       </c>
       <c r="G66" t="n">
-        <v>322.5245424550454</v>
+        <v>304.0122050582324</v>
       </c>
       <c r="H66" t="n">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="I66" t="n">
-        <v>250578</v>
+        <v>251759</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>151463</v>
+        <v>153030</v>
       </c>
       <c r="E67" t="n">
-        <v>1022847</v>
+        <v>1033426</v>
       </c>
       <c r="F67" t="n">
-        <v>42.77717703611689</v>
+        <v>669.855674483937</v>
       </c>
       <c r="G67" t="n">
-        <v>168.9054918945365</v>
+        <v>49.76479820525084</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>2664520</v>
+        <v>2666253</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7538684</v>
+        <v>7559493</v>
       </c>
       <c r="E68" t="n">
-        <v>17755099</v>
+        <v>17804108</v>
       </c>
       <c r="F68" t="n">
-        <v>1445.243600807533</v>
+        <v>1546.961897677263</v>
       </c>
       <c r="G68" t="n">
-        <v>2984.814197691846</v>
+        <v>2837.693974677576</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I68" t="n">
-        <v>29863</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2940218</v>
+        <v>2904535</v>
       </c>
       <c r="E69" t="n">
-        <v>2940218</v>
+        <v>2904535</v>
       </c>
       <c r="F69" t="n">
-        <v>295.8363487766194</v>
+        <v>4.182936912294163</v>
       </c>
       <c r="G69" t="n">
-        <v>4.098058887108365</v>
+        <v>921.9189785409206</v>
       </c>
       <c r="H69" t="n">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="I69" t="n">
-        <v>14479.6</v>
+        <v>17664.24</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3363851</v>
+        <v>3369633</v>
       </c>
       <c r="E70" t="n">
-        <v>8300130</v>
+        <v>8314397</v>
       </c>
       <c r="F70" t="n">
-        <v>1217.348860717888</v>
+        <v>1172.179825611435</v>
       </c>
       <c r="G70" t="n">
-        <v>1174.813132604284</v>
+        <v>1204.833610546201</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>57954</v>
+        <v>53787</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23282104</v>
+        <v>23336477</v>
       </c>
       <c r="F71" t="n">
-        <v>182.510053753357</v>
+        <v>147.3821331383095</v>
       </c>
       <c r="G71" t="n">
-        <v>16.60498043314886</v>
+        <v>43.08980284035484</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="I71" t="n">
-        <v>118476</v>
+        <v>117870</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>271964</v>
+        <v>269993</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2227.23</v>
+        <v>2288.14</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>71890757</v>
+        <v>72471916</v>
       </c>
       <c r="E73" t="n">
-        <v>149928736</v>
+        <v>151140747</v>
       </c>
       <c r="F73" t="n">
-        <v>15318.51519891369</v>
+        <v>14048.80142368086</v>
       </c>
       <c r="G73" t="n">
-        <v>8772.514370784145</v>
+        <v>5540.422818468081</v>
       </c>
       <c r="H73" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="I73" t="n">
-        <v>13745810</v>
+        <v>14006060</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>195633056</v>
+        <v>205715536</v>
       </c>
       <c r="F75" t="n">
-        <v>9981.164584155875</v>
+        <v>7125.066175571225</v>
       </c>
       <c r="G75" t="n">
-        <v>25774.56998615411</v>
+        <v>20114.94824292404</v>
       </c>
       <c r="H75" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I75" t="n">
-        <v>4217789</v>
+        <v>4526017</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>83034639</v>
+        <v>83638406</v>
       </c>
       <c r="E76" t="n">
-        <v>114019482</v>
+        <v>114848547</v>
       </c>
       <c r="F76" t="n">
-        <v>1062.659370143533</v>
+        <v>1200.665635715064</v>
       </c>
       <c r="G76" t="n">
-        <v>8363.848030567999</v>
+        <v>10439.61034228261</v>
       </c>
       <c r="H76" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>949149</v>
+        <v>946546</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>185109</v>
+        <v>189258</v>
       </c>
       <c r="E77" t="n">
-        <v>193307</v>
+        <v>197639</v>
       </c>
       <c r="F77" t="n">
-        <v>4.046233809890412</v>
+        <v>5.380835536955339</v>
       </c>
       <c r="G77" t="n">
-        <v>3.797664363991799</v>
+        <v>3.900912080051191</v>
       </c>
       <c r="H77" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="I77" t="n">
-        <v>597.46</v>
+        <v>435.03</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7330897</v>
+        <v>7336796</v>
       </c>
       <c r="E78" t="n">
-        <v>8064476</v>
+        <v>8070966</v>
       </c>
       <c r="F78" t="n">
-        <v>320.5197135248253</v>
+        <v>22.13625110125617</v>
       </c>
       <c r="G78" t="n">
-        <v>99.22432151206729</v>
+        <v>348.1037062381944</v>
       </c>
       <c r="H78" t="n">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="I78" t="n">
-        <v>633519</v>
+        <v>639555</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29281935</v>
+        <v>28292096</v>
       </c>
       <c r="E79" t="n">
-        <v>29281935</v>
+        <v>28292096</v>
       </c>
       <c r="F79" t="n">
-        <v>186.2889178099698</v>
+        <v>87.27220679018531</v>
       </c>
       <c r="G79" t="n">
-        <v>222.0442763077512</v>
+        <v>1044.416814339472</v>
       </c>
       <c r="H79" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="I79" t="n">
-        <v>276085</v>
+        <v>268095</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>274671870</v>
+        <v>277603540</v>
       </c>
       <c r="E80" t="n">
-        <v>274671870</v>
+        <v>277603540</v>
       </c>
       <c r="F80" t="n">
-        <v>88.27214729024924</v>
+        <v>59.94255518460331</v>
       </c>
       <c r="G80" t="n">
-        <v>3877.997303838116</v>
+        <v>2755.023546284649</v>
       </c>
       <c r="H80" t="n">
         <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>10517320</v>
+        <v>10134959</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>612299391</v>
+        <v>620398963</v>
       </c>
       <c r="E81" t="n">
-        <v>612299391</v>
+        <v>620398963</v>
       </c>
       <c r="F81" t="n">
-        <v>737798.4044473441</v>
+        <v>765451.5478869246</v>
       </c>
       <c r="G81" t="n">
-        <v>600786.0886531777</v>
+        <v>732758.0401956665</v>
       </c>
       <c r="H81" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="I81" t="n">
-        <v>256526469</v>
+        <v>261969991</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>112387</v>
+        <v>112801</v>
       </c>
       <c r="E82" t="n">
-        <v>112387</v>
+        <v>112801</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>148.08</v>
+        <v>145.29</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>196302898</v>
+        <v>197794024</v>
       </c>
       <c r="E83" t="n">
-        <v>681974010</v>
+        <v>687154314</v>
       </c>
       <c r="F83" t="n">
-        <v>684.0034359906502</v>
+        <v>1424.220317964187</v>
       </c>
       <c r="G83" t="n">
-        <v>4105.585901288725</v>
+        <v>4396.249472286324</v>
       </c>
       <c r="H83" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I83" t="n">
-        <v>25608865</v>
+        <v>26084599</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4110191</v>
+        <v>3997623</v>
       </c>
       <c r="E84" t="n">
-        <v>4110191</v>
+        <v>3997623</v>
       </c>
       <c r="F84" t="n">
-        <v>566.314511884094</v>
+        <v>548.761505569395</v>
       </c>
       <c r="G84" t="n">
-        <v>4968.357772112782</v>
+        <v>1652.826587876558</v>
       </c>
       <c r="H84" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>3781240</v>
+        <v>3705732</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>111865472</v>
+        <v>114343840</v>
       </c>
       <c r="E85" t="n">
-        <v>475931544</v>
+        <v>486424928</v>
       </c>
       <c r="F85" t="n">
-        <v>280958.8839056069</v>
+        <v>309637.7581370598</v>
       </c>
       <c r="G85" t="n">
-        <v>405415.4845872012</v>
+        <v>489674.2080347278</v>
       </c>
       <c r="H85" t="n">
-        <v>0.78</v>
+        <v>0.27</v>
       </c>
       <c r="I85" t="n">
-        <v>12263261</v>
+        <v>13258580</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>73090830</v>
+        <v>72997662</v>
       </c>
       <c r="E86" t="n">
-        <v>83862417</v>
+        <v>83755519</v>
       </c>
       <c r="F86" t="n">
-        <v>6997.54906666161</v>
+        <v>9788.889569293891</v>
       </c>
       <c r="G86" t="n">
-        <v>4144.986473857219</v>
+        <v>12746.42870856382</v>
       </c>
       <c r="H86" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I86" t="n">
-        <v>1201851</v>
+        <v>1206877</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3144007</v>
+        <v>3131924</v>
       </c>
       <c r="E87" t="n">
-        <v>15763340</v>
+        <v>15702758</v>
       </c>
       <c r="F87" t="n">
-        <v>72.39150084325323</v>
+        <v>5.426315059180443</v>
       </c>
       <c r="G87" t="n">
-        <v>3.934800044024183</v>
+        <v>4.047653552492535</v>
       </c>
       <c r="H87" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="I87" t="n">
-        <v>28214</v>
+        <v>31606</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>532179</v>
+        <v>532831</v>
       </c>
       <c r="E88" t="n">
-        <v>9102884</v>
+        <v>9114038</v>
       </c>
       <c r="F88" t="n">
-        <v>18.78100356197604</v>
+        <v>5.55132993030269</v>
       </c>
       <c r="G88" t="n">
-        <v>108.6494206662723</v>
+        <v>108.0638842301743</v>
       </c>
       <c r="H88" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I88" t="n">
-        <v>311817</v>
+        <v>304571</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5936473</v>
+        <v>5954028</v>
       </c>
       <c r="E89" t="n">
-        <v>8066583</v>
+        <v>8090290</v>
       </c>
       <c r="F89" t="n">
-        <v>1179.491815659658</v>
+        <v>1198.005675297601</v>
       </c>
       <c r="G89" t="n">
-        <v>103.3924433054953</v>
+        <v>67.29350930107667</v>
       </c>
       <c r="H89" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I89" t="n">
-        <v>6470657</v>
+        <v>6472754</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40685324</v>
+        <v>40728176</v>
       </c>
       <c r="E90" t="n">
-        <v>47519492</v>
+        <v>47569542</v>
       </c>
       <c r="F90" t="n">
-        <v>141.1438175740423</v>
+        <v>850.6236709142805</v>
       </c>
       <c r="G90" t="n">
-        <v>134.8397802405676</v>
+        <v>63.27622435560553</v>
       </c>
       <c r="H90" t="n">
-        <v>0.39</v>
+        <v>0.84</v>
       </c>
       <c r="I90" t="n">
-        <v>855123</v>
+        <v>851220</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14342707</v>
+        <v>14441932</v>
       </c>
       <c r="F91" t="n">
-        <v>221.3056466550904</v>
+        <v>220.6649180015868</v>
       </c>
       <c r="G91" t="n">
-        <v>165.5629134901715</v>
+        <v>221.3226278359864</v>
       </c>
       <c r="H91" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="I91" t="n">
-        <v>228989</v>
+        <v>431431</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35294035</v>
+        <v>35613527</v>
       </c>
       <c r="E92" t="n">
-        <v>35294035</v>
+        <v>35613527</v>
       </c>
       <c r="F92" t="n">
-        <v>692.811681904148</v>
+        <v>635.3865933165462</v>
       </c>
       <c r="G92" t="n">
-        <v>55.09899276237811</v>
+        <v>152.3192053525984</v>
       </c>
       <c r="H92" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="I92" t="n">
-        <v>740158</v>
+        <v>752806</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17417640</v>
+        <v>17400908</v>
       </c>
       <c r="F93" t="n">
-        <v>118.3138740374555</v>
+        <v>128.4888583088464</v>
       </c>
       <c r="G93" t="n">
-        <v>282.2721999247801</v>
+        <v>445.9834303381461</v>
       </c>
       <c r="H93" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="I93" t="n">
-        <v>166817</v>
+        <v>167255</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>535973</v>
+        <v>537238</v>
       </c>
       <c r="E94" t="n">
-        <v>6500831</v>
+        <v>6516169</v>
       </c>
       <c r="F94" t="n">
-        <v>976.9677880812297</v>
+        <v>1019.007097175151</v>
       </c>
       <c r="G94" t="n">
-        <v>2972.014684217224</v>
+        <v>2160.600561085691</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="I94" t="n">
-        <v>2761898</v>
+        <v>2774084</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24979204</v>
+        <v>24909223</v>
       </c>
       <c r="E95" t="n">
-        <v>35307129</v>
+        <v>35208214</v>
       </c>
       <c r="F95" t="n">
-        <v>4.225394987250691</v>
+        <v>5.544745040346393</v>
       </c>
       <c r="G95" t="n">
-        <v>4.144014681836648</v>
+        <v>3.897262304226493</v>
       </c>
       <c r="H95" t="n">
         <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>70899</v>
+        <v>82664</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1264156134</v>
+        <v>1276397890</v>
       </c>
       <c r="E96" t="n">
-        <v>6061887554</v>
+        <v>6120589285</v>
       </c>
       <c r="F96" t="n">
-        <v>483367.3427997663</v>
+        <v>439197.6619780371</v>
       </c>
       <c r="G96" t="n">
-        <v>553717.2404710019</v>
+        <v>575482.2459072812</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>181356208</v>
+        <v>177973795</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>265570979</v>
+        <v>265016990</v>
       </c>
       <c r="E97" t="n">
-        <v>1146351773</v>
+        <v>1143960453</v>
       </c>
       <c r="F97" t="n">
-        <v>300467.5784645216</v>
+        <v>127010.3926182935</v>
       </c>
       <c r="G97" t="n">
-        <v>999735.9812469891</v>
+        <v>1107804.177899401</v>
       </c>
       <c r="H97" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="I97" t="n">
-        <v>110339878</v>
+        <v>111546265</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4988466</v>
+        <v>5017477</v>
       </c>
       <c r="E98" t="n">
-        <v>5528214</v>
+        <v>5560364</v>
       </c>
       <c r="F98" t="n">
-        <v>1141.78620361632</v>
+        <v>1149.722349511517</v>
       </c>
       <c r="G98" t="n">
-        <v>331.8223763867379</v>
+        <v>328.9249751850852</v>
       </c>
       <c r="H98" t="n">
         <v>0.27</v>
       </c>
       <c r="I98" t="n">
-        <v>679568</v>
+        <v>688847</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90161</v>
+        <v>93386</v>
       </c>
       <c r="E99" t="n">
-        <v>90161</v>
+        <v>93386</v>
       </c>
       <c r="F99" t="n">
-        <v>5.51064859043978</v>
+        <v>5.517215231481059</v>
       </c>
       <c r="G99" t="n">
-        <v>442.5704767482573</v>
+        <v>341.7475885256036</v>
       </c>
       <c r="H99" t="n">
-        <v>0.29</v>
+        <v>0.66</v>
       </c>
       <c r="I99" t="n">
-        <v>4908.34</v>
+        <v>5179.22</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113469893</v>
+        <v>114097862</v>
       </c>
       <c r="E100" t="n">
-        <v>113469893</v>
+        <v>114097862</v>
       </c>
       <c r="F100" t="n">
-        <v>8740.448488161705</v>
+        <v>12238.02707651525</v>
       </c>
       <c r="G100" t="n">
-        <v>16675.95310954781</v>
+        <v>8238.589777606185</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>5973060</v>
+        <v>6030132</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3754225</v>
+        <v>3776782</v>
       </c>
       <c r="F101" t="n">
-        <v>1210.275927821874</v>
+        <v>2166.018545269811</v>
       </c>
       <c r="G101" t="n">
-        <v>1530.471911136975</v>
+        <v>1210.527153954785</v>
       </c>
       <c r="H101" t="n">
-        <v>0.96</v>
+        <v>0.53</v>
       </c>
       <c r="I101" t="n">
-        <v>318281</v>
+        <v>295217</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2044340388</v>
+        <v>2043593142</v>
       </c>
       <c r="E102" t="n">
-        <v>2044340388</v>
+        <v>2043593142</v>
       </c>
       <c r="F102" t="n">
-        <v>7513266.03267977</v>
+        <v>7081703.304937748</v>
       </c>
       <c r="G102" t="n">
-        <v>5089653.82775779</v>
+        <v>5484534.784922226</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5637951710</v>
+        <v>5803708006</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5354001</v>
+        <v>5316682</v>
       </c>
       <c r="E103" t="n">
-        <v>5360060</v>
+        <v>5322699</v>
       </c>
       <c r="F103" t="n">
-        <v>261.0329788411246</v>
+        <v>261.073011765005</v>
       </c>
       <c r="G103" t="n">
-        <v>81.85133681263757</v>
+        <v>83.20919024010909</v>
       </c>
       <c r="H103" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>153320</v>
+        <v>151525</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2323391</v>
+        <v>2329112</v>
       </c>
       <c r="F104" t="n">
-        <v>263.7524583911423</v>
+        <v>223.1812821539377</v>
       </c>
       <c r="G104" t="n">
-        <v>23.6733782135538</v>
+        <v>23.67455446123672</v>
       </c>
       <c r="H104" t="n">
         <v>0.65</v>
       </c>
       <c r="I104" t="n">
-        <v>71730</v>
+        <v>71338</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4346205</v>
+        <v>4388086</v>
       </c>
       <c r="E105" t="n">
-        <v>5706000</v>
+        <v>5760985</v>
       </c>
       <c r="F105" t="n">
-        <v>11182.98415004177</v>
+        <v>11163.4416613891</v>
       </c>
       <c r="G105" t="n">
-        <v>12401.00145584156</v>
+        <v>11915.07691447366</v>
       </c>
       <c r="H105" t="n">
         <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>633899</v>
+        <v>609796</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20196818</v>
+        <v>20165849</v>
       </c>
       <c r="F106" t="n">
-        <v>143.9412348612182</v>
+        <v>144.2933760797017</v>
       </c>
       <c r="G106" t="n">
-        <v>858.9982189819832</v>
+        <v>807.5323429042816</v>
       </c>
       <c r="H106" t="n">
         <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>128425</v>
+        <v>125686</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1350750</v>
+        <v>1364455</v>
       </c>
       <c r="E107" t="n">
-        <v>5036097</v>
+        <v>5087149</v>
       </c>
       <c r="F107" t="n">
-        <v>169.9047175884243</v>
+        <v>187.5070321169809</v>
       </c>
       <c r="G107" t="n">
-        <v>319.3339799025881</v>
+        <v>332.0106850459774</v>
       </c>
       <c r="H107" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="I107" t="n">
-        <v>608721</v>
+        <v>614093</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3998060</v>
+        <v>4045623</v>
       </c>
       <c r="E108" t="n">
-        <v>11516034</v>
+        <v>11652699</v>
       </c>
       <c r="F108" t="n">
-        <v>11.5596680930449</v>
+        <v>108.3790332610896</v>
       </c>
       <c r="G108" t="n">
-        <v>7185.061438175497</v>
+        <v>7238.067127524463</v>
       </c>
       <c r="H108" t="n">
-        <v>2.26</v>
+        <v>1.35</v>
       </c>
       <c r="I108" t="n">
-        <v>538726</v>
+        <v>567499</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80062672</v>
+        <v>80376151</v>
       </c>
       <c r="E109" t="n">
-        <v>101885973</v>
+        <v>102284899</v>
       </c>
       <c r="F109" t="n">
-        <v>3205.711295008041</v>
+        <v>6264.856707127865</v>
       </c>
       <c r="G109" t="n">
-        <v>535.28850339721</v>
+        <v>304.0671648596505</v>
       </c>
       <c r="H109" t="n">
-        <v>0.42</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I109" t="n">
-        <v>6164174</v>
+        <v>6200944</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22374763</v>
+        <v>22412177</v>
       </c>
       <c r="E110" t="n">
-        <v>29025186</v>
+        <v>29073720</v>
       </c>
       <c r="F110" t="n">
-        <v>21514.72048583572</v>
+        <v>19149.27025189721</v>
       </c>
       <c r="G110" t="n">
-        <v>12232.06979738207</v>
+        <v>10821.74180160356</v>
       </c>
       <c r="H110" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="I110" t="n">
-        <v>161715</v>
+        <v>162408</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>609449</v>
+        <v>621800</v>
       </c>
       <c r="E111" t="n">
-        <v>609449</v>
+        <v>621800</v>
       </c>
       <c r="F111" t="n">
-        <v>11.8175013690162</v>
+        <v>242.8181024632251</v>
       </c>
       <c r="G111" t="n">
-        <v>80.8875370259873</v>
+        <v>3.065023936140073</v>
       </c>
       <c r="H111" t="n">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="I111" t="n">
-        <v>77822</v>
+        <v>78346</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13619282</v>
+        <v>14113961</v>
       </c>
       <c r="E112" t="n">
-        <v>13619282</v>
+        <v>14113961</v>
       </c>
       <c r="F112" t="n">
-        <v>2255.111930606524</v>
+        <v>3146.729757454829</v>
       </c>
       <c r="G112" t="n">
-        <v>3166.756864040759</v>
+        <v>2181.715784307014</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="I112" t="n">
-        <v>4385611</v>
+        <v>4518087</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98421988</v>
+        <v>98716640</v>
       </c>
       <c r="E113" t="n">
-        <v>121744477</v>
+        <v>122108951</v>
       </c>
       <c r="F113" t="n">
-        <v>298.8591139734952</v>
+        <v>102.5386275636164</v>
       </c>
       <c r="G113" t="n">
-        <v>1786.42498167617</v>
+        <v>720.4226334112232</v>
       </c>
       <c r="H113" t="n">
-        <v>0.14</v>
+        <v>0.7</v>
       </c>
       <c r="I113" t="n">
-        <v>779579</v>
+        <v>787773</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>835394</v>
+        <v>829147</v>
       </c>
       <c r="F114" t="n">
-        <v>53.76070095861018</v>
+        <v>174.1285782361921</v>
       </c>
       <c r="G114" t="n">
-        <v>486.9662205879443</v>
+        <v>159.9916484414341</v>
       </c>
       <c r="H114" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="I114" t="n">
-        <v>27688</v>
+        <v>27254</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2858384</v>
+        <v>2850477</v>
       </c>
       <c r="F115" t="n">
-        <v>201.5818345584647</v>
+        <v>255.0136237074826</v>
       </c>
       <c r="G115" t="n">
-        <v>2158.156374794814</v>
+        <v>2039.920927367553</v>
       </c>
       <c r="H115" t="n">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="I115" t="n">
-        <v>19852.69</v>
+        <v>20763</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10856449</v>
+        <v>10953378</v>
       </c>
       <c r="E116" t="n">
-        <v>15965365</v>
+        <v>16107908</v>
       </c>
       <c r="F116" t="n">
-        <v>3359.288687529923</v>
+        <v>3381.431055396927</v>
       </c>
       <c r="G116" t="n">
-        <v>1258.18823269217</v>
+        <v>1677.123779535381</v>
       </c>
       <c r="H116" t="n">
-        <v>0.74</v>
+        <v>0.48</v>
       </c>
       <c r="I116" t="n">
-        <v>417932</v>
+        <v>422034</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3214549</v>
+        <v>3239301</v>
       </c>
       <c r="F117" t="n">
-        <v>7.70315213555978</v>
+        <v>5.368328039916259</v>
       </c>
       <c r="G117" t="n">
-        <v>389.6609544992187</v>
+        <v>388.2852757330892</v>
       </c>
       <c r="H117" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="I117" t="n">
-        <v>37509</v>
+        <v>37540</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1088737</v>
+        <v>1087384</v>
       </c>
       <c r="F118" t="n">
-        <v>3.898061100122323</v>
+        <v>4.023809402578798</v>
       </c>
       <c r="G118" t="n">
-        <v>5.525818475604503</v>
+        <v>38.8090799837964</v>
       </c>
       <c r="H118" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I118" t="n">
-        <v>3377.95</v>
+        <v>3094.84</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5214246</v>
+        <v>5153656</v>
       </c>
       <c r="E119" t="n">
-        <v>7295486</v>
+        <v>7210712</v>
       </c>
       <c r="F119" t="n">
-        <v>996.902407994819</v>
+        <v>956.898720979244</v>
       </c>
       <c r="G119" t="n">
-        <v>476.9435738790933</v>
+        <v>676.1170492400676</v>
       </c>
       <c r="H119" t="n">
         <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>103975</v>
+        <v>109891</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10078450</v>
+        <v>10216882</v>
       </c>
       <c r="E120" t="n">
-        <v>27760661</v>
+        <v>28141964</v>
       </c>
       <c r="F120" t="n">
-        <v>566.7902643940442</v>
+        <v>13.13426230545027</v>
       </c>
       <c r="G120" t="n">
-        <v>38.36516811207307</v>
+        <v>637.9008863094533</v>
       </c>
       <c r="H120" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="I120" t="n">
-        <v>345871</v>
+        <v>345328</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>52357074</v>
+        <v>53049791</v>
       </c>
       <c r="E121" t="n">
-        <v>133382640</v>
+        <v>135147376</v>
       </c>
       <c r="F121" t="n">
-        <v>641.0948141024807</v>
+        <v>389.0705646775785</v>
       </c>
       <c r="G121" t="n">
-        <v>11915.18931904926</v>
+        <v>11350.95771829464</v>
       </c>
       <c r="H121" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I121" t="n">
-        <v>2368727</v>
+        <v>2447163</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13770022</v>
+        <v>13932234</v>
       </c>
       <c r="E122" t="n">
-        <v>66690417</v>
+        <v>67476035</v>
       </c>
       <c r="F122" t="n">
-        <v>2555.136654279288</v>
+        <v>3448.053557666968</v>
       </c>
       <c r="G122" t="n">
-        <v>3125.709098756655</v>
+        <v>3562.509950283751</v>
       </c>
       <c r="H122" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I122" t="n">
-        <v>3616067</v>
+        <v>3607686</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>517127</v>
+        <v>516665</v>
       </c>
       <c r="F123" t="n">
-        <v>4.045021275496537</v>
+        <v>5.512117653984813</v>
       </c>
       <c r="G123" t="n">
-        <v>3.958221602633465</v>
+        <v>3.852378345392057</v>
       </c>
       <c r="H123" t="n">
         <v>0.84</v>
       </c>
       <c r="I123" t="n">
-        <v>7809.97</v>
+        <v>8133.44</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4503588</v>
+        <v>4569015</v>
       </c>
       <c r="E124" t="n">
-        <v>10265729</v>
+        <v>10414867</v>
       </c>
       <c r="F124" t="n">
-        <v>1121.098941724036</v>
+        <v>243.3503428790607</v>
       </c>
       <c r="G124" t="n">
-        <v>1218.248677116761</v>
+        <v>2175.947876984399</v>
       </c>
       <c r="H124" t="n">
-        <v>0.87</v>
+        <v>1.34</v>
       </c>
       <c r="I124" t="n">
-        <v>100235</v>
+        <v>93242</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1880904673</v>
+        <v>1884120105</v>
       </c>
       <c r="F125" t="n">
-        <v>76944.8164009076</v>
+        <v>70781.53862323366</v>
       </c>
       <c r="G125" t="n">
-        <v>69422.55535035889</v>
+        <v>71740.92449147906</v>
       </c>
       <c r="H125" t="n">
-        <v>0.53</v>
+        <v>0.79</v>
       </c>
       <c r="I125" t="n">
-        <v>26176124</v>
+        <v>25822745</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9369410</v>
+        <v>9389034</v>
       </c>
       <c r="E126" t="n">
-        <v>34117152</v>
+        <v>34188381</v>
       </c>
       <c r="F126" t="n">
-        <v>1161.767267058739</v>
+        <v>1162.054262550798</v>
       </c>
       <c r="G126" t="n">
-        <v>5.354156227839343</v>
+        <v>5.316135242696308</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>159814</v>
+        <v>159662</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>540664</v>
+        <v>541136</v>
       </c>
       <c r="F127" t="n">
-        <v>22.96141846453144</v>
+        <v>21.87770475073521</v>
       </c>
       <c r="G127" t="n">
-        <v>21.08498436038551</v>
+        <v>483.2003800753705</v>
       </c>
       <c r="H127" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="I127" t="n">
-        <v>19810.52</v>
+        <v>19327.07</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12242045</v>
+        <v>12192890</v>
       </c>
       <c r="E128" t="n">
-        <v>17749199</v>
+        <v>17677931</v>
       </c>
       <c r="F128" t="n">
-        <v>2022.621707961762</v>
+        <v>2683.660827630882</v>
       </c>
       <c r="G128" t="n">
-        <v>2999.264369801172</v>
+        <v>7473.752539127437</v>
       </c>
       <c r="H128" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="I128" t="n">
-        <v>2268731</v>
+        <v>2161672</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>32279688</v>
+        <v>32046874</v>
       </c>
       <c r="E129" t="n">
-        <v>100508591</v>
+        <v>99783683</v>
       </c>
       <c r="F129" t="n">
-        <v>5859.374421296004</v>
+        <v>6983.572965372247</v>
       </c>
       <c r="G129" t="n">
-        <v>7236.414672343494</v>
+        <v>7086.749145041268</v>
       </c>
       <c r="H129" t="n">
         <v>0.23</v>
       </c>
       <c r="I129" t="n">
-        <v>11900638</v>
+        <v>12025224</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2074717</v>
+        <v>2076100</v>
       </c>
       <c r="E130" t="n">
-        <v>14877589</v>
+        <v>14887505</v>
       </c>
       <c r="F130" t="n">
-        <v>4.112386210066042</v>
+        <v>4.144456847852919</v>
       </c>
       <c r="G130" t="n">
-        <v>3.895229756329425</v>
+        <v>4.089558983933319</v>
       </c>
       <c r="H130" t="n">
         <v>0.53</v>
       </c>
       <c r="I130" t="n">
-        <v>1936067</v>
+        <v>1936550</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7899145</v>
+        <v>7698768</v>
       </c>
       <c r="F131" t="n">
-        <v>132.029554784085</v>
+        <v>70.3683443867038</v>
       </c>
       <c r="G131" t="n">
-        <v>151.7628325942987</v>
+        <v>417.3397892118609</v>
       </c>
       <c r="H131" t="n">
-        <v>1.68</v>
+        <v>0.04</v>
       </c>
       <c r="I131" t="n">
-        <v>402969</v>
+        <v>489223</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>200134290</v>
+        <v>201504515</v>
       </c>
       <c r="E132" t="n">
-        <v>1133283321</v>
+        <v>1141042379</v>
       </c>
       <c r="F132" t="n">
-        <v>333156.8050956585</v>
+        <v>432091.2839571064</v>
       </c>
       <c r="G132" t="n">
-        <v>498308.3304039962</v>
+        <v>467800.6105268374</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>60277017</v>
+        <v>63687442</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1024617</v>
+        <v>1045668</v>
       </c>
       <c r="E133" t="n">
-        <v>1024617</v>
+        <v>1045668</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>12139.93</v>
+        <v>12319.8</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>502862</v>
+        <v>502746</v>
       </c>
       <c r="E134" t="n">
-        <v>1692564</v>
+        <v>1692173</v>
       </c>
       <c r="F134" t="n">
-        <v>175.3253845756047</v>
+        <v>175.9753870172567</v>
       </c>
       <c r="G134" t="n">
-        <v>224.6924814525386</v>
+        <v>146.3608013798327</v>
       </c>
       <c r="H134" t="n">
-        <v>1.19</v>
+        <v>0.6</v>
       </c>
       <c r="I134" t="n">
-        <v>633226</v>
+        <v>630545</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>16659166</v>
+        <v>13630523</v>
       </c>
       <c r="F135" t="n">
-        <v>5.333497773369229</v>
+        <v>5.333762776291128</v>
       </c>
       <c r="G135" t="n">
-        <v>3.908146162967376</v>
+        <v>3.908340345133828</v>
       </c>
       <c r="H135" t="n">
         <v>0.96</v>
       </c>
       <c r="I135" t="n">
-        <v>758.03</v>
+        <v>713.79</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>137348991</v>
+        <v>138853557</v>
       </c>
       <c r="E136" t="n">
-        <v>1017399933</v>
+        <v>1028544867</v>
       </c>
       <c r="F136" t="n">
-        <v>59368.24690467396</v>
+        <v>59419.93560984789</v>
       </c>
       <c r="G136" t="n">
-        <v>59170.38740624298</v>
+        <v>59121.52315540511</v>
       </c>
       <c r="H136" t="n">
         <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>11834201</v>
+        <v>11159343</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31253206</v>
+        <v>31483648</v>
       </c>
       <c r="E137" t="n">
-        <v>148562293</v>
+        <v>149657700</v>
       </c>
       <c r="F137" t="n">
-        <v>3619.76273534536</v>
+        <v>15676.63245841917</v>
       </c>
       <c r="G137" t="n">
-        <v>3650.217704173595</v>
+        <v>15632.78672687691</v>
       </c>
       <c r="H137" t="n">
         <v>0.47</v>
       </c>
       <c r="I137" t="n">
-        <v>1238722</v>
+        <v>1271812</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8110863</v>
+        <v>8191330</v>
       </c>
       <c r="E138" t="n">
-        <v>10866296</v>
+        <v>10973651</v>
       </c>
       <c r="F138" t="n">
-        <v>136.4101594055497</v>
+        <v>252.9941368400948</v>
       </c>
       <c r="G138" t="n">
-        <v>81.77466597080731</v>
+        <v>295.1162840158337</v>
       </c>
       <c r="H138" t="n">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="I138" t="n">
-        <v>58283</v>
+        <v>59582</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1250215</v>
+        <v>1248628</v>
       </c>
       <c r="F139" t="n">
-        <v>19.90561412158144</v>
+        <v>97.51051118590283</v>
       </c>
       <c r="G139" t="n">
-        <v>4.014761126510781</v>
+        <v>4.014884103328168</v>
       </c>
       <c r="H139" t="n">
         <v>0.93</v>
       </c>
       <c r="I139" t="n">
-        <v>48213</v>
+        <v>49149</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2348101</v>
+        <v>2369204</v>
       </c>
       <c r="E140" t="n">
-        <v>2348101</v>
+        <v>2369204</v>
       </c>
       <c r="F140" t="n">
-        <v>976.6216375531451</v>
+        <v>1295.365738902967</v>
       </c>
       <c r="G140" t="n">
-        <v>242.6512782174273</v>
+        <v>318.0467386822629</v>
       </c>
       <c r="H140" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I140" t="n">
-        <v>260649</v>
+        <v>256795</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>25307844</v>
+        <v>25290945</v>
       </c>
       <c r="E141" t="n">
-        <v>25307844</v>
+        <v>25290945</v>
       </c>
       <c r="F141" t="n">
-        <v>1188.979175708144</v>
+        <v>869.7365822386148</v>
       </c>
       <c r="G141" t="n">
-        <v>1168.057392942382</v>
+        <v>801.223209313559</v>
       </c>
       <c r="H141" t="n">
-        <v>1.16</v>
+        <v>0.14</v>
       </c>
       <c r="I141" t="n">
-        <v>332276</v>
+        <v>324995</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6487631</v>
+        <v>6451994</v>
       </c>
       <c r="E142" t="n">
-        <v>6851665</v>
+        <v>6814028</v>
       </c>
       <c r="F142" t="n">
-        <v>819.2911228415961</v>
+        <v>707.0259781508689</v>
       </c>
       <c r="G142" t="n">
-        <v>417.5684271776333</v>
+        <v>268.3432363657417</v>
       </c>
       <c r="H142" t="n">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="I142" t="n">
-        <v>68686</v>
+        <v>69718</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3431500</v>
+        <v>3450900</v>
       </c>
       <c r="E143" t="n">
-        <v>8013126</v>
+        <v>8058426</v>
       </c>
       <c r="F143" t="n">
-        <v>1614.452640529442</v>
+        <v>2406.939884603611</v>
       </c>
       <c r="G143" t="n">
-        <v>795.0683523205587</v>
+        <v>1202.879302654426</v>
       </c>
       <c r="H143" t="n">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="I143" t="n">
-        <v>773436</v>
+        <v>776679</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1562288</v>
+        <v>1547558</v>
       </c>
       <c r="E144" t="n">
-        <v>12133904</v>
+        <v>12019499</v>
       </c>
       <c r="F144" t="n">
-        <v>200.2583111143028</v>
+        <v>300.7742769030335</v>
       </c>
       <c r="G144" t="n">
-        <v>1060.02448996646</v>
+        <v>614.6057544020491</v>
       </c>
       <c r="H144" t="n">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="I144" t="n">
-        <v>508515</v>
+        <v>516006</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>334352201</v>
+        <v>337322988</v>
       </c>
       <c r="E145" t="n">
-        <v>3008039725</v>
+        <v>3034766767</v>
       </c>
       <c r="F145" t="n">
-        <v>513180.503237229</v>
+        <v>618912.3854153157</v>
       </c>
       <c r="G145" t="n">
-        <v>741802.1314638916</v>
+        <v>714884.1985433752</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>36604161</v>
+        <v>36468303</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>260503</v>
+        <v>260182</v>
       </c>
       <c r="E146" t="n">
-        <v>2299137</v>
+        <v>2296300</v>
       </c>
       <c r="F146" t="n">
-        <v>4.169979705204252</v>
+        <v>170.201273136593</v>
       </c>
       <c r="G146" t="n">
-        <v>5.417522201363899</v>
+        <v>4.035340715187943</v>
       </c>
       <c r="H146" t="n">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="I146" t="n">
-        <v>72239</v>
+        <v>73039</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>643827</v>
+        <v>644677</v>
       </c>
       <c r="F147" t="n">
-        <v>928.0596590439608</v>
+        <v>938.0233668058012</v>
       </c>
       <c r="G147" t="n">
-        <v>622.0344973749635</v>
+        <v>622.8653553189004</v>
       </c>
       <c r="H147" t="n">
-        <v>0.57</v>
+        <v>0.1</v>
       </c>
       <c r="I147" t="n">
-        <v>5676.98</v>
+        <v>5658.3</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4902034</v>
+        <v>4928095</v>
       </c>
       <c r="E148" t="n">
-        <v>17322441</v>
+        <v>17414248</v>
       </c>
       <c r="F148" t="n">
-        <v>1576.925631822273</v>
+        <v>1802.636281088689</v>
       </c>
       <c r="G148" t="n">
-        <v>2478.736033244348</v>
+        <v>2393.278150922281</v>
       </c>
       <c r="H148" t="n">
         <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>105791</v>
+        <v>105344</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8933895</v>
+        <v>9013709</v>
       </c>
       <c r="E149" t="n">
-        <v>41409116</v>
+        <v>41779059</v>
       </c>
       <c r="F149" t="n">
-        <v>3829.255189620599</v>
+        <v>1969.224604961367</v>
       </c>
       <c r="G149" t="n">
-        <v>3408.796104584771</v>
+        <v>8318.488309673987</v>
       </c>
       <c r="H149" t="n">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="I149" t="n">
-        <v>103515</v>
+        <v>105161</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>42671771</v>
+        <v>42854552</v>
       </c>
       <c r="E150" t="n">
-        <v>247051921</v>
+        <v>248110148</v>
       </c>
       <c r="F150" t="n">
-        <v>79038.87386122371</v>
+        <v>73543.45093439613</v>
       </c>
       <c r="G150" t="n">
-        <v>49288.73911993919</v>
+        <v>67043.01466923968</v>
       </c>
       <c r="H150" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I150" t="n">
-        <v>10774693</v>
+        <v>11190874</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>79537</v>
+        <v>79760</v>
       </c>
       <c r="E151" t="n">
-        <v>79537</v>
+        <v>79760</v>
       </c>
       <c r="F151" t="n">
-        <v>4.116808609056712</v>
+        <v>9.776537989360879</v>
       </c>
       <c r="G151" t="n">
-        <v>9.314498661923745</v>
+        <v>14.86414566786836</v>
       </c>
       <c r="H151" t="n">
         <v>0.88</v>
       </c>
       <c r="I151" t="n">
-        <v>19902.94</v>
+        <v>19656.91</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4361601</v>
+        <v>4380574</v>
       </c>
       <c r="F152" t="n">
-        <v>342.4171318147551</v>
+        <v>295.6948927999805</v>
       </c>
       <c r="G152" t="n">
-        <v>250.9549348266058</v>
+        <v>391.2854897245064</v>
       </c>
       <c r="H152" t="n">
         <v>0.34</v>
       </c>
       <c r="I152" t="n">
-        <v>282966</v>
+        <v>304690</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>38816553</v>
+        <v>39320186</v>
       </c>
       <c r="E153" t="n">
-        <v>53611187</v>
+        <v>54306776</v>
       </c>
       <c r="F153" t="n">
-        <v>1116.884141596163</v>
+        <v>1097.58653792887</v>
       </c>
       <c r="G153" t="n">
-        <v>1909.338677303959</v>
+        <v>1513.144339083639</v>
       </c>
       <c r="H153" t="n">
-        <v>1.16</v>
+        <v>0.23</v>
       </c>
       <c r="I153" t="n">
-        <v>361391</v>
+        <v>47294</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2090279</v>
+        <v>2147635</v>
       </c>
       <c r="E154" t="n">
-        <v>8536160</v>
+        <v>8770386</v>
       </c>
       <c r="F154" t="n">
-        <v>362.7268741558515</v>
+        <v>835.2511423566011</v>
       </c>
       <c r="G154" t="n">
-        <v>1230.404181168622</v>
+        <v>304.2620164175808</v>
       </c>
       <c r="H154" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I154" t="n">
-        <v>547080</v>
+        <v>556604</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7492593</v>
+        <v>7361067</v>
       </c>
       <c r="E155" t="n">
-        <v>7548287</v>
+        <v>7415784</v>
       </c>
       <c r="F155" t="n">
-        <v>4507.441177759323</v>
+        <v>2302.420879529611</v>
       </c>
       <c r="G155" t="n">
-        <v>3803.564955233449</v>
+        <v>22674.02824037581</v>
       </c>
       <c r="H155" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>5054316</v>
+        <v>5025930</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>562995</v>
+        <v>592479</v>
       </c>
       <c r="E156" t="n">
-        <v>562995</v>
+        <v>592479</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>29.5</v>
+        <v>24.09</v>
       </c>
       <c r="I156" t="n">
-        <v>5862.4</v>
+        <v>10237.35</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13516762</v>
+        <v>13651422</v>
       </c>
       <c r="E157" t="n">
-        <v>13562760</v>
+        <v>13697879</v>
       </c>
       <c r="F157" t="n">
-        <v>2017.642644491235</v>
+        <v>1687.630118515093</v>
       </c>
       <c r="G157" t="n">
-        <v>3596.046850555515</v>
+        <v>3749.386099497185</v>
       </c>
       <c r="H157" t="n">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="I157" t="n">
-        <v>5765744</v>
+        <v>5836594</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42875025</v>
+        <v>42885557</v>
       </c>
       <c r="E158" t="n">
-        <v>72791818</v>
+        <v>72809698</v>
       </c>
       <c r="F158" t="n">
-        <v>348.8480695608267</v>
+        <v>460.2568709856976</v>
       </c>
       <c r="G158" t="n">
-        <v>733.4295603145783</v>
+        <v>767.5877542801923</v>
       </c>
       <c r="H158" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I158" t="n">
-        <v>1108503</v>
+        <v>1097658</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>25164919</v>
+        <v>24419065</v>
       </c>
       <c r="E159" t="n">
-        <v>75432569</v>
+        <v>73195482</v>
       </c>
       <c r="F159" t="n">
-        <v>12821.46078418824</v>
+        <v>17347.03446765113</v>
       </c>
       <c r="G159" t="n">
-        <v>11501.8378315507</v>
+        <v>12094.58086999849</v>
       </c>
       <c r="H159" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="I159" t="n">
-        <v>2559299</v>
+        <v>2683511</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101078012</v>
+        <v>101131391</v>
       </c>
       <c r="E160" t="n">
-        <v>107455061</v>
+        <v>107511809</v>
       </c>
       <c r="F160" t="n">
-        <v>1003.103300573781</v>
+        <v>1122.354883884864</v>
       </c>
       <c r="G160" t="n">
-        <v>1289.948761373207</v>
+        <v>1595.62243508991</v>
       </c>
       <c r="H160" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="I160" t="n">
-        <v>949454</v>
+        <v>899809</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10636983</v>
+        <v>10638022</v>
       </c>
       <c r="E161" t="n">
-        <v>46282503</v>
+        <v>46248466</v>
       </c>
       <c r="F161" t="n">
-        <v>3648.157957466153</v>
+        <v>3608.456868426942</v>
       </c>
       <c r="G161" t="n">
-        <v>3968.050094404191</v>
+        <v>3142.125562210643</v>
       </c>
       <c r="H161" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="I161" t="n">
-        <v>111051</v>
+        <v>107017</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15048345</v>
+        <v>15063098</v>
       </c>
       <c r="E162" t="n">
-        <v>92236255</v>
+        <v>92326684</v>
       </c>
       <c r="F162" t="n">
-        <v>1550.455615449887</v>
+        <v>2835.505700688221</v>
       </c>
       <c r="G162" t="n">
-        <v>1660.613989797926</v>
+        <v>1394.778556974714</v>
       </c>
       <c r="H162" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I162" t="n">
-        <v>11341526</v>
+        <v>11832471</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1492340</v>
+        <v>1495962</v>
       </c>
       <c r="E163" t="n">
-        <v>1534318</v>
+        <v>1538042</v>
       </c>
       <c r="F163" t="n">
-        <v>75.92616872172869</v>
+        <v>99.0488474366078</v>
       </c>
       <c r="G163" t="n">
-        <v>87.55232513212552</v>
+        <v>87.56175000826239</v>
       </c>
       <c r="H163" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="I163" t="n">
-        <v>131645</v>
+        <v>126519</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97025</v>
+        <v>97024</v>
       </c>
       <c r="E164" t="n">
-        <v>275238</v>
+        <v>275234</v>
       </c>
       <c r="F164" t="n">
-        <v>3.884848962412618</v>
+        <v>3.885106304680544</v>
       </c>
       <c r="G164" t="n">
-        <v>80.52845288943041</v>
+        <v>80.53378729879861</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>40.73</v>
+        <v>40.72</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46559965</v>
+        <v>46831942</v>
       </c>
       <c r="E165" t="n">
-        <v>200575238</v>
+        <v>201746885</v>
       </c>
       <c r="F165" t="n">
-        <v>4441.020337128358</v>
+        <v>6205.547050886807</v>
       </c>
       <c r="G165" t="n">
-        <v>6026.665757423323</v>
+        <v>4852.460152695274</v>
       </c>
       <c r="H165" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I165" t="n">
-        <v>8696391</v>
+        <v>8752489</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7882482</v>
+        <v>7895709</v>
       </c>
       <c r="F166" t="n">
-        <v>503.9028700254117</v>
+        <v>371.015852786436</v>
       </c>
       <c r="G166" t="n">
-        <v>1746.51824596114</v>
+        <v>1669.006698873412</v>
       </c>
       <c r="H166" t="n">
         <v>0.09</v>
       </c>
       <c r="I166" t="n">
-        <v>6327231</v>
+        <v>6278598</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>663903</v>
+        <v>664780</v>
       </c>
       <c r="E167" t="n">
-        <v>2397092</v>
+        <v>2400259</v>
       </c>
       <c r="F167" t="n">
-        <v>50.65249221559475</v>
+        <v>50.33701600928149</v>
       </c>
       <c r="G167" t="n">
-        <v>10.90161260539158</v>
+        <v>10.93233170490125</v>
       </c>
       <c r="H167" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I167" t="n">
-        <v>393840</v>
+        <v>401437</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1648990</v>
+        <v>1677646</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>567.5269373942683</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>13.78113880733912</v>
       </c>
       <c r="H168" t="n">
-        <v>5.78</v>
+        <v>0.95</v>
       </c>
       <c r="I168" t="n">
-        <v>82678</v>
+        <v>88357</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12971467</v>
+        <v>12855979</v>
       </c>
       <c r="E169" t="n">
-        <v>12971467</v>
+        <v>12855979</v>
       </c>
       <c r="F169" t="n">
-        <v>2006.839155525504</v>
+        <v>1855.649904008361</v>
       </c>
       <c r="G169" t="n">
-        <v>339.5458110878284</v>
+        <v>373.629913236269</v>
       </c>
       <c r="H169" t="n">
-        <v>2.89</v>
+        <v>2.2</v>
       </c>
       <c r="I169" t="n">
-        <v>3012173</v>
+        <v>3180824</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1664025</v>
+        <v>1669111</v>
       </c>
       <c r="E170" t="n">
-        <v>6046821</v>
+        <v>6065172</v>
       </c>
       <c r="F170" t="n">
-        <v>886.3825401532506</v>
+        <v>987.2507734499937</v>
       </c>
       <c r="G170" t="n">
-        <v>280.1183489644612</v>
+        <v>176.2149035059415</v>
       </c>
       <c r="H170" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I170" t="n">
-        <v>134601</v>
+        <v>128829</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8881453</v>
+        <v>8677981</v>
       </c>
       <c r="E171" t="n">
-        <v>19721599</v>
+        <v>19269782</v>
       </c>
       <c r="F171" t="n">
-        <v>1871.265598973077</v>
+        <v>1607.532207454813</v>
       </c>
       <c r="G171" t="n">
-        <v>1580.645531066507</v>
+        <v>1758.269716421099</v>
       </c>
       <c r="H171" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="I171" t="n">
-        <v>414933</v>
+        <v>296736</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1017397</v>
+        <v>1037846</v>
       </c>
       <c r="E172" t="n">
-        <v>2973675</v>
+        <v>3033443</v>
       </c>
       <c r="F172" t="n">
-        <v>88.00151527613083</v>
+        <v>79.87395756032754</v>
       </c>
       <c r="G172" t="n">
-        <v>126.6956106031635</v>
+        <v>649.9241185218851</v>
       </c>
       <c r="H172" t="n">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="I172" t="n">
-        <v>10242.61</v>
+        <v>20637</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20300458</v>
+        <v>21061348</v>
       </c>
       <c r="E173" t="n">
-        <v>81201833</v>
+        <v>84245391</v>
       </c>
       <c r="F173" t="n">
-        <v>16492.98136343374</v>
+        <v>17640.10779006088</v>
       </c>
       <c r="G173" t="n">
-        <v>29091.52570115241</v>
+        <v>18944.95728541273</v>
       </c>
       <c r="H173" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="I173" t="n">
-        <v>5973294</v>
+        <v>6080235</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4263482</v>
+        <v>4260177</v>
       </c>
       <c r="E174" t="n">
-        <v>4263482</v>
+        <v>4260177</v>
       </c>
       <c r="F174" t="n">
-        <v>2482.573136581383</v>
+        <v>1350.895199522696</v>
       </c>
       <c r="G174" t="n">
-        <v>893.2348051948508</v>
+        <v>1211.404104616616</v>
       </c>
       <c r="H174" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="I174" t="n">
-        <v>2496992</v>
+        <v>2502871</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>294702728</v>
+        <v>300517609</v>
       </c>
       <c r="E175" t="n">
-        <v>294702728</v>
+        <v>300517609</v>
       </c>
       <c r="F175" t="n">
-        <v>3268.738086055873</v>
+        <v>2702.028772913489</v>
       </c>
       <c r="G175" t="n">
-        <v>4274.578631718649</v>
+        <v>2731.84966425844</v>
       </c>
       <c r="H175" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I175" t="n">
-        <v>12206385</v>
+        <v>12554508</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12759702</v>
+        <v>12789313</v>
       </c>
       <c r="E176" t="n">
-        <v>40367919</v>
+        <v>40461232</v>
       </c>
       <c r="F176" t="n">
-        <v>2122.871392533324</v>
+        <v>4011.651416067159</v>
       </c>
       <c r="G176" t="n">
-        <v>3646.225636850563</v>
+        <v>3509.288517484438</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="I176" t="n">
-        <v>1479242</v>
+        <v>1418058</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26599</v>
+        <v>26601</v>
       </c>
       <c r="E177" t="n">
-        <v>209193</v>
+        <v>209209</v>
       </c>
       <c r="F177" t="n">
-        <v>92.49695703754352</v>
+        <v>188.4260006673861</v>
       </c>
       <c r="G177" t="n">
-        <v>626.1788071722332</v>
+        <v>84.46350686058612</v>
       </c>
       <c r="H177" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I177" t="n">
-        <v>129370</v>
+        <v>131650</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8101593</v>
+        <v>8177078</v>
       </c>
       <c r="E178" t="n">
-        <v>8101593</v>
+        <v>8177078</v>
       </c>
       <c r="F178" t="n">
-        <v>1583.279137964052</v>
+        <v>2277.094533366458</v>
       </c>
       <c r="G178" t="n">
-        <v>1519.518987841756</v>
+        <v>2512.944366564781</v>
       </c>
       <c r="H178" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I178" t="n">
-        <v>3425363</v>
+        <v>3466864</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1087725</v>
+        <v>1089110</v>
       </c>
       <c r="E179" t="n">
-        <v>2477400</v>
+        <v>2480556</v>
       </c>
       <c r="F179" t="n">
-        <v>262.8959780801898</v>
+        <v>262.8539990683865</v>
       </c>
       <c r="G179" t="n">
-        <v>181.4811377795209</v>
+        <v>181.4952847250586</v>
       </c>
       <c r="H179" t="n">
         <v>0.13</v>
       </c>
       <c r="I179" t="n">
-        <v>4841.6</v>
+        <v>4839.75</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9328139</v>
+        <v>9206207</v>
       </c>
       <c r="E180" t="n">
-        <v>9328139</v>
+        <v>9206207</v>
       </c>
       <c r="F180" t="n">
-        <v>2750.777691868837</v>
+        <v>1898.999706244826</v>
       </c>
       <c r="G180" t="n">
-        <v>3473.285122516239</v>
+        <v>2964.840321236872</v>
       </c>
       <c r="H180" t="n">
         <v>0.5</v>
       </c>
       <c r="I180" t="n">
-        <v>2919109</v>
+        <v>2911504</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>16845245</v>
+        <v>17118882</v>
       </c>
       <c r="E181" t="n">
-        <v>16845245</v>
+        <v>17118882</v>
       </c>
       <c r="F181" t="n">
-        <v>1978.014224261668</v>
+        <v>2361.450388129347</v>
       </c>
       <c r="G181" t="n">
-        <v>2384.175644598354</v>
+        <v>2348.6165126901</v>
       </c>
       <c r="H181" t="n">
         <v>0.18</v>
       </c>
       <c r="I181" t="n">
-        <v>3234982</v>
+        <v>3316308</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31230338</v>
+        <v>31448350</v>
       </c>
       <c r="E182" t="n">
-        <v>86504938</v>
+        <v>87108808</v>
       </c>
       <c r="F182" t="n">
-        <v>5264.805942555448</v>
+        <v>4915.307695829895</v>
       </c>
       <c r="G182" t="n">
-        <v>5913.126784974761</v>
+        <v>5270.707258292767</v>
       </c>
       <c r="H182" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I182" t="n">
-        <v>11747693</v>
+        <v>11985373</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37033917</v>
+        <v>37118348</v>
       </c>
       <c r="E183" t="n">
-        <v>93381760</v>
+        <v>93594653</v>
       </c>
       <c r="F183" t="n">
-        <v>10853.08818706203</v>
+        <v>10971.73707065998</v>
       </c>
       <c r="G183" t="n">
-        <v>12353.51191614296</v>
+        <v>11496.35792500139</v>
       </c>
       <c r="H183" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="I183" t="n">
-        <v>2861521</v>
+        <v>3048771</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>297687512</v>
+        <v>299435835</v>
       </c>
       <c r="E184" t="n">
-        <v>302340229</v>
+        <v>304115840</v>
       </c>
       <c r="F184" t="n">
-        <v>19227.58755186618</v>
+        <v>18738.95197901838</v>
       </c>
       <c r="G184" t="n">
-        <v>27904.90324474746</v>
+        <v>19759.57388014961</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>11596848</v>
+        <v>11839145</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>405078</v>
+        <v>405409</v>
       </c>
       <c r="F185" t="n">
-        <v>335.0187290177707</v>
+        <v>92.60674868631141</v>
       </c>
       <c r="G185" t="n">
-        <v>2.458888492000147</v>
+        <v>172.0632937009761</v>
       </c>
       <c r="H185" t="n">
-        <v>1.48</v>
+        <v>1.94</v>
       </c>
       <c r="I185" t="n">
-        <v>62339</v>
+        <v>62691</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28561769</v>
+        <v>28908305</v>
       </c>
       <c r="E186" t="n">
-        <v>67855663</v>
+        <v>68678944</v>
       </c>
       <c r="F186" t="n">
-        <v>10497.78471855896</v>
+        <v>10099.57573227423</v>
       </c>
       <c r="G186" t="n">
-        <v>2516.157470064687</v>
+        <v>1483.989637924363</v>
       </c>
       <c r="H186" t="n">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="I186" t="n">
-        <v>505042</v>
+        <v>476409</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>19507846</v>
+        <v>19509096</v>
       </c>
       <c r="F187" t="n">
-        <v>3.872531970709203</v>
+        <v>3.87273475419547</v>
       </c>
       <c r="G187" t="n">
-        <v>2682.308757286193</v>
+        <v>2674.945096804066</v>
       </c>
       <c r="H187" t="n">
         <v>0.85</v>
       </c>
       <c r="I187" t="n">
-        <v>1380.96</v>
+        <v>1329.42</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12100076</v>
+        <v>12208763</v>
       </c>
       <c r="E188" t="n">
-        <v>18441314</v>
+        <v>18606960</v>
       </c>
       <c r="F188" t="n">
-        <v>1201.579556069171</v>
+        <v>3601.801768001739</v>
       </c>
       <c r="G188" t="n">
-        <v>921.8120028221539</v>
+        <v>2389.689338241208</v>
       </c>
       <c r="H188" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="I188" t="n">
-        <v>672952</v>
+        <v>686295</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>79244433</v>
+        <v>79113831</v>
       </c>
       <c r="E189" t="n">
-        <v>79244433</v>
+        <v>79113831</v>
       </c>
       <c r="F189" t="n">
-        <v>10093.74364559514</v>
+        <v>7360.347037522979</v>
       </c>
       <c r="G189" t="n">
-        <v>8417.241485595878</v>
+        <v>8677.255801788673</v>
       </c>
       <c r="H189" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I189" t="n">
-        <v>4968903</v>
+        <v>4894057</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>298505069</v>
+        <v>301863140</v>
       </c>
       <c r="E190" t="n">
-        <v>298505069</v>
+        <v>301863140</v>
       </c>
       <c r="F190" t="n">
-        <v>188165.8411510184</v>
+        <v>236338.4550540319</v>
       </c>
       <c r="G190" t="n">
-        <v>291739.3356295151</v>
+        <v>286791.0064987575</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>50027759</v>
+        <v>49848077</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9576659</v>
+        <v>9819093</v>
       </c>
       <c r="E191" t="n">
-        <v>27189733</v>
+        <v>27878042</v>
       </c>
       <c r="F191" t="n">
-        <v>720.1542177291757</v>
+        <v>1860.634029093034</v>
       </c>
       <c r="G191" t="n">
-        <v>1051.380714740384</v>
+        <v>630.036997671961</v>
       </c>
       <c r="H191" t="n">
-        <v>1.48</v>
+        <v>0.71</v>
       </c>
       <c r="I191" t="n">
-        <v>107063</v>
+        <v>110851</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4254301</v>
+        <v>4234213</v>
       </c>
       <c r="E192" t="n">
-        <v>29069339</v>
+        <v>28932078</v>
       </c>
       <c r="F192" t="n">
-        <v>1759.535497054096</v>
+        <v>3329.785519672473</v>
       </c>
       <c r="G192" t="n">
-        <v>2851.931677319955</v>
+        <v>1471.606932676956</v>
       </c>
       <c r="H192" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>2562274</v>
+        <v>2574969</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2957112</v>
+        <v>2869457</v>
       </c>
       <c r="E193" t="n">
-        <v>4389105</v>
+        <v>4258616</v>
       </c>
       <c r="F193" t="n">
-        <v>571.7515885979266</v>
+        <v>486.9756679470486</v>
       </c>
       <c r="G193" t="n">
-        <v>123.7972936244142</v>
+        <v>309.2922441059654</v>
       </c>
       <c r="H193" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="I193" t="n">
-        <v>228644</v>
+        <v>231438</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>88786309</v>
+        <v>89156783</v>
       </c>
       <c r="E194" t="n">
-        <v>511625008</v>
+        <v>513759837</v>
       </c>
       <c r="F194" t="n">
-        <v>372083.7934001396</v>
+        <v>463509.1768518016</v>
       </c>
       <c r="G194" t="n">
-        <v>562879.509205868</v>
+        <v>468979.6366208241</v>
       </c>
       <c r="H194" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I194" t="n">
-        <v>16064925</v>
+        <v>16038966</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>725481</v>
+        <v>724802</v>
       </c>
       <c r="E195" t="n">
-        <v>791204</v>
+        <v>790464</v>
       </c>
       <c r="F195" t="n">
-        <v>4.060963674676752</v>
+        <v>3.867484356943989</v>
       </c>
       <c r="G195" t="n">
-        <v>3.998736447617087</v>
+        <v>5.54430859748161</v>
       </c>
       <c r="H195" t="n">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="I195" t="n">
-        <v>84443</v>
+        <v>83974</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>107151654</v>
+        <v>107921399</v>
       </c>
       <c r="E196" t="n">
-        <v>263634932</v>
+        <v>265528805</v>
       </c>
       <c r="F196" t="n">
-        <v>14946.50746014858</v>
+        <v>49779.65017276616</v>
       </c>
       <c r="G196" t="n">
-        <v>17654.81438692454</v>
+        <v>32669.55472095608</v>
       </c>
       <c r="H196" t="n">
-        <v>0.61</v>
+        <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2383220</v>
+        <v>2387288</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17745694</v>
+        <v>17782746</v>
       </c>
       <c r="E197" t="n">
-        <v>17745694</v>
+        <v>17782746</v>
       </c>
       <c r="F197" t="n">
-        <v>5.544903996826128</v>
+        <v>4.19812811658834</v>
       </c>
       <c r="G197" t="n">
-        <v>60.07474167183214</v>
+        <v>59.60329028963979</v>
       </c>
       <c r="H197" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I197" t="n">
-        <v>38859</v>
+        <v>36725</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1322674</v>
+        <v>1323050</v>
       </c>
       <c r="F198" t="n">
-        <v>18.67908866606836</v>
+        <v>18.6798677025327</v>
       </c>
       <c r="G198" t="n">
-        <v>5.505137942663533</v>
+        <v>5.505367541830558</v>
       </c>
       <c r="H198" t="n">
         <v>0.67</v>
       </c>
       <c r="I198" t="n">
-        <v>19764.76</v>
+        <v>4187.11</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>136020</v>
+        <v>128779</v>
       </c>
       <c r="E199" t="n">
-        <v>296113</v>
+        <v>280350</v>
       </c>
       <c r="F199" t="n">
-        <v>10.32264623633392</v>
+        <v>225.5283583255321</v>
       </c>
       <c r="G199" t="n">
-        <v>5.27338931519523</v>
+        <v>5.39253376659102</v>
       </c>
       <c r="H199" t="n">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="I199" t="n">
-        <v>556.73</v>
+        <v>47179</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2322643</v>
+        <v>2469468</v>
       </c>
       <c r="F200" t="n">
-        <v>595.0715548270308</v>
+        <v>908.1637867927354</v>
       </c>
       <c r="G200" t="n">
-        <v>505.907489532191</v>
+        <v>1187.882506050672</v>
       </c>
       <c r="H200" t="n">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="I200" t="n">
-        <v>154957</v>
+        <v>160518</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>181697</v>
+        <v>191100</v>
       </c>
       <c r="E201" t="n">
-        <v>1403064</v>
+        <v>1475673</v>
       </c>
       <c r="F201" t="n">
-        <v>5.579715413889732</v>
+        <v>5.579810698426038</v>
       </c>
       <c r="G201" t="n">
-        <v>216.8627574272629</v>
+        <v>240.198748168937</v>
       </c>
       <c r="H201" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="I201" t="n">
-        <v>126143</v>
+        <v>115045</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30298306</v>
+        <v>30588610</v>
       </c>
       <c r="E202" t="n">
-        <v>135657945</v>
+        <v>136957755</v>
       </c>
       <c r="F202" t="n">
-        <v>12907.11635450407</v>
+        <v>8755.72429499691</v>
       </c>
       <c r="G202" t="n">
-        <v>10455.96900611192</v>
+        <v>10950.33379574124</v>
       </c>
       <c r="H202" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I202" t="n">
-        <v>8785201</v>
+        <v>8816749</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13081465</v>
+        <v>13082637</v>
       </c>
       <c r="E203" t="n">
-        <v>26151508</v>
+        <v>26153851</v>
       </c>
       <c r="F203" t="n">
-        <v>720.0212896478071</v>
+        <v>720.059708483379</v>
       </c>
       <c r="G203" t="n">
-        <v>704.6018322523403</v>
+        <v>704.639428337798</v>
       </c>
       <c r="H203" t="n">
         <v>0.39</v>
       </c>
       <c r="I203" t="n">
-        <v>46224</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1457692</v>
+        <v>1477318</v>
       </c>
       <c r="F204" t="n">
-        <v>598.0892859792747</v>
+        <v>145.5337834399287</v>
       </c>
       <c r="G204" t="n">
-        <v>329.9532640898503</v>
+        <v>281.6563014270342</v>
       </c>
       <c r="H204" t="n">
-        <v>3.37</v>
+        <v>2.99</v>
       </c>
       <c r="I204" t="n">
-        <v>65837</v>
+        <v>47282</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1010208</v>
+        <v>1023446</v>
       </c>
       <c r="E205" t="n">
-        <v>4672357</v>
+        <v>4733585</v>
       </c>
       <c r="F205" t="n">
-        <v>3674.317095026257</v>
+        <v>3463.143554866478</v>
       </c>
       <c r="G205" t="n">
-        <v>2843.846617343744</v>
+        <v>3018.58292559751</v>
       </c>
       <c r="H205" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I205" t="n">
-        <v>487360</v>
+        <v>408956</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3071433</v>
+        <v>3173129</v>
       </c>
       <c r="E206" t="n">
-        <v>3071433</v>
+        <v>3173129</v>
       </c>
       <c r="F206" t="n">
-        <v>602.4500984966622</v>
+        <v>399.9977628323809</v>
       </c>
       <c r="G206" t="n">
-        <v>778.7422690608167</v>
+        <v>374.2735581196811</v>
       </c>
       <c r="H206" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I206" t="n">
-        <v>403358</v>
+        <v>418807</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>575136</v>
+        <v>575304</v>
       </c>
       <c r="E207" t="n">
-        <v>575136</v>
+        <v>575304</v>
       </c>
       <c r="F207" t="n">
-        <v>422.5647647523231</v>
+        <v>422.0332898553769</v>
       </c>
       <c r="G207" t="n">
-        <v>5.283337887713834</v>
+        <v>65.16284535577826</v>
       </c>
       <c r="H207" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I207" t="n">
-        <v>1406005</v>
+        <v>1400375</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13722717</v>
+        <v>13410128</v>
       </c>
       <c r="E208" t="n">
-        <v>17471210</v>
+        <v>17073234</v>
       </c>
       <c r="F208" t="n">
-        <v>255.7913653463605</v>
+        <v>146.9589880114309</v>
       </c>
       <c r="G208" t="n">
-        <v>441.28765070153</v>
+        <v>642.9111848455657</v>
       </c>
       <c r="H208" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I208" t="n">
-        <v>791713</v>
+        <v>787627</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1931064</v>
+        <v>1874173</v>
       </c>
       <c r="E209" t="n">
-        <v>1931064</v>
+        <v>1874173</v>
       </c>
       <c r="F209" t="n">
-        <v>3.994697584578335</v>
+        <v>27.04048397599725</v>
       </c>
       <c r="G209" t="n">
-        <v>28.26602367146457</v>
+        <v>30.31235842642658</v>
       </c>
       <c r="H209" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="I209" t="n">
-        <v>2220.49</v>
+        <v>2529.61</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6033283</v>
+        <v>6041519</v>
       </c>
       <c r="E210" t="n">
-        <v>15834376</v>
+        <v>15855991</v>
       </c>
       <c r="F210" t="n">
-        <v>500.077038319607</v>
+        <v>523.7716214992294</v>
       </c>
       <c r="G210" t="n">
-        <v>1225.123443882538</v>
+        <v>1262.902606015185</v>
       </c>
       <c r="H210" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="I210" t="n">
-        <v>74016</v>
+        <v>74093</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29645036</v>
+        <v>29391550</v>
       </c>
       <c r="F211" t="n">
-        <v>776.3181611362781</v>
+        <v>1046.850816697814</v>
       </c>
       <c r="G211" t="n">
-        <v>608.4781478149922</v>
+        <v>356.3135601179717</v>
       </c>
       <c r="H211" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="I211" t="n">
-        <v>348187</v>
+        <v>350658</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17871668</v>
+        <v>17903093</v>
       </c>
       <c r="E212" t="n">
-        <v>17871668</v>
+        <v>17903224</v>
       </c>
       <c r="F212" t="n">
-        <v>26000.3540130416</v>
+        <v>22764.20356153586</v>
       </c>
       <c r="G212" t="n">
-        <v>14399.92149005958</v>
+        <v>30375.00677361618</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>3002575</v>
+        <v>3034815</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47167970</v>
+        <v>47612451</v>
       </c>
       <c r="E213" t="n">
-        <v>305871730</v>
+        <v>308754071</v>
       </c>
       <c r="F213" t="n">
-        <v>148344.8824266522</v>
+        <v>187856.0230953972</v>
       </c>
       <c r="G213" t="n">
-        <v>205484.6087814948</v>
+        <v>243946.7523860106</v>
       </c>
       <c r="H213" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I213" t="n">
-        <v>17326438</v>
+        <v>16960525</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9366084</v>
+        <v>9325645</v>
       </c>
       <c r="F214" t="n">
-        <v>89.7890432594222</v>
+        <v>4.088286548034567</v>
       </c>
       <c r="G214" t="n">
-        <v>4.952456839167589</v>
+        <v>69.94333857851525</v>
       </c>
       <c r="H214" t="n">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="I214" t="n">
-        <v>34108</v>
+        <v>297464</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7036267</v>
+        <v>7077586</v>
       </c>
       <c r="E215" t="n">
-        <v>7046347</v>
+        <v>7087725</v>
       </c>
       <c r="F215" t="n">
-        <v>94.26133753248567</v>
+        <v>499.6065982580836</v>
       </c>
       <c r="G215" t="n">
-        <v>61.64682030670123</v>
+        <v>61.64421480234959</v>
       </c>
       <c r="H215" t="n">
-        <v>0.02</v>
+        <v>0.59</v>
       </c>
       <c r="I215" t="n">
-        <v>966054</v>
+        <v>935354</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4834132</v>
+        <v>4862309</v>
       </c>
       <c r="F216" t="n">
-        <v>1908.173904166345</v>
+        <v>2762.567409451219</v>
       </c>
       <c r="G216" t="n">
-        <v>144.5921198899299</v>
+        <v>44.86977137456223</v>
       </c>
       <c r="H216" t="n">
-        <v>0.66</v>
+        <v>1.53</v>
       </c>
       <c r="I216" t="n">
-        <v>160483</v>
+        <v>169152</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2605080</v>
+        <v>2589246</v>
       </c>
       <c r="E217" t="n">
-        <v>4719593</v>
+        <v>4690906</v>
       </c>
       <c r="F217" t="n">
-        <v>668.1456271583135</v>
+        <v>303.6617843442945</v>
       </c>
       <c r="G217" t="n">
-        <v>156.5300903297791</v>
+        <v>280.8861382271634</v>
       </c>
       <c r="H217" t="n">
         <v>0.38</v>
       </c>
       <c r="I217" t="n">
-        <v>100329</v>
+        <v>100429</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125136488</v>
+        <v>125376563</v>
       </c>
       <c r="E218" t="n">
-        <v>2072362732</v>
+        <v>2076338562</v>
       </c>
       <c r="F218" t="n">
-        <v>4336.747187677789</v>
+        <v>4877.953936063107</v>
       </c>
       <c r="G218" t="n">
-        <v>13229.21217602711</v>
+        <v>14973.49877499926</v>
       </c>
       <c r="H218" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I218" t="n">
-        <v>5016231</v>
+        <v>5079130</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>73308688</v>
+        <v>74111769</v>
       </c>
       <c r="E219" t="n">
-        <v>74097808</v>
+        <v>74909533</v>
       </c>
       <c r="F219" t="n">
-        <v>12276.06066693782</v>
+        <v>10769.95505683136</v>
       </c>
       <c r="G219" t="n">
-        <v>19351.66249880748</v>
+        <v>12696.23281737529</v>
       </c>
       <c r="H219" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I219" t="n">
-        <v>8610011</v>
+        <v>8644690</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>235840497</v>
+        <v>235840635</v>
       </c>
       <c r="E220" t="n">
-        <v>235840497</v>
+        <v>235840635</v>
       </c>
       <c r="F220" t="n">
-        <v>86102.64754198595</v>
+        <v>111648.8259990901</v>
       </c>
       <c r="G220" t="n">
-        <v>123606.3491731942</v>
+        <v>101403.8406118963</v>
       </c>
       <c r="H220" t="n">
         <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>44014322</v>
+        <v>44712758</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23114280</v>
+        <v>23418232</v>
       </c>
       <c r="E221" t="n">
-        <v>138297384</v>
+        <v>140115990</v>
       </c>
       <c r="F221" t="n">
-        <v>101061.0891850991</v>
+        <v>74103.27081493412</v>
       </c>
       <c r="G221" t="n">
-        <v>75682.82187133942</v>
+        <v>94739.6325869338</v>
       </c>
       <c r="H221" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>12564977</v>
+        <v>13131146</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1020114</v>
+        <v>1015628</v>
       </c>
       <c r="F222" t="n">
-        <v>102.70122433408</v>
+        <v>845.7667446366241</v>
       </c>
       <c r="G222" t="n">
-        <v>130.888208146959</v>
+        <v>163.492009621189</v>
       </c>
       <c r="H222" t="n">
-        <v>1.2</v>
+        <v>0.74</v>
       </c>
       <c r="I222" t="n">
-        <v>68366</v>
+        <v>67600</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2279456</v>
+        <v>2261579</v>
       </c>
       <c r="F223" t="n">
-        <v>131.189705941718</v>
+        <v>173.0231132989845</v>
       </c>
       <c r="G223" t="n">
-        <v>210.6299927307931</v>
+        <v>145.2410847081529</v>
       </c>
       <c r="H223" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="I223" t="n">
-        <v>212329</v>
+        <v>208222</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14387968</v>
+        <v>14503596</v>
       </c>
       <c r="E224" t="n">
-        <v>44151626</v>
+        <v>44506447</v>
       </c>
       <c r="F224" t="n">
-        <v>1507.879996938141</v>
+        <v>1706.989063086283</v>
       </c>
       <c r="G224" t="n">
-        <v>862.6510486463634</v>
+        <v>661.1761461593413</v>
       </c>
       <c r="H224" t="n">
-        <v>0.57</v>
+        <v>0.09</v>
       </c>
       <c r="I224" t="n">
-        <v>2583425</v>
+        <v>2588655</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52252351</v>
+        <v>52554558</v>
       </c>
       <c r="E225" t="n">
-        <v>90251169</v>
+        <v>90773147</v>
       </c>
       <c r="F225" t="n">
-        <v>14419.99783509732</v>
+        <v>3691.607310395272</v>
       </c>
       <c r="G225" t="n">
-        <v>12244.27020241982</v>
+        <v>12611.76726778575</v>
       </c>
       <c r="H225" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I225" t="n">
-        <v>1985662</v>
+        <v>1966555</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4176495</v>
+        <v>4199444</v>
       </c>
       <c r="E226" t="n">
-        <v>4176495</v>
+        <v>4199444</v>
       </c>
       <c r="F226" t="n">
-        <v>30.40727662418568</v>
+        <v>24.26399014762001</v>
       </c>
       <c r="G226" t="n">
-        <v>4.164343813593673</v>
+        <v>4.16456601430154</v>
       </c>
       <c r="H226" t="n">
         <v>0.73</v>
       </c>
       <c r="I226" t="n">
-        <v>1534056</v>
+        <v>1549838</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211491</v>
+        <v>211747</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>59185</v>
+        <v>58547</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6708998</v>
+        <v>6706186</v>
       </c>
       <c r="E228" t="n">
-        <v>34515758</v>
+        <v>34501288</v>
       </c>
       <c r="F228" t="n">
-        <v>298.2999689089248</v>
+        <v>148.1686939752738</v>
       </c>
       <c r="G228" t="n">
-        <v>260.7412802202836</v>
+        <v>205.6358198312183</v>
       </c>
       <c r="H228" t="n">
-        <v>0.55</v>
+        <v>0.12</v>
       </c>
       <c r="I228" t="n">
-        <v>904302</v>
+        <v>889218</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>175140481</v>
+        <v>176712432</v>
       </c>
       <c r="E230" t="n">
-        <v>204615795</v>
+        <v>206452298</v>
       </c>
       <c r="F230" t="n">
-        <v>24981.6058321066</v>
+        <v>29401.59377982732</v>
       </c>
       <c r="G230" t="n">
-        <v>53156.80988833518</v>
+        <v>41477.76892406198</v>
       </c>
       <c r="H230" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I230" t="n">
-        <v>3834984</v>
+        <v>3805877</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>300484</v>
+        <v>303004</v>
       </c>
       <c r="F231" t="n">
-        <v>4.244682482050378</v>
+        <v>4.088502306759016</v>
       </c>
       <c r="G231" t="n">
-        <v>130.0343899157088</v>
+        <v>529.6824805682714</v>
       </c>
       <c r="H231" t="n">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="I231" t="n">
-        <v>272100</v>
+        <v>280528</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>28814245</v>
+        <v>29062317</v>
       </c>
       <c r="E232" t="n">
-        <v>39509368</v>
+        <v>39849518</v>
       </c>
       <c r="F232" t="n">
-        <v>5757.811098410485</v>
+        <v>5058.918454519859</v>
       </c>
       <c r="G232" t="n">
-        <v>5625.095270034884</v>
+        <v>6684.495824661994</v>
       </c>
       <c r="H232" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="I232" t="n">
-        <v>297189</v>
+        <v>273952</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1615288</v>
+        <v>1524958</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1593987</v>
+        <v>1584463</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8049402</v>
+        <v>8050955</v>
       </c>
       <c r="F234" t="n">
-        <v>454.4561340156224</v>
+        <v>1223.944860916089</v>
       </c>
       <c r="G234" t="n">
-        <v>3286.458452833922</v>
+        <v>3370.903542935871</v>
       </c>
       <c r="H234" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I234" t="n">
-        <v>684923</v>
+        <v>683041</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23785421</v>
+        <v>24200911</v>
       </c>
       <c r="E235" t="n">
-        <v>23790053</v>
+        <v>24201244</v>
       </c>
       <c r="F235" t="n">
-        <v>4045.90728604583</v>
+        <v>7256.192629231697</v>
       </c>
       <c r="G235" t="n">
-        <v>40699.59994919303</v>
+        <v>5508.7595680861</v>
       </c>
       <c r="H235" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="I235" t="n">
-        <v>1787945</v>
+        <v>1855266</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3326945</v>
+        <v>3310669</v>
       </c>
       <c r="E236" t="n">
-        <v>4456654</v>
+        <v>4434850</v>
       </c>
       <c r="F236" t="n">
-        <v>139.9432217148442</v>
+        <v>146.3392265749584</v>
       </c>
       <c r="G236" t="n">
-        <v>226.5628973599092</v>
+        <v>239.8371909035244</v>
       </c>
       <c r="H236" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I236" t="n">
-        <v>147713</v>
+        <v>147140</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33915890</v>
+        <v>34078057</v>
       </c>
       <c r="E237" t="n">
-        <v>169255928</v>
+        <v>170065213</v>
       </c>
       <c r="F237" t="n">
-        <v>63331.63939833792</v>
+        <v>80660.702466869</v>
       </c>
       <c r="G237" t="n">
-        <v>82907.88840885489</v>
+        <v>81471.00020789774</v>
       </c>
       <c r="H237" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>9953666</v>
+        <v>10086707</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26503793</v>
+        <v>26505039</v>
       </c>
       <c r="E238" t="n">
-        <v>59749250</v>
+        <v>59752060</v>
       </c>
       <c r="F238" t="n">
-        <v>544.9570515232432</v>
+        <v>495.8287835184205</v>
       </c>
       <c r="G238" t="n">
-        <v>96.90851513674937</v>
+        <v>76.25474601141201</v>
       </c>
       <c r="H238" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="I238" t="n">
-        <v>437542</v>
+        <v>433750</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1898572</v>
+        <v>1865670</v>
       </c>
       <c r="E239" t="n">
-        <v>1898572</v>
+        <v>1865670</v>
       </c>
       <c r="F239" t="n">
-        <v>163.5152731936843</v>
+        <v>163.3812911222907</v>
       </c>
       <c r="G239" t="n">
-        <v>89.70908038819539</v>
+        <v>90.3933687698913</v>
       </c>
       <c r="H239" t="n">
         <v>0.26</v>
       </c>
       <c r="I239" t="n">
-        <v>11072.49</v>
+        <v>10569.95</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71874784</v>
+        <v>71727963</v>
       </c>
       <c r="F240" t="n">
-        <v>4.091723865708354</v>
+        <v>3.736910657294138</v>
       </c>
       <c r="G240" t="n">
-        <v>4.220108938570018</v>
+        <v>5.446113467596093</v>
       </c>
       <c r="H240" t="n">
-        <v>0.72</v>
+        <v>0.32</v>
       </c>
       <c r="I240" t="n">
-        <v>68751</v>
+        <v>68208</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>912958</v>
+        <v>915722</v>
       </c>
       <c r="E241" t="n">
-        <v>912958</v>
+        <v>915722</v>
       </c>
       <c r="F241" t="n">
-        <v>5.132070602072112</v>
+        <v>5.13212150600485</v>
       </c>
       <c r="G241" t="n">
-        <v>25.07420213461543</v>
+        <v>20.28622134231563</v>
       </c>
       <c r="H241" t="n">
         <v>0.55</v>
       </c>
       <c r="I241" t="n">
-        <v>16441</v>
+        <v>16449.08</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>118284</v>
+        <v>117680</v>
       </c>
       <c r="E242" t="n">
-        <v>118284</v>
+        <v>117680</v>
       </c>
       <c r="F242" t="n">
-        <v>19.29635666320194</v>
+        <v>40.76272356875844</v>
       </c>
       <c r="G242" t="n">
-        <v>3.78789317544316</v>
+        <v>313.2236534339121</v>
       </c>
       <c r="H242" t="n">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="I242" t="n">
-        <v>39533</v>
+        <v>39584</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3430192</v>
+        <v>3446172</v>
       </c>
       <c r="E243" t="n">
-        <v>4927796</v>
+        <v>4950753</v>
       </c>
       <c r="F243" t="n">
-        <v>173.5714730793083</v>
+        <v>158.8026887499922</v>
       </c>
       <c r="G243" t="n">
-        <v>232.8629825467208</v>
+        <v>245.7198209069205</v>
       </c>
       <c r="H243" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="I243" t="n">
-        <v>177577</v>
+        <v>175471</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>311052034</v>
+        <v>311821984</v>
       </c>
       <c r="E244" t="n">
-        <v>575517197</v>
+        <v>576941781</v>
       </c>
       <c r="F244" t="n">
-        <v>33389.8094985181</v>
+        <v>17887.99644366005</v>
       </c>
       <c r="G244" t="n">
-        <v>34092.95873400907</v>
+        <v>15051.59464993094</v>
       </c>
       <c r="H244" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>12320514</v>
+        <v>12811043</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>70874408</v>
+        <v>71098580</v>
       </c>
       <c r="E245" t="n">
-        <v>676218494</v>
+        <v>678349916</v>
       </c>
       <c r="F245" t="n">
-        <v>50775.91742551463</v>
+        <v>54343.87032656085</v>
       </c>
       <c r="G245" t="n">
-        <v>57439.44407184595</v>
+        <v>72880.75977908766</v>
       </c>
       <c r="H245" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>21006902</v>
+        <v>21269641</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81239</v>
+        <v>81355</v>
       </c>
       <c r="E246" t="n">
-        <v>675355</v>
+        <v>676319</v>
       </c>
       <c r="F246" t="n">
-        <v>104.4225220097307</v>
+        <v>104.4285498849142</v>
       </c>
       <c r="G246" t="n">
-        <v>5.53332042901577</v>
+        <v>5.53363984444699</v>
       </c>
       <c r="H246" t="n">
         <v>0.71</v>
       </c>
       <c r="I246" t="n">
-        <v>399.69</v>
+        <v>399.7</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1894844</v>
+        <v>1965470</v>
       </c>
       <c r="E247" t="n">
-        <v>5411430</v>
+        <v>5613130</v>
       </c>
       <c r="F247" t="n">
-        <v>418.2008811516857</v>
+        <v>298.6950788057723</v>
       </c>
       <c r="G247" t="n">
-        <v>144.3617746177115</v>
+        <v>256.1290946336789</v>
       </c>
       <c r="H247" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I247" t="n">
-        <v>70745</v>
+        <v>73122</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37538195</v>
+        <v>37946863</v>
       </c>
       <c r="E248" t="n">
-        <v>49081235</v>
+        <v>49615358</v>
       </c>
       <c r="F248" t="n">
-        <v>336.9470668024278</v>
+        <v>595.3346079976543</v>
       </c>
       <c r="G248" t="n">
-        <v>189.7852976900211</v>
+        <v>510.8022371784629</v>
       </c>
       <c r="H248" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="I248" t="n">
-        <v>661440</v>
+        <v>653133</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9562914</v>
+        <v>9297118</v>
       </c>
       <c r="E249" t="n">
-        <v>28380915</v>
+        <v>27590988</v>
       </c>
       <c r="F249" t="n">
-        <v>870.2930188341958</v>
+        <v>1085.329292893523</v>
       </c>
       <c r="G249" t="n">
-        <v>2947.238405011324</v>
+        <v>2127.55971339926</v>
       </c>
       <c r="H249" t="n">
-        <v>1.23</v>
+        <v>0.45</v>
       </c>
       <c r="I249" t="n">
-        <v>5544321</v>
+        <v>5446228</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1995231</v>
+        <v>2042101</v>
       </c>
       <c r="E250" t="n">
-        <v>5788806</v>
+        <v>5924792</v>
       </c>
       <c r="F250" t="n">
-        <v>219.5920127430387</v>
+        <v>122.3745614420309</v>
       </c>
       <c r="G250" t="n">
-        <v>76.45424153160046</v>
+        <v>4.051037314690292</v>
       </c>
       <c r="H250" t="n">
-        <v>2.87</v>
+        <v>0.02</v>
       </c>
       <c r="I250" t="n">
-        <v>61544</v>
+        <v>32188</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7292876</v>
+        <v>7370946</v>
       </c>
       <c r="E251" t="n">
-        <v>7292887</v>
+        <v>7370957</v>
       </c>
       <c r="F251" t="n">
-        <v>141.5012568494274</v>
+        <v>235.6408748049028</v>
       </c>
       <c r="G251" t="n">
-        <v>537.9128133938152</v>
+        <v>1494.563310964666</v>
       </c>
       <c r="H251" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="I251" t="n">
-        <v>346896</v>
+        <v>346978</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6112444</v>
+        <v>6074916</v>
       </c>
       <c r="E252" t="n">
-        <v>6112444</v>
+        <v>6074916</v>
       </c>
       <c r="F252" t="n">
-        <v>673.8747067549584</v>
+        <v>504.987478657082</v>
       </c>
       <c r="G252" t="n">
-        <v>950.4601004934068</v>
+        <v>1450.968220976466</v>
       </c>
       <c r="H252" t="n">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="I252" t="n">
-        <v>478503</v>
+        <v>491147</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6207924</v>
+        <v>6213589</v>
       </c>
       <c r="E253" t="n">
-        <v>22675146</v>
+        <v>22695837</v>
       </c>
       <c r="F253" t="n">
-        <v>1323.113654627986</v>
+        <v>1323.18691180054</v>
       </c>
       <c r="G253" t="n">
-        <v>375.8730540574707</v>
+        <v>347.2574575000742</v>
       </c>
       <c r="H253" t="n">
         <v>1.86</v>
       </c>
       <c r="I253" t="n">
-        <v>521240</v>
+        <v>525890</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2275562</v>
+        <v>2102566</v>
       </c>
       <c r="E254" t="n">
-        <v>20071971</v>
+        <v>18546028</v>
       </c>
       <c r="F254" t="n">
-        <v>1309.337677287982</v>
+        <v>125.6839958292223</v>
       </c>
       <c r="G254" t="n">
-        <v>4167.805404767888</v>
+        <v>4045.906387728134</v>
       </c>
       <c r="H254" t="n">
-        <v>2.62</v>
+        <v>1.09</v>
       </c>
       <c r="I254" t="n">
-        <v>79219</v>
+        <v>73517</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14532149</v>
+        <v>14594439</v>
       </c>
       <c r="E255" t="n">
-        <v>29419448</v>
+        <v>29545551</v>
       </c>
       <c r="F255" t="n">
-        <v>96.14305425454648</v>
+        <v>96.29431652524688</v>
       </c>
       <c r="G255" t="n">
-        <v>307.02660433367</v>
+        <v>296.8734039304123</v>
       </c>
       <c r="H255" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="I255" t="n">
-        <v>484549</v>
+        <v>473479</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44432085</v>
+        <v>44793660</v>
       </c>
       <c r="E256" t="n">
-        <v>44432085</v>
+        <v>44793660</v>
       </c>
       <c r="F256" t="n">
-        <v>5624.876766820988</v>
+        <v>5857.832007547508</v>
       </c>
       <c r="G256" t="n">
-        <v>4527.706786982278</v>
+        <v>4581.386271535861</v>
       </c>
       <c r="H256" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="I256" t="n">
-        <v>8138920</v>
+        <v>8998592</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8969679</v>
+        <v>8633245</v>
       </c>
       <c r="E257" t="n">
-        <v>12779737</v>
+        <v>12300396</v>
       </c>
       <c r="F257" t="n">
-        <v>56.38476317337636</v>
+        <v>35.27459805859048</v>
       </c>
       <c r="G257" t="n">
-        <v>32.79532696898887</v>
+        <v>30.68910560994494</v>
       </c>
       <c r="H257" t="n">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="I257" t="n">
-        <v>427486</v>
+        <v>419141</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>147924025</v>
+        <v>147664997</v>
       </c>
       <c r="F258" t="n">
-        <v>309.5734487615937</v>
+        <v>281.8127701397395</v>
       </c>
       <c r="G258" t="n">
-        <v>85.57510397408771</v>
+        <v>10.63636575322845</v>
       </c>
       <c r="H258" t="n">
-        <v>1.02</v>
+        <v>1.71</v>
       </c>
       <c r="I258" t="n">
-        <v>1385782</v>
+        <v>1507025</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16383193</v>
+        <v>16463708</v>
       </c>
       <c r="F259" t="n">
-        <v>93.74098513457385</v>
+        <v>93.5550457223186</v>
       </c>
       <c r="G259" t="n">
-        <v>124.0687668881596</v>
+        <v>125.5801676432571</v>
       </c>
       <c r="H259" t="n">
         <v>0.5</v>
       </c>
       <c r="I259" t="n">
-        <v>972864</v>
+        <v>968301</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>722861</v>
+        <v>723100</v>
       </c>
       <c r="F260" t="n">
-        <v>40.23363120874652</v>
+        <v>40.12674819356619</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01418171209728</v>
+        <v>28.01567649045503</v>
       </c>
       <c r="H260" t="n">
-        <v>2.26</v>
+        <v>2.13</v>
       </c>
       <c r="I260" t="n">
-        <v>226394</v>
+        <v>225248</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3037742</v>
+        <v>3034166</v>
       </c>
       <c r="F261" t="n">
-        <v>34.73667087237128</v>
+        <v>34.6721347897403</v>
       </c>
       <c r="G261" t="n">
-        <v>64.10523697799252</v>
+        <v>64.96509212444255</v>
       </c>
       <c r="H261" t="n">
         <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>72606</v>
+        <v>72178</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2810112</v>
+        <v>2766367</v>
       </c>
       <c r="E262" t="n">
-        <v>2812545</v>
+        <v>2768763</v>
       </c>
       <c r="F262" t="n">
-        <v>31.27423664859155</v>
+        <v>44.14129202910576</v>
       </c>
       <c r="G262" t="n">
-        <v>502.2756763511545</v>
+        <v>5.619014821165182</v>
       </c>
       <c r="H262" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I262" t="n">
-        <v>81252</v>
+        <v>82972</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61206966</v>
+        <v>61416110</v>
       </c>
       <c r="E263" t="n">
-        <v>101260772</v>
+        <v>101606781</v>
       </c>
       <c r="F263" t="n">
-        <v>8716.036204457549</v>
+        <v>7902.952937406645</v>
       </c>
       <c r="G263" t="n">
-        <v>9065.08414595242</v>
+        <v>19261.01960749753</v>
       </c>
       <c r="H263" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="I263" t="n">
-        <v>6126439</v>
+        <v>6206285</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>687873</v>
+        <v>699651</v>
       </c>
       <c r="F264" t="n">
-        <v>3344.514268804027</v>
+        <v>3271.760850660547</v>
       </c>
       <c r="G264" t="n">
-        <v>479.1655628488152</v>
+        <v>321.499176806936</v>
       </c>
       <c r="H264" t="n">
-        <v>0.35</v>
+        <v>0.89</v>
       </c>
       <c r="I264" t="n">
-        <v>603442</v>
+        <v>228516</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1237567</v>
+        <v>1238294</v>
       </c>
       <c r="E265" t="n">
-        <v>3743556</v>
+        <v>3746501</v>
       </c>
       <c r="F265" t="n">
-        <v>13.92435433096099</v>
+        <v>1102.377053150442</v>
       </c>
       <c r="G265" t="n">
-        <v>889.2777933081518</v>
+        <v>8.610304115890749</v>
       </c>
       <c r="H265" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="I265" t="n">
-        <v>12074.44</v>
+        <v>9756.129999999999</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>37470248</v>
+        <v>37524540</v>
       </c>
       <c r="E266" t="n">
-        <v>265657943</v>
+        <v>266042868</v>
       </c>
       <c r="F266" t="n">
-        <v>64057.64942910531</v>
+        <v>48682.31981534319</v>
       </c>
       <c r="G266" t="n">
-        <v>35693.79493648366</v>
+        <v>26431.82148211478</v>
       </c>
       <c r="H266" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I266" t="n">
-        <v>1865899</v>
+        <v>1827771</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>59503</v>
+        <v>62825</v>
       </c>
       <c r="E267" t="n">
-        <v>310463</v>
+        <v>327797</v>
       </c>
       <c r="F267" t="n">
-        <v>5.161884635863419</v>
+        <v>67.90227666134203</v>
       </c>
       <c r="G267" t="n">
-        <v>14.81724605052281</v>
+        <v>3.892155534825593</v>
       </c>
       <c r="H267" t="n">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="I267" t="n">
-        <v>312105</v>
+        <v>321106</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1258240</v>
+        <v>1258377</v>
       </c>
       <c r="E268" t="n">
-        <v>7803042</v>
+        <v>7803889</v>
       </c>
       <c r="F268" t="n">
-        <v>2221.009832435352</v>
+        <v>2104.097485257135</v>
       </c>
       <c r="G268" t="n">
-        <v>2413.483905987295</v>
+        <v>2742.332987405639</v>
       </c>
       <c r="H268" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I268" t="n">
-        <v>764028</v>
+        <v>759318</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>589301917</v>
+        <v>599698255</v>
       </c>
       <c r="E269" t="n">
-        <v>2282279379</v>
+        <v>2322542861</v>
       </c>
       <c r="F269" t="n">
-        <v>143312.0786031163</v>
+        <v>194631.2794497199</v>
       </c>
       <c r="G269" t="n">
-        <v>313607.494181436</v>
+        <v>227844.4145197082</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>30391454</v>
+        <v>30969562</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3268453</v>
+        <v>3264380</v>
       </c>
       <c r="F270" t="n">
-        <v>163.2414713014936</v>
+        <v>179.979676166345</v>
       </c>
       <c r="G270" t="n">
-        <v>157.1692197589755</v>
+        <v>150.6904044287221</v>
       </c>
       <c r="H270" t="n">
         <v>0.15</v>
       </c>
       <c r="I270" t="n">
-        <v>30834</v>
+        <v>30799</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>897123</v>
+        <v>774446</v>
       </c>
       <c r="F271" t="n">
-        <v>36.43755823585517</v>
+        <v>8.996137576610886</v>
       </c>
       <c r="G271" t="n">
-        <v>117.5515093042275</v>
+        <v>42.21806537569346</v>
       </c>
       <c r="H271" t="n">
-        <v>3.69</v>
+        <v>1.27</v>
       </c>
       <c r="I271" t="n">
-        <v>348527</v>
+        <v>353215</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5838499</v>
+        <v>5832194</v>
       </c>
       <c r="E272" t="n">
-        <v>26139708</v>
+        <v>26111462</v>
       </c>
       <c r="F272" t="n">
-        <v>144.7621258688246</v>
+        <v>144.724470654182</v>
       </c>
       <c r="G272" t="n">
-        <v>96.31468707304718</v>
+        <v>98.72853505168027</v>
       </c>
       <c r="H272" t="n">
         <v>0.15</v>
       </c>
       <c r="I272" t="n">
-        <v>144119</v>
+        <v>144602</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6184600</v>
+        <v>6217042</v>
       </c>
       <c r="E273" t="n">
-        <v>11840918</v>
+        <v>11903031</v>
       </c>
       <c r="F273" t="n">
-        <v>4168.259512619917</v>
+        <v>106.5646652720535</v>
       </c>
       <c r="G273" t="n">
-        <v>58.41579747393425</v>
+        <v>105.827876941553</v>
       </c>
       <c r="H273" t="n">
-        <v>1.07</v>
+        <v>2.64</v>
       </c>
       <c r="I273" t="n">
-        <v>199949</v>
+        <v>190974</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3195823</v>
+        <v>3190185</v>
       </c>
       <c r="E274" t="n">
-        <v>21014986</v>
+        <v>20977912</v>
       </c>
       <c r="F274" t="n">
-        <v>202.5663338829011</v>
+        <v>310.8976421201723</v>
       </c>
       <c r="G274" t="n">
-        <v>188.7842584830956</v>
+        <v>168.4898646213201</v>
       </c>
       <c r="H274" t="n">
-        <v>1.4</v>
+        <v>0.79</v>
       </c>
       <c r="I274" t="n">
-        <v>1421633</v>
+        <v>1342710</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3675136</v>
+        <v>3673902</v>
       </c>
       <c r="E275" t="n">
-        <v>6264768</v>
+        <v>6262664</v>
       </c>
       <c r="F275" t="n">
-        <v>705.9887616447105</v>
+        <v>673.0873709671802</v>
       </c>
       <c r="G275" t="n">
-        <v>554.5616643435657</v>
+        <v>498.3225715817117</v>
       </c>
       <c r="H275" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="I275" t="n">
-        <v>1169682</v>
+        <v>1205956</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>433105</v>
+        <v>433635</v>
       </c>
       <c r="E276" t="n">
-        <v>433105</v>
+        <v>433635</v>
       </c>
       <c r="F276" t="n">
-        <v>3.682039178717563</v>
+        <v>3.682243043123708</v>
       </c>
       <c r="G276" t="n">
-        <v>3.269629254415521</v>
+        <v>4.030724876904953</v>
       </c>
       <c r="H276" t="n">
         <v>0.2</v>
       </c>
       <c r="I276" t="n">
-        <v>478.08</v>
+        <v>478.52</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7257556</v>
+        <v>7302216</v>
       </c>
       <c r="E277" t="n">
-        <v>10399583</v>
+        <v>10463523</v>
       </c>
       <c r="F277" t="n">
-        <v>449.017775051051</v>
+        <v>609.6269073274105</v>
       </c>
       <c r="G277" t="n">
-        <v>2250.140163337699</v>
+        <v>2146.134483023037</v>
       </c>
       <c r="H277" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>164143</v>
+        <v>169456</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>117558652</v>
+        <v>118438751</v>
       </c>
       <c r="E278" t="n">
-        <v>1022100224</v>
+        <v>1029752147</v>
       </c>
       <c r="F278" t="n">
-        <v>13535.95933265086</v>
+        <v>9471.8797069755</v>
       </c>
       <c r="G278" t="n">
-        <v>10962.40350662557</v>
+        <v>13555.82994026293</v>
       </c>
       <c r="H278" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I278" t="n">
-        <v>9256748</v>
+        <v>9050517</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>104486687</v>
+        <v>106392348</v>
       </c>
       <c r="E279" t="n">
-        <v>159396890</v>
+        <v>162304021</v>
       </c>
       <c r="F279" t="n">
-        <v>44307.46867199319</v>
+        <v>51247.78270411916</v>
       </c>
       <c r="G279" t="n">
-        <v>47735.14876818041</v>
+        <v>50470.67297208051</v>
       </c>
       <c r="H279" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I279" t="n">
-        <v>7221496</v>
+        <v>7574325</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15771448</v>
+        <v>15816573</v>
       </c>
       <c r="E280" t="n">
-        <v>21637060</v>
+        <v>21698968</v>
       </c>
       <c r="F280" t="n">
-        <v>1382.966711310999</v>
+        <v>7055.173267385922</v>
       </c>
       <c r="G280" t="n">
-        <v>4346.928975581777</v>
+        <v>1406.824563054995</v>
       </c>
       <c r="H280" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="I280" t="n">
-        <v>351102</v>
+        <v>356796</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5564222</v>
+        <v>5658551</v>
       </c>
       <c r="E281" t="n">
-        <v>5564222</v>
+        <v>5658551</v>
       </c>
       <c r="F281" t="n">
-        <v>46.82960151115812</v>
+        <v>66.10034322888241</v>
       </c>
       <c r="G281" t="n">
-        <v>278.9063365544411</v>
+        <v>110.5608150596452</v>
       </c>
       <c r="H281" t="n">
-        <v>0.34</v>
+        <v>0.86</v>
       </c>
       <c r="I281" t="n">
-        <v>752367</v>
+        <v>753109</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>111024073</v>
+        <v>112062928</v>
       </c>
       <c r="E282" t="n">
-        <v>425906215</v>
+        <v>429891430</v>
       </c>
       <c r="F282" t="n">
-        <v>44315.62262708847</v>
+        <v>54072.03466631164</v>
       </c>
       <c r="G282" t="n">
-        <v>80063.78932948594</v>
+        <v>67520.6708269087</v>
       </c>
       <c r="H282" t="n">
         <v>0.05</v>
       </c>
       <c r="I282" t="n">
-        <v>19702643</v>
+        <v>20562937</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>756245</v>
+        <v>760885</v>
       </c>
       <c r="F283" t="n">
-        <v>4.154293482406031</v>
+        <v>11.17331528294967</v>
       </c>
       <c r="G283" t="n">
-        <v>4.031455026650435</v>
+        <v>5.5662282484317</v>
       </c>
       <c r="H283" t="n">
-        <v>0.49</v>
+        <v>0.83</v>
       </c>
       <c r="I283" t="n">
-        <v>50591</v>
+        <v>50798</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3161533</v>
+        <v>3155226</v>
       </c>
       <c r="E284" t="n">
-        <v>29955996</v>
+        <v>29896233</v>
       </c>
       <c r="F284" t="n">
-        <v>1386.045520420599</v>
+        <v>600.9735354112843</v>
       </c>
       <c r="G284" t="n">
-        <v>113.6094138927171</v>
+        <v>941.5122757724074</v>
       </c>
       <c r="H284" t="n">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="I284" t="n">
-        <v>261736</v>
+        <v>283628</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>93560</v>
+        <v>91369</v>
       </c>
       <c r="F285" t="n">
-        <v>1087.947736419121</v>
+        <v>987.7120767666622</v>
       </c>
       <c r="G285" t="n">
-        <v>129.5274078426908</v>
+        <v>116.2602845570328</v>
       </c>
       <c r="H285" t="n">
         <v>0.11</v>
       </c>
       <c r="I285" t="n">
-        <v>1764.62</v>
+        <v>3044.65</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>139696</v>
+        <v>143255</v>
       </c>
       <c r="F286" t="n">
-        <v>5.575946643308297</v>
+        <v>4.009753673912304</v>
       </c>
       <c r="G286" t="n">
-        <v>5.506555684790746</v>
+        <v>5.33248478071908</v>
       </c>
       <c r="H286" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="I286" t="n">
-        <v>94195</v>
+        <v>22043</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21829337</v>
+        <v>22001213</v>
       </c>
       <c r="E287" t="n">
-        <v>21829337</v>
+        <v>22001213</v>
       </c>
       <c r="F287" t="n">
-        <v>2134.394766531934</v>
+        <v>5362.156108786089</v>
       </c>
       <c r="G287" t="n">
-        <v>1021.432115190224</v>
+        <v>656.9334104945284</v>
       </c>
       <c r="H287" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I287" t="n">
-        <v>528415</v>
+        <v>532846</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>575941</v>
+        <v>576610</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>454.66</v>
+        <v>454.4</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5938847</v>
+        <v>5938051</v>
       </c>
       <c r="E289" t="n">
-        <v>37116091</v>
+        <v>37111116</v>
       </c>
       <c r="F289" t="n">
-        <v>6889.24564558681</v>
+        <v>6800.16237371663</v>
       </c>
       <c r="G289" t="n">
-        <v>279.4574805280814</v>
+        <v>263.3305342633558</v>
       </c>
       <c r="H289" t="n">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
       <c r="I289" t="n">
-        <v>383174</v>
+        <v>382960</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494402468</v>
+        <v>494810422</v>
       </c>
       <c r="E290" t="n">
-        <v>494402468</v>
+        <v>494810422</v>
       </c>
       <c r="F290" t="n">
-        <v>1182565.44221267</v>
+        <v>1150334.880388421</v>
       </c>
       <c r="G290" t="n">
-        <v>1317833.447069365</v>
+        <v>1331816.775827904</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32760849</v>
+        <v>33016642</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5093833</v>
+        <v>5101038</v>
       </c>
       <c r="E291" t="n">
-        <v>18968390</v>
+        <v>18995222</v>
       </c>
       <c r="F291" t="n">
-        <v>7127.478683740846</v>
+        <v>7134.648227776822</v>
       </c>
       <c r="G291" t="n">
-        <v>6937.559032342071</v>
+        <v>6882.728414770298</v>
       </c>
       <c r="H291" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="I291" t="n">
-        <v>58966</v>
+        <v>60558</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31523621</v>
+        <v>31574765</v>
       </c>
       <c r="F292" t="n">
-        <v>4362.135710680955</v>
+        <v>6859.644057103297</v>
       </c>
       <c r="G292" t="n">
-        <v>16312.90197043578</v>
+        <v>10029.15528943332</v>
       </c>
       <c r="H292" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I292" t="n">
-        <v>5639662</v>
+        <v>5609812</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31497769</v>
+        <v>31544342</v>
       </c>
       <c r="E293" t="n">
-        <v>112899351</v>
+        <v>113066286</v>
       </c>
       <c r="F293" t="n">
-        <v>32.14240968651515</v>
+        <v>26.79581110424068</v>
       </c>
       <c r="G293" t="n">
-        <v>4911.209769150824</v>
+        <v>4855.621411366699</v>
       </c>
       <c r="H293" t="n">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
       <c r="I293" t="n">
-        <v>95464</v>
+        <v>95084</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>766649</v>
+        <v>765750</v>
       </c>
       <c r="E294" t="n">
-        <v>12227781</v>
+        <v>12213440</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86287429437516</v>
+        <v>12.86318705398029</v>
       </c>
       <c r="G294" t="n">
-        <v>2.29782986485354</v>
+        <v>2.297885736375311</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>70004</v>
+        <v>67690</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85275</v>
+        <v>85032</v>
       </c>
       <c r="F295" t="n">
-        <v>70.06841552092155</v>
+        <v>70.07416196392326</v>
       </c>
       <c r="G295" t="n">
-        <v>43.83286896355601</v>
+        <v>57.62025723623279</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>57740</v>
+        <v>57023</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1521683</v>
+        <v>1524507</v>
       </c>
       <c r="F296" t="n">
-        <v>3.969333071800622</v>
+        <v>4.050071387220547</v>
       </c>
       <c r="G296" t="n">
-        <v>11.44934636776944</v>
+        <v>5.424214896922088</v>
       </c>
       <c r="H296" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I296" t="n">
-        <v>615377</v>
+        <v>614521</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2656726043</v>
+        <v>2653344807</v>
       </c>
       <c r="E297" t="n">
-        <v>2820751770</v>
+        <v>2817161776</v>
       </c>
       <c r="F297" t="n">
-        <v>43787.9870805699</v>
+        <v>36451.83495410156</v>
       </c>
       <c r="G297" t="n">
-        <v>64175.53236652629</v>
+        <v>58997.34888050159</v>
       </c>
       <c r="H297" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I297" t="n">
-        <v>38954565</v>
+        <v>39706436</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2176858</v>
+        <v>2205496</v>
       </c>
       <c r="E298" t="n">
-        <v>16743775</v>
+        <v>16964050</v>
       </c>
       <c r="F298" t="n">
-        <v>4055.41605314247</v>
+        <v>4088.570575176828</v>
       </c>
       <c r="G298" t="n">
-        <v>1467.554609016678</v>
+        <v>4064.822076980647</v>
       </c>
       <c r="H298" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="I298" t="n">
-        <v>180536</v>
+        <v>170379</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1632914</v>
+        <v>1632113</v>
       </c>
       <c r="E299" t="n">
-        <v>1638678</v>
+        <v>1637874</v>
       </c>
       <c r="F299" t="n">
-        <v>913.5216203487829</v>
+        <v>933.4382456960991</v>
       </c>
       <c r="G299" t="n">
-        <v>3928.56464711858</v>
+        <v>1712.552881751271</v>
       </c>
       <c r="H299" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="I299" t="n">
-        <v>399319</v>
+        <v>377912</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>86776404</v>
+        <v>86678065</v>
       </c>
       <c r="E300" t="n">
-        <v>320789705</v>
+        <v>320425010</v>
       </c>
       <c r="F300" t="n">
-        <v>8978.336219837174</v>
+        <v>9129.627220521366</v>
       </c>
       <c r="G300" t="n">
-        <v>13315.66437520175</v>
+        <v>13989.28595788171</v>
       </c>
       <c r="H300" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I300" t="n">
-        <v>340734</v>
+        <v>345093</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2430491</v>
+        <v>2415726</v>
       </c>
       <c r="E301" t="n">
-        <v>9752427</v>
+        <v>9693183</v>
       </c>
       <c r="F301" t="n">
-        <v>23.39889978995421</v>
+        <v>33.67023906715819</v>
       </c>
       <c r="G301" t="n">
-        <v>10.44548878769229</v>
+        <v>19.55527317927352</v>
       </c>
       <c r="H301" t="n">
         <v>0.61</v>
       </c>
       <c r="I301" t="n">
-        <v>44389</v>
+        <v>44787</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61268042</v>
+        <v>61854475</v>
       </c>
       <c r="E302" t="n">
-        <v>150286355</v>
+        <v>151724834</v>
       </c>
       <c r="F302" t="n">
-        <v>2052.906862032719</v>
+        <v>2210.762499741698</v>
       </c>
       <c r="G302" t="n">
-        <v>783.1839533607161</v>
+        <v>3852.706614377613</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I302" t="n">
-        <v>22550161</v>
+        <v>22603845</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>675482574</v>
+        <v>699456153</v>
       </c>
       <c r="E303" t="n">
-        <v>1041653768</v>
+        <v>1078623144</v>
       </c>
       <c r="F303" t="n">
-        <v>37689.77773240593</v>
+        <v>44982.36373672972</v>
       </c>
       <c r="G303" t="n">
-        <v>63770.77339527098</v>
+        <v>46639.81903472749</v>
       </c>
       <c r="H303" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I303" t="n">
-        <v>160419890</v>
+        <v>161752146</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20225318</v>
+        <v>21082797</v>
       </c>
       <c r="E304" t="n">
-        <v>20225318</v>
+        <v>21082797</v>
       </c>
       <c r="F304" t="n">
-        <v>4693.806038940743</v>
+        <v>2144.624492234969</v>
       </c>
       <c r="G304" t="n">
-        <v>4116.891862760028</v>
+        <v>4848.110043102635</v>
       </c>
       <c r="H304" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="I304" t="n">
-        <v>7094564</v>
+        <v>7089759</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1722803</v>
+        <v>1731155</v>
       </c>
       <c r="E305" t="n">
-        <v>2826827</v>
+        <v>2840532</v>
       </c>
       <c r="F305" t="n">
-        <v>80.96306494797473</v>
+        <v>168.5571790137222</v>
       </c>
       <c r="G305" t="n">
-        <v>4.007884393236521</v>
+        <v>4.049651161691986</v>
       </c>
       <c r="H305" t="n">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="I305" t="n">
-        <v>143945</v>
+        <v>150992</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5684780</v>
+        <v>5695185</v>
       </c>
       <c r="E306" t="n">
-        <v>5684780</v>
+        <v>5695185</v>
       </c>
       <c r="F306" t="n">
-        <v>41.69559993287115</v>
+        <v>74.68080860563011</v>
       </c>
       <c r="G306" t="n">
-        <v>5.632077962028696</v>
+        <v>5.632351187799324</v>
       </c>
       <c r="H306" t="n">
         <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>477.29</v>
+        <v>479.11</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39810928</v>
+        <v>39835697</v>
       </c>
       <c r="E307" t="n">
-        <v>190024197</v>
+        <v>190142422</v>
       </c>
       <c r="F307" t="n">
-        <v>214.3951616495829</v>
+        <v>93.9667818684529</v>
       </c>
       <c r="G307" t="n">
-        <v>304.5577724427563</v>
+        <v>262.0543509714748</v>
       </c>
       <c r="H307" t="n">
-        <v>0.45</v>
+        <v>2.44</v>
       </c>
       <c r="I307" t="n">
-        <v>411125</v>
+        <v>415737</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>380951</v>
+        <v>383201</v>
       </c>
       <c r="E308" t="n">
-        <v>712486</v>
+        <v>716693</v>
       </c>
       <c r="F308" t="n">
-        <v>78.22710394359089</v>
+        <v>88.90590185602488</v>
       </c>
       <c r="G308" t="n">
-        <v>292.4600917479834</v>
+        <v>238.5183040306655</v>
       </c>
       <c r="H308" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I308" t="n">
-        <v>1422.25</v>
+        <v>1419.46</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23456309</v>
+        <v>23570273</v>
       </c>
       <c r="E309" t="n">
-        <v>39093848</v>
+        <v>39283787</v>
       </c>
       <c r="F309" t="n">
-        <v>4998.41267096601</v>
+        <v>2696.02699610361</v>
       </c>
       <c r="G309" t="n">
-        <v>5121.958333521007</v>
+        <v>5033.674095015432</v>
       </c>
       <c r="H309" t="n">
         <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>800736</v>
+        <v>712553</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>108021</v>
+        <v>107577</v>
       </c>
       <c r="F310" t="n">
-        <v>5.03378717082219</v>
+        <v>5.034187217051667</v>
       </c>
       <c r="G310" t="n">
-        <v>11.25005724896578</v>
+        <v>11.24888629743064</v>
       </c>
       <c r="H310" t="n">
         <v>0.79</v>
       </c>
       <c r="I310" t="n">
-        <v>49513</v>
+        <v>48983</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23387528</v>
+        <v>23301847</v>
       </c>
       <c r="E311" t="n">
-        <v>23387528</v>
+        <v>23301847</v>
       </c>
       <c r="F311" t="n">
-        <v>6863.460324897353</v>
+        <v>5636.752322335009</v>
       </c>
       <c r="G311" t="n">
-        <v>6986.033769452682</v>
+        <v>6139.035054431403</v>
       </c>
       <c r="H311" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I311" t="n">
-        <v>6173459</v>
+        <v>6270223</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3829984</v>
+        <v>3832733</v>
       </c>
       <c r="E312" t="n">
-        <v>8356977</v>
+        <v>8362974</v>
       </c>
       <c r="F312" t="n">
-        <v>1798.896482267396</v>
+        <v>1829.311897263948</v>
       </c>
       <c r="G312" t="n">
-        <v>1974.630371229508</v>
+        <v>1892.279983760889</v>
       </c>
       <c r="H312" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I312" t="n">
-        <v>925876</v>
+        <v>873511</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9359325</v>
+        <v>9351569</v>
       </c>
       <c r="E313" t="n">
-        <v>9359325</v>
+        <v>9351569</v>
       </c>
       <c r="F313" t="n">
-        <v>14816.46930281268</v>
+        <v>14968.87005046192</v>
       </c>
       <c r="G313" t="n">
-        <v>113641.7374271181</v>
+        <v>113776.5276975242</v>
       </c>
       <c r="H313" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I313" t="n">
-        <v>3225827</v>
+        <v>3257385</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>486387740</v>
+        <v>489214842</v>
       </c>
       <c r="E314" t="n">
-        <v>1693934205</v>
+        <v>1703780105</v>
       </c>
       <c r="F314" t="n">
-        <v>369444.0786707916</v>
+        <v>382697.8051422288</v>
       </c>
       <c r="G314" t="n">
-        <v>493006.3481311369</v>
+        <v>492007.6961612565</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>31253758</v>
+        <v>31508658</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>23959483</v>
+        <v>24063119</v>
       </c>
       <c r="E315" t="n">
-        <v>23938671</v>
+        <v>24042217</v>
       </c>
       <c r="F315" t="n">
-        <v>171.8036858131416</v>
+        <v>171.7421657747171</v>
       </c>
       <c r="G315" t="n">
-        <v>775.9759442374641</v>
+        <v>796.5831273071924</v>
       </c>
       <c r="H315" t="n">
         <v>0.73</v>
       </c>
       <c r="I315" t="n">
-        <v>67932</v>
+        <v>92492</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48024794</v>
+        <v>47996698</v>
       </c>
       <c r="E316" t="n">
-        <v>118525606</v>
+        <v>118456272</v>
       </c>
       <c r="F316" t="n">
-        <v>953.3400282654211</v>
+        <v>953.3931779524656</v>
       </c>
       <c r="G316" t="n">
-        <v>1697.937802685514</v>
+        <v>1698.032464464269</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>37489</v>
+        <v>37873</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12011656</v>
+        <v>11995639</v>
       </c>
       <c r="E317" t="n">
-        <v>24328892</v>
+        <v>24293437</v>
       </c>
       <c r="F317" t="n">
-        <v>247.741009820904</v>
+        <v>247.764321704486</v>
       </c>
       <c r="G317" t="n">
-        <v>124.1072111903234</v>
+        <v>96.27761339872903</v>
       </c>
       <c r="H317" t="n">
         <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>19306.77</v>
+        <v>19432.09</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7594341</v>
+        <v>7681514</v>
       </c>
       <c r="E318" t="n">
-        <v>19729280</v>
+        <v>19955747</v>
       </c>
       <c r="F318" t="n">
-        <v>177.7644317540885</v>
+        <v>193.1299330071623</v>
       </c>
       <c r="G318" t="n">
-        <v>499.0086259180349</v>
+        <v>691.7094793895382</v>
       </c>
       <c r="H318" t="n">
         <v>0.25</v>
       </c>
       <c r="I318" t="n">
-        <v>679758</v>
+        <v>680196</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>148739</v>
+        <v>148825</v>
       </c>
       <c r="F319" t="n">
-        <v>308.1513967058321</v>
+        <v>113.6047135702335</v>
       </c>
       <c r="G319" t="n">
-        <v>267.3293725320629</v>
+        <v>250.2041960403371</v>
       </c>
       <c r="H319" t="n">
-        <v>0.19</v>
+        <v>1.32</v>
       </c>
       <c r="I319" t="n">
-        <v>56360</v>
+        <v>56057</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19246997998</v>
+        <v>19281453623</v>
       </c>
       <c r="F320" t="n">
-        <v>52148.01385526517</v>
+        <v>52947.9326716037</v>
       </c>
       <c r="G320" t="n">
-        <v>49775.80045593897</v>
+        <v>49777.87930104795</v>
       </c>
       <c r="H320" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="I320" t="n">
-        <v>48871553</v>
+        <v>48765015</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>99899908</v>
+        <v>100881391</v>
       </c>
       <c r="E321" t="n">
-        <v>151359903</v>
+        <v>152846963</v>
       </c>
       <c r="F321" t="n">
-        <v>14443.86869577156</v>
+        <v>16101.24131736652</v>
       </c>
       <c r="G321" t="n">
-        <v>21298.6553187438</v>
+        <v>15305.32702425694</v>
       </c>
       <c r="H321" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I321" t="n">
-        <v>6929501</v>
+        <v>7243849</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2643641</v>
+        <v>2643615</v>
       </c>
       <c r="E322" t="n">
-        <v>10574563</v>
+        <v>10574461</v>
       </c>
       <c r="F322" t="n">
-        <v>10979.44850542133</v>
+        <v>4980.674079438639</v>
       </c>
       <c r="G322" t="n">
-        <v>30335.33782640583</v>
+        <v>39665.43344733129</v>
       </c>
       <c r="H322" t="n">
-        <v>0.47</v>
+        <v>0.67</v>
       </c>
       <c r="I322" t="n">
-        <v>5042886</v>
+        <v>5143797</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>212983384</v>
+        <v>213654455</v>
       </c>
       <c r="E323" t="n">
-        <v>654843754</v>
+        <v>656907046</v>
       </c>
       <c r="F323" t="n">
-        <v>140937.1344498024</v>
+        <v>119611.145393092</v>
       </c>
       <c r="G323" t="n">
-        <v>223342.2798655038</v>
+        <v>188513.6321817168</v>
       </c>
       <c r="H323" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>11265471</v>
+        <v>11494621</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>149050280</v>
+        <v>150421392</v>
       </c>
       <c r="E324" t="n">
-        <v>389389723</v>
+        <v>392971714</v>
       </c>
       <c r="F324" t="n">
-        <v>9600.969855712765</v>
+        <v>12401.42827000199</v>
       </c>
       <c r="G324" t="n">
-        <v>4945.338480553039</v>
+        <v>5715.952974289376</v>
       </c>
       <c r="H324" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I324" t="n">
-        <v>6668631</v>
+        <v>6583567</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2401097</v>
+        <v>2422733</v>
       </c>
       <c r="E325" t="n">
-        <v>3295118</v>
+        <v>3324803</v>
       </c>
       <c r="F325" t="n">
-        <v>100.0120136608889</v>
+        <v>132.0632655365447</v>
       </c>
       <c r="G325" t="n">
-        <v>4127.13081813348</v>
+        <v>3964.438154392457</v>
       </c>
       <c r="H325" t="n">
-        <v>1.06</v>
+        <v>1.68</v>
       </c>
       <c r="I325" t="n">
-        <v>253561</v>
+        <v>256961</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>399228260</v>
+        <v>400158770</v>
       </c>
       <c r="E326" t="n">
-        <v>2281304344</v>
+        <v>2286621544</v>
       </c>
       <c r="F326" t="n">
-        <v>337517.4751320022</v>
+        <v>353277.3795753214</v>
       </c>
       <c r="G326" t="n">
-        <v>538599.4862192679</v>
+        <v>454841.8311409676</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>36175652</v>
+        <v>36377825</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92747</v>
+        <v>94089</v>
       </c>
       <c r="F2" t="n">
-        <v>5.571540997234159</v>
+        <v>4.034552418555474</v>
       </c>
       <c r="G2" t="n">
-        <v>31.25187179619055</v>
+        <v>4.102545690437561</v>
       </c>
       <c r="H2" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="I2" t="n">
-        <v>758.14</v>
+        <v>786.61</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>612567732</v>
+        <v>614393150</v>
       </c>
       <c r="E3" t="n">
-        <v>1188582949</v>
+        <v>1192127293</v>
       </c>
       <c r="F3" t="n">
-        <v>13217.03273544076</v>
+        <v>17040.40282467492</v>
       </c>
       <c r="G3" t="n">
-        <v>25220.11364852955</v>
+        <v>35002.45322515108</v>
       </c>
       <c r="H3" t="n">
         <v>0.29</v>
       </c>
       <c r="I3" t="n">
-        <v>23328224</v>
+        <v>23338585</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245871609</v>
+        <v>246802276</v>
       </c>
       <c r="E4" t="n">
-        <v>1541826300</v>
+        <v>1547662380</v>
       </c>
       <c r="F4" t="n">
-        <v>54721.67914793627</v>
+        <v>93816.90601015736</v>
       </c>
       <c r="G4" t="n">
-        <v>111821.6708418069</v>
+        <v>120674.1555741686</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15666389</v>
+        <v>15545854</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139633397</v>
+        <v>140916345</v>
       </c>
       <c r="E5" t="n">
-        <v>154736106</v>
+        <v>156157818</v>
       </c>
       <c r="F5" t="n">
-        <v>153962.7809267602</v>
+        <v>151714.5836550535</v>
       </c>
       <c r="G5" t="n">
-        <v>284832.4068496515</v>
+        <v>177691.9328221842</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>33828132</v>
+        <v>33913020</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50047008</v>
+        <v>49552044</v>
       </c>
       <c r="E6" t="n">
-        <v>62607523</v>
+        <v>61988337</v>
       </c>
       <c r="F6" t="n">
-        <v>8478.532867192687</v>
+        <v>7384.535493367242</v>
       </c>
       <c r="G6" t="n">
-        <v>9253.510439776457</v>
+        <v>9630.723538170279</v>
       </c>
       <c r="H6" t="n">
-        <v>0.49</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>506586</v>
+        <v>521633</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8711276</v>
+        <v>8795496</v>
       </c>
       <c r="E7" t="n">
-        <v>8930943</v>
+        <v>9017286</v>
       </c>
       <c r="F7" t="n">
-        <v>323.4551752182874</v>
+        <v>445.7695301733045</v>
       </c>
       <c r="G7" t="n">
-        <v>582.2502138932986</v>
+        <v>480.2427909023212</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="I7" t="n">
-        <v>43145</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68867217</v>
+        <v>68753627</v>
       </c>
       <c r="E8" t="n">
-        <v>137183300</v>
+        <v>136957028</v>
       </c>
       <c r="F8" t="n">
-        <v>26980.78972641817</v>
+        <v>49474.47696523637</v>
       </c>
       <c r="G8" t="n">
-        <v>22023.16518244509</v>
+        <v>22387.447482028</v>
       </c>
       <c r="H8" t="n">
-        <v>0.53</v>
+        <v>0.29</v>
       </c>
       <c r="I8" t="n">
-        <v>1415517</v>
+        <v>1309571</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5234621</v>
+        <v>5236736</v>
       </c>
       <c r="E9" t="n">
-        <v>8363352</v>
+        <v>8366731</v>
       </c>
       <c r="F9" t="n">
-        <v>298.1089765667364</v>
+        <v>297.6101748534634</v>
       </c>
       <c r="G9" t="n">
-        <v>511.0954535317838</v>
+        <v>522.0260322007488</v>
       </c>
       <c r="H9" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="I9" t="n">
-        <v>104585</v>
+        <v>105131</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14350238</v>
+        <v>14307062</v>
       </c>
       <c r="E10" t="n">
-        <v>42289225</v>
+        <v>42161989</v>
       </c>
       <c r="F10" t="n">
-        <v>2839.842282175579</v>
+        <v>2909.874455712676</v>
       </c>
       <c r="G10" t="n">
-        <v>4952.405836600408</v>
+        <v>4951.775688061426</v>
       </c>
       <c r="H10" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>786920</v>
+        <v>814931</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>125745137</v>
+        <v>125261158</v>
       </c>
       <c r="E11" t="n">
-        <v>492883285</v>
+        <v>490986233</v>
       </c>
       <c r="F11" t="n">
-        <v>66835.6128606588</v>
+        <v>61700.41149657338</v>
       </c>
       <c r="G11" t="n">
-        <v>53397.83234484014</v>
+        <v>63163.53196015887</v>
       </c>
       <c r="H11" t="n">
         <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>29013874</v>
+        <v>29772767</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7511576</v>
+        <v>7482498</v>
       </c>
       <c r="E12" t="n">
-        <v>32295775</v>
+        <v>32170756</v>
       </c>
       <c r="F12" t="n">
-        <v>3667.600768571484</v>
+        <v>2823.171585355103</v>
       </c>
       <c r="G12" t="n">
-        <v>4805.929872297741</v>
+        <v>3217.446322934892</v>
       </c>
       <c r="H12" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I12" t="n">
-        <v>744393</v>
+        <v>682648</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1004034</v>
+        <v>1003411</v>
       </c>
       <c r="E13" t="n">
-        <v>12286666</v>
+        <v>12279041</v>
       </c>
       <c r="F13" t="n">
-        <v>271.02348202043</v>
+        <v>271.0174642519606</v>
       </c>
       <c r="G13" t="n">
-        <v>203.7699883924672</v>
+        <v>203.7654639114074</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2148.87</v>
+        <v>2184.5</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>565600</v>
+        <v>566765</v>
       </c>
       <c r="E14" t="n">
-        <v>565600</v>
+        <v>566765</v>
       </c>
       <c r="F14" t="n">
-        <v>820.0571076291544</v>
+        <v>695.8726105924939</v>
       </c>
       <c r="G14" t="n">
-        <v>226.4113826630792</v>
+        <v>286.3745011591161</v>
       </c>
       <c r="H14" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>23911</v>
+        <v>23707</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>552778295</v>
+        <v>556362636</v>
       </c>
       <c r="E15" t="n">
-        <v>691443489</v>
+        <v>695926967</v>
       </c>
       <c r="F15" t="n">
-        <v>472178.6330715465</v>
+        <v>384058.9544727796</v>
       </c>
       <c r="G15" t="n">
-        <v>445751.5321362977</v>
+        <v>491848.886398504</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>54944409</v>
+        <v>53622015</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3354280</v>
+        <v>3352458</v>
       </c>
       <c r="E16" t="n">
-        <v>9542629</v>
+        <v>9537448</v>
       </c>
       <c r="F16" t="n">
-        <v>185.7567882425546</v>
+        <v>179.9629719463843</v>
       </c>
       <c r="G16" t="n">
-        <v>97.14392549899779</v>
+        <v>80.01758538045559</v>
       </c>
       <c r="H16" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="I16" t="n">
-        <v>232735</v>
+        <v>232840</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>311175</v>
+        <v>326290</v>
       </c>
       <c r="E17" t="n">
-        <v>3591659</v>
+        <v>3766120</v>
       </c>
       <c r="F17" t="n">
-        <v>18.99968391119642</v>
+        <v>5.334317000228345</v>
       </c>
       <c r="G17" t="n">
-        <v>4.132720159282148</v>
+        <v>3.731012733376104</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I17" t="n">
-        <v>3242.92</v>
+        <v>4262.05</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1360346</v>
+        <v>1357990</v>
       </c>
       <c r="E18" t="n">
-        <v>10434661</v>
+        <v>10416593</v>
       </c>
       <c r="F18" t="n">
-        <v>383.0856446455467</v>
+        <v>270.2661720950404</v>
       </c>
       <c r="G18" t="n">
-        <v>157.2187402577038</v>
+        <v>140.8566933034418</v>
       </c>
       <c r="H18" t="n">
-        <v>0.59</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>155668</v>
+        <v>154281</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22333186</v>
+        <v>22285679</v>
       </c>
       <c r="E19" t="n">
-        <v>22375001</v>
+        <v>22327405</v>
       </c>
       <c r="F19" t="n">
-        <v>1618.440799216538</v>
+        <v>666.8854915616066</v>
       </c>
       <c r="G19" t="n">
-        <v>997.528810562224</v>
+        <v>827.8948946765455</v>
       </c>
       <c r="H19" t="n">
-        <v>0.57</v>
+        <v>0.87</v>
       </c>
       <c r="I19" t="n">
-        <v>874884</v>
+        <v>873386</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3863441</v>
+        <v>3863516</v>
       </c>
       <c r="E20" t="n">
-        <v>21436656</v>
+        <v>21437072</v>
       </c>
       <c r="F20" t="n">
-        <v>19.13520740837478</v>
+        <v>19.13625674471733</v>
       </c>
       <c r="G20" t="n">
-        <v>4.001947717964625</v>
+        <v>4.002167176739847</v>
       </c>
       <c r="H20" t="n">
         <v>0.91</v>
       </c>
       <c r="I20" t="n">
-        <v>43854</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6902920</v>
+        <v>6899646</v>
       </c>
       <c r="E21" t="n">
-        <v>12806373</v>
+        <v>12800299</v>
       </c>
       <c r="F21" t="n">
-        <v>49.95433066297499</v>
+        <v>423.5174212011532</v>
       </c>
       <c r="G21" t="n">
-        <v>202.577855674621</v>
+        <v>202.5840586398473</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.93</v>
       </c>
       <c r="I21" t="n">
-        <v>51504</v>
+        <v>51176</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73000162</v>
+        <v>72918840</v>
       </c>
       <c r="E22" t="n">
-        <v>126457958</v>
+        <v>126314065</v>
       </c>
       <c r="F22" t="n">
-        <v>1619.886895467519</v>
+        <v>367.2628975413258</v>
       </c>
       <c r="G22" t="n">
-        <v>831.2728751474444</v>
+        <v>881.2203831627044</v>
       </c>
       <c r="H22" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="I22" t="n">
-        <v>746743</v>
+        <v>741145</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>178654</v>
+        <v>178865</v>
       </c>
       <c r="E23" t="n">
-        <v>537307</v>
+        <v>537940</v>
       </c>
       <c r="F23" t="n">
-        <v>201.9316127004857</v>
+        <v>201.9377958776522</v>
       </c>
       <c r="G23" t="n">
-        <v>4.032386854466473</v>
+        <v>4.032510326774705</v>
       </c>
       <c r="H23" t="n">
         <v>0.55</v>
       </c>
       <c r="I23" t="n">
-        <v>92.89</v>
+        <v>117.53</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82229313</v>
+        <v>82766547</v>
       </c>
       <c r="E24" t="n">
-        <v>241928837</v>
+        <v>243509446</v>
       </c>
       <c r="F24" t="n">
-        <v>618.3050202475567</v>
+        <v>39.57088300739579</v>
       </c>
       <c r="G24" t="n">
-        <v>424.257604956197</v>
+        <v>512.3109138430369</v>
       </c>
       <c r="H24" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="I24" t="n">
-        <v>406990</v>
+        <v>408270</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6995677</v>
+        <v>6869204</v>
       </c>
       <c r="F25" t="n">
-        <v>15.82907687055008</v>
+        <v>14.17599147325737</v>
       </c>
       <c r="G25" t="n">
-        <v>4.127192055019589</v>
+        <v>4.187717208587363</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="I25" t="n">
-        <v>25404</v>
+        <v>27549</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2442282</v>
+        <v>2443482</v>
       </c>
       <c r="E26" t="n">
-        <v>2442282</v>
+        <v>2443482</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.43</v>
+        <v>22.83</v>
       </c>
       <c r="I26" t="n">
-        <v>313178</v>
+        <v>314278</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19398379</v>
+        <v>18301277</v>
       </c>
       <c r="E27" t="n">
-        <v>24967306</v>
+        <v>23555246</v>
       </c>
       <c r="F27" t="n">
-        <v>4464.168008479969</v>
+        <v>559.0485869848837</v>
       </c>
       <c r="G27" t="n">
-        <v>1095.610901730214</v>
+        <v>4522.541767969245</v>
       </c>
       <c r="H27" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="I27" t="n">
-        <v>2036601</v>
+        <v>2038967</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4664471</v>
+        <v>4664859</v>
       </c>
       <c r="E28" t="n">
-        <v>4664471</v>
+        <v>4664859</v>
       </c>
       <c r="F28" t="n">
-        <v>1250.434168450489</v>
+        <v>1204.736235621939</v>
       </c>
       <c r="G28" t="n">
-        <v>6998.231413302184</v>
+        <v>4117.079362674174</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>1967946</v>
+        <v>1967427</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1726592</v>
+        <v>1774201</v>
       </c>
       <c r="F29" t="n">
-        <v>44.35852693032836</v>
+        <v>51.36266168766783</v>
       </c>
       <c r="G29" t="n">
-        <v>5.426663325290631</v>
+        <v>35.6010222911043</v>
       </c>
       <c r="H29" t="n">
-        <v>3.71</v>
+        <v>2.49</v>
       </c>
       <c r="I29" t="n">
-        <v>115254</v>
+        <v>110035</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3359885</v>
+        <v>3359631</v>
       </c>
       <c r="E30" t="n">
-        <v>3359884</v>
+        <v>3359631</v>
       </c>
       <c r="F30" t="n">
-        <v>188.2700271296731</v>
+        <v>472.7643514784958</v>
       </c>
       <c r="G30" t="n">
-        <v>729.2656844155462</v>
+        <v>693.9779014403244</v>
       </c>
       <c r="H30" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I30" t="n">
-        <v>536635</v>
+        <v>531481</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>323895</v>
+        <v>315605</v>
       </c>
       <c r="E31" t="n">
-        <v>1511974</v>
+        <v>1473274</v>
       </c>
       <c r="F31" t="n">
-        <v>374.3908389997725</v>
+        <v>118.0114540048259</v>
       </c>
       <c r="G31" t="n">
-        <v>207.6392289218033</v>
+        <v>220.0136107624506</v>
       </c>
       <c r="H31" t="n">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>631980</v>
+        <v>623968</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>345364</v>
+        <v>343795</v>
       </c>
       <c r="E32" t="n">
-        <v>345364</v>
+        <v>343795</v>
       </c>
       <c r="F32" t="n">
-        <v>4.260608188746449</v>
+        <v>4.260729580438204</v>
       </c>
       <c r="G32" t="n">
-        <v>151.5820296132998</v>
+        <v>270.7979462435847</v>
       </c>
       <c r="H32" t="n">
         <v>0.55</v>
       </c>
       <c r="I32" t="n">
-        <v>49297</v>
+        <v>48194</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1852332</v>
+        <v>1843479</v>
       </c>
       <c r="F33" t="n">
-        <v>52.25104526026969</v>
+        <v>52.38924747450017</v>
       </c>
       <c r="G33" t="n">
-        <v>10.05627306059267</v>
+        <v>10.01835548442657</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1373768</v>
+        <v>1362536</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1601811</v>
+        <v>1610912</v>
       </c>
       <c r="F34" t="n">
-        <v>395.7695725683134</v>
+        <v>96.61493957538734</v>
       </c>
       <c r="G34" t="n">
-        <v>49.07130144857208</v>
+        <v>187.4553557281067</v>
       </c>
       <c r="H34" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>182818</v>
+        <v>220968</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12847380</v>
+        <v>12916572</v>
       </c>
       <c r="E35" t="n">
-        <v>31974805</v>
+        <v>32147011</v>
       </c>
       <c r="F35" t="n">
-        <v>1002.036890520237</v>
+        <v>1132.369811949799</v>
       </c>
       <c r="G35" t="n">
-        <v>1169.442582974255</v>
+        <v>1182.915804513867</v>
       </c>
       <c r="H35" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="I35" t="n">
-        <v>1590883</v>
+        <v>1598161</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6712996</v>
+        <v>6702184</v>
       </c>
       <c r="E36" t="n">
-        <v>9245511</v>
+        <v>9230620</v>
       </c>
       <c r="F36" t="n">
-        <v>738.0382262398923</v>
+        <v>802.4617963746164</v>
       </c>
       <c r="G36" t="n">
-        <v>265.6259687044338</v>
+        <v>8.602831041213546</v>
       </c>
       <c r="H36" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="I36" t="n">
-        <v>841721</v>
+        <v>838353</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>909053</v>
+        <v>915792</v>
       </c>
       <c r="E37" t="n">
-        <v>6363369</v>
+        <v>6410547</v>
       </c>
       <c r="F37" t="n">
-        <v>519.2637627402713</v>
+        <v>61.85193135675307</v>
       </c>
       <c r="G37" t="n">
-        <v>4336.926469507283</v>
+        <v>666.203798378632</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>229235</v>
+        <v>227575</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>109735401</v>
+        <v>112830114</v>
       </c>
       <c r="E38" t="n">
-        <v>427225596</v>
+        <v>439248718</v>
       </c>
       <c r="F38" t="n">
-        <v>11632.84637337227</v>
+        <v>10506.37608548219</v>
       </c>
       <c r="G38" t="n">
-        <v>29500.48833283397</v>
+        <v>24584.07685130592</v>
       </c>
       <c r="H38" t="n">
         <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>6686610</v>
+        <v>9565922</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5601004</v>
+        <v>5683484</v>
       </c>
       <c r="E39" t="n">
-        <v>5868956</v>
+        <v>5955382</v>
       </c>
       <c r="F39" t="n">
-        <v>731.0077689101402</v>
+        <v>2423.730983393222</v>
       </c>
       <c r="G39" t="n">
-        <v>2716.320979453941</v>
+        <v>225.8350931697685</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>125600</v>
+        <v>131497</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5501020</v>
+        <v>5506705</v>
       </c>
       <c r="E40" t="n">
-        <v>8097799</v>
+        <v>8106169</v>
       </c>
       <c r="F40" t="n">
-        <v>1989.975156586892</v>
+        <v>285.9070750196748</v>
       </c>
       <c r="G40" t="n">
-        <v>2319.763039864217</v>
+        <v>2662.835759725801</v>
       </c>
       <c r="H40" t="n">
         <v>1.11</v>
       </c>
       <c r="I40" t="n">
-        <v>585478</v>
+        <v>626080</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7672294</v>
+        <v>7669921</v>
       </c>
       <c r="E41" t="n">
-        <v>7672294</v>
+        <v>7669921</v>
       </c>
       <c r="F41" t="n">
-        <v>1471.187921150515</v>
+        <v>1471.140366484355</v>
       </c>
       <c r="G41" t="n">
-        <v>2105.571019616496</v>
+        <v>2331.823004159058</v>
       </c>
       <c r="H41" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="I41" t="n">
-        <v>229837</v>
+        <v>232827</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1485889</v>
+        <v>1483719</v>
       </c>
       <c r="E42" t="n">
-        <v>1485928</v>
+        <v>1483719</v>
       </c>
       <c r="F42" t="n">
-        <v>367.3708120394977</v>
+        <v>508.1222868260627</v>
       </c>
       <c r="G42" t="n">
-        <v>38.45053766321598</v>
+        <v>45.56531783746499</v>
       </c>
       <c r="H42" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="I42" t="n">
-        <v>276288</v>
+        <v>273048</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16402918</v>
+        <v>16538874</v>
       </c>
       <c r="F43" t="n">
-        <v>314.8625140045564</v>
+        <v>261.6252219968006</v>
       </c>
       <c r="G43" t="n">
-        <v>501.1497920534875</v>
+        <v>520.1256077345427</v>
       </c>
       <c r="H43" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="I43" t="n">
-        <v>10426.52</v>
+        <v>10606.23</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>135341363</v>
+        <v>137014516</v>
       </c>
       <c r="E44" t="n">
-        <v>135341363</v>
+        <v>137014516</v>
       </c>
       <c r="F44" t="n">
-        <v>252370.9415107223</v>
+        <v>240843.8308131633</v>
       </c>
       <c r="G44" t="n">
-        <v>404339.1721816006</v>
+        <v>357655.0707265696</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>65692431</v>
+        <v>65921095</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64794138</v>
+        <v>65138432</v>
       </c>
       <c r="E45" t="n">
-        <v>332277632</v>
+        <v>334043242</v>
       </c>
       <c r="F45" t="n">
-        <v>54654.60756506819</v>
+        <v>54920.398696489</v>
       </c>
       <c r="G45" t="n">
-        <v>77969.77664178323</v>
+        <v>70059.24042660433</v>
       </c>
       <c r="H45" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I45" t="n">
-        <v>18639479</v>
+        <v>18363420</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>594192</v>
+        <v>598623</v>
       </c>
       <c r="F46" t="n">
-        <v>74.14849729904337</v>
+        <v>40.99754841181667</v>
       </c>
       <c r="G46" t="n">
-        <v>375.3314979721633</v>
+        <v>751.4961494186401</v>
       </c>
       <c r="H46" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="I46" t="n">
-        <v>793.42</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2729480</v>
+        <v>2725229</v>
       </c>
       <c r="E47" t="n">
-        <v>10969157</v>
+        <v>10952074</v>
       </c>
       <c r="F47" t="n">
-        <v>59.81816907562951</v>
+        <v>59.94448274871815</v>
       </c>
       <c r="G47" t="n">
-        <v>457.2086473385576</v>
+        <v>157.6087636077581</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>1.79</v>
       </c>
       <c r="I47" t="n">
-        <v>24805</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17394383</v>
+        <v>17487594</v>
       </c>
       <c r="E48" t="n">
-        <v>122642832</v>
+        <v>123274122</v>
       </c>
       <c r="F48" t="n">
-        <v>568.4623639372713</v>
+        <v>1429.818126138985</v>
       </c>
       <c r="G48" t="n">
-        <v>5628.838752732196</v>
+        <v>624.9079223660373</v>
       </c>
       <c r="H48" t="n">
-        <v>0.61</v>
+        <v>1.17</v>
       </c>
       <c r="I48" t="n">
-        <v>1032969</v>
+        <v>1039068</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1032357</v>
+        <v>1032704</v>
       </c>
       <c r="E49" t="n">
-        <v>1211740</v>
+        <v>1212147</v>
       </c>
       <c r="F49" t="n">
-        <v>1364.608334447878</v>
+        <v>1364.683281506258</v>
       </c>
       <c r="G49" t="n">
-        <v>2957.441550578335</v>
+        <v>2957.590476261061</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>251012</v>
+        <v>239900</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>147943</v>
+        <v>147257</v>
       </c>
       <c r="E50" t="n">
-        <v>1979565</v>
+        <v>1970386</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46989</v>
+        <v>46802</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>252772469</v>
+        <v>254285737</v>
       </c>
       <c r="E51" t="n">
-        <v>252772469</v>
+        <v>254285737</v>
       </c>
       <c r="F51" t="n">
-        <v>31140.43136200915</v>
+        <v>23625.29613313259</v>
       </c>
       <c r="G51" t="n">
-        <v>23216.74140932797</v>
+        <v>35689.74696542531</v>
       </c>
       <c r="H51" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="I51" t="n">
-        <v>14940496</v>
+        <v>14854957</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1120734</v>
+        <v>1122317</v>
       </c>
       <c r="F52" t="n">
-        <v>64.34445378650827</v>
+        <v>28.33524084529246</v>
       </c>
       <c r="G52" t="n">
-        <v>3.884198180987749</v>
+        <v>641.8921031711359</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>189844</v>
+        <v>190898</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>116247</v>
+        <v>116395</v>
       </c>
       <c r="E54" t="n">
-        <v>116247</v>
+        <v>116395</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>14.01</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6631036</v>
+        <v>6711512</v>
       </c>
       <c r="E55" t="n">
-        <v>16106275</v>
+        <v>16301745</v>
       </c>
       <c r="F55" t="n">
-        <v>349.613432544821</v>
+        <v>39.86628612607378</v>
       </c>
       <c r="G55" t="n">
-        <v>846.2386045348637</v>
+        <v>1603.587573823619</v>
       </c>
       <c r="H55" t="n">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="I55" t="n">
-        <v>450310</v>
+        <v>453959</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>455325194</v>
+        <v>461155316</v>
       </c>
       <c r="E56" t="n">
-        <v>455342951</v>
+        <v>461155316</v>
       </c>
       <c r="F56" t="n">
-        <v>4229.713645267917</v>
+        <v>3890.591190495674</v>
       </c>
       <c r="G56" t="n">
-        <v>2664.630542959626</v>
+        <v>3212.323821708773</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I56" t="n">
-        <v>3036645</v>
+        <v>3303158</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2537142</v>
+        <v>2520106</v>
       </c>
       <c r="E57" t="n">
-        <v>2537142</v>
+        <v>2520106</v>
       </c>
       <c r="F57" t="n">
-        <v>3.769118473589007</v>
+        <v>4.04300649115435</v>
       </c>
       <c r="G57" t="n">
-        <v>5.507699714850096</v>
+        <v>5.54726330979403</v>
       </c>
       <c r="H57" t="n">
         <v>0.48</v>
       </c>
       <c r="I57" t="n">
-        <v>109722</v>
+        <v>110139</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>151902300</v>
+        <v>151471191</v>
       </c>
       <c r="E58" t="n">
-        <v>199885661</v>
+        <v>199318373</v>
       </c>
       <c r="F58" t="n">
-        <v>9740.709768810904</v>
+        <v>9077.143337183474</v>
       </c>
       <c r="G58" t="n">
-        <v>12700.82867764738</v>
+        <v>13062.09381560243</v>
       </c>
       <c r="H58" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="I58" t="n">
-        <v>7455554</v>
+        <v>7891168</v>
       </c>
     </row>
     <row r="59">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1116358</v>
+        <v>1115798</v>
       </c>
       <c r="E59" t="n">
-        <v>12132166</v>
+        <v>12126073</v>
       </c>
       <c r="F59" t="n">
-        <v>788.2004742233179</v>
+        <v>779.1147357131105</v>
       </c>
       <c r="G59" t="n">
-        <v>3.931545069175481</v>
+        <v>3.990016399091972</v>
       </c>
       <c r="H59" t="n">
         <v>0.49</v>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2536566</v>
+        <v>2539254</v>
       </c>
       <c r="E60" t="n">
-        <v>6484951</v>
+        <v>6491822</v>
       </c>
       <c r="F60" t="n">
-        <v>145.3704358426692</v>
+        <v>145.3656685364624</v>
       </c>
       <c r="G60" t="n">
-        <v>250.680343559802</v>
+        <v>186.4904416408641</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>118332</v>
+        <v>118539</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>72008439</v>
+        <v>73059741</v>
       </c>
       <c r="E61" t="n">
-        <v>201576135</v>
+        <v>204516079</v>
       </c>
       <c r="F61" t="n">
-        <v>80215.24512989521</v>
+        <v>81264.34501729047</v>
       </c>
       <c r="G61" t="n">
-        <v>82373.5846716103</v>
+        <v>82615.78820235204</v>
       </c>
       <c r="H61" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I61" t="n">
-        <v>32905877</v>
+        <v>32993021</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74069025</v>
+        <v>74291151</v>
       </c>
       <c r="E62" t="n">
-        <v>74069025</v>
+        <v>74291151</v>
       </c>
       <c r="F62" t="n">
-        <v>1402.261421679052</v>
+        <v>3789.10597088085</v>
       </c>
       <c r="G62" t="n">
-        <v>4923.995931203259</v>
+        <v>4818.363567230432</v>
       </c>
       <c r="H62" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="I62" t="n">
-        <v>4118190</v>
+        <v>4103261</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4223778</v>
+        <v>4227546</v>
       </c>
       <c r="E63" t="n">
-        <v>8329646</v>
+        <v>8337077</v>
       </c>
       <c r="F63" t="n">
-        <v>1672.117241574893</v>
+        <v>1946.424981640708</v>
       </c>
       <c r="G63" t="n">
-        <v>2151.987133652266</v>
+        <v>1461.486364672553</v>
       </c>
       <c r="H63" t="n">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="I63" t="n">
-        <v>1641850</v>
+        <v>1649792</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1583118</v>
+        <v>1573471</v>
       </c>
       <c r="E64" t="n">
-        <v>9089671</v>
+        <v>9034282</v>
       </c>
       <c r="F64" t="n">
-        <v>395.3015187684843</v>
+        <v>332.5050519238056</v>
       </c>
       <c r="G64" t="n">
-        <v>3.874216516958303</v>
+        <v>4.035144634779046</v>
       </c>
       <c r="H64" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="I64" t="n">
-        <v>194509</v>
+        <v>307692</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>541538</v>
+        <v>566051</v>
       </c>
       <c r="F65" t="n">
-        <v>7.766226941560632</v>
+        <v>4.049118190511186</v>
       </c>
       <c r="G65" t="n">
-        <v>216.5103410519846</v>
+        <v>4.720673920633192</v>
       </c>
       <c r="H65" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="I65" t="n">
-        <v>2170.85</v>
+        <v>2323.81</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>32056444</v>
+        <v>31989617</v>
       </c>
       <c r="F66" t="n">
-        <v>801.5509946627927</v>
+        <v>818.7417635646162</v>
       </c>
       <c r="G66" t="n">
-        <v>304.0122050582324</v>
+        <v>381.2614137347897</v>
       </c>
       <c r="H66" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>251759</v>
+        <v>251131</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>153030</v>
+        <v>152572</v>
       </c>
       <c r="E67" t="n">
-        <v>1033426</v>
+        <v>1030336</v>
       </c>
       <c r="F67" t="n">
-        <v>669.855674483937</v>
+        <v>63.41087676474142</v>
       </c>
       <c r="G67" t="n">
-        <v>49.76479820525084</v>
+        <v>5.576053977379594</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="I67" t="n">
-        <v>2666253</v>
+        <v>2675187</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7559493</v>
+        <v>7547687</v>
       </c>
       <c r="E68" t="n">
-        <v>17804108</v>
+        <v>17776304</v>
       </c>
       <c r="F68" t="n">
-        <v>1546.961897677263</v>
+        <v>1498.106864236707</v>
       </c>
       <c r="G68" t="n">
-        <v>2837.693974677576</v>
+        <v>2822.97985164179</v>
       </c>
       <c r="H68" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="I68" t="n">
-        <v>31800</v>
+        <v>31537</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2904535</v>
+        <v>2948715</v>
       </c>
       <c r="E69" t="n">
-        <v>2904535</v>
+        <v>2948715</v>
       </c>
       <c r="F69" t="n">
-        <v>4.182936912294163</v>
+        <v>323.7890396712347</v>
       </c>
       <c r="G69" t="n">
-        <v>921.9189785409206</v>
+        <v>5.331444764566051</v>
       </c>
       <c r="H69" t="n">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="I69" t="n">
-        <v>17664.24</v>
+        <v>17574.11</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3369633</v>
+        <v>3371906</v>
       </c>
       <c r="E70" t="n">
-        <v>8314397</v>
+        <v>8320007</v>
       </c>
       <c r="F70" t="n">
-        <v>1172.179825611435</v>
+        <v>1121.011124813513</v>
       </c>
       <c r="G70" t="n">
-        <v>1204.833610546201</v>
+        <v>1273.970875495493</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>53787</v>
+        <v>54215</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23336477</v>
+        <v>23287751</v>
       </c>
       <c r="F71" t="n">
-        <v>147.3821331383095</v>
+        <v>146.8046165797591</v>
       </c>
       <c r="G71" t="n">
-        <v>43.08980284035484</v>
+        <v>109.5957236779461</v>
       </c>
       <c r="H71" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>117870</v>
+        <v>117536</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>269993</v>
+        <v>269825</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2288.14</v>
+        <v>2348.7</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>72471916</v>
+        <v>73359828</v>
       </c>
       <c r="E73" t="n">
-        <v>151140747</v>
+        <v>152992495</v>
       </c>
       <c r="F73" t="n">
-        <v>14048.80142368086</v>
+        <v>14790.45862661629</v>
       </c>
       <c r="G73" t="n">
-        <v>5540.422818468081</v>
+        <v>6859.016879718138</v>
       </c>
       <c r="H73" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="I73" t="n">
-        <v>14006060</v>
+        <v>14344470</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>205715536</v>
+        <v>205985965</v>
       </c>
       <c r="F75" t="n">
-        <v>7125.066175571225</v>
+        <v>27809.06226591039</v>
       </c>
       <c r="G75" t="n">
-        <v>20114.94824292404</v>
+        <v>11035.8355700336</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="I75" t="n">
-        <v>4526017</v>
+        <v>3272916</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>83638406</v>
+        <v>83314679</v>
       </c>
       <c r="E76" t="n">
-        <v>114848547</v>
+        <v>114404020</v>
       </c>
       <c r="F76" t="n">
-        <v>1200.665635715064</v>
+        <v>1484.82339145544</v>
       </c>
       <c r="G76" t="n">
-        <v>10439.61034228261</v>
+        <v>8053.457198661543</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I76" t="n">
-        <v>946546</v>
+        <v>975129</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>189258</v>
+        <v>185015</v>
       </c>
       <c r="E77" t="n">
-        <v>197639</v>
+        <v>193208</v>
       </c>
       <c r="F77" t="n">
-        <v>5.380835536955339</v>
+        <v>5.461772392374721</v>
       </c>
       <c r="G77" t="n">
-        <v>3.900912080051191</v>
+        <v>3.121689246330949</v>
       </c>
       <c r="H77" t="n">
-        <v>0.65</v>
+        <v>0.93</v>
       </c>
       <c r="I77" t="n">
-        <v>435.03</v>
+        <v>432.86</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7336796</v>
+        <v>8385475</v>
       </c>
       <c r="E78" t="n">
-        <v>8070966</v>
+        <v>9224583</v>
       </c>
       <c r="F78" t="n">
-        <v>22.13625110125617</v>
+        <v>34.6012428419571</v>
       </c>
       <c r="G78" t="n">
-        <v>348.1037062381944</v>
+        <v>263.7649219987753</v>
       </c>
       <c r="H78" t="n">
-        <v>2.8</v>
+        <v>2.11</v>
       </c>
       <c r="I78" t="n">
-        <v>639555</v>
+        <v>727108</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28292096</v>
+        <v>28337620</v>
       </c>
       <c r="E79" t="n">
-        <v>28292096</v>
+        <v>28337620</v>
       </c>
       <c r="F79" t="n">
-        <v>87.27220679018531</v>
+        <v>87.27487907863524</v>
       </c>
       <c r="G79" t="n">
-        <v>1044.416814339472</v>
+        <v>1034.466100658092</v>
       </c>
       <c r="H79" t="n">
         <v>0.49</v>
       </c>
       <c r="I79" t="n">
-        <v>268095</v>
+        <v>274260</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>277603540</v>
+        <v>277125645</v>
       </c>
       <c r="E80" t="n">
-        <v>277603540</v>
+        <v>277125645</v>
       </c>
       <c r="F80" t="n">
-        <v>59.94255518460331</v>
+        <v>3041.908576267413</v>
       </c>
       <c r="G80" t="n">
-        <v>2755.023546284649</v>
+        <v>1801.973751366708</v>
       </c>
       <c r="H80" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="I80" t="n">
-        <v>10134959</v>
+        <v>10011148</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>620398963</v>
+        <v>628620934</v>
       </c>
       <c r="E81" t="n">
-        <v>620398963</v>
+        <v>628620934</v>
       </c>
       <c r="F81" t="n">
-        <v>765451.5478869246</v>
+        <v>1275125.542055928</v>
       </c>
       <c r="G81" t="n">
-        <v>732758.0401956665</v>
+        <v>1439492.949286108</v>
       </c>
       <c r="H81" t="n">
-        <v>0.52</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>261969991</v>
+        <v>255561416</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>112801</v>
+        <v>118549</v>
       </c>
       <c r="E82" t="n">
-        <v>112801</v>
+        <v>118549</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>145.29</v>
+        <v>189.04</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>197794024</v>
+        <v>198559848</v>
       </c>
       <c r="E83" t="n">
-        <v>687154314</v>
+        <v>689814858</v>
       </c>
       <c r="F83" t="n">
-        <v>1424.220317964187</v>
+        <v>1457.925418150861</v>
       </c>
       <c r="G83" t="n">
-        <v>4396.249472286324</v>
+        <v>1870.841694435107</v>
       </c>
       <c r="H83" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="I83" t="n">
-        <v>26084599</v>
+        <v>25988910</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3997623</v>
+        <v>4074308</v>
       </c>
       <c r="E84" t="n">
-        <v>3997623</v>
+        <v>4074308</v>
       </c>
       <c r="F84" t="n">
-        <v>548.761505569395</v>
+        <v>732.1163932613395</v>
       </c>
       <c r="G84" t="n">
-        <v>1652.826587876558</v>
+        <v>1899.45481754691</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I84" t="n">
-        <v>3705732</v>
+        <v>3555805</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>114343840</v>
+        <v>115240186</v>
       </c>
       <c r="E85" t="n">
-        <v>486424928</v>
+        <v>490208157</v>
       </c>
       <c r="F85" t="n">
-        <v>309637.7581370598</v>
+        <v>363838.8397508487</v>
       </c>
       <c r="G85" t="n">
-        <v>489674.2080347278</v>
+        <v>433994.7018417461</v>
       </c>
       <c r="H85" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="I85" t="n">
-        <v>13258580</v>
+        <v>13810792</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>72997662</v>
+        <v>71771292</v>
       </c>
       <c r="E86" t="n">
-        <v>83755519</v>
+        <v>82348416</v>
       </c>
       <c r="F86" t="n">
-        <v>9788.889569293891</v>
+        <v>21605.39593775877</v>
       </c>
       <c r="G86" t="n">
-        <v>12746.42870856382</v>
+        <v>11562.08748678151</v>
       </c>
       <c r="H86" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="I86" t="n">
-        <v>1206877</v>
+        <v>1199599</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3131924</v>
+        <v>3150103</v>
       </c>
       <c r="E87" t="n">
-        <v>15702758</v>
+        <v>15793901</v>
       </c>
       <c r="F87" t="n">
-        <v>5.426315059180443</v>
+        <v>5.426376007306062</v>
       </c>
       <c r="G87" t="n">
-        <v>4.047653552492535</v>
+        <v>4.047699015554389</v>
       </c>
       <c r="H87" t="n">
         <v>0.68</v>
       </c>
       <c r="I87" t="n">
-        <v>31606</v>
+        <v>31432</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>532831</v>
+        <v>525046</v>
       </c>
       <c r="E88" t="n">
-        <v>9114038</v>
+        <v>8980883</v>
       </c>
       <c r="F88" t="n">
-        <v>5.55132993030269</v>
+        <v>1404.790698873362</v>
       </c>
       <c r="G88" t="n">
-        <v>108.0638842301743</v>
+        <v>105.6009108937117</v>
       </c>
       <c r="H88" t="n">
-        <v>1.28</v>
+        <v>0.4</v>
       </c>
       <c r="I88" t="n">
-        <v>304571</v>
+        <v>290889</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5954028</v>
+        <v>5692012</v>
       </c>
       <c r="E89" t="n">
-        <v>8090290</v>
+        <v>7733925</v>
       </c>
       <c r="F89" t="n">
-        <v>1198.005675297601</v>
+        <v>1177.874765818878</v>
       </c>
       <c r="G89" t="n">
-        <v>67.29350930107667</v>
+        <v>57.686310366614</v>
       </c>
       <c r="H89" t="n">
-        <v>0.53</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I89" t="n">
-        <v>6472754</v>
+        <v>1376956</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40728176</v>
+        <v>40398139</v>
       </c>
       <c r="E90" t="n">
-        <v>47569542</v>
+        <v>47184067</v>
       </c>
       <c r="F90" t="n">
-        <v>850.6236709142805</v>
+        <v>741.9857497597578</v>
       </c>
       <c r="G90" t="n">
-        <v>63.27622435560553</v>
+        <v>26.38521870690284</v>
       </c>
       <c r="H90" t="n">
-        <v>0.84</v>
+        <v>0.13</v>
       </c>
       <c r="I90" t="n">
-        <v>851220</v>
+        <v>847751</v>
       </c>
     </row>
     <row r="91">
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14441932</v>
+        <v>14458670</v>
       </c>
       <c r="F91" t="n">
         <v>220.6649180015868</v>
@@ -3611,7 +3611,7 @@
         <v>1.68</v>
       </c>
       <c r="I91" t="n">
-        <v>431431</v>
+        <v>428960</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35613527</v>
+        <v>35401558</v>
       </c>
       <c r="E92" t="n">
-        <v>35613527</v>
+        <v>35401558</v>
       </c>
       <c r="F92" t="n">
-        <v>635.3865933165462</v>
+        <v>126.6206599643969</v>
       </c>
       <c r="G92" t="n">
-        <v>152.3192053525984</v>
+        <v>79.20754564860674</v>
       </c>
       <c r="H92" t="n">
-        <v>0.89</v>
+        <v>1.68</v>
       </c>
       <c r="I92" t="n">
-        <v>752806</v>
+        <v>754710</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17400908</v>
+        <v>17354853</v>
       </c>
       <c r="F93" t="n">
-        <v>128.4888583088464</v>
+        <v>125.3530232461613</v>
       </c>
       <c r="G93" t="n">
-        <v>445.9834303381461</v>
+        <v>446.9481858447484</v>
       </c>
       <c r="H93" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="I93" t="n">
-        <v>167255</v>
+        <v>171550</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>537238</v>
+        <v>536682</v>
       </c>
       <c r="E94" t="n">
-        <v>6516169</v>
+        <v>6509436</v>
       </c>
       <c r="F94" t="n">
-        <v>1019.007097175151</v>
+        <v>968.8277163896471</v>
       </c>
       <c r="G94" t="n">
-        <v>2160.600561085691</v>
+        <v>1823.172593793937</v>
       </c>
       <c r="H94" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I94" t="n">
-        <v>2774084</v>
+        <v>2758512</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24909223</v>
+        <v>25137737</v>
       </c>
       <c r="E95" t="n">
-        <v>35208214</v>
+        <v>35531210</v>
       </c>
       <c r="F95" t="n">
-        <v>5.544745040346393</v>
+        <v>5.535031084115814</v>
       </c>
       <c r="G95" t="n">
-        <v>3.897262304226493</v>
+        <v>139.4755497056632</v>
       </c>
       <c r="H95" t="n">
-        <v>0.19</v>
+        <v>0.58</v>
       </c>
       <c r="I95" t="n">
-        <v>82664</v>
+        <v>64106</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1276397890</v>
+        <v>1302988941</v>
       </c>
       <c r="E96" t="n">
-        <v>6120589285</v>
+        <v>6248098817</v>
       </c>
       <c r="F96" t="n">
-        <v>439197.6619780371</v>
+        <v>588999.4003088179</v>
       </c>
       <c r="G96" t="n">
-        <v>575482.2459072812</v>
+        <v>497514.6159894328</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>177973795</v>
+        <v>178119011</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>265016990</v>
+        <v>267680819</v>
       </c>
       <c r="E97" t="n">
-        <v>1143960453</v>
+        <v>1155459014</v>
       </c>
       <c r="F97" t="n">
-        <v>127010.3926182935</v>
+        <v>251476.1248643134</v>
       </c>
       <c r="G97" t="n">
-        <v>1107804.177899401</v>
+        <v>1231972.394958507</v>
       </c>
       <c r="H97" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>111546265</v>
+        <v>111013924</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5017477</v>
+        <v>5019922</v>
       </c>
       <c r="E98" t="n">
-        <v>5560364</v>
+        <v>5563074</v>
       </c>
       <c r="F98" t="n">
-        <v>1149.722349511517</v>
+        <v>1102.872029788302</v>
       </c>
       <c r="G98" t="n">
-        <v>328.9249751850852</v>
+        <v>407.4613512134204</v>
       </c>
       <c r="H98" t="n">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="I98" t="n">
-        <v>688847</v>
+        <v>684259</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93386</v>
+        <v>93445</v>
       </c>
       <c r="E99" t="n">
-        <v>93386</v>
+        <v>93445</v>
       </c>
       <c r="F99" t="n">
-        <v>5.517215231481059</v>
+        <v>94.47535761584994</v>
       </c>
       <c r="G99" t="n">
-        <v>341.7475885256036</v>
+        <v>4.191510084220755</v>
       </c>
       <c r="H99" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="I99" t="n">
-        <v>5179.22</v>
+        <v>5377.11</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114097862</v>
+        <v>114510000</v>
       </c>
       <c r="E100" t="n">
-        <v>114097862</v>
+        <v>114510000</v>
       </c>
       <c r="F100" t="n">
-        <v>12238.02707651525</v>
+        <v>23632.4537566192</v>
       </c>
       <c r="G100" t="n">
-        <v>8238.589777606185</v>
+        <v>14127.21040112841</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6030132</v>
+        <v>6030067</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3776782</v>
+        <v>3773901</v>
       </c>
       <c r="F101" t="n">
-        <v>2166.018545269811</v>
+        <v>2204.040510196612</v>
       </c>
       <c r="G101" t="n">
-        <v>1210.527153954785</v>
+        <v>1176.344973298833</v>
       </c>
       <c r="H101" t="n">
         <v>0.53</v>
       </c>
       <c r="I101" t="n">
-        <v>295217</v>
+        <v>296775</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2043593142</v>
+        <v>2046962623</v>
       </c>
       <c r="E102" t="n">
-        <v>2043593142</v>
+        <v>2046962623</v>
       </c>
       <c r="F102" t="n">
-        <v>7081703.304937748</v>
+        <v>7131352.455298882</v>
       </c>
       <c r="G102" t="n">
-        <v>5484534.784922226</v>
+        <v>5417478.038324135</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5803708006</v>
+        <v>5314296198</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5316682</v>
+        <v>5355029</v>
       </c>
       <c r="E103" t="n">
-        <v>5322699</v>
+        <v>5361090</v>
       </c>
       <c r="F103" t="n">
-        <v>261.073011765005</v>
+        <v>261.0783706031045</v>
       </c>
       <c r="G103" t="n">
-        <v>83.20919024010909</v>
+        <v>83.54845630169542</v>
       </c>
       <c r="H103" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>151525</v>
+        <v>150723</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2329112</v>
+        <v>2347972</v>
       </c>
       <c r="F104" t="n">
-        <v>223.1812821539377</v>
+        <v>310.7320629912439</v>
       </c>
       <c r="G104" t="n">
-        <v>23.67455446123672</v>
+        <v>3.873387949830108</v>
       </c>
       <c r="H104" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I104" t="n">
-        <v>71338</v>
+        <v>64241</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4388086</v>
+        <v>4404581</v>
       </c>
       <c r="E105" t="n">
-        <v>5760985</v>
+        <v>5782640</v>
       </c>
       <c r="F105" t="n">
-        <v>11163.4416613891</v>
+        <v>10947.96356599922</v>
       </c>
       <c r="G105" t="n">
-        <v>11915.07691447366</v>
+        <v>12143.83091179421</v>
       </c>
       <c r="H105" t="n">
         <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>609796</v>
+        <v>595413</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20165849</v>
+        <v>20163861</v>
       </c>
       <c r="F106" t="n">
-        <v>144.2933760797017</v>
+        <v>61.34505337300359</v>
       </c>
       <c r="G106" t="n">
-        <v>807.5323429042816</v>
+        <v>779.7282788268999</v>
       </c>
       <c r="H106" t="n">
         <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>125686</v>
+        <v>121189</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1364455</v>
+        <v>1376628</v>
       </c>
       <c r="E107" t="n">
-        <v>5087149</v>
+        <v>5132532</v>
       </c>
       <c r="F107" t="n">
-        <v>187.5070321169809</v>
+        <v>195.788799513526</v>
       </c>
       <c r="G107" t="n">
-        <v>332.0106850459774</v>
+        <v>309.4090125602449</v>
       </c>
       <c r="H107" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I107" t="n">
-        <v>614093</v>
+        <v>609783</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4045623</v>
+        <v>4175666</v>
       </c>
       <c r="E108" t="n">
-        <v>11652699</v>
+        <v>12027265</v>
       </c>
       <c r="F108" t="n">
-        <v>108.3790332610896</v>
+        <v>85.69111584510742</v>
       </c>
       <c r="G108" t="n">
-        <v>7238.067127524463</v>
+        <v>102.8147916000795</v>
       </c>
       <c r="H108" t="n">
-        <v>1.35</v>
+        <v>2.53</v>
       </c>
       <c r="I108" t="n">
-        <v>567499</v>
+        <v>574188</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80376151</v>
+        <v>80360681</v>
       </c>
       <c r="E109" t="n">
-        <v>102284899</v>
+        <v>102265212</v>
       </c>
       <c r="F109" t="n">
-        <v>6264.856707127865</v>
+        <v>6619.477789269334</v>
       </c>
       <c r="G109" t="n">
-        <v>304.0671648596505</v>
+        <v>635.9430172099818</v>
       </c>
       <c r="H109" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="I109" t="n">
-        <v>6200944</v>
+        <v>6193858</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22412177</v>
+        <v>22403314</v>
       </c>
       <c r="E110" t="n">
-        <v>29073720</v>
+        <v>29062223</v>
       </c>
       <c r="F110" t="n">
-        <v>19149.27025189721</v>
+        <v>19128.62784993316</v>
       </c>
       <c r="G110" t="n">
-        <v>10821.74180160356</v>
+        <v>10448.26323515199</v>
       </c>
       <c r="H110" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="I110" t="n">
-        <v>162408</v>
+        <v>154959</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>621800</v>
+        <v>618857</v>
       </c>
       <c r="E111" t="n">
-        <v>621800</v>
+        <v>618857</v>
       </c>
       <c r="F111" t="n">
-        <v>242.8181024632251</v>
+        <v>4.09648581276065</v>
       </c>
       <c r="G111" t="n">
-        <v>3.065023936140073</v>
+        <v>3.137272880242872</v>
       </c>
       <c r="H111" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="I111" t="n">
-        <v>78346</v>
+        <v>77868</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14113961</v>
+        <v>14150295</v>
       </c>
       <c r="E112" t="n">
-        <v>14113961</v>
+        <v>14150295</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.729757454829</v>
+        <v>3060.424745820236</v>
       </c>
       <c r="G112" t="n">
-        <v>2181.715784307014</v>
+        <v>2918.97391514781</v>
       </c>
       <c r="H112" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I112" t="n">
-        <v>4518087</v>
+        <v>4569384</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98716640</v>
+        <v>98429045</v>
       </c>
       <c r="E113" t="n">
-        <v>122108951</v>
+        <v>121753206</v>
       </c>
       <c r="F113" t="n">
-        <v>102.5386275636164</v>
+        <v>208.6855106442271</v>
       </c>
       <c r="G113" t="n">
-        <v>720.4226334112232</v>
+        <v>2039.029818833519</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7</v>
+        <v>0.41</v>
       </c>
       <c r="I113" t="n">
-        <v>787773</v>
+        <v>792471</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>829147</v>
+        <v>821941</v>
       </c>
       <c r="F114" t="n">
-        <v>174.1285782361921</v>
+        <v>196.5030624733096</v>
       </c>
       <c r="G114" t="n">
-        <v>159.9916484414341</v>
+        <v>197.99290770265</v>
       </c>
       <c r="H114" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I114" t="n">
-        <v>27254</v>
+        <v>27035</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2850477</v>
+        <v>2863395</v>
       </c>
       <c r="F115" t="n">
-        <v>255.0136237074826</v>
+        <v>254.1847818403647</v>
       </c>
       <c r="G115" t="n">
-        <v>2039.920927367553</v>
+        <v>2039.956453099166</v>
       </c>
       <c r="H115" t="n">
         <v>0.66</v>
       </c>
       <c r="I115" t="n">
-        <v>20763</v>
+        <v>22628</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10953378</v>
+        <v>10959808</v>
       </c>
       <c r="E116" t="n">
-        <v>16107908</v>
+        <v>16117363</v>
       </c>
       <c r="F116" t="n">
-        <v>3381.431055396927</v>
+        <v>3618.376156268098</v>
       </c>
       <c r="G116" t="n">
-        <v>1677.123779535381</v>
+        <v>2634.701647789655</v>
       </c>
       <c r="H116" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I116" t="n">
-        <v>422034</v>
+        <v>419991</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3239301</v>
+        <v>3238909</v>
       </c>
       <c r="F117" t="n">
-        <v>5.368328039916259</v>
+        <v>5.368437823552601</v>
       </c>
       <c r="G117" t="n">
-        <v>388.2852757330892</v>
+        <v>388.2932162630254</v>
       </c>
       <c r="H117" t="n">
         <v>0.39</v>
       </c>
       <c r="I117" t="n">
-        <v>37540</v>
+        <v>37706</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1087384</v>
+        <v>1147696</v>
       </c>
       <c r="F118" t="n">
-        <v>4.023809402578798</v>
+        <v>5.320273796110414</v>
       </c>
       <c r="G118" t="n">
-        <v>38.8090799837964</v>
+        <v>5.470154507656222</v>
       </c>
       <c r="H118" t="n">
-        <v>0.38</v>
+        <v>0.59</v>
       </c>
       <c r="I118" t="n">
-        <v>3094.84</v>
+        <v>4429.95</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5153656</v>
+        <v>5127660</v>
       </c>
       <c r="E119" t="n">
-        <v>7210712</v>
+        <v>7174339</v>
       </c>
       <c r="F119" t="n">
-        <v>956.898720979244</v>
+        <v>997.7800175085584</v>
       </c>
       <c r="G119" t="n">
-        <v>676.1170492400676</v>
+        <v>707.5100680573294</v>
       </c>
       <c r="H119" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I119" t="n">
-        <v>109891</v>
+        <v>108443</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10216882</v>
+        <v>10239546</v>
       </c>
       <c r="E120" t="n">
-        <v>28141964</v>
+        <v>28204392</v>
       </c>
       <c r="F120" t="n">
-        <v>13.13426230545027</v>
+        <v>435.5813357306506</v>
       </c>
       <c r="G120" t="n">
-        <v>637.9008863094533</v>
+        <v>108.8472670317981</v>
       </c>
       <c r="H120" t="n">
-        <v>2.3</v>
+        <v>3.31</v>
       </c>
       <c r="I120" t="n">
-        <v>345328</v>
+        <v>345117</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>53049791</v>
+        <v>52565325</v>
       </c>
       <c r="E121" t="n">
-        <v>135147376</v>
+        <v>133913171</v>
       </c>
       <c r="F121" t="n">
-        <v>389.0705646775785</v>
+        <v>1111.925509940371</v>
       </c>
       <c r="G121" t="n">
-        <v>11350.95771829464</v>
+        <v>10480.01069958344</v>
       </c>
       <c r="H121" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="I121" t="n">
-        <v>2447163</v>
+        <v>2494453</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13932234</v>
+        <v>13977081</v>
       </c>
       <c r="E122" t="n">
-        <v>67476035</v>
+        <v>67693233</v>
       </c>
       <c r="F122" t="n">
-        <v>3448.053557666968</v>
+        <v>2826.902702901458</v>
       </c>
       <c r="G122" t="n">
-        <v>3562.509950283751</v>
+        <v>6159.154838239674</v>
       </c>
       <c r="H122" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I122" t="n">
-        <v>3607686</v>
+        <v>3635998</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>516665</v>
+        <v>514419</v>
       </c>
       <c r="F123" t="n">
-        <v>5.512117653984813</v>
+        <v>3.929492715847734</v>
       </c>
       <c r="G123" t="n">
-        <v>3.852378345392057</v>
+        <v>3.943589278038214</v>
       </c>
       <c r="H123" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="I123" t="n">
-        <v>8133.44</v>
+        <v>8086.6</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4569015</v>
+        <v>4563168</v>
       </c>
       <c r="E124" t="n">
-        <v>10414867</v>
+        <v>10401540</v>
       </c>
       <c r="F124" t="n">
-        <v>243.3503428790607</v>
+        <v>454.5255908328901</v>
       </c>
       <c r="G124" t="n">
-        <v>2175.947876984399</v>
+        <v>2122.829922025269</v>
       </c>
       <c r="H124" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="I124" t="n">
-        <v>93242</v>
+        <v>96713</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1884120105</v>
+        <v>1891563992</v>
       </c>
       <c r="F125" t="n">
-        <v>70781.53862323366</v>
+        <v>76721.36186605094</v>
       </c>
       <c r="G125" t="n">
-        <v>71740.92449147906</v>
+        <v>78303.27737235531</v>
       </c>
       <c r="H125" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="I125" t="n">
-        <v>25822745</v>
+        <v>25906003</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9389034</v>
+        <v>9388406</v>
       </c>
       <c r="E126" t="n">
-        <v>34188381</v>
+        <v>34185992</v>
       </c>
       <c r="F126" t="n">
-        <v>1162.054262550798</v>
+        <v>1162.063379793277</v>
       </c>
       <c r="G126" t="n">
-        <v>5.316135242696308</v>
+        <v>5.316176952017137</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>159662</v>
+        <v>159025</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>541136</v>
+        <v>541324</v>
       </c>
       <c r="F127" t="n">
-        <v>21.87770475073521</v>
+        <v>21.80255470536027</v>
       </c>
       <c r="G127" t="n">
-        <v>483.2003800753705</v>
+        <v>483.0418563088882</v>
       </c>
       <c r="H127" t="n">
         <v>0.64</v>
       </c>
       <c r="I127" t="n">
-        <v>19327.07</v>
+        <v>19327.13</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12192890</v>
+        <v>12176037</v>
       </c>
       <c r="E128" t="n">
-        <v>17677931</v>
+        <v>17653496</v>
       </c>
       <c r="F128" t="n">
-        <v>2683.660827630882</v>
+        <v>2277.291548085604</v>
       </c>
       <c r="G128" t="n">
-        <v>7473.752539127437</v>
+        <v>6652.883516334992</v>
       </c>
       <c r="H128" t="n">
-        <v>0.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>2161672</v>
+        <v>2106350</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>32046874</v>
+        <v>32335926</v>
       </c>
       <c r="E129" t="n">
-        <v>99783683</v>
+        <v>100683698</v>
       </c>
       <c r="F129" t="n">
-        <v>6983.572965372247</v>
+        <v>5731.496250375238</v>
       </c>
       <c r="G129" t="n">
-        <v>7086.749145041268</v>
+        <v>10680.39060281962</v>
       </c>
       <c r="H129" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I129" t="n">
-        <v>12025224</v>
+        <v>12142159</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2076100</v>
+        <v>2058689</v>
       </c>
       <c r="E130" t="n">
-        <v>14887505</v>
+        <v>14762650</v>
       </c>
       <c r="F130" t="n">
-        <v>4.144456847852919</v>
+        <v>4.065839555701086</v>
       </c>
       <c r="G130" t="n">
-        <v>4.089558983933319</v>
+        <v>4.125393841988444</v>
       </c>
       <c r="H130" t="n">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I130" t="n">
-        <v>1936550</v>
+        <v>1933536</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7698768</v>
+        <v>7796195</v>
       </c>
       <c r="F131" t="n">
-        <v>70.3683443867038</v>
+        <v>102.6261884220217</v>
       </c>
       <c r="G131" t="n">
-        <v>417.3397892118609</v>
+        <v>779.4210277096711</v>
       </c>
       <c r="H131" t="n">
-        <v>0.04</v>
+        <v>0.89</v>
       </c>
       <c r="I131" t="n">
-        <v>489223</v>
+        <v>502208</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>201504515</v>
+        <v>203547007</v>
       </c>
       <c r="E132" t="n">
-        <v>1141042379</v>
+        <v>1152608223</v>
       </c>
       <c r="F132" t="n">
-        <v>432091.2839571064</v>
+        <v>434440.4626966614</v>
       </c>
       <c r="G132" t="n">
-        <v>467800.6105268374</v>
+        <v>616254.9087541729</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>63687442</v>
+        <v>63631988</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1045668</v>
+        <v>1039341</v>
       </c>
       <c r="E133" t="n">
-        <v>1045668</v>
+        <v>1039341</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>12319.8</v>
+        <v>11977.78</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>502746</v>
+        <v>502614</v>
       </c>
       <c r="E134" t="n">
-        <v>1692173</v>
+        <v>1691730</v>
       </c>
       <c r="F134" t="n">
-        <v>175.9753870172567</v>
+        <v>113.3269732035451</v>
       </c>
       <c r="G134" t="n">
-        <v>146.3608013798327</v>
+        <v>159.3830142995088</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I134" t="n">
-        <v>630545</v>
+        <v>629405</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>13630523</v>
+        <v>13625048</v>
       </c>
       <c r="F135" t="n">
-        <v>5.333762776291128</v>
+        <v>5.333926096931067</v>
       </c>
       <c r="G135" t="n">
-        <v>3.908340345133828</v>
+        <v>3.908460019118786</v>
       </c>
       <c r="H135" t="n">
         <v>0.96</v>
       </c>
       <c r="I135" t="n">
-        <v>713.79</v>
+        <v>713.13</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>138853557</v>
+        <v>139183305</v>
       </c>
       <c r="E136" t="n">
-        <v>1028544867</v>
+        <v>1030987443</v>
       </c>
       <c r="F136" t="n">
-        <v>59419.93560984789</v>
+        <v>59349.55418606378</v>
       </c>
       <c r="G136" t="n">
-        <v>59121.52315540511</v>
+        <v>59182.60019690193</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I136" t="n">
-        <v>11159343</v>
+        <v>11023370</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31483648</v>
+        <v>31642712</v>
       </c>
       <c r="E137" t="n">
-        <v>149657700</v>
+        <v>150413812</v>
       </c>
       <c r="F137" t="n">
-        <v>15676.63245841917</v>
+        <v>7049.29425568534</v>
       </c>
       <c r="G137" t="n">
-        <v>15632.78672687691</v>
+        <v>5807.780965886099</v>
       </c>
       <c r="H137" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="I137" t="n">
-        <v>1271812</v>
+        <v>1248608</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8191330</v>
+        <v>8180278</v>
       </c>
       <c r="E138" t="n">
-        <v>10973651</v>
+        <v>10958845</v>
       </c>
       <c r="F138" t="n">
-        <v>252.9941368400948</v>
+        <v>237.6303980787263</v>
       </c>
       <c r="G138" t="n">
-        <v>295.1162840158337</v>
+        <v>84.33718755752584</v>
       </c>
       <c r="H138" t="n">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="I138" t="n">
-        <v>59582</v>
+        <v>60031</v>
       </c>
     </row>
     <row r="139">
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1248628</v>
+        <v>1242704</v>
       </c>
       <c r="F139" t="n">
         <v>97.51051118590283</v>
@@ -5289,7 +5289,7 @@
         <v>0.93</v>
       </c>
       <c r="I139" t="n">
-        <v>49149</v>
+        <v>48943</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2369204</v>
+        <v>2355228</v>
       </c>
       <c r="E140" t="n">
-        <v>2369204</v>
+        <v>2355228</v>
       </c>
       <c r="F140" t="n">
-        <v>1295.365738902967</v>
+        <v>1443.847822199166</v>
       </c>
       <c r="G140" t="n">
-        <v>318.0467386822629</v>
+        <v>273.0178260111421</v>
       </c>
       <c r="H140" t="n">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
       <c r="I140" t="n">
-        <v>256795</v>
+        <v>257087</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>25290945</v>
+        <v>25464871</v>
       </c>
       <c r="E141" t="n">
-        <v>25290945</v>
+        <v>25464871</v>
       </c>
       <c r="F141" t="n">
-        <v>869.7365822386148</v>
+        <v>898.3371160615134</v>
       </c>
       <c r="G141" t="n">
-        <v>801.223209313559</v>
+        <v>629.0346047771042</v>
       </c>
       <c r="H141" t="n">
-        <v>0.14</v>
+        <v>0.91</v>
       </c>
       <c r="I141" t="n">
-        <v>324995</v>
+        <v>318964</v>
       </c>
     </row>
     <row r="142">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6451994</v>
+        <v>6434853</v>
       </c>
       <c r="E142" t="n">
-        <v>6814028</v>
+        <v>6795926</v>
       </c>
       <c r="F142" t="n">
         <v>707.0259781508689</v>
@@ -5394,7 +5394,7 @@
         <v>1.16</v>
       </c>
       <c r="I142" t="n">
-        <v>69718</v>
+        <v>69584</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3450900</v>
+        <v>3418858</v>
       </c>
       <c r="E143" t="n">
-        <v>8058426</v>
+        <v>7983602</v>
       </c>
       <c r="F143" t="n">
-        <v>2406.939884603611</v>
+        <v>1413.864229363119</v>
       </c>
       <c r="G143" t="n">
-        <v>1202.879302654426</v>
+        <v>812.5898214662215</v>
       </c>
       <c r="H143" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="I143" t="n">
-        <v>776679</v>
+        <v>780424</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1547558</v>
+        <v>1556488</v>
       </c>
       <c r="E144" t="n">
-        <v>12019499</v>
+        <v>12088855</v>
       </c>
       <c r="F144" t="n">
-        <v>300.7742769030335</v>
+        <v>200.5106690845372</v>
       </c>
       <c r="G144" t="n">
-        <v>614.6057544020491</v>
+        <v>873.8182846694488</v>
       </c>
       <c r="H144" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="I144" t="n">
-        <v>516006</v>
+        <v>487216</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>337322988</v>
+        <v>339355266</v>
       </c>
       <c r="E145" t="n">
-        <v>3034766767</v>
+        <v>3053050399</v>
       </c>
       <c r="F145" t="n">
-        <v>618912.3854153157</v>
+        <v>411072.2677264906</v>
       </c>
       <c r="G145" t="n">
-        <v>714884.1985433752</v>
+        <v>571215.2369050153</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>36468303</v>
+        <v>37130960</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>260182</v>
+        <v>258764</v>
       </c>
       <c r="E146" t="n">
-        <v>2296300</v>
+        <v>2283785</v>
       </c>
       <c r="F146" t="n">
-        <v>170.201273136593</v>
+        <v>4.08060922969923</v>
       </c>
       <c r="G146" t="n">
-        <v>4.035340715187943</v>
+        <v>4.178271058277525</v>
       </c>
       <c r="H146" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="I146" t="n">
-        <v>73039</v>
+        <v>71604</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>644677</v>
+        <v>645357</v>
       </c>
       <c r="F147" t="n">
-        <v>938.0233668058012</v>
+        <v>928.1687358608743</v>
       </c>
       <c r="G147" t="n">
-        <v>622.8653553189004</v>
+        <v>612.770537715239</v>
       </c>
       <c r="H147" t="n">
         <v>0.1</v>
       </c>
       <c r="I147" t="n">
-        <v>5658.3</v>
+        <v>5682.06</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4928095</v>
+        <v>4910383</v>
       </c>
       <c r="E148" t="n">
-        <v>17414248</v>
+        <v>17350668</v>
       </c>
       <c r="F148" t="n">
-        <v>1802.636281088689</v>
+        <v>1500.6678795531</v>
       </c>
       <c r="G148" t="n">
-        <v>2393.278150922281</v>
+        <v>2626.480505614346</v>
       </c>
       <c r="H148" t="n">
         <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>105344</v>
+        <v>101973</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9013709</v>
+        <v>9123317</v>
       </c>
       <c r="E149" t="n">
-        <v>41779059</v>
+        <v>42287097</v>
       </c>
       <c r="F149" t="n">
-        <v>1969.224604961367</v>
+        <v>1970.174884575171</v>
       </c>
       <c r="G149" t="n">
-        <v>8318.488309673987</v>
+        <v>8077.202310205159</v>
       </c>
       <c r="H149" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>105161</v>
+        <v>114217</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>42854552</v>
+        <v>43209577</v>
       </c>
       <c r="E150" t="n">
-        <v>248110148</v>
+        <v>250165597</v>
       </c>
       <c r="F150" t="n">
-        <v>73543.45093439613</v>
+        <v>51352.63839268016</v>
       </c>
       <c r="G150" t="n">
-        <v>67043.01466923968</v>
+        <v>55690.3871599594</v>
       </c>
       <c r="H150" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>11190874</v>
+        <v>10827178</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>79760</v>
+        <v>79638</v>
       </c>
       <c r="E151" t="n">
-        <v>79760</v>
+        <v>79638</v>
       </c>
       <c r="F151" t="n">
-        <v>9.776537989360879</v>
+        <v>9.707638422133874</v>
       </c>
       <c r="G151" t="n">
-        <v>14.86414566786836</v>
+        <v>16.21027228045188</v>
       </c>
       <c r="H151" t="n">
-        <v>0.88</v>
+        <v>0.55</v>
       </c>
       <c r="I151" t="n">
-        <v>19656.91</v>
+        <v>19008.5</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4380574</v>
+        <v>4386740</v>
       </c>
       <c r="F152" t="n">
-        <v>295.6948927999805</v>
+        <v>250.8409295775419</v>
       </c>
       <c r="G152" t="n">
-        <v>391.2854897245064</v>
+        <v>315.4893149710639</v>
       </c>
       <c r="H152" t="n">
         <v>0.34</v>
       </c>
       <c r="I152" t="n">
-        <v>304690</v>
+        <v>275791</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39320186</v>
+        <v>39210889</v>
       </c>
       <c r="E153" t="n">
-        <v>54306776</v>
+        <v>54155822</v>
       </c>
       <c r="F153" t="n">
-        <v>1097.58653792887</v>
+        <v>11329.3013938956</v>
       </c>
       <c r="G153" t="n">
-        <v>1513.144339083639</v>
+        <v>13940.01193603561</v>
       </c>
       <c r="H153" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I153" t="n">
-        <v>47294</v>
+        <v>371659</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2147635</v>
+        <v>2147230</v>
       </c>
       <c r="E154" t="n">
-        <v>8770386</v>
+        <v>8768731</v>
       </c>
       <c r="F154" t="n">
-        <v>835.2511423566011</v>
+        <v>593.3094013541468</v>
       </c>
       <c r="G154" t="n">
-        <v>304.2620164175808</v>
+        <v>460.0872278431251</v>
       </c>
       <c r="H154" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>556604</v>
+        <v>557370</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7361067</v>
+        <v>7459691</v>
       </c>
       <c r="E155" t="n">
-        <v>7415784</v>
+        <v>7515141</v>
       </c>
       <c r="F155" t="n">
-        <v>2302.420879529611</v>
+        <v>1488.247140379636</v>
       </c>
       <c r="G155" t="n">
-        <v>22674.02824037581</v>
+        <v>14062.1073328846</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I155" t="n">
-        <v>5025930</v>
+        <v>5049055</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>592479</v>
+        <v>563837</v>
       </c>
       <c r="E156" t="n">
-        <v>592479</v>
+        <v>563837</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>24.09</v>
+        <v>28.47</v>
       </c>
       <c r="I156" t="n">
-        <v>10237.35</v>
+        <v>8023.11</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13651422</v>
+        <v>13630659</v>
       </c>
       <c r="E157" t="n">
-        <v>13697879</v>
+        <v>13677046</v>
       </c>
       <c r="F157" t="n">
-        <v>1687.630118515093</v>
+        <v>2097.098168085207</v>
       </c>
       <c r="G157" t="n">
-        <v>3749.386099497185</v>
+        <v>4783.30968684221</v>
       </c>
       <c r="H157" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="I157" t="n">
-        <v>5836594</v>
+        <v>5870792</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42885557</v>
+        <v>42879097</v>
       </c>
       <c r="E158" t="n">
-        <v>72809698</v>
+        <v>72798732</v>
       </c>
       <c r="F158" t="n">
-        <v>460.2568709856976</v>
+        <v>433.2662933739012</v>
       </c>
       <c r="G158" t="n">
-        <v>767.5877542801923</v>
+        <v>740.8560793226668</v>
       </c>
       <c r="H158" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I158" t="n">
-        <v>1097658</v>
+        <v>1091862</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>24419065</v>
+        <v>24689583</v>
       </c>
       <c r="E159" t="n">
-        <v>73195482</v>
+        <v>74006351</v>
       </c>
       <c r="F159" t="n">
-        <v>17347.03446765113</v>
+        <v>23271.8372941993</v>
       </c>
       <c r="G159" t="n">
-        <v>12094.58086999849</v>
+        <v>7568.811045437166</v>
       </c>
       <c r="H159" t="n">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="I159" t="n">
-        <v>2683511</v>
+        <v>2732835</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101131391</v>
+        <v>101352902</v>
       </c>
       <c r="E160" t="n">
-        <v>107511809</v>
+        <v>107747295</v>
       </c>
       <c r="F160" t="n">
-        <v>1122.354883884864</v>
+        <v>488.0105707625333</v>
       </c>
       <c r="G160" t="n">
-        <v>1595.62243508991</v>
+        <v>1147.680178654465</v>
       </c>
       <c r="H160" t="n">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="I160" t="n">
-        <v>899809</v>
+        <v>861235</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10638022</v>
+        <v>10635125</v>
       </c>
       <c r="E161" t="n">
-        <v>46248466</v>
+        <v>46241130</v>
       </c>
       <c r="F161" t="n">
-        <v>3608.456868426942</v>
+        <v>3717.973097157125</v>
       </c>
       <c r="G161" t="n">
-        <v>3142.125562210643</v>
+        <v>3087.029022574408</v>
       </c>
       <c r="H161" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="I161" t="n">
-        <v>107017</v>
+        <v>107108</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15063098</v>
+        <v>15102765</v>
       </c>
       <c r="E162" t="n">
-        <v>92326684</v>
+        <v>92569814</v>
       </c>
       <c r="F162" t="n">
-        <v>2835.505700688221</v>
+        <v>1794.561403781361</v>
       </c>
       <c r="G162" t="n">
-        <v>1394.778556974714</v>
+        <v>1429.591496272677</v>
       </c>
       <c r="H162" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I162" t="n">
-        <v>11832471</v>
+        <v>11708600</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1495962</v>
+        <v>1505572</v>
       </c>
       <c r="E163" t="n">
-        <v>1538042</v>
+        <v>1547922</v>
       </c>
       <c r="F163" t="n">
-        <v>99.0488474366078</v>
+        <v>98.50050838170088</v>
       </c>
       <c r="G163" t="n">
-        <v>87.56175000826239</v>
+        <v>70.05917966758071</v>
       </c>
       <c r="H163" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="I163" t="n">
-        <v>126519</v>
+        <v>125185</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97024</v>
+        <v>97042</v>
       </c>
       <c r="E164" t="n">
-        <v>275234</v>
+        <v>275287</v>
       </c>
       <c r="F164" t="n">
-        <v>3.885106304680544</v>
+        <v>3.978802357407476</v>
       </c>
       <c r="G164" t="n">
-        <v>80.53378729879861</v>
+        <v>80.46210780775792</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>40.72</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46831942</v>
+        <v>47101287</v>
       </c>
       <c r="E165" t="n">
-        <v>201746885</v>
+        <v>202907194</v>
       </c>
       <c r="F165" t="n">
-        <v>6205.547050886807</v>
+        <v>3472.278193733167</v>
       </c>
       <c r="G165" t="n">
-        <v>4852.460152695274</v>
+        <v>5626.679348939918</v>
       </c>
       <c r="H165" t="n">
         <v>0.06</v>
       </c>
       <c r="I165" t="n">
-        <v>8752489</v>
+        <v>8753789</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7895709</v>
+        <v>7867007</v>
       </c>
       <c r="F166" t="n">
-        <v>371.015852786436</v>
+        <v>498.7715882905927</v>
       </c>
       <c r="G166" t="n">
-        <v>1669.006698873412</v>
+        <v>1513.722069054903</v>
       </c>
       <c r="H166" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I166" t="n">
-        <v>6278598</v>
+        <v>6308070</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>664780</v>
+        <v>665124</v>
       </c>
       <c r="E167" t="n">
-        <v>2400259</v>
+        <v>2401500</v>
       </c>
       <c r="F167" t="n">
-        <v>50.33701600928149</v>
+        <v>50.33298842184854</v>
       </c>
       <c r="G167" t="n">
-        <v>10.93233170490125</v>
+        <v>10.93250129025147</v>
       </c>
       <c r="H167" t="n">
         <v>1.32</v>
       </c>
       <c r="I167" t="n">
-        <v>401437</v>
+        <v>405919</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1677646</v>
+        <v>1676332</v>
       </c>
       <c r="F168" t="n">
-        <v>567.5269373942683</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>13.78113880733912</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>0.95</v>
+        <v>6.26</v>
       </c>
       <c r="I168" t="n">
-        <v>88357</v>
+        <v>89622</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12855979</v>
+        <v>12922859</v>
       </c>
       <c r="E169" t="n">
-        <v>12855979</v>
+        <v>12922859</v>
       </c>
       <c r="F169" t="n">
-        <v>1855.649904008361</v>
+        <v>651.5419891537366</v>
       </c>
       <c r="G169" t="n">
-        <v>373.629913236269</v>
+        <v>434.6378597513047</v>
       </c>
       <c r="H169" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="I169" t="n">
-        <v>3180824</v>
+        <v>3307348</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1669111</v>
+        <v>1658546</v>
       </c>
       <c r="E170" t="n">
-        <v>6065172</v>
+        <v>6026756</v>
       </c>
       <c r="F170" t="n">
-        <v>987.2507734499937</v>
+        <v>182.5253957391171</v>
       </c>
       <c r="G170" t="n">
-        <v>176.2149035059415</v>
+        <v>149.2216631590298</v>
       </c>
       <c r="H170" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="I170" t="n">
-        <v>128829</v>
+        <v>123873</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8677981</v>
+        <v>8971244</v>
       </c>
       <c r="E171" t="n">
-        <v>19269782</v>
+        <v>19920984</v>
       </c>
       <c r="F171" t="n">
-        <v>1607.532207454813</v>
+        <v>1641.997354464755</v>
       </c>
       <c r="G171" t="n">
-        <v>1758.269716421099</v>
+        <v>1769.640222033816</v>
       </c>
       <c r="H171" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="I171" t="n">
-        <v>296736</v>
+        <v>354930</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1037846</v>
+        <v>1039115</v>
       </c>
       <c r="E172" t="n">
-        <v>3033443</v>
+        <v>3037154</v>
       </c>
       <c r="F172" t="n">
-        <v>79.87395756032754</v>
+        <v>79.7488631059886</v>
       </c>
       <c r="G172" t="n">
-        <v>649.9241185218851</v>
+        <v>649.9816442159919</v>
       </c>
       <c r="H172" t="n">
         <v>0.46</v>
       </c>
       <c r="I172" t="n">
-        <v>20637</v>
+        <v>20663</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>21061348</v>
+        <v>20806337</v>
       </c>
       <c r="E173" t="n">
-        <v>84245391</v>
+        <v>83225348</v>
       </c>
       <c r="F173" t="n">
-        <v>17640.10779006088</v>
+        <v>19562.56177192886</v>
       </c>
       <c r="G173" t="n">
-        <v>18944.95728541273</v>
+        <v>16112.07215409785</v>
       </c>
       <c r="H173" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="I173" t="n">
-        <v>6080235</v>
+        <v>5538716</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4260177</v>
+        <v>4289949</v>
       </c>
       <c r="E174" t="n">
-        <v>4260177</v>
+        <v>4289949</v>
       </c>
       <c r="F174" t="n">
-        <v>1350.895199522696</v>
+        <v>236.7935664490021</v>
       </c>
       <c r="G174" t="n">
-        <v>1211.404104616616</v>
+        <v>901.3631215827312</v>
       </c>
       <c r="H174" t="n">
-        <v>0.64</v>
+        <v>0.99</v>
       </c>
       <c r="I174" t="n">
-        <v>2502871</v>
+        <v>2508772</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>300517609</v>
+        <v>305931993</v>
       </c>
       <c r="E175" t="n">
-        <v>300517609</v>
+        <v>305931993</v>
       </c>
       <c r="F175" t="n">
-        <v>2702.028772913489</v>
+        <v>1933.710283793213</v>
       </c>
       <c r="G175" t="n">
-        <v>2731.84966425844</v>
+        <v>2568.252256528947</v>
       </c>
       <c r="H175" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I175" t="n">
-        <v>12554508</v>
+        <v>12671025</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12789313</v>
+        <v>12790620</v>
       </c>
       <c r="E176" t="n">
-        <v>40461232</v>
+        <v>40465368</v>
       </c>
       <c r="F176" t="n">
-        <v>4011.651416067159</v>
+        <v>873.3762613577907</v>
       </c>
       <c r="G176" t="n">
-        <v>3509.288517484438</v>
+        <v>1931.919877871095</v>
       </c>
       <c r="H176" t="n">
         <v>0.49</v>
       </c>
       <c r="I176" t="n">
-        <v>1418058</v>
+        <v>1395920</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26601</v>
+        <v>26721</v>
       </c>
       <c r="E177" t="n">
-        <v>209209</v>
+        <v>210153</v>
       </c>
       <c r="F177" t="n">
-        <v>188.4260006673861</v>
+        <v>133.1410218348573</v>
       </c>
       <c r="G177" t="n">
-        <v>84.46350686058612</v>
+        <v>672.7148288194517</v>
       </c>
       <c r="H177" t="n">
         <v>0.47</v>
       </c>
       <c r="I177" t="n">
-        <v>131650</v>
+        <v>131297</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8177078</v>
+        <v>8225395</v>
       </c>
       <c r="E178" t="n">
-        <v>8177078</v>
+        <v>8225395</v>
       </c>
       <c r="F178" t="n">
-        <v>2277.094533366458</v>
+        <v>1663.93800036756</v>
       </c>
       <c r="G178" t="n">
-        <v>2512.944366564781</v>
+        <v>2238.767626198509</v>
       </c>
       <c r="H178" t="n">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="I178" t="n">
-        <v>3466864</v>
+        <v>3497160</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1089110</v>
+        <v>1087972</v>
       </c>
       <c r="E179" t="n">
-        <v>2480556</v>
+        <v>2477964</v>
       </c>
       <c r="F179" t="n">
-        <v>262.8539990683865</v>
+        <v>262.8453789834706</v>
       </c>
       <c r="G179" t="n">
-        <v>181.4952847250586</v>
+        <v>18.72069605872374</v>
       </c>
       <c r="H179" t="n">
         <v>0.13</v>
       </c>
       <c r="I179" t="n">
-        <v>4839.75</v>
+        <v>5005.26</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9206207</v>
+        <v>9282795</v>
       </c>
       <c r="E180" t="n">
-        <v>9206207</v>
+        <v>9282795</v>
       </c>
       <c r="F180" t="n">
-        <v>1898.999706244826</v>
+        <v>3707.304917811829</v>
       </c>
       <c r="G180" t="n">
-        <v>2964.840321236872</v>
+        <v>5084.10014294814</v>
       </c>
       <c r="H180" t="n">
         <v>0.5</v>
       </c>
       <c r="I180" t="n">
-        <v>2911504</v>
+        <v>2855928</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17118882</v>
+        <v>17141593</v>
       </c>
       <c r="E181" t="n">
-        <v>17118882</v>
+        <v>17141593</v>
       </c>
       <c r="F181" t="n">
-        <v>2361.450388129347</v>
+        <v>2111.646935895481</v>
       </c>
       <c r="G181" t="n">
-        <v>2348.6165126901</v>
+        <v>2487.016738875577</v>
       </c>
       <c r="H181" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>3316308</v>
+        <v>3491658</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31448350</v>
+        <v>31563516</v>
       </c>
       <c r="E182" t="n">
-        <v>87108808</v>
+        <v>87427806</v>
       </c>
       <c r="F182" t="n">
-        <v>4915.307695829895</v>
+        <v>5107.662388689138</v>
       </c>
       <c r="G182" t="n">
-        <v>5270.707258292767</v>
+        <v>5471.48718354182</v>
       </c>
       <c r="H182" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I182" t="n">
-        <v>11985373</v>
+        <v>11942853</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37118348</v>
+        <v>37228027</v>
       </c>
       <c r="E183" t="n">
-        <v>93594653</v>
+        <v>93871212</v>
       </c>
       <c r="F183" t="n">
-        <v>10971.73707065998</v>
+        <v>9960.610665690619</v>
       </c>
       <c r="G183" t="n">
-        <v>11496.35792500139</v>
+        <v>11351.05228334848</v>
       </c>
       <c r="H183" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="I183" t="n">
-        <v>3048771</v>
+        <v>3063274</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>299435835</v>
+        <v>301574137</v>
       </c>
       <c r="E184" t="n">
-        <v>304115840</v>
+        <v>306285683</v>
       </c>
       <c r="F184" t="n">
-        <v>18738.95197901838</v>
+        <v>19186.04924591862</v>
       </c>
       <c r="G184" t="n">
-        <v>19759.57388014961</v>
+        <v>27438.82315849173</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>11839145</v>
+        <v>12242573</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>405409</v>
+        <v>409322</v>
       </c>
       <c r="F185" t="n">
-        <v>92.60674868631141</v>
+        <v>326.2821278088253</v>
       </c>
       <c r="G185" t="n">
-        <v>172.0632937009761</v>
+        <v>50.19496477367456</v>
       </c>
       <c r="H185" t="n">
-        <v>1.94</v>
+        <v>2.44</v>
       </c>
       <c r="I185" t="n">
-        <v>62691</v>
+        <v>63451</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28908305</v>
+        <v>28679302</v>
       </c>
       <c r="E186" t="n">
-        <v>68678944</v>
+        <v>68134892</v>
       </c>
       <c r="F186" t="n">
-        <v>10099.57573227423</v>
+        <v>7004.251814555434</v>
       </c>
       <c r="G186" t="n">
-        <v>1483.989637924363</v>
+        <v>11288.61691195826</v>
       </c>
       <c r="H186" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="I186" t="n">
-        <v>476409</v>
+        <v>486042</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>19509096</v>
+        <v>19518384</v>
       </c>
       <c r="F187" t="n">
-        <v>3.87273475419547</v>
+        <v>3.993061672854504</v>
       </c>
       <c r="G187" t="n">
-        <v>2674.945096804066</v>
+        <v>2675.012818936985</v>
       </c>
       <c r="H187" t="n">
         <v>0.85</v>
       </c>
       <c r="I187" t="n">
-        <v>1329.42</v>
+        <v>1328.12</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12208763</v>
+        <v>12426447</v>
       </c>
       <c r="E188" t="n">
-        <v>18606960</v>
+        <v>18938725</v>
       </c>
       <c r="F188" t="n">
-        <v>3601.801768001739</v>
+        <v>3563.62172538758</v>
       </c>
       <c r="G188" t="n">
-        <v>2389.689338241208</v>
+        <v>2461.771092075394</v>
       </c>
       <c r="H188" t="n">
         <v>0.71</v>
       </c>
       <c r="I188" t="n">
-        <v>686295</v>
+        <v>700896</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>79113831</v>
+        <v>78910171</v>
       </c>
       <c r="E189" t="n">
-        <v>79113831</v>
+        <v>78910171</v>
       </c>
       <c r="F189" t="n">
-        <v>7360.347037522979</v>
+        <v>7326.376146398399</v>
       </c>
       <c r="G189" t="n">
-        <v>8677.255801788673</v>
+        <v>11670.32370818641</v>
       </c>
       <c r="H189" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I189" t="n">
-        <v>4894057</v>
+        <v>4869608</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>301863140</v>
+        <v>304073420</v>
       </c>
       <c r="E190" t="n">
-        <v>301863140</v>
+        <v>304073420</v>
       </c>
       <c r="F190" t="n">
-        <v>236338.4550540319</v>
+        <v>230381.8563631063</v>
       </c>
       <c r="G190" t="n">
-        <v>286791.0064987575</v>
+        <v>359798.2387196724</v>
       </c>
       <c r="H190" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I190" t="n">
-        <v>49848077</v>
+        <v>50613492</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9819093</v>
+        <v>10318075</v>
       </c>
       <c r="E191" t="n">
-        <v>27878042</v>
+        <v>29294735</v>
       </c>
       <c r="F191" t="n">
-        <v>1860.634029093034</v>
+        <v>1970.819344360254</v>
       </c>
       <c r="G191" t="n">
-        <v>630.036997671961</v>
+        <v>4059.826319728859</v>
       </c>
       <c r="H191" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I191" t="n">
-        <v>110851</v>
+        <v>129374</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4234213</v>
+        <v>4231261</v>
       </c>
       <c r="E192" t="n">
-        <v>28932078</v>
+        <v>28911908</v>
       </c>
       <c r="F192" t="n">
-        <v>3329.785519672473</v>
+        <v>2319.50926658943</v>
       </c>
       <c r="G192" t="n">
-        <v>1471.606932676956</v>
+        <v>2510.991199738784</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>2574969</v>
+        <v>2568062</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2869457</v>
+        <v>2871778</v>
       </c>
       <c r="E193" t="n">
-        <v>4258616</v>
+        <v>4261876</v>
       </c>
       <c r="F193" t="n">
-        <v>486.9756679470486</v>
+        <v>297.0166724666641</v>
       </c>
       <c r="G193" t="n">
-        <v>309.2922441059654</v>
+        <v>322.1306296414766</v>
       </c>
       <c r="H193" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="I193" t="n">
-        <v>231438</v>
+        <v>229662</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>89156783</v>
+        <v>89809382</v>
       </c>
       <c r="E194" t="n">
-        <v>513759837</v>
+        <v>517520397</v>
       </c>
       <c r="F194" t="n">
-        <v>463509.1768518016</v>
+        <v>534490.4473004828</v>
       </c>
       <c r="G194" t="n">
-        <v>468979.6366208241</v>
+        <v>436751.6770411613</v>
       </c>
       <c r="H194" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I194" t="n">
-        <v>16038966</v>
+        <v>16040211</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>724802</v>
+        <v>676809</v>
       </c>
       <c r="E195" t="n">
-        <v>790464</v>
+        <v>738123</v>
       </c>
       <c r="F195" t="n">
-        <v>3.867484356943989</v>
+        <v>3.867553552470386</v>
       </c>
       <c r="G195" t="n">
-        <v>5.54430859748161</v>
+        <v>5.544407794095353</v>
       </c>
       <c r="H195" t="n">
         <v>0.48</v>
       </c>
       <c r="I195" t="n">
-        <v>83974</v>
+        <v>79029</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>107921399</v>
+        <v>108232762</v>
       </c>
       <c r="E196" t="n">
-        <v>265528805</v>
+        <v>266294880</v>
       </c>
       <c r="F196" t="n">
-        <v>49779.65017276616</v>
+        <v>82721.15355907365</v>
       </c>
       <c r="G196" t="n">
-        <v>32669.55472095608</v>
+        <v>39581.30036749905</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2387288</v>
+        <v>2373559</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17782746</v>
+        <v>17111735</v>
       </c>
       <c r="E197" t="n">
-        <v>17782746</v>
+        <v>17111735</v>
       </c>
       <c r="F197" t="n">
-        <v>4.19812811658834</v>
+        <v>46.40558078981314</v>
       </c>
       <c r="G197" t="n">
-        <v>59.60329028963979</v>
+        <v>5.476122421922953</v>
       </c>
       <c r="H197" t="n">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="I197" t="n">
-        <v>36725</v>
+        <v>78264</v>
       </c>
     </row>
     <row r="198">
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1323050</v>
+        <v>1332310</v>
       </c>
       <c r="F198" t="n">
         <v>18.6798677025327</v>
@@ -7350,7 +7350,7 @@
         <v>0.67</v>
       </c>
       <c r="I198" t="n">
-        <v>4187.11</v>
+        <v>4172.63</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>128779</v>
+        <v>129531</v>
       </c>
       <c r="E199" t="n">
-        <v>280350</v>
+        <v>281987</v>
       </c>
       <c r="F199" t="n">
-        <v>225.5283583255321</v>
+        <v>31.92699956335353</v>
       </c>
       <c r="G199" t="n">
-        <v>5.39253376659102</v>
+        <v>5.392698886807757</v>
       </c>
       <c r="H199" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I199" t="n">
-        <v>47179</v>
+        <v>47285</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2469468</v>
+        <v>2591038</v>
       </c>
       <c r="F200" t="n">
-        <v>908.1637867927354</v>
+        <v>1166.470431844844</v>
       </c>
       <c r="G200" t="n">
-        <v>1187.882506050672</v>
+        <v>1616.505253074195</v>
       </c>
       <c r="H200" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="I200" t="n">
-        <v>160518</v>
+        <v>172072</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>191100</v>
+        <v>192503</v>
       </c>
       <c r="E201" t="n">
-        <v>1475673</v>
+        <v>1486513</v>
       </c>
       <c r="F201" t="n">
-        <v>5.579810698426038</v>
+        <v>4.111355809457227</v>
       </c>
       <c r="G201" t="n">
-        <v>240.198748168937</v>
+        <v>86.42514134964796</v>
       </c>
       <c r="H201" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="I201" t="n">
-        <v>115045</v>
+        <v>107175</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30588610</v>
+        <v>30429578</v>
       </c>
       <c r="E202" t="n">
-        <v>136957755</v>
+        <v>136245703</v>
       </c>
       <c r="F202" t="n">
-        <v>8755.72429499691</v>
+        <v>8173.885055571468</v>
       </c>
       <c r="G202" t="n">
-        <v>10950.33379574124</v>
+        <v>14517.43457775494</v>
       </c>
       <c r="H202" t="n">
         <v>0.29</v>
       </c>
       <c r="I202" t="n">
-        <v>8816749</v>
+        <v>8954692</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13082637</v>
+        <v>13133841</v>
       </c>
       <c r="E203" t="n">
-        <v>26153851</v>
+        <v>26256214</v>
       </c>
       <c r="F203" t="n">
-        <v>720.059708483379</v>
+        <v>808.3441535860067</v>
       </c>
       <c r="G203" t="n">
-        <v>704.639428337798</v>
+        <v>690.2914133711698</v>
       </c>
       <c r="H203" t="n">
         <v>0.39</v>
       </c>
       <c r="I203" t="n">
-        <v>44623</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1477318</v>
+        <v>1493647</v>
       </c>
       <c r="F204" t="n">
-        <v>145.5337834399287</v>
+        <v>534.2935786487666</v>
       </c>
       <c r="G204" t="n">
-        <v>281.6563014270342</v>
+        <v>9.929266431943665</v>
       </c>
       <c r="H204" t="n">
-        <v>2.99</v>
+        <v>1.49</v>
       </c>
       <c r="I204" t="n">
-        <v>47282</v>
+        <v>53985</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1023446</v>
+        <v>1023335</v>
       </c>
       <c r="E205" t="n">
-        <v>4733585</v>
+        <v>4733071</v>
       </c>
       <c r="F205" t="n">
-        <v>3463.143554866478</v>
+        <v>3596.949253500602</v>
       </c>
       <c r="G205" t="n">
-        <v>3018.58292559751</v>
+        <v>3003.446823264608</v>
       </c>
       <c r="H205" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I205" t="n">
-        <v>408956</v>
+        <v>484368</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3173129</v>
+        <v>3236003</v>
       </c>
       <c r="E206" t="n">
-        <v>3173129</v>
+        <v>3236003</v>
       </c>
       <c r="F206" t="n">
-        <v>399.9977628323809</v>
+        <v>465.8918417013446</v>
       </c>
       <c r="G206" t="n">
-        <v>374.2735581196811</v>
+        <v>997.0076018936527</v>
       </c>
       <c r="H206" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="I206" t="n">
-        <v>418807</v>
+        <v>434359</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>575304</v>
+        <v>574762</v>
       </c>
       <c r="E207" t="n">
-        <v>575304</v>
+        <v>574762</v>
       </c>
       <c r="F207" t="n">
-        <v>422.0332898553769</v>
+        <v>4.041884336303576</v>
       </c>
       <c r="G207" t="n">
-        <v>65.16284535577826</v>
+        <v>153.3231377078414</v>
       </c>
       <c r="H207" t="n">
-        <v>0.18</v>
+        <v>0.53</v>
       </c>
       <c r="I207" t="n">
-        <v>1400375</v>
+        <v>1382816</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13410128</v>
+        <v>13398641</v>
       </c>
       <c r="E208" t="n">
-        <v>17073234</v>
+        <v>17058609</v>
       </c>
       <c r="F208" t="n">
-        <v>146.9589880114309</v>
+        <v>141.7871088805682</v>
       </c>
       <c r="G208" t="n">
-        <v>642.9111848455657</v>
+        <v>448.3534059922845</v>
       </c>
       <c r="H208" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I208" t="n">
-        <v>787627</v>
+        <v>781384</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1874173</v>
+        <v>1868849</v>
       </c>
       <c r="E209" t="n">
-        <v>1874173</v>
+        <v>1868849</v>
       </c>
       <c r="F209" t="n">
-        <v>27.04048397599725</v>
+        <v>67.91663926310873</v>
       </c>
       <c r="G209" t="n">
-        <v>30.31235842642658</v>
+        <v>5.495959039205403</v>
       </c>
       <c r="H209" t="n">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="I209" t="n">
-        <v>2529.61</v>
+        <v>2662.42</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6041519</v>
+        <v>6036220</v>
       </c>
       <c r="E210" t="n">
-        <v>15855991</v>
+        <v>15842083</v>
       </c>
       <c r="F210" t="n">
-        <v>523.7716214992294</v>
+        <v>593.6602515904823</v>
       </c>
       <c r="G210" t="n">
-        <v>1262.902606015185</v>
+        <v>1241.305959376112</v>
       </c>
       <c r="H210" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="I210" t="n">
-        <v>74093</v>
+        <v>74180</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29391550</v>
+        <v>29756415</v>
       </c>
       <c r="F211" t="n">
-        <v>1046.850816697814</v>
+        <v>418.3787473110187</v>
       </c>
       <c r="G211" t="n">
-        <v>356.3135601179717</v>
+        <v>207.361709145494</v>
       </c>
       <c r="H211" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="I211" t="n">
-        <v>350658</v>
+        <v>369430</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17903093</v>
+        <v>17989794</v>
       </c>
       <c r="E212" t="n">
-        <v>17903224</v>
+        <v>17989794</v>
       </c>
       <c r="F212" t="n">
-        <v>22764.20356153586</v>
+        <v>28632.95123766201</v>
       </c>
       <c r="G212" t="n">
-        <v>30375.00677361618</v>
+        <v>24987.67790344615</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>3034815</v>
+        <v>3038920</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47612451</v>
+        <v>47816331</v>
       </c>
       <c r="E213" t="n">
-        <v>308754071</v>
+        <v>310076181</v>
       </c>
       <c r="F213" t="n">
-        <v>187856.0230953972</v>
+        <v>210584.2849316681</v>
       </c>
       <c r="G213" t="n">
-        <v>243946.7523860106</v>
+        <v>203767.7200712333</v>
       </c>
       <c r="H213" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I213" t="n">
-        <v>16960525</v>
+        <v>17194938</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9325645</v>
+        <v>9263202</v>
       </c>
       <c r="F214" t="n">
-        <v>4.088286548034567</v>
+        <v>4.057457154736841</v>
       </c>
       <c r="G214" t="n">
-        <v>69.94333857851525</v>
+        <v>285.9306230742019</v>
       </c>
       <c r="H214" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I214" t="n">
-        <v>297464</v>
+        <v>293607</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7077586</v>
+        <v>7097641</v>
       </c>
       <c r="E215" t="n">
-        <v>7087725</v>
+        <v>7107750</v>
       </c>
       <c r="F215" t="n">
-        <v>499.6065982580836</v>
+        <v>32.46366334820166</v>
       </c>
       <c r="G215" t="n">
-        <v>61.64421480234959</v>
+        <v>61.65518225303406</v>
       </c>
       <c r="H215" t="n">
-        <v>0.59</v>
+        <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>935354</v>
+        <v>898648</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4862309</v>
+        <v>4806405</v>
       </c>
       <c r="F216" t="n">
-        <v>2762.567409451219</v>
+        <v>925.5294731841742</v>
       </c>
       <c r="G216" t="n">
-        <v>44.86977137456223</v>
+        <v>125.5071500982325</v>
       </c>
       <c r="H216" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="I216" t="n">
-        <v>169152</v>
+        <v>170815</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2589246</v>
+        <v>2501085</v>
       </c>
       <c r="E217" t="n">
-        <v>4690906</v>
+        <v>4531186</v>
       </c>
       <c r="F217" t="n">
-        <v>303.6617843442945</v>
+        <v>166.9955301066089</v>
       </c>
       <c r="G217" t="n">
-        <v>280.8861382271634</v>
+        <v>114.1445959417743</v>
       </c>
       <c r="H217" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="I217" t="n">
-        <v>100429</v>
+        <v>99906</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125376563</v>
+        <v>125354512</v>
       </c>
       <c r="E218" t="n">
-        <v>2076338562</v>
+        <v>2075973394</v>
       </c>
       <c r="F218" t="n">
-        <v>4877.953936063107</v>
+        <v>6716.713058149725</v>
       </c>
       <c r="G218" t="n">
-        <v>14973.49877499926</v>
+        <v>12492.48340929845</v>
       </c>
       <c r="H218" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>5079130</v>
+        <v>5077133</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>74111769</v>
+        <v>75027051</v>
       </c>
       <c r="E219" t="n">
-        <v>74909533</v>
+        <v>75834668</v>
       </c>
       <c r="F219" t="n">
-        <v>10769.95505683136</v>
+        <v>11884.71346211994</v>
       </c>
       <c r="G219" t="n">
-        <v>12696.23281737529</v>
+        <v>24437.79146455201</v>
       </c>
       <c r="H219" t="n">
         <v>0.1</v>
       </c>
       <c r="I219" t="n">
-        <v>8644690</v>
+        <v>8619876</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>235840635</v>
+        <v>236866092</v>
       </c>
       <c r="E220" t="n">
-        <v>235840635</v>
+        <v>236866092</v>
       </c>
       <c r="F220" t="n">
-        <v>111648.8259990901</v>
+        <v>83528.10132207478</v>
       </c>
       <c r="G220" t="n">
-        <v>101403.8406118963</v>
+        <v>93439.40737424906</v>
       </c>
       <c r="H220" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I220" t="n">
-        <v>44712758</v>
+        <v>44630264</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23418232</v>
+        <v>23597386</v>
       </c>
       <c r="E221" t="n">
-        <v>140115990</v>
+        <v>141187906</v>
       </c>
       <c r="F221" t="n">
-        <v>74103.27081493412</v>
+        <v>107509.6983982107</v>
       </c>
       <c r="G221" t="n">
-        <v>94739.6325869338</v>
+        <v>97817.28308378207</v>
       </c>
       <c r="H221" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I221" t="n">
-        <v>13131146</v>
+        <v>12814692</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1015628</v>
+        <v>1010896</v>
       </c>
       <c r="F222" t="n">
-        <v>845.7667446366241</v>
+        <v>743.8612678927423</v>
       </c>
       <c r="G222" t="n">
-        <v>163.492009621189</v>
+        <v>407.2728485280646</v>
       </c>
       <c r="H222" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="I222" t="n">
-        <v>67600</v>
+        <v>65776</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2261579</v>
+        <v>2266524</v>
       </c>
       <c r="F223" t="n">
-        <v>173.0231132989845</v>
+        <v>154.3275790791202</v>
       </c>
       <c r="G223" t="n">
-        <v>145.2410847081529</v>
+        <v>113.1017190485081</v>
       </c>
       <c r="H223" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="I223" t="n">
-        <v>208222</v>
+        <v>208039</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14503596</v>
+        <v>13279220</v>
       </c>
       <c r="E224" t="n">
-        <v>44506447</v>
+        <v>40749266</v>
       </c>
       <c r="F224" t="n">
-        <v>1706.989063086283</v>
+        <v>913.5507611511584</v>
       </c>
       <c r="G224" t="n">
-        <v>661.1761461593413</v>
+        <v>885.2121006824756</v>
       </c>
       <c r="H224" t="n">
         <v>0.09</v>
       </c>
       <c r="I224" t="n">
-        <v>2588655</v>
+        <v>2546105</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52554558</v>
+        <v>52937484</v>
       </c>
       <c r="E225" t="n">
-        <v>90773147</v>
+        <v>91434544</v>
       </c>
       <c r="F225" t="n">
-        <v>3691.607310395272</v>
+        <v>14374.71165326527</v>
       </c>
       <c r="G225" t="n">
-        <v>12611.76726778575</v>
+        <v>5820.442502751542</v>
       </c>
       <c r="H225" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I225" t="n">
-        <v>1966555</v>
+        <v>1944803</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4199444</v>
+        <v>4212215</v>
       </c>
       <c r="E226" t="n">
-        <v>4199444</v>
+        <v>4212215</v>
       </c>
       <c r="F226" t="n">
-        <v>24.26399014762001</v>
+        <v>3.954156623615388</v>
       </c>
       <c r="G226" t="n">
-        <v>4.16456601430154</v>
+        <v>13.79857386261016</v>
       </c>
       <c r="H226" t="n">
         <v>0.73</v>
       </c>
       <c r="I226" t="n">
-        <v>1549838</v>
+        <v>1559890</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211747</v>
+        <v>208696</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>58547</v>
+        <v>58035</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6706186</v>
+        <v>6740635</v>
       </c>
       <c r="E228" t="n">
-        <v>34501288</v>
+        <v>34678518</v>
       </c>
       <c r="F228" t="n">
-        <v>148.1686939752738</v>
+        <v>95.41827867855125</v>
       </c>
       <c r="G228" t="n">
-        <v>205.6358198312183</v>
+        <v>206.4987118565639</v>
       </c>
       <c r="H228" t="n">
         <v>0.12</v>
       </c>
       <c r="I228" t="n">
-        <v>889218</v>
+        <v>894978</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>176712432</v>
+        <v>175823728</v>
       </c>
       <c r="E230" t="n">
-        <v>206452298</v>
+        <v>205414029</v>
       </c>
       <c r="F230" t="n">
-        <v>29401.59377982732</v>
+        <v>20947.85782357974</v>
       </c>
       <c r="G230" t="n">
-        <v>41477.76892406198</v>
+        <v>59143.74595747837</v>
       </c>
       <c r="H230" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I230" t="n">
-        <v>3805877</v>
+        <v>3899861</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>303004</v>
+        <v>304117</v>
       </c>
       <c r="F231" t="n">
-        <v>4.088502306759016</v>
+        <v>67.21200861440634</v>
       </c>
       <c r="G231" t="n">
-        <v>529.6824805682714</v>
+        <v>151.9279887780027</v>
       </c>
       <c r="H231" t="n">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="I231" t="n">
-        <v>280528</v>
+        <v>287545</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29062317</v>
+        <v>29173397</v>
       </c>
       <c r="E232" t="n">
-        <v>39849518</v>
+        <v>40001828</v>
       </c>
       <c r="F232" t="n">
-        <v>5058.918454519859</v>
+        <v>6162.861107128039</v>
       </c>
       <c r="G232" t="n">
-        <v>6684.495824661994</v>
+        <v>5075.230917897917</v>
       </c>
       <c r="H232" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I232" t="n">
-        <v>273952</v>
+        <v>284941</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1524958</v>
+        <v>1722435</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1584463</v>
+        <v>1592532</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8050955</v>
+        <v>8058170</v>
       </c>
       <c r="F234" t="n">
-        <v>1223.944860916089</v>
+        <v>559.8771086768184</v>
       </c>
       <c r="G234" t="n">
-        <v>3370.903542935871</v>
+        <v>3321.680027178923</v>
       </c>
       <c r="H234" t="n">
         <v>0.3</v>
       </c>
       <c r="I234" t="n">
-        <v>683041</v>
+        <v>697781</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>24200911</v>
+        <v>23833984</v>
       </c>
       <c r="E235" t="n">
-        <v>24201244</v>
+        <v>23833984</v>
       </c>
       <c r="F235" t="n">
-        <v>7256.192629231697</v>
+        <v>3908.328333691459</v>
       </c>
       <c r="G235" t="n">
-        <v>5508.7595680861</v>
+        <v>5901.542559952411</v>
       </c>
       <c r="H235" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I235" t="n">
-        <v>1855266</v>
+        <v>1825997</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3310669</v>
+        <v>3307211</v>
       </c>
       <c r="E236" t="n">
-        <v>4434850</v>
+        <v>4430218</v>
       </c>
       <c r="F236" t="n">
-        <v>146.3392265749584</v>
+        <v>170.7557187218006</v>
       </c>
       <c r="G236" t="n">
-        <v>239.8371909035244</v>
+        <v>238.704431917468</v>
       </c>
       <c r="H236" t="n">
-        <v>0.65</v>
+        <v>1.72</v>
       </c>
       <c r="I236" t="n">
-        <v>147140</v>
+        <v>147862</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34078057</v>
+        <v>34122970</v>
       </c>
       <c r="E237" t="n">
-        <v>170065213</v>
+        <v>170289348</v>
       </c>
       <c r="F237" t="n">
-        <v>80660.702466869</v>
+        <v>85904.57493503099</v>
       </c>
       <c r="G237" t="n">
-        <v>81471.00020789774</v>
+        <v>93197.06761670994</v>
       </c>
       <c r="H237" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>10086707</v>
+        <v>10108759</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26505039</v>
+        <v>26620621</v>
       </c>
       <c r="E238" t="n">
-        <v>59752060</v>
+        <v>60012624</v>
       </c>
       <c r="F238" t="n">
-        <v>495.8287835184205</v>
+        <v>125.707082269806</v>
       </c>
       <c r="G238" t="n">
-        <v>76.25474601141201</v>
+        <v>119.126751111639</v>
       </c>
       <c r="H238" t="n">
-        <v>0.54</v>
+        <v>1.13</v>
       </c>
       <c r="I238" t="n">
-        <v>433750</v>
+        <v>433366</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1865670</v>
+        <v>1868623</v>
       </c>
       <c r="E239" t="n">
-        <v>1865670</v>
+        <v>1868623</v>
       </c>
       <c r="F239" t="n">
-        <v>163.3812911222907</v>
+        <v>212.2342300466387</v>
       </c>
       <c r="G239" t="n">
-        <v>90.3933687698913</v>
+        <v>110.6695097119379</v>
       </c>
       <c r="H239" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="I239" t="n">
-        <v>10569.95</v>
+        <v>10352.05</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71727963</v>
+        <v>71911617</v>
       </c>
       <c r="F240" t="n">
-        <v>3.736910657294138</v>
+        <v>5.572695997138209</v>
       </c>
       <c r="G240" t="n">
-        <v>5.446113467596093</v>
+        <v>3.525169926346301</v>
       </c>
       <c r="H240" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>68208</v>
+        <v>67926</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>915722</v>
+        <v>911478</v>
       </c>
       <c r="E241" t="n">
-        <v>915722</v>
+        <v>911478</v>
       </c>
       <c r="F241" t="n">
-        <v>5.13212150600485</v>
+        <v>5.132435889088358</v>
       </c>
       <c r="G241" t="n">
-        <v>20.28622134231563</v>
+        <v>20.28746403401941</v>
       </c>
       <c r="H241" t="n">
         <v>0.55</v>
       </c>
       <c r="I241" t="n">
-        <v>16449.08</v>
+        <v>16506.84</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>117680</v>
+        <v>117822</v>
       </c>
       <c r="E242" t="n">
-        <v>117680</v>
+        <v>117822</v>
       </c>
       <c r="F242" t="n">
-        <v>40.76272356875844</v>
+        <v>51.11695916322381</v>
       </c>
       <c r="G242" t="n">
-        <v>313.2236534339121</v>
+        <v>35.55672467461241</v>
       </c>
       <c r="H242" t="n">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="I242" t="n">
-        <v>39584</v>
+        <v>39577</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3446172</v>
+        <v>3448618</v>
       </c>
       <c r="E243" t="n">
-        <v>4950753</v>
+        <v>4954267</v>
       </c>
       <c r="F243" t="n">
-        <v>158.8026887499922</v>
+        <v>155.0056808965914</v>
       </c>
       <c r="G243" t="n">
-        <v>245.7198209069205</v>
+        <v>308.2942324129422</v>
       </c>
       <c r="H243" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I243" t="n">
-        <v>175471</v>
+        <v>174295</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>311821984</v>
+        <v>313623198</v>
       </c>
       <c r="E244" t="n">
-        <v>576941781</v>
+        <v>580274438</v>
       </c>
       <c r="F244" t="n">
-        <v>17887.99644366005</v>
+        <v>11889.97977212325</v>
       </c>
       <c r="G244" t="n">
-        <v>15051.59464993094</v>
+        <v>8731.123303269313</v>
       </c>
       <c r="H244" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I244" t="n">
-        <v>12811043</v>
+        <v>12884070</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>71098580</v>
+        <v>71522643</v>
       </c>
       <c r="E245" t="n">
-        <v>678349916</v>
+        <v>682389148</v>
       </c>
       <c r="F245" t="n">
-        <v>54343.87032656085</v>
+        <v>52279.37050694141</v>
       </c>
       <c r="G245" t="n">
-        <v>72880.75977908766</v>
+        <v>64911.94046341316</v>
       </c>
       <c r="H245" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>21269641</v>
+        <v>21127451</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81355</v>
+        <v>82662</v>
       </c>
       <c r="E246" t="n">
-        <v>676319</v>
+        <v>687190</v>
       </c>
       <c r="F246" t="n">
-        <v>104.4285498849142</v>
+        <v>51.64291634928664</v>
       </c>
       <c r="G246" t="n">
-        <v>5.53363984444699</v>
+        <v>4.091194579140118</v>
       </c>
       <c r="H246" t="n">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="I246" t="n">
-        <v>399.7</v>
+        <v>235.55</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1965470</v>
+        <v>1912059</v>
       </c>
       <c r="E247" t="n">
-        <v>5613130</v>
+        <v>5460596</v>
       </c>
       <c r="F247" t="n">
-        <v>298.6950788057723</v>
+        <v>296.326317305218</v>
       </c>
       <c r="G247" t="n">
-        <v>256.1290946336789</v>
+        <v>256.5345698392879</v>
       </c>
       <c r="H247" t="n">
         <v>0.42</v>
       </c>
       <c r="I247" t="n">
-        <v>73122</v>
+        <v>72143</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37946863</v>
+        <v>38040521</v>
       </c>
       <c r="E248" t="n">
-        <v>49615358</v>
+        <v>49737735</v>
       </c>
       <c r="F248" t="n">
-        <v>595.3346079976543</v>
+        <v>27.74214726216257</v>
       </c>
       <c r="G248" t="n">
-        <v>510.8022371784629</v>
+        <v>311.8036709533266</v>
       </c>
       <c r="H248" t="n">
-        <v>2.23</v>
+        <v>1.3</v>
       </c>
       <c r="I248" t="n">
-        <v>653133</v>
+        <v>540066</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9297118</v>
+        <v>9269783</v>
       </c>
       <c r="E249" t="n">
-        <v>27590988</v>
+        <v>27509865</v>
       </c>
       <c r="F249" t="n">
-        <v>1085.329292893523</v>
+        <v>1097.128097173686</v>
       </c>
       <c r="G249" t="n">
-        <v>2127.55971339926</v>
+        <v>1701.118916901635</v>
       </c>
       <c r="H249" t="n">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
       <c r="I249" t="n">
-        <v>5446228</v>
+        <v>5778396</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2042101</v>
+        <v>2056739</v>
       </c>
       <c r="E250" t="n">
-        <v>5924792</v>
+        <v>5967262</v>
       </c>
       <c r="F250" t="n">
-        <v>122.3745614420309</v>
+        <v>122.3755215680644</v>
       </c>
       <c r="G250" t="n">
-        <v>4.051037314690292</v>
+        <v>4.051069098308905</v>
       </c>
       <c r="H250" t="n">
         <v>0.02</v>
       </c>
       <c r="I250" t="n">
-        <v>32188</v>
+        <v>10860.64</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7370946</v>
+        <v>7318975</v>
       </c>
       <c r="E251" t="n">
-        <v>7370957</v>
+        <v>7318986</v>
       </c>
       <c r="F251" t="n">
-        <v>235.6408748049028</v>
+        <v>620.6292016870331</v>
       </c>
       <c r="G251" t="n">
-        <v>1494.563310964666</v>
+        <v>387.9706969198796</v>
       </c>
       <c r="H251" t="n">
-        <v>1.44</v>
+        <v>0.24</v>
       </c>
       <c r="I251" t="n">
-        <v>346978</v>
+        <v>344913</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6074916</v>
+        <v>6053691</v>
       </c>
       <c r="E252" t="n">
-        <v>6074916</v>
+        <v>6053691</v>
       </c>
       <c r="F252" t="n">
-        <v>504.987478657082</v>
+        <v>340.5106841362125</v>
       </c>
       <c r="G252" t="n">
-        <v>1450.968220976466</v>
+        <v>1499.578870173209</v>
       </c>
       <c r="H252" t="n">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="I252" t="n">
-        <v>491147</v>
+        <v>500011</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6213589</v>
+        <v>6211891</v>
       </c>
       <c r="E253" t="n">
-        <v>22695837</v>
+        <v>22689636</v>
       </c>
       <c r="F253" t="n">
-        <v>1323.18691180054</v>
+        <v>1323.226091929173</v>
       </c>
       <c r="G253" t="n">
-        <v>347.2574575000742</v>
+        <v>459.63158889</v>
       </c>
       <c r="H253" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="I253" t="n">
-        <v>525890</v>
+        <v>530178</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2102566</v>
+        <v>2099354</v>
       </c>
       <c r="E254" t="n">
-        <v>18546028</v>
+        <v>18517694</v>
       </c>
       <c r="F254" t="n">
-        <v>125.6839958292223</v>
+        <v>218.8632547015829</v>
       </c>
       <c r="G254" t="n">
-        <v>4045.906387728134</v>
+        <v>4046.13107704651</v>
       </c>
       <c r="H254" t="n">
-        <v>1.09</v>
+        <v>0.63</v>
       </c>
       <c r="I254" t="n">
-        <v>73517</v>
+        <v>70625</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14594439</v>
+        <v>14620990</v>
       </c>
       <c r="E255" t="n">
-        <v>29545551</v>
+        <v>29599302</v>
       </c>
       <c r="F255" t="n">
-        <v>96.29431652524688</v>
+        <v>96.59846360568395</v>
       </c>
       <c r="G255" t="n">
-        <v>296.8734039304123</v>
+        <v>156.7256094927189</v>
       </c>
       <c r="H255" t="n">
-        <v>0.87</v>
+        <v>1.5</v>
       </c>
       <c r="I255" t="n">
-        <v>473479</v>
+        <v>464422</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44793660</v>
+        <v>45055258</v>
       </c>
       <c r="E256" t="n">
-        <v>44793660</v>
+        <v>45055258</v>
       </c>
       <c r="F256" t="n">
-        <v>5857.832007547508</v>
+        <v>5816.428396860243</v>
       </c>
       <c r="G256" t="n">
-        <v>4581.386271535861</v>
+        <v>4780.027660572146</v>
       </c>
       <c r="H256" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I256" t="n">
-        <v>8998592</v>
+        <v>8033937</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8633245</v>
+        <v>8640824</v>
       </c>
       <c r="E257" t="n">
-        <v>12300396</v>
+        <v>12311195</v>
       </c>
       <c r="F257" t="n">
-        <v>35.27459805859048</v>
+        <v>42.60609508969644</v>
       </c>
       <c r="G257" t="n">
-        <v>30.68910560994494</v>
+        <v>39.7745078944759</v>
       </c>
       <c r="H257" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I257" t="n">
-        <v>419141</v>
+        <v>416666</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>147664997</v>
+        <v>146496666</v>
       </c>
       <c r="F258" t="n">
-        <v>281.8127701397395</v>
+        <v>957.5171081183929</v>
       </c>
       <c r="G258" t="n">
-        <v>10.63636575322845</v>
+        <v>43.47735715074801</v>
       </c>
       <c r="H258" t="n">
-        <v>1.71</v>
+        <v>0.55</v>
       </c>
       <c r="I258" t="n">
-        <v>1507025</v>
+        <v>1552944</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16463708</v>
+        <v>16437062</v>
       </c>
       <c r="F259" t="n">
-        <v>93.5550457223186</v>
+        <v>93.55376409100478</v>
       </c>
       <c r="G259" t="n">
-        <v>125.5801676432571</v>
+        <v>125.5784472926976</v>
       </c>
       <c r="H259" t="n">
         <v>0.5</v>
       </c>
       <c r="I259" t="n">
-        <v>968301</v>
+        <v>967540</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>723100</v>
+        <v>727537</v>
       </c>
       <c r="F260" t="n">
-        <v>40.12674819356619</v>
+        <v>40.12737065077195</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01567649045503</v>
+        <v>28.01611107737001</v>
       </c>
       <c r="H260" t="n">
         <v>2.13</v>
       </c>
       <c r="I260" t="n">
-        <v>225248</v>
+        <v>223266</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3034166</v>
+        <v>3037987</v>
       </c>
       <c r="F261" t="n">
-        <v>34.6721347897403</v>
+        <v>34.648654135692</v>
       </c>
       <c r="G261" t="n">
-        <v>64.96509212444255</v>
+        <v>65.07920098564186</v>
       </c>
       <c r="H261" t="n">
         <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>72178</v>
+        <v>72367</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2766367</v>
+        <v>2782020</v>
       </c>
       <c r="E262" t="n">
-        <v>2768763</v>
+        <v>2784429</v>
       </c>
       <c r="F262" t="n">
-        <v>44.14129202910576</v>
+        <v>3.905789952620666</v>
       </c>
       <c r="G262" t="n">
-        <v>5.619014821165182</v>
+        <v>41.41099364051292</v>
       </c>
       <c r="H262" t="n">
         <v>0.65</v>
       </c>
       <c r="I262" t="n">
-        <v>82972</v>
+        <v>81066</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61416110</v>
+        <v>61646501</v>
       </c>
       <c r="E263" t="n">
-        <v>101606781</v>
+        <v>101987940</v>
       </c>
       <c r="F263" t="n">
-        <v>7902.952937406645</v>
+        <v>8858.768707911313</v>
       </c>
       <c r="G263" t="n">
-        <v>19261.01960749753</v>
+        <v>10950.93253008548</v>
       </c>
       <c r="H263" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I263" t="n">
-        <v>6206285</v>
+        <v>6182661</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>699651</v>
+        <v>695416</v>
       </c>
       <c r="F264" t="n">
-        <v>3271.760850660547</v>
+        <v>3271.310028623554</v>
       </c>
       <c r="G264" t="n">
-        <v>321.499176806936</v>
+        <v>370.3752257279702</v>
       </c>
       <c r="H264" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="I264" t="n">
-        <v>228516</v>
+        <v>624565</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1238294</v>
+        <v>1254642</v>
       </c>
       <c r="E265" t="n">
-        <v>3746501</v>
+        <v>3795755</v>
       </c>
       <c r="F265" t="n">
-        <v>1102.377053150442</v>
+        <v>154.8897258480004</v>
       </c>
       <c r="G265" t="n">
-        <v>8.610304115890749</v>
+        <v>934.6300796708965</v>
       </c>
       <c r="H265" t="n">
-        <v>0.52</v>
+        <v>0.79</v>
       </c>
       <c r="I265" t="n">
-        <v>9756.129999999999</v>
+        <v>11352.12</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>37524540</v>
+        <v>38134724</v>
       </c>
       <c r="E266" t="n">
-        <v>266042868</v>
+        <v>270368972</v>
       </c>
       <c r="F266" t="n">
-        <v>48682.31981534319</v>
+        <v>65511.99683172956</v>
       </c>
       <c r="G266" t="n">
-        <v>26431.82148211478</v>
+        <v>37732.38738990695</v>
       </c>
       <c r="H266" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I266" t="n">
-        <v>1827771</v>
+        <v>1807657</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>62825</v>
+        <v>63116</v>
       </c>
       <c r="E267" t="n">
-        <v>327797</v>
+        <v>329313</v>
       </c>
       <c r="F267" t="n">
-        <v>67.90227666134203</v>
+        <v>21.99451730247559</v>
       </c>
       <c r="G267" t="n">
-        <v>3.892155534825593</v>
+        <v>21.69425103176411</v>
       </c>
       <c r="H267" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I267" t="n">
-        <v>321106</v>
+        <v>319979</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1258377</v>
+        <v>1261471</v>
       </c>
       <c r="E268" t="n">
-        <v>7803889</v>
+        <v>7823079</v>
       </c>
       <c r="F268" t="n">
-        <v>2104.097485257135</v>
+        <v>1689.97982499216</v>
       </c>
       <c r="G268" t="n">
-        <v>2742.332987405639</v>
+        <v>3142.669426959799</v>
       </c>
       <c r="H268" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I268" t="n">
-        <v>759318</v>
+        <v>746078</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>599698255</v>
+        <v>603478161</v>
       </c>
       <c r="E269" t="n">
-        <v>2322542861</v>
+        <v>2337181881</v>
       </c>
       <c r="F269" t="n">
-        <v>194631.2794497199</v>
+        <v>155411.5326408967</v>
       </c>
       <c r="G269" t="n">
-        <v>227844.4145197082</v>
+        <v>226089.9970320621</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>30969562</v>
+        <v>31463016</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3264380</v>
+        <v>3268458</v>
       </c>
       <c r="F270" t="n">
-        <v>179.979676166345</v>
+        <v>171.9868674742504</v>
       </c>
       <c r="G270" t="n">
-        <v>150.6904044287221</v>
+        <v>147.4017298860623</v>
       </c>
       <c r="H270" t="n">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
       <c r="I270" t="n">
-        <v>30799</v>
+        <v>30755</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>774446</v>
+        <v>908775</v>
       </c>
       <c r="F271" t="n">
-        <v>8.996137576610886</v>
+        <v>106.7472535314188</v>
       </c>
       <c r="G271" t="n">
-        <v>42.21806537569346</v>
+        <v>100.3674954612604</v>
       </c>
       <c r="H271" t="n">
-        <v>1.27</v>
+        <v>2.8</v>
       </c>
       <c r="I271" t="n">
-        <v>353215</v>
+        <v>382750</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5832194</v>
+        <v>5844066</v>
       </c>
       <c r="E272" t="n">
-        <v>26111462</v>
+        <v>26164613</v>
       </c>
       <c r="F272" t="n">
-        <v>144.724470654182</v>
+        <v>139.978534472491</v>
       </c>
       <c r="G272" t="n">
-        <v>98.72853505168027</v>
+        <v>135.9988380108041</v>
       </c>
       <c r="H272" t="n">
         <v>0.15</v>
       </c>
       <c r="I272" t="n">
-        <v>144602</v>
+        <v>144484</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6217042</v>
+        <v>6251495</v>
       </c>
       <c r="E273" t="n">
-        <v>11903031</v>
+        <v>11968994</v>
       </c>
       <c r="F273" t="n">
-        <v>106.5646652720535</v>
+        <v>4065.07095362545</v>
       </c>
       <c r="G273" t="n">
-        <v>105.827876941553</v>
+        <v>108.957204991792</v>
       </c>
       <c r="H273" t="n">
-        <v>2.64</v>
+        <v>1.81</v>
       </c>
       <c r="I273" t="n">
-        <v>190974</v>
+        <v>191491</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3190185</v>
+        <v>3191218</v>
       </c>
       <c r="E274" t="n">
-        <v>20977912</v>
+        <v>20984707</v>
       </c>
       <c r="F274" t="n">
-        <v>310.8976421201723</v>
+        <v>310.7157103132028</v>
       </c>
       <c r="G274" t="n">
-        <v>168.4898646213201</v>
+        <v>739.739804878859</v>
       </c>
       <c r="H274" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="I274" t="n">
-        <v>1342710</v>
+        <v>1416448</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3673902</v>
+        <v>3677936</v>
       </c>
       <c r="E275" t="n">
-        <v>6262664</v>
+        <v>6269542</v>
       </c>
       <c r="F275" t="n">
-        <v>673.0873709671802</v>
+        <v>672.5841383805343</v>
       </c>
       <c r="G275" t="n">
-        <v>498.3225715817117</v>
+        <v>526.0669806210739</v>
       </c>
       <c r="H275" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I275" t="n">
-        <v>1205956</v>
+        <v>1223407</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>433635</v>
+        <v>433579</v>
       </c>
       <c r="E276" t="n">
-        <v>433635</v>
+        <v>433579</v>
       </c>
       <c r="F276" t="n">
-        <v>3.682243043123708</v>
+        <v>3.988327768315675</v>
       </c>
       <c r="G276" t="n">
-        <v>4.030724876904953</v>
+        <v>5.379182375685523</v>
       </c>
       <c r="H276" t="n">
         <v>0.2</v>
       </c>
       <c r="I276" t="n">
-        <v>478.52</v>
+        <v>465.3</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7302216</v>
+        <v>7342961</v>
       </c>
       <c r="E277" t="n">
-        <v>10463523</v>
+        <v>10521896</v>
       </c>
       <c r="F277" t="n">
-        <v>609.6269073274105</v>
+        <v>1600.861576910807</v>
       </c>
       <c r="G277" t="n">
-        <v>2146.134483023037</v>
+        <v>352.7174311807755</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>169456</v>
+        <v>175495</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>118438751</v>
+        <v>118315319</v>
       </c>
       <c r="E278" t="n">
-        <v>1029752147</v>
+        <v>1028678983</v>
       </c>
       <c r="F278" t="n">
-        <v>9471.8797069755</v>
+        <v>10656.86018508199</v>
       </c>
       <c r="G278" t="n">
-        <v>13555.82994026293</v>
+        <v>9485.689925535868</v>
       </c>
       <c r="H278" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I278" t="n">
-        <v>9050517</v>
+        <v>8969312</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>106392348</v>
+        <v>103353243</v>
       </c>
       <c r="E279" t="n">
-        <v>162304021</v>
+        <v>157667796</v>
       </c>
       <c r="F279" t="n">
-        <v>51247.78270411916</v>
+        <v>47871.2363056773</v>
       </c>
       <c r="G279" t="n">
-        <v>50470.67297208051</v>
+        <v>50048.50217854347</v>
       </c>
       <c r="H279" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I279" t="n">
-        <v>7574325</v>
+        <v>7714462</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15816573</v>
+        <v>15806516</v>
       </c>
       <c r="E280" t="n">
-        <v>21698968</v>
+        <v>21685171</v>
       </c>
       <c r="F280" t="n">
-        <v>7055.173267385922</v>
+        <v>6844.627878332944</v>
       </c>
       <c r="G280" t="n">
-        <v>1406.824563054995</v>
+        <v>2129.709094558789</v>
       </c>
       <c r="H280" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="I280" t="n">
-        <v>356796</v>
+        <v>354713</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5658551</v>
+        <v>5656312</v>
       </c>
       <c r="E281" t="n">
-        <v>5658551</v>
+        <v>5656312</v>
       </c>
       <c r="F281" t="n">
-        <v>66.10034322888241</v>
+        <v>588.1902023503625</v>
       </c>
       <c r="G281" t="n">
-        <v>110.5608150596452</v>
+        <v>5.54084767415721</v>
       </c>
       <c r="H281" t="n">
         <v>0.86</v>
       </c>
       <c r="I281" t="n">
-        <v>753109</v>
+        <v>755350</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>112062928</v>
+        <v>113747301</v>
       </c>
       <c r="E282" t="n">
-        <v>429891430</v>
+        <v>436352956</v>
       </c>
       <c r="F282" t="n">
-        <v>54072.03466631164</v>
+        <v>42261.21235734763</v>
       </c>
       <c r="G282" t="n">
-        <v>67520.6708269087</v>
+        <v>64396.91181601925</v>
       </c>
       <c r="H282" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>20562937</v>
+        <v>20662035</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>760885</v>
+        <v>761864</v>
       </c>
       <c r="F283" t="n">
-        <v>11.17331528294967</v>
+        <v>5.292211210251636</v>
       </c>
       <c r="G283" t="n">
-        <v>5.5662282484317</v>
+        <v>4.062613820929311</v>
       </c>
       <c r="H283" t="n">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="I283" t="n">
-        <v>50798</v>
+        <v>51351</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3155226</v>
+        <v>3148219</v>
       </c>
       <c r="E284" t="n">
-        <v>29896233</v>
+        <v>29829838</v>
       </c>
       <c r="F284" t="n">
-        <v>600.9735354112843</v>
+        <v>612.9875650353011</v>
       </c>
       <c r="G284" t="n">
-        <v>941.5122757724074</v>
+        <v>939.7861081155773</v>
       </c>
       <c r="H284" t="n">
         <v>0.67</v>
       </c>
       <c r="I284" t="n">
-        <v>283628</v>
+        <v>309443</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>91369</v>
+        <v>87657</v>
       </c>
       <c r="F285" t="n">
-        <v>987.7120767666622</v>
+        <v>53.83800490614651</v>
       </c>
       <c r="G285" t="n">
-        <v>116.2602845570328</v>
+        <v>76.47576852067895</v>
       </c>
       <c r="H285" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I285" t="n">
-        <v>3044.65</v>
+        <v>4095.42</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>143255</v>
+        <v>137611</v>
       </c>
       <c r="F286" t="n">
-        <v>4.009753673912304</v>
+        <v>4.009825143144091</v>
       </c>
       <c r="G286" t="n">
-        <v>5.33248478071908</v>
+        <v>5.33257982610635</v>
       </c>
       <c r="H286" t="n">
         <v>0.79</v>
       </c>
       <c r="I286" t="n">
-        <v>22043</v>
+        <v>90911</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22001213</v>
+        <v>22324541</v>
       </c>
       <c r="E287" t="n">
-        <v>22001213</v>
+        <v>22324541</v>
       </c>
       <c r="F287" t="n">
-        <v>5362.156108786089</v>
+        <v>392.6204933736956</v>
       </c>
       <c r="G287" t="n">
-        <v>656.9334104945284</v>
+        <v>589.2833735801636</v>
       </c>
       <c r="H287" t="n">
-        <v>0.14</v>
+        <v>0.84</v>
       </c>
       <c r="I287" t="n">
-        <v>532846</v>
+        <v>572039</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>576610</v>
+        <v>576059</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>454.4</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5938051</v>
+        <v>5935769</v>
       </c>
       <c r="E289" t="n">
-        <v>37111116</v>
+        <v>37096855</v>
       </c>
       <c r="F289" t="n">
-        <v>6800.16237371663</v>
+        <v>6799.192061955332</v>
       </c>
       <c r="G289" t="n">
-        <v>263.3305342633558</v>
+        <v>260.697470670084</v>
       </c>
       <c r="H289" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I289" t="n">
-        <v>382960</v>
+        <v>384805</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494810422</v>
+        <v>495039686</v>
       </c>
       <c r="E290" t="n">
-        <v>494810422</v>
+        <v>495039686</v>
       </c>
       <c r="F290" t="n">
-        <v>1150334.880388421</v>
+        <v>1143030.425039728</v>
       </c>
       <c r="G290" t="n">
-        <v>1331816.775827904</v>
+        <v>1328841.871909725</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>33016642</v>
+        <v>32903418</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5101038</v>
+        <v>5100227</v>
       </c>
       <c r="E291" t="n">
-        <v>18995222</v>
+        <v>18992203</v>
       </c>
       <c r="F291" t="n">
-        <v>7134.648227776822</v>
+        <v>7134.715242485561</v>
       </c>
       <c r="G291" t="n">
-        <v>6882.728414770298</v>
+        <v>6920.455376074069</v>
       </c>
       <c r="H291" t="n">
         <v>0.37</v>
       </c>
       <c r="I291" t="n">
-        <v>60558</v>
+        <v>62425</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31574765</v>
+        <v>31642485</v>
       </c>
       <c r="F292" t="n">
-        <v>6859.644057103297</v>
+        <v>5638.124791083549</v>
       </c>
       <c r="G292" t="n">
-        <v>10029.15528943332</v>
+        <v>4184.849583818854</v>
       </c>
       <c r="H292" t="n">
-        <v>0.46</v>
+        <v>0.09</v>
       </c>
       <c r="I292" t="n">
-        <v>5609812</v>
+        <v>5605263</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31544342</v>
+        <v>31460505</v>
       </c>
       <c r="E293" t="n">
-        <v>113066286</v>
+        <v>112765782</v>
       </c>
       <c r="F293" t="n">
-        <v>26.79581110424068</v>
+        <v>22.60292358958744</v>
       </c>
       <c r="G293" t="n">
-        <v>4855.621411366699</v>
+        <v>4821.852426385954</v>
       </c>
       <c r="H293" t="n">
-        <v>0.13</v>
+        <v>0.7</v>
       </c>
       <c r="I293" t="n">
-        <v>95084</v>
+        <v>96627</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>765750</v>
+        <v>765429</v>
       </c>
       <c r="E294" t="n">
-        <v>12213440</v>
+        <v>12208316</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86318705398029</v>
+        <v>12.86396737271058</v>
       </c>
       <c r="G294" t="n">
-        <v>2.297885736375311</v>
+        <v>10.99500701812298</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>67690</v>
+        <v>66704</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85032</v>
+        <v>85268</v>
       </c>
       <c r="F295" t="n">
-        <v>70.07416196392326</v>
+        <v>88.73778395697578</v>
       </c>
       <c r="G295" t="n">
-        <v>57.62025723623279</v>
+        <v>57.6211510575846</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>57023</v>
+        <v>57949</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1524507</v>
+        <v>1543343</v>
       </c>
       <c r="F296" t="n">
-        <v>4.050071387220547</v>
+        <v>4.050103163260689</v>
       </c>
       <c r="G296" t="n">
-        <v>5.424214896922088</v>
+        <v>5.424257454214002</v>
       </c>
       <c r="H296" t="n">
         <v>0.7</v>
       </c>
       <c r="I296" t="n">
-        <v>614521</v>
+        <v>616523</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2653344807</v>
+        <v>2654543382</v>
       </c>
       <c r="E297" t="n">
-        <v>2817161776</v>
+        <v>2818434352</v>
       </c>
       <c r="F297" t="n">
-        <v>36451.83495410156</v>
+        <v>40645.52636999382</v>
       </c>
       <c r="G297" t="n">
-        <v>58997.34888050159</v>
+        <v>65848.71595172268</v>
       </c>
       <c r="H297" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I297" t="n">
-        <v>39706436</v>
+        <v>39911727</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2205496</v>
+        <v>2172894</v>
       </c>
       <c r="E298" t="n">
-        <v>16964050</v>
+        <v>16713288</v>
       </c>
       <c r="F298" t="n">
-        <v>4088.570575176828</v>
+        <v>4075.350934825872</v>
       </c>
       <c r="G298" t="n">
-        <v>4064.822076980647</v>
+        <v>4052.086333438816</v>
       </c>
       <c r="H298" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="I298" t="n">
-        <v>170379</v>
+        <v>176846</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1632113</v>
+        <v>1642673</v>
       </c>
       <c r="E299" t="n">
-        <v>1637874</v>
+        <v>1648471</v>
       </c>
       <c r="F299" t="n">
-        <v>933.4382456960991</v>
+        <v>1364.753261001758</v>
       </c>
       <c r="G299" t="n">
-        <v>1712.552881751271</v>
+        <v>938.1211049572055</v>
       </c>
       <c r="H299" t="n">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="I299" t="n">
-        <v>377912</v>
+        <v>391675</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>86678065</v>
+        <v>87083956</v>
       </c>
       <c r="E300" t="n">
-        <v>320425010</v>
+        <v>321924981</v>
       </c>
       <c r="F300" t="n">
-        <v>9129.627220521366</v>
+        <v>8057.649676820767</v>
       </c>
       <c r="G300" t="n">
-        <v>13989.28595788171</v>
+        <v>5844.197223356858</v>
       </c>
       <c r="H300" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I300" t="n">
-        <v>345093</v>
+        <v>341000</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2415726</v>
+        <v>2459361</v>
       </c>
       <c r="E301" t="n">
-        <v>9693183</v>
+        <v>9868270</v>
       </c>
       <c r="F301" t="n">
-        <v>33.67023906715819</v>
+        <v>4.167569923164185</v>
       </c>
       <c r="G301" t="n">
-        <v>19.55527317927352</v>
+        <v>620.626812951234</v>
       </c>
       <c r="H301" t="n">
-        <v>0.61</v>
+        <v>0.93</v>
       </c>
       <c r="I301" t="n">
-        <v>44787</v>
+        <v>45255</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61854475</v>
+        <v>61798553</v>
       </c>
       <c r="E302" t="n">
-        <v>151724834</v>
+        <v>151587663</v>
       </c>
       <c r="F302" t="n">
-        <v>2210.762499741698</v>
+        <v>2785.293564150229</v>
       </c>
       <c r="G302" t="n">
-        <v>3852.706614377613</v>
+        <v>2774.698866254504</v>
       </c>
       <c r="H302" t="n">
-        <v>1.1</v>
+        <v>0.66</v>
       </c>
       <c r="I302" t="n">
-        <v>22603845</v>
+        <v>16459324</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>699456153</v>
+        <v>733720224</v>
       </c>
       <c r="E303" t="n">
-        <v>1078623144</v>
+        <v>1131461366</v>
       </c>
       <c r="F303" t="n">
-        <v>44982.36373672972</v>
+        <v>45789.25021477564</v>
       </c>
       <c r="G303" t="n">
-        <v>46639.81903472749</v>
+        <v>36653.36920047658</v>
       </c>
       <c r="H303" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I303" t="n">
-        <v>161752146</v>
+        <v>205535009</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>21082797</v>
+        <v>20671707</v>
       </c>
       <c r="E304" t="n">
-        <v>21082797</v>
+        <v>20671707</v>
       </c>
       <c r="F304" t="n">
-        <v>2144.624492234969</v>
+        <v>3783.370767281482</v>
       </c>
       <c r="G304" t="n">
-        <v>4848.110043102635</v>
+        <v>3691.211989746727</v>
       </c>
       <c r="H304" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I304" t="n">
-        <v>7089759</v>
+        <v>7119398</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1731155</v>
+        <v>1734509</v>
       </c>
       <c r="E305" t="n">
-        <v>2840532</v>
+        <v>2846035</v>
       </c>
       <c r="F305" t="n">
-        <v>168.5571790137222</v>
+        <v>205.272252495433</v>
       </c>
       <c r="G305" t="n">
-        <v>4.049651161691986</v>
+        <v>113.0787861131707</v>
       </c>
       <c r="H305" t="n">
-        <v>0.49</v>
+        <v>0.82</v>
       </c>
       <c r="I305" t="n">
-        <v>150992</v>
+        <v>154081</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5695185</v>
+        <v>5667409</v>
       </c>
       <c r="E306" t="n">
-        <v>5695185</v>
+        <v>5667409</v>
       </c>
       <c r="F306" t="n">
-        <v>74.68080860563011</v>
+        <v>41.85590576587551</v>
       </c>
       <c r="G306" t="n">
-        <v>5.632351187799324</v>
+        <v>5.438231977999351</v>
       </c>
       <c r="H306" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I306" t="n">
-        <v>479.11</v>
+        <v>498.89</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39835697</v>
+        <v>39948269</v>
       </c>
       <c r="E307" t="n">
-        <v>190142422</v>
+        <v>190679748</v>
       </c>
       <c r="F307" t="n">
-        <v>93.9667818684529</v>
+        <v>321.1535210956796</v>
       </c>
       <c r="G307" t="n">
-        <v>262.0543509714748</v>
+        <v>353.5251138936683</v>
       </c>
       <c r="H307" t="n">
-        <v>2.44</v>
+        <v>0.5</v>
       </c>
       <c r="I307" t="n">
-        <v>415737</v>
+        <v>419968</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>383201</v>
+        <v>384105</v>
       </c>
       <c r="E308" t="n">
-        <v>716693</v>
+        <v>718385</v>
       </c>
       <c r="F308" t="n">
-        <v>88.90590185602488</v>
+        <v>673.6176482885044</v>
       </c>
       <c r="G308" t="n">
-        <v>238.5183040306655</v>
+        <v>238.4089487176389</v>
       </c>
       <c r="H308" t="n">
         <v>0.25</v>
       </c>
       <c r="I308" t="n">
-        <v>1419.46</v>
+        <v>1243.17</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23570273</v>
+        <v>23570608</v>
       </c>
       <c r="E309" t="n">
-        <v>39283787</v>
+        <v>39284346</v>
       </c>
       <c r="F309" t="n">
-        <v>2696.02699610361</v>
+        <v>5680.937098427455</v>
       </c>
       <c r="G309" t="n">
-        <v>5033.674095015432</v>
+        <v>4031.638603406982</v>
       </c>
       <c r="H309" t="n">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="I309" t="n">
-        <v>712553</v>
+        <v>622773</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107577</v>
+        <v>107826</v>
       </c>
       <c r="F310" t="n">
-        <v>5.034187217051667</v>
+        <v>5.147882663572204</v>
       </c>
       <c r="G310" t="n">
-        <v>11.24888629743064</v>
+        <v>11.2841240420449</v>
       </c>
       <c r="H310" t="n">
         <v>0.79</v>
       </c>
       <c r="I310" t="n">
-        <v>48983</v>
+        <v>48779</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23301847</v>
+        <v>23416595</v>
       </c>
       <c r="E311" t="n">
-        <v>23301847</v>
+        <v>23416595</v>
       </c>
       <c r="F311" t="n">
-        <v>5636.752322335009</v>
+        <v>5991.449460502062</v>
       </c>
       <c r="G311" t="n">
-        <v>6139.035054431403</v>
+        <v>9583.349976804082</v>
       </c>
       <c r="H311" t="n">
         <v>0.25</v>
       </c>
       <c r="I311" t="n">
-        <v>6270223</v>
+        <v>6250187</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3832733</v>
+        <v>3816373</v>
       </c>
       <c r="E312" t="n">
-        <v>8362974</v>
+        <v>8327277</v>
       </c>
       <c r="F312" t="n">
-        <v>1829.311897263948</v>
+        <v>1829.326249674738</v>
       </c>
       <c r="G312" t="n">
-        <v>1892.279983760889</v>
+        <v>1879.882462014057</v>
       </c>
       <c r="H312" t="n">
         <v>0.72</v>
       </c>
       <c r="I312" t="n">
-        <v>873511</v>
+        <v>855737</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9351569</v>
+        <v>9355488</v>
       </c>
       <c r="E313" t="n">
-        <v>9351569</v>
+        <v>9355488</v>
       </c>
       <c r="F313" t="n">
-        <v>14968.87005046192</v>
+        <v>14932.86180744594</v>
       </c>
       <c r="G313" t="n">
-        <v>113776.5276975242</v>
+        <v>113724.8977378992</v>
       </c>
       <c r="H313" t="n">
         <v>0.01</v>
       </c>
       <c r="I313" t="n">
-        <v>3257385</v>
+        <v>3177175</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>489214842</v>
+        <v>492572772</v>
       </c>
       <c r="E314" t="n">
-        <v>1703780105</v>
+        <v>1715474711</v>
       </c>
       <c r="F314" t="n">
-        <v>382697.8051422288</v>
+        <v>406347.8727751651</v>
       </c>
       <c r="G314" t="n">
-        <v>492007.6961612565</v>
+        <v>301328.5889359895</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>31508658</v>
+        <v>31371925</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24063119</v>
+        <v>23980948</v>
       </c>
       <c r="E315" t="n">
-        <v>24042217</v>
+        <v>23960117</v>
       </c>
       <c r="F315" t="n">
-        <v>171.7421657747171</v>
+        <v>174.8617519821877</v>
       </c>
       <c r="G315" t="n">
-        <v>796.5831273071924</v>
+        <v>792.2480960696669</v>
       </c>
       <c r="H315" t="n">
         <v>0.73</v>
       </c>
       <c r="I315" t="n">
-        <v>92492</v>
+        <v>92722</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>47996698</v>
+        <v>48031962</v>
       </c>
       <c r="E316" t="n">
-        <v>118456272</v>
+        <v>118543310</v>
       </c>
       <c r="F316" t="n">
-        <v>953.3931779524656</v>
+        <v>953.4093127562518</v>
       </c>
       <c r="G316" t="n">
-        <v>1698.032464464269</v>
+        <v>1698.061201213461</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>37873</v>
+        <v>37240</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11995639</v>
+        <v>11749267</v>
       </c>
       <c r="E317" t="n">
-        <v>24293437</v>
+        <v>23793266</v>
       </c>
       <c r="F317" t="n">
-        <v>247.764321704486</v>
+        <v>247.9209102502078</v>
       </c>
       <c r="G317" t="n">
-        <v>96.27761339872903</v>
+        <v>219.8645892134749</v>
       </c>
       <c r="H317" t="n">
         <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>19432.09</v>
+        <v>24449</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7681514</v>
+        <v>7674304</v>
       </c>
       <c r="E318" t="n">
-        <v>19955747</v>
+        <v>19937016</v>
       </c>
       <c r="F318" t="n">
-        <v>193.1299330071623</v>
+        <v>193.2767427346715</v>
       </c>
       <c r="G318" t="n">
-        <v>691.7094793895382</v>
+        <v>679.3642579904345</v>
       </c>
       <c r="H318" t="n">
         <v>0.25</v>
       </c>
       <c r="I318" t="n">
-        <v>680196</v>
+        <v>682224</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>148825</v>
+        <v>150184</v>
       </c>
       <c r="F319" t="n">
-        <v>113.6047135702335</v>
+        <v>100.6707951750382</v>
       </c>
       <c r="G319" t="n">
-        <v>250.2041960403371</v>
+        <v>250.2129665586507</v>
       </c>
       <c r="H319" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="I319" t="n">
-        <v>56057</v>
+        <v>56507</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19281453623</v>
+        <v>19253905643</v>
       </c>
       <c r="F320" t="n">
-        <v>52947.9326716037</v>
+        <v>52038.33152015413</v>
       </c>
       <c r="G320" t="n">
-        <v>49777.87930104795</v>
+        <v>49777.14952877069</v>
       </c>
       <c r="H320" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I320" t="n">
-        <v>48765015</v>
+        <v>48890399</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>100881391</v>
+        <v>100804004</v>
       </c>
       <c r="E321" t="n">
-        <v>152846963</v>
+        <v>152729714</v>
       </c>
       <c r="F321" t="n">
-        <v>16101.24131736652</v>
+        <v>18036.35034414098</v>
       </c>
       <c r="G321" t="n">
-        <v>15305.32702425694</v>
+        <v>20067.52975763085</v>
       </c>
       <c r="H321" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="I321" t="n">
-        <v>7243849</v>
+        <v>7224600</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2643615</v>
+        <v>2646031</v>
       </c>
       <c r="E322" t="n">
-        <v>10574461</v>
+        <v>10584123</v>
       </c>
       <c r="F322" t="n">
-        <v>4980.674079438639</v>
+        <v>25472.69197663728</v>
       </c>
       <c r="G322" t="n">
-        <v>39665.43344733129</v>
+        <v>13581.66344428423</v>
       </c>
       <c r="H322" t="n">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I322" t="n">
-        <v>5143797</v>
+        <v>5322744</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>213654455</v>
+        <v>215537507</v>
       </c>
       <c r="E323" t="n">
-        <v>656907046</v>
+        <v>662696722</v>
       </c>
       <c r="F323" t="n">
-        <v>119611.145393092</v>
+        <v>122482.2034498834</v>
       </c>
       <c r="G323" t="n">
-        <v>188513.6321817168</v>
+        <v>242921.5813450782</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>11494621</v>
+        <v>11508337</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>150421392</v>
+        <v>151453617</v>
       </c>
       <c r="E324" t="n">
-        <v>392971714</v>
+        <v>395668374</v>
       </c>
       <c r="F324" t="n">
-        <v>12401.42827000199</v>
+        <v>12823.64727646877</v>
       </c>
       <c r="G324" t="n">
-        <v>5715.952974289376</v>
+        <v>5353.378112654905</v>
       </c>
       <c r="H324" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="I324" t="n">
-        <v>6583567</v>
+        <v>6487870</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2422733</v>
+        <v>2433278</v>
       </c>
       <c r="E325" t="n">
-        <v>3324803</v>
+        <v>3339255</v>
       </c>
       <c r="F325" t="n">
-        <v>132.0632655365447</v>
+        <v>254.3416234278419</v>
       </c>
       <c r="G325" t="n">
-        <v>3964.438154392457</v>
+        <v>5326.446302204865</v>
       </c>
       <c r="H325" t="n">
-        <v>1.68</v>
+        <v>0.63</v>
       </c>
       <c r="I325" t="n">
-        <v>256961</v>
+        <v>260415</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>400158770</v>
+        <v>400610131</v>
       </c>
       <c r="E326" t="n">
-        <v>2286621544</v>
+        <v>2289200747</v>
       </c>
       <c r="F326" t="n">
-        <v>353277.3795753214</v>
+        <v>282802.5526803149</v>
       </c>
       <c r="G326" t="n">
-        <v>454841.8311409676</v>
+        <v>467001.2076427953</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>36377825</v>
+        <v>36447949</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94089</v>
+        <v>93189</v>
       </c>
       <c r="F2" t="n">
-        <v>4.034552418555474</v>
+        <v>5.531882389758907</v>
       </c>
       <c r="G2" t="n">
-        <v>4.102545690437561</v>
+        <v>29.10827029341627</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>786.61</v>
+        <v>849.49</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>614393150</v>
+        <v>613967647</v>
       </c>
       <c r="E3" t="n">
-        <v>1192127293</v>
+        <v>1191301677</v>
       </c>
       <c r="F3" t="n">
-        <v>17040.40282467492</v>
+        <v>14313.51804578085</v>
       </c>
       <c r="G3" t="n">
-        <v>35002.45322515108</v>
+        <v>27271.4003608899</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I3" t="n">
-        <v>23338585</v>
+        <v>23487784</v>
       </c>
     </row>
     <row r="4">
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246802276</v>
+        <v>246173502</v>
       </c>
       <c r="E4" t="n">
-        <v>1547662380</v>
+        <v>1543719427</v>
       </c>
       <c r="F4" t="n">
         <v>93816.90601015736</v>
@@ -582,7 +582,7 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15545854</v>
+        <v>15537471</v>
       </c>
     </row>
     <row r="5">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140916345</v>
+        <v>140252919</v>
       </c>
       <c r="E5" t="n">
-        <v>156157818</v>
+        <v>155422637</v>
       </c>
       <c r="F5" t="n">
         <v>151714.5836550535</v>
@@ -617,7 +617,7 @@
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>33913020</v>
+        <v>34120588</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49552044</v>
+        <v>49959869</v>
       </c>
       <c r="E6" t="n">
-        <v>61988337</v>
+        <v>62498515</v>
       </c>
       <c r="F6" t="n">
-        <v>7384.535493367242</v>
+        <v>11432.44915427324</v>
       </c>
       <c r="G6" t="n">
-        <v>9630.723538170279</v>
+        <v>8220.337335144293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="I6" t="n">
-        <v>521633</v>
+        <v>525324</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8795496</v>
+        <v>8771949</v>
       </c>
       <c r="E7" t="n">
-        <v>9017286</v>
+        <v>8993145</v>
       </c>
       <c r="F7" t="n">
-        <v>445.7695301733045</v>
+        <v>529.1254394745572</v>
       </c>
       <c r="G7" t="n">
-        <v>480.2427909023212</v>
+        <v>3913.204716295728</v>
       </c>
       <c r="H7" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="I7" t="n">
-        <v>45272</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68753627</v>
+        <v>68631462</v>
       </c>
       <c r="E8" t="n">
-        <v>136957028</v>
+        <v>136713677</v>
       </c>
       <c r="F8" t="n">
-        <v>49474.47696523637</v>
+        <v>47880.64729542555</v>
       </c>
       <c r="G8" t="n">
-        <v>22387.447482028</v>
+        <v>23011.52670139876</v>
       </c>
       <c r="H8" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1309571</v>
+        <v>1311775</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5236736</v>
+        <v>5222130</v>
       </c>
       <c r="E9" t="n">
-        <v>8366731</v>
+        <v>8343394</v>
       </c>
       <c r="F9" t="n">
-        <v>297.6101748534634</v>
+        <v>700.0848830220355</v>
       </c>
       <c r="G9" t="n">
-        <v>522.0260322007488</v>
+        <v>510.6830387042685</v>
       </c>
       <c r="H9" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>105131</v>
+        <v>104558</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14307062</v>
+        <v>14266072</v>
       </c>
       <c r="E10" t="n">
-        <v>42161989</v>
+        <v>42041193</v>
       </c>
       <c r="F10" t="n">
-        <v>2909.874455712676</v>
+        <v>2839.354087597668</v>
       </c>
       <c r="G10" t="n">
-        <v>4951.775688061426</v>
+        <v>5025.186793496744</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="I10" t="n">
-        <v>814931</v>
+        <v>817193</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>125261158</v>
+        <v>124800311</v>
       </c>
       <c r="E11" t="n">
-        <v>490986233</v>
+        <v>489179853</v>
       </c>
       <c r="F11" t="n">
-        <v>61700.41149657338</v>
+        <v>60349.17405531138</v>
       </c>
       <c r="G11" t="n">
-        <v>63163.53196015887</v>
+        <v>54444.48660285702</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>29772767</v>
+        <v>29943049</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7482498</v>
+        <v>7500831</v>
       </c>
       <c r="E12" t="n">
-        <v>32170756</v>
+        <v>32249579</v>
       </c>
       <c r="F12" t="n">
-        <v>2823.171585355103</v>
+        <v>3826.028779435476</v>
       </c>
       <c r="G12" t="n">
-        <v>3217.446322934892</v>
+        <v>4209.276779919288</v>
       </c>
       <c r="H12" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>682648</v>
+        <v>682336</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1003411</v>
+        <v>1002845</v>
       </c>
       <c r="E13" t="n">
-        <v>12279041</v>
+        <v>12272121</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0174642519606</v>
+        <v>271.0288168797898</v>
       </c>
       <c r="G13" t="n">
-        <v>203.7654639114074</v>
+        <v>203.7739994258349</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2184.5</v>
+        <v>2183.69</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>566765</v>
+        <v>565484</v>
       </c>
       <c r="E14" t="n">
-        <v>566765</v>
+        <v>565484</v>
       </c>
       <c r="F14" t="n">
-        <v>695.8726105924939</v>
+        <v>622.7804948593508</v>
       </c>
       <c r="G14" t="n">
-        <v>286.3745011591161</v>
+        <v>412.3639903981302</v>
       </c>
       <c r="H14" t="n">
         <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>23707</v>
+        <v>22385</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>556362636</v>
+        <v>554844450</v>
       </c>
       <c r="E15" t="n">
-        <v>695926967</v>
+        <v>694027943</v>
       </c>
       <c r="F15" t="n">
-        <v>384058.9544727796</v>
+        <v>368336.4742272094</v>
       </c>
       <c r="G15" t="n">
-        <v>491848.886398504</v>
+        <v>571307.3880483144</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>53622015</v>
+        <v>53523893</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3352458</v>
+        <v>3351420</v>
       </c>
       <c r="E16" t="n">
-        <v>9537448</v>
+        <v>9534493</v>
       </c>
       <c r="F16" t="n">
-        <v>179.9629719463843</v>
+        <v>186.0876213390205</v>
       </c>
       <c r="G16" t="n">
-        <v>80.01758538045559</v>
+        <v>578.9774373271118</v>
       </c>
       <c r="H16" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="I16" t="n">
-        <v>232840</v>
+        <v>222061</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>326290</v>
+        <v>326304</v>
       </c>
       <c r="E17" t="n">
-        <v>3766120</v>
+        <v>3766291</v>
       </c>
       <c r="F17" t="n">
-        <v>5.334317000228345</v>
+        <v>5.334351622063425</v>
       </c>
       <c r="G17" t="n">
-        <v>3.731012733376104</v>
+        <v>3.731036949129972</v>
       </c>
       <c r="H17" t="n">
         <v>0.38</v>
       </c>
       <c r="I17" t="n">
-        <v>4262.05</v>
+        <v>4896.7</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1357990</v>
+        <v>1354427</v>
       </c>
       <c r="E18" t="n">
-        <v>10416593</v>
+        <v>10389261</v>
       </c>
       <c r="F18" t="n">
-        <v>270.2661720950404</v>
+        <v>811.931541426523</v>
       </c>
       <c r="G18" t="n">
-        <v>140.8566933034418</v>
+        <v>70.77590311114793</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="I18" t="n">
-        <v>154281</v>
+        <v>151821</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22285679</v>
+        <v>22275550</v>
       </c>
       <c r="E19" t="n">
-        <v>22327405</v>
+        <v>22317258</v>
       </c>
       <c r="F19" t="n">
-        <v>666.8854915616066</v>
+        <v>637.2504651875656</v>
       </c>
       <c r="G19" t="n">
-        <v>827.8948946765455</v>
+        <v>1338.026387325152</v>
       </c>
       <c r="H19" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="I19" t="n">
-        <v>873386</v>
+        <v>870281</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3863516</v>
+        <v>3862202</v>
       </c>
       <c r="E20" t="n">
-        <v>21437072</v>
+        <v>21429781</v>
       </c>
       <c r="F20" t="n">
-        <v>19.13625674471733</v>
+        <v>19.13634986006307</v>
       </c>
       <c r="G20" t="n">
-        <v>4.002167176739847</v>
+        <v>4.002186650934061</v>
       </c>
       <c r="H20" t="n">
         <v>0.91</v>
       </c>
       <c r="I20" t="n">
-        <v>43832</v>
+        <v>43578</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6899646</v>
+        <v>6890839</v>
       </c>
       <c r="E21" t="n">
-        <v>12800299</v>
+        <v>12783960</v>
       </c>
       <c r="F21" t="n">
-        <v>423.5174212011532</v>
+        <v>565.79959393263</v>
       </c>
       <c r="G21" t="n">
-        <v>202.5840586398473</v>
+        <v>55.40120445250024</v>
       </c>
       <c r="H21" t="n">
-        <v>0.93</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>51176</v>
+        <v>51659</v>
       </c>
     </row>
     <row r="22">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72918840</v>
+        <v>72681274</v>
       </c>
       <c r="E22" t="n">
-        <v>126314065</v>
+        <v>125902540</v>
       </c>
       <c r="F22" t="n">
         <v>367.2628975413258</v>
@@ -1212,7 +1212,7 @@
         <v>0.12</v>
       </c>
       <c r="I22" t="n">
-        <v>741145</v>
+        <v>708065</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>178865</v>
+        <v>179145</v>
       </c>
       <c r="E23" t="n">
-        <v>537940</v>
+        <v>538781</v>
       </c>
       <c r="F23" t="n">
-        <v>201.9377958776522</v>
+        <v>201.9393373684509</v>
       </c>
       <c r="G23" t="n">
-        <v>4.032510326774705</v>
+        <v>4.032541108915003</v>
       </c>
       <c r="H23" t="n">
         <v>0.55</v>
       </c>
       <c r="I23" t="n">
-        <v>117.53</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82766547</v>
+        <v>82251351</v>
       </c>
       <c r="E24" t="n">
-        <v>243509446</v>
+        <v>241993675</v>
       </c>
       <c r="F24" t="n">
-        <v>39.57088300739579</v>
+        <v>39.43459391887328</v>
       </c>
       <c r="G24" t="n">
-        <v>512.3109138430369</v>
+        <v>470.4404341972875</v>
       </c>
       <c r="H24" t="n">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
       <c r="I24" t="n">
-        <v>408270</v>
+        <v>407809</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6869204</v>
+        <v>6927994</v>
       </c>
       <c r="F25" t="n">
-        <v>14.17599147325737</v>
+        <v>12.97582607502782</v>
       </c>
       <c r="G25" t="n">
-        <v>4.187717208587363</v>
+        <v>4.187749175498343</v>
       </c>
       <c r="H25" t="n">
         <v>0.57</v>
       </c>
       <c r="I25" t="n">
-        <v>27549</v>
+        <v>28028</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2443482</v>
+        <v>2439779</v>
       </c>
       <c r="E26" t="n">
-        <v>2443482</v>
+        <v>2439779</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>22.83</v>
+        <v>16.48</v>
       </c>
       <c r="I26" t="n">
-        <v>314278</v>
+        <v>314669</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18301277</v>
+        <v>17869618</v>
       </c>
       <c r="E27" t="n">
-        <v>23555246</v>
+        <v>22999665</v>
       </c>
       <c r="F27" t="n">
-        <v>559.0485869848837</v>
+        <v>571.243040281202</v>
       </c>
       <c r="G27" t="n">
-        <v>4522.541767969245</v>
+        <v>2701.308182235859</v>
       </c>
       <c r="H27" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I27" t="n">
-        <v>2038967</v>
+        <v>2093561</v>
       </c>
     </row>
     <row r="28">
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4664859</v>
+        <v>4659094</v>
       </c>
       <c r="E28" t="n">
-        <v>4664859</v>
+        <v>4659094</v>
       </c>
       <c r="F28" t="n">
         <v>1204.736235621939</v>
@@ -1422,7 +1422,7 @@
         <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>1967427</v>
+        <v>1966475</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1774201</v>
+        <v>1729549</v>
       </c>
       <c r="F29" t="n">
-        <v>51.36266168766783</v>
+        <v>63.43958167967491</v>
       </c>
       <c r="G29" t="n">
-        <v>35.6010222911043</v>
+        <v>515.2392936538652</v>
       </c>
       <c r="H29" t="n">
-        <v>2.49</v>
+        <v>2.73</v>
       </c>
       <c r="I29" t="n">
-        <v>110035</v>
+        <v>110448</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3359631</v>
+        <v>3354918</v>
       </c>
       <c r="E30" t="n">
-        <v>3359631</v>
+        <v>3354918</v>
       </c>
       <c r="F30" t="n">
-        <v>472.7643514784958</v>
+        <v>607.6654186503822</v>
       </c>
       <c r="G30" t="n">
-        <v>693.9779014403244</v>
+        <v>692.2358117113428</v>
       </c>
       <c r="H30" t="n">
         <v>0.27</v>
       </c>
       <c r="I30" t="n">
-        <v>531481</v>
+        <v>530970</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>315605</v>
+        <v>317217</v>
       </c>
       <c r="E31" t="n">
-        <v>1473274</v>
+        <v>1480801</v>
       </c>
       <c r="F31" t="n">
-        <v>118.0114540048259</v>
+        <v>28.93681164873438</v>
       </c>
       <c r="G31" t="n">
-        <v>220.0136107624506</v>
+        <v>69.75661917913303</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="I31" t="n">
-        <v>623968</v>
+        <v>628378</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>343795</v>
+        <v>397544</v>
       </c>
       <c r="E32" t="n">
-        <v>343795</v>
+        <v>397544</v>
       </c>
       <c r="F32" t="n">
-        <v>4.260729580438204</v>
+        <v>66.34907087211624</v>
       </c>
       <c r="G32" t="n">
-        <v>270.7979462435847</v>
+        <v>5.374308717270527</v>
       </c>
       <c r="H32" t="n">
-        <v>0.55</v>
+        <v>1.02</v>
       </c>
       <c r="I32" t="n">
-        <v>48194</v>
+        <v>59493</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1843479</v>
+        <v>1838059</v>
       </c>
       <c r="F33" t="n">
-        <v>52.38924747450017</v>
+        <v>52.38964738746634</v>
       </c>
       <c r="G33" t="n">
-        <v>10.01835548442657</v>
+        <v>10.01843195947538</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1362536</v>
+        <v>774600</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1610912</v>
+        <v>1581659</v>
       </c>
       <c r="F34" t="n">
-        <v>96.61493957538734</v>
+        <v>405.6711005473269</v>
       </c>
       <c r="G34" t="n">
-        <v>187.4553557281067</v>
+        <v>79.9655592986978</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>220968</v>
+        <v>186813</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12916572</v>
+        <v>12906961</v>
       </c>
       <c r="E35" t="n">
-        <v>32147011</v>
+        <v>32123090</v>
       </c>
       <c r="F35" t="n">
-        <v>1132.369811949799</v>
+        <v>1101.856986760624</v>
       </c>
       <c r="G35" t="n">
-        <v>1182.915804513867</v>
+        <v>1184.038243538248</v>
       </c>
       <c r="H35" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="I35" t="n">
-        <v>1598161</v>
+        <v>1595513</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6702184</v>
+        <v>6696551</v>
       </c>
       <c r="E36" t="n">
-        <v>9230620</v>
+        <v>9222862</v>
       </c>
       <c r="F36" t="n">
-        <v>802.4617963746164</v>
+        <v>885.6288209227494</v>
       </c>
       <c r="G36" t="n">
-        <v>8.602831041213546</v>
+        <v>46.68799480529221</v>
       </c>
       <c r="H36" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>838353</v>
+        <v>837615</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>915792</v>
+        <v>922173</v>
       </c>
       <c r="E37" t="n">
-        <v>6410547</v>
+        <v>6455211</v>
       </c>
       <c r="F37" t="n">
-        <v>61.85193135675307</v>
+        <v>70.32273824754432</v>
       </c>
       <c r="G37" t="n">
-        <v>666.203798378632</v>
+        <v>651.0767073420581</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="I37" t="n">
-        <v>227575</v>
+        <v>177025</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>112830114</v>
+        <v>111658896</v>
       </c>
       <c r="E38" t="n">
-        <v>439248718</v>
+        <v>434689154</v>
       </c>
       <c r="F38" t="n">
-        <v>10506.37608548219</v>
+        <v>11348.06607060252</v>
       </c>
       <c r="G38" t="n">
-        <v>24584.07685130592</v>
+        <v>26147.72180609786</v>
       </c>
       <c r="H38" t="n">
         <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>9565922</v>
+        <v>9233865</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5683484</v>
+        <v>5413024</v>
       </c>
       <c r="E39" t="n">
-        <v>5955382</v>
+        <v>5671983</v>
       </c>
       <c r="F39" t="n">
-        <v>2423.730983393222</v>
+        <v>74.21226251279502</v>
       </c>
       <c r="G39" t="n">
-        <v>225.8350931697685</v>
+        <v>556.3514605129246</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>131497</v>
+        <v>176713</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5506705</v>
+        <v>5443531</v>
       </c>
       <c r="E40" t="n">
-        <v>8106169</v>
+        <v>8013173</v>
       </c>
       <c r="F40" t="n">
-        <v>285.9070750196748</v>
+        <v>1900.3720486465</v>
       </c>
       <c r="G40" t="n">
-        <v>2662.835759725801</v>
+        <v>1340.116943005302</v>
       </c>
       <c r="H40" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="I40" t="n">
-        <v>626080</v>
+        <v>619816</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7669921</v>
+        <v>7673116</v>
       </c>
       <c r="E41" t="n">
-        <v>7669921</v>
+        <v>7673116</v>
       </c>
       <c r="F41" t="n">
-        <v>1471.140366484355</v>
+        <v>2097.560659990348</v>
       </c>
       <c r="G41" t="n">
-        <v>2331.823004159058</v>
+        <v>2379.06456209276</v>
       </c>
       <c r="H41" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I41" t="n">
-        <v>232827</v>
+        <v>285362</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1483719</v>
+        <v>1441669</v>
       </c>
       <c r="E42" t="n">
-        <v>1483719</v>
+        <v>1441703</v>
       </c>
       <c r="F42" t="n">
-        <v>508.1222868260627</v>
+        <v>0.01002928655799591</v>
       </c>
       <c r="G42" t="n">
-        <v>45.56531783746499</v>
+        <v>223.4025212165522</v>
       </c>
       <c r="H42" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>273048</v>
+        <v>277506</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16538874</v>
+        <v>16531252</v>
       </c>
       <c r="F43" t="n">
-        <v>261.6252219968006</v>
+        <v>248.083817123074</v>
       </c>
       <c r="G43" t="n">
-        <v>520.1256077345427</v>
+        <v>454.4516610389908</v>
       </c>
       <c r="H43" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="I43" t="n">
-        <v>10606.23</v>
+        <v>10598.43</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>137014516</v>
+        <v>136481885</v>
       </c>
       <c r="E44" t="n">
-        <v>137014516</v>
+        <v>136481885</v>
       </c>
       <c r="F44" t="n">
-        <v>240843.8308131633</v>
+        <v>413542.5622303929</v>
       </c>
       <c r="G44" t="n">
-        <v>357655.0707265696</v>
+        <v>432680.8666698679</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>65921095</v>
+        <v>65889225</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65138432</v>
+        <v>64878745</v>
       </c>
       <c r="E45" t="n">
-        <v>334043242</v>
+        <v>332711510</v>
       </c>
       <c r="F45" t="n">
-        <v>54920.398696489</v>
+        <v>56917.41667815387</v>
       </c>
       <c r="G45" t="n">
-        <v>70059.24042660433</v>
+        <v>69033.78301935195</v>
       </c>
       <c r="H45" t="n">
         <v>0.13</v>
       </c>
       <c r="I45" t="n">
-        <v>18363420</v>
+        <v>18907884</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>598623</v>
+        <v>598183</v>
       </c>
       <c r="F46" t="n">
-        <v>40.99754841181667</v>
+        <v>68.93039711033262</v>
       </c>
       <c r="G46" t="n">
-        <v>751.4961494186401</v>
+        <v>220.1349007379647</v>
       </c>
       <c r="H46" t="n">
-        <v>0.39</v>
+        <v>0.7</v>
       </c>
       <c r="I46" t="n">
-        <v>824</v>
+        <v>831.04</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2725229</v>
+        <v>2721889</v>
       </c>
       <c r="E47" t="n">
-        <v>10952074</v>
+        <v>10938654</v>
       </c>
       <c r="F47" t="n">
-        <v>59.94448274871815</v>
+        <v>59.56952620597678</v>
       </c>
       <c r="G47" t="n">
-        <v>157.6087636077581</v>
+        <v>154.1515178131644</v>
       </c>
       <c r="H47" t="n">
-        <v>1.79</v>
+        <v>0.9</v>
       </c>
       <c r="I47" t="n">
-        <v>24990</v>
+        <v>24848</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17487594</v>
+        <v>17461516</v>
       </c>
       <c r="E48" t="n">
-        <v>123274122</v>
+        <v>123090292</v>
       </c>
       <c r="F48" t="n">
-        <v>1429.818126138985</v>
+        <v>1339.553359865469</v>
       </c>
       <c r="G48" t="n">
-        <v>624.9079223660373</v>
+        <v>791.8557040281179</v>
       </c>
       <c r="H48" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="I48" t="n">
-        <v>1039068</v>
+        <v>1037712</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1032704</v>
+        <v>1035455</v>
       </c>
       <c r="E49" t="n">
-        <v>1212147</v>
+        <v>1215377</v>
       </c>
       <c r="F49" t="n">
-        <v>1364.683281506258</v>
+        <v>1234.667632766563</v>
       </c>
       <c r="G49" t="n">
-        <v>2957.590476261061</v>
+        <v>2957.606266338497</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>239900</v>
+        <v>237169</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>147257</v>
+        <v>148182</v>
       </c>
       <c r="E50" t="n">
-        <v>1970386</v>
+        <v>1982757</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46802</v>
+        <v>46384</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>254285737</v>
+        <v>253197327</v>
       </c>
       <c r="E51" t="n">
-        <v>254285737</v>
+        <v>253197327</v>
       </c>
       <c r="F51" t="n">
-        <v>23625.29613313259</v>
+        <v>34174.87941754462</v>
       </c>
       <c r="G51" t="n">
-        <v>35689.74696542531</v>
+        <v>26765.32290632234</v>
       </c>
       <c r="H51" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="I51" t="n">
-        <v>14854957</v>
+        <v>14864431</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1122317</v>
+        <v>1123963</v>
       </c>
       <c r="F52" t="n">
-        <v>28.33524084529246</v>
+        <v>28.33515847816344</v>
       </c>
       <c r="G52" t="n">
-        <v>641.8921031711359</v>
+        <v>641.8902372681788</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>190898</v>
+        <v>191141</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>116395</v>
+        <v>115990</v>
       </c>
       <c r="E54" t="n">
-        <v>116395</v>
+        <v>115990</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>14.05</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6711512</v>
+        <v>6703517</v>
       </c>
       <c r="E55" t="n">
-        <v>16301745</v>
+        <v>16282327</v>
       </c>
       <c r="F55" t="n">
-        <v>39.86628612607378</v>
+        <v>39.86659044509922</v>
       </c>
       <c r="G55" t="n">
-        <v>1603.587573823619</v>
+        <v>1988.200435054804</v>
       </c>
       <c r="H55" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="I55" t="n">
-        <v>453959</v>
+        <v>455645</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>461155316</v>
+        <v>462524114</v>
       </c>
       <c r="E56" t="n">
-        <v>461155316</v>
+        <v>462524114</v>
       </c>
       <c r="F56" t="n">
-        <v>3890.591190495674</v>
+        <v>11870.16150657946</v>
       </c>
       <c r="G56" t="n">
-        <v>3212.323821708773</v>
+        <v>2884.430787897558</v>
       </c>
       <c r="H56" t="n">
         <v>0.04</v>
       </c>
       <c r="I56" t="n">
-        <v>3303158</v>
+        <v>3274510</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2520106</v>
+        <v>2447142</v>
       </c>
       <c r="E57" t="n">
-        <v>2520106</v>
+        <v>2447142</v>
       </c>
       <c r="F57" t="n">
-        <v>4.04300649115435</v>
+        <v>5.308529985844309</v>
       </c>
       <c r="G57" t="n">
-        <v>5.54726330979403</v>
+        <v>5.591327363938839</v>
       </c>
       <c r="H57" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>110139</v>
+        <v>60317</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>151471191</v>
+        <v>150102144</v>
       </c>
       <c r="E58" t="n">
-        <v>199318373</v>
+        <v>197516867</v>
       </c>
       <c r="F58" t="n">
-        <v>9077.143337183474</v>
+        <v>11134.6905719578</v>
       </c>
       <c r="G58" t="n">
-        <v>13062.09381560243</v>
+        <v>19829.29364400042</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="I58" t="n">
-        <v>7891168</v>
+        <v>7997884</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1115798</v>
+        <v>1114221</v>
       </c>
       <c r="E59" t="n">
-        <v>12126073</v>
+        <v>12108939</v>
       </c>
       <c r="F59" t="n">
-        <v>779.1147357131105</v>
+        <v>779.1124709205043</v>
       </c>
       <c r="G59" t="n">
-        <v>3.990016399091972</v>
+        <v>3.990004800595338</v>
       </c>
       <c r="H59" t="n">
         <v>0.49</v>
       </c>
       <c r="I59" t="n">
-        <v>29379</v>
+        <v>29378</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2539254</v>
+        <v>2532599</v>
       </c>
       <c r="E60" t="n">
-        <v>6491822</v>
+        <v>6474809</v>
       </c>
       <c r="F60" t="n">
-        <v>145.3656685364624</v>
+        <v>205.9975454972723</v>
       </c>
       <c r="G60" t="n">
-        <v>186.4904416408641</v>
+        <v>218.0404664192747</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.76</v>
       </c>
       <c r="I60" t="n">
-        <v>118539</v>
+        <v>117726</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>73059741</v>
+        <v>73002084</v>
       </c>
       <c r="E61" t="n">
-        <v>204516079</v>
+        <v>204350841</v>
       </c>
       <c r="F61" t="n">
-        <v>81264.34501729047</v>
+        <v>75459.07772415286</v>
       </c>
       <c r="G61" t="n">
-        <v>82615.78820235204</v>
+        <v>92899.51855008732</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I61" t="n">
-        <v>32993021</v>
+        <v>32980608</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74291151</v>
+        <v>73597204</v>
       </c>
       <c r="E62" t="n">
-        <v>74291151</v>
+        <v>73597204</v>
       </c>
       <c r="F62" t="n">
-        <v>3789.10597088085</v>
+        <v>2556.744516524317</v>
       </c>
       <c r="G62" t="n">
-        <v>4818.363567230432</v>
+        <v>5113.391310386884</v>
       </c>
       <c r="H62" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="I62" t="n">
-        <v>4103261</v>
+        <v>4085493</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4227546</v>
+        <v>4220947</v>
       </c>
       <c r="E63" t="n">
-        <v>8337077</v>
+        <v>8324063</v>
       </c>
       <c r="F63" t="n">
-        <v>1946.424981640708</v>
+        <v>2601.727125706494</v>
       </c>
       <c r="G63" t="n">
-        <v>1461.486364672553</v>
+        <v>1361.436709722968</v>
       </c>
       <c r="H63" t="n">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
       <c r="I63" t="n">
-        <v>1649792</v>
+        <v>1644492</v>
       </c>
     </row>
     <row r="64">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1573471</v>
+        <v>1584438</v>
       </c>
       <c r="E64" t="n">
-        <v>9034282</v>
+        <v>9097251</v>
       </c>
       <c r="F64" t="n">
         <v>332.5050519238056</v>
@@ -2678,7 +2678,7 @@
         <v>0.5</v>
       </c>
       <c r="I64" t="n">
-        <v>307692</v>
+        <v>327170</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>566051</v>
+        <v>565086</v>
       </c>
       <c r="F65" t="n">
-        <v>4.049118190511186</v>
+        <v>5.472218857870054</v>
       </c>
       <c r="G65" t="n">
-        <v>4.720673920633192</v>
+        <v>3.475865113300615</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="I65" t="n">
-        <v>2323.81</v>
+        <v>2323.68</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31989617</v>
+        <v>31945218</v>
       </c>
       <c r="F66" t="n">
-        <v>818.7417635646162</v>
+        <v>322.0389928232202</v>
       </c>
       <c r="G66" t="n">
-        <v>381.2614137347897</v>
+        <v>351.208417826527</v>
       </c>
       <c r="H66" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="I66" t="n">
-        <v>251131</v>
+        <v>250904</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>152572</v>
+        <v>153660</v>
       </c>
       <c r="E67" t="n">
-        <v>1030336</v>
+        <v>1037683</v>
       </c>
       <c r="F67" t="n">
-        <v>63.41087676474142</v>
+        <v>68.9979654844371</v>
       </c>
       <c r="G67" t="n">
-        <v>5.576053977379594</v>
+        <v>5.576083746992661</v>
       </c>
       <c r="H67" t="n">
         <v>0.48</v>
       </c>
       <c r="I67" t="n">
-        <v>2675187</v>
+        <v>2677965</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7547687</v>
+        <v>7537386</v>
       </c>
       <c r="E68" t="n">
-        <v>17776304</v>
+        <v>17752041</v>
       </c>
       <c r="F68" t="n">
-        <v>1498.106864236707</v>
+        <v>1307.236467339027</v>
       </c>
       <c r="G68" t="n">
-        <v>2822.97985164179</v>
+        <v>2747.945086203631</v>
       </c>
       <c r="H68" t="n">
-        <v>0.84</v>
+        <v>1.23</v>
       </c>
       <c r="I68" t="n">
-        <v>31537</v>
+        <v>32496</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2948715</v>
+        <v>2931979</v>
       </c>
       <c r="E69" t="n">
-        <v>2948715</v>
+        <v>2931979</v>
       </c>
       <c r="F69" t="n">
-        <v>323.7890396712347</v>
+        <v>116.5142754108134</v>
       </c>
       <c r="G69" t="n">
-        <v>5.331444764566051</v>
+        <v>386.1825176597636</v>
       </c>
       <c r="H69" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="I69" t="n">
-        <v>17574.11</v>
+        <v>16046.19</v>
       </c>
     </row>
     <row r="70">
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3371906</v>
+        <v>3369494</v>
       </c>
       <c r="E70" t="n">
-        <v>8320007</v>
+        <v>8314055</v>
       </c>
       <c r="F70" t="n">
         <v>1121.011124813513</v>
@@ -2888,7 +2888,7 @@
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>54215</v>
+        <v>55580</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23287751</v>
+        <v>23197393</v>
       </c>
       <c r="F71" t="n">
-        <v>146.8046165797591</v>
+        <v>146.8055694000028</v>
       </c>
       <c r="G71" t="n">
-        <v>109.5957236779461</v>
+        <v>108.5712291758419</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="I71" t="n">
-        <v>117536</v>
+        <v>117475</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>269825</v>
+        <v>269663</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2348.7</v>
+        <v>2358.29</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>73359828</v>
+        <v>73166044</v>
       </c>
       <c r="E73" t="n">
-        <v>152992495</v>
+        <v>152588357</v>
       </c>
       <c r="F73" t="n">
-        <v>14790.45862661629</v>
+        <v>18649.79349073968</v>
       </c>
       <c r="G73" t="n">
-        <v>6859.016879718138</v>
+        <v>3479.535425960168</v>
       </c>
       <c r="H73" t="n">
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
       <c r="I73" t="n">
-        <v>14344470</v>
+        <v>14383239</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>205985965</v>
+        <v>206804543</v>
       </c>
       <c r="F75" t="n">
-        <v>27809.06226591039</v>
+        <v>29824.09437139067</v>
       </c>
       <c r="G75" t="n">
-        <v>11035.8355700336</v>
+        <v>5753.612699179427</v>
       </c>
       <c r="H75" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="I75" t="n">
-        <v>3272916</v>
+        <v>3254052</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>83314679</v>
+        <v>83158008</v>
       </c>
       <c r="E76" t="n">
-        <v>114404020</v>
+        <v>114188887</v>
       </c>
       <c r="F76" t="n">
-        <v>1484.82339145544</v>
+        <v>1534.099763790933</v>
       </c>
       <c r="G76" t="n">
-        <v>8053.457198661543</v>
+        <v>7491.34027077168</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="I76" t="n">
-        <v>975129</v>
+        <v>967529</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>185015</v>
+        <v>184886</v>
       </c>
       <c r="E77" t="n">
-        <v>193208</v>
+        <v>193073</v>
       </c>
       <c r="F77" t="n">
-        <v>5.461772392374721</v>
+        <v>5.461814084777328</v>
       </c>
       <c r="G77" t="n">
-        <v>3.121689246330949</v>
+        <v>3.121713075724692</v>
       </c>
       <c r="H77" t="n">
         <v>0.93</v>
       </c>
       <c r="I77" t="n">
-        <v>432.86</v>
+        <v>432.6</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8385475</v>
+        <v>8059631</v>
       </c>
       <c r="E78" t="n">
-        <v>9224583</v>
+        <v>8866133</v>
       </c>
       <c r="F78" t="n">
-        <v>34.6012428419571</v>
+        <v>187.7765494415222</v>
       </c>
       <c r="G78" t="n">
-        <v>263.7649219987753</v>
+        <v>840.4223200413821</v>
       </c>
       <c r="H78" t="n">
-        <v>2.11</v>
+        <v>1.49</v>
       </c>
       <c r="I78" t="n">
-        <v>727108</v>
+        <v>724644</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28337620</v>
+        <v>28109511</v>
       </c>
       <c r="E79" t="n">
-        <v>28337620</v>
+        <v>28109511</v>
       </c>
       <c r="F79" t="n">
-        <v>87.27487907863524</v>
+        <v>87.27554529083426</v>
       </c>
       <c r="G79" t="n">
-        <v>1034.466100658092</v>
+        <v>1010.058258706601</v>
       </c>
       <c r="H79" t="n">
         <v>0.49</v>
       </c>
       <c r="I79" t="n">
-        <v>274260</v>
+        <v>274335</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>277125645</v>
+        <v>277655005</v>
       </c>
       <c r="E80" t="n">
-        <v>277125645</v>
+        <v>277655005</v>
       </c>
       <c r="F80" t="n">
-        <v>3041.908576267413</v>
+        <v>586.1252966326065</v>
       </c>
       <c r="G80" t="n">
-        <v>1801.973751366708</v>
+        <v>2800.717975466667</v>
       </c>
       <c r="H80" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I80" t="n">
-        <v>10011148</v>
+        <v>10101810</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>628620934</v>
+        <v>630330644</v>
       </c>
       <c r="E81" t="n">
-        <v>628620934</v>
+        <v>630330644</v>
       </c>
       <c r="F81" t="n">
-        <v>1275125.542055928</v>
+        <v>605912.7685343891</v>
       </c>
       <c r="G81" t="n">
-        <v>1439492.949286108</v>
+        <v>1059118.317239214</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I81" t="n">
-        <v>255561416</v>
+        <v>257711784</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>118549</v>
+        <v>119119</v>
       </c>
       <c r="E82" t="n">
-        <v>118549</v>
+        <v>119119</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>189.04</v>
+        <v>157.57</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>198559848</v>
+        <v>198234800</v>
       </c>
       <c r="E83" t="n">
-        <v>689814858</v>
+        <v>688685611</v>
       </c>
       <c r="F83" t="n">
-        <v>1457.925418150861</v>
+        <v>697.2505411869683</v>
       </c>
       <c r="G83" t="n">
-        <v>1870.841694435107</v>
+        <v>1300.048640435356</v>
       </c>
       <c r="H83" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="I83" t="n">
-        <v>25988910</v>
+        <v>25964689</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4074308</v>
+        <v>4328943</v>
       </c>
       <c r="E84" t="n">
-        <v>4074308</v>
+        <v>4328943</v>
       </c>
       <c r="F84" t="n">
-        <v>732.1163932613395</v>
+        <v>758.769809261151</v>
       </c>
       <c r="G84" t="n">
-        <v>1899.45481754691</v>
+        <v>1235.545968071203</v>
       </c>
       <c r="H84" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I84" t="n">
-        <v>3555805</v>
+        <v>3625402</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>115240186</v>
+        <v>114896555</v>
       </c>
       <c r="E85" t="n">
-        <v>490208157</v>
+        <v>488725067</v>
       </c>
       <c r="F85" t="n">
-        <v>363838.8397508487</v>
+        <v>312446.2594989994</v>
       </c>
       <c r="G85" t="n">
-        <v>433994.7018417461</v>
+        <v>475777.8037748805</v>
       </c>
       <c r="H85" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="I85" t="n">
-        <v>13810792</v>
+        <v>13853663</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71771292</v>
+        <v>71257204</v>
       </c>
       <c r="E86" t="n">
-        <v>82348416</v>
+        <v>81758565</v>
       </c>
       <c r="F86" t="n">
-        <v>21605.39593775877</v>
+        <v>15791.88643288973</v>
       </c>
       <c r="G86" t="n">
-        <v>11562.08748678151</v>
+        <v>10036.33929482999</v>
       </c>
       <c r="H86" t="n">
         <v>0.3</v>
       </c>
       <c r="I86" t="n">
-        <v>1199599</v>
+        <v>1181746</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3150103</v>
+        <v>3148969</v>
       </c>
       <c r="E87" t="n">
-        <v>15793901</v>
+        <v>15788216</v>
       </c>
       <c r="F87" t="n">
-        <v>5.426376007306062</v>
+        <v>4.112049147759858</v>
       </c>
       <c r="G87" t="n">
-        <v>4.047699015554389</v>
+        <v>3.973404626675372</v>
       </c>
       <c r="H87" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>31432</v>
+        <v>31789</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>525046</v>
+        <v>522392</v>
       </c>
       <c r="E88" t="n">
-        <v>8980883</v>
+        <v>8935483</v>
       </c>
       <c r="F88" t="n">
-        <v>1404.790698873362</v>
+        <v>1341.960483622167</v>
       </c>
       <c r="G88" t="n">
-        <v>105.6009108937117</v>
+        <v>5.39666237480612</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I88" t="n">
-        <v>290889</v>
+        <v>280246</v>
       </c>
     </row>
     <row r="89">
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5692012</v>
+        <v>5969303</v>
       </c>
       <c r="E89" t="n">
-        <v>7733925</v>
+        <v>8110993</v>
       </c>
       <c r="F89" t="n">
         <v>1177.874765818878</v>
@@ -3541,7 +3541,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I89" t="n">
-        <v>1376956</v>
+        <v>1377732</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40398139</v>
+        <v>40471393</v>
       </c>
       <c r="E90" t="n">
-        <v>47184067</v>
+        <v>47269626</v>
       </c>
       <c r="F90" t="n">
-        <v>741.9857497597578</v>
+        <v>677.6366732407043</v>
       </c>
       <c r="G90" t="n">
-        <v>26.38521870690284</v>
+        <v>26.41131784089983</v>
       </c>
       <c r="H90" t="n">
-        <v>0.13</v>
+        <v>0.62</v>
       </c>
       <c r="I90" t="n">
-        <v>847751</v>
+        <v>849425</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14458670</v>
+        <v>14464442</v>
       </c>
       <c r="F91" t="n">
-        <v>220.6649180015868</v>
+        <v>113.3987751290035</v>
       </c>
       <c r="G91" t="n">
-        <v>221.3226278359864</v>
+        <v>257.5873208375606</v>
       </c>
       <c r="H91" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="I91" t="n">
-        <v>428960</v>
+        <v>421606</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35401558</v>
+        <v>35460104</v>
       </c>
       <c r="E92" t="n">
-        <v>35401558</v>
+        <v>35460104</v>
       </c>
       <c r="F92" t="n">
-        <v>126.6206599643969</v>
+        <v>176.457267444432</v>
       </c>
       <c r="G92" t="n">
-        <v>79.20754564860674</v>
+        <v>748.3049462821792</v>
       </c>
       <c r="H92" t="n">
-        <v>1.68</v>
+        <v>0.49</v>
       </c>
       <c r="I92" t="n">
-        <v>754710</v>
+        <v>755967</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17354853</v>
+        <v>17351055</v>
       </c>
       <c r="F93" t="n">
-        <v>125.3530232461613</v>
+        <v>124.5200934826238</v>
       </c>
       <c r="G93" t="n">
-        <v>446.9481858447484</v>
+        <v>461.8616033035229</v>
       </c>
       <c r="H93" t="n">
         <v>0.4</v>
       </c>
       <c r="I93" t="n">
-        <v>171550</v>
+        <v>172121</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>536682</v>
+        <v>539503</v>
       </c>
       <c r="E94" t="n">
-        <v>6509436</v>
+        <v>6543647</v>
       </c>
       <c r="F94" t="n">
-        <v>968.8277163896471</v>
+        <v>541.9189464292344</v>
       </c>
       <c r="G94" t="n">
-        <v>1823.172593793937</v>
+        <v>2427.420211931118</v>
       </c>
       <c r="H94" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="I94" t="n">
-        <v>2758512</v>
+        <v>2763960</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25137737</v>
+        <v>25103839</v>
       </c>
       <c r="E95" t="n">
-        <v>35531210</v>
+        <v>35483297</v>
       </c>
       <c r="F95" t="n">
-        <v>5.535031084115814</v>
+        <v>38.41746959104162</v>
       </c>
       <c r="G95" t="n">
-        <v>139.4755497056632</v>
+        <v>4.088297830723564</v>
       </c>
       <c r="H95" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="I95" t="n">
-        <v>64106</v>
+        <v>74968</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1302988941</v>
+        <v>1301304652</v>
       </c>
       <c r="E96" t="n">
-        <v>6248098817</v>
+        <v>6240022309</v>
       </c>
       <c r="F96" t="n">
-        <v>588999.4003088179</v>
+        <v>446310.4222815952</v>
       </c>
       <c r="G96" t="n">
-        <v>497514.6159894328</v>
+        <v>512436.5270976535</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>178119011</v>
+        <v>178867083</v>
       </c>
     </row>
     <row r="97">
@@ -3806,10 +3806,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>267680819</v>
+        <v>267040847</v>
       </c>
       <c r="E97" t="n">
-        <v>1155459014</v>
+        <v>1152696540</v>
       </c>
       <c r="F97" t="n">
         <v>251476.1248643134</v>
@@ -3821,7 +3821,7 @@
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>111013924</v>
+        <v>110799571</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5019922</v>
+        <v>5036976</v>
       </c>
       <c r="E98" t="n">
-        <v>5563074</v>
+        <v>5581972</v>
       </c>
       <c r="F98" t="n">
-        <v>1102.872029788302</v>
+        <v>1128.692304712619</v>
       </c>
       <c r="G98" t="n">
-        <v>407.4613512134204</v>
+        <v>406.5713637488643</v>
       </c>
       <c r="H98" t="n">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="I98" t="n">
-        <v>684259</v>
+        <v>673450</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93445</v>
+        <v>93399</v>
       </c>
       <c r="E99" t="n">
-        <v>93445</v>
+        <v>93399</v>
       </c>
       <c r="F99" t="n">
-        <v>94.47535761584994</v>
+        <v>94.71780848002587</v>
       </c>
       <c r="G99" t="n">
-        <v>4.191510084220755</v>
+        <v>4.19149790000627</v>
       </c>
       <c r="H99" t="n">
         <v>0.36</v>
       </c>
       <c r="I99" t="n">
-        <v>5377.11</v>
+        <v>5336.78</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114510000</v>
+        <v>114561609</v>
       </c>
       <c r="E100" t="n">
-        <v>114510000</v>
+        <v>114561609</v>
       </c>
       <c r="F100" t="n">
-        <v>23632.4537566192</v>
+        <v>8361.054175524836</v>
       </c>
       <c r="G100" t="n">
-        <v>14127.21040112841</v>
+        <v>14142.63504353298</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6030067</v>
+        <v>5990394</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3773901</v>
+        <v>3764056</v>
       </c>
       <c r="F101" t="n">
-        <v>2204.040510196612</v>
+        <v>2105.162428384169</v>
       </c>
       <c r="G101" t="n">
-        <v>1176.344973298833</v>
+        <v>1324.6221161807</v>
       </c>
       <c r="H101" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>296775</v>
+        <v>298464</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2046962623</v>
+        <v>2039111137</v>
       </c>
       <c r="E102" t="n">
-        <v>2046962623</v>
+        <v>2039111137</v>
       </c>
       <c r="F102" t="n">
-        <v>7131352.455298882</v>
+        <v>7133092.040246302</v>
       </c>
       <c r="G102" t="n">
-        <v>5417478.038324135</v>
+        <v>5446805.419868085</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5314296198</v>
+        <v>5234230954</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5355029</v>
+        <v>5360119</v>
       </c>
       <c r="E103" t="n">
-        <v>5361090</v>
+        <v>5366186</v>
       </c>
       <c r="F103" t="n">
-        <v>261.0783706031045</v>
+        <v>261.0779779812494</v>
       </c>
       <c r="G103" t="n">
-        <v>83.54845630169542</v>
+        <v>83.54833065762227</v>
       </c>
       <c r="H103" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>150723</v>
+        <v>152840</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2347972</v>
+        <v>2341670</v>
       </c>
       <c r="F104" t="n">
-        <v>310.7320629912439</v>
+        <v>5.109743188333749</v>
       </c>
       <c r="G104" t="n">
-        <v>3.873387949830108</v>
+        <v>240.6528633320566</v>
       </c>
       <c r="H104" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>64241</v>
+        <v>63999</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4404581</v>
+        <v>4395826</v>
       </c>
       <c r="E105" t="n">
-        <v>5782640</v>
+        <v>5771146</v>
       </c>
       <c r="F105" t="n">
-        <v>10947.96356599922</v>
+        <v>10897.74494034024</v>
       </c>
       <c r="G105" t="n">
-        <v>12143.83091179421</v>
+        <v>4342.899973024219</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>595413</v>
+        <v>598119</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20163861</v>
+        <v>20107947</v>
       </c>
       <c r="F106" t="n">
-        <v>61.34505337300359</v>
+        <v>133.020313854159</v>
       </c>
       <c r="G106" t="n">
-        <v>779.7282788268999</v>
+        <v>211.6331107077369</v>
       </c>
       <c r="H106" t="n">
         <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>121189</v>
+        <v>128130</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1376628</v>
+        <v>1368737</v>
       </c>
       <c r="E107" t="n">
-        <v>5132532</v>
+        <v>5103112</v>
       </c>
       <c r="F107" t="n">
-        <v>195.788799513526</v>
+        <v>173.8549026987027</v>
       </c>
       <c r="G107" t="n">
-        <v>309.4090125602449</v>
+        <v>311.5349719788745</v>
       </c>
       <c r="H107" t="n">
         <v>0.19</v>
       </c>
       <c r="I107" t="n">
-        <v>609783</v>
+        <v>606770</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4175666</v>
+        <v>4167912</v>
       </c>
       <c r="E108" t="n">
-        <v>12027265</v>
+        <v>12004930</v>
       </c>
       <c r="F108" t="n">
-        <v>85.69111584510742</v>
+        <v>71.54944542218344</v>
       </c>
       <c r="G108" t="n">
-        <v>102.8147916000795</v>
+        <v>59.64462076381785</v>
       </c>
       <c r="H108" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="I108" t="n">
-        <v>574188</v>
+        <v>575788</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80360681</v>
+        <v>80356803</v>
       </c>
       <c r="E109" t="n">
-        <v>102265212</v>
+        <v>102260277</v>
       </c>
       <c r="F109" t="n">
-        <v>6619.477789269334</v>
+        <v>3769.842640492081</v>
       </c>
       <c r="G109" t="n">
-        <v>635.9430172099818</v>
+        <v>581.193381841569</v>
       </c>
       <c r="H109" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="I109" t="n">
-        <v>6193858</v>
+        <v>6141957</v>
       </c>
     </row>
     <row r="110">
@@ -4261,10 +4261,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22403314</v>
+        <v>22383057</v>
       </c>
       <c r="E110" t="n">
-        <v>29062223</v>
+        <v>29035946</v>
       </c>
       <c r="F110" t="n">
         <v>19128.62784993316</v>
@@ -4276,7 +4276,7 @@
         <v>0.31</v>
       </c>
       <c r="I110" t="n">
-        <v>154959</v>
+        <v>156248</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>618857</v>
+        <v>619066</v>
       </c>
       <c r="E111" t="n">
-        <v>618857</v>
+        <v>619066</v>
       </c>
       <c r="F111" t="n">
-        <v>4.09648581276065</v>
+        <v>4.09647814220031</v>
       </c>
       <c r="G111" t="n">
-        <v>3.137272880242872</v>
+        <v>39.85245728557302</v>
       </c>
       <c r="H111" t="n">
         <v>0.64</v>
       </c>
       <c r="I111" t="n">
-        <v>77868</v>
+        <v>78138</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14150295</v>
+        <v>14108697</v>
       </c>
       <c r="E112" t="n">
-        <v>14150295</v>
+        <v>14108697</v>
       </c>
       <c r="F112" t="n">
-        <v>3060.424745820236</v>
+        <v>4593.861307345336</v>
       </c>
       <c r="G112" t="n">
-        <v>2918.97391514781</v>
+        <v>3039.181828383395</v>
       </c>
       <c r="H112" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I112" t="n">
-        <v>4569384</v>
+        <v>4601977</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98429045</v>
+        <v>98297496</v>
       </c>
       <c r="E113" t="n">
-        <v>121753206</v>
+        <v>121590485</v>
       </c>
       <c r="F113" t="n">
-        <v>208.6855106442271</v>
+        <v>121.4186001588639</v>
       </c>
       <c r="G113" t="n">
-        <v>2039.029818833519</v>
+        <v>2116.126758841918</v>
       </c>
       <c r="H113" t="n">
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="I113" t="n">
-        <v>792471</v>
+        <v>802919</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>821941</v>
+        <v>828143</v>
       </c>
       <c r="F114" t="n">
-        <v>196.5030624733096</v>
+        <v>234.045618516002</v>
       </c>
       <c r="G114" t="n">
-        <v>197.99290770265</v>
+        <v>181.6922167957963</v>
       </c>
       <c r="H114" t="n">
         <v>0.76</v>
       </c>
       <c r="I114" t="n">
-        <v>27035</v>
+        <v>27141</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2863395</v>
+        <v>2840479</v>
       </c>
       <c r="F115" t="n">
-        <v>254.1847818403647</v>
+        <v>840.0034638827455</v>
       </c>
       <c r="G115" t="n">
-        <v>2039.956453099166</v>
+        <v>106.8848823193641</v>
       </c>
       <c r="H115" t="n">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="I115" t="n">
-        <v>22628</v>
+        <v>26133</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10959808</v>
+        <v>10999777</v>
       </c>
       <c r="E116" t="n">
-        <v>16117363</v>
+        <v>16176142</v>
       </c>
       <c r="F116" t="n">
-        <v>3618.376156268098</v>
+        <v>3945.407690047493</v>
       </c>
       <c r="G116" t="n">
-        <v>2634.701647789655</v>
+        <v>2234.53661252238</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I116" t="n">
-        <v>419991</v>
+        <v>419937</v>
       </c>
     </row>
     <row r="117">
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3238909</v>
+        <v>3231223</v>
       </c>
       <c r="F117" t="n">
         <v>5.368437823552601</v>
@@ -4521,7 +4521,7 @@
         <v>0.39</v>
       </c>
       <c r="I117" t="n">
-        <v>37706</v>
+        <v>37626</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1147696</v>
+        <v>1188371</v>
       </c>
       <c r="F118" t="n">
-        <v>5.320273796110414</v>
+        <v>3.950961635702885</v>
       </c>
       <c r="G118" t="n">
-        <v>5.470154507656222</v>
+        <v>5.328688942634927</v>
       </c>
       <c r="H118" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
       <c r="I118" t="n">
-        <v>4429.95</v>
+        <v>5138.35</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5127660</v>
+        <v>5128057</v>
       </c>
       <c r="E119" t="n">
-        <v>7174339</v>
+        <v>7174895</v>
       </c>
       <c r="F119" t="n">
-        <v>997.7800175085584</v>
+        <v>1474.045381620056</v>
       </c>
       <c r="G119" t="n">
-        <v>707.5100680573294</v>
+        <v>655.7079061938385</v>
       </c>
       <c r="H119" t="n">
         <v>0.33</v>
       </c>
       <c r="I119" t="n">
-        <v>108443</v>
+        <v>108058</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10239546</v>
+        <v>10231700</v>
       </c>
       <c r="E120" t="n">
-        <v>28204392</v>
+        <v>28182780</v>
       </c>
       <c r="F120" t="n">
-        <v>435.5813357306506</v>
+        <v>436.9345556147046</v>
       </c>
       <c r="G120" t="n">
-        <v>108.8472670317981</v>
+        <v>113.7916274082036</v>
       </c>
       <c r="H120" t="n">
-        <v>3.31</v>
+        <v>3.03</v>
       </c>
       <c r="I120" t="n">
-        <v>345117</v>
+        <v>346762</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>52565325</v>
+        <v>52742204</v>
       </c>
       <c r="E121" t="n">
-        <v>133913171</v>
+        <v>134363780</v>
       </c>
       <c r="F121" t="n">
-        <v>1111.925509940371</v>
+        <v>760.4674176285156</v>
       </c>
       <c r="G121" t="n">
-        <v>10480.01069958344</v>
+        <v>11815.93815107977</v>
       </c>
       <c r="H121" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I121" t="n">
-        <v>2494453</v>
+        <v>2476831</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13977081</v>
+        <v>13906184</v>
       </c>
       <c r="E122" t="n">
-        <v>67693233</v>
+        <v>67349867</v>
       </c>
       <c r="F122" t="n">
-        <v>2826.902702901458</v>
+        <v>3847.062774498611</v>
       </c>
       <c r="G122" t="n">
-        <v>6159.154838239674</v>
+        <v>4989.595762528867</v>
       </c>
       <c r="H122" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I122" t="n">
-        <v>3635998</v>
+        <v>3642326</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>514419</v>
+        <v>494842</v>
       </c>
       <c r="F123" t="n">
-        <v>3.929492715847734</v>
+        <v>3.92948129328615</v>
       </c>
       <c r="G123" t="n">
-        <v>3.943589278038214</v>
+        <v>3.943577814499625</v>
       </c>
       <c r="H123" t="n">
         <v>0.9</v>
       </c>
       <c r="I123" t="n">
-        <v>8086.6</v>
+        <v>8112.28</v>
       </c>
     </row>
     <row r="124">
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4563168</v>
+        <v>4532108</v>
       </c>
       <c r="E124" t="n">
-        <v>10401540</v>
+        <v>10330739</v>
       </c>
       <c r="F124" t="n">
         <v>454.5255908328901</v>
@@ -4766,7 +4766,7 @@
         <v>1.44</v>
       </c>
       <c r="I124" t="n">
-        <v>96713</v>
+        <v>96786</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1891563992</v>
+        <v>1887314756</v>
       </c>
       <c r="F125" t="n">
-        <v>76721.36186605094</v>
+        <v>74233.0501643083</v>
       </c>
       <c r="G125" t="n">
-        <v>78303.27737235531</v>
+        <v>79074.33656228193</v>
       </c>
       <c r="H125" t="n">
         <v>0.84</v>
       </c>
       <c r="I125" t="n">
-        <v>25906003</v>
+        <v>25871615</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9388406</v>
+        <v>9388163</v>
       </c>
       <c r="E126" t="n">
-        <v>34185992</v>
+        <v>34185105</v>
       </c>
       <c r="F126" t="n">
-        <v>1162.063379793277</v>
+        <v>1162.061203860616</v>
       </c>
       <c r="G126" t="n">
-        <v>5.316176952017137</v>
+        <v>5.316166997617693</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>159025</v>
+        <v>158581</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>541324</v>
+        <v>540770</v>
       </c>
       <c r="F127" t="n">
-        <v>21.80255470536027</v>
+        <v>21.80267258296472</v>
       </c>
       <c r="G127" t="n">
-        <v>483.0418563088882</v>
+        <v>483.044467921043</v>
       </c>
       <c r="H127" t="n">
         <v>0.64</v>
       </c>
       <c r="I127" t="n">
-        <v>19327.13</v>
+        <v>19317.38</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12176037</v>
+        <v>12232057</v>
       </c>
       <c r="E128" t="n">
-        <v>17653496</v>
+        <v>17734718</v>
       </c>
       <c r="F128" t="n">
-        <v>2277.291548085604</v>
+        <v>2317.526202379482</v>
       </c>
       <c r="G128" t="n">
-        <v>6652.883516334992</v>
+        <v>7143.26268796411</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="I128" t="n">
-        <v>2106350</v>
+        <v>2092566</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>32335926</v>
+        <v>32298453</v>
       </c>
       <c r="E129" t="n">
-        <v>100683698</v>
+        <v>100567020</v>
       </c>
       <c r="F129" t="n">
-        <v>5731.496250375238</v>
+        <v>9246.366835520754</v>
       </c>
       <c r="G129" t="n">
-        <v>10680.39060281962</v>
+        <v>9913.723232716449</v>
       </c>
       <c r="H129" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I129" t="n">
-        <v>12142159</v>
+        <v>12154363</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2058689</v>
+        <v>2063490</v>
       </c>
       <c r="E130" t="n">
-        <v>14762650</v>
+        <v>14797082</v>
       </c>
       <c r="F130" t="n">
-        <v>4.065839555701086</v>
+        <v>4.06586594461396</v>
       </c>
       <c r="G130" t="n">
-        <v>4.125393841988444</v>
+        <v>4.125420617432279</v>
       </c>
       <c r="H130" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I130" t="n">
-        <v>1933536</v>
+        <v>1933338</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7796195</v>
+        <v>7784070</v>
       </c>
       <c r="F131" t="n">
-        <v>102.6261884220217</v>
+        <v>91.36913062221505</v>
       </c>
       <c r="G131" t="n">
-        <v>779.4210277096711</v>
+        <v>125.9142699943819</v>
       </c>
       <c r="H131" t="n">
         <v>0.89</v>
       </c>
       <c r="I131" t="n">
-        <v>502208</v>
+        <v>501875</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>203547007</v>
+        <v>201990167</v>
       </c>
       <c r="E132" t="n">
-        <v>1152608223</v>
+        <v>1143792439</v>
       </c>
       <c r="F132" t="n">
-        <v>434440.4626966614</v>
+        <v>555183.364803096</v>
       </c>
       <c r="G132" t="n">
-        <v>616254.9087541729</v>
+        <v>489233.9899659615</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>63631988</v>
+        <v>64140836</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1039341</v>
+        <v>1040533</v>
       </c>
       <c r="E133" t="n">
-        <v>1039341</v>
+        <v>1040533</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>11977.78</v>
+        <v>11862.63</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>502614</v>
+        <v>508526</v>
       </c>
       <c r="E134" t="n">
-        <v>1691730</v>
+        <v>1711629</v>
       </c>
       <c r="F134" t="n">
-        <v>113.3269732035451</v>
+        <v>232.5009044000979</v>
       </c>
       <c r="G134" t="n">
-        <v>159.3830142995088</v>
+        <v>195.0981934964442</v>
       </c>
       <c r="H134" t="n">
-        <v>0.59</v>
+        <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>629405</v>
+        <v>627659</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>13625048</v>
+        <v>13615774</v>
       </c>
       <c r="F135" t="n">
-        <v>5.333926096931067</v>
+        <v>5.333966813419842</v>
       </c>
       <c r="G135" t="n">
-        <v>3.908460019118786</v>
+        <v>3.908489854321901</v>
       </c>
       <c r="H135" t="n">
         <v>0.96</v>
       </c>
       <c r="I135" t="n">
-        <v>713.13</v>
+        <v>712.62</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>139183305</v>
+        <v>138633349</v>
       </c>
       <c r="E136" t="n">
-        <v>1030987443</v>
+        <v>1026913695</v>
       </c>
       <c r="F136" t="n">
-        <v>59349.55418606378</v>
+        <v>59388.1678402137</v>
       </c>
       <c r="G136" t="n">
-        <v>59182.60019690193</v>
+        <v>59164.38598359394</v>
       </c>
       <c r="H136" t="n">
         <v>0.05</v>
       </c>
       <c r="I136" t="n">
-        <v>11023370</v>
+        <v>10980814</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31642712</v>
+        <v>31777512</v>
       </c>
       <c r="E137" t="n">
-        <v>150413812</v>
+        <v>151054584</v>
       </c>
       <c r="F137" t="n">
-        <v>7049.29425568534</v>
+        <v>6424.852806220116</v>
       </c>
       <c r="G137" t="n">
-        <v>5807.780965886099</v>
+        <v>4307.925336076349</v>
       </c>
       <c r="H137" t="n">
         <v>0.33</v>
       </c>
       <c r="I137" t="n">
-        <v>1248608</v>
+        <v>1265846</v>
       </c>
     </row>
     <row r="138">
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8180278</v>
+        <v>8179352</v>
       </c>
       <c r="E138" t="n">
-        <v>10958845</v>
+        <v>10957604</v>
       </c>
       <c r="F138" t="n">
         <v>237.6303980787263</v>
@@ -5254,7 +5254,7 @@
         <v>0.83</v>
       </c>
       <c r="I138" t="n">
-        <v>60031</v>
+        <v>59523</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1242704</v>
+        <v>1228095</v>
       </c>
       <c r="F139" t="n">
-        <v>97.51051118590283</v>
+        <v>75.39492873422509</v>
       </c>
       <c r="G139" t="n">
-        <v>4.014884103328168</v>
+        <v>4.233803834260977</v>
       </c>
       <c r="H139" t="n">
         <v>0.93</v>
       </c>
       <c r="I139" t="n">
-        <v>48943</v>
+        <v>48518</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2355228</v>
+        <v>2371924</v>
       </c>
       <c r="E140" t="n">
-        <v>2355228</v>
+        <v>2371924</v>
       </c>
       <c r="F140" t="n">
-        <v>1443.847822199166</v>
+        <v>1845.144965948505</v>
       </c>
       <c r="G140" t="n">
-        <v>273.0178260111421</v>
+        <v>455.3684677179518</v>
       </c>
       <c r="H140" t="n">
-        <v>0.46</v>
+        <v>0.9</v>
       </c>
       <c r="I140" t="n">
-        <v>257087</v>
+        <v>261058</v>
       </c>
     </row>
     <row r="141">
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>25464871</v>
+        <v>25478024</v>
       </c>
       <c r="E141" t="n">
-        <v>25464871</v>
+        <v>25478024</v>
       </c>
       <c r="F141" t="n">
         <v>898.3371160615134</v>
@@ -5359,7 +5359,7 @@
         <v>0.91</v>
       </c>
       <c r="I141" t="n">
-        <v>318964</v>
+        <v>322676</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6434853</v>
+        <v>6413951</v>
       </c>
       <c r="E142" t="n">
-        <v>6795926</v>
+        <v>6773850</v>
       </c>
       <c r="F142" t="n">
-        <v>707.0259781508689</v>
+        <v>1132.502699878933</v>
       </c>
       <c r="G142" t="n">
-        <v>268.3432363657417</v>
+        <v>225.406051662158</v>
       </c>
       <c r="H142" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="I142" t="n">
-        <v>69584</v>
+        <v>68842</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3418858</v>
+        <v>3449260</v>
       </c>
       <c r="E143" t="n">
-        <v>7983602</v>
+        <v>8054598</v>
       </c>
       <c r="F143" t="n">
-        <v>1413.864229363119</v>
+        <v>2324.880258834529</v>
       </c>
       <c r="G143" t="n">
-        <v>812.5898214662215</v>
+        <v>1028.744265288429</v>
       </c>
       <c r="H143" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="I143" t="n">
-        <v>780424</v>
+        <v>773584</v>
       </c>
     </row>
     <row r="144">
@@ -5449,10 +5449,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1556488</v>
+        <v>1568982</v>
       </c>
       <c r="E144" t="n">
-        <v>12088855</v>
+        <v>12185890</v>
       </c>
       <c r="F144" t="n">
         <v>200.5106690845372</v>
@@ -5464,7 +5464,7 @@
         <v>1.43</v>
       </c>
       <c r="I144" t="n">
-        <v>487216</v>
+        <v>534815</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>339355266</v>
+        <v>337806845</v>
       </c>
       <c r="E145" t="n">
-        <v>3053050399</v>
+        <v>3039119848</v>
       </c>
       <c r="F145" t="n">
-        <v>411072.2677264906</v>
+        <v>541834.2193683407</v>
       </c>
       <c r="G145" t="n">
-        <v>571215.2369050153</v>
+        <v>795596.017336683</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>37130960</v>
+        <v>37174023</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>258764</v>
+        <v>257404</v>
       </c>
       <c r="E146" t="n">
-        <v>2283785</v>
+        <v>2271784</v>
       </c>
       <c r="F146" t="n">
-        <v>4.08060922969923</v>
+        <v>9.456313918550181</v>
       </c>
       <c r="G146" t="n">
-        <v>4.178271058277525</v>
+        <v>4.17830295308138</v>
       </c>
       <c r="H146" t="n">
         <v>0.7</v>
       </c>
       <c r="I146" t="n">
-        <v>71604</v>
+        <v>71309</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>645357</v>
+        <v>645269</v>
       </c>
       <c r="F147" t="n">
-        <v>928.1687358608743</v>
+        <v>928.0128969203439</v>
       </c>
       <c r="G147" t="n">
-        <v>612.770537715239</v>
+        <v>611.3865017021184</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I147" t="n">
-        <v>5682.06</v>
+        <v>5685.33</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4910383</v>
+        <v>4918148</v>
       </c>
       <c r="E148" t="n">
-        <v>17350668</v>
+        <v>17378104</v>
       </c>
       <c r="F148" t="n">
-        <v>1500.6678795531</v>
+        <v>1397.619274048004</v>
       </c>
       <c r="G148" t="n">
-        <v>2626.480505614346</v>
+        <v>2569.765987272105</v>
       </c>
       <c r="H148" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>101973</v>
+        <v>102099</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9123317</v>
+        <v>9169790</v>
       </c>
       <c r="E149" t="n">
-        <v>42287097</v>
+        <v>42502504</v>
       </c>
       <c r="F149" t="n">
-        <v>1970.174884575171</v>
+        <v>1921.714276315198</v>
       </c>
       <c r="G149" t="n">
-        <v>8077.202310205159</v>
+        <v>8112.552689968662</v>
       </c>
       <c r="H149" t="n">
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>114217</v>
+        <v>118092</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>43209577</v>
+        <v>43254042</v>
       </c>
       <c r="E150" t="n">
-        <v>250165597</v>
+        <v>250423029</v>
       </c>
       <c r="F150" t="n">
-        <v>51352.63839268016</v>
+        <v>79178.12406360217</v>
       </c>
       <c r="G150" t="n">
-        <v>55690.3871599594</v>
+        <v>51073.50595517618</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I150" t="n">
-        <v>10827178</v>
+        <v>11153706</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>79638</v>
+        <v>84065</v>
       </c>
       <c r="E151" t="n">
-        <v>79638</v>
+        <v>84065</v>
       </c>
       <c r="F151" t="n">
-        <v>9.707638422133874</v>
+        <v>4.022169794782763</v>
       </c>
       <c r="G151" t="n">
-        <v>16.21027228045188</v>
+        <v>3.884946702757886</v>
       </c>
       <c r="H151" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="I151" t="n">
-        <v>19008.5</v>
+        <v>20289</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4386740</v>
+        <v>4381831</v>
       </c>
       <c r="F152" t="n">
-        <v>250.8409295775419</v>
+        <v>290.9153487454756</v>
       </c>
       <c r="G152" t="n">
-        <v>315.4893149710639</v>
+        <v>315.5879072096749</v>
       </c>
       <c r="H152" t="n">
         <v>0.34</v>
       </c>
       <c r="I152" t="n">
-        <v>275791</v>
+        <v>275512</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39210889</v>
+        <v>39184845</v>
       </c>
       <c r="E153" t="n">
-        <v>54155822</v>
+        <v>54119850</v>
       </c>
       <c r="F153" t="n">
-        <v>11329.3013938956</v>
+        <v>11363.16865299931</v>
       </c>
       <c r="G153" t="n">
-        <v>13940.01193603561</v>
+        <v>13996.24508688067</v>
       </c>
       <c r="H153" t="n">
         <v>0.31</v>
       </c>
       <c r="I153" t="n">
-        <v>371659</v>
+        <v>371156</v>
       </c>
     </row>
     <row r="154">
@@ -5799,10 +5799,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2147230</v>
+        <v>2139879</v>
       </c>
       <c r="E154" t="n">
-        <v>8768731</v>
+        <v>8738712</v>
       </c>
       <c r="F154" t="n">
         <v>593.3094013541468</v>
@@ -5814,7 +5814,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>557370</v>
+        <v>564937</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7459691</v>
+        <v>7393206</v>
       </c>
       <c r="E155" t="n">
-        <v>7515141</v>
+        <v>7448162</v>
       </c>
       <c r="F155" t="n">
-        <v>1488.247140379636</v>
+        <v>3472.350707120442</v>
       </c>
       <c r="G155" t="n">
-        <v>14062.1073328846</v>
+        <v>11918.62932267576</v>
       </c>
       <c r="H155" t="n">
         <v>0.11</v>
       </c>
       <c r="I155" t="n">
-        <v>5049055</v>
+        <v>4790402</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>563837</v>
+        <v>563702</v>
       </c>
       <c r="E156" t="n">
-        <v>563837</v>
+        <v>563702</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>28.47</v>
+        <v>18.17</v>
       </c>
       <c r="I156" t="n">
-        <v>8023.11</v>
+        <v>7814.79</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13630659</v>
+        <v>13635211</v>
       </c>
       <c r="E157" t="n">
-        <v>13677046</v>
+        <v>13681613</v>
       </c>
       <c r="F157" t="n">
-        <v>2097.098168085207</v>
+        <v>1530.278049296334</v>
       </c>
       <c r="G157" t="n">
-        <v>4783.30968684221</v>
+        <v>4282.988531231484</v>
       </c>
       <c r="H157" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="I157" t="n">
-        <v>5870792</v>
+        <v>5734907</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42879097</v>
+        <v>42854873</v>
       </c>
       <c r="E158" t="n">
-        <v>72798732</v>
+        <v>72757605</v>
       </c>
       <c r="F158" t="n">
-        <v>433.2662933739012</v>
+        <v>458.6965614426421</v>
       </c>
       <c r="G158" t="n">
-        <v>740.8560793226668</v>
+        <v>880.4970550450428</v>
       </c>
       <c r="H158" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I158" t="n">
-        <v>1091862</v>
+        <v>1088942</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>24689583</v>
+        <v>24443206</v>
       </c>
       <c r="E159" t="n">
-        <v>74006351</v>
+        <v>73267844</v>
       </c>
       <c r="F159" t="n">
-        <v>23271.8372941993</v>
+        <v>13411.24680330118</v>
       </c>
       <c r="G159" t="n">
-        <v>7568.811045437166</v>
+        <v>15036.36800502992</v>
       </c>
       <c r="H159" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="I159" t="n">
-        <v>2732835</v>
+        <v>2733832</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101352902</v>
+        <v>101354485</v>
       </c>
       <c r="E160" t="n">
-        <v>107747295</v>
+        <v>107748977</v>
       </c>
       <c r="F160" t="n">
-        <v>488.0105707625333</v>
+        <v>439.707883483237</v>
       </c>
       <c r="G160" t="n">
-        <v>1147.680178654465</v>
+        <v>915.2128543001135</v>
       </c>
       <c r="H160" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="I160" t="n">
-        <v>861235</v>
+        <v>900790</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10635125</v>
+        <v>10623603</v>
       </c>
       <c r="E161" t="n">
-        <v>46241130</v>
+        <v>46190643</v>
       </c>
       <c r="F161" t="n">
-        <v>3717.973097157125</v>
+        <v>3718.617409021118</v>
       </c>
       <c r="G161" t="n">
-        <v>3087.029022574408</v>
+        <v>3082.379657384392</v>
       </c>
       <c r="H161" t="n">
         <v>0.46</v>
       </c>
       <c r="I161" t="n">
-        <v>107108</v>
+        <v>104895</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15102765</v>
+        <v>15082954</v>
       </c>
       <c r="E162" t="n">
-        <v>92569814</v>
+        <v>92448385</v>
       </c>
       <c r="F162" t="n">
-        <v>1794.561403781361</v>
+        <v>1570.826430934859</v>
       </c>
       <c r="G162" t="n">
-        <v>1429.591496272677</v>
+        <v>1972.3279947139</v>
       </c>
       <c r="H162" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I162" t="n">
-        <v>11708600</v>
+        <v>11074396</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1505572</v>
+        <v>1499334</v>
       </c>
       <c r="E163" t="n">
-        <v>1547922</v>
+        <v>1541509</v>
       </c>
       <c r="F163" t="n">
-        <v>98.50050838170088</v>
+        <v>98.57783878986291</v>
       </c>
       <c r="G163" t="n">
-        <v>70.05917966758071</v>
+        <v>70.0598624750623</v>
       </c>
       <c r="H163" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="I163" t="n">
-        <v>125185</v>
+        <v>124007</v>
       </c>
     </row>
     <row r="164">
@@ -6148,19 +6148,19 @@
         <v>97042</v>
       </c>
       <c r="E164" t="n">
-        <v>275287</v>
+        <v>275285</v>
       </c>
       <c r="F164" t="n">
-        <v>3.978802357407476</v>
+        <v>3.978794907206264</v>
       </c>
       <c r="G164" t="n">
-        <v>80.46210780775792</v>
+        <v>80.46195714460876</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>40.73</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47101287</v>
+        <v>47023130</v>
       </c>
       <c r="E165" t="n">
-        <v>202907194</v>
+        <v>202570500</v>
       </c>
       <c r="F165" t="n">
-        <v>3472.278193733167</v>
+        <v>5215.367914900982</v>
       </c>
       <c r="G165" t="n">
-        <v>5626.679348939918</v>
+        <v>4845.884889887283</v>
       </c>
       <c r="H165" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I165" t="n">
-        <v>8753789</v>
+        <v>8241058</v>
       </c>
     </row>
     <row r="166">
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7867007</v>
+        <v>7940887</v>
       </c>
       <c r="F166" t="n">
         <v>498.7715882905927</v>
@@ -6230,7 +6230,7 @@
         <v>0.13</v>
       </c>
       <c r="I166" t="n">
-        <v>6308070</v>
+        <v>6329737</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>665124</v>
+        <v>665201</v>
       </c>
       <c r="E167" t="n">
-        <v>2401500</v>
+        <v>2401779</v>
       </c>
       <c r="F167" t="n">
-        <v>50.33298842184854</v>
+        <v>50.70122244741994</v>
       </c>
       <c r="G167" t="n">
-        <v>10.93250129025147</v>
+        <v>10.34177327925005</v>
       </c>
       <c r="H167" t="n">
         <v>1.32</v>
       </c>
       <c r="I167" t="n">
-        <v>405919</v>
+        <v>406084</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1676332</v>
+        <v>1643363</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>6.26</v>
+        <v>7.04</v>
       </c>
       <c r="I168" t="n">
-        <v>89622</v>
+        <v>88782</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12922859</v>
+        <v>13051941</v>
       </c>
       <c r="E169" t="n">
-        <v>12922859</v>
+        <v>13051941</v>
       </c>
       <c r="F169" t="n">
-        <v>651.5419891537366</v>
+        <v>686.4458846347771</v>
       </c>
       <c r="G169" t="n">
-        <v>434.6378597513047</v>
+        <v>273.0171622081064</v>
       </c>
       <c r="H169" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="I169" t="n">
-        <v>3307348</v>
+        <v>3376400</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1658546</v>
+        <v>1662000</v>
       </c>
       <c r="E170" t="n">
-        <v>6026756</v>
+        <v>6039201</v>
       </c>
       <c r="F170" t="n">
-        <v>182.5253957391171</v>
+        <v>167.292042295363</v>
       </c>
       <c r="G170" t="n">
-        <v>149.2216631590298</v>
+        <v>135.9981610701611</v>
       </c>
       <c r="H170" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="I170" t="n">
-        <v>123873</v>
+        <v>127940</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8971244</v>
+        <v>8910261</v>
       </c>
       <c r="E171" t="n">
-        <v>19920984</v>
+        <v>19785569</v>
       </c>
       <c r="F171" t="n">
-        <v>1641.997354464755</v>
+        <v>1773.87166002612</v>
       </c>
       <c r="G171" t="n">
-        <v>1769.640222033816</v>
+        <v>1758.93403068986</v>
       </c>
       <c r="H171" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="I171" t="n">
-        <v>354930</v>
+        <v>368162</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1039115</v>
+        <v>1037446</v>
       </c>
       <c r="E172" t="n">
-        <v>3037154</v>
+        <v>3032274</v>
       </c>
       <c r="F172" t="n">
-        <v>79.7488631059886</v>
+        <v>79.74938070777081</v>
       </c>
       <c r="G172" t="n">
-        <v>649.9816442159919</v>
+        <v>649.9858628549084</v>
       </c>
       <c r="H172" t="n">
         <v>0.46</v>
       </c>
       <c r="I172" t="n">
-        <v>20663</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20806337</v>
+        <v>20753689</v>
       </c>
       <c r="E173" t="n">
-        <v>83225348</v>
+        <v>83014756</v>
       </c>
       <c r="F173" t="n">
-        <v>19562.56177192886</v>
+        <v>13001.1097038706</v>
       </c>
       <c r="G173" t="n">
-        <v>16112.07215409785</v>
+        <v>16165.57983456384</v>
       </c>
       <c r="H173" t="n">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="I173" t="n">
-        <v>5538716</v>
+        <v>5966010</v>
       </c>
     </row>
     <row r="174">
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4289949</v>
+        <v>4298710</v>
       </c>
       <c r="E174" t="n">
-        <v>4289949</v>
+        <v>4298710</v>
       </c>
       <c r="F174" t="n">
         <v>236.7935664490021</v>
@@ -6510,7 +6510,7 @@
         <v>0.99</v>
       </c>
       <c r="I174" t="n">
-        <v>2508772</v>
+        <v>2509249</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>305931993</v>
+        <v>303796724</v>
       </c>
       <c r="E175" t="n">
-        <v>305931993</v>
+        <v>303796724</v>
       </c>
       <c r="F175" t="n">
-        <v>1933.710283793213</v>
+        <v>2833.891670331177</v>
       </c>
       <c r="G175" t="n">
-        <v>2568.252256528947</v>
+        <v>3941.424826947195</v>
       </c>
       <c r="H175" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="I175" t="n">
-        <v>12671025</v>
+        <v>12655425</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12790620</v>
+        <v>12740472</v>
       </c>
       <c r="E176" t="n">
-        <v>40465368</v>
+        <v>40306716</v>
       </c>
       <c r="F176" t="n">
-        <v>873.3762613577907</v>
+        <v>1760.942603622847</v>
       </c>
       <c r="G176" t="n">
-        <v>1931.919877871095</v>
+        <v>3724.760896731302</v>
       </c>
       <c r="H176" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="I176" t="n">
-        <v>1395920</v>
+        <v>1396700</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26721</v>
+        <v>26943</v>
       </c>
       <c r="E177" t="n">
-        <v>210153</v>
+        <v>211899</v>
       </c>
       <c r="F177" t="n">
-        <v>133.1410218348573</v>
+        <v>126.5936962156089</v>
       </c>
       <c r="G177" t="n">
-        <v>672.7148288194517</v>
+        <v>304.4416088387854</v>
       </c>
       <c r="H177" t="n">
-        <v>0.47</v>
+        <v>1.38</v>
       </c>
       <c r="I177" t="n">
-        <v>131297</v>
+        <v>132786</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8225395</v>
+        <v>8194384</v>
       </c>
       <c r="E178" t="n">
-        <v>8225395</v>
+        <v>8194384</v>
       </c>
       <c r="F178" t="n">
-        <v>1663.93800036756</v>
+        <v>1882.89515162949</v>
       </c>
       <c r="G178" t="n">
-        <v>2238.767626198509</v>
+        <v>1608.524576900508</v>
       </c>
       <c r="H178" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="I178" t="n">
-        <v>3497160</v>
+        <v>3530790</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1087972</v>
+        <v>1087114</v>
       </c>
       <c r="E179" t="n">
-        <v>2477964</v>
+        <v>2476008</v>
       </c>
       <c r="F179" t="n">
-        <v>262.8453789834706</v>
+        <v>262.8555740983567</v>
       </c>
       <c r="G179" t="n">
-        <v>18.72069605872374</v>
+        <v>18.72142218770422</v>
       </c>
       <c r="H179" t="n">
         <v>0.13</v>
       </c>
       <c r="I179" t="n">
-        <v>5005.26</v>
+        <v>5005.93</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9282795</v>
+        <v>9435424</v>
       </c>
       <c r="E180" t="n">
-        <v>9282795</v>
+        <v>9435424</v>
       </c>
       <c r="F180" t="n">
-        <v>3707.304917811829</v>
+        <v>3027.376209876707</v>
       </c>
       <c r="G180" t="n">
-        <v>5084.10014294814</v>
+        <v>3128.909827420426</v>
       </c>
       <c r="H180" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="I180" t="n">
-        <v>2855928</v>
+        <v>2864164</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17141593</v>
+        <v>17145098</v>
       </c>
       <c r="E181" t="n">
-        <v>17141593</v>
+        <v>17145098</v>
       </c>
       <c r="F181" t="n">
-        <v>2111.646935895481</v>
+        <v>2017.689062782422</v>
       </c>
       <c r="G181" t="n">
-        <v>2487.016738875577</v>
+        <v>2370.82111736705</v>
       </c>
       <c r="H181" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I181" t="n">
-        <v>3491658</v>
+        <v>3474721</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31563516</v>
+        <v>31323079</v>
       </c>
       <c r="E182" t="n">
-        <v>87427806</v>
+        <v>86761821</v>
       </c>
       <c r="F182" t="n">
-        <v>5107.662388689138</v>
+        <v>5275.994250330156</v>
       </c>
       <c r="G182" t="n">
-        <v>5471.48718354182</v>
+        <v>6570.471696622514</v>
       </c>
       <c r="H182" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I182" t="n">
-        <v>11942853</v>
+        <v>11934753</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37228027</v>
+        <v>37433401</v>
       </c>
       <c r="E183" t="n">
-        <v>93871212</v>
+        <v>94389065</v>
       </c>
       <c r="F183" t="n">
-        <v>9960.610665690619</v>
+        <v>9876.788419264858</v>
       </c>
       <c r="G183" t="n">
-        <v>11351.05228334848</v>
+        <v>8772.776151774407</v>
       </c>
       <c r="H183" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="I183" t="n">
-        <v>3063274</v>
+        <v>3069478</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>301574137</v>
+        <v>300212710</v>
       </c>
       <c r="E184" t="n">
-        <v>306285683</v>
+        <v>304905818</v>
       </c>
       <c r="F184" t="n">
-        <v>19186.04924591862</v>
+        <v>24870.46824564972</v>
       </c>
       <c r="G184" t="n">
-        <v>27438.82315849173</v>
+        <v>30045.11609755064</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>12242573</v>
+        <v>12313125</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>409322</v>
+        <v>407131</v>
       </c>
       <c r="F185" t="n">
-        <v>326.2821278088253</v>
+        <v>241.0165636040987</v>
       </c>
       <c r="G185" t="n">
-        <v>50.19496477367456</v>
+        <v>50.26464069376597</v>
       </c>
       <c r="H185" t="n">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="I185" t="n">
-        <v>63451</v>
+        <v>63368</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28679302</v>
+        <v>28638048</v>
       </c>
       <c r="E186" t="n">
-        <v>68134892</v>
+        <v>68036882</v>
       </c>
       <c r="F186" t="n">
-        <v>7004.251814555434</v>
+        <v>6876.529955943049</v>
       </c>
       <c r="G186" t="n">
-        <v>11288.61691195826</v>
+        <v>11148.92034102453</v>
       </c>
       <c r="H186" t="n">
         <v>0.01</v>
       </c>
       <c r="I186" t="n">
-        <v>486042</v>
+        <v>478336</v>
       </c>
     </row>
     <row r="187">
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>19518384</v>
+        <v>19475442</v>
       </c>
       <c r="F187" t="n">
         <v>3.993061672854504</v>
@@ -6965,7 +6965,7 @@
         <v>0.85</v>
       </c>
       <c r="I187" t="n">
-        <v>1328.12</v>
+        <v>1326.82</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12426447</v>
+        <v>12416357</v>
       </c>
       <c r="E188" t="n">
-        <v>18938725</v>
+        <v>18923347</v>
       </c>
       <c r="F188" t="n">
-        <v>3563.62172538758</v>
+        <v>3396.153507760704</v>
       </c>
       <c r="G188" t="n">
-        <v>2461.771092075394</v>
+        <v>2443.865473593956</v>
       </c>
       <c r="H188" t="n">
         <v>0.71</v>
       </c>
       <c r="I188" t="n">
-        <v>700896</v>
+        <v>689928</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>78910171</v>
+        <v>79293759</v>
       </c>
       <c r="E189" t="n">
-        <v>78910171</v>
+        <v>79293759</v>
       </c>
       <c r="F189" t="n">
-        <v>7326.376146398399</v>
+        <v>6200.96964474315</v>
       </c>
       <c r="G189" t="n">
-        <v>11670.32370818641</v>
+        <v>7286.728163135809</v>
       </c>
       <c r="H189" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I189" t="n">
-        <v>4869608</v>
+        <v>4914019</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>304073420</v>
+        <v>302562674</v>
       </c>
       <c r="E190" t="n">
-        <v>304073420</v>
+        <v>302562674</v>
       </c>
       <c r="F190" t="n">
-        <v>230381.8563631063</v>
+        <v>205727.2107422111</v>
       </c>
       <c r="G190" t="n">
-        <v>359798.2387196724</v>
+        <v>337750.1804365182</v>
       </c>
       <c r="H190" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>50613492</v>
+        <v>50380310</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10318075</v>
+        <v>10164249</v>
       </c>
       <c r="E191" t="n">
-        <v>29294735</v>
+        <v>28857998</v>
       </c>
       <c r="F191" t="n">
-        <v>1970.819344360254</v>
+        <v>2020.484631234825</v>
       </c>
       <c r="G191" t="n">
-        <v>4059.826319728859</v>
+        <v>1869.728352239792</v>
       </c>
       <c r="H191" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="I191" t="n">
-        <v>129374</v>
+        <v>128112</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4231261</v>
+        <v>4235825</v>
       </c>
       <c r="E192" t="n">
-        <v>28911908</v>
+        <v>28943091</v>
       </c>
       <c r="F192" t="n">
-        <v>2319.50926658943</v>
+        <v>1531.541921835046</v>
       </c>
       <c r="G192" t="n">
-        <v>2510.991199738784</v>
+        <v>3675.532752424179</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="I192" t="n">
-        <v>2568062</v>
+        <v>2578664</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2871778</v>
+        <v>2815710</v>
       </c>
       <c r="E193" t="n">
-        <v>4261876</v>
+        <v>4178480</v>
       </c>
       <c r="F193" t="n">
-        <v>297.0166724666641</v>
+        <v>236.5575624738032</v>
       </c>
       <c r="G193" t="n">
-        <v>322.1306296414766</v>
+        <v>531.4393376072804</v>
       </c>
       <c r="H193" t="n">
-        <v>0.47</v>
+        <v>0.96</v>
       </c>
       <c r="I193" t="n">
-        <v>229662</v>
+        <v>222946</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>89809382</v>
+        <v>89729754</v>
       </c>
       <c r="E194" t="n">
-        <v>517520397</v>
+        <v>517061544</v>
       </c>
       <c r="F194" t="n">
-        <v>534490.4473004828</v>
+        <v>481496.2669209729</v>
       </c>
       <c r="G194" t="n">
-        <v>436751.6770411613</v>
+        <v>480141.1096578147</v>
       </c>
       <c r="H194" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>16040211</v>
+        <v>16023365</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>676809</v>
+        <v>674540</v>
       </c>
       <c r="E195" t="n">
-        <v>738123</v>
+        <v>735648</v>
       </c>
       <c r="F195" t="n">
-        <v>3.867553552470386</v>
+        <v>3.86754587792234</v>
       </c>
       <c r="G195" t="n">
-        <v>5.544407794095353</v>
+        <v>5.5443967920954</v>
       </c>
       <c r="H195" t="n">
         <v>0.48</v>
       </c>
       <c r="I195" t="n">
-        <v>79029</v>
+        <v>78534</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>108232762</v>
+        <v>108200778</v>
       </c>
       <c r="E196" t="n">
-        <v>266294880</v>
+        <v>266216186</v>
       </c>
       <c r="F196" t="n">
-        <v>82721.15355907365</v>
+        <v>38761.78470805466</v>
       </c>
       <c r="G196" t="n">
-        <v>39581.30036749905</v>
+        <v>48669.07331199093</v>
       </c>
       <c r="H196" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I196" t="n">
-        <v>2373559</v>
+        <v>2201857</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17111735</v>
+        <v>17122166</v>
       </c>
       <c r="E197" t="n">
-        <v>17111735</v>
+        <v>17122166</v>
       </c>
       <c r="F197" t="n">
-        <v>46.40558078981314</v>
+        <v>46.40577841391878</v>
       </c>
       <c r="G197" t="n">
-        <v>5.476122421922953</v>
+        <v>5.476145742691222</v>
       </c>
       <c r="H197" t="n">
         <v>0.83</v>
       </c>
       <c r="I197" t="n">
-        <v>78264</v>
+        <v>76115</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1332310</v>
+        <v>1323014</v>
       </c>
       <c r="F198" t="n">
-        <v>18.6798677025327</v>
+        <v>18.68059454496395</v>
       </c>
       <c r="G198" t="n">
-        <v>5.505367541830558</v>
+        <v>5.505581758268959</v>
       </c>
       <c r="H198" t="n">
         <v>0.67</v>
       </c>
       <c r="I198" t="n">
-        <v>4172.63</v>
+        <v>17940.45</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>129531</v>
+        <v>129455</v>
       </c>
       <c r="E199" t="n">
-        <v>281987</v>
+        <v>281821</v>
       </c>
       <c r="F199" t="n">
-        <v>31.92699956335353</v>
+        <v>4.044503794266203</v>
       </c>
       <c r="G199" t="n">
-        <v>5.392698886807757</v>
+        <v>4.012940638600432</v>
       </c>
       <c r="H199" t="n">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="I199" t="n">
-        <v>47285</v>
+        <v>47920</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2591038</v>
+        <v>2652179</v>
       </c>
       <c r="F200" t="n">
-        <v>1166.470431844844</v>
+        <v>454.5285897820361</v>
       </c>
       <c r="G200" t="n">
-        <v>1616.505253074195</v>
+        <v>166.6173404626128</v>
       </c>
       <c r="H200" t="n">
-        <v>1.17</v>
+        <v>2.27</v>
       </c>
       <c r="I200" t="n">
-        <v>172072</v>
+        <v>179757</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>192503</v>
+        <v>188684</v>
       </c>
       <c r="E201" t="n">
-        <v>1486513</v>
+        <v>1457022</v>
       </c>
       <c r="F201" t="n">
-        <v>4.111355809457227</v>
+        <v>5.078551249254726</v>
       </c>
       <c r="G201" t="n">
-        <v>86.42514134964796</v>
+        <v>6.134600705964835</v>
       </c>
       <c r="H201" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I201" t="n">
-        <v>107175</v>
+        <v>107072</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30429578</v>
+        <v>30405279</v>
       </c>
       <c r="E202" t="n">
-        <v>136245703</v>
+        <v>136136907</v>
       </c>
       <c r="F202" t="n">
-        <v>8173.885055571468</v>
+        <v>11290.53946423572</v>
       </c>
       <c r="G202" t="n">
-        <v>14517.43457775494</v>
+        <v>18003.78946691512</v>
       </c>
       <c r="H202" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I202" t="n">
-        <v>8954692</v>
+        <v>8894062</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13133841</v>
+        <v>13114488</v>
       </c>
       <c r="E203" t="n">
-        <v>26256214</v>
+        <v>26217525</v>
       </c>
       <c r="F203" t="n">
-        <v>808.3441535860067</v>
+        <v>808.3520784552392</v>
       </c>
       <c r="G203" t="n">
-        <v>690.2914133711698</v>
+        <v>690.2981808713231</v>
       </c>
       <c r="H203" t="n">
         <v>0.39</v>
       </c>
       <c r="I203" t="n">
-        <v>44681</v>
+        <v>44688</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1493647</v>
+        <v>1497789</v>
       </c>
       <c r="F204" t="n">
-        <v>534.2935786487666</v>
+        <v>469.3360330308625</v>
       </c>
       <c r="G204" t="n">
-        <v>9.929266431943665</v>
+        <v>138.5673076973311</v>
       </c>
       <c r="H204" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="I204" t="n">
-        <v>53985</v>
+        <v>53303</v>
       </c>
     </row>
     <row r="205">
@@ -7580,10 +7580,10 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1023335</v>
+        <v>1023548</v>
       </c>
       <c r="E205" t="n">
-        <v>4733071</v>
+        <v>4734056</v>
       </c>
       <c r="F205" t="n">
         <v>3596.949253500602</v>
@@ -7595,7 +7595,7 @@
         <v>0.37</v>
       </c>
       <c r="I205" t="n">
-        <v>484368</v>
+        <v>483233</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3236003</v>
+        <v>3266233</v>
       </c>
       <c r="E206" t="n">
-        <v>3236003</v>
+        <v>3266233</v>
       </c>
       <c r="F206" t="n">
-        <v>465.8918417013446</v>
+        <v>550.4138390645268</v>
       </c>
       <c r="G206" t="n">
-        <v>997.0076018936527</v>
+        <v>1218.179170494351</v>
       </c>
       <c r="H206" t="n">
         <v>0.28</v>
       </c>
       <c r="I206" t="n">
-        <v>434359</v>
+        <v>437135</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>574762</v>
+        <v>574854</v>
       </c>
       <c r="E207" t="n">
-        <v>574762</v>
+        <v>574854</v>
       </c>
       <c r="F207" t="n">
-        <v>4.041884336303576</v>
+        <v>262.3132851676131</v>
       </c>
       <c r="G207" t="n">
-        <v>153.3231377078414</v>
+        <v>65.06833034610435</v>
       </c>
       <c r="H207" t="n">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
       <c r="I207" t="n">
-        <v>1382816</v>
+        <v>1375444</v>
       </c>
     </row>
     <row r="208">
@@ -7685,10 +7685,10 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13398641</v>
+        <v>13611725</v>
       </c>
       <c r="E208" t="n">
-        <v>17058609</v>
+        <v>17329898</v>
       </c>
       <c r="F208" t="n">
         <v>141.7871088805682</v>
@@ -7700,7 +7700,7 @@
         <v>0.29</v>
       </c>
       <c r="I208" t="n">
-        <v>781384</v>
+        <v>793415</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1868849</v>
+        <v>1867588</v>
       </c>
       <c r="E209" t="n">
-        <v>1868849</v>
+        <v>1867588</v>
       </c>
       <c r="F209" t="n">
-        <v>67.91663926310873</v>
+        <v>27.81334400692544</v>
       </c>
       <c r="G209" t="n">
-        <v>5.495959039205403</v>
+        <v>26.25181113023211</v>
       </c>
       <c r="H209" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="I209" t="n">
-        <v>2662.42</v>
+        <v>2778.77</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6036220</v>
+        <v>5983108</v>
       </c>
       <c r="E210" t="n">
-        <v>15842083</v>
+        <v>15702691</v>
       </c>
       <c r="F210" t="n">
-        <v>593.6602515904823</v>
+        <v>509.3353811192274</v>
       </c>
       <c r="G210" t="n">
-        <v>1241.305959376112</v>
+        <v>1343.269687787803</v>
       </c>
       <c r="H210" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="I210" t="n">
-        <v>74180</v>
+        <v>74263</v>
       </c>
     </row>
     <row r="211">
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29756415</v>
+        <v>29765104</v>
       </c>
       <c r="F211" t="n">
         <v>418.3787473110187</v>
@@ -7805,7 +7805,7 @@
         <v>1.5</v>
       </c>
       <c r="I211" t="n">
-        <v>369430</v>
+        <v>372318</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17989794</v>
+        <v>17962611</v>
       </c>
       <c r="E212" t="n">
-        <v>17989794</v>
+        <v>17962720</v>
       </c>
       <c r="F212" t="n">
-        <v>28632.95123766201</v>
+        <v>32980.53271634912</v>
       </c>
       <c r="G212" t="n">
-        <v>24987.67790344615</v>
+        <v>24806.01066720669</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>3038920</v>
+        <v>2973645</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47816331</v>
+        <v>47716687</v>
       </c>
       <c r="E213" t="n">
-        <v>310076181</v>
+        <v>309430013</v>
       </c>
       <c r="F213" t="n">
-        <v>210584.2849316681</v>
+        <v>201616.116711177</v>
       </c>
       <c r="G213" t="n">
-        <v>203767.7200712333</v>
+        <v>235671.7193309151</v>
       </c>
       <c r="H213" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I213" t="n">
-        <v>17194938</v>
+        <v>16776433</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9263202</v>
+        <v>9309525</v>
       </c>
       <c r="F214" t="n">
-        <v>4.057457154736841</v>
+        <v>4.057480089537359</v>
       </c>
       <c r="G214" t="n">
-        <v>285.9306230742019</v>
+        <v>144.8010118521873</v>
       </c>
       <c r="H214" t="n">
         <v>0.32</v>
       </c>
       <c r="I214" t="n">
-        <v>293607</v>
+        <v>297101</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7097641</v>
+        <v>7126543</v>
       </c>
       <c r="E215" t="n">
-        <v>7107750</v>
+        <v>7136752</v>
       </c>
       <c r="F215" t="n">
-        <v>32.46366334820166</v>
+        <v>52.21521348446327</v>
       </c>
       <c r="G215" t="n">
-        <v>61.65518225303406</v>
+        <v>67.0181385125459</v>
       </c>
       <c r="H215" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="I215" t="n">
-        <v>898648</v>
+        <v>872610</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4806405</v>
+        <v>4806194</v>
       </c>
       <c r="F216" t="n">
-        <v>925.5294731841742</v>
+        <v>1076.2573345371</v>
       </c>
       <c r="G216" t="n">
-        <v>125.5071500982325</v>
+        <v>165.1400662053629</v>
       </c>
       <c r="H216" t="n">
-        <v>1.15</v>
+        <v>0.66</v>
       </c>
       <c r="I216" t="n">
-        <v>170815</v>
+        <v>172239</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2501085</v>
+        <v>2490243</v>
       </c>
       <c r="E217" t="n">
-        <v>4531186</v>
+        <v>4511545</v>
       </c>
       <c r="F217" t="n">
-        <v>166.9955301066089</v>
+        <v>76.57862443917902</v>
       </c>
       <c r="G217" t="n">
-        <v>114.1445959417743</v>
+        <v>194.0010352217583</v>
       </c>
       <c r="H217" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="I217" t="n">
-        <v>99906</v>
+        <v>100661</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125354512</v>
+        <v>125420598</v>
       </c>
       <c r="E218" t="n">
-        <v>2075973394</v>
+        <v>2077067824</v>
       </c>
       <c r="F218" t="n">
-        <v>6716.713058149725</v>
+        <v>6071.139072467534</v>
       </c>
       <c r="G218" t="n">
-        <v>12492.48340929845</v>
+        <v>16730.27084167701</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>5077133</v>
+        <v>5064278</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>75027051</v>
+        <v>74630328</v>
       </c>
       <c r="E219" t="n">
-        <v>75834668</v>
+        <v>75433673</v>
       </c>
       <c r="F219" t="n">
-        <v>11884.71346211994</v>
+        <v>11827.31649327857</v>
       </c>
       <c r="G219" t="n">
-        <v>24437.79146455201</v>
+        <v>21987.07804349731</v>
       </c>
       <c r="H219" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I219" t="n">
-        <v>8619876</v>
+        <v>8608826</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>236866092</v>
+        <v>235167796</v>
       </c>
       <c r="E220" t="n">
-        <v>236866092</v>
+        <v>235167796</v>
       </c>
       <c r="F220" t="n">
-        <v>83528.10132207478</v>
+        <v>101286.744618067</v>
       </c>
       <c r="G220" t="n">
-        <v>93439.40737424906</v>
+        <v>92454.74270901059</v>
       </c>
       <c r="H220" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>44630264</v>
+        <v>44610180</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23597386</v>
+        <v>23483861</v>
       </c>
       <c r="E221" t="n">
-        <v>141187906</v>
+        <v>140508658</v>
       </c>
       <c r="F221" t="n">
-        <v>107509.6983982107</v>
+        <v>108535.8881289072</v>
       </c>
       <c r="G221" t="n">
-        <v>97817.28308378207</v>
+        <v>93261.66891797628</v>
       </c>
       <c r="H221" t="n">
         <v>0.14</v>
       </c>
       <c r="I221" t="n">
-        <v>12814692</v>
+        <v>13030800</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1010896</v>
+        <v>1014217</v>
       </c>
       <c r="F222" t="n">
-        <v>743.8612678927423</v>
+        <v>290.3624709548876</v>
       </c>
       <c r="G222" t="n">
-        <v>407.2728485280646</v>
+        <v>435.9576787346523</v>
       </c>
       <c r="H222" t="n">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="I222" t="n">
-        <v>65776</v>
+        <v>65072</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2266524</v>
+        <v>2256651</v>
       </c>
       <c r="F223" t="n">
-        <v>154.3275790791202</v>
+        <v>155.7478823000833</v>
       </c>
       <c r="G223" t="n">
-        <v>113.1017190485081</v>
+        <v>119.892417979745</v>
       </c>
       <c r="H223" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I223" t="n">
-        <v>208039</v>
+        <v>208193</v>
       </c>
     </row>
     <row r="224">
@@ -8245,10 +8245,10 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13279220</v>
+        <v>13364894</v>
       </c>
       <c r="E224" t="n">
-        <v>40749266</v>
+        <v>41012169</v>
       </c>
       <c r="F224" t="n">
         <v>913.5507611511584</v>
@@ -8260,7 +8260,7 @@
         <v>0.09</v>
       </c>
       <c r="I224" t="n">
-        <v>2546105</v>
+        <v>2560445</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52937484</v>
+        <v>52858483</v>
       </c>
       <c r="E225" t="n">
-        <v>91434544</v>
+        <v>91298092</v>
       </c>
       <c r="F225" t="n">
-        <v>14374.71165326527</v>
+        <v>6991.404050135739</v>
       </c>
       <c r="G225" t="n">
-        <v>5820.442502751542</v>
+        <v>12585.92894607403</v>
       </c>
       <c r="H225" t="n">
         <v>0.28</v>
       </c>
       <c r="I225" t="n">
-        <v>1944803</v>
+        <v>1939397</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4212215</v>
+        <v>4203352</v>
       </c>
       <c r="E226" t="n">
-        <v>4212215</v>
+        <v>4203352</v>
       </c>
       <c r="F226" t="n">
-        <v>3.954156623615388</v>
+        <v>30.36758908896581</v>
       </c>
       <c r="G226" t="n">
-        <v>13.79857386261016</v>
+        <v>13.74868139576153</v>
       </c>
       <c r="H226" t="n">
         <v>0.73</v>
       </c>
       <c r="I226" t="n">
-        <v>1559890</v>
+        <v>1557500</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>208696</v>
+        <v>208599</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>58035</v>
+        <v>57891</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6740635</v>
+        <v>6767877</v>
       </c>
       <c r="E228" t="n">
-        <v>34678518</v>
+        <v>34818670</v>
       </c>
       <c r="F228" t="n">
-        <v>95.41827867855125</v>
+        <v>95.41810001037133</v>
       </c>
       <c r="G228" t="n">
-        <v>206.4987118565639</v>
+        <v>277.5929771565129</v>
       </c>
       <c r="H228" t="n">
         <v>0.12</v>
       </c>
       <c r="I228" t="n">
-        <v>894978</v>
+        <v>898800</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>175823728</v>
+        <v>175852827</v>
       </c>
       <c r="E230" t="n">
-        <v>205414029</v>
+        <v>205448026</v>
       </c>
       <c r="F230" t="n">
-        <v>20947.85782357974</v>
+        <v>24338.17124986052</v>
       </c>
       <c r="G230" t="n">
-        <v>59143.74595747837</v>
+        <v>72213.22374301789</v>
       </c>
       <c r="H230" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I230" t="n">
-        <v>3899861</v>
+        <v>3744933</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>304117</v>
+        <v>302183</v>
       </c>
       <c r="F231" t="n">
-        <v>67.21200861440634</v>
+        <v>154.9481223637274</v>
       </c>
       <c r="G231" t="n">
-        <v>151.9279887780027</v>
+        <v>19.68709550839417</v>
       </c>
       <c r="H231" t="n">
-        <v>0.89</v>
+        <v>1.35</v>
       </c>
       <c r="I231" t="n">
-        <v>287545</v>
+        <v>289531</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29173397</v>
+        <v>29166972</v>
       </c>
       <c r="E232" t="n">
-        <v>40001828</v>
+        <v>39993018</v>
       </c>
       <c r="F232" t="n">
-        <v>6162.861107128039</v>
+        <v>5897.859228630689</v>
       </c>
       <c r="G232" t="n">
-        <v>5075.230917897917</v>
+        <v>5333.556287814851</v>
       </c>
       <c r="H232" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I232" t="n">
-        <v>284941</v>
+        <v>284102</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1722435</v>
+        <v>1968872</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1592532</v>
+        <v>1595148</v>
       </c>
     </row>
     <row r="234">
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8058170</v>
+        <v>8059411</v>
       </c>
       <c r="F234" t="n">
         <v>559.8771086768184</v>
@@ -8602,7 +8602,7 @@
         <v>0.3</v>
       </c>
       <c r="I234" t="n">
-        <v>697781</v>
+        <v>675824</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23833984</v>
+        <v>24015469</v>
       </c>
       <c r="E235" t="n">
-        <v>23833984</v>
+        <v>24015469</v>
       </c>
       <c r="F235" t="n">
-        <v>3908.328333691459</v>
+        <v>7717.55800943507</v>
       </c>
       <c r="G235" t="n">
-        <v>5901.542559952411</v>
+        <v>25529.43019675352</v>
       </c>
       <c r="H235" t="n">
-        <v>0.59</v>
+        <v>0.16</v>
       </c>
       <c r="I235" t="n">
-        <v>1825997</v>
+        <v>1821634</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3307211</v>
+        <v>3316573</v>
       </c>
       <c r="E236" t="n">
-        <v>4430218</v>
+        <v>4442759</v>
       </c>
       <c r="F236" t="n">
-        <v>170.7557187218006</v>
+        <v>631.0338792544452</v>
       </c>
       <c r="G236" t="n">
-        <v>238.704431917468</v>
+        <v>178.9871340454658</v>
       </c>
       <c r="H236" t="n">
-        <v>1.72</v>
+        <v>1.07</v>
       </c>
       <c r="I236" t="n">
-        <v>147862</v>
+        <v>148401</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34122970</v>
+        <v>34046133</v>
       </c>
       <c r="E237" t="n">
-        <v>170289348</v>
+        <v>169905899</v>
       </c>
       <c r="F237" t="n">
-        <v>85904.57493503099</v>
+        <v>90180.23422483793</v>
       </c>
       <c r="G237" t="n">
-        <v>93197.06761670994</v>
+        <v>87812.32173121246</v>
       </c>
       <c r="H237" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>10108759</v>
+        <v>10012182</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26620621</v>
+        <v>26554324</v>
       </c>
       <c r="E238" t="n">
-        <v>60012624</v>
+        <v>59863167</v>
       </c>
       <c r="F238" t="n">
-        <v>125.707082269806</v>
+        <v>79.03081690553849</v>
       </c>
       <c r="G238" t="n">
-        <v>119.126751111639</v>
+        <v>107.8210946627956</v>
       </c>
       <c r="H238" t="n">
-        <v>1.13</v>
+        <v>0.42</v>
       </c>
       <c r="I238" t="n">
-        <v>433366</v>
+        <v>431605</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1868623</v>
+        <v>1869285</v>
       </c>
       <c r="E239" t="n">
-        <v>1868623</v>
+        <v>1869285</v>
       </c>
       <c r="F239" t="n">
-        <v>212.2342300466387</v>
+        <v>212.2340740021837</v>
       </c>
       <c r="G239" t="n">
-        <v>110.6695097119379</v>
+        <v>110.6694283425786</v>
       </c>
       <c r="H239" t="n">
         <v>0.05</v>
       </c>
       <c r="I239" t="n">
-        <v>10352.05</v>
+        <v>10333.45</v>
       </c>
     </row>
     <row r="240">
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71911617</v>
+        <v>71723982</v>
       </c>
       <c r="F240" t="n">
         <v>5.572695997138209</v>
@@ -8812,7 +8812,7 @@
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>67926</v>
+        <v>67521</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>911478</v>
+        <v>910541</v>
       </c>
       <c r="E241" t="n">
-        <v>911478</v>
+        <v>910541</v>
       </c>
       <c r="F241" t="n">
-        <v>5.132435889088358</v>
+        <v>5.132457746223536</v>
       </c>
       <c r="G241" t="n">
-        <v>20.28746403401941</v>
+        <v>20.28755043078177</v>
       </c>
       <c r="H241" t="n">
         <v>0.55</v>
       </c>
       <c r="I241" t="n">
-        <v>16506.84</v>
+        <v>16534.58</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>117822</v>
+        <v>116424</v>
       </c>
       <c r="E242" t="n">
-        <v>117822</v>
+        <v>116424</v>
       </c>
       <c r="F242" t="n">
-        <v>51.11695916322381</v>
+        <v>13.87148049286984</v>
       </c>
       <c r="G242" t="n">
-        <v>35.55672467461241</v>
+        <v>521.9999644441436</v>
       </c>
       <c r="H242" t="n">
-        <v>0.98</v>
+        <v>0.62</v>
       </c>
       <c r="I242" t="n">
-        <v>39577</v>
+        <v>39266</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3448618</v>
+        <v>3440376</v>
       </c>
       <c r="E243" t="n">
-        <v>4954267</v>
+        <v>4942426</v>
       </c>
       <c r="F243" t="n">
-        <v>155.0056808965914</v>
+        <v>147.4330658009223</v>
       </c>
       <c r="G243" t="n">
-        <v>308.2942324129422</v>
+        <v>279.8170141027387</v>
       </c>
       <c r="H243" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I243" t="n">
-        <v>174295</v>
+        <v>173545</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>313623198</v>
+        <v>312788069</v>
       </c>
       <c r="E244" t="n">
-        <v>580274438</v>
+        <v>578729258</v>
       </c>
       <c r="F244" t="n">
-        <v>11889.97977212325</v>
+        <v>10548.38466303426</v>
       </c>
       <c r="G244" t="n">
-        <v>8731.123303269313</v>
+        <v>10872.74358561799</v>
       </c>
       <c r="H244" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I244" t="n">
-        <v>12884070</v>
+        <v>12899326</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>71522643</v>
+        <v>71135787</v>
       </c>
       <c r="E245" t="n">
-        <v>682389148</v>
+        <v>678697623</v>
       </c>
       <c r="F245" t="n">
-        <v>52279.37050694141</v>
+        <v>48183.16046934691</v>
       </c>
       <c r="G245" t="n">
-        <v>64911.94046341316</v>
+        <v>66432.29926584203</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>21127451</v>
+        <v>21260876</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82662</v>
+        <v>82268</v>
       </c>
       <c r="E246" t="n">
-        <v>687190</v>
+        <v>683915</v>
       </c>
       <c r="F246" t="n">
-        <v>51.64291634928664</v>
+        <v>51.64296336586473</v>
       </c>
       <c r="G246" t="n">
-        <v>4.091194579140118</v>
+        <v>4.091198303832351</v>
       </c>
       <c r="H246" t="n">
         <v>0.85</v>
       </c>
       <c r="I246" t="n">
-        <v>235.55</v>
+        <v>175.03</v>
       </c>
     </row>
     <row r="247">
@@ -9042,10 +9042,10 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1912059</v>
+        <v>1907381</v>
       </c>
       <c r="E247" t="n">
-        <v>5460596</v>
+        <v>5447236</v>
       </c>
       <c r="F247" t="n">
         <v>296.326317305218</v>
@@ -9057,7 +9057,7 @@
         <v>0.42</v>
       </c>
       <c r="I247" t="n">
-        <v>72143</v>
+        <v>71816</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>38040521</v>
+        <v>38028087</v>
       </c>
       <c r="E248" t="n">
-        <v>49737735</v>
+        <v>49721476</v>
       </c>
       <c r="F248" t="n">
-        <v>27.74214726216257</v>
+        <v>259.5386962344689</v>
       </c>
       <c r="G248" t="n">
-        <v>311.8036709533266</v>
+        <v>380.1254176720852</v>
       </c>
       <c r="H248" t="n">
-        <v>1.3</v>
+        <v>2.28</v>
       </c>
       <c r="I248" t="n">
-        <v>540066</v>
+        <v>563213</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9269783</v>
+        <v>9264038</v>
       </c>
       <c r="E249" t="n">
-        <v>27509865</v>
+        <v>27492815</v>
       </c>
       <c r="F249" t="n">
-        <v>1097.128097173686</v>
+        <v>1033.535739812375</v>
       </c>
       <c r="G249" t="n">
-        <v>1701.118916901635</v>
+        <v>2560.231828990152</v>
       </c>
       <c r="H249" t="n">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
       <c r="I249" t="n">
-        <v>5778396</v>
+        <v>5797946</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2056739</v>
+        <v>2042453</v>
       </c>
       <c r="E250" t="n">
-        <v>5967262</v>
+        <v>5925812</v>
       </c>
       <c r="F250" t="n">
-        <v>122.3755215680644</v>
+        <v>102.4489243559359</v>
       </c>
       <c r="G250" t="n">
-        <v>4.051069098308905</v>
+        <v>4.08949154660869</v>
       </c>
       <c r="H250" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I250" t="n">
-        <v>10860.64</v>
+        <v>39687</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7318975</v>
+        <v>7333033</v>
       </c>
       <c r="E251" t="n">
-        <v>7318986</v>
+        <v>7333044</v>
       </c>
       <c r="F251" t="n">
-        <v>620.6292016870331</v>
+        <v>73.49268460067536</v>
       </c>
       <c r="G251" t="n">
-        <v>387.9706969198796</v>
+        <v>387.9699085522761</v>
       </c>
       <c r="H251" t="n">
         <v>0.24</v>
       </c>
       <c r="I251" t="n">
-        <v>344913</v>
+        <v>347955</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6053691</v>
+        <v>6047058</v>
       </c>
       <c r="E252" t="n">
-        <v>6053691</v>
+        <v>6047058</v>
       </c>
       <c r="F252" t="n">
-        <v>340.5106841362125</v>
+        <v>509.6489932060953</v>
       </c>
       <c r="G252" t="n">
-        <v>1499.578870173209</v>
+        <v>1446.284872141384</v>
       </c>
       <c r="H252" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="I252" t="n">
-        <v>500011</v>
+        <v>498497</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6211891</v>
+        <v>6212195</v>
       </c>
       <c r="E253" t="n">
-        <v>22689636</v>
+        <v>22690746</v>
       </c>
       <c r="F253" t="n">
-        <v>1323.226091929173</v>
+        <v>1323.223555863329</v>
       </c>
       <c r="G253" t="n">
-        <v>459.63158889</v>
+        <v>280.5164671659604</v>
       </c>
       <c r="H253" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="I253" t="n">
-        <v>530178</v>
+        <v>532104</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2099354</v>
+        <v>2167596</v>
       </c>
       <c r="E254" t="n">
-        <v>18517694</v>
+        <v>19119634</v>
       </c>
       <c r="F254" t="n">
-        <v>218.8632547015829</v>
+        <v>62.38457213886866</v>
       </c>
       <c r="G254" t="n">
-        <v>4046.13107704651</v>
+        <v>1408.51928331744</v>
       </c>
       <c r="H254" t="n">
-        <v>0.63</v>
+        <v>1.1</v>
       </c>
       <c r="I254" t="n">
-        <v>70625</v>
+        <v>25562</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14620990</v>
+        <v>14707896</v>
       </c>
       <c r="E255" t="n">
-        <v>29599302</v>
+        <v>29775238</v>
       </c>
       <c r="F255" t="n">
-        <v>96.59846360568395</v>
+        <v>65.89543613381024</v>
       </c>
       <c r="G255" t="n">
-        <v>156.7256094927189</v>
+        <v>156.7755218616438</v>
       </c>
       <c r="H255" t="n">
-        <v>1.5</v>
+        <v>2.09</v>
       </c>
       <c r="I255" t="n">
-        <v>464422</v>
+        <v>464261</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>45055258</v>
+        <v>44855447</v>
       </c>
       <c r="E256" t="n">
-        <v>45055258</v>
+        <v>44855447</v>
       </c>
       <c r="F256" t="n">
-        <v>5816.428396860243</v>
+        <v>5657.352257136792</v>
       </c>
       <c r="G256" t="n">
-        <v>4780.027660572146</v>
+        <v>4569.558088157476</v>
       </c>
       <c r="H256" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I256" t="n">
-        <v>8033937</v>
+        <v>7997539</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8640824</v>
+        <v>8693045</v>
       </c>
       <c r="E257" t="n">
-        <v>12311195</v>
+        <v>12385597</v>
       </c>
       <c r="F257" t="n">
-        <v>42.60609508969644</v>
+        <v>37.56360719956177</v>
       </c>
       <c r="G257" t="n">
-        <v>39.7745078944759</v>
+        <v>625.649285959705</v>
       </c>
       <c r="H257" t="n">
         <v>0.16</v>
       </c>
       <c r="I257" t="n">
-        <v>416666</v>
+        <v>417529</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>146496666</v>
+        <v>146030630</v>
       </c>
       <c r="F258" t="n">
-        <v>957.5171081183929</v>
+        <v>671.9127793579842</v>
       </c>
       <c r="G258" t="n">
-        <v>43.47735715074801</v>
+        <v>47.12405266758203</v>
       </c>
       <c r="H258" t="n">
-        <v>0.55</v>
+        <v>1.17</v>
       </c>
       <c r="I258" t="n">
-        <v>1552944</v>
+        <v>1575444</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16437062</v>
+        <v>16509965</v>
       </c>
       <c r="F259" t="n">
-        <v>93.55376409100478</v>
+        <v>116.698398896826</v>
       </c>
       <c r="G259" t="n">
-        <v>125.5784472926976</v>
+        <v>114.2791067783495</v>
       </c>
       <c r="H259" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I259" t="n">
-        <v>967540</v>
+        <v>965299</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>727537</v>
+        <v>716740</v>
       </c>
       <c r="F260" t="n">
-        <v>40.12737065077195</v>
+        <v>40.12776405272042</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01611107737001</v>
+        <v>28.01638574258</v>
       </c>
       <c r="H260" t="n">
         <v>2.13</v>
       </c>
       <c r="I260" t="n">
-        <v>223266</v>
+        <v>220563</v>
       </c>
     </row>
     <row r="261">
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3037987</v>
+        <v>3037483</v>
       </c>
       <c r="F261" t="n">
         <v>34.648654135692</v>
@@ -9547,7 +9547,7 @@
         <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>72367</v>
+        <v>72325</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2782020</v>
+        <v>2778369</v>
       </c>
       <c r="E262" t="n">
-        <v>2784429</v>
+        <v>2780775</v>
       </c>
       <c r="F262" t="n">
-        <v>3.905789952620666</v>
+        <v>29.22055044232615</v>
       </c>
       <c r="G262" t="n">
-        <v>41.41099364051292</v>
+        <v>25.30143529687774</v>
       </c>
       <c r="H262" t="n">
         <v>0.65</v>
       </c>
       <c r="I262" t="n">
-        <v>81066</v>
+        <v>91953</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61646501</v>
+        <v>61683470</v>
       </c>
       <c r="E263" t="n">
-        <v>101987940</v>
+        <v>102049100</v>
       </c>
       <c r="F263" t="n">
-        <v>8858.768707911313</v>
+        <v>9151.096377254089</v>
       </c>
       <c r="G263" t="n">
-        <v>10950.93253008548</v>
+        <v>8307.988746619776</v>
       </c>
       <c r="H263" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I263" t="n">
-        <v>6182661</v>
+        <v>6190772</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>695416</v>
+        <v>697707</v>
       </c>
       <c r="F264" t="n">
-        <v>3271.310028623554</v>
+        <v>3271.339302155694</v>
       </c>
       <c r="G264" t="n">
-        <v>370.3752257279702</v>
+        <v>370.3751292679327</v>
       </c>
       <c r="H264" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="I264" t="n">
-        <v>624565</v>
+        <v>636051</v>
       </c>
     </row>
     <row r="265">
@@ -9672,10 +9672,10 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1254642</v>
+        <v>1252997</v>
       </c>
       <c r="E265" t="n">
-        <v>3795755</v>
+        <v>3790666</v>
       </c>
       <c r="F265" t="n">
         <v>154.8897258480004</v>
@@ -9687,7 +9687,7 @@
         <v>0.79</v>
       </c>
       <c r="I265" t="n">
-        <v>11352.12</v>
+        <v>11375.86</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38134724</v>
+        <v>38103680</v>
       </c>
       <c r="E266" t="n">
-        <v>270368972</v>
+        <v>270148878</v>
       </c>
       <c r="F266" t="n">
-        <v>65511.99683172956</v>
+        <v>73187.5282958079</v>
       </c>
       <c r="G266" t="n">
-        <v>37732.38738990695</v>
+        <v>31958.87851020971</v>
       </c>
       <c r="H266" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I266" t="n">
-        <v>1807657</v>
+        <v>1696032</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>63116</v>
+        <v>64193</v>
       </c>
       <c r="E267" t="n">
-        <v>329313</v>
+        <v>334933</v>
       </c>
       <c r="F267" t="n">
-        <v>21.99451730247559</v>
+        <v>22.21123167561998</v>
       </c>
       <c r="G267" t="n">
-        <v>21.69425103176411</v>
+        <v>34.57437515002338</v>
       </c>
       <c r="H267" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="I267" t="n">
-        <v>319979</v>
+        <v>318575</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1261471</v>
+        <v>1261429</v>
       </c>
       <c r="E268" t="n">
-        <v>7823079</v>
+        <v>7822815</v>
       </c>
       <c r="F268" t="n">
-        <v>1689.97982499216</v>
+        <v>2054.509087525181</v>
       </c>
       <c r="G268" t="n">
-        <v>3142.669426959799</v>
+        <v>3005.080024187817</v>
       </c>
       <c r="H268" t="n">
         <v>0.24</v>
       </c>
       <c r="I268" t="n">
-        <v>746078</v>
+        <v>742283</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>603478161</v>
+        <v>602707899</v>
       </c>
       <c r="E269" t="n">
-        <v>2337181881</v>
+        <v>2334198771</v>
       </c>
       <c r="F269" t="n">
-        <v>155411.5326408967</v>
+        <v>181051.2457177599</v>
       </c>
       <c r="G269" t="n">
-        <v>226089.9970320621</v>
+        <v>202581.5269147776</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>31463016</v>
+        <v>32136377</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3268458</v>
+        <v>3263433</v>
       </c>
       <c r="F270" t="n">
-        <v>171.9868674742504</v>
+        <v>175.8119241610824</v>
       </c>
       <c r="G270" t="n">
-        <v>147.4017298860623</v>
+        <v>196.4585130908493</v>
       </c>
       <c r="H270" t="n">
-        <v>0.46</v>
+        <v>0.12</v>
       </c>
       <c r="I270" t="n">
-        <v>30755</v>
+        <v>30674</v>
       </c>
     </row>
     <row r="271">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>908775</v>
+        <v>912426</v>
       </c>
       <c r="F271" t="n">
         <v>106.7472535314188</v>
@@ -9897,7 +9897,7 @@
         <v>2.8</v>
       </c>
       <c r="I271" t="n">
-        <v>382750</v>
+        <v>380135</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5844066</v>
+        <v>5848393</v>
       </c>
       <c r="E272" t="n">
-        <v>26164613</v>
+        <v>26183985</v>
       </c>
       <c r="F272" t="n">
-        <v>139.978534472491</v>
+        <v>139.9025016744341</v>
       </c>
       <c r="G272" t="n">
-        <v>135.9988380108041</v>
+        <v>176.8702746880438</v>
       </c>
       <c r="H272" t="n">
         <v>0.15</v>
       </c>
       <c r="I272" t="n">
-        <v>144484</v>
+        <v>143677</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6251495</v>
+        <v>6230661</v>
       </c>
       <c r="E273" t="n">
-        <v>11968994</v>
+        <v>11929106</v>
       </c>
       <c r="F273" t="n">
-        <v>4065.07095362545</v>
+        <v>11.62467428741457</v>
       </c>
       <c r="G273" t="n">
-        <v>108.957204991792</v>
+        <v>70.17607531013975</v>
       </c>
       <c r="H273" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I273" t="n">
-        <v>191491</v>
+        <v>192918</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3191218</v>
+        <v>3199695</v>
       </c>
       <c r="E274" t="n">
-        <v>20984707</v>
+        <v>21040452</v>
       </c>
       <c r="F274" t="n">
-        <v>310.7157103132028</v>
+        <v>491.0583502125984</v>
       </c>
       <c r="G274" t="n">
-        <v>739.739804878859</v>
+        <v>753.9172640380591</v>
       </c>
       <c r="H274" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="I274" t="n">
-        <v>1416448</v>
+        <v>1427264</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3677936</v>
+        <v>3676078</v>
       </c>
       <c r="E275" t="n">
-        <v>6269542</v>
+        <v>6266374</v>
       </c>
       <c r="F275" t="n">
-        <v>672.5841383805343</v>
+        <v>98.99255140952698</v>
       </c>
       <c r="G275" t="n">
-        <v>526.0669806210739</v>
+        <v>20.99849987569373</v>
       </c>
       <c r="H275" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I275" t="n">
-        <v>1223407</v>
+        <v>1232313</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>433579</v>
+        <v>432981</v>
       </c>
       <c r="E276" t="n">
-        <v>433579</v>
+        <v>432981</v>
       </c>
       <c r="F276" t="n">
-        <v>3.988327768315675</v>
+        <v>3.988324361045973</v>
       </c>
       <c r="G276" t="n">
-        <v>5.379182375685523</v>
+        <v>6.479420536835868</v>
       </c>
       <c r="H276" t="n">
         <v>0.2</v>
       </c>
       <c r="I276" t="n">
-        <v>465.3</v>
+        <v>465.23</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7342961</v>
+        <v>7354080</v>
       </c>
       <c r="E277" t="n">
-        <v>10521896</v>
+        <v>10537829</v>
       </c>
       <c r="F277" t="n">
-        <v>1600.861576910807</v>
+        <v>1601.272258433663</v>
       </c>
       <c r="G277" t="n">
-        <v>352.7174311807755</v>
+        <v>234.4039508236289</v>
       </c>
       <c r="H277" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>175495</v>
+        <v>175411</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>118315319</v>
+        <v>117759007</v>
       </c>
       <c r="E278" t="n">
-        <v>1028678983</v>
+        <v>1023842192</v>
       </c>
       <c r="F278" t="n">
-        <v>10656.86018508199</v>
+        <v>9569.943982686629</v>
       </c>
       <c r="G278" t="n">
-        <v>9485.689925535868</v>
+        <v>10464.93547663956</v>
       </c>
       <c r="H278" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I278" t="n">
-        <v>8969312</v>
+        <v>9092777</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>103353243</v>
+        <v>102398268</v>
       </c>
       <c r="E279" t="n">
-        <v>157667796</v>
+        <v>156210959</v>
       </c>
       <c r="F279" t="n">
-        <v>47871.2363056773</v>
+        <v>43734.10081174963</v>
       </c>
       <c r="G279" t="n">
-        <v>50048.50217854347</v>
+        <v>49150.33210266217</v>
       </c>
       <c r="H279" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="I279" t="n">
-        <v>7714462</v>
+        <v>7763871</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15806516</v>
+        <v>15809704</v>
       </c>
       <c r="E280" t="n">
-        <v>21685171</v>
+        <v>21689545</v>
       </c>
       <c r="F280" t="n">
-        <v>6844.627878332944</v>
+        <v>6606.903275213028</v>
       </c>
       <c r="G280" t="n">
-        <v>2129.709094558789</v>
+        <v>1785.883064041846</v>
       </c>
       <c r="H280" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="I280" t="n">
-        <v>354713</v>
+        <v>354307</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5656312</v>
+        <v>5649546</v>
       </c>
       <c r="E281" t="n">
-        <v>5656312</v>
+        <v>5649546</v>
       </c>
       <c r="F281" t="n">
-        <v>588.1902023503625</v>
+        <v>618.388223703676</v>
       </c>
       <c r="G281" t="n">
-        <v>5.54084767415721</v>
+        <v>5.540883636458357</v>
       </c>
       <c r="H281" t="n">
         <v>0.86</v>
       </c>
       <c r="I281" t="n">
-        <v>755350</v>
+        <v>757700</v>
       </c>
     </row>
     <row r="282">
@@ -10267,10 +10267,10 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>113747301</v>
+        <v>114093632</v>
       </c>
       <c r="E282" t="n">
-        <v>436352956</v>
+        <v>437681536</v>
       </c>
       <c r="F282" t="n">
         <v>42261.21235734763</v>
@@ -10282,7 +10282,7 @@
         <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>20662035</v>
+        <v>21192128</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>761864</v>
+        <v>764162</v>
       </c>
       <c r="F283" t="n">
-        <v>5.292211210251636</v>
+        <v>5.292206737493193</v>
       </c>
       <c r="G283" t="n">
-        <v>4.062613820929311</v>
+        <v>4.062610387375821</v>
       </c>
       <c r="H283" t="n">
         <v>0.25</v>
       </c>
       <c r="I283" t="n">
-        <v>51351</v>
+        <v>51319</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3148219</v>
+        <v>3186838</v>
       </c>
       <c r="E284" t="n">
-        <v>29829838</v>
+        <v>30195764</v>
       </c>
       <c r="F284" t="n">
-        <v>612.9875650353011</v>
+        <v>1011.087757723762</v>
       </c>
       <c r="G284" t="n">
-        <v>939.7861081155773</v>
+        <v>952.466001259355</v>
       </c>
       <c r="H284" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>309443</v>
+        <v>297703</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>87657</v>
+        <v>87468</v>
       </c>
       <c r="F285" t="n">
-        <v>53.83800490614651</v>
+        <v>697.8473945722183</v>
       </c>
       <c r="G285" t="n">
-        <v>76.47576852067895</v>
+        <v>65.31671781445264</v>
       </c>
       <c r="H285" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I285" t="n">
-        <v>4095.42</v>
+        <v>4193.31</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>137611</v>
+        <v>136881</v>
       </c>
       <c r="F286" t="n">
-        <v>4.009825143144091</v>
+        <v>4.00981745800196</v>
       </c>
       <c r="G286" t="n">
-        <v>5.33257982610635</v>
+        <v>5.332569605801866</v>
       </c>
       <c r="H286" t="n">
         <v>0.79</v>
       </c>
       <c r="I286" t="n">
-        <v>90911</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22324541</v>
+        <v>21836481</v>
       </c>
       <c r="E287" t="n">
-        <v>22324541</v>
+        <v>21836481</v>
       </c>
       <c r="F287" t="n">
-        <v>392.6204933736956</v>
+        <v>640.0920104387072</v>
       </c>
       <c r="G287" t="n">
-        <v>589.2833735801636</v>
+        <v>8858.416377178424</v>
       </c>
       <c r="H287" t="n">
-        <v>0.84</v>
+        <v>0.14</v>
       </c>
       <c r="I287" t="n">
-        <v>572039</v>
+        <v>574381</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>576059</v>
+        <v>571764</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5935769</v>
+        <v>5936299</v>
       </c>
       <c r="E289" t="n">
-        <v>37096855</v>
+        <v>37100172</v>
       </c>
       <c r="F289" t="n">
-        <v>6799.192061955332</v>
+        <v>6799.241756215672</v>
       </c>
       <c r="G289" t="n">
-        <v>260.697470670084</v>
+        <v>260.6251894419919</v>
       </c>
       <c r="H289" t="n">
         <v>0.45</v>
       </c>
       <c r="I289" t="n">
-        <v>384805</v>
+        <v>385059</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>495039686</v>
+        <v>494033293</v>
       </c>
       <c r="E290" t="n">
-        <v>495039686</v>
+        <v>494033293</v>
       </c>
       <c r="F290" t="n">
-        <v>1143030.425039728</v>
+        <v>1154906.882555498</v>
       </c>
       <c r="G290" t="n">
-        <v>1328841.871909725</v>
+        <v>1354200.628133615</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32903418</v>
+        <v>32908138</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5100227</v>
+        <v>5006166</v>
       </c>
       <c r="E291" t="n">
-        <v>18992203</v>
+        <v>18641938</v>
       </c>
       <c r="F291" t="n">
-        <v>7134.715242485561</v>
+        <v>7146.043279736416</v>
       </c>
       <c r="G291" t="n">
-        <v>6920.455376074069</v>
+        <v>6899.59439402299</v>
       </c>
       <c r="H291" t="n">
         <v>0.37</v>
       </c>
       <c r="I291" t="n">
-        <v>62425</v>
+        <v>108318</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31642485</v>
+        <v>31464504</v>
       </c>
       <c r="F292" t="n">
-        <v>5638.124791083549</v>
+        <v>8169.655002427019</v>
       </c>
       <c r="G292" t="n">
-        <v>4184.849583818854</v>
+        <v>10056.9756191963</v>
       </c>
       <c r="H292" t="n">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="I292" t="n">
-        <v>5605263</v>
+        <v>5575360</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31460505</v>
+        <v>31477178</v>
       </c>
       <c r="E293" t="n">
-        <v>112765782</v>
+        <v>112825544</v>
       </c>
       <c r="F293" t="n">
-        <v>22.60292358958744</v>
+        <v>22.60309612885174</v>
       </c>
       <c r="G293" t="n">
-        <v>4821.852426385954</v>
+        <v>4824.415966240213</v>
       </c>
       <c r="H293" t="n">
         <v>0.7</v>
       </c>
       <c r="I293" t="n">
-        <v>96627</v>
+        <v>96685</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>765429</v>
+        <v>768250</v>
       </c>
       <c r="E294" t="n">
-        <v>12208316</v>
+        <v>12253313</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86396737271058</v>
+        <v>12.86394271791539</v>
       </c>
       <c r="G294" t="n">
-        <v>10.99500701812298</v>
+        <v>10.99498594533585</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>66704</v>
+        <v>66641</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85268</v>
+        <v>85231</v>
       </c>
       <c r="F295" t="n">
-        <v>88.73778395697578</v>
+        <v>88.73865392718677</v>
       </c>
       <c r="G295" t="n">
-        <v>57.6211510575846</v>
+        <v>57.62171596559456</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>57949</v>
+        <v>57791</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1543343</v>
+        <v>1544292</v>
       </c>
       <c r="F296" t="n">
-        <v>4.050103163260689</v>
+        <v>4.050095579550621</v>
       </c>
       <c r="G296" t="n">
-        <v>5.424257454214002</v>
+        <v>5.424247297436705</v>
       </c>
       <c r="H296" t="n">
         <v>0.7</v>
       </c>
       <c r="I296" t="n">
-        <v>616523</v>
+        <v>615886</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2654543382</v>
+        <v>2652720959</v>
       </c>
       <c r="E297" t="n">
-        <v>2818434352</v>
+        <v>2816499412</v>
       </c>
       <c r="F297" t="n">
-        <v>40645.52636999382</v>
+        <v>39106.88844916151</v>
       </c>
       <c r="G297" t="n">
-        <v>65848.71595172268</v>
+        <v>71606.08323698665</v>
       </c>
       <c r="H297" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I297" t="n">
-        <v>39911727</v>
+        <v>39425427</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2172894</v>
+        <v>2177655</v>
       </c>
       <c r="E298" t="n">
-        <v>16713288</v>
+        <v>16749907</v>
       </c>
       <c r="F298" t="n">
-        <v>4075.350934825872</v>
+        <v>4086.969493039864</v>
       </c>
       <c r="G298" t="n">
-        <v>4052.086333438816</v>
+        <v>4057.757869278553</v>
       </c>
       <c r="H298" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="I298" t="n">
-        <v>176846</v>
+        <v>176687</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1642673</v>
+        <v>1642829</v>
       </c>
       <c r="E299" t="n">
-        <v>1648471</v>
+        <v>1648628</v>
       </c>
       <c r="F299" t="n">
-        <v>1364.753261001758</v>
+        <v>855.5393567173862</v>
       </c>
       <c r="G299" t="n">
-        <v>938.1211049572055</v>
+        <v>1162.266678785418</v>
       </c>
       <c r="H299" t="n">
-        <v>0.24</v>
+        <v>0.8</v>
       </c>
       <c r="I299" t="n">
-        <v>391675</v>
+        <v>392426</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87083956</v>
+        <v>87357948</v>
       </c>
       <c r="E300" t="n">
-        <v>321924981</v>
+        <v>322937253</v>
       </c>
       <c r="F300" t="n">
-        <v>8057.649676820767</v>
+        <v>6511.732180318195</v>
       </c>
       <c r="G300" t="n">
-        <v>5844.197223356858</v>
+        <v>796.1457472273343</v>
       </c>
       <c r="H300" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I300" t="n">
-        <v>341000</v>
+        <v>343174</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2459361</v>
+        <v>2459639</v>
       </c>
       <c r="E301" t="n">
-        <v>9868270</v>
+        <v>9869385</v>
       </c>
       <c r="F301" t="n">
-        <v>4.167569923164185</v>
+        <v>4.167567874037585</v>
       </c>
       <c r="G301" t="n">
-        <v>620.626812951234</v>
+        <v>7.439942246709303</v>
       </c>
       <c r="H301" t="n">
         <v>0.93</v>
       </c>
       <c r="I301" t="n">
-        <v>45255</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61798553</v>
+        <v>61520483</v>
       </c>
       <c r="E302" t="n">
-        <v>151587663</v>
+        <v>150905575</v>
       </c>
       <c r="F302" t="n">
-        <v>2785.293564150229</v>
+        <v>2199.011215849338</v>
       </c>
       <c r="G302" t="n">
-        <v>2774.698866254504</v>
+        <v>2557.535247271036</v>
       </c>
       <c r="H302" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="I302" t="n">
-        <v>16459324</v>
+        <v>22648821</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>733720224</v>
+        <v>738698096</v>
       </c>
       <c r="E303" t="n">
-        <v>1131461366</v>
+        <v>1139137684</v>
       </c>
       <c r="F303" t="n">
-        <v>45789.25021477564</v>
+        <v>29224.515330069</v>
       </c>
       <c r="G303" t="n">
-        <v>36653.36920047658</v>
+        <v>62655.27815913834</v>
       </c>
       <c r="H303" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I303" t="n">
-        <v>205535009</v>
+        <v>214499498</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20671707</v>
+        <v>20655602</v>
       </c>
       <c r="E304" t="n">
-        <v>20671707</v>
+        <v>20655602</v>
       </c>
       <c r="F304" t="n">
-        <v>3783.370767281482</v>
+        <v>4793.52971137683</v>
       </c>
       <c r="G304" t="n">
-        <v>3691.211989746727</v>
+        <v>3560.386069135777</v>
       </c>
       <c r="H304" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="I304" t="n">
-        <v>7119398</v>
+        <v>7122800</v>
       </c>
     </row>
     <row r="305">
@@ -11070,10 +11070,10 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1734509</v>
+        <v>1703526</v>
       </c>
       <c r="E305" t="n">
-        <v>2846035</v>
+        <v>2795197</v>
       </c>
       <c r="F305" t="n">
         <v>205.272252495433</v>
@@ -11085,7 +11085,7 @@
         <v>0.82</v>
       </c>
       <c r="I305" t="n">
-        <v>154081</v>
+        <v>155597</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5667409</v>
+        <v>5664770</v>
       </c>
       <c r="E306" t="n">
-        <v>5667409</v>
+        <v>5664770</v>
       </c>
       <c r="F306" t="n">
-        <v>41.85590576587551</v>
+        <v>41.518782968366</v>
       </c>
       <c r="G306" t="n">
-        <v>5.438231977999351</v>
+        <v>5.43821884359871</v>
       </c>
       <c r="H306" t="n">
         <v>0.33</v>
       </c>
       <c r="I306" t="n">
-        <v>498.89</v>
+        <v>517.36</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39948269</v>
+        <v>39999030</v>
       </c>
       <c r="E307" t="n">
-        <v>190679748</v>
+        <v>190922041</v>
       </c>
       <c r="F307" t="n">
-        <v>321.1535210956796</v>
+        <v>321.1529197442836</v>
       </c>
       <c r="G307" t="n">
-        <v>353.5251138936683</v>
+        <v>335.2708325462841</v>
       </c>
       <c r="H307" t="n">
         <v>0.5</v>
       </c>
       <c r="I307" t="n">
-        <v>419968</v>
+        <v>420732</v>
       </c>
     </row>
     <row r="308">
@@ -11175,10 +11175,10 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>384105</v>
+        <v>383368</v>
       </c>
       <c r="E308" t="n">
-        <v>718385</v>
+        <v>717006</v>
       </c>
       <c r="F308" t="n">
         <v>673.6176482885044</v>
@@ -11190,7 +11190,7 @@
         <v>0.25</v>
       </c>
       <c r="I308" t="n">
-        <v>1243.17</v>
+        <v>1240.68</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23570608</v>
+        <v>23423090</v>
       </c>
       <c r="E309" t="n">
-        <v>39284346</v>
+        <v>39038483</v>
       </c>
       <c r="F309" t="n">
-        <v>5680.937098427455</v>
+        <v>6388.504361291456</v>
       </c>
       <c r="G309" t="n">
-        <v>4031.638603406982</v>
+        <v>4301.922936685503</v>
       </c>
       <c r="H309" t="n">
-        <v>0.76</v>
+        <v>0.25</v>
       </c>
       <c r="I309" t="n">
-        <v>622773</v>
+        <v>618361</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107826</v>
+        <v>107764</v>
       </c>
       <c r="F310" t="n">
-        <v>5.147882663572204</v>
+        <v>5.147904586489449</v>
       </c>
       <c r="G310" t="n">
-        <v>11.2841240420449</v>
+        <v>11.28417209693149</v>
       </c>
       <c r="H310" t="n">
         <v>0.79</v>
       </c>
       <c r="I310" t="n">
-        <v>48779</v>
+        <v>48541</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23416595</v>
+        <v>23147899</v>
       </c>
       <c r="E311" t="n">
-        <v>23416595</v>
+        <v>23147899</v>
       </c>
       <c r="F311" t="n">
-        <v>5991.449460502062</v>
+        <v>5186.415695100486</v>
       </c>
       <c r="G311" t="n">
-        <v>9583.349976804082</v>
+        <v>5710.184448531808</v>
       </c>
       <c r="H311" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I311" t="n">
-        <v>6250187</v>
+        <v>6444640</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3816373</v>
+        <v>3818625</v>
       </c>
       <c r="E312" t="n">
-        <v>8327277</v>
+        <v>8332191</v>
       </c>
       <c r="F312" t="n">
-        <v>1829.326249674738</v>
+        <v>1832.575717219165</v>
       </c>
       <c r="G312" t="n">
-        <v>1879.882462014057</v>
+        <v>1820.998642562876</v>
       </c>
       <c r="H312" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="I312" t="n">
-        <v>855737</v>
+        <v>858831</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9355488</v>
+        <v>9357097</v>
       </c>
       <c r="E313" t="n">
-        <v>9355488</v>
+        <v>9357097</v>
       </c>
       <c r="F313" t="n">
-        <v>14932.86180744594</v>
+        <v>14956.12127299575</v>
       </c>
       <c r="G313" t="n">
-        <v>113724.8977378992</v>
+        <v>113719.3036361193</v>
       </c>
       <c r="H313" t="n">
         <v>0.01</v>
       </c>
       <c r="I313" t="n">
-        <v>3177175</v>
+        <v>3157012</v>
       </c>
     </row>
     <row r="314">
@@ -11385,10 +11385,10 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>492572772</v>
+        <v>491973421</v>
       </c>
       <c r="E314" t="n">
-        <v>1715474711</v>
+        <v>1713387361</v>
       </c>
       <c r="F314" t="n">
         <v>406347.8727751651</v>
@@ -11400,7 +11400,7 @@
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>31371925</v>
+        <v>31137754</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>23980948</v>
+        <v>24051852</v>
       </c>
       <c r="E315" t="n">
-        <v>23960117</v>
+        <v>24030960</v>
       </c>
       <c r="F315" t="n">
-        <v>174.8617519821877</v>
+        <v>174.7918366795003</v>
       </c>
       <c r="G315" t="n">
-        <v>792.2480960696669</v>
+        <v>635.2466075291644</v>
       </c>
       <c r="H315" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="I315" t="n">
-        <v>92722</v>
+        <v>92156</v>
       </c>
     </row>
     <row r="316">
@@ -11455,16 +11455,16 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48031962</v>
+        <v>47990161</v>
       </c>
       <c r="E316" t="n">
-        <v>118543310</v>
+        <v>118440144</v>
       </c>
       <c r="F316" t="n">
-        <v>953.4093127562518</v>
+        <v>953.4106495326643</v>
       </c>
       <c r="G316" t="n">
-        <v>1698.061201213461</v>
+        <v>1698.063582067235</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11749267</v>
+        <v>12048727</v>
       </c>
       <c r="E317" t="n">
-        <v>23793266</v>
+        <v>24397936</v>
       </c>
       <c r="F317" t="n">
-        <v>247.9209102502078</v>
+        <v>247.9207007176891</v>
       </c>
       <c r="G317" t="n">
-        <v>219.8645892134749</v>
+        <v>1391.672310035462</v>
       </c>
       <c r="H317" t="n">
         <v>0.42</v>
       </c>
       <c r="I317" t="n">
-        <v>24449</v>
+        <v>16560.33</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7674304</v>
+        <v>7680704</v>
       </c>
       <c r="E318" t="n">
-        <v>19937016</v>
+        <v>19953644</v>
       </c>
       <c r="F318" t="n">
-        <v>193.2767427346715</v>
+        <v>193.1514106901826</v>
       </c>
       <c r="G318" t="n">
-        <v>679.3642579904345</v>
+        <v>849.4869849269337</v>
       </c>
       <c r="H318" t="n">
         <v>0.25</v>
       </c>
       <c r="I318" t="n">
-        <v>682224</v>
+        <v>683282</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>150184</v>
+        <v>149748</v>
       </c>
       <c r="F319" t="n">
-        <v>100.6707951750382</v>
+        <v>231.3594446104274</v>
       </c>
       <c r="G319" t="n">
-        <v>250.2129665586507</v>
+        <v>250.2130676171143</v>
       </c>
       <c r="H319" t="n">
-        <v>1.5</v>
+        <v>0.38</v>
       </c>
       <c r="I319" t="n">
-        <v>56507</v>
+        <v>56202</v>
       </c>
     </row>
     <row r="320">
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19253905643</v>
+        <v>19262121954</v>
       </c>
       <c r="F320" t="n">
         <v>52038.33152015413</v>
@@ -11610,7 +11610,7 @@
         <v>0.43</v>
       </c>
       <c r="I320" t="n">
-        <v>48890399</v>
+        <v>48928164</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>100804004</v>
+        <v>100416055</v>
       </c>
       <c r="E321" t="n">
-        <v>152729714</v>
+        <v>152141925</v>
       </c>
       <c r="F321" t="n">
-        <v>18036.35034414098</v>
+        <v>18514.86626938722</v>
       </c>
       <c r="G321" t="n">
-        <v>20067.52975763085</v>
+        <v>19793.03939233655</v>
       </c>
       <c r="H321" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I321" t="n">
-        <v>7224600</v>
+        <v>7225843</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2646031</v>
+        <v>2647106</v>
       </c>
       <c r="E322" t="n">
-        <v>10584123</v>
+        <v>10588426</v>
       </c>
       <c r="F322" t="n">
-        <v>25472.69197663728</v>
+        <v>28663.20383634491</v>
       </c>
       <c r="G322" t="n">
-        <v>13581.66344428423</v>
+        <v>16595.81497975096</v>
       </c>
       <c r="H322" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I322" t="n">
-        <v>5322744</v>
+        <v>5352632</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>215537507</v>
+        <v>216194129</v>
       </c>
       <c r="E323" t="n">
-        <v>662696722</v>
+        <v>664715588</v>
       </c>
       <c r="F323" t="n">
-        <v>122482.2034498834</v>
+        <v>92120.08417902958</v>
       </c>
       <c r="G323" t="n">
-        <v>242921.5813450782</v>
+        <v>207834.6371246084</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>11508337</v>
+        <v>11562323</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>151453617</v>
+        <v>149512807</v>
       </c>
       <c r="E324" t="n">
-        <v>395668374</v>
+        <v>390598061</v>
       </c>
       <c r="F324" t="n">
-        <v>12823.64727646877</v>
+        <v>15717.09802052715</v>
       </c>
       <c r="G324" t="n">
-        <v>5353.378112654905</v>
+        <v>5077.670267974871</v>
       </c>
       <c r="H324" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="I324" t="n">
-        <v>6487870</v>
+        <v>6420817</v>
       </c>
     </row>
     <row r="325">
@@ -11770,10 +11770,10 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2433278</v>
+        <v>2432429</v>
       </c>
       <c r="E325" t="n">
-        <v>3339255</v>
+        <v>3338105</v>
       </c>
       <c r="F325" t="n">
         <v>254.3416234278419</v>
@@ -11785,7 +11785,7 @@
         <v>0.63</v>
       </c>
       <c r="I325" t="n">
-        <v>260415</v>
+        <v>446737</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>400610131</v>
+        <v>401950241</v>
       </c>
       <c r="E326" t="n">
-        <v>2289200747</v>
+        <v>2296858518</v>
       </c>
       <c r="F326" t="n">
-        <v>282802.5526803149</v>
+        <v>268432.9823140326</v>
       </c>
       <c r="G326" t="n">
-        <v>467001.2076427953</v>
+        <v>524798.383617539</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>36447949</v>
+        <v>37007633</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93189</v>
+        <v>93402</v>
       </c>
       <c r="F2" t="n">
-        <v>5.531882389758907</v>
+        <v>5.532250425135823</v>
       </c>
       <c r="G2" t="n">
-        <v>29.10827029341627</v>
+        <v>29.11020686264787</v>
       </c>
       <c r="H2" t="n">
         <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>849.49</v>
+        <v>1188.46</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>613967647</v>
+        <v>615410697</v>
       </c>
       <c r="E3" t="n">
-        <v>1191301677</v>
+        <v>1194148666</v>
       </c>
       <c r="F3" t="n">
-        <v>14313.51804578085</v>
+        <v>15033.29299471031</v>
       </c>
       <c r="G3" t="n">
-        <v>27271.4003608899</v>
+        <v>29517.14171956982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="I3" t="n">
-        <v>23487784</v>
+        <v>23321472</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246173502</v>
+        <v>246566552</v>
       </c>
       <c r="E4" t="n">
-        <v>1543719427</v>
+        <v>1546184187</v>
       </c>
       <c r="F4" t="n">
-        <v>93816.90601015736</v>
+        <v>73513.73834811203</v>
       </c>
       <c r="G4" t="n">
-        <v>120674.1555741686</v>
+        <v>127577.5558121016</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15537471</v>
+        <v>15432255</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140252919</v>
+        <v>140940761</v>
       </c>
       <c r="E5" t="n">
-        <v>155422637</v>
+        <v>156184808</v>
       </c>
       <c r="F5" t="n">
-        <v>151714.5836550535</v>
+        <v>134905.0377265709</v>
       </c>
       <c r="G5" t="n">
-        <v>177691.9328221842</v>
+        <v>213058.0738140615</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>34120588</v>
+        <v>33956745</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49959869</v>
+        <v>49805854</v>
       </c>
       <c r="E6" t="n">
-        <v>62498515</v>
+        <v>62305846</v>
       </c>
       <c r="F6" t="n">
-        <v>11432.44915427324</v>
+        <v>8616.183735481494</v>
       </c>
       <c r="G6" t="n">
-        <v>8220.337335144293</v>
+        <v>13178.71658999332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I6" t="n">
-        <v>525324</v>
+        <v>509959</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8771949</v>
+        <v>8900380</v>
       </c>
       <c r="E7" t="n">
-        <v>8993145</v>
+        <v>9124815</v>
       </c>
       <c r="F7" t="n">
-        <v>529.1254394745572</v>
+        <v>830.9276432608241</v>
       </c>
       <c r="G7" t="n">
-        <v>3913.204716295728</v>
+        <v>701.9822169716221</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>45870</v>
+        <v>47303</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68631462</v>
+        <v>69160803</v>
       </c>
       <c r="E8" t="n">
-        <v>136713677</v>
+        <v>137768122</v>
       </c>
       <c r="F8" t="n">
-        <v>47880.64729542555</v>
+        <v>49024.47926425857</v>
       </c>
       <c r="G8" t="n">
-        <v>23011.52670139876</v>
+        <v>27222.75465768148</v>
       </c>
       <c r="H8" t="n">
         <v>0.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1311775</v>
+        <v>1413909</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5222130</v>
+        <v>5232324</v>
       </c>
       <c r="E9" t="n">
-        <v>8343394</v>
+        <v>8359681</v>
       </c>
       <c r="F9" t="n">
-        <v>700.0848830220355</v>
+        <v>686.6002829654566</v>
       </c>
       <c r="G9" t="n">
-        <v>510.6830387042685</v>
+        <v>529.1078090644716</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I9" t="n">
-        <v>104558</v>
+        <v>102027</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14266072</v>
+        <v>14270889</v>
       </c>
       <c r="E10" t="n">
-        <v>42041193</v>
+        <v>42055388</v>
       </c>
       <c r="F10" t="n">
-        <v>2839.354087597668</v>
+        <v>2845.227762104769</v>
       </c>
       <c r="G10" t="n">
-        <v>5025.186793496744</v>
+        <v>4952.216390575991</v>
       </c>
       <c r="H10" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>817193</v>
+        <v>820599</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>124800311</v>
+        <v>124960952</v>
       </c>
       <c r="E11" t="n">
-        <v>489179853</v>
+        <v>489809518</v>
       </c>
       <c r="F11" t="n">
-        <v>60349.17405531138</v>
+        <v>63861.4774488738</v>
       </c>
       <c r="G11" t="n">
-        <v>54444.48660285702</v>
+        <v>57153.1569754407</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>29943049</v>
+        <v>30184912</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7500831</v>
+        <v>7475715</v>
       </c>
       <c r="E12" t="n">
-        <v>32249579</v>
+        <v>32141594</v>
       </c>
       <c r="F12" t="n">
-        <v>3826.028779435476</v>
+        <v>4313.996010833344</v>
       </c>
       <c r="G12" t="n">
-        <v>4209.276779919288</v>
+        <v>3542.597919281143</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>682336</v>
+        <v>660665</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1002845</v>
+        <v>1003246</v>
       </c>
       <c r="E13" t="n">
-        <v>12272121</v>
+        <v>12277019</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0288168797898</v>
+        <v>271.045819784539</v>
       </c>
       <c r="G13" t="n">
-        <v>203.7739994258349</v>
+        <v>203.7867831214673</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2183.69</v>
+        <v>2109.94</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>565484</v>
+        <v>565460</v>
       </c>
       <c r="E14" t="n">
-        <v>565484</v>
+        <v>565460</v>
       </c>
       <c r="F14" t="n">
-        <v>622.7804948593508</v>
+        <v>63.85474396167882</v>
       </c>
       <c r="G14" t="n">
-        <v>412.3639903981302</v>
+        <v>448.0610353966924</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>22385</v>
+        <v>22213</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>554844450</v>
+        <v>560654996</v>
       </c>
       <c r="E15" t="n">
-        <v>694027943</v>
+        <v>701296072</v>
       </c>
       <c r="F15" t="n">
-        <v>368336.4742272094</v>
+        <v>367557.6201467041</v>
       </c>
       <c r="G15" t="n">
-        <v>571307.3880483144</v>
+        <v>605249.5068155685</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>53523893</v>
+        <v>54845058</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3351420</v>
+        <v>3344746</v>
       </c>
       <c r="E16" t="n">
-        <v>9534493</v>
+        <v>9515506</v>
       </c>
       <c r="F16" t="n">
-        <v>186.0876213390205</v>
+        <v>180.4929137232996</v>
       </c>
       <c r="G16" t="n">
-        <v>578.9774373271118</v>
+        <v>79.86217474502179</v>
       </c>
       <c r="H16" t="n">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="I16" t="n">
-        <v>222061</v>
+        <v>132151</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>326304</v>
+        <v>326517</v>
       </c>
       <c r="E17" t="n">
-        <v>3766291</v>
+        <v>3768750</v>
       </c>
       <c r="F17" t="n">
-        <v>5.334351622063425</v>
+        <v>5.334696209335825</v>
       </c>
       <c r="G17" t="n">
-        <v>3.731036949129972</v>
+        <v>3.731277965833897</v>
       </c>
       <c r="H17" t="n">
         <v>0.38</v>
       </c>
       <c r="I17" t="n">
-        <v>4896.7</v>
+        <v>4897.05</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1354427</v>
+        <v>1343071</v>
       </c>
       <c r="E18" t="n">
-        <v>10389261</v>
+        <v>10302155</v>
       </c>
       <c r="F18" t="n">
-        <v>811.931541426523</v>
+        <v>906.5527651335647</v>
       </c>
       <c r="G18" t="n">
-        <v>70.77590311114793</v>
+        <v>101.9343727557265</v>
       </c>
       <c r="H18" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="I18" t="n">
-        <v>151821</v>
+        <v>150493</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22275550</v>
+        <v>22297135</v>
       </c>
       <c r="E19" t="n">
-        <v>22317258</v>
+        <v>22338820</v>
       </c>
       <c r="F19" t="n">
-        <v>637.2504651875656</v>
+        <v>1110.082170780148</v>
       </c>
       <c r="G19" t="n">
-        <v>1338.026387325152</v>
+        <v>1439.983279758409</v>
       </c>
       <c r="H19" t="n">
-        <v>0.84</v>
+        <v>0.37</v>
       </c>
       <c r="I19" t="n">
-        <v>870281</v>
+        <v>854408</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3862202</v>
+        <v>3868709</v>
       </c>
       <c r="E20" t="n">
-        <v>21429781</v>
+        <v>21465888</v>
       </c>
       <c r="F20" t="n">
-        <v>19.13634986006307</v>
+        <v>5.507363706677808</v>
       </c>
       <c r="G20" t="n">
-        <v>4.002186650934061</v>
+        <v>3.898222467079365</v>
       </c>
       <c r="H20" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>43578</v>
+        <v>43631</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6890839</v>
+        <v>6913537</v>
       </c>
       <c r="E21" t="n">
-        <v>12783960</v>
+        <v>12826069</v>
       </c>
       <c r="F21" t="n">
-        <v>565.79959393263</v>
+        <v>272.3411110418805</v>
       </c>
       <c r="G21" t="n">
-        <v>55.40120445250024</v>
+        <v>295.1138340598408</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>51659</v>
+        <v>53211</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72681274</v>
+        <v>72109312</v>
       </c>
       <c r="E22" t="n">
-        <v>125902540</v>
+        <v>124908768</v>
       </c>
       <c r="F22" t="n">
-        <v>367.2628975413258</v>
+        <v>793.1685227278714</v>
       </c>
       <c r="G22" t="n">
-        <v>881.2203831627044</v>
+        <v>600.6803885696261</v>
       </c>
       <c r="H22" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I22" t="n">
-        <v>708065</v>
+        <v>735388</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>179145</v>
+        <v>179198</v>
       </c>
       <c r="E23" t="n">
-        <v>538781</v>
+        <v>538941</v>
       </c>
       <c r="F23" t="n">
-        <v>201.9393373684509</v>
+        <v>202.0572526656083</v>
       </c>
       <c r="G23" t="n">
-        <v>4.032541108915003</v>
+        <v>5.340473201445742</v>
       </c>
       <c r="H23" t="n">
         <v>0.55</v>
       </c>
       <c r="I23" t="n">
-        <v>117.7</v>
+        <v>117.82</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82251351</v>
+        <v>82660906</v>
       </c>
       <c r="E24" t="n">
-        <v>241993675</v>
+        <v>243198638</v>
       </c>
       <c r="F24" t="n">
-        <v>39.43459391887328</v>
+        <v>555.4741844724377</v>
       </c>
       <c r="G24" t="n">
-        <v>470.4404341972875</v>
+        <v>511.2841807580198</v>
       </c>
       <c r="H24" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="I24" t="n">
-        <v>407809</v>
+        <v>388943</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6927994</v>
+        <v>6763541</v>
       </c>
       <c r="F25" t="n">
-        <v>12.97582607502782</v>
+        <v>13.8256752974864</v>
       </c>
       <c r="G25" t="n">
-        <v>4.187749175498343</v>
+        <v>4.085691651782307</v>
       </c>
       <c r="H25" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="I25" t="n">
-        <v>28028</v>
+        <v>27833</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2439779</v>
+        <v>2435116</v>
       </c>
       <c r="E26" t="n">
-        <v>2439779</v>
+        <v>2435116</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>16.48</v>
+        <v>11.46</v>
       </c>
       <c r="I26" t="n">
-        <v>314669</v>
+        <v>318701</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17869618</v>
+        <v>18272446</v>
       </c>
       <c r="E27" t="n">
-        <v>22999665</v>
+        <v>23518138</v>
       </c>
       <c r="F27" t="n">
-        <v>571.243040281202</v>
+        <v>801.8276627583025</v>
       </c>
       <c r="G27" t="n">
-        <v>2701.308182235859</v>
+        <v>3991.596906271928</v>
       </c>
       <c r="H27" t="n">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
       <c r="I27" t="n">
-        <v>2093561</v>
+        <v>2066512</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4659094</v>
+        <v>4674854</v>
       </c>
       <c r="E28" t="n">
-        <v>4659094</v>
+        <v>4674854</v>
       </c>
       <c r="F28" t="n">
-        <v>1204.736235621939</v>
+        <v>993.2357862953245</v>
       </c>
       <c r="G28" t="n">
-        <v>4117.079362674174</v>
+        <v>1984.428851845113</v>
       </c>
       <c r="H28" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I28" t="n">
-        <v>1966475</v>
+        <v>1998308</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1729549</v>
+        <v>1770327</v>
       </c>
       <c r="F29" t="n">
-        <v>63.43958167967491</v>
+        <v>49.49834410342156</v>
       </c>
       <c r="G29" t="n">
-        <v>515.2392936538652</v>
+        <v>68.99042404371556</v>
       </c>
       <c r="H29" t="n">
-        <v>2.73</v>
+        <v>2.37</v>
       </c>
       <c r="I29" t="n">
-        <v>110448</v>
+        <v>167853</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3354918</v>
+        <v>3356005</v>
       </c>
       <c r="E30" t="n">
-        <v>3354918</v>
+        <v>3356005</v>
       </c>
       <c r="F30" t="n">
-        <v>607.6654186503822</v>
+        <v>628.1237010804671</v>
       </c>
       <c r="G30" t="n">
-        <v>692.2358117113428</v>
+        <v>606.9779312623074</v>
       </c>
       <c r="H30" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>530970</v>
+        <v>529379</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>317217</v>
+        <v>315752</v>
       </c>
       <c r="E31" t="n">
-        <v>1480801</v>
+        <v>1473961</v>
       </c>
       <c r="F31" t="n">
-        <v>28.93681164873438</v>
+        <v>9.614364178072469</v>
       </c>
       <c r="G31" t="n">
-        <v>69.75661917913303</v>
+        <v>71.06954884345048</v>
       </c>
       <c r="H31" t="n">
-        <v>1.33</v>
+        <v>2.05</v>
       </c>
       <c r="I31" t="n">
-        <v>628378</v>
+        <v>633837</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>397544</v>
+        <v>398007</v>
       </c>
       <c r="E32" t="n">
-        <v>397544</v>
+        <v>398007</v>
       </c>
       <c r="F32" t="n">
-        <v>66.34907087211624</v>
+        <v>55.8049696927616</v>
       </c>
       <c r="G32" t="n">
-        <v>5.374308717270527</v>
+        <v>4.024519811611507</v>
       </c>
       <c r="H32" t="n">
-        <v>1.02</v>
+        <v>0.38</v>
       </c>
       <c r="I32" t="n">
-        <v>59493</v>
+        <v>59257</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1838059</v>
+        <v>1860319</v>
       </c>
       <c r="F33" t="n">
-        <v>52.38964738746634</v>
+        <v>52.39345513193737</v>
       </c>
       <c r="G33" t="n">
-        <v>10.01843195947538</v>
+        <v>10.01916011152077</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>774600</v>
+        <v>620488</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1581659</v>
+        <v>1581785</v>
       </c>
       <c r="F34" t="n">
-        <v>405.6711005473269</v>
+        <v>105.7572692613957</v>
       </c>
       <c r="G34" t="n">
-        <v>79.9655592986978</v>
+        <v>189.1241955758351</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.63</v>
       </c>
       <c r="I34" t="n">
-        <v>186813</v>
+        <v>190324</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12906961</v>
+        <v>12856894</v>
       </c>
       <c r="E35" t="n">
-        <v>32123090</v>
+        <v>31998484</v>
       </c>
       <c r="F35" t="n">
-        <v>1101.856986760624</v>
+        <v>1017.422057579263</v>
       </c>
       <c r="G35" t="n">
-        <v>1184.038243538248</v>
+        <v>1426.581383183596</v>
       </c>
       <c r="H35" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="I35" t="n">
-        <v>1595513</v>
+        <v>1598929</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6696551</v>
+        <v>6694949</v>
       </c>
       <c r="E36" t="n">
-        <v>9222862</v>
+        <v>9220655</v>
       </c>
       <c r="F36" t="n">
-        <v>885.6288209227494</v>
+        <v>338.0766170459503</v>
       </c>
       <c r="G36" t="n">
-        <v>46.68799480529221</v>
+        <v>107.322670973469</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="I36" t="n">
-        <v>837615</v>
+        <v>836578</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>922173</v>
+        <v>928051</v>
       </c>
       <c r="E37" t="n">
-        <v>6455211</v>
+        <v>6496357</v>
       </c>
       <c r="F37" t="n">
-        <v>70.32273824754432</v>
+        <v>330.5846270736567</v>
       </c>
       <c r="G37" t="n">
-        <v>651.0767073420581</v>
+        <v>623.4382441324252</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>177025</v>
+        <v>176769</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>111658896</v>
+        <v>111997668</v>
       </c>
       <c r="E38" t="n">
-        <v>434689154</v>
+        <v>435982758</v>
       </c>
       <c r="F38" t="n">
-        <v>11348.06607060252</v>
+        <v>15559.47841309368</v>
       </c>
       <c r="G38" t="n">
-        <v>26147.72180609786</v>
+        <v>26914.87633297387</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I38" t="n">
-        <v>9233865</v>
+        <v>7748362</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5413024</v>
+        <v>5329385</v>
       </c>
       <c r="E39" t="n">
-        <v>5671983</v>
+        <v>5584343</v>
       </c>
       <c r="F39" t="n">
-        <v>74.21226251279502</v>
+        <v>79.86552791126432</v>
       </c>
       <c r="G39" t="n">
-        <v>556.3514605129246</v>
+        <v>153.0697263054301</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>176713</v>
+        <v>170386</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5443531</v>
+        <v>5372069</v>
       </c>
       <c r="E40" t="n">
-        <v>8013173</v>
+        <v>7907977</v>
       </c>
       <c r="F40" t="n">
-        <v>1900.3720486465</v>
+        <v>1322.079262687434</v>
       </c>
       <c r="G40" t="n">
-        <v>1340.116943005302</v>
+        <v>2154.04892619997</v>
       </c>
       <c r="H40" t="n">
-        <v>1.01</v>
+        <v>0.68</v>
       </c>
       <c r="I40" t="n">
-        <v>619816</v>
+        <v>631931</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7673116</v>
+        <v>7672093</v>
       </c>
       <c r="E41" t="n">
-        <v>7673116</v>
+        <v>7672093</v>
       </c>
       <c r="F41" t="n">
-        <v>2097.560659990348</v>
+        <v>1705.495758851638</v>
       </c>
       <c r="G41" t="n">
-        <v>2379.06456209276</v>
+        <v>2390.513797525366</v>
       </c>
       <c r="H41" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="I41" t="n">
-        <v>285362</v>
+        <v>286276</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1441669</v>
+        <v>1446944</v>
       </c>
       <c r="E42" t="n">
-        <v>1441703</v>
+        <v>1446944</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01002928655799591</v>
+        <v>158.6464624880045</v>
       </c>
       <c r="G42" t="n">
-        <v>223.4025212165522</v>
+        <v>151.5093957833076</v>
       </c>
       <c r="H42" t="n">
         <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>277506</v>
+        <v>275742</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16531252</v>
+        <v>16540754</v>
       </c>
       <c r="F43" t="n">
-        <v>248.083817123074</v>
+        <v>345.0771280935332</v>
       </c>
       <c r="G43" t="n">
-        <v>454.4516610389908</v>
+        <v>475.5756504001756</v>
       </c>
       <c r="H43" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="I43" t="n">
-        <v>10598.43</v>
+        <v>10250.99</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>136481885</v>
+        <v>136634851</v>
       </c>
       <c r="E44" t="n">
-        <v>136481885</v>
+        <v>136634851</v>
       </c>
       <c r="F44" t="n">
-        <v>413542.5622303929</v>
+        <v>386822.4465009772</v>
       </c>
       <c r="G44" t="n">
-        <v>432680.8666698679</v>
+        <v>339273.1562886819</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>65889225</v>
+        <v>66107956</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64878745</v>
+        <v>65008482</v>
       </c>
       <c r="E45" t="n">
-        <v>332711510</v>
+        <v>333376832</v>
       </c>
       <c r="F45" t="n">
-        <v>56917.41667815387</v>
+        <v>58077.75802976233</v>
       </c>
       <c r="G45" t="n">
-        <v>69033.78301935195</v>
+        <v>70033.74622712703</v>
       </c>
       <c r="H45" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I45" t="n">
-        <v>18907884</v>
+        <v>19153537</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>598183</v>
+        <v>599378</v>
       </c>
       <c r="F46" t="n">
-        <v>68.93039711033262</v>
+        <v>452.7730370721347</v>
       </c>
       <c r="G46" t="n">
-        <v>220.1349007379647</v>
+        <v>293.1306777194803</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7</v>
+        <v>0.39</v>
       </c>
       <c r="I46" t="n">
-        <v>831.04</v>
+        <v>893.3200000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2721889</v>
+        <v>2707317</v>
       </c>
       <c r="E47" t="n">
-        <v>10938654</v>
+        <v>10880091</v>
       </c>
       <c r="F47" t="n">
-        <v>59.56952620597678</v>
+        <v>716.557892072744</v>
       </c>
       <c r="G47" t="n">
-        <v>154.1515178131644</v>
+        <v>402.6420546323907</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="I47" t="n">
-        <v>24848</v>
+        <v>25332</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17461516</v>
+        <v>17306460</v>
       </c>
       <c r="E48" t="n">
-        <v>123090292</v>
+        <v>121991630</v>
       </c>
       <c r="F48" t="n">
-        <v>1339.553359865469</v>
+        <v>554.0203344535513</v>
       </c>
       <c r="G48" t="n">
-        <v>791.8557040281179</v>
+        <v>3883.068885179189</v>
       </c>
       <c r="H48" t="n">
-        <v>1.09</v>
+        <v>0.16</v>
       </c>
       <c r="I48" t="n">
-        <v>1037712</v>
+        <v>1024831</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1035455</v>
+        <v>1026938</v>
       </c>
       <c r="E49" t="n">
-        <v>1215377</v>
+        <v>1205380</v>
       </c>
       <c r="F49" t="n">
-        <v>1234.667632766563</v>
+        <v>1233.568047314459</v>
       </c>
       <c r="G49" t="n">
-        <v>2957.606266338497</v>
+        <v>3482.276540222676</v>
       </c>
       <c r="H49" t="n">
-        <v>0.28</v>
+        <v>0.74</v>
       </c>
       <c r="I49" t="n">
-        <v>237169</v>
+        <v>223433</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>148182</v>
+        <v>148273</v>
       </c>
       <c r="E50" t="n">
-        <v>1982757</v>
+        <v>1983973</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46384</v>
+        <v>46345</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>253197327</v>
+        <v>254142088</v>
       </c>
       <c r="E51" t="n">
-        <v>253197327</v>
+        <v>254142088</v>
       </c>
       <c r="F51" t="n">
-        <v>34174.87941754462</v>
+        <v>32967.51687808792</v>
       </c>
       <c r="G51" t="n">
-        <v>26765.32290632234</v>
+        <v>28421.86249390384</v>
       </c>
       <c r="H51" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="I51" t="n">
-        <v>14864431</v>
+        <v>14924631</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1123963</v>
+        <v>1120156</v>
       </c>
       <c r="F52" t="n">
-        <v>28.33515847816344</v>
+        <v>28.33743265000768</v>
       </c>
       <c r="G52" t="n">
-        <v>641.8902372681788</v>
+        <v>641.9417551979556</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>191141</v>
+        <v>189669</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115990</v>
+        <v>116518</v>
       </c>
       <c r="E54" t="n">
-        <v>115990</v>
+        <v>116518</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>69.09</v>
+        <v>72.83</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6703517</v>
+        <v>6780049</v>
       </c>
       <c r="E55" t="n">
-        <v>16282327</v>
+        <v>16468217</v>
       </c>
       <c r="F55" t="n">
-        <v>39.86659044509922</v>
+        <v>237.7261074406059</v>
       </c>
       <c r="G55" t="n">
-        <v>1988.200435054804</v>
+        <v>226.7662809761221</v>
       </c>
       <c r="H55" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="I55" t="n">
-        <v>455645</v>
+        <v>461592</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>462524114</v>
+        <v>465400536</v>
       </c>
       <c r="E56" t="n">
-        <v>462524114</v>
+        <v>465400536</v>
       </c>
       <c r="F56" t="n">
-        <v>11870.16150657946</v>
+        <v>4055.050685571508</v>
       </c>
       <c r="G56" t="n">
-        <v>2884.430787897558</v>
+        <v>3261.729803133781</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>3274510</v>
+        <v>3197915</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2447142</v>
+        <v>2404586</v>
       </c>
       <c r="E57" t="n">
-        <v>2447142</v>
+        <v>2404586</v>
       </c>
       <c r="F57" t="n">
-        <v>5.308529985844309</v>
+        <v>5.308931246073576</v>
       </c>
       <c r="G57" t="n">
-        <v>5.591327363938839</v>
+        <v>5.591750000206495</v>
       </c>
       <c r="H57" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>60317</v>
+        <v>103775</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>150102144</v>
+        <v>152309804</v>
       </c>
       <c r="E58" t="n">
-        <v>197516867</v>
+        <v>200421889</v>
       </c>
       <c r="F58" t="n">
-        <v>11134.6905719578</v>
+        <v>17021.42035743705</v>
       </c>
       <c r="G58" t="n">
-        <v>19829.29364400042</v>
+        <v>8548.425548210607</v>
       </c>
       <c r="H58" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I58" t="n">
-        <v>7997884</v>
+        <v>7987522</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1114221</v>
+        <v>1115081</v>
       </c>
       <c r="E59" t="n">
-        <v>12108939</v>
+        <v>12118288</v>
       </c>
       <c r="F59" t="n">
-        <v>779.1124709205043</v>
+        <v>779.1713623366853</v>
       </c>
       <c r="G59" t="n">
-        <v>3.990004800595338</v>
+        <v>3.990306396375211</v>
       </c>
       <c r="H59" t="n">
         <v>0.49</v>
       </c>
       <c r="I59" t="n">
-        <v>29378</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2532599</v>
+        <v>2537051</v>
       </c>
       <c r="E60" t="n">
-        <v>6474809</v>
+        <v>6486191</v>
       </c>
       <c r="F60" t="n">
-        <v>205.9975454972723</v>
+        <v>206.3032023687561</v>
       </c>
       <c r="G60" t="n">
-        <v>218.0404664192747</v>
+        <v>218.0569476236341</v>
       </c>
       <c r="H60" t="n">
         <v>0.76</v>
       </c>
       <c r="I60" t="n">
-        <v>117726</v>
+        <v>119239</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>73002084</v>
+        <v>72875878</v>
       </c>
       <c r="E61" t="n">
-        <v>204350841</v>
+        <v>204004393</v>
       </c>
       <c r="F61" t="n">
-        <v>75459.07772415286</v>
+        <v>75444.47220109128</v>
       </c>
       <c r="G61" t="n">
-        <v>92899.51855008732</v>
+        <v>89314.98815182374</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I61" t="n">
-        <v>32980608</v>
+        <v>33236355</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>73597204</v>
+        <v>73759941</v>
       </c>
       <c r="E62" t="n">
-        <v>73597204</v>
+        <v>73759941</v>
       </c>
       <c r="F62" t="n">
-        <v>2556.744516524317</v>
+        <v>3974.818110816466</v>
       </c>
       <c r="G62" t="n">
-        <v>5113.391310386884</v>
+        <v>3610.339445724607</v>
       </c>
       <c r="H62" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="I62" t="n">
-        <v>4085493</v>
+        <v>3968452</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4220947</v>
+        <v>4217531</v>
       </c>
       <c r="E63" t="n">
-        <v>8324063</v>
+        <v>8317325</v>
       </c>
       <c r="F63" t="n">
-        <v>2601.727125706494</v>
+        <v>1855.871094186256</v>
       </c>
       <c r="G63" t="n">
-        <v>1361.436709722968</v>
+        <v>1795.818547124313</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I63" t="n">
-        <v>1644492</v>
+        <v>1646658</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1584438</v>
+        <v>1580114</v>
       </c>
       <c r="E64" t="n">
-        <v>9097251</v>
+        <v>9072425</v>
       </c>
       <c r="F64" t="n">
-        <v>332.5050519238056</v>
+        <v>318.7837598487326</v>
       </c>
       <c r="G64" t="n">
-        <v>4.035144634779046</v>
+        <v>5.241587498106712</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="I64" t="n">
-        <v>327170</v>
+        <v>224719</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>565086</v>
+        <v>557946</v>
       </c>
       <c r="F65" t="n">
-        <v>5.472218857870054</v>
+        <v>5.619272349722178</v>
       </c>
       <c r="G65" t="n">
-        <v>3.475865113300615</v>
+        <v>4.122702074641224</v>
       </c>
       <c r="H65" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I65" t="n">
-        <v>2323.68</v>
+        <v>1913.45</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31945218</v>
+        <v>31868836</v>
       </c>
       <c r="F66" t="n">
-        <v>322.0389928232202</v>
+        <v>791.6904677647497</v>
       </c>
       <c r="G66" t="n">
-        <v>351.208417826527</v>
+        <v>406.2336997645894</v>
       </c>
       <c r="H66" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>250904</v>
+        <v>249083</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>153660</v>
+        <v>153706</v>
       </c>
       <c r="E67" t="n">
-        <v>1037683</v>
+        <v>1037991</v>
       </c>
       <c r="F67" t="n">
-        <v>68.9979654844371</v>
+        <v>16.05196554682533</v>
       </c>
       <c r="G67" t="n">
-        <v>5.576083746992661</v>
+        <v>133.1118787557111</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48</v>
+        <v>1.2</v>
       </c>
       <c r="I67" t="n">
-        <v>2677965</v>
+        <v>2678346</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7537386</v>
+        <v>7605192</v>
       </c>
       <c r="E68" t="n">
-        <v>17752041</v>
+        <v>17911739</v>
       </c>
       <c r="F68" t="n">
-        <v>1307.236467339027</v>
+        <v>1124.286878757197</v>
       </c>
       <c r="G68" t="n">
-        <v>2747.945086203631</v>
+        <v>1520.491474512851</v>
       </c>
       <c r="H68" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="I68" t="n">
-        <v>32496</v>
+        <v>36441</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2931979</v>
+        <v>2955154</v>
       </c>
       <c r="E69" t="n">
-        <v>2931979</v>
+        <v>2955154</v>
       </c>
       <c r="F69" t="n">
-        <v>116.5142754108134</v>
+        <v>54.14886209096941</v>
       </c>
       <c r="G69" t="n">
-        <v>386.1825176597636</v>
+        <v>521.4388387415166</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="I69" t="n">
-        <v>16046.19</v>
+        <v>16222.53</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3369494</v>
+        <v>3371014</v>
       </c>
       <c r="E70" t="n">
-        <v>8314055</v>
+        <v>8317806</v>
       </c>
       <c r="F70" t="n">
-        <v>1121.011124813513</v>
+        <v>1221.096211937591</v>
       </c>
       <c r="G70" t="n">
-        <v>1273.970875495493</v>
+        <v>1218.726342380605</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>55580</v>
+        <v>52943</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23197393</v>
+        <v>23178448</v>
       </c>
       <c r="F71" t="n">
-        <v>146.8055694000028</v>
+        <v>161.5398653914557</v>
       </c>
       <c r="G71" t="n">
-        <v>108.5712291758419</v>
+        <v>10.08908087752173</v>
       </c>
       <c r="H71" t="n">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>117475</v>
+        <v>115847</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>269663</v>
+        <v>269758</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2358.29</v>
+        <v>1775.28</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>73166044</v>
+        <v>73594837</v>
       </c>
       <c r="E73" t="n">
-        <v>152588357</v>
+        <v>153482607</v>
       </c>
       <c r="F73" t="n">
-        <v>18649.79349073968</v>
+        <v>15791.2545902178</v>
       </c>
       <c r="G73" t="n">
-        <v>3479.535425960168</v>
+        <v>3483.016672708283</v>
       </c>
       <c r="H73" t="n">
-        <v>0.53</v>
+        <v>0.17</v>
       </c>
       <c r="I73" t="n">
-        <v>14383239</v>
+        <v>14469500</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>206804543</v>
+        <v>209237031</v>
       </c>
       <c r="F75" t="n">
-        <v>29824.09437139067</v>
+        <v>28939.12785403245</v>
       </c>
       <c r="G75" t="n">
-        <v>5753.612699179427</v>
+        <v>8267.048744007769</v>
       </c>
       <c r="H75" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="I75" t="n">
-        <v>3254052</v>
+        <v>4655399</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>83158008</v>
+        <v>83978944</v>
       </c>
       <c r="E76" t="n">
-        <v>114188887</v>
+        <v>115316159</v>
       </c>
       <c r="F76" t="n">
-        <v>1534.099763790933</v>
+        <v>3498.956409629574</v>
       </c>
       <c r="G76" t="n">
-        <v>7491.34027077168</v>
+        <v>5255.820397178641</v>
       </c>
       <c r="H76" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>967529</v>
+        <v>792344</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>184886</v>
+        <v>184882</v>
       </c>
       <c r="E77" t="n">
-        <v>193073</v>
+        <v>193069</v>
       </c>
       <c r="F77" t="n">
-        <v>5.461814084777328</v>
+        <v>5.462191253068942</v>
       </c>
       <c r="G77" t="n">
-        <v>3.121713075724692</v>
+        <v>3.121928647175753</v>
       </c>
       <c r="H77" t="n">
         <v>0.93</v>
       </c>
       <c r="I77" t="n">
-        <v>432.6</v>
+        <v>432.54</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8059631</v>
+        <v>8030550</v>
       </c>
       <c r="E78" t="n">
-        <v>8866133</v>
+        <v>8834142</v>
       </c>
       <c r="F78" t="n">
-        <v>187.7765494415222</v>
+        <v>752.9659801678782</v>
       </c>
       <c r="G78" t="n">
-        <v>840.4223200413821</v>
+        <v>175.6891851540586</v>
       </c>
       <c r="H78" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="I78" t="n">
-        <v>724644</v>
+        <v>727603</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28109511</v>
+        <v>28412776</v>
       </c>
       <c r="E79" t="n">
-        <v>28109511</v>
+        <v>28412776</v>
       </c>
       <c r="F79" t="n">
-        <v>87.27554529083426</v>
+        <v>503.2327498477805</v>
       </c>
       <c r="G79" t="n">
-        <v>1010.058258706601</v>
+        <v>95.04985676344565</v>
       </c>
       <c r="H79" t="n">
-        <v>0.49</v>
+        <v>0.93</v>
       </c>
       <c r="I79" t="n">
-        <v>274335</v>
+        <v>277634</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>277655005</v>
+        <v>277682396</v>
       </c>
       <c r="E80" t="n">
-        <v>277655005</v>
+        <v>277682396</v>
       </c>
       <c r="F80" t="n">
-        <v>586.1252966326065</v>
+        <v>4733.004011080835</v>
       </c>
       <c r="G80" t="n">
-        <v>2800.717975466667</v>
+        <v>4949.169787990518</v>
       </c>
       <c r="H80" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I80" t="n">
-        <v>10101810</v>
+        <v>10195013</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>630330644</v>
+        <v>630324930</v>
       </c>
       <c r="E81" t="n">
-        <v>630330644</v>
+        <v>630324930</v>
       </c>
       <c r="F81" t="n">
-        <v>605912.7685343891</v>
+        <v>1669421.528976881</v>
       </c>
       <c r="G81" t="n">
-        <v>1059118.317239214</v>
+        <v>1675054.642475044</v>
       </c>
       <c r="H81" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>257711784</v>
+        <v>274499317</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>119119</v>
+        <v>119222</v>
       </c>
       <c r="E82" t="n">
-        <v>119119</v>
+        <v>119222</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>157.57</v>
+        <v>157.69</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>198234800</v>
+        <v>198140979</v>
       </c>
       <c r="E83" t="n">
-        <v>688685611</v>
+        <v>688359667</v>
       </c>
       <c r="F83" t="n">
-        <v>697.2505411869683</v>
+        <v>703.0536147037244</v>
       </c>
       <c r="G83" t="n">
-        <v>1300.048640435356</v>
+        <v>1542.197996085478</v>
       </c>
       <c r="H83" t="n">
         <v>0.32</v>
       </c>
       <c r="I83" t="n">
-        <v>25964689</v>
+        <v>25981231</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4328943</v>
+        <v>4077721</v>
       </c>
       <c r="E84" t="n">
-        <v>4328943</v>
+        <v>4077721</v>
       </c>
       <c r="F84" t="n">
-        <v>758.769809261151</v>
+        <v>657.9871245159026</v>
       </c>
       <c r="G84" t="n">
-        <v>1235.545968071203</v>
+        <v>2064.147829207851</v>
       </c>
       <c r="H84" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I84" t="n">
-        <v>3625402</v>
+        <v>3583405</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>114896555</v>
+        <v>115284004</v>
       </c>
       <c r="E85" t="n">
-        <v>488725067</v>
+        <v>490293060</v>
       </c>
       <c r="F85" t="n">
-        <v>312446.2594989994</v>
+        <v>358075.3653053771</v>
       </c>
       <c r="G85" t="n">
-        <v>475777.8037748805</v>
+        <v>426788.780917046</v>
       </c>
       <c r="H85" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I85" t="n">
-        <v>13853663</v>
+        <v>14076530</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71257204</v>
+        <v>71359265</v>
       </c>
       <c r="E86" t="n">
-        <v>81758565</v>
+        <v>81875667</v>
       </c>
       <c r="F86" t="n">
-        <v>15791.88643288973</v>
+        <v>14492.35644522062</v>
       </c>
       <c r="G86" t="n">
-        <v>10036.33929482999</v>
+        <v>2607.295267673002</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>1181746</v>
+        <v>1198870</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3148969</v>
+        <v>3117408</v>
       </c>
       <c r="E87" t="n">
-        <v>15788216</v>
+        <v>15629975</v>
       </c>
       <c r="F87" t="n">
-        <v>4.112049147759858</v>
+        <v>4.016491485182963</v>
       </c>
       <c r="G87" t="n">
-        <v>3.973404626675372</v>
+        <v>3.973643438164446</v>
       </c>
       <c r="H87" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>31789</v>
+        <v>32266</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>522392</v>
+        <v>541996</v>
       </c>
       <c r="E88" t="n">
-        <v>8935483</v>
+        <v>9270802</v>
       </c>
       <c r="F88" t="n">
-        <v>1341.960483622167</v>
+        <v>0.9291770254899255</v>
       </c>
       <c r="G88" t="n">
-        <v>5.39666237480612</v>
+        <v>715.6566920849382</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I88" t="n">
-        <v>280246</v>
+        <v>271680</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5969303</v>
+        <v>5678664</v>
       </c>
       <c r="E89" t="n">
-        <v>8110993</v>
+        <v>7715966</v>
       </c>
       <c r="F89" t="n">
-        <v>1177.874765818878</v>
+        <v>1072.839943987588</v>
       </c>
       <c r="G89" t="n">
-        <v>57.686310366614</v>
+        <v>4.140783600982327</v>
       </c>
       <c r="H89" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I89" t="n">
-        <v>1377732</v>
+        <v>6090642</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40471393</v>
+        <v>40173799</v>
       </c>
       <c r="E90" t="n">
-        <v>47269626</v>
+        <v>46922043</v>
       </c>
       <c r="F90" t="n">
-        <v>677.6366732407043</v>
+        <v>768.3741600581766</v>
       </c>
       <c r="G90" t="n">
-        <v>26.41131784089983</v>
+        <v>50.95004192524146</v>
       </c>
       <c r="H90" t="n">
-        <v>0.62</v>
+        <v>0.13</v>
       </c>
       <c r="I90" t="n">
-        <v>849425</v>
+        <v>859091</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14464442</v>
+        <v>14540672</v>
       </c>
       <c r="F91" t="n">
-        <v>113.3987751290035</v>
+        <v>315.8963020642099</v>
       </c>
       <c r="G91" t="n">
-        <v>257.5873208375606</v>
+        <v>207.2819122538076</v>
       </c>
       <c r="H91" t="n">
-        <v>1.76</v>
+        <v>2.24</v>
       </c>
       <c r="I91" t="n">
-        <v>421606</v>
+        <v>411521</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35460104</v>
+        <v>35989604</v>
       </c>
       <c r="E92" t="n">
-        <v>35460104</v>
+        <v>35989604</v>
       </c>
       <c r="F92" t="n">
-        <v>176.457267444432</v>
+        <v>61.26124276315893</v>
       </c>
       <c r="G92" t="n">
-        <v>748.3049462821792</v>
+        <v>418.5194880611591</v>
       </c>
       <c r="H92" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="I92" t="n">
-        <v>755967</v>
+        <v>765471</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17351055</v>
+        <v>17371765</v>
       </c>
       <c r="F93" t="n">
-        <v>124.5200934826238</v>
+        <v>123.8039260234506</v>
       </c>
       <c r="G93" t="n">
-        <v>461.8616033035229</v>
+        <v>282.6488278934015</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="I93" t="n">
-        <v>172121</v>
+        <v>173780</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>539503</v>
+        <v>535108</v>
       </c>
       <c r="E94" t="n">
-        <v>6543647</v>
+        <v>6490345</v>
       </c>
       <c r="F94" t="n">
-        <v>541.9189464292344</v>
+        <v>858.9862762875925</v>
       </c>
       <c r="G94" t="n">
-        <v>2427.420211931118</v>
+        <v>1093.632113122791</v>
       </c>
       <c r="H94" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="I94" t="n">
-        <v>2763960</v>
+        <v>2772148</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25103839</v>
+        <v>24967161</v>
       </c>
       <c r="E95" t="n">
-        <v>35483297</v>
+        <v>35290107</v>
       </c>
       <c r="F95" t="n">
-        <v>38.41746959104162</v>
+        <v>21.01244540963062</v>
       </c>
       <c r="G95" t="n">
-        <v>4.088297830723564</v>
+        <v>1107.340320555943</v>
       </c>
       <c r="H95" t="n">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="I95" t="n">
-        <v>74968</v>
+        <v>72294</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1301304652</v>
+        <v>1305643576</v>
       </c>
       <c r="E96" t="n">
-        <v>6240022309</v>
+        <v>6260828335</v>
       </c>
       <c r="F96" t="n">
-        <v>446310.4222815952</v>
+        <v>482593.8594413574</v>
       </c>
       <c r="G96" t="n">
-        <v>512436.5270976535</v>
+        <v>526627.6361871753</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>178867083</v>
+        <v>179623156</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>267040847</v>
+        <v>267684764</v>
       </c>
       <c r="E97" t="n">
-        <v>1152696540</v>
+        <v>1155476044</v>
       </c>
       <c r="F97" t="n">
-        <v>251476.1248643134</v>
+        <v>121841.2008683368</v>
       </c>
       <c r="G97" t="n">
-        <v>1231972.394958507</v>
+        <v>872678.52526089</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>110799571</v>
+        <v>110585377</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5036976</v>
+        <v>5028826</v>
       </c>
       <c r="E98" t="n">
-        <v>5581972</v>
+        <v>5572941</v>
       </c>
       <c r="F98" t="n">
-        <v>1128.692304712619</v>
+        <v>801.5720885773454</v>
       </c>
       <c r="G98" t="n">
-        <v>406.5713637488643</v>
+        <v>299.5168470343858</v>
       </c>
       <c r="H98" t="n">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="I98" t="n">
-        <v>673450</v>
+        <v>649189</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93399</v>
+        <v>92081</v>
       </c>
       <c r="E99" t="n">
-        <v>93399</v>
+        <v>92081</v>
       </c>
       <c r="F99" t="n">
-        <v>94.71780848002587</v>
+        <v>48.75891714807724</v>
       </c>
       <c r="G99" t="n">
-        <v>4.19149790000627</v>
+        <v>4.624822701779116</v>
       </c>
       <c r="H99" t="n">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="I99" t="n">
-        <v>5336.78</v>
+        <v>5215.39</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114561609</v>
+        <v>114747070</v>
       </c>
       <c r="E100" t="n">
-        <v>114561609</v>
+        <v>114747070</v>
       </c>
       <c r="F100" t="n">
-        <v>8361.054175524836</v>
+        <v>16028.20307697876</v>
       </c>
       <c r="G100" t="n">
-        <v>14142.63504353298</v>
+        <v>21987.90551494434</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>5990394</v>
+        <v>6023208</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3764056</v>
+        <v>3760414</v>
       </c>
       <c r="F101" t="n">
-        <v>2105.162428384169</v>
+        <v>2046.928672907435</v>
       </c>
       <c r="G101" t="n">
-        <v>1324.6221161807</v>
+        <v>1133.373792161326</v>
       </c>
       <c r="H101" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
       <c r="I101" t="n">
-        <v>298464</v>
+        <v>304053</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2039111137</v>
+        <v>2046049220</v>
       </c>
       <c r="E102" t="n">
-        <v>2039111137</v>
+        <v>2046049220</v>
       </c>
       <c r="F102" t="n">
-        <v>7133092.040246302</v>
+        <v>7503285.885406537</v>
       </c>
       <c r="G102" t="n">
-        <v>5446805.419868085</v>
+        <v>5476370.815397217</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5234230954</v>
+        <v>5972819443</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5360119</v>
+        <v>5352894</v>
       </c>
       <c r="E103" t="n">
-        <v>5366186</v>
+        <v>5358952</v>
       </c>
       <c r="F103" t="n">
-        <v>261.0779779812494</v>
+        <v>261.0350552375899</v>
       </c>
       <c r="G103" t="n">
-        <v>83.54833065762227</v>
+        <v>83.64979152153542</v>
       </c>
       <c r="H103" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>152840</v>
+        <v>151398</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2341670</v>
+        <v>2345576</v>
       </c>
       <c r="F104" t="n">
-        <v>5.109743188333749</v>
+        <v>5.109671263957443</v>
       </c>
       <c r="G104" t="n">
-        <v>240.6528633320566</v>
+        <v>240.7128188750442</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>63999</v>
+        <v>62720</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4395826</v>
+        <v>4373354</v>
       </c>
       <c r="E105" t="n">
-        <v>5771146</v>
+        <v>5741644</v>
       </c>
       <c r="F105" t="n">
-        <v>10897.74494034024</v>
+        <v>10881.30382301603</v>
       </c>
       <c r="G105" t="n">
-        <v>4342.899973024219</v>
+        <v>10986.71750431675</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>598119</v>
+        <v>530443</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20107947</v>
+        <v>19891323</v>
       </c>
       <c r="F106" t="n">
-        <v>133.020313854159</v>
+        <v>959.9248750782168</v>
       </c>
       <c r="G106" t="n">
-        <v>211.6331107077369</v>
+        <v>90.2133777496306</v>
       </c>
       <c r="H106" t="n">
         <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>128130</v>
+        <v>117379</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1368737</v>
+        <v>1355865</v>
       </c>
       <c r="E107" t="n">
-        <v>5103112</v>
+        <v>5055119</v>
       </c>
       <c r="F107" t="n">
-        <v>173.8549026987027</v>
+        <v>202.0555369419819</v>
       </c>
       <c r="G107" t="n">
-        <v>311.5349719788745</v>
+        <v>307.1406331267443</v>
       </c>
       <c r="H107" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I107" t="n">
-        <v>606770</v>
+        <v>590416</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4167912</v>
+        <v>4191453</v>
       </c>
       <c r="E108" t="n">
-        <v>12004930</v>
+        <v>12072738</v>
       </c>
       <c r="F108" t="n">
-        <v>71.54944542218344</v>
+        <v>2104.767507202108</v>
       </c>
       <c r="G108" t="n">
-        <v>59.64462076381785</v>
+        <v>89.16376295873388</v>
       </c>
       <c r="H108" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="I108" t="n">
-        <v>575788</v>
+        <v>584211</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80356803</v>
+        <v>80084737</v>
       </c>
       <c r="E109" t="n">
-        <v>102260277</v>
+        <v>101914052</v>
       </c>
       <c r="F109" t="n">
-        <v>3769.842640492081</v>
+        <v>3413.07420395362</v>
       </c>
       <c r="G109" t="n">
-        <v>581.193381841569</v>
+        <v>710.4009136164005</v>
       </c>
       <c r="H109" t="n">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="I109" t="n">
-        <v>6141957</v>
+        <v>6149883</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22383057</v>
+        <v>22434186</v>
       </c>
       <c r="E110" t="n">
-        <v>29035946</v>
+        <v>29102271</v>
       </c>
       <c r="F110" t="n">
-        <v>19128.62784993316</v>
+        <v>20125.64652070906</v>
       </c>
       <c r="G110" t="n">
-        <v>10448.26323515199</v>
+        <v>11847.72625483915</v>
       </c>
       <c r="H110" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="I110" t="n">
-        <v>156248</v>
+        <v>156583</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>619066</v>
+        <v>619722</v>
       </c>
       <c r="E111" t="n">
-        <v>619066</v>
+        <v>619722</v>
       </c>
       <c r="F111" t="n">
-        <v>4.09647814220031</v>
+        <v>4.096780622354387</v>
       </c>
       <c r="G111" t="n">
-        <v>39.85245728557302</v>
+        <v>3.137498658674811</v>
       </c>
       <c r="H111" t="n">
         <v>0.64</v>
       </c>
       <c r="I111" t="n">
-        <v>78138</v>
+        <v>77989</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14108697</v>
+        <v>14142331</v>
       </c>
       <c r="E112" t="n">
-        <v>14108697</v>
+        <v>14142331</v>
       </c>
       <c r="F112" t="n">
-        <v>4593.861307345336</v>
+        <v>3664.428776176781</v>
       </c>
       <c r="G112" t="n">
-        <v>3039.181828383395</v>
+        <v>3405.796817831488</v>
       </c>
       <c r="H112" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I112" t="n">
-        <v>4601977</v>
+        <v>4688458</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98297496</v>
+        <v>98263937</v>
       </c>
       <c r="E113" t="n">
-        <v>121590485</v>
+        <v>121548974</v>
       </c>
       <c r="F113" t="n">
-        <v>121.4186001588639</v>
+        <v>108.2316668483995</v>
       </c>
       <c r="G113" t="n">
-        <v>2116.126758841918</v>
+        <v>1581.976131483615</v>
       </c>
       <c r="H113" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="I113" t="n">
-        <v>802919</v>
+        <v>785002</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>828143</v>
+        <v>826147</v>
       </c>
       <c r="F114" t="n">
-        <v>234.045618516002</v>
+        <v>209.680532310097</v>
       </c>
       <c r="G114" t="n">
-        <v>181.6922167957963</v>
+        <v>174.7159193673648</v>
       </c>
       <c r="H114" t="n">
-        <v>0.76</v>
+        <v>2.36</v>
       </c>
       <c r="I114" t="n">
-        <v>27141</v>
+        <v>26383</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2840479</v>
+        <v>2818569</v>
       </c>
       <c r="F115" t="n">
-        <v>840.0034638827455</v>
+        <v>244.0719037064065</v>
       </c>
       <c r="G115" t="n">
-        <v>106.8848823193641</v>
+        <v>260.5881057880035</v>
       </c>
       <c r="H115" t="n">
-        <v>0.99</v>
+        <v>1.34</v>
       </c>
       <c r="I115" t="n">
-        <v>26133</v>
+        <v>29388</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10999777</v>
+        <v>10844957</v>
       </c>
       <c r="E116" t="n">
-        <v>16176142</v>
+        <v>15948464</v>
       </c>
       <c r="F116" t="n">
-        <v>3945.407690047493</v>
+        <v>4067.787901517589</v>
       </c>
       <c r="G116" t="n">
-        <v>2234.53661252238</v>
+        <v>6961.408007525319</v>
       </c>
       <c r="H116" t="n">
-        <v>0.86</v>
+        <v>0.49</v>
       </c>
       <c r="I116" t="n">
-        <v>419937</v>
+        <v>413661</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3231223</v>
+        <v>3232972</v>
       </c>
       <c r="F117" t="n">
-        <v>5.368437823552601</v>
+        <v>5.368787060317946</v>
       </c>
       <c r="G117" t="n">
-        <v>388.2932162630254</v>
+        <v>419.2644965262629</v>
       </c>
       <c r="H117" t="n">
         <v>0.39</v>
       </c>
       <c r="I117" t="n">
-        <v>37626</v>
+        <v>37249</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1188371</v>
+        <v>1188621</v>
       </c>
       <c r="F118" t="n">
-        <v>3.950961635702885</v>
+        <v>4.032734988229956</v>
       </c>
       <c r="G118" t="n">
-        <v>5.328688942634927</v>
+        <v>5.425111550229831</v>
       </c>
       <c r="H118" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="I118" t="n">
-        <v>5138.35</v>
+        <v>5427.51</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5128057</v>
+        <v>5121980</v>
       </c>
       <c r="E119" t="n">
-        <v>7174895</v>
+        <v>7166392</v>
       </c>
       <c r="F119" t="n">
-        <v>1474.045381620056</v>
+        <v>1141.768177203481</v>
       </c>
       <c r="G119" t="n">
-        <v>655.7079061938385</v>
+        <v>602.4455156760563</v>
       </c>
       <c r="H119" t="n">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="I119" t="n">
-        <v>108058</v>
+        <v>108146</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10231700</v>
+        <v>10233123</v>
       </c>
       <c r="E120" t="n">
-        <v>28182780</v>
+        <v>28186700</v>
       </c>
       <c r="F120" t="n">
-        <v>436.9345556147046</v>
+        <v>396.6464193545908</v>
       </c>
       <c r="G120" t="n">
-        <v>113.7916274082036</v>
+        <v>97.94135463002466</v>
       </c>
       <c r="H120" t="n">
-        <v>3.03</v>
+        <v>2.24</v>
       </c>
       <c r="I120" t="n">
-        <v>346762</v>
+        <v>346419</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>52742204</v>
+        <v>52936094</v>
       </c>
       <c r="E121" t="n">
-        <v>134363780</v>
+        <v>134857725</v>
       </c>
       <c r="F121" t="n">
-        <v>760.4674176285156</v>
+        <v>508.2070086226805</v>
       </c>
       <c r="G121" t="n">
-        <v>11815.93815107977</v>
+        <v>11263.90559540478</v>
       </c>
       <c r="H121" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="I121" t="n">
-        <v>2476831</v>
+        <v>2448931</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13906184</v>
+        <v>13951005</v>
       </c>
       <c r="E122" t="n">
-        <v>67349867</v>
+        <v>67566944</v>
       </c>
       <c r="F122" t="n">
-        <v>3847.062774498611</v>
+        <v>2462.266059003975</v>
       </c>
       <c r="G122" t="n">
-        <v>4989.595762528867</v>
+        <v>3978.46028222485</v>
       </c>
       <c r="H122" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I122" t="n">
-        <v>3642326</v>
+        <v>3614988</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>494842</v>
+        <v>503617</v>
       </c>
       <c r="F123" t="n">
-        <v>3.92948129328615</v>
+        <v>5.409249564720236</v>
       </c>
       <c r="G123" t="n">
-        <v>3.943577814499625</v>
+        <v>3.938670715600983</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="I123" t="n">
-        <v>8112.28</v>
+        <v>8419.68</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4532108</v>
+        <v>4585532</v>
       </c>
       <c r="E124" t="n">
-        <v>10330739</v>
+        <v>10452517</v>
       </c>
       <c r="F124" t="n">
-        <v>454.5255908328901</v>
+        <v>799.3495327125917</v>
       </c>
       <c r="G124" t="n">
-        <v>2122.829922025269</v>
+        <v>1637.355179312926</v>
       </c>
       <c r="H124" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="I124" t="n">
-        <v>96786</v>
+        <v>84795</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1887314756</v>
+        <v>1894939348</v>
       </c>
       <c r="F125" t="n">
-        <v>74233.0501643083</v>
+        <v>75492.94684134754</v>
       </c>
       <c r="G125" t="n">
-        <v>79074.33656228193</v>
+        <v>73814.15695395082</v>
       </c>
       <c r="H125" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="I125" t="n">
-        <v>25871615</v>
+        <v>26409401</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9388163</v>
+        <v>9351766</v>
       </c>
       <c r="E126" t="n">
-        <v>34185105</v>
+        <v>34049682</v>
       </c>
       <c r="F126" t="n">
-        <v>1162.061203860616</v>
+        <v>1162.25452265522</v>
       </c>
       <c r="G126" t="n">
-        <v>5.316166997617693</v>
+        <v>5.316559538467838</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>158581</v>
+        <v>158087</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>540770</v>
+        <v>534262</v>
       </c>
       <c r="F127" t="n">
-        <v>21.80267258296472</v>
+        <v>21.71720002264783</v>
       </c>
       <c r="G127" t="n">
-        <v>483.044467921043</v>
+        <v>483.0602940964076</v>
       </c>
       <c r="H127" t="n">
         <v>0.64</v>
       </c>
       <c r="I127" t="n">
-        <v>19317.38</v>
+        <v>1952.95</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12232057</v>
+        <v>12235820</v>
       </c>
       <c r="E128" t="n">
-        <v>17734718</v>
+        <v>17740173</v>
       </c>
       <c r="F128" t="n">
-        <v>2317.526202379482</v>
+        <v>3036.890915962631</v>
       </c>
       <c r="G128" t="n">
-        <v>7143.26268796411</v>
+        <v>8129.444745254581</v>
       </c>
       <c r="H128" t="n">
-        <v>1.16</v>
+        <v>0.2</v>
       </c>
       <c r="I128" t="n">
-        <v>2092566</v>
+        <v>2072876</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>32298453</v>
+        <v>32203226</v>
       </c>
       <c r="E129" t="n">
-        <v>100567020</v>
+        <v>100270513</v>
       </c>
       <c r="F129" t="n">
-        <v>9246.366835520754</v>
+        <v>6853.566414227612</v>
       </c>
       <c r="G129" t="n">
-        <v>9913.723232716449</v>
+        <v>10407.82412558229</v>
       </c>
       <c r="H129" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I129" t="n">
-        <v>12154363</v>
+        <v>12207251</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2063490</v>
+        <v>2069759</v>
       </c>
       <c r="E130" t="n">
-        <v>14797082</v>
+        <v>14842037</v>
       </c>
       <c r="F130" t="n">
-        <v>4.06586594461396</v>
+        <v>4.066146709766366</v>
       </c>
       <c r="G130" t="n">
-        <v>4.125420617432279</v>
+        <v>4.125705495085446</v>
       </c>
       <c r="H130" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I130" t="n">
-        <v>1933338</v>
+        <v>1928939</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7784070</v>
+        <v>7646145</v>
       </c>
       <c r="F131" t="n">
-        <v>91.36913062221505</v>
+        <v>167.9142041273937</v>
       </c>
       <c r="G131" t="n">
-        <v>125.9142699943819</v>
+        <v>296.5972382708784</v>
       </c>
       <c r="H131" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="I131" t="n">
-        <v>501875</v>
+        <v>502174</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>201990167</v>
+        <v>201357749</v>
       </c>
       <c r="E132" t="n">
-        <v>1143792439</v>
+        <v>1140211299</v>
       </c>
       <c r="F132" t="n">
-        <v>555183.364803096</v>
+        <v>406774.5552548021</v>
       </c>
       <c r="G132" t="n">
-        <v>489233.9899659615</v>
+        <v>462921.6544032095</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>64140836</v>
+        <v>65219663</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1040533</v>
+        <v>1106211</v>
       </c>
       <c r="E133" t="n">
-        <v>1040533</v>
+        <v>1106211</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>11862.63</v>
+        <v>11784.28</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>508526</v>
+        <v>502126</v>
       </c>
       <c r="E134" t="n">
-        <v>1711629</v>
+        <v>1690087</v>
       </c>
       <c r="F134" t="n">
-        <v>232.5009044000979</v>
+        <v>142.4083981557003</v>
       </c>
       <c r="G134" t="n">
-        <v>195.0981934964442</v>
+        <v>202.8960829814895</v>
       </c>
       <c r="H134" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I134" t="n">
-        <v>627659</v>
+        <v>213402</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>13615774</v>
+        <v>13597386</v>
       </c>
       <c r="F135" t="n">
-        <v>5.333966813419842</v>
+        <v>3.891851446126638</v>
       </c>
       <c r="G135" t="n">
-        <v>3.908489854321901</v>
+        <v>5.280931028877117</v>
       </c>
       <c r="H135" t="n">
         <v>0.96</v>
       </c>
       <c r="I135" t="n">
-        <v>712.62</v>
+        <v>710.54</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>138633349</v>
+        <v>138577855</v>
       </c>
       <c r="E136" t="n">
-        <v>1026913695</v>
+        <v>1026502630</v>
       </c>
       <c r="F136" t="n">
-        <v>59388.1678402137</v>
+        <v>40836.52926826879</v>
       </c>
       <c r="G136" t="n">
-        <v>59164.38598359394</v>
+        <v>40308.82627969574</v>
       </c>
       <c r="H136" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I136" t="n">
-        <v>10980814</v>
+        <v>10894892</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31777512</v>
+        <v>31673552</v>
       </c>
       <c r="E137" t="n">
-        <v>151054584</v>
+        <v>150560411</v>
       </c>
       <c r="F137" t="n">
-        <v>6424.852806220116</v>
+        <v>18779.44327321592</v>
       </c>
       <c r="G137" t="n">
-        <v>4307.925336076349</v>
+        <v>17868.64607791501</v>
       </c>
       <c r="H137" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I137" t="n">
-        <v>1265846</v>
+        <v>1245814</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8179352</v>
+        <v>8170064</v>
       </c>
       <c r="E138" t="n">
-        <v>10957604</v>
+        <v>10945162</v>
       </c>
       <c r="F138" t="n">
-        <v>237.6303980787263</v>
+        <v>393.5644578232267</v>
       </c>
       <c r="G138" t="n">
-        <v>84.33718755752584</v>
+        <v>1297.939356218479</v>
       </c>
       <c r="H138" t="n">
-        <v>0.83</v>
+        <v>1.37</v>
       </c>
       <c r="I138" t="n">
-        <v>59523</v>
+        <v>59325</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1228095</v>
+        <v>1234566</v>
       </c>
       <c r="F139" t="n">
-        <v>75.39492873422509</v>
+        <v>97.54508235288137</v>
       </c>
       <c r="G139" t="n">
-        <v>4.233803834260977</v>
+        <v>4.233783833643377</v>
       </c>
       <c r="H139" t="n">
         <v>0.93</v>
       </c>
       <c r="I139" t="n">
-        <v>48518</v>
+        <v>48826</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2371924</v>
+        <v>2358805</v>
       </c>
       <c r="E140" t="n">
-        <v>2371924</v>
+        <v>2358805</v>
       </c>
       <c r="F140" t="n">
-        <v>1845.144965948505</v>
+        <v>1811.806439328283</v>
       </c>
       <c r="G140" t="n">
-        <v>455.3684677179518</v>
+        <v>212.8666480784776</v>
       </c>
       <c r="H140" t="n">
-        <v>0.9</v>
+        <v>0.23</v>
       </c>
       <c r="I140" t="n">
-        <v>261058</v>
+        <v>259760</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>25478024</v>
+        <v>25354473</v>
       </c>
       <c r="E141" t="n">
-        <v>25478024</v>
+        <v>25354473</v>
       </c>
       <c r="F141" t="n">
-        <v>898.3371160615134</v>
+        <v>815.3067376735478</v>
       </c>
       <c r="G141" t="n">
-        <v>629.0346047771042</v>
+        <v>1028.813073430011</v>
       </c>
       <c r="H141" t="n">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="I141" t="n">
-        <v>322676</v>
+        <v>316689</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6413951</v>
+        <v>6401443</v>
       </c>
       <c r="E142" t="n">
-        <v>6773850</v>
+        <v>6760641</v>
       </c>
       <c r="F142" t="n">
-        <v>1132.502699878933</v>
+        <v>1046.846959058244</v>
       </c>
       <c r="G142" t="n">
-        <v>225.406051662158</v>
+        <v>456.4350440861852</v>
       </c>
       <c r="H142" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="I142" t="n">
-        <v>68842</v>
+        <v>62632</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3449260</v>
+        <v>3369615</v>
       </c>
       <c r="E143" t="n">
-        <v>8054598</v>
+        <v>7868612</v>
       </c>
       <c r="F143" t="n">
-        <v>2324.880258834529</v>
+        <v>2215.386064006826</v>
       </c>
       <c r="G143" t="n">
-        <v>1028.744265288429</v>
+        <v>1034.948639270048</v>
       </c>
       <c r="H143" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="I143" t="n">
-        <v>773584</v>
+        <v>722511</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1568982</v>
+        <v>1578874</v>
       </c>
       <c r="E144" t="n">
-        <v>12185890</v>
+        <v>12262717</v>
       </c>
       <c r="F144" t="n">
-        <v>200.5106690845372</v>
+        <v>200.0867690470517</v>
       </c>
       <c r="G144" t="n">
-        <v>873.8182846694488</v>
+        <v>3316.438736013677</v>
       </c>
       <c r="H144" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="I144" t="n">
-        <v>534815</v>
+        <v>533138</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>337806845</v>
+        <v>337999056</v>
       </c>
       <c r="E145" t="n">
-        <v>3039119848</v>
+        <v>3040849090</v>
       </c>
       <c r="F145" t="n">
-        <v>541834.2193683407</v>
+        <v>473485.7017097443</v>
       </c>
       <c r="G145" t="n">
-        <v>795596.017336683</v>
+        <v>721880.155870597</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>37174023</v>
+        <v>37261070</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>257404</v>
+        <v>253032</v>
       </c>
       <c r="E146" t="n">
-        <v>2271784</v>
+        <v>2233198</v>
       </c>
       <c r="F146" t="n">
-        <v>9.456313918550181</v>
+        <v>4.161878279588132</v>
       </c>
       <c r="G146" t="n">
-        <v>4.17830295308138</v>
+        <v>55.20484513191456</v>
       </c>
       <c r="H146" t="n">
-        <v>0.7</v>
+        <v>1.35</v>
       </c>
       <c r="I146" t="n">
-        <v>71309</v>
+        <v>72557</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>645269</v>
+        <v>645359</v>
       </c>
       <c r="F147" t="n">
-        <v>928.0128969203439</v>
+        <v>928.0814205336287</v>
       </c>
       <c r="G147" t="n">
-        <v>611.3865017021184</v>
+        <v>611.4316459154685</v>
       </c>
       <c r="H147" t="n">
         <v>0.19</v>
       </c>
       <c r="I147" t="n">
-        <v>5685.33</v>
+        <v>5420.75</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4918148</v>
+        <v>4910443</v>
       </c>
       <c r="E148" t="n">
-        <v>17378104</v>
+        <v>17350881</v>
       </c>
       <c r="F148" t="n">
-        <v>1397.619274048004</v>
+        <v>1622.560787387294</v>
       </c>
       <c r="G148" t="n">
-        <v>2569.765987272105</v>
+        <v>2275.76859370979</v>
       </c>
       <c r="H148" t="n">
         <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>102099</v>
+        <v>104868</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9169790</v>
+        <v>9170354</v>
       </c>
       <c r="E149" t="n">
-        <v>42502504</v>
+        <v>42505117</v>
       </c>
       <c r="F149" t="n">
-        <v>1921.714276315198</v>
+        <v>1856.296676213462</v>
       </c>
       <c r="G149" t="n">
-        <v>8112.552689968662</v>
+        <v>8589.748893063397</v>
       </c>
       <c r="H149" t="n">
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>118092</v>
+        <v>116120</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>43254042</v>
+        <v>43607069</v>
       </c>
       <c r="E150" t="n">
-        <v>250423029</v>
+        <v>252466912</v>
       </c>
       <c r="F150" t="n">
-        <v>79178.12406360217</v>
+        <v>60151.79497625589</v>
       </c>
       <c r="G150" t="n">
-        <v>51073.50595517618</v>
+        <v>61495.30961429133</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>11153706</v>
+        <v>11677463</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84065</v>
+        <v>80849</v>
       </c>
       <c r="E151" t="n">
-        <v>84065</v>
+        <v>80849</v>
       </c>
       <c r="F151" t="n">
-        <v>4.022169794782763</v>
+        <v>5.384215301195431</v>
       </c>
       <c r="G151" t="n">
-        <v>3.884946702757886</v>
+        <v>19.71695370527332</v>
       </c>
       <c r="H151" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="I151" t="n">
-        <v>20289</v>
+        <v>20593</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4381831</v>
+        <v>4377566</v>
       </c>
       <c r="F152" t="n">
-        <v>290.9153487454756</v>
+        <v>310.0804127139124</v>
       </c>
       <c r="G152" t="n">
-        <v>315.5879072096749</v>
+        <v>353.556223582325</v>
       </c>
       <c r="H152" t="n">
         <v>0.34</v>
       </c>
       <c r="I152" t="n">
-        <v>275512</v>
+        <v>274681</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39184845</v>
+        <v>39274623</v>
       </c>
       <c r="E153" t="n">
-        <v>54119850</v>
+        <v>54243847</v>
       </c>
       <c r="F153" t="n">
-        <v>11363.16865299931</v>
+        <v>977.4798989032722</v>
       </c>
       <c r="G153" t="n">
-        <v>13996.24508688067</v>
+        <v>1677.543177917078</v>
       </c>
       <c r="H153" t="n">
         <v>0.31</v>
       </c>
       <c r="I153" t="n">
-        <v>371156</v>
+        <v>378408</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2139879</v>
+        <v>2108522</v>
       </c>
       <c r="E154" t="n">
-        <v>8738712</v>
+        <v>8610657</v>
       </c>
       <c r="F154" t="n">
-        <v>593.3094013541468</v>
+        <v>244.1833777959303</v>
       </c>
       <c r="G154" t="n">
-        <v>460.0872278431251</v>
+        <v>2047.810373820057</v>
       </c>
       <c r="H154" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="I154" t="n">
-        <v>564937</v>
+        <v>565345</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7393206</v>
+        <v>7544019</v>
       </c>
       <c r="E155" t="n">
-        <v>7448162</v>
+        <v>7600096</v>
       </c>
       <c r="F155" t="n">
-        <v>3472.350707120442</v>
+        <v>1109.03753233869</v>
       </c>
       <c r="G155" t="n">
-        <v>11918.62932267576</v>
+        <v>10619.003735942</v>
       </c>
       <c r="H155" t="n">
         <v>0.11</v>
       </c>
       <c r="I155" t="n">
-        <v>4790402</v>
+        <v>4865856</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>563702</v>
+        <v>480723</v>
       </c>
       <c r="E156" t="n">
-        <v>563702</v>
+        <v>480723</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>18.17</v>
+        <v>17.89</v>
       </c>
       <c r="I156" t="n">
-        <v>7814.79</v>
+        <v>8295.26</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13635211</v>
+        <v>13645123</v>
       </c>
       <c r="E157" t="n">
-        <v>13681613</v>
+        <v>13691559</v>
       </c>
       <c r="F157" t="n">
-        <v>1530.278049296334</v>
+        <v>1078.420984804533</v>
       </c>
       <c r="G157" t="n">
-        <v>4282.988531231484</v>
+        <v>3916.224680339261</v>
       </c>
       <c r="H157" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I157" t="n">
-        <v>5734907</v>
+        <v>5761873</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42854873</v>
+        <v>42832321</v>
       </c>
       <c r="E158" t="n">
-        <v>72757605</v>
+        <v>72719316</v>
       </c>
       <c r="F158" t="n">
-        <v>458.6965614426421</v>
+        <v>403.2199616043511</v>
       </c>
       <c r="G158" t="n">
-        <v>880.4970550450428</v>
+        <v>820.2000358052467</v>
       </c>
       <c r="H158" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I158" t="n">
-        <v>1088942</v>
+        <v>1084393</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>24443206</v>
+        <v>23565801</v>
       </c>
       <c r="E159" t="n">
-        <v>73267844</v>
+        <v>70637844</v>
       </c>
       <c r="F159" t="n">
-        <v>13411.24680330118</v>
+        <v>15325.03784996199</v>
       </c>
       <c r="G159" t="n">
-        <v>15036.36800502992</v>
+        <v>7670.434755214281</v>
       </c>
       <c r="H159" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I159" t="n">
-        <v>2733832</v>
+        <v>2859477</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101354485</v>
+        <v>101529451</v>
       </c>
       <c r="E160" t="n">
-        <v>107748977</v>
+        <v>107934982</v>
       </c>
       <c r="F160" t="n">
-        <v>439.707883483237</v>
+        <v>468.5100085477245</v>
       </c>
       <c r="G160" t="n">
-        <v>915.2128543001135</v>
+        <v>1616.012087777735</v>
       </c>
       <c r="H160" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="I160" t="n">
-        <v>900790</v>
+        <v>785268</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10623603</v>
+        <v>10625100</v>
       </c>
       <c r="E161" t="n">
-        <v>46190643</v>
+        <v>46220912</v>
       </c>
       <c r="F161" t="n">
-        <v>3718.617409021118</v>
+        <v>3940.128512161808</v>
       </c>
       <c r="G161" t="n">
-        <v>3082.379657384392</v>
+        <v>2695.442620445564</v>
       </c>
       <c r="H161" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="I161" t="n">
-        <v>104895</v>
+        <v>107225</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15082954</v>
+        <v>15124571</v>
       </c>
       <c r="E162" t="n">
-        <v>92448385</v>
+        <v>92703469</v>
       </c>
       <c r="F162" t="n">
-        <v>1570.826430934859</v>
+        <v>945.9788806654161</v>
       </c>
       <c r="G162" t="n">
-        <v>1972.3279947139</v>
+        <v>1414.940239171312</v>
       </c>
       <c r="H162" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I162" t="n">
-        <v>11074396</v>
+        <v>11751334</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1499334</v>
+        <v>1499771</v>
       </c>
       <c r="E163" t="n">
-        <v>1541509</v>
+        <v>1541958</v>
       </c>
       <c r="F163" t="n">
-        <v>98.57783878986291</v>
+        <v>98.50342529980212</v>
       </c>
       <c r="G163" t="n">
-        <v>70.0598624750623</v>
+        <v>70.06125434610458</v>
       </c>
       <c r="H163" t="n">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="I163" t="n">
-        <v>124007</v>
+        <v>129083</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97042</v>
+        <v>97008</v>
       </c>
       <c r="E164" t="n">
-        <v>275285</v>
+        <v>275189</v>
       </c>
       <c r="F164" t="n">
-        <v>3.978794907206264</v>
+        <v>3.979088697739204</v>
       </c>
       <c r="G164" t="n">
-        <v>80.46195714460876</v>
+        <v>80.46789838104395</v>
       </c>
       <c r="H164" t="n">
         <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>40.75</v>
+        <v>40.72</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47023130</v>
+        <v>47079154</v>
       </c>
       <c r="E165" t="n">
-        <v>202570500</v>
+        <v>202811849</v>
       </c>
       <c r="F165" t="n">
-        <v>5215.367914900982</v>
+        <v>4046.13426324987</v>
       </c>
       <c r="G165" t="n">
-        <v>4845.884889887283</v>
+        <v>3384.365834704125</v>
       </c>
       <c r="H165" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I165" t="n">
-        <v>8241058</v>
+        <v>8772956</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7940887</v>
+        <v>7902715</v>
       </c>
       <c r="F166" t="n">
-        <v>498.7715882905927</v>
+        <v>500.5939725876877</v>
       </c>
       <c r="G166" t="n">
-        <v>1513.722069054903</v>
+        <v>348.8360967291347</v>
       </c>
       <c r="H166" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I166" t="n">
-        <v>6329737</v>
+        <v>6324461</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>665201</v>
+        <v>670059</v>
       </c>
       <c r="E167" t="n">
-        <v>2401779</v>
+        <v>2419319</v>
       </c>
       <c r="F167" t="n">
-        <v>50.70122244741994</v>
+        <v>50.45735922960685</v>
       </c>
       <c r="G167" t="n">
-        <v>10.34177327925005</v>
+        <v>10.71430873901913</v>
       </c>
       <c r="H167" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>406084</v>
+        <v>408532</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1643363</v>
+        <v>1637822</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>7.04</v>
+        <v>7.38</v>
       </c>
       <c r="I168" t="n">
-        <v>88782</v>
+        <v>90798</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13051941</v>
+        <v>12908484</v>
       </c>
       <c r="E169" t="n">
-        <v>13051941</v>
+        <v>12908484</v>
       </c>
       <c r="F169" t="n">
-        <v>686.4458846347771</v>
+        <v>1145.870603235016</v>
       </c>
       <c r="G169" t="n">
-        <v>273.0171622081064</v>
+        <v>479.242803810708</v>
       </c>
       <c r="H169" t="n">
-        <v>2.33</v>
+        <v>1.72</v>
       </c>
       <c r="I169" t="n">
-        <v>3376400</v>
+        <v>3434289</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1662000</v>
+        <v>1696059</v>
       </c>
       <c r="E170" t="n">
-        <v>6039201</v>
+        <v>6162960</v>
       </c>
       <c r="F170" t="n">
-        <v>167.292042295363</v>
+        <v>788.3334414069475</v>
       </c>
       <c r="G170" t="n">
-        <v>135.9981610701611</v>
+        <v>152.2809628262503</v>
       </c>
       <c r="H170" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="I170" t="n">
-        <v>127940</v>
+        <v>128699</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8910261</v>
+        <v>8859724</v>
       </c>
       <c r="E171" t="n">
-        <v>19785569</v>
+        <v>19673348</v>
       </c>
       <c r="F171" t="n">
-        <v>1773.87166002612</v>
+        <v>1539.771540951191</v>
       </c>
       <c r="G171" t="n">
-        <v>1758.93403068986</v>
+        <v>1470.46615156053</v>
       </c>
       <c r="H171" t="n">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
       <c r="I171" t="n">
-        <v>368162</v>
+        <v>359945</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1037446</v>
+        <v>1038746</v>
       </c>
       <c r="E172" t="n">
-        <v>3032274</v>
+        <v>3036075</v>
       </c>
       <c r="F172" t="n">
-        <v>79.74938070777081</v>
+        <v>79.75417384367037</v>
       </c>
       <c r="G172" t="n">
-        <v>649.9858628549084</v>
+        <v>650.2118679681232</v>
       </c>
       <c r="H172" t="n">
         <v>0.46</v>
       </c>
       <c r="I172" t="n">
-        <v>20606</v>
+        <v>19484.57</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20753689</v>
+        <v>20885395</v>
       </c>
       <c r="E173" t="n">
-        <v>83014756</v>
+        <v>83541581</v>
       </c>
       <c r="F173" t="n">
-        <v>13001.1097038706</v>
+        <v>19015.27950568578</v>
       </c>
       <c r="G173" t="n">
-        <v>16165.57983456384</v>
+        <v>22153.96978484111</v>
       </c>
       <c r="H173" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="I173" t="n">
-        <v>5966010</v>
+        <v>5402503</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4298710</v>
+        <v>4273003</v>
       </c>
       <c r="E174" t="n">
-        <v>4298710</v>
+        <v>4273003</v>
       </c>
       <c r="F174" t="n">
-        <v>236.7935664490021</v>
+        <v>2080.197055854571</v>
       </c>
       <c r="G174" t="n">
-        <v>901.3631215827312</v>
+        <v>842.6748337565948</v>
       </c>
       <c r="H174" t="n">
-        <v>0.99</v>
+        <v>0.76</v>
       </c>
       <c r="I174" t="n">
-        <v>2509249</v>
+        <v>2523331</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>303796724</v>
+        <v>301442742</v>
       </c>
       <c r="E175" t="n">
-        <v>303796724</v>
+        <v>301442742</v>
       </c>
       <c r="F175" t="n">
-        <v>2833.891670331177</v>
+        <v>2245.631402773398</v>
       </c>
       <c r="G175" t="n">
-        <v>3941.424826947195</v>
+        <v>3677.455905197897</v>
       </c>
       <c r="H175" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="I175" t="n">
-        <v>12655425</v>
+        <v>12829831</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12740472</v>
+        <v>12784394</v>
       </c>
       <c r="E176" t="n">
-        <v>40306716</v>
+        <v>40445670</v>
       </c>
       <c r="F176" t="n">
-        <v>1760.942603622847</v>
+        <v>3709.807529583598</v>
       </c>
       <c r="G176" t="n">
-        <v>3724.760896731302</v>
+        <v>3708.975213402032</v>
       </c>
       <c r="H176" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="I176" t="n">
-        <v>1396700</v>
+        <v>1399008</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>26943</v>
+        <v>27037</v>
       </c>
       <c r="E177" t="n">
-        <v>211899</v>
+        <v>212638</v>
       </c>
       <c r="F177" t="n">
-        <v>126.5936962156089</v>
+        <v>140.753031237689</v>
       </c>
       <c r="G177" t="n">
-        <v>304.4416088387854</v>
+        <v>414.0165891746581</v>
       </c>
       <c r="H177" t="n">
-        <v>1.38</v>
+        <v>0.93</v>
       </c>
       <c r="I177" t="n">
-        <v>132786</v>
+        <v>131894</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8194384</v>
+        <v>8328233</v>
       </c>
       <c r="E178" t="n">
-        <v>8194384</v>
+        <v>8328233</v>
       </c>
       <c r="F178" t="n">
-        <v>1882.89515162949</v>
+        <v>1634.936633240662</v>
       </c>
       <c r="G178" t="n">
-        <v>1608.524576900508</v>
+        <v>1541.78287734082</v>
       </c>
       <c r="H178" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I178" t="n">
-        <v>3530790</v>
+        <v>3539518</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1087114</v>
+        <v>1083279</v>
       </c>
       <c r="E179" t="n">
-        <v>2476008</v>
+        <v>2467275</v>
       </c>
       <c r="F179" t="n">
-        <v>262.8555740983567</v>
+        <v>262.873825871352</v>
       </c>
       <c r="G179" t="n">
-        <v>18.72142218770422</v>
+        <v>18.58429404647758</v>
       </c>
       <c r="H179" t="n">
         <v>0.13</v>
       </c>
       <c r="I179" t="n">
-        <v>5005.93</v>
+        <v>1739.31</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9435424</v>
+        <v>9615447</v>
       </c>
       <c r="E180" t="n">
-        <v>9435424</v>
+        <v>9615447</v>
       </c>
       <c r="F180" t="n">
-        <v>3027.376209876707</v>
+        <v>3685.140895692356</v>
       </c>
       <c r="G180" t="n">
-        <v>3128.909827420426</v>
+        <v>3006.418381207191</v>
       </c>
       <c r="H180" t="n">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="I180" t="n">
-        <v>2864164</v>
+        <v>2700825</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17145098</v>
+        <v>17228508</v>
       </c>
       <c r="E181" t="n">
-        <v>17145098</v>
+        <v>17228508</v>
       </c>
       <c r="F181" t="n">
-        <v>2017.689062782422</v>
+        <v>1540.145155259301</v>
       </c>
       <c r="G181" t="n">
-        <v>2370.82111736705</v>
+        <v>3170.409425663212</v>
       </c>
       <c r="H181" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I181" t="n">
-        <v>3474721</v>
+        <v>3480868</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31323079</v>
+        <v>31528208</v>
       </c>
       <c r="E182" t="n">
-        <v>86761821</v>
+        <v>87330008</v>
       </c>
       <c r="F182" t="n">
-        <v>5275.994250330156</v>
+        <v>5295.247992060027</v>
       </c>
       <c r="G182" t="n">
-        <v>6570.471696622514</v>
+        <v>4278.353822649776</v>
       </c>
       <c r="H182" t="n">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="I182" t="n">
-        <v>11934753</v>
+        <v>11873728</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37433401</v>
+        <v>37616269</v>
       </c>
       <c r="E183" t="n">
-        <v>94389065</v>
+        <v>94850172</v>
       </c>
       <c r="F183" t="n">
-        <v>9876.788419264858</v>
+        <v>16118.00556357883</v>
       </c>
       <c r="G183" t="n">
-        <v>8772.776151774407</v>
+        <v>14300.77241504338</v>
       </c>
       <c r="H183" t="n">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="I183" t="n">
-        <v>3069478</v>
+        <v>3093922</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>300212710</v>
+        <v>300810289</v>
       </c>
       <c r="E184" t="n">
-        <v>304905818</v>
+        <v>305512926</v>
       </c>
       <c r="F184" t="n">
-        <v>24870.46824564972</v>
+        <v>21097.11413655795</v>
       </c>
       <c r="G184" t="n">
-        <v>30045.11609755064</v>
+        <v>26484.98285918438</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>12313125</v>
+        <v>12360643</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>407131</v>
+        <v>407767</v>
       </c>
       <c r="F185" t="n">
-        <v>241.0165636040987</v>
+        <v>85.16905276167969</v>
       </c>
       <c r="G185" t="n">
-        <v>50.26464069376597</v>
+        <v>378.7705945183841</v>
       </c>
       <c r="H185" t="n">
-        <v>3.17</v>
+        <v>1.46</v>
       </c>
       <c r="I185" t="n">
-        <v>63368</v>
+        <v>63846</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28638048</v>
+        <v>28735421</v>
       </c>
       <c r="E186" t="n">
-        <v>68036882</v>
+        <v>68268216</v>
       </c>
       <c r="F186" t="n">
-        <v>6876.529955943049</v>
+        <v>10975.01426547401</v>
       </c>
       <c r="G186" t="n">
-        <v>11148.92034102453</v>
+        <v>5830.27929991702</v>
       </c>
       <c r="H186" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I186" t="n">
-        <v>478336</v>
+        <v>470553</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>19475442</v>
+        <v>20688862</v>
       </c>
       <c r="F187" t="n">
-        <v>3.993061672854504</v>
+        <v>5.388100712883442</v>
       </c>
       <c r="G187" t="n">
-        <v>2675.012818936985</v>
+        <v>3.996440761265556</v>
       </c>
       <c r="H187" t="n">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="I187" t="n">
-        <v>1326.82</v>
+        <v>1529.68</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12416357</v>
+        <v>12491020</v>
       </c>
       <c r="E188" t="n">
-        <v>18923347</v>
+        <v>19037139</v>
       </c>
       <c r="F188" t="n">
-        <v>3396.153507760704</v>
+        <v>3671.016285158344</v>
       </c>
       <c r="G188" t="n">
-        <v>2443.865473593956</v>
+        <v>1696.941515477689</v>
       </c>
       <c r="H188" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="I188" t="n">
-        <v>689928</v>
+        <v>697227</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>79293759</v>
+        <v>82948571</v>
       </c>
       <c r="E189" t="n">
-        <v>79293759</v>
+        <v>82948571</v>
       </c>
       <c r="F189" t="n">
-        <v>6200.96964474315</v>
+        <v>5316.016831558346</v>
       </c>
       <c r="G189" t="n">
-        <v>7286.728163135809</v>
+        <v>58947.66063470949</v>
       </c>
       <c r="H189" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I189" t="n">
-        <v>4914019</v>
+        <v>5246417</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>302562674</v>
+        <v>304659719</v>
       </c>
       <c r="E190" t="n">
-        <v>302562674</v>
+        <v>304659719</v>
       </c>
       <c r="F190" t="n">
-        <v>205727.2107422111</v>
+        <v>267869.9517623867</v>
       </c>
       <c r="G190" t="n">
-        <v>337750.1804365182</v>
+        <v>271739.1530525649</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>50380310</v>
+        <v>50392808</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10164249</v>
+        <v>10242457</v>
       </c>
       <c r="E191" t="n">
-        <v>28857998</v>
+        <v>29080044</v>
       </c>
       <c r="F191" t="n">
-        <v>2020.484631234825</v>
+        <v>971.2344468645334</v>
       </c>
       <c r="G191" t="n">
-        <v>1869.728352239792</v>
+        <v>1663.325099463309</v>
       </c>
       <c r="H191" t="n">
         <v>1.03</v>
       </c>
       <c r="I191" t="n">
-        <v>128112</v>
+        <v>126618</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4235825</v>
+        <v>4212817</v>
       </c>
       <c r="E192" t="n">
-        <v>28943091</v>
+        <v>28785882</v>
       </c>
       <c r="F192" t="n">
-        <v>1531.541921835046</v>
+        <v>2267.048597939478</v>
       </c>
       <c r="G192" t="n">
-        <v>3675.532752424179</v>
+        <v>3890.284580000192</v>
       </c>
       <c r="H192" t="n">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="I192" t="n">
-        <v>2578664</v>
+        <v>2582723</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2815710</v>
+        <v>2783975</v>
       </c>
       <c r="E193" t="n">
-        <v>4178480</v>
+        <v>4131022</v>
       </c>
       <c r="F193" t="n">
-        <v>236.5575624738032</v>
+        <v>373.4431159149217</v>
       </c>
       <c r="G193" t="n">
-        <v>531.4393376072804</v>
+        <v>6275.698563180821</v>
       </c>
       <c r="H193" t="n">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="I193" t="n">
-        <v>222946</v>
+        <v>227373</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>89729754</v>
+        <v>90255296</v>
       </c>
       <c r="E194" t="n">
-        <v>517061544</v>
+        <v>520089947</v>
       </c>
       <c r="F194" t="n">
-        <v>481496.2669209729</v>
+        <v>521557.3836962655</v>
       </c>
       <c r="G194" t="n">
-        <v>480141.1096578147</v>
+        <v>612689.2543172004</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I194" t="n">
-        <v>16023365</v>
+        <v>16118512</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>674540</v>
+        <v>676287</v>
       </c>
       <c r="E195" t="n">
-        <v>735648</v>
+        <v>737554</v>
       </c>
       <c r="F195" t="n">
-        <v>3.86754587792234</v>
+        <v>3.830186442895017</v>
       </c>
       <c r="G195" t="n">
-        <v>5.5443967920954</v>
+        <v>5.41792060955209</v>
       </c>
       <c r="H195" t="n">
         <v>0.48</v>
       </c>
       <c r="I195" t="n">
-        <v>78534</v>
+        <v>78762</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>108200778</v>
+        <v>108301607</v>
       </c>
       <c r="E196" t="n">
-        <v>266216186</v>
+        <v>266464267</v>
       </c>
       <c r="F196" t="n">
-        <v>38761.78470805466</v>
+        <v>47237.46993546452</v>
       </c>
       <c r="G196" t="n">
-        <v>48669.07331199093</v>
+        <v>33062.08357077037</v>
       </c>
       <c r="H196" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2201857</v>
+        <v>2374096</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17122166</v>
+        <v>18540193</v>
       </c>
       <c r="E197" t="n">
-        <v>17122166</v>
+        <v>18540193</v>
       </c>
       <c r="F197" t="n">
-        <v>46.40577841391878</v>
+        <v>6.8169451004382</v>
       </c>
       <c r="G197" t="n">
-        <v>5.476145742691222</v>
+        <v>5.64573534963922</v>
       </c>
       <c r="H197" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="I197" t="n">
-        <v>76115</v>
+        <v>119559</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1323014</v>
+        <v>1339311</v>
       </c>
       <c r="F198" t="n">
-        <v>18.68059454496395</v>
+        <v>373.7565289393263</v>
       </c>
       <c r="G198" t="n">
-        <v>5.505581758268959</v>
+        <v>4.100981956742691</v>
       </c>
       <c r="H198" t="n">
         <v>0.67</v>
       </c>
       <c r="I198" t="n">
-        <v>17940.45</v>
+        <v>20575</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>129455</v>
+        <v>129673</v>
       </c>
       <c r="E199" t="n">
-        <v>281821</v>
+        <v>282297</v>
       </c>
       <c r="F199" t="n">
-        <v>4.044503794266203</v>
+        <v>4.044799400861436</v>
       </c>
       <c r="G199" t="n">
-        <v>4.012940638600432</v>
+        <v>4.013233938292901</v>
       </c>
       <c r="H199" t="n">
         <v>0.77</v>
       </c>
       <c r="I199" t="n">
-        <v>47920</v>
+        <v>47683</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2652179</v>
+        <v>2809400</v>
       </c>
       <c r="F200" t="n">
-        <v>454.5285897820361</v>
+        <v>700.8931863165031</v>
       </c>
       <c r="G200" t="n">
-        <v>166.6173404626128</v>
+        <v>553.5105457163833</v>
       </c>
       <c r="H200" t="n">
-        <v>2.27</v>
+        <v>1.81</v>
       </c>
       <c r="I200" t="n">
-        <v>179757</v>
+        <v>227362</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>188684</v>
+        <v>183449</v>
       </c>
       <c r="E201" t="n">
-        <v>1457022</v>
+        <v>1416597</v>
       </c>
       <c r="F201" t="n">
-        <v>5.078551249254726</v>
+        <v>3.941015119837739</v>
       </c>
       <c r="G201" t="n">
-        <v>6.134600705964835</v>
+        <v>4.093750572883271</v>
       </c>
       <c r="H201" t="n">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="I201" t="n">
-        <v>107072</v>
+        <v>103978</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30405279</v>
+        <v>30518177</v>
       </c>
       <c r="E202" t="n">
-        <v>136136907</v>
+        <v>136642400</v>
       </c>
       <c r="F202" t="n">
-        <v>11290.53946423572</v>
+        <v>8444.667227583644</v>
       </c>
       <c r="G202" t="n">
-        <v>18003.78946691512</v>
+        <v>19193.06991356004</v>
       </c>
       <c r="H202" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I202" t="n">
-        <v>8894062</v>
+        <v>8817640</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13114488</v>
+        <v>13086410</v>
       </c>
       <c r="E203" t="n">
-        <v>26217525</v>
+        <v>26161393</v>
       </c>
       <c r="F203" t="n">
-        <v>808.3520784552392</v>
+        <v>808.3388965112614</v>
       </c>
       <c r="G203" t="n">
-        <v>690.2981808713231</v>
+        <v>690.2869240536681</v>
       </c>
       <c r="H203" t="n">
         <v>0.39</v>
       </c>
       <c r="I203" t="n">
-        <v>44688</v>
+        <v>43018</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1497789</v>
+        <v>1456007</v>
       </c>
       <c r="F204" t="n">
-        <v>469.3360330308625</v>
+        <v>829.7343808123976</v>
       </c>
       <c r="G204" t="n">
-        <v>138.5673076973311</v>
+        <v>53.46470429596549</v>
       </c>
       <c r="H204" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="I204" t="n">
-        <v>53303</v>
+        <v>57817</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1023548</v>
+        <v>1021872</v>
       </c>
       <c r="E205" t="n">
-        <v>4734056</v>
+        <v>4726302</v>
       </c>
       <c r="F205" t="n">
-        <v>3596.949253500602</v>
+        <v>3837.517420491034</v>
       </c>
       <c r="G205" t="n">
-        <v>3003.446823264608</v>
+        <v>3067.334752190402</v>
       </c>
       <c r="H205" t="n">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
       <c r="I205" t="n">
-        <v>483233</v>
+        <v>484017</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3266233</v>
+        <v>3117778</v>
       </c>
       <c r="E206" t="n">
-        <v>3266233</v>
+        <v>3117778</v>
       </c>
       <c r="F206" t="n">
-        <v>550.4138390645268</v>
+        <v>940.0250608825353</v>
       </c>
       <c r="G206" t="n">
-        <v>1218.179170494351</v>
+        <v>825.3232760796628</v>
       </c>
       <c r="H206" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I206" t="n">
-        <v>437135</v>
+        <v>442055</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>574854</v>
+        <v>574871</v>
       </c>
       <c r="E207" t="n">
-        <v>574854</v>
+        <v>574871</v>
       </c>
       <c r="F207" t="n">
-        <v>262.3132851676131</v>
+        <v>262.4492344286999</v>
       </c>
       <c r="G207" t="n">
-        <v>65.06833034610435</v>
+        <v>65.07594791976203</v>
       </c>
       <c r="H207" t="n">
         <v>0.35</v>
       </c>
       <c r="I207" t="n">
-        <v>1375444</v>
+        <v>1406893</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13611725</v>
+        <v>13545457</v>
       </c>
       <c r="E208" t="n">
-        <v>17329898</v>
+        <v>17245529</v>
       </c>
       <c r="F208" t="n">
-        <v>141.7871088805682</v>
+        <v>165.3638520749417</v>
       </c>
       <c r="G208" t="n">
-        <v>448.3534059922845</v>
+        <v>178.0418641203369</v>
       </c>
       <c r="H208" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I208" t="n">
-        <v>793415</v>
+        <v>813806</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1867588</v>
+        <v>1864364</v>
       </c>
       <c r="E209" t="n">
-        <v>1867588</v>
+        <v>1864364</v>
       </c>
       <c r="F209" t="n">
-        <v>27.81334400692544</v>
+        <v>33.3258861619174</v>
       </c>
       <c r="G209" t="n">
-        <v>26.25181113023211</v>
+        <v>23.36863242032996</v>
       </c>
       <c r="H209" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="I209" t="n">
-        <v>2778.77</v>
+        <v>2911.78</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5983108</v>
+        <v>5935601</v>
       </c>
       <c r="E210" t="n">
-        <v>15702691</v>
+        <v>15578009</v>
       </c>
       <c r="F210" t="n">
-        <v>509.3353811192274</v>
+        <v>269.0899474683056</v>
       </c>
       <c r="G210" t="n">
-        <v>1343.269687787803</v>
+        <v>2059.690154704107</v>
       </c>
       <c r="H210" t="n">
         <v>1.38</v>
       </c>
       <c r="I210" t="n">
-        <v>74263</v>
+        <v>72518</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29765104</v>
+        <v>29187194</v>
       </c>
       <c r="F211" t="n">
-        <v>418.3787473110187</v>
+        <v>693.6758485014041</v>
       </c>
       <c r="G211" t="n">
-        <v>207.361709145494</v>
+        <v>828.0681190050899</v>
       </c>
       <c r="H211" t="n">
-        <v>1.5</v>
+        <v>0.41</v>
       </c>
       <c r="I211" t="n">
-        <v>372318</v>
+        <v>363943</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17962611</v>
+        <v>17929538</v>
       </c>
       <c r="E212" t="n">
-        <v>17962720</v>
+        <v>17929538</v>
       </c>
       <c r="F212" t="n">
-        <v>32980.53271634912</v>
+        <v>40595.95798547679</v>
       </c>
       <c r="G212" t="n">
-        <v>24806.01066720669</v>
+        <v>32460.78736470635</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2973645</v>
+        <v>2925564</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47716687</v>
+        <v>48062909</v>
       </c>
       <c r="E213" t="n">
-        <v>309430013</v>
+        <v>311675176</v>
       </c>
       <c r="F213" t="n">
-        <v>201616.116711177</v>
+        <v>120647.1522451185</v>
       </c>
       <c r="G213" t="n">
-        <v>235671.7193309151</v>
+        <v>208450.7879432034</v>
       </c>
       <c r="H213" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I213" t="n">
-        <v>16776433</v>
+        <v>16703995</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9309525</v>
+        <v>8686656</v>
       </c>
       <c r="F214" t="n">
-        <v>4.057480089537359</v>
+        <v>4.070032739801774</v>
       </c>
       <c r="G214" t="n">
-        <v>144.8010118521873</v>
+        <v>4.138917331648098</v>
       </c>
       <c r="H214" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="I214" t="n">
-        <v>297101</v>
+        <v>302171</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7126543</v>
+        <v>7118714</v>
       </c>
       <c r="E215" t="n">
-        <v>7136752</v>
+        <v>7128912</v>
       </c>
       <c r="F215" t="n">
-        <v>52.21521348446327</v>
+        <v>47.68560108576563</v>
       </c>
       <c r="G215" t="n">
-        <v>67.0181385125459</v>
+        <v>66.83527534003031</v>
       </c>
       <c r="H215" t="n">
-        <v>0.17</v>
+        <v>0.99</v>
       </c>
       <c r="I215" t="n">
-        <v>872610</v>
+        <v>824403</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4806194</v>
+        <v>4804153</v>
       </c>
       <c r="F216" t="n">
-        <v>1076.2573345371</v>
+        <v>1070.955752453899</v>
       </c>
       <c r="G216" t="n">
-        <v>165.1400662053629</v>
+        <v>207.4946702843694</v>
       </c>
       <c r="H216" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="I216" t="n">
-        <v>172239</v>
+        <v>173630</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2490243</v>
+        <v>2333684</v>
       </c>
       <c r="E217" t="n">
-        <v>4511545</v>
+        <v>4227908</v>
       </c>
       <c r="F217" t="n">
-        <v>76.57862443917902</v>
+        <v>26.24926194202263</v>
       </c>
       <c r="G217" t="n">
-        <v>194.0010352217583</v>
+        <v>394.4710171396026</v>
       </c>
       <c r="H217" t="n">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="I217" t="n">
-        <v>100661</v>
+        <v>75458</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125420598</v>
+        <v>125210831</v>
       </c>
       <c r="E218" t="n">
-        <v>2077067824</v>
+        <v>2073593919</v>
       </c>
       <c r="F218" t="n">
-        <v>6071.139072467534</v>
+        <v>5258.547278605094</v>
       </c>
       <c r="G218" t="n">
-        <v>16730.27084167701</v>
+        <v>11764.24966942002</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>5064278</v>
+        <v>5049407</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>74630328</v>
+        <v>76542009</v>
       </c>
       <c r="E219" t="n">
-        <v>75433673</v>
+        <v>77365932</v>
       </c>
       <c r="F219" t="n">
-        <v>11827.31649327857</v>
+        <v>13936.11201050087</v>
       </c>
       <c r="G219" t="n">
-        <v>21987.07804349731</v>
+        <v>8927.737014820041</v>
       </c>
       <c r="H219" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I219" t="n">
-        <v>8608826</v>
+        <v>8764917</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>235167796</v>
+        <v>233138400</v>
       </c>
       <c r="E220" t="n">
-        <v>235167796</v>
+        <v>233138400</v>
       </c>
       <c r="F220" t="n">
-        <v>101286.744618067</v>
+        <v>101848.6179636773</v>
       </c>
       <c r="G220" t="n">
-        <v>92454.74270901059</v>
+        <v>128881.8413688283</v>
       </c>
       <c r="H220" t="n">
         <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>44610180</v>
+        <v>44683477</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23483861</v>
+        <v>23643048</v>
       </c>
       <c r="E221" t="n">
-        <v>140508658</v>
+        <v>141461107</v>
       </c>
       <c r="F221" t="n">
-        <v>108535.8881289072</v>
+        <v>82889.20261263203</v>
       </c>
       <c r="G221" t="n">
-        <v>93261.66891797628</v>
+        <v>114430.180110857</v>
       </c>
       <c r="H221" t="n">
         <v>0.14</v>
       </c>
       <c r="I221" t="n">
-        <v>13030800</v>
+        <v>13080536</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1014217</v>
+        <v>1009854</v>
       </c>
       <c r="F222" t="n">
-        <v>290.3624709548876</v>
+        <v>208.461238549646</v>
       </c>
       <c r="G222" t="n">
-        <v>435.9576787346523</v>
+        <v>544.9392392558058</v>
       </c>
       <c r="H222" t="n">
-        <v>0.1</v>
+        <v>1.73</v>
       </c>
       <c r="I222" t="n">
-        <v>65072</v>
+        <v>66926</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2256651</v>
+        <v>2241517</v>
       </c>
       <c r="F223" t="n">
-        <v>155.7478823000833</v>
+        <v>119.8297012177603</v>
       </c>
       <c r="G223" t="n">
-        <v>119.892417979745</v>
+        <v>139.1327686560153</v>
       </c>
       <c r="H223" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="I223" t="n">
-        <v>208193</v>
+        <v>206488</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13364894</v>
+        <v>13479010</v>
       </c>
       <c r="E224" t="n">
-        <v>41012169</v>
+        <v>41362353</v>
       </c>
       <c r="F224" t="n">
-        <v>913.5507611511584</v>
+        <v>1010.90495914414</v>
       </c>
       <c r="G224" t="n">
-        <v>885.2121006824756</v>
+        <v>1538.417465126318</v>
       </c>
       <c r="H224" t="n">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="I224" t="n">
-        <v>2560445</v>
+        <v>2598602</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52858483</v>
+        <v>52648966</v>
       </c>
       <c r="E225" t="n">
-        <v>91298092</v>
+        <v>90936209</v>
       </c>
       <c r="F225" t="n">
-        <v>6991.404050135739</v>
+        <v>14353.34064837081</v>
       </c>
       <c r="G225" t="n">
-        <v>12585.92894607403</v>
+        <v>5495.627233890395</v>
       </c>
       <c r="H225" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I225" t="n">
-        <v>1939397</v>
+        <v>2038365</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4203352</v>
+        <v>4210934</v>
       </c>
       <c r="E226" t="n">
-        <v>4203352</v>
+        <v>4210934</v>
       </c>
       <c r="F226" t="n">
-        <v>30.36758908896581</v>
+        <v>3.987884472430302</v>
       </c>
       <c r="G226" t="n">
-        <v>13.74868139576153</v>
+        <v>13.76227020391736</v>
       </c>
       <c r="H226" t="n">
         <v>0.73</v>
       </c>
       <c r="I226" t="n">
-        <v>1557500</v>
+        <v>1100903</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>208599</v>
+        <v>212440</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>57891</v>
+        <v>58110</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6767877</v>
+        <v>6857698</v>
       </c>
       <c r="E228" t="n">
-        <v>34818670</v>
+        <v>35280773</v>
       </c>
       <c r="F228" t="n">
-        <v>95.41810001037133</v>
+        <v>129.36155545377</v>
       </c>
       <c r="G228" t="n">
-        <v>277.5929771565129</v>
+        <v>201.8563477141446</v>
       </c>
       <c r="H228" t="n">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
       <c r="I228" t="n">
-        <v>898800</v>
+        <v>854271</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>175852827</v>
+        <v>176163369</v>
       </c>
       <c r="E230" t="n">
-        <v>205448026</v>
+        <v>205810830</v>
       </c>
       <c r="F230" t="n">
-        <v>24338.17124986052</v>
+        <v>27900.68795246428</v>
       </c>
       <c r="G230" t="n">
-        <v>72213.22374301789</v>
+        <v>53008.84119206659</v>
       </c>
       <c r="H230" t="n">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="I230" t="n">
-        <v>3744933</v>
+        <v>3746292</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>302183</v>
+        <v>301304</v>
       </c>
       <c r="F231" t="n">
-        <v>154.9481223637274</v>
+        <v>111.9415612348937</v>
       </c>
       <c r="G231" t="n">
-        <v>19.68709550839417</v>
+        <v>108.2212840701918</v>
       </c>
       <c r="H231" t="n">
-        <v>1.35</v>
+        <v>0.73</v>
       </c>
       <c r="I231" t="n">
-        <v>289531</v>
+        <v>294303</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29166972</v>
+        <v>29037233</v>
       </c>
       <c r="E232" t="n">
-        <v>39993018</v>
+        <v>39815123</v>
       </c>
       <c r="F232" t="n">
-        <v>5897.859228630689</v>
+        <v>5753.26533115177</v>
       </c>
       <c r="G232" t="n">
-        <v>5333.556287814851</v>
+        <v>5896.071805924019</v>
       </c>
       <c r="H232" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="I232" t="n">
-        <v>284102</v>
+        <v>284211</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1968872</v>
+        <v>2459142</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1595148</v>
+        <v>1585220</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>8059411</v>
+        <v>8040795</v>
       </c>
       <c r="F234" t="n">
-        <v>559.8771086768184</v>
+        <v>533.5304547371716</v>
       </c>
       <c r="G234" t="n">
-        <v>3321.680027178923</v>
+        <v>3322.077398709686</v>
       </c>
       <c r="H234" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I234" t="n">
-        <v>675824</v>
+        <v>689158</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>24015469</v>
+        <v>24217124</v>
       </c>
       <c r="E235" t="n">
-        <v>24015469</v>
+        <v>24217124</v>
       </c>
       <c r="F235" t="n">
-        <v>7717.55800943507</v>
+        <v>4270.518145134015</v>
       </c>
       <c r="G235" t="n">
-        <v>25529.43019675352</v>
+        <v>3764.214329971335</v>
       </c>
       <c r="H235" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I235" t="n">
-        <v>1821634</v>
+        <v>1857445</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3316573</v>
+        <v>3329508</v>
       </c>
       <c r="E236" t="n">
-        <v>4442759</v>
+        <v>4460086</v>
       </c>
       <c r="F236" t="n">
-        <v>631.0338792544452</v>
+        <v>634.9206532969957</v>
       </c>
       <c r="G236" t="n">
-        <v>178.9871340454658</v>
+        <v>176.1214192958113</v>
       </c>
       <c r="H236" t="n">
-        <v>1.07</v>
+        <v>1.49</v>
       </c>
       <c r="I236" t="n">
-        <v>148401</v>
+        <v>148782</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34046133</v>
+        <v>34034827</v>
       </c>
       <c r="E237" t="n">
-        <v>169905899</v>
+        <v>169849477</v>
       </c>
       <c r="F237" t="n">
-        <v>90180.23422483793</v>
+        <v>77672.35344268873</v>
       </c>
       <c r="G237" t="n">
-        <v>87812.32173121246</v>
+        <v>87805.28391214777</v>
       </c>
       <c r="H237" t="n">
         <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>10012182</v>
+        <v>10018954</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26554324</v>
+        <v>26578083</v>
       </c>
       <c r="E238" t="n">
-        <v>59863167</v>
+        <v>59916728</v>
       </c>
       <c r="F238" t="n">
-        <v>79.03081690553849</v>
+        <v>67.76694702165874</v>
       </c>
       <c r="G238" t="n">
-        <v>107.8210946627956</v>
+        <v>107.6633294960075</v>
       </c>
       <c r="H238" t="n">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
       <c r="I238" t="n">
-        <v>431605</v>
+        <v>429016</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1869285</v>
+        <v>1871910</v>
       </c>
       <c r="E239" t="n">
-        <v>1869285</v>
+        <v>1871910</v>
       </c>
       <c r="F239" t="n">
-        <v>212.2340740021837</v>
+        <v>212.2701135661437</v>
       </c>
       <c r="G239" t="n">
-        <v>110.6694283425786</v>
+        <v>110.6773770520306</v>
       </c>
       <c r="H239" t="n">
         <v>0.05</v>
       </c>
       <c r="I239" t="n">
-        <v>10333.45</v>
+        <v>10328.83</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71723982</v>
+        <v>71763837</v>
       </c>
       <c r="F240" t="n">
-        <v>5.572695997138209</v>
+        <v>5.573055018818406</v>
       </c>
       <c r="G240" t="n">
-        <v>3.525169926346301</v>
+        <v>3.525397035887282</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>67521</v>
+        <v>66263</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>910541</v>
+        <v>908004</v>
       </c>
       <c r="E241" t="n">
-        <v>910541</v>
+        <v>908004</v>
       </c>
       <c r="F241" t="n">
-        <v>5.132457746223536</v>
+        <v>5.555157836580951</v>
       </c>
       <c r="G241" t="n">
-        <v>20.28755043078177</v>
+        <v>20.34761721924252</v>
       </c>
       <c r="H241" t="n">
         <v>0.55</v>
       </c>
       <c r="I241" t="n">
-        <v>16534.58</v>
+        <v>16562.04</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>116424</v>
+        <v>118382</v>
       </c>
       <c r="E242" t="n">
-        <v>116424</v>
+        <v>118382</v>
       </c>
       <c r="F242" t="n">
-        <v>13.87148049286984</v>
+        <v>4.253018073151776</v>
       </c>
       <c r="G242" t="n">
-        <v>521.9999644441436</v>
+        <v>527.5275946253167</v>
       </c>
       <c r="H242" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="I242" t="n">
-        <v>39266</v>
+        <v>40114</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3440376</v>
+        <v>3444845</v>
       </c>
       <c r="E243" t="n">
-        <v>4942426</v>
+        <v>4948847</v>
       </c>
       <c r="F243" t="n">
-        <v>147.4330658009223</v>
+        <v>147.4429223987391</v>
       </c>
       <c r="G243" t="n">
-        <v>279.8170141027387</v>
+        <v>320.3468122771042</v>
       </c>
       <c r="H243" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I243" t="n">
-        <v>173545</v>
+        <v>135942</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>312788069</v>
+        <v>312570442</v>
       </c>
       <c r="E244" t="n">
-        <v>578729258</v>
+        <v>578326598</v>
       </c>
       <c r="F244" t="n">
-        <v>10548.38466303426</v>
+        <v>11373.36868046086</v>
       </c>
       <c r="G244" t="n">
-        <v>10872.74358561799</v>
+        <v>21095.49201096044</v>
       </c>
       <c r="H244" t="n">
         <v>0.09</v>
       </c>
       <c r="I244" t="n">
-        <v>12899326</v>
+        <v>12949752</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>71135787</v>
+        <v>71455049</v>
       </c>
       <c r="E245" t="n">
-        <v>678697623</v>
+        <v>681736033</v>
       </c>
       <c r="F245" t="n">
-        <v>48183.16046934691</v>
+        <v>43561.22525322928</v>
       </c>
       <c r="G245" t="n">
-        <v>66432.29926584203</v>
+        <v>80733.95227388843</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>21260876</v>
+        <v>21184587</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82268</v>
+        <v>82309</v>
       </c>
       <c r="E246" t="n">
-        <v>683915</v>
+        <v>684253</v>
       </c>
       <c r="F246" t="n">
-        <v>51.64296336586473</v>
+        <v>51.78566619636425</v>
       </c>
       <c r="G246" t="n">
-        <v>4.091198303832351</v>
+        <v>3.922463146539492</v>
       </c>
       <c r="H246" t="n">
         <v>0.85</v>
       </c>
       <c r="I246" t="n">
-        <v>175.03</v>
+        <v>175.01</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1907381</v>
+        <v>1920339</v>
       </c>
       <c r="E247" t="n">
-        <v>5447236</v>
+        <v>5484240</v>
       </c>
       <c r="F247" t="n">
-        <v>296.326317305218</v>
+        <v>429.6590207942514</v>
       </c>
       <c r="G247" t="n">
-        <v>256.5345698392879</v>
+        <v>381.5358056924984</v>
       </c>
       <c r="H247" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="I247" t="n">
-        <v>71816</v>
+        <v>71529</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>38028087</v>
+        <v>38065620</v>
       </c>
       <c r="E248" t="n">
-        <v>49721476</v>
+        <v>49770249</v>
       </c>
       <c r="F248" t="n">
-        <v>259.5386962344689</v>
+        <v>302.0020233050524</v>
       </c>
       <c r="G248" t="n">
-        <v>380.1254176720852</v>
+        <v>3712.509661165353</v>
       </c>
       <c r="H248" t="n">
-        <v>2.28</v>
+        <v>1.48</v>
       </c>
       <c r="I248" t="n">
-        <v>563213</v>
+        <v>255667</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9264038</v>
+        <v>9271345</v>
       </c>
       <c r="E249" t="n">
-        <v>27492815</v>
+        <v>27514501</v>
       </c>
       <c r="F249" t="n">
-        <v>1033.535739812375</v>
+        <v>1009.946144458298</v>
       </c>
       <c r="G249" t="n">
-        <v>2560.231828990152</v>
+        <v>2030.052397798762</v>
       </c>
       <c r="H249" t="n">
-        <v>0.37</v>
+        <v>0.82</v>
       </c>
       <c r="I249" t="n">
-        <v>5797946</v>
+        <v>5887208</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2042453</v>
+        <v>2042121</v>
       </c>
       <c r="E250" t="n">
-        <v>5925812</v>
+        <v>5924849</v>
       </c>
       <c r="F250" t="n">
-        <v>102.4489243559359</v>
+        <v>120.6402781670469</v>
       </c>
       <c r="G250" t="n">
-        <v>4.08949154660869</v>
+        <v>3.944612697673787</v>
       </c>
       <c r="H250" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I250" t="n">
-        <v>39687</v>
+        <v>38850</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7333033</v>
+        <v>7310100</v>
       </c>
       <c r="E251" t="n">
-        <v>7333044</v>
+        <v>7310111</v>
       </c>
       <c r="F251" t="n">
-        <v>73.49268460067536</v>
+        <v>1789.944853787117</v>
       </c>
       <c r="G251" t="n">
-        <v>387.9699085522761</v>
+        <v>655.0641451364687</v>
       </c>
       <c r="H251" t="n">
-        <v>0.24</v>
+        <v>1.96</v>
       </c>
       <c r="I251" t="n">
-        <v>347955</v>
+        <v>338025</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6047058</v>
+        <v>6095907</v>
       </c>
       <c r="E252" t="n">
-        <v>6047058</v>
+        <v>6095907</v>
       </c>
       <c r="F252" t="n">
-        <v>509.6489932060953</v>
+        <v>422.7684051363908</v>
       </c>
       <c r="G252" t="n">
-        <v>1446.284872141384</v>
+        <v>1471.573228877427</v>
       </c>
       <c r="H252" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="I252" t="n">
-        <v>498497</v>
+        <v>499467</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6212195</v>
+        <v>6211201</v>
       </c>
       <c r="E253" t="n">
-        <v>22690746</v>
+        <v>22687115</v>
       </c>
       <c r="F253" t="n">
-        <v>1323.223555863329</v>
+        <v>1323.321274585746</v>
       </c>
       <c r="G253" t="n">
-        <v>280.5164671659604</v>
+        <v>251.1508853834239</v>
       </c>
       <c r="H253" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="I253" t="n">
-        <v>532104</v>
+        <v>532926</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2167596</v>
+        <v>2283854</v>
       </c>
       <c r="E254" t="n">
-        <v>19119634</v>
+        <v>20145109</v>
       </c>
       <c r="F254" t="n">
-        <v>62.38457213886866</v>
+        <v>2834.937364400118</v>
       </c>
       <c r="G254" t="n">
-        <v>1408.51928331744</v>
+        <v>4113.322789798885</v>
       </c>
       <c r="H254" t="n">
-        <v>1.1</v>
+        <v>2.52</v>
       </c>
       <c r="I254" t="n">
-        <v>25562</v>
+        <v>72216</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14707896</v>
+        <v>14605481</v>
       </c>
       <c r="E255" t="n">
-        <v>29775238</v>
+        <v>29567905</v>
       </c>
       <c r="F255" t="n">
-        <v>65.89543613381024</v>
+        <v>96.27343383112368</v>
       </c>
       <c r="G255" t="n">
-        <v>156.7755218616438</v>
+        <v>303.4392788842221</v>
       </c>
       <c r="H255" t="n">
-        <v>2.09</v>
+        <v>0.71</v>
       </c>
       <c r="I255" t="n">
-        <v>464261</v>
+        <v>461686</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44855447</v>
+        <v>44890327</v>
       </c>
       <c r="E256" t="n">
-        <v>44855447</v>
+        <v>44890327</v>
       </c>
       <c r="F256" t="n">
-        <v>5657.352257136792</v>
+        <v>4289.328169186703</v>
       </c>
       <c r="G256" t="n">
-        <v>4569.558088157476</v>
+        <v>3716.661426086845</v>
       </c>
       <c r="H256" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="I256" t="n">
-        <v>7997539</v>
+        <v>8927178</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8693045</v>
+        <v>8908933</v>
       </c>
       <c r="E257" t="n">
-        <v>12385597</v>
+        <v>12693188</v>
       </c>
       <c r="F257" t="n">
-        <v>37.56360719956177</v>
+        <v>39.64608676396605</v>
       </c>
       <c r="G257" t="n">
-        <v>625.649285959705</v>
+        <v>39.50426047909252</v>
       </c>
       <c r="H257" t="n">
         <v>0.16</v>
       </c>
       <c r="I257" t="n">
-        <v>417529</v>
+        <v>427425</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>146030630</v>
+        <v>148547524</v>
       </c>
       <c r="F258" t="n">
-        <v>671.9127793579842</v>
+        <v>61.53775799031796</v>
       </c>
       <c r="G258" t="n">
-        <v>47.12405266758203</v>
+        <v>116.363681949627</v>
       </c>
       <c r="H258" t="n">
-        <v>1.17</v>
+        <v>2.26</v>
       </c>
       <c r="I258" t="n">
-        <v>1575444</v>
+        <v>1601075</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16509965</v>
+        <v>16100853</v>
       </c>
       <c r="F259" t="n">
-        <v>116.698398896826</v>
+        <v>118.1265381870317</v>
       </c>
       <c r="G259" t="n">
-        <v>114.2791067783495</v>
+        <v>161.0420970276454</v>
       </c>
       <c r="H259" t="n">
-        <v>0.9</v>
+        <v>0.16</v>
       </c>
       <c r="I259" t="n">
-        <v>965299</v>
+        <v>957193</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>716740</v>
+        <v>716311</v>
       </c>
       <c r="F260" t="n">
-        <v>40.12776405272042</v>
+        <v>40.13019978295644</v>
       </c>
       <c r="G260" t="n">
-        <v>28.01638574258</v>
+        <v>28.01808631971078</v>
       </c>
       <c r="H260" t="n">
         <v>2.13</v>
       </c>
       <c r="I260" t="n">
-        <v>220563</v>
+        <v>219203</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3037483</v>
+        <v>3075961</v>
       </c>
       <c r="F261" t="n">
-        <v>34.648654135692</v>
+        <v>41.93525716602286</v>
       </c>
       <c r="G261" t="n">
-        <v>65.07920098564186</v>
+        <v>38.88964911287164</v>
       </c>
       <c r="H261" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="I261" t="n">
-        <v>72325</v>
+        <v>74067</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2778369</v>
+        <v>2799984</v>
       </c>
       <c r="E262" t="n">
-        <v>2780775</v>
+        <v>2802409</v>
       </c>
       <c r="F262" t="n">
-        <v>29.22055044232615</v>
+        <v>5.445753710531934</v>
       </c>
       <c r="G262" t="n">
-        <v>25.30143529687774</v>
+        <v>687.5068902433453</v>
       </c>
       <c r="H262" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I262" t="n">
-        <v>91953</v>
+        <v>80822</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>61683470</v>
+        <v>61760137</v>
       </c>
       <c r="E263" t="n">
-        <v>102049100</v>
+        <v>102175939</v>
       </c>
       <c r="F263" t="n">
-        <v>9151.096377254089</v>
+        <v>7705.230064896392</v>
       </c>
       <c r="G263" t="n">
-        <v>8307.988746619776</v>
+        <v>8639.623141099308</v>
       </c>
       <c r="H263" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I263" t="n">
-        <v>6190772</v>
+        <v>6262803</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>697707</v>
+        <v>696301</v>
       </c>
       <c r="F264" t="n">
-        <v>3271.339302155694</v>
+        <v>3254.648547167341</v>
       </c>
       <c r="G264" t="n">
-        <v>370.3751292679327</v>
+        <v>370.3999806355671</v>
       </c>
       <c r="H264" t="n">
         <v>0.89</v>
       </c>
       <c r="I264" t="n">
-        <v>636051</v>
+        <v>669523</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1252997</v>
+        <v>1251473</v>
       </c>
       <c r="E265" t="n">
-        <v>3790666</v>
+        <v>3786773</v>
       </c>
       <c r="F265" t="n">
-        <v>154.8897258480004</v>
+        <v>37.03973506891742</v>
       </c>
       <c r="G265" t="n">
-        <v>934.6300796708965</v>
+        <v>964.221065598857</v>
       </c>
       <c r="H265" t="n">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>11375.86</v>
+        <v>11615.13</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38103680</v>
+        <v>38127352</v>
       </c>
       <c r="E266" t="n">
-        <v>270148878</v>
+        <v>270316704</v>
       </c>
       <c r="F266" t="n">
-        <v>73187.5282958079</v>
+        <v>70931.41604838631</v>
       </c>
       <c r="G266" t="n">
-        <v>31958.87851020971</v>
+        <v>40240.20779593995</v>
       </c>
       <c r="H266" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I266" t="n">
-        <v>1696032</v>
+        <v>1662780</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>64193</v>
+        <v>62317</v>
       </c>
       <c r="E267" t="n">
-        <v>334933</v>
+        <v>325144</v>
       </c>
       <c r="F267" t="n">
-        <v>22.21123167561998</v>
+        <v>21.35454742935728</v>
       </c>
       <c r="G267" t="n">
-        <v>34.57437515002338</v>
+        <v>22.07301125981651</v>
       </c>
       <c r="H267" t="n">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="I267" t="n">
-        <v>318575</v>
+        <v>294644</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1261429</v>
+        <v>1262622</v>
       </c>
       <c r="E268" t="n">
-        <v>7822815</v>
+        <v>7830139</v>
       </c>
       <c r="F268" t="n">
-        <v>2054.509087525181</v>
+        <v>2050.76332781682</v>
       </c>
       <c r="G268" t="n">
-        <v>3005.080024187817</v>
+        <v>3533.947207289394</v>
       </c>
       <c r="H268" t="n">
         <v>0.24</v>
       </c>
       <c r="I268" t="n">
-        <v>742283</v>
+        <v>732402</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>602707899</v>
+        <v>600960502</v>
       </c>
       <c r="E269" t="n">
-        <v>2334198771</v>
+        <v>2327431359</v>
       </c>
       <c r="F269" t="n">
-        <v>181051.2457177599</v>
+        <v>180597.91328379</v>
       </c>
       <c r="G269" t="n">
-        <v>202581.5269147776</v>
+        <v>247607.3375566466</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>32136377</v>
+        <v>33072758</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3263433</v>
+        <v>3280036</v>
       </c>
       <c r="F270" t="n">
-        <v>175.8119241610824</v>
+        <v>406.0898166766175</v>
       </c>
       <c r="G270" t="n">
-        <v>196.4585130908493</v>
+        <v>155.0580602238639</v>
       </c>
       <c r="H270" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I270" t="n">
-        <v>30674</v>
+        <v>30976</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>912426</v>
+        <v>902660</v>
       </c>
       <c r="F271" t="n">
-        <v>106.7472535314188</v>
+        <v>52.41993639746958</v>
       </c>
       <c r="G271" t="n">
-        <v>100.3674954612604</v>
+        <v>59.51401761354312</v>
       </c>
       <c r="H271" t="n">
-        <v>2.8</v>
+        <v>3.91</v>
       </c>
       <c r="I271" t="n">
-        <v>380135</v>
+        <v>376353</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5848393</v>
+        <v>5849737</v>
       </c>
       <c r="E272" t="n">
-        <v>26183985</v>
+        <v>26190003</v>
       </c>
       <c r="F272" t="n">
-        <v>139.9025016744341</v>
+        <v>139.9894543868187</v>
       </c>
       <c r="G272" t="n">
-        <v>176.8702746880438</v>
+        <v>137.3202058965708</v>
       </c>
       <c r="H272" t="n">
         <v>0.15</v>
       </c>
       <c r="I272" t="n">
-        <v>143677</v>
+        <v>143196</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6230661</v>
+        <v>6360354</v>
       </c>
       <c r="E273" t="n">
-        <v>11929106</v>
+        <v>12177413</v>
       </c>
       <c r="F273" t="n">
-        <v>11.62467428741457</v>
+        <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>70.17607531013975</v>
+        <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>1.84</v>
+        <v>4.14</v>
       </c>
       <c r="I273" t="n">
-        <v>192918</v>
+        <v>192330</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3199695</v>
+        <v>3188051</v>
       </c>
       <c r="E274" t="n">
-        <v>21040452</v>
+        <v>20963883</v>
       </c>
       <c r="F274" t="n">
-        <v>491.0583502125984</v>
+        <v>304.0296039364279</v>
       </c>
       <c r="G274" t="n">
-        <v>753.9172640380591</v>
+        <v>678.0158011791136</v>
       </c>
       <c r="H274" t="n">
-        <v>0.67</v>
+        <v>1.4</v>
       </c>
       <c r="I274" t="n">
-        <v>1427264</v>
+        <v>1445841</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3676078</v>
+        <v>3677041</v>
       </c>
       <c r="E275" t="n">
-        <v>6266374</v>
+        <v>6268015</v>
       </c>
       <c r="F275" t="n">
-        <v>98.99255140952698</v>
+        <v>669.9309833787744</v>
       </c>
       <c r="G275" t="n">
-        <v>20.99849987569373</v>
+        <v>521.2559089792197</v>
       </c>
       <c r="H275" t="n">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
       <c r="I275" t="n">
-        <v>1232313</v>
+        <v>1254853</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>432981</v>
+        <v>433850</v>
       </c>
       <c r="E276" t="n">
-        <v>432981</v>
+        <v>433850</v>
       </c>
       <c r="F276" t="n">
-        <v>3.988324361045973</v>
+        <v>3.988593364109038</v>
       </c>
       <c r="G276" t="n">
-        <v>6.479420536835868</v>
+        <v>6.479857558455355</v>
       </c>
       <c r="H276" t="n">
         <v>0.2</v>
       </c>
       <c r="I276" t="n">
-        <v>465.23</v>
+        <v>441.32</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7354080</v>
+        <v>7349054</v>
       </c>
       <c r="E277" t="n">
-        <v>10537829</v>
+        <v>10530093</v>
       </c>
       <c r="F277" t="n">
-        <v>1601.272258433663</v>
+        <v>1728.435240064968</v>
       </c>
       <c r="G277" t="n">
-        <v>234.4039508236289</v>
+        <v>413.8753291431867</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>175411</v>
+        <v>177469</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>117759007</v>
+        <v>118034012</v>
       </c>
       <c r="E278" t="n">
-        <v>1023842192</v>
+        <v>1026233193</v>
       </c>
       <c r="F278" t="n">
-        <v>9569.943982686629</v>
+        <v>11288.35815029702</v>
       </c>
       <c r="G278" t="n">
-        <v>10464.93547663956</v>
+        <v>12257.09101447696</v>
       </c>
       <c r="H278" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I278" t="n">
-        <v>9092777</v>
+        <v>8848117</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>102398268</v>
+        <v>102159087</v>
       </c>
       <c r="E279" t="n">
-        <v>156210959</v>
+        <v>155846082</v>
       </c>
       <c r="F279" t="n">
-        <v>43734.10081174963</v>
+        <v>47382.20162998809</v>
       </c>
       <c r="G279" t="n">
-        <v>49150.33210266217</v>
+        <v>49644.48451647515</v>
       </c>
       <c r="H279" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="I279" t="n">
-        <v>7763871</v>
+        <v>7785772</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15809704</v>
+        <v>15790682</v>
       </c>
       <c r="E280" t="n">
-        <v>21689545</v>
+        <v>21663447</v>
       </c>
       <c r="F280" t="n">
-        <v>6606.903275213028</v>
+        <v>2082.37681096354</v>
       </c>
       <c r="G280" t="n">
-        <v>1785.883064041846</v>
+        <v>2663.437786996765</v>
       </c>
       <c r="H280" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I280" t="n">
-        <v>354307</v>
+        <v>346217</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5649546</v>
+        <v>5656549</v>
       </c>
       <c r="E281" t="n">
-        <v>5649546</v>
+        <v>5656549</v>
       </c>
       <c r="F281" t="n">
-        <v>618.388223703676</v>
+        <v>57.43661176389578</v>
       </c>
       <c r="G281" t="n">
-        <v>5.540883636458357</v>
+        <v>5.541216657329961</v>
       </c>
       <c r="H281" t="n">
         <v>0.86</v>
       </c>
       <c r="I281" t="n">
-        <v>757700</v>
+        <v>769251</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>114093632</v>
+        <v>114564746</v>
       </c>
       <c r="E282" t="n">
-        <v>437681536</v>
+        <v>439488806</v>
       </c>
       <c r="F282" t="n">
-        <v>42261.21235734763</v>
+        <v>39745.12645296451</v>
       </c>
       <c r="G282" t="n">
-        <v>64396.91181601925</v>
+        <v>73921.29460912755</v>
       </c>
       <c r="H282" t="n">
         <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>21192128</v>
+        <v>22497113</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>764162</v>
+        <v>663766</v>
       </c>
       <c r="F283" t="n">
-        <v>5.292206737493193</v>
+        <v>5.292563635908875</v>
       </c>
       <c r="G283" t="n">
-        <v>4.062610387375821</v>
+        <v>4.062884363673934</v>
       </c>
       <c r="H283" t="n">
         <v>0.25</v>
       </c>
       <c r="I283" t="n">
-        <v>51319</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3186838</v>
+        <v>3188256</v>
       </c>
       <c r="E284" t="n">
-        <v>30195764</v>
+        <v>30209196</v>
       </c>
       <c r="F284" t="n">
-        <v>1011.087757723762</v>
+        <v>1154.923740472214</v>
       </c>
       <c r="G284" t="n">
-        <v>952.466001259355</v>
+        <v>980.9187248211582</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>297703</v>
+        <v>263597</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>87468</v>
+        <v>86295</v>
       </c>
       <c r="F285" t="n">
-        <v>697.8473945722183</v>
+        <v>3.561613230730239</v>
       </c>
       <c r="G285" t="n">
-        <v>65.31671781445264</v>
+        <v>24.25968578239765</v>
       </c>
       <c r="H285" t="n">
-        <v>0.11</v>
+        <v>3.05</v>
       </c>
       <c r="I285" t="n">
-        <v>4193.31</v>
+        <v>4385.63</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>136881</v>
+        <v>136245</v>
       </c>
       <c r="F286" t="n">
-        <v>4.00981745800196</v>
+        <v>5.317504847863766</v>
       </c>
       <c r="G286" t="n">
-        <v>5.332569605801866</v>
+        <v>408.7778963174791</v>
       </c>
       <c r="H286" t="n">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="I286" t="n">
-        <v>91000</v>
+        <v>93402</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21836481</v>
+        <v>21750196</v>
       </c>
       <c r="E287" t="n">
-        <v>21836481</v>
+        <v>21750196</v>
       </c>
       <c r="F287" t="n">
-        <v>640.0920104387072</v>
+        <v>1537.596201555857</v>
       </c>
       <c r="G287" t="n">
-        <v>8858.416377178424</v>
+        <v>678.0052260231513</v>
       </c>
       <c r="H287" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I287" t="n">
-        <v>574381</v>
+        <v>580756</v>
       </c>
     </row>
     <row r="288">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5936299</v>
+        <v>5931704</v>
       </c>
       <c r="E289" t="n">
-        <v>37100172</v>
+        <v>37071451</v>
       </c>
       <c r="F289" t="n">
-        <v>6799.241756215672</v>
+        <v>6910.239822658165</v>
       </c>
       <c r="G289" t="n">
-        <v>260.6251894419919</v>
+        <v>232.0930695342248</v>
       </c>
       <c r="H289" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I289" t="n">
-        <v>385059</v>
+        <v>386616</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494033293</v>
+        <v>493967818</v>
       </c>
       <c r="E290" t="n">
-        <v>494033293</v>
+        <v>493967818</v>
       </c>
       <c r="F290" t="n">
-        <v>1154906.882555498</v>
+        <v>1162127.939279226</v>
       </c>
       <c r="G290" t="n">
-        <v>1354200.628133615</v>
+        <v>1358747.434519508</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32908138</v>
+        <v>32688371</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5006166</v>
+        <v>5091589</v>
       </c>
       <c r="E291" t="n">
-        <v>18641938</v>
+        <v>18960034</v>
       </c>
       <c r="F291" t="n">
-        <v>7146.043279736416</v>
+        <v>7146.455290395469</v>
       </c>
       <c r="G291" t="n">
-        <v>6899.59439402299</v>
+        <v>6928.465436019133</v>
       </c>
       <c r="H291" t="n">
         <v>0.37</v>
       </c>
       <c r="I291" t="n">
-        <v>108318</v>
+        <v>59901</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31464504</v>
+        <v>31190998</v>
       </c>
       <c r="F292" t="n">
-        <v>8169.655002427019</v>
+        <v>7478.78177371616</v>
       </c>
       <c r="G292" t="n">
-        <v>10056.9756191963</v>
+        <v>10380.40574184983</v>
       </c>
       <c r="H292" t="n">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
       <c r="I292" t="n">
-        <v>5575360</v>
+        <v>5285669</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31477178</v>
+        <v>31509355</v>
       </c>
       <c r="E293" t="n">
-        <v>112825544</v>
+        <v>112940878</v>
       </c>
       <c r="F293" t="n">
-        <v>22.60309612885174</v>
+        <v>22.60445466024034</v>
       </c>
       <c r="G293" t="n">
-        <v>4824.415966240213</v>
+        <v>4821.87886820693</v>
       </c>
       <c r="H293" t="n">
         <v>0.7</v>
       </c>
       <c r="I293" t="n">
-        <v>96685</v>
+        <v>97869</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>768250</v>
+        <v>764582</v>
       </c>
       <c r="E294" t="n">
-        <v>12253313</v>
+        <v>12194811</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86394271791539</v>
+        <v>12.86486792889691</v>
       </c>
       <c r="G294" t="n">
-        <v>10.99498594533585</v>
+        <v>10.99577673568382</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>66641</v>
+        <v>66028</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85231</v>
+        <v>85456</v>
       </c>
       <c r="F295" t="n">
-        <v>88.73865392718677</v>
+        <v>88.74406524689108</v>
       </c>
       <c r="G295" t="n">
-        <v>57.62171596559456</v>
+        <v>57.62522976159215</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>57791</v>
+        <v>58239</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1544292</v>
+        <v>1542475</v>
       </c>
       <c r="F296" t="n">
-        <v>4.050095579550621</v>
+        <v>4.270351761607321</v>
       </c>
       <c r="G296" t="n">
-        <v>5.424247297436705</v>
+        <v>4.162394054617284</v>
       </c>
       <c r="H296" t="n">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
       <c r="I296" t="n">
-        <v>615886</v>
+        <v>615945</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2652720959</v>
+        <v>2656702064</v>
       </c>
       <c r="E297" t="n">
-        <v>2816499412</v>
+        <v>2820726310</v>
       </c>
       <c r="F297" t="n">
-        <v>39106.88844916151</v>
+        <v>58121.83656150671</v>
       </c>
       <c r="G297" t="n">
-        <v>71606.08323698665</v>
+        <v>61526.4489241339</v>
       </c>
       <c r="H297" t="n">
         <v>0.15</v>
       </c>
       <c r="I297" t="n">
-        <v>39425427</v>
+        <v>39778009</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2177655</v>
+        <v>2188488</v>
       </c>
       <c r="E298" t="n">
-        <v>16749907</v>
+        <v>16833230</v>
       </c>
       <c r="F298" t="n">
-        <v>4086.969493039864</v>
+        <v>4088.95926829362</v>
       </c>
       <c r="G298" t="n">
-        <v>4057.757869278553</v>
+        <v>4074.426211611354</v>
       </c>
       <c r="H298" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="I298" t="n">
-        <v>176687</v>
+        <v>176372</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1642829</v>
+        <v>1650065</v>
       </c>
       <c r="E299" t="n">
-        <v>1648628</v>
+        <v>1655890</v>
       </c>
       <c r="F299" t="n">
-        <v>855.5393567173862</v>
+        <v>840.2144403420151</v>
       </c>
       <c r="G299" t="n">
-        <v>1162.266678785418</v>
+        <v>1031.08412865536</v>
       </c>
       <c r="H299" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I299" t="n">
-        <v>392426</v>
+        <v>394294</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87357948</v>
+        <v>86890619</v>
       </c>
       <c r="E300" t="n">
-        <v>322937253</v>
+        <v>321208432</v>
       </c>
       <c r="F300" t="n">
-        <v>6511.732180318195</v>
+        <v>5739.46151272209</v>
       </c>
       <c r="G300" t="n">
-        <v>796.1457472273343</v>
+        <v>7710.94838082058</v>
       </c>
       <c r="H300" t="n">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="I300" t="n">
-        <v>343174</v>
+        <v>351940</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2459639</v>
+        <v>2458535</v>
       </c>
       <c r="E301" t="n">
-        <v>9869385</v>
+        <v>9864952</v>
       </c>
       <c r="F301" t="n">
-        <v>4.167567874037585</v>
+        <v>4.167858001080452</v>
       </c>
       <c r="G301" t="n">
-        <v>7.439942246709303</v>
+        <v>648.5848167048777</v>
       </c>
       <c r="H301" t="n">
         <v>0.93</v>
       </c>
       <c r="I301" t="n">
-        <v>45257</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61520483</v>
+        <v>61967504</v>
       </c>
       <c r="E302" t="n">
-        <v>150905575</v>
+        <v>152002087</v>
       </c>
       <c r="F302" t="n">
-        <v>2199.011215849338</v>
+        <v>601.5202487295434</v>
       </c>
       <c r="G302" t="n">
-        <v>2557.535247271036</v>
+        <v>3693.058244717261</v>
       </c>
       <c r="H302" t="n">
-        <v>0.67</v>
+        <v>1.1</v>
       </c>
       <c r="I302" t="n">
-        <v>22648821</v>
+        <v>22688689</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>738698096</v>
+        <v>734816308</v>
       </c>
       <c r="E303" t="n">
-        <v>1139137684</v>
+        <v>1133151625</v>
       </c>
       <c r="F303" t="n">
-        <v>29224.515330069</v>
+        <v>41765.92034561777</v>
       </c>
       <c r="G303" t="n">
-        <v>62655.27815913834</v>
+        <v>52943.16932461045</v>
       </c>
       <c r="H303" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I303" t="n">
-        <v>214499498</v>
+        <v>214369408</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20655602</v>
+        <v>20669989</v>
       </c>
       <c r="E304" t="n">
-        <v>20655602</v>
+        <v>20669989</v>
       </c>
       <c r="F304" t="n">
-        <v>4793.52971137683</v>
+        <v>3134.016782464125</v>
       </c>
       <c r="G304" t="n">
-        <v>3560.386069135777</v>
+        <v>3221.791398627146</v>
       </c>
       <c r="H304" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="I304" t="n">
-        <v>7122800</v>
+        <v>7129302</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1703526</v>
+        <v>1706881</v>
       </c>
       <c r="E305" t="n">
-        <v>2795197</v>
+        <v>2800702</v>
       </c>
       <c r="F305" t="n">
-        <v>205.272252495433</v>
+        <v>264.6005652275016</v>
       </c>
       <c r="G305" t="n">
-        <v>113.0787861131707</v>
+        <v>696.7166543362744</v>
       </c>
       <c r="H305" t="n">
-        <v>0.82</v>
+        <v>0.25</v>
       </c>
       <c r="I305" t="n">
-        <v>155597</v>
+        <v>164594</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5664770</v>
+        <v>5667307</v>
       </c>
       <c r="E306" t="n">
-        <v>5664770</v>
+        <v>5667307</v>
       </c>
       <c r="F306" t="n">
-        <v>41.518782968366</v>
+        <v>41.46977285882222</v>
       </c>
       <c r="G306" t="n">
-        <v>5.43821884359871</v>
+        <v>5.438610626414898</v>
       </c>
       <c r="H306" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>517.36</v>
+        <v>527.5599999999999</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39999030</v>
+        <v>39938226</v>
       </c>
       <c r="E307" t="n">
-        <v>190922041</v>
+        <v>190631805</v>
       </c>
       <c r="F307" t="n">
-        <v>321.1529197442836</v>
+        <v>340.3944856318754</v>
       </c>
       <c r="G307" t="n">
-        <v>335.2708325462841</v>
+        <v>284.9425781915383</v>
       </c>
       <c r="H307" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="I307" t="n">
-        <v>420732</v>
+        <v>417906</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>383368</v>
+        <v>389443</v>
       </c>
       <c r="E308" t="n">
-        <v>717006</v>
+        <v>728369</v>
       </c>
       <c r="F308" t="n">
-        <v>673.6176482885044</v>
+        <v>697.9115348141142</v>
       </c>
       <c r="G308" t="n">
-        <v>238.4089487176389</v>
+        <v>113.9781913893621</v>
       </c>
       <c r="H308" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="I308" t="n">
-        <v>1240.68</v>
+        <v>1394.37</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23423090</v>
+        <v>24110186</v>
       </c>
       <c r="E309" t="n">
-        <v>39038483</v>
+        <v>40183643</v>
       </c>
       <c r="F309" t="n">
-        <v>6388.504361291456</v>
+        <v>2160.440629964547</v>
       </c>
       <c r="G309" t="n">
-        <v>4301.922936685503</v>
+        <v>4648.474183604224</v>
       </c>
       <c r="H309" t="n">
         <v>0.25</v>
       </c>
       <c r="I309" t="n">
-        <v>618361</v>
+        <v>654094</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107764</v>
+        <v>107535</v>
       </c>
       <c r="F310" t="n">
-        <v>5.147904586489449</v>
+        <v>16.1964274284231</v>
       </c>
       <c r="G310" t="n">
-        <v>11.28417209693149</v>
+        <v>4.048354511827696</v>
       </c>
       <c r="H310" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="I310" t="n">
-        <v>48541</v>
+        <v>48357</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23147899</v>
+        <v>23090036</v>
       </c>
       <c r="E311" t="n">
-        <v>23147899</v>
+        <v>23090036</v>
       </c>
       <c r="F311" t="n">
-        <v>5186.415695100486</v>
+        <v>6309.756928839801</v>
       </c>
       <c r="G311" t="n">
-        <v>5710.184448531808</v>
+        <v>7615.591514871683</v>
       </c>
       <c r="H311" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="I311" t="n">
-        <v>6444640</v>
+        <v>6291357</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3818625</v>
+        <v>3811947</v>
       </c>
       <c r="E312" t="n">
-        <v>8332191</v>
+        <v>8317620</v>
       </c>
       <c r="F312" t="n">
-        <v>1832.575717219165</v>
+        <v>1832.798236963825</v>
       </c>
       <c r="G312" t="n">
-        <v>1820.998642562876</v>
+        <v>1821.219756566059</v>
       </c>
       <c r="H312" t="n">
         <v>0.48</v>
       </c>
       <c r="I312" t="n">
-        <v>858831</v>
+        <v>882771</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9357097</v>
+        <v>9353438</v>
       </c>
       <c r="E313" t="n">
-        <v>9357097</v>
+        <v>9353438</v>
       </c>
       <c r="F313" t="n">
-        <v>14956.12127299575</v>
+        <v>14850.78674497081</v>
       </c>
       <c r="G313" t="n">
-        <v>113719.3036361193</v>
+        <v>113895.7880227925</v>
       </c>
       <c r="H313" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>3157012</v>
+        <v>3134536</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>491973421</v>
+        <v>491290523</v>
       </c>
       <c r="E314" t="n">
-        <v>1713387361</v>
+        <v>1711009045</v>
       </c>
       <c r="F314" t="n">
-        <v>406347.8727751651</v>
+        <v>475134.4405796183</v>
       </c>
       <c r="G314" t="n">
-        <v>301328.5889359895</v>
+        <v>459423.4845576206</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>31137754</v>
+        <v>30946680</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24051852</v>
+        <v>24044866</v>
       </c>
       <c r="E315" t="n">
-        <v>24030960</v>
+        <v>24023980</v>
       </c>
       <c r="F315" t="n">
-        <v>174.7918366795003</v>
+        <v>151.5237522755166</v>
       </c>
       <c r="G315" t="n">
-        <v>635.2466075291644</v>
+        <v>763.6354474782877</v>
       </c>
       <c r="H315" t="n">
-        <v>0.77</v>
+        <v>0.28</v>
       </c>
       <c r="I315" t="n">
-        <v>92156</v>
+        <v>67841</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>47990161</v>
+        <v>48116786</v>
       </c>
       <c r="E316" t="n">
-        <v>118440144</v>
+        <v>118752663</v>
       </c>
       <c r="F316" t="n">
-        <v>953.4106495326643</v>
+        <v>937.9112494485742</v>
       </c>
       <c r="G316" t="n">
-        <v>1698.063582067235</v>
+        <v>1234.453701254206</v>
       </c>
       <c r="H316" t="n">
         <v>0.34</v>
       </c>
       <c r="I316" t="n">
-        <v>37240</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12048727</v>
+        <v>12049899</v>
       </c>
       <c r="E317" t="n">
-        <v>24397936</v>
+        <v>24397290</v>
       </c>
       <c r="F317" t="n">
-        <v>247.9207007176891</v>
+        <v>552.0664579078928</v>
       </c>
       <c r="G317" t="n">
-        <v>1391.672310035462</v>
+        <v>3791.769067863028</v>
       </c>
       <c r="H317" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="I317" t="n">
-        <v>16560.33</v>
+        <v>28731</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7680704</v>
+        <v>7648093</v>
       </c>
       <c r="E318" t="n">
-        <v>19953644</v>
+        <v>19868924</v>
       </c>
       <c r="F318" t="n">
-        <v>193.1514106901826</v>
+        <v>273.7618941381961</v>
       </c>
       <c r="G318" t="n">
-        <v>849.4869849269337</v>
+        <v>539.1544477547189</v>
       </c>
       <c r="H318" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I318" t="n">
-        <v>683282</v>
+        <v>688428</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>149748</v>
+        <v>148820</v>
       </c>
       <c r="F319" t="n">
-        <v>231.3594446104274</v>
+        <v>12.34151921065629</v>
       </c>
       <c r="G319" t="n">
-        <v>250.2130676171143</v>
+        <v>241.0343144277629</v>
       </c>
       <c r="H319" t="n">
-        <v>0.38</v>
+        <v>1.13</v>
       </c>
       <c r="I319" t="n">
-        <v>56202</v>
+        <v>56574</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19262121954</v>
+        <v>19184940174</v>
       </c>
       <c r="F320" t="n">
-        <v>52038.33152015413</v>
+        <v>51936.81539116281</v>
       </c>
       <c r="G320" t="n">
-        <v>49777.14952877069</v>
+        <v>49778.84927340908</v>
       </c>
       <c r="H320" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I320" t="n">
-        <v>48928164</v>
+        <v>2804495</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>100416055</v>
+        <v>100930430</v>
       </c>
       <c r="E321" t="n">
-        <v>152141925</v>
+        <v>152921263</v>
       </c>
       <c r="F321" t="n">
-        <v>18514.86626938722</v>
+        <v>17703.67275118831</v>
       </c>
       <c r="G321" t="n">
-        <v>19793.03939233655</v>
+        <v>74954.25455954394</v>
       </c>
       <c r="H321" t="n">
-        <v>1.02</v>
+        <v>0.89</v>
       </c>
       <c r="I321" t="n">
-        <v>7225843</v>
+        <v>7283997</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2647106</v>
+        <v>2658520</v>
       </c>
       <c r="E322" t="n">
-        <v>10588426</v>
+        <v>10634082</v>
       </c>
       <c r="F322" t="n">
-        <v>28663.20383634491</v>
+        <v>13882.06575893898</v>
       </c>
       <c r="G322" t="n">
-        <v>16595.81497975096</v>
+        <v>22159.9983748483</v>
       </c>
       <c r="H322" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="I322" t="n">
-        <v>5352632</v>
+        <v>5639610</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>216194129</v>
+        <v>216966903</v>
       </c>
       <c r="E323" t="n">
-        <v>664715588</v>
+        <v>667091577</v>
       </c>
       <c r="F323" t="n">
-        <v>92120.08417902958</v>
+        <v>94466.66678232217</v>
       </c>
       <c r="G323" t="n">
-        <v>207834.6371246084</v>
+        <v>161074.4187089854</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>11562323</v>
+        <v>11603481</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>149512807</v>
+        <v>147964583</v>
       </c>
       <c r="E324" t="n">
-        <v>390598061</v>
+        <v>386553369</v>
       </c>
       <c r="F324" t="n">
-        <v>15717.09802052715</v>
+        <v>11084.23881839505</v>
       </c>
       <c r="G324" t="n">
-        <v>5077.670267974871</v>
+        <v>8446.076156109099</v>
       </c>
       <c r="H324" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I324" t="n">
-        <v>6420817</v>
+        <v>6582454</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2432429</v>
+        <v>2428891</v>
       </c>
       <c r="E325" t="n">
-        <v>3338105</v>
+        <v>3333237</v>
       </c>
       <c r="F325" t="n">
-        <v>254.3416234278419</v>
+        <v>12.18250876193411</v>
       </c>
       <c r="G325" t="n">
-        <v>5326.446302204865</v>
+        <v>4625.512943173074</v>
       </c>
       <c r="H325" t="n">
-        <v>0.63</v>
+        <v>1.46</v>
       </c>
       <c r="I325" t="n">
-        <v>446737</v>
+        <v>1060829</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>401950241</v>
+        <v>402616889</v>
       </c>
       <c r="E326" t="n">
-        <v>2296858518</v>
+        <v>2300667936</v>
       </c>
       <c r="F326" t="n">
-        <v>268432.9823140326</v>
+        <v>346976.1656126024</v>
       </c>
       <c r="G326" t="n">
-        <v>524798.383617539</v>
+        <v>526378.4279669294</v>
       </c>
       <c r="H326" t="n">
         <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>37007633</v>
+        <v>36982010</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250220.xlsx
+++ b/MexcData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93402</v>
+        <v>90127</v>
       </c>
       <c r="F2" t="n">
-        <v>5.532250425135823</v>
+        <v>5.532654851832498</v>
       </c>
       <c r="G2" t="n">
-        <v>29.11020686264787</v>
+        <v>29.11233491974873</v>
       </c>
       <c r="H2" t="n">
         <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>1188.46</v>
+        <v>1332.08</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>615410697</v>
+        <v>607867355</v>
       </c>
       <c r="E3" t="n">
-        <v>1194148666</v>
+        <v>1179519794</v>
       </c>
       <c r="F3" t="n">
-        <v>15033.29299471031</v>
+        <v>17970.00806096808</v>
       </c>
       <c r="G3" t="n">
-        <v>29517.14171956982</v>
+        <v>34095.43320093797</v>
       </c>
       <c r="H3" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="I3" t="n">
-        <v>23321472</v>
+        <v>23216342</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246566552</v>
+        <v>245858863</v>
       </c>
       <c r="E4" t="n">
-        <v>1546184187</v>
+        <v>1541746371</v>
       </c>
       <c r="F4" t="n">
-        <v>73513.73834811203</v>
+        <v>62498.01687811976</v>
       </c>
       <c r="G4" t="n">
-        <v>127577.5558121016</v>
+        <v>103537.1240194035</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>15432255</v>
+        <v>15534566</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140940761</v>
+        <v>139490303</v>
       </c>
       <c r="E5" t="n">
-        <v>156184808</v>
+        <v>154577055</v>
       </c>
       <c r="F5" t="n">
-        <v>134905.0377265709</v>
+        <v>146560.061200793</v>
       </c>
       <c r="G5" t="n">
-        <v>213058.0738140615</v>
+        <v>185584.5655875033</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>33956745</v>
+        <v>23109398</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49805854</v>
+        <v>49631568</v>
       </c>
       <c r="E6" t="n">
-        <v>62305846</v>
+        <v>62087819</v>
       </c>
       <c r="F6" t="n">
-        <v>8616.183735481494</v>
+        <v>10607.02314721281</v>
       </c>
       <c r="G6" t="n">
-        <v>13178.71658999332</v>
+        <v>7797.946381427957</v>
       </c>
       <c r="H6" t="n">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="I6" t="n">
-        <v>509959</v>
+        <v>432879</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8900380</v>
+        <v>8930880</v>
       </c>
       <c r="E7" t="n">
-        <v>9124815</v>
+        <v>9156084</v>
       </c>
       <c r="F7" t="n">
-        <v>830.9276432608241</v>
+        <v>578.9369475577232</v>
       </c>
       <c r="G7" t="n">
-        <v>701.9822169716221</v>
+        <v>490.2805598679883</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="I7" t="n">
-        <v>47303</v>
+        <v>47368</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69160803</v>
+        <v>69673008</v>
       </c>
       <c r="E8" t="n">
-        <v>137768122</v>
+        <v>138788433</v>
       </c>
       <c r="F8" t="n">
-        <v>49024.47926425857</v>
+        <v>53580.24254349888</v>
       </c>
       <c r="G8" t="n">
-        <v>27222.75465768148</v>
+        <v>40866.94106788908</v>
       </c>
       <c r="H8" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I8" t="n">
-        <v>1413909</v>
+        <v>1394706</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5232324</v>
+        <v>5195636</v>
       </c>
       <c r="E9" t="n">
-        <v>8359681</v>
+        <v>8301064</v>
       </c>
       <c r="F9" t="n">
-        <v>686.6002829654566</v>
+        <v>260.167021496978</v>
       </c>
       <c r="G9" t="n">
-        <v>529.1078090644716</v>
+        <v>535.6485667948399</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I9" t="n">
-        <v>102027</v>
+        <v>101649</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14270889</v>
+        <v>14249023</v>
       </c>
       <c r="E10" t="n">
-        <v>42055388</v>
+        <v>41990951</v>
       </c>
       <c r="F10" t="n">
-        <v>2845.227762104769</v>
+        <v>2850.250544328249</v>
       </c>
       <c r="G10" t="n">
-        <v>4952.216390575991</v>
+        <v>5047.74483258293</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="I10" t="n">
-        <v>820599</v>
+        <v>825978</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>124960952</v>
+        <v>125477576</v>
       </c>
       <c r="E11" t="n">
-        <v>489809518</v>
+        <v>491834526</v>
       </c>
       <c r="F11" t="n">
-        <v>63861.4774488738</v>
+        <v>70808.02886143135</v>
       </c>
       <c r="G11" t="n">
-        <v>57153.1569754407</v>
+        <v>54452.36653124844</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>30184912</v>
+        <v>30637786</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7475715</v>
+        <v>7335374</v>
       </c>
       <c r="E12" t="n">
-        <v>32141594</v>
+        <v>31530576</v>
       </c>
       <c r="F12" t="n">
-        <v>4313.996010833344</v>
+        <v>3536.320870140383</v>
       </c>
       <c r="G12" t="n">
-        <v>3542.597919281143</v>
+        <v>3244.233546806034</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I12" t="n">
-        <v>660665</v>
+        <v>673090</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1003246</v>
+        <v>1002375</v>
       </c>
       <c r="E13" t="n">
-        <v>12277019</v>
+        <v>12266365</v>
       </c>
       <c r="F13" t="n">
-        <v>271.045819784539</v>
+        <v>271.0775617544321</v>
       </c>
       <c r="G13" t="n">
-        <v>203.7867831214673</v>
+        <v>203.8106484367103</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2109.94</v>
+        <v>2109.43</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>565460</v>
+        <v>592193</v>
       </c>
       <c r="E14" t="n">
-        <v>565460</v>
+        <v>592193</v>
       </c>
       <c r="F14" t="n">
-        <v>63.85474396167882</v>
+        <v>547.3402895277446</v>
       </c>
       <c r="G14" t="n">
-        <v>448.0610353966924</v>
+        <v>145.0374882792668</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="I14" t="n">
-        <v>22213</v>
+        <v>22746</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>560654996</v>
+        <v>559230196</v>
       </c>
       <c r="E15" t="n">
-        <v>701296072</v>
+        <v>699513859</v>
       </c>
       <c r="F15" t="n">
-        <v>367557.6201467041</v>
+        <v>239054.8432128707</v>
       </c>
       <c r="G15" t="n">
-        <v>605249.5068155685</v>
+        <v>439983.9973821529</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>54845058</v>
+        <v>54359417</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3344746</v>
+        <v>3350142</v>
       </c>
       <c r="E16" t="n">
-        <v>9515506</v>
+        <v>9530856</v>
       </c>
       <c r="F16" t="n">
-        <v>180.4929137232996</v>
+        <v>185.8043806134333</v>
       </c>
       <c r="G16" t="n">
-        <v>79.86217474502179</v>
+        <v>74.81473464116529</v>
       </c>
       <c r="H16" t="n">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>132151</v>
+        <v>121926</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>326517</v>
+        <v>326159</v>
       </c>
       <c r="E17" t="n">
-        <v>3768750</v>
+        <v>3764613</v>
       </c>
       <c r="F17" t="n">
-        <v>5.334696209335825</v>
+        <v>5.435195576344863</v>
       </c>
       <c r="G17" t="n">
-        <v>3.731277965833897</v>
+        <v>4.732037759366597</v>
       </c>
       <c r="H17" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I17" t="n">
-        <v>4897.05</v>
+        <v>4897.83</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1343071</v>
+        <v>1339610</v>
       </c>
       <c r="E18" t="n">
-        <v>10302155</v>
+        <v>10275602</v>
       </c>
       <c r="F18" t="n">
-        <v>906.5527651335647</v>
+        <v>928.1765597779038</v>
       </c>
       <c r="G18" t="n">
-        <v>101.9343727557265</v>
+        <v>160.9760111178252</v>
       </c>
       <c r="H18" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="I18" t="n">
-        <v>150493</v>
+        <v>151376</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22297135</v>
+        <v>22522125</v>
       </c>
       <c r="E19" t="n">
-        <v>22338820</v>
+        <v>22564138</v>
       </c>
       <c r="F19" t="n">
-        <v>1110.082170780148</v>
+        <v>2043.371094526019</v>
       </c>
       <c r="G19" t="n">
-        <v>1439.983279758409</v>
+        <v>1649.679179260272</v>
       </c>
       <c r="H19" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="I19" t="n">
-        <v>854408</v>
+        <v>872438</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3868709</v>
+        <v>3865231</v>
       </c>
       <c r="E20" t="n">
-        <v>21465888</v>
+        <v>21446587</v>
       </c>
       <c r="F20" t="n">
-        <v>5.507363706677808</v>
+        <v>5.507733996191099</v>
       </c>
       <c r="G20" t="n">
-        <v>3.898222467079365</v>
+        <v>3.898484565422042</v>
       </c>
       <c r="H20" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>43631</v>
+        <v>43794</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6913537</v>
+        <v>6878995</v>
       </c>
       <c r="E21" t="n">
-        <v>12826069</v>
+        <v>12761986</v>
       </c>
       <c r="F21" t="n">
-        <v>272.3411110418805</v>
+        <v>399.109895234376</v>
       </c>
       <c r="G21" t="n">
-        <v>295.1138340598408</v>
+        <v>152.2744645924526</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>53211</v>
+        <v>52841</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72109312</v>
+        <v>71537622</v>
       </c>
       <c r="E22" t="n">
-        <v>124908768</v>
+        <v>123915517</v>
       </c>
       <c r="F22" t="n">
-        <v>793.1685227278714</v>
+        <v>288.2302861311695</v>
       </c>
       <c r="G22" t="n">
-        <v>600.6803885696261</v>
+        <v>1537.94833903953</v>
       </c>
       <c r="H22" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I22" t="n">
-        <v>735388</v>
+        <v>764097</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>179198</v>
+        <v>178719</v>
       </c>
       <c r="E23" t="n">
-        <v>538941</v>
+        <v>537500</v>
       </c>
       <c r="F23" t="n">
-        <v>202.0572526656083</v>
+        <v>202.0738864307322</v>
       </c>
       <c r="G23" t="n">
-        <v>5.340473201445742</v>
+        <v>5.276834702357998</v>
       </c>
       <c r="H23" t="n">
         <v>0.55</v>
       </c>
       <c r="I23" t="n">
-        <v>117.82</v>
+        <v>117.51</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82660906</v>
+        <v>82164949</v>
       </c>
       <c r="E24" t="n">
-        <v>243198638</v>
+        <v>241739471</v>
       </c>
       <c r="F24" t="n">
-        <v>555.4741844724377</v>
+        <v>431.731620027137</v>
       </c>
       <c r="G24" t="n">
-        <v>511.2841807580198</v>
+        <v>373.9888086343355</v>
       </c>
       <c r="H24" t="n">
         <v>0.77</v>
       </c>
       <c r="I24" t="n">
-        <v>388943</v>
+        <v>386760</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6763541</v>
+        <v>6872908</v>
       </c>
       <c r="F25" t="n">
-        <v>13.8256752974864</v>
+        <v>13.82675370846976</v>
       </c>
       <c r="G25" t="n">
-        <v>4.085691651782307</v>
+        <v>4.08601033818692</v>
       </c>
       <c r="H25" t="n">
         <v>0.43</v>
       </c>
       <c r="I25" t="n">
-        <v>27833</v>
+        <v>25572</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2435116</v>
+        <v>2441559</v>
       </c>
       <c r="E26" t="n">
-        <v>2435116</v>
+        <v>2441559</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>11.46</v>
+        <v>14.69</v>
       </c>
       <c r="I26" t="n">
-        <v>318701</v>
+        <v>322631</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18272446</v>
+        <v>18224453</v>
       </c>
       <c r="E27" t="n">
-        <v>23518138</v>
+        <v>23456367</v>
       </c>
       <c r="F27" t="n">
-        <v>801.8276627583025</v>
+        <v>3583.510141104448</v>
       </c>
       <c r="G27" t="n">
-        <v>3991.596906271928</v>
+        <v>2218.283109743475</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2066512</v>
+        <v>2099055</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4674854</v>
+        <v>4681450</v>
       </c>
       <c r="E28" t="n">
-        <v>4674854</v>
+        <v>4681450</v>
       </c>
       <c r="F28" t="n">
-        <v>993.2357862953245</v>
+        <v>792.8921502096316</v>
       </c>
       <c r="G28" t="n">
-        <v>1984.428851845113</v>
+        <v>1870.840607505745</v>
       </c>
       <c r="H28" t="n">
         <v>0.06</v>
       </c>
       <c r="I28" t="n">
-        <v>1998308</v>
+        <v>2011648</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1770327</v>
+        <v>1726867</v>
       </c>
       <c r="F29" t="n">
-        <v>49.49834410342156</v>
+        <v>10.32152905434124</v>
       </c>
       <c r="G29" t="n">
-        <v>68.99042404371556</v>
+        <v>20.00724655888281</v>
       </c>
       <c r="H29" t="n">
-        <v>2.37</v>
+        <v>3.79</v>
       </c>
       <c r="I29" t="n">
-        <v>167853</v>
+        <v>169682</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3356005</v>
+        <v>3421139</v>
       </c>
       <c r="E30" t="n">
-        <v>3356005</v>
+        <v>3421139</v>
       </c>
       <c r="F30" t="n">
-        <v>628.1237010804671</v>
+        <v>706.0015138653802</v>
       </c>
       <c r="G30" t="n">
-        <v>606.9779312623074</v>
+        <v>620.3452479111136</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="I30" t="n">
-        <v>529379</v>
+        <v>546509</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>315752</v>
+        <v>324105</v>
       </c>
       <c r="E31" t="n">
-        <v>1473961</v>
+        <v>1512953</v>
       </c>
       <c r="F31" t="n">
-        <v>9.614364178072469</v>
+        <v>288.3892495874814</v>
       </c>
       <c r="G31" t="n">
-        <v>71.06954884345048</v>
+        <v>63.73232412468224</v>
       </c>
       <c r="H31" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="I31" t="n">
-        <v>633837</v>
+        <v>645929</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>398007</v>
+        <v>396293</v>
       </c>
       <c r="E32" t="n">
-        <v>398007</v>
+        <v>396293</v>
       </c>
       <c r="F32" t="n">
-        <v>55.8049696927616</v>
+        <v>121.0912975015109</v>
       </c>
       <c r="G32" t="n">
-        <v>4.024519811611507</v>
+        <v>4.024845402961902</v>
       </c>
       <c r="H32" t="n">
-        <v>0.38</v>
+        <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>59257</v>
+        <v>59071</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1860319</v>
+        <v>1868761</v>
       </c>
       <c r="F33" t="n">
-        <v>52.39345513193737</v>
+        <v>162.4169396388335</v>
       </c>
       <c r="G33" t="n">
-        <v>10.01916011152077</v>
+        <v>9.949701192143054</v>
       </c>
       <c r="H33" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="I33" t="n">
-        <v>620488</v>
+        <v>1369690</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1581785</v>
+        <v>1595868</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7572692613957</v>
+        <v>741.8404964240776</v>
       </c>
       <c r="G34" t="n">
-        <v>189.1241955758351</v>
+        <v>359.9335866528102</v>
       </c>
       <c r="H34" t="n">
-        <v>0.63</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>190324</v>
+        <v>241070</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12856894</v>
+        <v>12874821</v>
       </c>
       <c r="E35" t="n">
-        <v>31998484</v>
+        <v>32043101</v>
       </c>
       <c r="F35" t="n">
-        <v>1017.422057579263</v>
+        <v>940.21740962502</v>
       </c>
       <c r="G35" t="n">
-        <v>1426.581383183596</v>
+        <v>1054.179717658076</v>
       </c>
       <c r="H35" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="I35" t="n">
-        <v>1598929</v>
+        <v>1594756</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6694949</v>
+        <v>6999821</v>
       </c>
       <c r="E36" t="n">
-        <v>9220655</v>
+        <v>9640542</v>
       </c>
       <c r="F36" t="n">
-        <v>338.0766170459503</v>
+        <v>1046.624182881225</v>
       </c>
       <c r="G36" t="n">
-        <v>107.322670973469</v>
+        <v>282.1825576106631</v>
       </c>
       <c r="H36" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="I36" t="n">
-        <v>836578</v>
+        <v>748597</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>928051</v>
+        <v>924116</v>
       </c>
       <c r="E37" t="n">
-        <v>6496357</v>
+        <v>6468816</v>
       </c>
       <c r="F37" t="n">
-        <v>330.5846270736567</v>
+        <v>324.3101502722945</v>
       </c>
       <c r="G37" t="n">
-        <v>623.4382441324252</v>
+        <v>2098.729656516703</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>176769</v>
+        <v>171511</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>111997668</v>
+        <v>110247188</v>
       </c>
       <c r="E38" t="n">
-        <v>435982758</v>
+        <v>429143750</v>
       </c>
       <c r="F38" t="n">
-        <v>15559.47841309368</v>
+        <v>8309.86554812973</v>
       </c>
       <c r="G38" t="n">
-        <v>26914.87633297387</v>
+        <v>31755.84002134111</v>
       </c>
       <c r="H38" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>7748362</v>
+        <v>7947578</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5329385</v>
+        <v>5250366</v>
       </c>
       <c r="E39" t="n">
-        <v>5584343</v>
+        <v>5501544</v>
       </c>
       <c r="F39" t="n">
-        <v>79.86552791126432</v>
+        <v>176.9037148100012</v>
       </c>
       <c r="G39" t="n">
-        <v>153.0697263054301</v>
+        <v>147.9637820237565</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I39" t="n">
-        <v>170386</v>
+        <v>172478</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5372069</v>
+        <v>5387506</v>
       </c>
       <c r="E40" t="n">
-        <v>7907977</v>
+        <v>7930700</v>
       </c>
       <c r="F40" t="n">
-        <v>1322.079262687434</v>
+        <v>1081.443959035214</v>
       </c>
       <c r="G40" t="n">
-        <v>2154.04892619997</v>
+        <v>2241.168630300454</v>
       </c>
       <c r="H40" t="n">
-        <v>0.68</v>
+        <v>1.01</v>
       </c>
       <c r="I40" t="n">
-        <v>631931</v>
+        <v>628235</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7672093</v>
+        <v>7669743</v>
       </c>
       <c r="E41" t="n">
-        <v>7672093</v>
+        <v>7669743</v>
       </c>
       <c r="F41" t="n">
-        <v>1705.495758851638</v>
+        <v>1682.621372972425</v>
       </c>
       <c r="G41" t="n">
-        <v>2390.513797525366</v>
+        <v>2193.061426581024</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I41" t="n">
-        <v>286276</v>
+        <v>246911</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1446944</v>
+        <v>1458072</v>
       </c>
       <c r="E42" t="n">
-        <v>1446944</v>
+        <v>1458072</v>
       </c>
       <c r="F42" t="n">
-        <v>158.6464624880045</v>
+        <v>429.6670424750153</v>
       </c>
       <c r="G42" t="n">
-        <v>151.5093957833076</v>
+        <v>61.62253669731411</v>
       </c>
       <c r="H42" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>275742</v>
+        <v>276850</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16540754</v>
+        <v>16545908</v>
       </c>
       <c r="F43" t="n">
-        <v>345.0771280935332</v>
+        <v>300.9117310362044</v>
       </c>
       <c r="G43" t="n">
-        <v>475.5756504001756</v>
+        <v>491.7793799780567</v>
       </c>
       <c r="H43" t="n">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="I43" t="n">
-        <v>10250.99</v>
+        <v>10254.72</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>136634851</v>
+        <v>136175177</v>
       </c>
       <c r="E44" t="n">
-        <v>136634851</v>
+        <v>136175177</v>
       </c>
       <c r="F44" t="n">
-        <v>386822.4465009772</v>
+        <v>353619.9887504452</v>
       </c>
       <c r="G44" t="n">
-        <v>339273.1562886819</v>
+        <v>312423.2052096049</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>66107956</v>
+        <v>66525957</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65008482</v>
+        <v>65047615</v>
       </c>
       <c r="E45" t="n">
-        <v>333376832</v>
+        <v>333577512</v>
       </c>
       <c r="F45" t="n">
-        <v>58077.75802976233</v>
+        <v>57258.16992878123</v>
       </c>
       <c r="G45" t="n">
-        <v>70033.74622712703</v>
+        <v>55111.60713377533</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>19153537</v>
+        <v>19350485</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>599378</v>
+        <v>595476</v>
       </c>
       <c r="F46" t="n">
-        <v>452.7730370721347</v>
+        <v>149.781851474068</v>
       </c>
       <c r="G46" t="n">
-        <v>293.1306777194803</v>
+        <v>685.4982313724303</v>
       </c>
       <c r="H46" t="n">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>893.3200000000001</v>
+        <v>1424.05</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2707317</v>
+        <v>2715809</v>
       </c>
       <c r="E47" t="n">
-        <v>10880091</v>
+        <v>10914218</v>
       </c>
       <c r="F47" t="n">
-        <v>716.557892072744</v>
+        <v>393.3088122730448</v>
       </c>
       <c r="G47" t="n">
-        <v>402.6420546323907</v>
+        <v>396.4362773327624</v>
       </c>
       <c r="H47" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>25332</v>
+        <v>28065</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17306460</v>
+        <v>17540396</v>
       </c>
       <c r="E48" t="n">
-        <v>121991630</v>
+        <v>123638895</v>
       </c>
       <c r="F48" t="n">
-        <v>554.0203344535513</v>
+        <v>467.7401394671268</v>
       </c>
       <c r="G48" t="n">
-        <v>3883.068885179189</v>
+        <v>503.6117838530122</v>
       </c>
       <c r="H48" t="n">
-        <v>0.16</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>1024831</v>
+        <v>1052909</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1026938</v>
+        <v>1032755</v>
       </c>
       <c r="E49" t="n">
-        <v>1205380</v>
+        <v>1212207</v>
       </c>
       <c r="F49" t="n">
-        <v>1233.568047314459</v>
+        <v>1378.464809981671</v>
       </c>
       <c r="G49" t="n">
-        <v>3482.276540222676</v>
+        <v>3523.579786269931</v>
       </c>
       <c r="H49" t="n">
-        <v>0.74</v>
+        <v>1.01</v>
       </c>
       <c r="I49" t="n">
-        <v>223433</v>
+        <v>216778</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>148273</v>
+        <v>147560</v>
       </c>
       <c r="E50" t="n">
-        <v>1983973</v>
+        <v>1974439</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46345</v>
+        <v>46135</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>254142088</v>
+        <v>253870462</v>
       </c>
       <c r="E51" t="n">
-        <v>254142088</v>
+        <v>253870462</v>
       </c>
       <c r="F51" t="n">
-        <v>32967.51687808792</v>
+        <v>24004.54763980388</v>
       </c>
       <c r="G51" t="n">
-        <v>28421.86249390384</v>
+        <v>43376.32286301516</v>
       </c>
       <c r="H51" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="I51" t="n">
-        <v>14924631</v>
+        <v>15008058</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1120156</v>
+        <v>1121373</v>
       </c>
       <c r="F52" t="n">
-        <v>28.33743265000768</v>
+        <v>28.33952399062245</v>
       </c>
       <c r="G52" t="n">
-        <v>641.9417551979556</v>
+        <v>641.9891313622519</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>189669</v>
+        <v>189792</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>116518</v>
+        <v>115801</v>
       </c>
       <c r="E54" t="n">
-        <v>116518</v>
+        <v>115801</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>72.83</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6780049</v>
+        <v>6780069</v>
       </c>
       <c r="E55" t="n">
-        <v>16468217</v>
+        <v>16468267</v>
       </c>
       <c r="F55" t="n">
-        <v>237.7261074406059</v>
+        <v>204.4648845997133</v>
       </c>
       <c r="G55" t="n">
-        <v>226.7662809761221</v>
+        <v>1437.604835646614</v>
       </c>
       <c r="H55" t="n">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>461592</v>
+        <v>461264</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>465400536</v>
+        <v>461687860</v>
       </c>
       <c r="E56" t="n">
-        <v>465400536</v>
+        <v>461687860</v>
       </c>
       <c r="F56" t="n">
-        <v>4055.050685571508</v>
+        <v>3040.412971011242</v>
       </c>
       <c r="G56" t="n">
-        <v>3261.729803133781</v>
+        <v>3913.274719527633</v>
       </c>
       <c r="H56" t="n">
         <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>3197915</v>
+        <v>3098417</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2404586</v>
+        <v>2393759</v>
       </c>
       <c r="E57" t="n">
-        <v>2404586</v>
+        <v>2393759</v>
       </c>
       <c r="F57" t="n">
-        <v>5.308931246073576</v>
+        <v>5.238896084554324</v>
       </c>
       <c r="G57" t="n">
-        <v>5.591750000206495</v>
+        <v>5.477994792774518</v>
       </c>
       <c r="H57" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>103775</v>
+        <v>59366</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>152309804</v>
+        <v>151503421</v>
       </c>
       <c r="E58" t="n">
-        <v>200421889</v>
+        <v>199360783</v>
       </c>
       <c r="F58" t="n">
-        <v>17021.42035743705</v>
+        <v>15213.46928105701</v>
       </c>
       <c r="G58" t="n">
-        <v>8548.425548210607</v>
+        <v>9322.210322652962</v>
       </c>
       <c r="H58" t="n">
         <v>0.4</v>
       </c>
       <c r="I58" t="n">
-        <v>7987522</v>
+        <v>7979571</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1115081</v>
+        <v>1115363</v>
       </c>
       <c r="E59" t="n">
-        <v>12118288</v>
+        <v>12121353</v>
       </c>
       <c r="F59" t="n">
-        <v>779.1713623366853</v>
+        <v>690.7199453868261</v>
       </c>
       <c r="G59" t="n">
-        <v>3.990306396375211</v>
+        <v>4.07595778193281</v>
       </c>
       <c r="H59" t="n">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="I59" t="n">
-        <v>29360</v>
+        <v>29364</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2537051</v>
+        <v>2542772</v>
       </c>
       <c r="E60" t="n">
-        <v>6486191</v>
+        <v>6500817</v>
       </c>
       <c r="F60" t="n">
-        <v>206.3032023687561</v>
+        <v>210.5925839890108</v>
       </c>
       <c r="G60" t="n">
-        <v>218.0569476236341</v>
+        <v>187.4285908906449</v>
       </c>
       <c r="H60" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>119239</v>
+        <v>118183</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>72875878</v>
+        <v>72635250</v>
       </c>
       <c r="E61" t="n">
-        <v>204004393</v>
+        <v>203330793</v>
       </c>
       <c r="F61" t="n">
-        <v>75444.47220109128</v>
+        <v>51882.03344950626</v>
       </c>
       <c r="G61" t="n">
-        <v>89314.98815182374</v>
+        <v>57187.77746208736</v>
       </c>
       <c r="H61" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I61" t="n">
-        <v>33236355</v>
+        <v>33819771</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>73759941</v>
+        <v>72983484</v>
       </c>
       <c r="E62" t="n">
-        <v>73759941</v>
+        <v>72983484</v>
       </c>
       <c r="F62" t="n">
-        <v>3974.818110816466</v>
+        <v>3000.061697595544</v>
       </c>
       <c r="G62" t="n">
-        <v>3610.339445724607</v>
+        <v>3685.48352042121</v>
       </c>
       <c r="H62" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I62" t="n">
-        <v>3968452</v>
+        <v>3992160</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4217531</v>
+        <v>4179150</v>
       </c>
       <c r="E63" t="n">
-        <v>8317325</v>
+        <v>8241636</v>
       </c>
       <c r="F63" t="n">
-        <v>1855.871094186256</v>
+        <v>2622.61692484147</v>
       </c>
       <c r="G63" t="n">
-        <v>1795.818547124313</v>
+        <v>2013.568049131425</v>
       </c>
       <c r="H63" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
       <c r="I63" t="n">
-        <v>1646658</v>
+        <v>1644913</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1580114</v>
+        <v>1571831</v>
       </c>
       <c r="E64" t="n">
-        <v>9072425</v>
+        <v>9024866</v>
       </c>
       <c r="F64" t="n">
-        <v>318.7837598487326</v>
+        <v>254.3672058895751</v>
       </c>
       <c r="G64" t="n">
-        <v>5.241587498106712</v>
+        <v>56.74407464464432</v>
       </c>
       <c r="H64" t="n">
-        <v>0.78</v>
+        <v>1.11</v>
       </c>
       <c r="I64" t="n">
-        <v>224719</v>
+        <v>335088</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>557946</v>
+        <v>536978</v>
       </c>
       <c r="F65" t="n">
-        <v>5.619272349722178</v>
+        <v>5.57948588162912</v>
       </c>
       <c r="G65" t="n">
-        <v>4.122702074641224</v>
+        <v>102.7414760601824</v>
       </c>
       <c r="H65" t="n">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="I65" t="n">
-        <v>1913.45</v>
+        <v>2023.57</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31868836</v>
+        <v>31823785</v>
       </c>
       <c r="F66" t="n">
-        <v>791.6904677647497</v>
+        <v>786.9807873496244</v>
       </c>
       <c r="G66" t="n">
-        <v>406.2336997645894</v>
+        <v>402.8572710056374</v>
       </c>
       <c r="H66" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I66" t="n">
-        <v>249083</v>
+        <v>249406</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>153706</v>
+        <v>157724</v>
       </c>
       <c r="E67" t="n">
-        <v>1037991</v>
+        <v>1065128</v>
       </c>
       <c r="F67" t="n">
-        <v>16.05196554682533</v>
+        <v>48.21907880534374</v>
       </c>
       <c r="G67" t="n">
-        <v>133.1118787557111</v>
+        <v>4.002124053978044</v>
       </c>
       <c r="H67" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="I67" t="n">
-        <v>2678346</v>
+        <v>2665597</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7605192</v>
+        <v>7612745</v>
       </c>
       <c r="E68" t="n">
-        <v>17911739</v>
+        <v>17929529</v>
       </c>
       <c r="F68" t="n">
-        <v>1124.286878757197</v>
+        <v>933.6892600997685</v>
       </c>
       <c r="G68" t="n">
-        <v>1520.491474512851</v>
+        <v>1538.700851328962</v>
       </c>
       <c r="H68" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="I68" t="n">
-        <v>36441</v>
+        <v>36079</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2955154</v>
+        <v>2982497</v>
       </c>
       <c r="E69" t="n">
-        <v>2955154</v>
+        <v>2982497</v>
       </c>
       <c r="F69" t="n">
-        <v>54.14886209096941</v>
+        <v>39.72348333495177</v>
       </c>
       <c r="G69" t="n">
-        <v>521.4388387415166</v>
+        <v>4.230798506313605</v>
       </c>
       <c r="H69" t="n">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
       <c r="I69" t="n">
-        <v>16222.53</v>
+        <v>17618.28</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3371014</v>
+        <v>3364741</v>
       </c>
       <c r="E70" t="n">
-        <v>8317806</v>
+        <v>8302327</v>
       </c>
       <c r="F70" t="n">
-        <v>1221.096211937591</v>
+        <v>1113.760922710514</v>
       </c>
       <c r="G70" t="n">
-        <v>1218.726342380605</v>
+        <v>1211.638690611266</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>52943</v>
+        <v>50197</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23178448</v>
+        <v>23186510</v>
       </c>
       <c r="F71" t="n">
-        <v>161.5398653914557</v>
+        <v>226.4999316971806</v>
       </c>
       <c r="G71" t="n">
-        <v>10.08908087752173</v>
+        <v>10.20684665642265</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="I71" t="n">
-        <v>115847</v>
+        <v>119329</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>269758</v>
+        <v>269561</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1775.28</v>
+        <v>1455.25</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>73594837</v>
+        <v>73059824</v>
       </c>
       <c r="E73" t="n">
-        <v>153482607</v>
+        <v>152366835</v>
       </c>
       <c r="F73" t="n">
-        <v>15791.2545902178</v>
+        <v>19701.17286080913</v>
       </c>
       <c r="G73" t="n">
-        <v>3483.016672708283</v>
+        <v>3479.265797327937</v>
       </c>
       <c r="H73" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="I73" t="n">
-        <v>14469500</v>
+        <v>14465124</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>209237031</v>
+        <v>205062716</v>
       </c>
       <c r="F75" t="n">
-        <v>28939.12785403245</v>
+        <v>8016.037274280039</v>
       </c>
       <c r="G75" t="n">
-        <v>8267.048744007769</v>
+        <v>10983.7498103638</v>
       </c>
       <c r="H75" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="I75" t="n">
-        <v>4655399</v>
+        <v>4694012</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>83978944</v>
+        <v>83154140</v>
       </c>
       <c r="E76" t="n">
-        <v>115316159</v>
+        <v>114183575</v>
       </c>
       <c r="F76" t="n">
-        <v>3498.956409629574</v>
+        <v>521.2053565518863</v>
       </c>
       <c r="G76" t="n">
-        <v>5255.820397178641</v>
+        <v>7247.976784261399</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I76" t="n">
-        <v>792344</v>
+        <v>989931</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>184882</v>
+        <v>179146</v>
       </c>
       <c r="E77" t="n">
-        <v>193069</v>
+        <v>187079</v>
       </c>
       <c r="F77" t="n">
-        <v>5.462191253068942</v>
+        <v>3.862698509777397</v>
       </c>
       <c r="G77" t="n">
-        <v>3.121928647175753</v>
+        <v>4.146587951210047</v>
       </c>
       <c r="H77" t="n">
         <v>0.93</v>
       </c>
       <c r="I77" t="n">
-        <v>432.54</v>
+        <v>460.89</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8030550</v>
+        <v>8295311</v>
       </c>
       <c r="E78" t="n">
-        <v>8834142</v>
+        <v>9125397</v>
       </c>
       <c r="F78" t="n">
-        <v>752.9659801678782</v>
+        <v>93.79347496428913</v>
       </c>
       <c r="G78" t="n">
-        <v>175.6891851540586</v>
+        <v>156.0464690036325</v>
       </c>
       <c r="H78" t="n">
-        <v>1.3</v>
+        <v>2.92</v>
       </c>
       <c r="I78" t="n">
-        <v>727603</v>
+        <v>748883</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28412776</v>
+        <v>28287180</v>
       </c>
       <c r="E79" t="n">
-        <v>28412776</v>
+        <v>28287180</v>
       </c>
       <c r="F79" t="n">
-        <v>503.2327498477805</v>
+        <v>513.5061480615792</v>
       </c>
       <c r="G79" t="n">
-        <v>95.04985676344565</v>
+        <v>785.2405530923827</v>
       </c>
       <c r="H79" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="I79" t="n">
-        <v>277634</v>
+        <v>269372</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>277682396</v>
+        <v>269819894</v>
       </c>
       <c r="E80" t="n">
-        <v>277682396</v>
+        <v>269819894</v>
       </c>
       <c r="F80" t="n">
-        <v>4733.004011080835</v>
+        <v>187.6508059372939</v>
       </c>
       <c r="G80" t="n">
-        <v>4949.169787990518</v>
+        <v>5813.586003679368</v>
       </c>
       <c r="H80" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="I80" t="n">
-        <v>10195013</v>
+        <v>10345519</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>630324930</v>
+        <v>630377242</v>
       </c>
       <c r="E81" t="n">
-        <v>630324930</v>
+        <v>630377242</v>
       </c>
       <c r="F81" t="n">
-        <v>1669421.528976881</v>
+        <v>1389522.02448432</v>
       </c>
       <c r="G81" t="n">
-        <v>1675054.642475044</v>
+        <v>2094243.965759404</v>
       </c>
       <c r="H81" t="n">
         <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>274499317</v>
+        <v>279056097</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>119222</v>
+        <v>118908</v>
       </c>
       <c r="E82" t="n">
-        <v>119222</v>
+        <v>118908</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>157.69</v>
+        <v>158.24</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>198140979</v>
+        <v>197831519</v>
       </c>
       <c r="E83" t="n">
-        <v>688359667</v>
+        <v>687284577</v>
       </c>
       <c r="F83" t="n">
-        <v>703.0536147037244</v>
+        <v>1456.286867746347</v>
       </c>
       <c r="G83" t="n">
-        <v>1542.197996085478</v>
+        <v>4036.457309321645</v>
       </c>
       <c r="H83" t="n">
         <v>0.32</v>
       </c>
       <c r="I83" t="n">
-        <v>25981231</v>
+        <v>25877054</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4077721</v>
+        <v>4112628</v>
       </c>
       <c r="E84" t="n">
-        <v>4077721</v>
+        <v>4112628</v>
       </c>
       <c r="F84" t="n">
-        <v>657.9871245159026</v>
+        <v>856.3228497848328</v>
       </c>
       <c r="G84" t="n">
-        <v>2064.147829207851</v>
+        <v>1629.015647940663</v>
       </c>
       <c r="H84" t="n">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
       <c r="I84" t="n">
-        <v>3583405</v>
+        <v>3521017</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>115284004</v>
+        <v>115604708</v>
       </c>
       <c r="E85" t="n">
-        <v>490293060</v>
+        <v>491605592</v>
       </c>
       <c r="F85" t="n">
-        <v>358075.3653053771</v>
+        <v>311596.9959032148</v>
       </c>
       <c r="G85" t="n">
-        <v>426788.780917046</v>
+        <v>460574.2368104214</v>
       </c>
       <c r="H85" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I85" t="n">
-        <v>14076530</v>
+        <v>14408637</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71359265</v>
+        <v>70905337</v>
       </c>
       <c r="E86" t="n">
-        <v>81875667</v>
+        <v>81354842</v>
       </c>
       <c r="F86" t="n">
-        <v>14492.35644522062</v>
+        <v>2132.532324267698</v>
       </c>
       <c r="G86" t="n">
-        <v>2607.295267673002</v>
+        <v>10732.48845836275</v>
       </c>
       <c r="H86" t="n">
         <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>1198870</v>
+        <v>1207764</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3117408</v>
+        <v>3130180</v>
       </c>
       <c r="E87" t="n">
-        <v>15629975</v>
+        <v>15694012</v>
       </c>
       <c r="F87" t="n">
-        <v>4.016491485182963</v>
+        <v>5.425125602859198</v>
       </c>
       <c r="G87" t="n">
-        <v>3.973643438164446</v>
+        <v>3.984136913239382</v>
       </c>
       <c r="H87" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>32266</v>
+        <v>33054</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>541996</v>
+        <v>542645</v>
       </c>
       <c r="E88" t="n">
-        <v>9270802</v>
+        <v>9281912</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9291770254899255</v>
+        <v>162.0852901357442</v>
       </c>
       <c r="G88" t="n">
-        <v>715.6566920849382</v>
+        <v>0.004007267181931575</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I88" t="n">
-        <v>271680</v>
+        <v>268019</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5678664</v>
+        <v>5780034</v>
       </c>
       <c r="E89" t="n">
-        <v>7715966</v>
+        <v>7853314</v>
       </c>
       <c r="F89" t="n">
-        <v>1072.839943987588</v>
+        <v>1149.839439757904</v>
       </c>
       <c r="G89" t="n">
-        <v>4.140783600982327</v>
+        <v>238.3587167482371</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I89" t="n">
-        <v>6090642</v>
+        <v>5978900</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40173799</v>
+        <v>39892229</v>
       </c>
       <c r="E90" t="n">
-        <v>46922043</v>
+        <v>46593177</v>
       </c>
       <c r="F90" t="n">
-        <v>768.3741600581766</v>
+        <v>3996.750326782254</v>
       </c>
       <c r="G90" t="n">
-        <v>50.95004192524146</v>
+        <v>152.5359218726866</v>
       </c>
       <c r="H90" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I90" t="n">
-        <v>859091</v>
+        <v>859635</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14540672</v>
+        <v>14445477</v>
       </c>
       <c r="F91" t="n">
-        <v>315.8963020642099</v>
+        <v>338.8319291628731</v>
       </c>
       <c r="G91" t="n">
-        <v>207.2819122538076</v>
+        <v>232.7506186580977</v>
       </c>
       <c r="H91" t="n">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
       <c r="I91" t="n">
-        <v>411521</v>
+        <v>397109</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35989604</v>
+        <v>35919588</v>
       </c>
       <c r="E92" t="n">
-        <v>35989604</v>
+        <v>35919588</v>
       </c>
       <c r="F92" t="n">
-        <v>61.26124276315893</v>
+        <v>3.84376773386598</v>
       </c>
       <c r="G92" t="n">
-        <v>418.5194880611591</v>
+        <v>682.3179272402292</v>
       </c>
       <c r="H92" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I92" t="n">
-        <v>765471</v>
+        <v>769548</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17371765</v>
+        <v>17364566</v>
       </c>
       <c r="F93" t="n">
-        <v>123.8039260234506</v>
+        <v>123.802321733775</v>
       </c>
       <c r="G93" t="n">
-        <v>282.6488278934015</v>
+        <v>478.2125786498384</v>
       </c>
       <c r="H93" t="n">
         <v>0.46</v>
       </c>
       <c r="I93" t="n">
-        <v>173780</v>
+        <v>171431</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>535108</v>
+        <v>534839</v>
       </c>
       <c r="E94" t="n">
-        <v>6490345</v>
+        <v>6487071</v>
       </c>
       <c r="F94" t="n">
-        <v>858.9862762875925</v>
+        <v>869.2497821826737</v>
       </c>
       <c r="G94" t="n">
-        <v>1093.632113122791</v>
+        <v>1040.95568001439</v>
       </c>
       <c r="H94" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I94" t="n">
-        <v>2772148</v>
+        <v>2777510</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24967161</v>
+        <v>25155798</v>
       </c>
       <c r="E95" t="n">
-        <v>35290107</v>
+        <v>35556739</v>
       </c>
       <c r="F95" t="n">
-        <v>21.01244540963062</v>
+        <v>14.72308986929635</v>
       </c>
       <c r="G95" t="n">
-        <v>1107.340320555943</v>
+        <v>42.30155988276891</v>
       </c>
       <c r="H95" t="n">
         <v>0.21</v>
       </c>
       <c r="I95" t="n">
-        <v>72294</v>
+        <v>71855</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1305643576</v>
+        <v>1286678364</v>
       </c>
       <c r="E96" t="n">
-        <v>6260828335</v>
+        <v>6169886259</v>
       </c>
       <c r="F96" t="n">
-        <v>482593.8594413574</v>
+        <v>430871.0371676369</v>
       </c>
       <c r="G96" t="n">
-        <v>526627.6361871753</v>
+        <v>446741.2376516729</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>179623156</v>
+        <v>181261021</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>267684764</v>
+        <v>266759091</v>
       </c>
       <c r="E97" t="n">
-        <v>1155476044</v>
+        <v>1151480327</v>
       </c>
       <c r="F97" t="n">
-        <v>121841.2008683368</v>
+        <v>112986.6119380906</v>
       </c>
       <c r="G97" t="n">
-        <v>872678.52526089</v>
+        <v>976818.0847133353</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>110585377</v>
+        <v>109677496</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5028826</v>
+        <v>4998854</v>
       </c>
       <c r="E98" t="n">
-        <v>5572941</v>
+        <v>5539726</v>
       </c>
       <c r="F98" t="n">
-        <v>801.5720885773454</v>
+        <v>1052.131625932765</v>
       </c>
       <c r="G98" t="n">
-        <v>299.5168470343858</v>
+        <v>277.9557108202417</v>
       </c>
       <c r="H98" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="I98" t="n">
-        <v>649189</v>
+        <v>640950</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>92081</v>
+        <v>92032</v>
       </c>
       <c r="E99" t="n">
-        <v>92081</v>
+        <v>92032</v>
       </c>
       <c r="F99" t="n">
-        <v>48.75891714807724</v>
+        <v>3.971642144448318</v>
       </c>
       <c r="G99" t="n">
-        <v>4.624822701779116</v>
+        <v>5.563591752908682</v>
       </c>
       <c r="H99" t="n">
         <v>0.86</v>
       </c>
       <c r="I99" t="n">
-        <v>5215.39</v>
+        <v>5212.62</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114747070</v>
+        <v>114833049</v>
       </c>
       <c r="E100" t="n">
-        <v>114747070</v>
+        <v>114833049</v>
       </c>
       <c r="F100" t="n">
-        <v>16028.20307697876</v>
+        <v>10170.95425798551</v>
       </c>
       <c r="G100" t="n">
-        <v>21987.90551494434</v>
+        <v>15147.61312827984</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6023208</v>
+        <v>6047027</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3760414</v>
+        <v>3773578</v>
       </c>
       <c r="F101" t="n">
-        <v>2046.928672907435</v>
+        <v>2002.45181192641</v>
       </c>
       <c r="G101" t="n">
-        <v>1133.373792161326</v>
+        <v>1159.808166585629</v>
       </c>
       <c r="H101" t="n">
         <v>0.64</v>
       </c>
       <c r="I101" t="n">
-        <v>304053</v>
+        <v>293675</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2046049220</v>
+        <v>2043989940</v>
       </c>
       <c r="E102" t="n">
-        <v>2046049220</v>
+        <v>2043989940</v>
       </c>
       <c r="F102" t="n">
-        <v>7503285.885406537</v>
+        <v>7497014.986106624</v>
       </c>
       <c r="G102" t="n">
-        <v>5476370.815397217</v>
+        <v>5450056.764471853</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5972819443</v>
+        <v>3052245619</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5352894</v>
+        <v>5354350</v>
       </c>
       <c r="E103" t="n">
-        <v>5358952</v>
+        <v>5360410</v>
       </c>
       <c r="F103" t="n">
-        <v>261.0350552375899</v>
+        <v>272.0845500014649</v>
       </c>
       <c r="G103" t="n">
-        <v>83.64979152153542</v>
+        <v>58.67921058466802</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I103" t="n">
-        <v>151398</v>
+        <v>151651</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2345576</v>
+        <v>2324631</v>
       </c>
       <c r="F104" t="n">
-        <v>5.109671263957443</v>
+        <v>5.189769399647565</v>
       </c>
       <c r="G104" t="n">
-        <v>240.7128188750442</v>
+        <v>296.2308610150517</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>62720</v>
+        <v>61683</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4373354</v>
+        <v>4394545</v>
       </c>
       <c r="E105" t="n">
-        <v>5741644</v>
+        <v>5769464</v>
       </c>
       <c r="F105" t="n">
-        <v>10881.30382301603</v>
+        <v>10880.28472389364</v>
       </c>
       <c r="G105" t="n">
-        <v>10986.71750431675</v>
+        <v>12632.77856249147</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>530443</v>
+        <v>506054</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19891323</v>
+        <v>19916702</v>
       </c>
       <c r="F106" t="n">
-        <v>959.9248750782168</v>
+        <v>908.0092155794144</v>
       </c>
       <c r="G106" t="n">
-        <v>90.2133777496306</v>
+        <v>131.3460952730867</v>
       </c>
       <c r="H106" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>117379</v>
+        <v>86211</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1355865</v>
+        <v>1357118</v>
       </c>
       <c r="E107" t="n">
-        <v>5055119</v>
+        <v>5059777</v>
       </c>
       <c r="F107" t="n">
-        <v>202.0555369419819</v>
+        <v>169.4815535779537</v>
       </c>
       <c r="G107" t="n">
-        <v>307.1406331267443</v>
+        <v>301.2984689994903</v>
       </c>
       <c r="H107" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I107" t="n">
-        <v>590416</v>
+        <v>578430</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4191453</v>
+        <v>4266668</v>
       </c>
       <c r="E108" t="n">
-        <v>12072738</v>
+        <v>12289368</v>
       </c>
       <c r="F108" t="n">
-        <v>2104.767507202108</v>
+        <v>1134.616332717171</v>
       </c>
       <c r="G108" t="n">
-        <v>89.16376295873388</v>
+        <v>104.244876007624</v>
       </c>
       <c r="H108" t="n">
-        <v>2.74</v>
+        <v>1.29</v>
       </c>
       <c r="I108" t="n">
-        <v>584211</v>
+        <v>599977</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80084737</v>
+        <v>80132131</v>
       </c>
       <c r="E109" t="n">
-        <v>101914052</v>
+        <v>101974364</v>
       </c>
       <c r="F109" t="n">
-        <v>3413.07420395362</v>
+        <v>3847.420311863829</v>
       </c>
       <c r="G109" t="n">
-        <v>710.4009136164005</v>
+        <v>280.5456891635424</v>
       </c>
       <c r="H109" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>6149883</v>
+        <v>6137178</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22434186</v>
+        <v>22558096</v>
       </c>
       <c r="E110" t="n">
-        <v>29102271</v>
+        <v>29263011</v>
       </c>
       <c r="F110" t="n">
-        <v>20125.64652070906</v>
+        <v>21758.01742312522</v>
       </c>
       <c r="G110" t="n">
-        <v>11847.72625483915</v>
+        <v>13125.8301415146</v>
       </c>
       <c r="H110" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I110" t="n">
-        <v>156583</v>
+        <v>162151</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>619722</v>
+        <v>623970</v>
       </c>
       <c r="E111" t="n">
-        <v>619722</v>
+        <v>623970</v>
       </c>
       <c r="F111" t="n">
-        <v>4.096780622354387</v>
+        <v>232.4256442833807</v>
       </c>
       <c r="G111" t="n">
-        <v>3.137498658674811</v>
+        <v>2.736101824905897</v>
       </c>
       <c r="H111" t="n">
-        <v>0.64</v>
+        <v>2.09</v>
       </c>
       <c r="I111" t="n">
-        <v>77989</v>
+        <v>78450</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14142331</v>
+        <v>13798266</v>
       </c>
       <c r="E112" t="n">
-        <v>14142331</v>
+        <v>13798266</v>
       </c>
       <c r="F112" t="n">
-        <v>3664.428776176781</v>
+        <v>2862.730844069067</v>
       </c>
       <c r="G112" t="n">
-        <v>3405.796817831488</v>
+        <v>4166.08741839812</v>
       </c>
       <c r="H112" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="I112" t="n">
-        <v>4688458</v>
+        <v>4713270</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98263937</v>
+        <v>97953133</v>
       </c>
       <c r="E113" t="n">
-        <v>121548974</v>
+        <v>121164520</v>
       </c>
       <c r="F113" t="n">
-        <v>108.2316668483995</v>
+        <v>117.704302111328</v>
       </c>
       <c r="G113" t="n">
-        <v>1581.976131483615</v>
+        <v>1483.726704301911</v>
       </c>
       <c r="H113" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="I113" t="n">
-        <v>785002</v>
+        <v>778217</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>826147</v>
+        <v>824736</v>
       </c>
       <c r="F114" t="n">
-        <v>209.680532310097</v>
+        <v>250.5523095777165</v>
       </c>
       <c r="G114" t="n">
-        <v>174.7159193673648</v>
+        <v>375.3376306276303</v>
       </c>
       <c r="H114" t="n">
-        <v>2.36</v>
+        <v>0.98</v>
       </c>
       <c r="I114" t="n">
-        <v>26383</v>
+        <v>26150</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2818569</v>
+        <v>2800759</v>
       </c>
       <c r="F115" t="n">
-        <v>244.0719037064065</v>
+        <v>53.26590372548205</v>
       </c>
       <c r="G115" t="n">
-        <v>260.5881057880035</v>
+        <v>3362.845222485036</v>
       </c>
       <c r="H115" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="I115" t="n">
-        <v>29388</v>
+        <v>27835</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10844957</v>
+        <v>11007118</v>
       </c>
       <c r="E116" t="n">
-        <v>15948464</v>
+        <v>16186936</v>
       </c>
       <c r="F116" t="n">
-        <v>4067.787901517589</v>
+        <v>4241.350273620168</v>
       </c>
       <c r="G116" t="n">
-        <v>6961.408007525319</v>
+        <v>1840.402570576095</v>
       </c>
       <c r="H116" t="n">
-        <v>0.49</v>
+        <v>0.01</v>
       </c>
       <c r="I116" t="n">
-        <v>413661</v>
+        <v>417868</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3232972</v>
+        <v>3225617</v>
       </c>
       <c r="F117" t="n">
-        <v>5.368787060317946</v>
+        <v>294.7272066346338</v>
       </c>
       <c r="G117" t="n">
-        <v>419.2644965262629</v>
+        <v>151.063107297825</v>
       </c>
       <c r="H117" t="n">
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
       <c r="I117" t="n">
-        <v>37249</v>
+        <v>37632</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1188621</v>
+        <v>1188982</v>
       </c>
       <c r="F118" t="n">
-        <v>4.032734988229956</v>
+        <v>4.058897006516307</v>
       </c>
       <c r="G118" t="n">
-        <v>5.425111550229831</v>
+        <v>285.1685555549523</v>
       </c>
       <c r="H118" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="I118" t="n">
-        <v>5427.51</v>
+        <v>5487.22</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5121980</v>
+        <v>5165289</v>
       </c>
       <c r="E119" t="n">
-        <v>7166392</v>
+        <v>7226988</v>
       </c>
       <c r="F119" t="n">
-        <v>1141.768177203481</v>
+        <v>439.9032784325931</v>
       </c>
       <c r="G119" t="n">
-        <v>602.4455156760563</v>
+        <v>1508.586831933624</v>
       </c>
       <c r="H119" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>108146</v>
+        <v>111296</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10233123</v>
+        <v>10186548</v>
       </c>
       <c r="E120" t="n">
-        <v>28186700</v>
+        <v>28058410</v>
       </c>
       <c r="F120" t="n">
-        <v>396.6464193545908</v>
+        <v>462.6842235059472</v>
       </c>
       <c r="G120" t="n">
-        <v>97.94135463002466</v>
+        <v>71.57498575818224</v>
       </c>
       <c r="H120" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="I120" t="n">
-        <v>346419</v>
+        <v>345268</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>52936094</v>
+        <v>51715606</v>
       </c>
       <c r="E121" t="n">
-        <v>134857725</v>
+        <v>131748464</v>
       </c>
       <c r="F121" t="n">
-        <v>508.2070086226805</v>
+        <v>1112.10138028272</v>
       </c>
       <c r="G121" t="n">
-        <v>11263.90559540478</v>
+        <v>11472.76636878102</v>
       </c>
       <c r="H121" t="n">
         <v>0.19</v>
       </c>
       <c r="I121" t="n">
-        <v>2448931</v>
+        <v>2466262</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13951005</v>
+        <v>13858852</v>
       </c>
       <c r="E122" t="n">
-        <v>67566944</v>
+        <v>67120630</v>
       </c>
       <c r="F122" t="n">
-        <v>2462.266059003975</v>
+        <v>5326.109189942196</v>
       </c>
       <c r="G122" t="n">
-        <v>3978.46028222485</v>
+        <v>3608.905562563928</v>
       </c>
       <c r="H122" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I122" t="n">
-        <v>3614988</v>
+        <v>3605038</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>503617</v>
+        <v>515160</v>
       </c>
       <c r="F123" t="n">
-        <v>5.409249564720236</v>
+        <v>5.410148886282657</v>
       </c>
       <c r="G123" t="n">
-        <v>3.938670715600983</v>
+        <v>3.939325544234686</v>
       </c>
       <c r="H123" t="n">
         <v>0.64</v>
       </c>
       <c r="I123" t="n">
-        <v>8419.68</v>
+        <v>8928.33</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4585532</v>
+        <v>4598255</v>
       </c>
       <c r="E124" t="n">
-        <v>10452517</v>
+        <v>10481518</v>
       </c>
       <c r="F124" t="n">
-        <v>799.3495327125917</v>
+        <v>457.1465059865642</v>
       </c>
       <c r="G124" t="n">
-        <v>1637.355179312926</v>
+        <v>2134.156812555296</v>
       </c>
       <c r="H124" t="n">
         <v>1.42</v>
       </c>
       <c r="I124" t="n">
-        <v>84795</v>
+        <v>91742</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1894939348</v>
+        <v>1904579257</v>
       </c>
       <c r="F125" t="n">
-        <v>75492.94684134754</v>
+        <v>69936.18079708857</v>
       </c>
       <c r="G125" t="n">
-        <v>73814.15695395082</v>
+        <v>76076.43429280304</v>
       </c>
       <c r="H125" t="n">
-        <v>0.74</v>
+        <v>0.99</v>
       </c>
       <c r="I125" t="n">
-        <v>26409401</v>
+        <v>26535532</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9351766</v>
+        <v>9364277</v>
       </c>
       <c r="E126" t="n">
-        <v>34049682</v>
+        <v>34095113</v>
       </c>
       <c r="F126" t="n">
-        <v>1162.25452265522</v>
+        <v>1162.149136094826</v>
       </c>
       <c r="G126" t="n">
-        <v>5.316559538467838</v>
+        <v>5.509133983072007</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>158087</v>
+        <v>156930</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>534262</v>
+        <v>534882</v>
       </c>
       <c r="F127" t="n">
-        <v>21.71720002264783</v>
+        <v>21.71952086929727</v>
       </c>
       <c r="G127" t="n">
-        <v>483.0602940964076</v>
+        <v>483.1119171815135</v>
       </c>
       <c r="H127" t="n">
         <v>0.64</v>
       </c>
       <c r="I127" t="n">
-        <v>1952.95</v>
+        <v>1132.02</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12235820</v>
+        <v>12337287</v>
       </c>
  